--- a/data/GreatLink/GreatLink International Health Care Fund.xlsx
+++ b/data/GreatLink/GreatLink International Health Care Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid215013"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid994388"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink International Health Care Fund.xlsx
+++ b/data/GreatLink/GreatLink International Health Care Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid994388"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid893681"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="673">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="701">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,21 +26,123 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>13/05/2024</t>
+  </si>
+  <si>
+    <t>1.019</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>10/05/2024</t>
+  </si>
+  <si>
+    <t>1.020</t>
+  </si>
+  <si>
+    <t>09/05/2024</t>
+  </si>
+  <si>
+    <t>1.005</t>
+  </si>
+  <si>
+    <t>08/05/2024</t>
+  </si>
+  <si>
+    <t>1.007</t>
+  </si>
+  <si>
+    <t>07/05/2024</t>
+  </si>
+  <si>
+    <t>1.010</t>
+  </si>
+  <si>
+    <t>06/05/2024</t>
+  </si>
+  <si>
+    <t>0.997</t>
+  </si>
+  <si>
+    <t>03/05/2024</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
+    <t>02/05/2024</t>
+  </si>
+  <si>
+    <t>0.991</t>
+  </si>
+  <si>
+    <t>30/04/2024</t>
+  </si>
+  <si>
+    <t>29/04/2024</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>26/04/2024</t>
+  </si>
+  <si>
+    <t>25/04/2024</t>
+  </si>
+  <si>
+    <t>24/04/2024</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>23/04/2024</t>
+  </si>
+  <si>
+    <t>1.001</t>
+  </si>
+  <si>
+    <t>22/04/2024</t>
+  </si>
+  <si>
+    <t>0.989</t>
+  </si>
+  <si>
+    <t>19/04/2024</t>
+  </si>
+  <si>
+    <t>0.982</t>
+  </si>
+  <si>
+    <t>18/04/2024</t>
+  </si>
+  <si>
+    <t>17/04/2024</t>
+  </si>
+  <si>
+    <t>0.984</t>
+  </si>
+  <si>
+    <t>16/04/2024</t>
+  </si>
+  <si>
+    <t>15/04/2024</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
     <t>12/04/2024</t>
   </si>
   <si>
     <t>0.988</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>11/04/2024</t>
   </si>
   <si>
-    <t>0.998</t>
-  </si>
-  <si>
     <t>09/04/2024</t>
   </si>
   <si>
@@ -56,9 +158,6 @@
     <t>05/04/2024</t>
   </si>
   <si>
-    <t>1.007</t>
-  </si>
-  <si>
     <t>04/04/2024</t>
   </si>
   <si>
@@ -134,15 +233,9 @@
     <t>14/03/2024</t>
   </si>
   <si>
-    <t>1.019</t>
-  </si>
-  <si>
     <t>13/03/2024</t>
   </si>
   <si>
-    <t>1.020</t>
-  </si>
-  <si>
     <t>12/03/2024</t>
   </si>
   <si>
@@ -221,9 +314,6 @@
     <t>13/02/2024</t>
   </si>
   <si>
-    <t>1.001</t>
-  </si>
-  <si>
     <t>09/02/2024</t>
   </si>
   <si>
@@ -233,9 +323,6 @@
     <t>08/02/2024</t>
   </si>
   <si>
-    <t>1.005</t>
-  </si>
-  <si>
     <t>07/02/2024</t>
   </si>
   <si>
@@ -249,9 +336,6 @@
   </si>
   <si>
     <t>02/02/2024</t>
-  </si>
-  <si>
-    <t>0.987</t>
   </si>
   <si>
     <t>01/02/2024</t>
@@ -2433,7 +2517,7 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2441,10 +2525,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2452,10 +2536,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2463,10 +2547,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2474,10 +2558,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2485,10 +2569,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2496,10 +2580,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2543,7 +2627,7 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2551,10 +2635,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2576,7 +2660,7 @@
         <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2584,10 +2668,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2595,10 +2679,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
         <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2606,10 +2690,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2617,10 +2701,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" t="s">
         <v>43</v>
-      </c>
-      <c r="B24" t="s">
-        <v>39</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2631,7 +2715,7 @@
         <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2639,10 +2723,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2650,10 +2734,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2675,7 +2759,7 @@
         <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2683,10 +2767,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
         <v>52</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2697,7 +2781,7 @@
         <v>53</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2705,10 +2789,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
         <v>54</v>
-      </c>
-      <c r="B32" t="s">
-        <v>41</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2716,10 +2800,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2727,10 +2811,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2738,10 +2822,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2749,10 +2833,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2760,10 +2844,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2771,10 +2855,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2782,10 +2866,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2793,10 +2877,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2804,10 +2888,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2815,10 +2899,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2826,10 +2910,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2837,10 +2921,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2848,10 +2932,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2859,10 +2943,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B46" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2870,10 +2954,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B47" t="s">
-        <v>11</v>
+        <v>78</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2881,10 +2965,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B48" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2892,10 +2976,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B49" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2903,10 +2987,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2914,10 +2998,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" t="s">
         <v>80</v>
-      </c>
-      <c r="B51" t="s">
-        <v>81</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -2925,10 +3009,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B52" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -2936,10 +3020,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B53" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -2947,10 +3031,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -2958,10 +3042,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -2969,10 +3053,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B56" t="s">
-        <v>90</v>
+        <v>66</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -2983,7 +3067,7 @@
         <v>91</v>
       </c>
       <c r="B57" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -2991,10 +3075,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" t="s">
         <v>93</v>
-      </c>
-      <c r="B58" t="s">
-        <v>94</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3002,10 +3086,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3013,10 +3097,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B60" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3024,10 +3108,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3035,10 +3119,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B62" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3046,10 +3130,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3057,10 +3141,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B64" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3068,10 +3152,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B65" t="s">
-        <v>102</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3079,10 +3163,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B66" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3090,10 +3174,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B67" t="s">
-        <v>107</v>
+        <v>45</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3101,10 +3185,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B68" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3112,10 +3196,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
+        <v>38</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3123,10 +3207,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B70" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3134,10 +3218,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B71" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3145,10 +3229,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B72" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3156,10 +3240,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3167,10 +3251,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3178,10 +3262,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B75" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3189,10 +3273,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="B76" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3200,10 +3284,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3211,10 +3295,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B78" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3222,10 +3306,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B79" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3233,10 +3317,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B80" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3244,10 +3328,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B81" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3255,10 +3339,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B82" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3266,10 +3350,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B83" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3277,10 +3361,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>111</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3288,10 +3372,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="B85" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3299,10 +3383,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B86" t="s">
-        <v>140</v>
+        <v>111</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3310,10 +3394,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B87" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3321,10 +3405,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B88" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3332,10 +3416,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B89" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3343,10 +3427,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B90" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3354,10 +3438,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B91" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3365,10 +3449,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="B92" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3376,10 +3460,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B93" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3387,10 +3471,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="B94" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3398,10 +3482,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B95" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3409,10 +3493,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B96" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3420,10 +3504,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B97" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3431,10 +3515,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B98" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3442,10 +3526,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B99" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3453,10 +3537,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B100" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3464,10 +3548,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B101" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3475,10 +3559,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B102" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3486,10 +3570,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B103" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3497,10 +3581,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="B104" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3508,10 +3592,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="B105" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3519,10 +3603,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="B106" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3530,10 +3614,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B107" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3541,10 +3625,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="B108" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3552,10 +3636,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>180</v>
+        <v>173</v>
       </c>
       <c r="B109" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3563,10 +3647,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="B110" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3574,10 +3658,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B111" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3585,10 +3669,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B112" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3596,10 +3680,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B113" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3607,10 +3691,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B114" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3618,10 +3702,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B115" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3629,10 +3713,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B116" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3640,10 +3724,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B117" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3651,10 +3735,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B118" t="s">
-        <v>154</v>
+        <v>189</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3662,10 +3746,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B119" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3673,10 +3757,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B120" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3684,10 +3768,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B121" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3695,10 +3779,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B122" t="s">
-        <v>150</v>
+        <v>197</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3706,10 +3790,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B123" t="s">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3717,10 +3801,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
+        <v>199</v>
+      </c>
+      <c r="B124" t="s">
         <v>200</v>
-      </c>
-      <c r="B124" t="s">
-        <v>201</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3728,10 +3812,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B125" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3739,10 +3823,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B126" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3750,10 +3834,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
+        <v>204</v>
+      </c>
+      <c r="B127" t="s">
         <v>205</v>
-      </c>
-      <c r="B127" t="s">
-        <v>206</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3761,10 +3845,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
+        <v>206</v>
+      </c>
+      <c r="B128" t="s">
         <v>207</v>
-      </c>
-      <c r="B128" t="s">
-        <v>123</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3775,7 +3859,7 @@
         <v>208</v>
       </c>
       <c r="B129" t="s">
-        <v>133</v>
+        <v>209</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3783,10 +3867,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B130" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3797,7 +3881,7 @@
         <v>211</v>
       </c>
       <c r="B131" t="s">
-        <v>212</v>
+        <v>184</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3805,10 +3889,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B132" t="s">
-        <v>181</v>
+        <v>197</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3816,10 +3900,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
+        <v>213</v>
+      </c>
+      <c r="B133" t="s">
         <v>214</v>
-      </c>
-      <c r="B133" t="s">
-        <v>169</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3830,7 +3914,7 @@
         <v>215</v>
       </c>
       <c r="B134" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3838,10 +3922,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
+        <v>216</v>
+      </c>
+      <c r="B135" t="s">
         <v>217</v>
-      </c>
-      <c r="B135" t="s">
-        <v>181</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3874,7 +3958,7 @@
         <v>222</v>
       </c>
       <c r="B138" t="s">
-        <v>150</v>
+        <v>182</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3885,7 +3969,7 @@
         <v>223</v>
       </c>
       <c r="B139" t="s">
-        <v>150</v>
+        <v>209</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3896,7 +3980,7 @@
         <v>224</v>
       </c>
       <c r="B140" t="s">
-        <v>142</v>
+        <v>203</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3907,7 +3991,7 @@
         <v>225</v>
       </c>
       <c r="B141" t="s">
-        <v>163</v>
+        <v>209</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3918,7 +4002,7 @@
         <v>226</v>
       </c>
       <c r="B142" t="s">
-        <v>227</v>
+        <v>178</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -3926,10 +4010,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B143" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -3937,10 +4021,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>228</v>
+      </c>
+      <c r="B144" t="s">
         <v>229</v>
-      </c>
-      <c r="B144" t="s">
-        <v>140</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -3951,7 +4035,7 @@
         <v>230</v>
       </c>
       <c r="B145" t="s">
-        <v>140</v>
+        <v>231</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -3959,10 +4043,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B146" t="s">
-        <v>232</v>
+        <v>163</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -3984,7 +4068,7 @@
         <v>235</v>
       </c>
       <c r="B148" t="s">
-        <v>232</v>
+        <v>151</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -3995,7 +4079,7 @@
         <v>236</v>
       </c>
       <c r="B149" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4006,7 +4090,7 @@
         <v>237</v>
       </c>
       <c r="B150" t="s">
-        <v>201</v>
+        <v>238</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4014,10 +4098,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B151" t="s">
-        <v>123</v>
+        <v>240</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4025,10 +4109,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B152" t="s">
-        <v>131</v>
+        <v>209</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4036,10 +4120,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B153" t="s">
-        <v>241</v>
+        <v>197</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4047,10 +4131,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B154" t="s">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4058,10 +4142,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B155" t="s">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4069,10 +4153,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B156" t="s">
-        <v>128</v>
+        <v>247</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4080,10 +4164,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B157" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4091,10 +4175,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4102,10 +4186,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
-        <v>133</v>
+        <v>178</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4113,10 +4197,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
-        <v>128</v>
+        <v>170</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4124,10 +4208,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
-        <v>144</v>
+        <v>191</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4135,10 +4219,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
-        <v>140</v>
+        <v>255</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4146,10 +4230,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B163" t="s">
-        <v>212</v>
+        <v>161</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4157,10 +4241,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="B164" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4168,10 +4252,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B165" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4179,10 +4263,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
-        <v>146</v>
+        <v>260</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4190,10 +4274,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="B167" t="s">
-        <v>241</v>
+        <v>262</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4201,10 +4285,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B168" t="s">
-        <v>201</v>
+        <v>260</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4212,10 +4296,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B169" t="s">
-        <v>135</v>
+        <v>229</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4223,10 +4307,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B170" t="s">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4234,10 +4318,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B171" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4245,10 +4329,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B172" t="s">
-        <v>232</v>
+        <v>159</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4256,10 +4340,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B173" t="s">
-        <v>219</v>
+        <v>269</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4267,10 +4351,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B174" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4278,10 +4362,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="B175" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4289,10 +4373,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>265</v>
+        <v>272</v>
       </c>
       <c r="B176" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4300,10 +4384,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
-        <v>175</v>
+        <v>234</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4311,10 +4395,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
-        <v>169</v>
+        <v>229</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4322,10 +4406,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="B179" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4333,10 +4417,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
       <c r="B180" t="s">
-        <v>175</v>
+        <v>156</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4344,10 +4428,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B181" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4355,10 +4439,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="B182" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4366,10 +4450,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>272</v>
+        <v>279</v>
       </c>
       <c r="B183" t="s">
-        <v>152</v>
+        <v>240</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4377,10 +4461,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>273</v>
+        <v>280</v>
       </c>
       <c r="B184" t="s">
-        <v>227</v>
+        <v>156</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4388,10 +4472,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B185" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4399,10 +4483,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B186" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4410,10 +4494,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B187" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4421,10 +4505,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="B188" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4432,10 +4516,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B189" t="s">
-        <v>280</v>
+        <v>163</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4443,10 +4527,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B190" t="s">
-        <v>282</v>
+        <v>159</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4454,10 +4538,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B191" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4465,10 +4549,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B192" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4476,10 +4560,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B193" t="s">
-        <v>287</v>
+        <v>247</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4487,10 +4571,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B194" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4498,10 +4582,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B195" t="s">
-        <v>291</v>
+        <v>205</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4509,10 +4593,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B196" t="s">
-        <v>293</v>
+        <v>182</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4523,7 +4607,7 @@
         <v>294</v>
       </c>
       <c r="B197" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4534,7 +4618,7 @@
         <v>295</v>
       </c>
       <c r="B198" t="s">
-        <v>277</v>
+        <v>197</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4545,7 +4629,7 @@
         <v>296</v>
       </c>
       <c r="B199" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4556,7 +4640,7 @@
         <v>297</v>
       </c>
       <c r="B200" t="s">
-        <v>298</v>
+        <v>203</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4564,10 +4648,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B201" t="s">
-        <v>298</v>
+        <v>193</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4575,10 +4659,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B202" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4586,10 +4670,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B203" t="s">
-        <v>158</v>
+        <v>180</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4597,10 +4681,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B204" t="s">
-        <v>175</v>
+        <v>255</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4608,10 +4692,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B205" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4619,10 +4703,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B206" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4630,10 +4714,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B207" t="s">
-        <v>169</v>
+        <v>305</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4641,10 +4725,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B208" t="s">
-        <v>175</v>
+        <v>291</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4652,10 +4736,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
+        <v>307</v>
+      </c>
+      <c r="B209" t="s">
         <v>308</v>
-      </c>
-      <c r="B209" t="s">
-        <v>169</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4666,7 +4750,7 @@
         <v>309</v>
       </c>
       <c r="B210" t="s">
-        <v>291</v>
+        <v>310</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4674,10 +4758,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B211" t="s">
-        <v>293</v>
+        <v>219</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4685,10 +4769,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B212" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4696,10 +4780,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B213" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4707,10 +4791,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B214" t="s">
-        <v>298</v>
+        <v>317</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4718,10 +4802,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B215" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4729,10 +4813,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="B216" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4740,10 +4824,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B217" t="s">
-        <v>165</v>
+        <v>244</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4751,10 +4835,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B218" t="s">
-        <v>318</v>
+        <v>305</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4762,10 +4846,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="B219" t="s">
-        <v>186</v>
+        <v>247</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4773,10 +4857,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="B220" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4784,10 +4868,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="B221" t="s">
-        <v>193</v>
+        <v>326</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4795,10 +4879,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="B222" t="s">
-        <v>186</v>
+        <v>329</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4806,10 +4890,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B223" t="s">
-        <v>287</v>
+        <v>186</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4817,10 +4901,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B224" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4828,10 +4912,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B225" t="s">
-        <v>298</v>
+        <v>184</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4839,10 +4923,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B226" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4850,10 +4934,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B227" t="s">
-        <v>167</v>
+        <v>197</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4861,10 +4945,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B228" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4872,10 +4956,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B229" t="s">
-        <v>301</v>
+        <v>197</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4883,10 +4967,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B230" t="s">
-        <v>172</v>
+        <v>319</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4894,10 +4978,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B231" t="s">
-        <v>167</v>
+        <v>321</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4905,10 +4989,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B232" t="s">
-        <v>165</v>
+        <v>305</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -4916,10 +5000,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B233" t="s">
-        <v>172</v>
+        <v>326</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -4927,10 +5011,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B234" t="s">
-        <v>172</v>
+        <v>326</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -4938,10 +5022,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B235" t="s">
-        <v>169</v>
+        <v>308</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -4949,10 +5033,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B236" t="s">
-        <v>301</v>
+        <v>329</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -4960,10 +5044,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B237" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -4971,10 +5055,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B238" t="s">
-        <v>177</v>
+        <v>346</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -4982,10 +5066,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="B239" t="s">
-        <v>169</v>
+        <v>214</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -4993,10 +5077,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="B240" t="s">
-        <v>175</v>
+        <v>349</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5004,10 +5088,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>342</v>
+        <v>350</v>
       </c>
       <c r="B241" t="s">
-        <v>165</v>
+        <v>221</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5015,10 +5099,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B242" t="s">
-        <v>301</v>
+        <v>214</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5026,10 +5110,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B243" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5037,10 +5121,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B244" t="s">
-        <v>158</v>
+        <v>319</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5048,10 +5132,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B245" t="s">
-        <v>144</v>
+        <v>326</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5059,10 +5143,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B246" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5070,10 +5154,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B247" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5081,10 +5165,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B248" t="s">
-        <v>175</v>
+        <v>247</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5092,10 +5176,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B249" t="s">
-        <v>158</v>
+        <v>329</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5103,10 +5187,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B250" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5114,10 +5198,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B251" t="s">
-        <v>161</v>
+        <v>195</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5125,10 +5209,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B252" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5136,10 +5220,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B253" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5147,10 +5231,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B254" t="s">
-        <v>172</v>
+        <v>200</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5158,10 +5242,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B255" t="s">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5169,10 +5253,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B256" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5180,10 +5264,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B257" t="s">
-        <v>291</v>
+        <v>203</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5191,10 +5275,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B258" t="s">
-        <v>360</v>
+        <v>205</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5202,10 +5286,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B259" t="s">
-        <v>321</v>
+        <v>197</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5213,10 +5297,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B260" t="s">
-        <v>363</v>
+        <v>203</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5224,10 +5308,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B261" t="s">
-        <v>365</v>
+        <v>193</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5235,10 +5319,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="B262" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5246,10 +5330,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B263" t="s">
-        <v>369</v>
+        <v>291</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5257,10 +5341,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B264" t="s">
-        <v>371</v>
+        <v>186</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5268,10 +5352,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B265" t="s">
-        <v>369</v>
+        <v>172</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5279,10 +5363,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B266" t="s">
-        <v>374</v>
+        <v>189</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5290,10 +5374,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B267" t="s">
-        <v>376</v>
+        <v>200</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5304,7 +5388,7 @@
         <v>377</v>
       </c>
       <c r="B268" t="s">
-        <v>369</v>
+        <v>203</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5315,7 +5399,7 @@
         <v>378</v>
       </c>
       <c r="B269" t="s">
-        <v>379</v>
+        <v>186</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5323,10 +5407,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B270" t="s">
-        <v>381</v>
+        <v>191</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5334,10 +5418,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B271" t="s">
-        <v>383</v>
+        <v>189</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5345,10 +5429,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B272" t="s">
-        <v>385</v>
+        <v>180</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5356,10 +5440,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B273" t="s">
-        <v>387</v>
+        <v>184</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5367,10 +5451,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B274" t="s">
-        <v>381</v>
+        <v>200</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5378,10 +5462,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B275" t="s">
-        <v>390</v>
+        <v>200</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5389,10 +5473,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B276" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5400,10 +5484,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B277" t="s">
-        <v>387</v>
+        <v>319</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5411,10 +5495,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B278" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5422,10 +5506,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B279" t="s">
-        <v>371</v>
+        <v>349</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5433,10 +5517,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B280" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5444,10 +5528,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B281" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5455,10 +5539,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B282" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5466,10 +5550,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="B283" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5477,10 +5561,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B284" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5488,10 +5572,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B285" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5499,10 +5583,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B286" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5510,10 +5594,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B287" t="s">
-        <v>371</v>
+        <v>404</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5521,10 +5605,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B288" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5532,10 +5616,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="B289" t="s">
-        <v>191</v>
+        <v>407</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5543,10 +5627,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B290" t="s">
-        <v>282</v>
+        <v>409</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5554,10 +5638,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="B291" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5565,10 +5649,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B292" t="s">
-        <v>189</v>
+        <v>413</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5576,10 +5660,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
+        <v>414</v>
+      </c>
+      <c r="B293" t="s">
         <v>415</v>
-      </c>
-      <c r="B293" t="s">
-        <v>282</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5590,7 +5674,7 @@
         <v>416</v>
       </c>
       <c r="B294" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5601,7 +5685,7 @@
         <v>417</v>
       </c>
       <c r="B295" t="s">
-        <v>397</v>
+        <v>418</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5609,10 +5693,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B296" t="s">
-        <v>419</v>
+        <v>402</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5623,7 +5707,7 @@
         <v>420</v>
       </c>
       <c r="B297" t="s">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5634,7 +5718,7 @@
         <v>421</v>
       </c>
       <c r="B298" t="s">
-        <v>289</v>
+        <v>422</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5642,10 +5726,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B299" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5653,10 +5737,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B300" t="s">
-        <v>365</v>
+        <v>425</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5664,10 +5748,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B301" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5675,10 +5759,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B302" t="s">
-        <v>410</v>
+        <v>415</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5686,10 +5770,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B303" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5697,10 +5781,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B304" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5708,10 +5792,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B305" t="s">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5719,10 +5803,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B306" t="s">
-        <v>365</v>
+        <v>435</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5730,10 +5814,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="B307" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5741,10 +5825,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B308" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5752,10 +5836,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B309" t="s">
-        <v>419</v>
+        <v>219</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5763,10 +5847,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B310" t="s">
-        <v>369</v>
+        <v>310</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5774,10 +5858,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B311" t="s">
-        <v>410</v>
+        <v>425</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5785,10 +5869,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B312" t="s">
-        <v>428</v>
+        <v>217</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5796,10 +5880,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B313" t="s">
-        <v>371</v>
+        <v>310</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5807,10 +5891,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B314" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5818,10 +5902,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B315" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5829,10 +5913,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B316" t="s">
-        <v>367</v>
+        <v>447</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5840,10 +5924,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>443</v>
+        <v>448</v>
       </c>
       <c r="B317" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5851,10 +5935,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="B318" t="s">
-        <v>397</v>
+        <v>317</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5862,10 +5946,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B319" t="s">
-        <v>367</v>
+        <v>425</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5873,10 +5957,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B320" t="s">
-        <v>447</v>
+        <v>393</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5884,10 +5968,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B321" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5895,10 +5979,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B322" t="s">
-        <v>363</v>
+        <v>438</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5906,10 +5990,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B323" t="s">
-        <v>189</v>
+        <v>456</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -5917,10 +6001,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B324" t="s">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -5928,10 +6012,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>454</v>
+        <v>459</v>
       </c>
       <c r="B325" t="s">
-        <v>363</v>
+        <v>453</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -5939,10 +6023,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B326" t="s">
-        <v>189</v>
+        <v>393</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -5950,10 +6034,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="B327" t="s">
-        <v>457</v>
+        <v>447</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -5961,10 +6045,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B328" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -5972,10 +6056,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B329" t="s">
-        <v>289</v>
+        <v>447</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -5983,10 +6067,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B330" t="s">
-        <v>189</v>
+        <v>397</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -5994,10 +6078,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="B331" t="s">
-        <v>280</v>
+        <v>438</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6005,10 +6089,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="B332" t="s">
-        <v>293</v>
+        <v>456</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6016,10 +6100,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="B333" t="s">
-        <v>158</v>
+        <v>399</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6027,10 +6111,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="B334" t="s">
-        <v>219</v>
+        <v>395</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6038,10 +6122,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="B335" t="s">
-        <v>158</v>
+        <v>456</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6049,10 +6133,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="B336" t="s">
-        <v>156</v>
+        <v>395</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6060,10 +6144,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B337" t="s">
-        <v>158</v>
+        <v>407</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6071,10 +6155,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="B338" t="s">
-        <v>301</v>
+        <v>425</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6082,10 +6166,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="B339" t="s">
-        <v>156</v>
+        <v>395</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6093,10 +6177,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="B340" t="s">
-        <v>175</v>
+        <v>475</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6104,10 +6188,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B341" t="s">
-        <v>150</v>
+        <v>477</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6115,10 +6199,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>473</v>
+        <v>478</v>
       </c>
       <c r="B342" t="s">
-        <v>227</v>
+        <v>391</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6126,10 +6210,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>474</v>
+        <v>479</v>
       </c>
       <c r="B343" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6137,10 +6221,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>475</v>
+        <v>480</v>
       </c>
       <c r="B344" t="s">
-        <v>175</v>
+        <v>481</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6148,10 +6232,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B345" t="s">
-        <v>181</v>
+        <v>391</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6159,10 +6243,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B346" t="s">
-        <v>163</v>
+        <v>217</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6170,10 +6254,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B347" t="s">
-        <v>167</v>
+        <v>485</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6181,10 +6265,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="B348" t="s">
-        <v>158</v>
+        <v>487</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6192,10 +6276,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B349" t="s">
-        <v>165</v>
+        <v>317</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6203,10 +6287,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>481</v>
+        <v>489</v>
       </c>
       <c r="B350" t="s">
-        <v>293</v>
+        <v>217</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6214,10 +6298,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B351" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6225,10 +6309,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>483</v>
+        <v>491</v>
       </c>
       <c r="B352" t="s">
-        <v>484</v>
+        <v>321</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6236,10 +6320,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>485</v>
+        <v>492</v>
       </c>
       <c r="B353" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6247,10 +6331,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>486</v>
+        <v>493</v>
       </c>
       <c r="B354" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6258,10 +6342,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>487</v>
+        <v>494</v>
       </c>
       <c r="B355" t="s">
-        <v>298</v>
+        <v>186</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6269,10 +6353,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>488</v>
+        <v>495</v>
       </c>
       <c r="B356" t="s">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6280,10 +6364,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="B357" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6291,10 +6375,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>490</v>
+        <v>497</v>
       </c>
       <c r="B358" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6302,10 +6386,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>491</v>
+        <v>498</v>
       </c>
       <c r="B359" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6313,10 +6397,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>492</v>
+        <v>499</v>
       </c>
       <c r="B360" t="s">
-        <v>280</v>
+        <v>203</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6324,10 +6408,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>493</v>
+        <v>500</v>
       </c>
       <c r="B361" t="s">
-        <v>459</v>
+        <v>178</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6335,10 +6419,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>494</v>
+        <v>501</v>
       </c>
       <c r="B362" t="s">
-        <v>193</v>
+        <v>255</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6346,10 +6430,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>495</v>
+        <v>502</v>
       </c>
       <c r="B363" t="s">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6357,10 +6441,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>496</v>
+        <v>503</v>
       </c>
       <c r="B364" t="s">
-        <v>277</v>
+        <v>203</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6368,10 +6452,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>497</v>
+        <v>504</v>
       </c>
       <c r="B365" t="s">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6379,10 +6463,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>498</v>
+        <v>505</v>
       </c>
       <c r="B366" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6390,10 +6474,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>499</v>
+        <v>506</v>
       </c>
       <c r="B367" t="s">
-        <v>285</v>
+        <v>195</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6401,10 +6485,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="B368" t="s">
-        <v>291</v>
+        <v>186</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6412,10 +6496,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="B369" t="s">
-        <v>280</v>
+        <v>193</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6423,10 +6507,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="B370" t="s">
-        <v>407</v>
+        <v>321</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6434,10 +6518,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="B371" t="s">
-        <v>376</v>
+        <v>326</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6445,10 +6529,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>504</v>
+        <v>511</v>
       </c>
       <c r="B372" t="s">
-        <v>379</v>
+        <v>512</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6456,10 +6540,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="B373" t="s">
-        <v>419</v>
+        <v>221</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6467,10 +6551,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B374" t="s">
-        <v>369</v>
+        <v>291</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6478,10 +6562,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="B375" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6489,10 +6573,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="B376" t="s">
-        <v>399</v>
+        <v>200</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6500,10 +6584,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B377" t="s">
-        <v>374</v>
+        <v>207</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6511,10 +6595,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="B378" t="s">
-        <v>385</v>
+        <v>319</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6522,10 +6606,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B379" t="s">
-        <v>512</v>
+        <v>205</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6533,10 +6617,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>513</v>
+        <v>520</v>
       </c>
       <c r="B380" t="s">
-        <v>381</v>
+        <v>308</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6544,10 +6628,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>514</v>
+        <v>521</v>
       </c>
       <c r="B381" t="s">
-        <v>425</v>
+        <v>487</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6555,10 +6639,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>515</v>
+        <v>522</v>
       </c>
       <c r="B382" t="s">
-        <v>453</v>
+        <v>221</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6566,10 +6650,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="B383" t="s">
-        <v>397</v>
+        <v>221</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6577,10 +6661,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>517</v>
+        <v>524</v>
       </c>
       <c r="B384" t="s">
-        <v>387</v>
+        <v>305</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6588,10 +6672,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>518</v>
+        <v>525</v>
       </c>
       <c r="B385" t="s">
-        <v>519</v>
+        <v>305</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6599,10 +6683,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B386" t="s">
-        <v>521</v>
+        <v>200</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6610,10 +6694,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B387" t="s">
-        <v>523</v>
+        <v>313</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6621,10 +6705,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B388" t="s">
-        <v>525</v>
+        <v>319</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6632,10 +6716,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B389" t="s">
-        <v>527</v>
+        <v>308</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6643,10 +6727,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B390" t="s">
-        <v>529</v>
+        <v>435</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6654,10 +6738,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B391" t="s">
-        <v>531</v>
+        <v>404</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6668,7 +6752,7 @@
         <v>532</v>
       </c>
       <c r="B392" t="s">
-        <v>533</v>
+        <v>407</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6676,10 +6760,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B393" t="s">
-        <v>535</v>
+        <v>447</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6687,10 +6771,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B394" t="s">
-        <v>376</v>
+        <v>397</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6698,10 +6782,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B395" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6709,10 +6793,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B396" t="s">
-        <v>369</v>
+        <v>427</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6720,7 +6804,7 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B397" t="s">
         <v>402</v>
@@ -6731,10 +6815,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B398" t="s">
-        <v>394</v>
+        <v>413</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6742,10 +6826,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B399" t="s">
-        <v>360</v>
+        <v>540</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6753,10 +6837,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B400" t="s">
-        <v>285</v>
+        <v>409</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6764,10 +6848,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B401" t="s">
-        <v>544</v>
+        <v>453</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6775,10 +6859,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B402" t="s">
-        <v>399</v>
+        <v>481</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6786,10 +6870,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B403" t="s">
-        <v>381</v>
+        <v>425</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6797,10 +6881,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B404" t="s">
-        <v>374</v>
+        <v>415</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6808,10 +6892,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B405" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6819,10 +6903,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B406" t="s">
-        <v>402</v>
+        <v>549</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -6830,10 +6914,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
+        <v>550</v>
+      </c>
+      <c r="B407" t="s">
         <v>551</v>
-      </c>
-      <c r="B407" t="s">
-        <v>552</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -6841,10 +6925,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
+        <v>552</v>
+      </c>
+      <c r="B408" t="s">
         <v>553</v>
-      </c>
-      <c r="B408" t="s">
-        <v>394</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -6866,7 +6950,7 @@
         <v>556</v>
       </c>
       <c r="B410" t="s">
-        <v>399</v>
+        <v>557</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -6874,10 +6958,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B411" t="s">
-        <v>285</v>
+        <v>559</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -6885,10 +6969,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B412" t="s">
-        <v>363</v>
+        <v>561</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -6896,10 +6980,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B413" t="s">
-        <v>410</v>
+        <v>563</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -6907,10 +6991,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="B414" t="s">
-        <v>561</v>
+        <v>404</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -6918,10 +7002,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B415" t="s">
-        <v>280</v>
+        <v>407</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -6929,10 +7013,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B416" t="s">
-        <v>459</v>
+        <v>397</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -6940,10 +7024,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="B417" t="s">
-        <v>291</v>
+        <v>430</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -6951,10 +7035,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="B418" t="s">
-        <v>263</v>
+        <v>422</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -6962,10 +7046,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
       <c r="B419" t="s">
-        <v>263</v>
+        <v>388</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -6973,10 +7057,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
       <c r="B420" t="s">
-        <v>280</v>
+        <v>313</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -6984,10 +7068,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
       <c r="B421" t="s">
-        <v>189</v>
+        <v>572</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -6995,10 +7079,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B422" t="s">
-        <v>193</v>
+        <v>427</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7006,10 +7090,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="B423" t="s">
-        <v>561</v>
+        <v>409</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7017,10 +7101,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B424" t="s">
-        <v>459</v>
+        <v>402</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7028,10 +7112,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="B425" t="s">
-        <v>287</v>
+        <v>577</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7039,10 +7123,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>573</v>
+        <v>578</v>
       </c>
       <c r="B426" t="s">
-        <v>280</v>
+        <v>430</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7050,10 +7134,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>574</v>
+        <v>579</v>
       </c>
       <c r="B427" t="s">
-        <v>193</v>
+        <v>580</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7061,10 +7145,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B428" t="s">
-        <v>291</v>
+        <v>422</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7072,10 +7156,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B429" t="s">
-        <v>172</v>
+        <v>583</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7083,10 +7167,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>577</v>
+        <v>584</v>
       </c>
       <c r="B430" t="s">
-        <v>156</v>
+        <v>427</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7094,10 +7178,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>578</v>
+        <v>585</v>
       </c>
       <c r="B431" t="s">
-        <v>172</v>
+        <v>313</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7105,10 +7189,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>579</v>
+        <v>586</v>
       </c>
       <c r="B432" t="s">
-        <v>484</v>
+        <v>391</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7116,10 +7200,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>580</v>
+        <v>587</v>
       </c>
       <c r="B433" t="s">
-        <v>193</v>
+        <v>438</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7127,10 +7211,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>581</v>
+        <v>588</v>
       </c>
       <c r="B434" t="s">
-        <v>287</v>
+        <v>589</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7138,10 +7222,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="B435" t="s">
-        <v>177</v>
+        <v>308</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7149,10 +7233,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="B436" t="s">
-        <v>285</v>
+        <v>487</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7160,10 +7244,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="B437" t="s">
-        <v>484</v>
+        <v>319</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7171,10 +7255,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="B438" t="s">
-        <v>544</v>
+        <v>291</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7182,10 +7266,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="B439" t="s">
-        <v>263</v>
+        <v>291</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7193,10 +7277,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="B440" t="s">
-        <v>447</v>
+        <v>308</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7204,10 +7288,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>588</v>
+        <v>596</v>
       </c>
       <c r="B441" t="s">
-        <v>449</v>
+        <v>217</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7215,10 +7299,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="B442" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7226,10 +7310,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>590</v>
+        <v>598</v>
       </c>
       <c r="B443" t="s">
-        <v>291</v>
+        <v>589</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7237,10 +7321,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="B444" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7248,10 +7332,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="B445" t="s">
-        <v>193</v>
+        <v>315</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7259,10 +7343,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B446" t="s">
-        <v>285</v>
+        <v>308</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7270,10 +7354,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="B447" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7281,10 +7365,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="B448" t="s">
-        <v>360</v>
+        <v>319</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7292,10 +7376,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="B449" t="s">
-        <v>428</v>
+        <v>200</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7303,10 +7387,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="B450" t="s">
-        <v>410</v>
+        <v>184</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7314,10 +7398,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>598</v>
+        <v>606</v>
       </c>
       <c r="B451" t="s">
-        <v>555</v>
+        <v>200</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7325,10 +7409,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="B452" t="s">
-        <v>453</v>
+        <v>512</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7336,10 +7420,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>600</v>
+        <v>608</v>
       </c>
       <c r="B453" t="s">
-        <v>397</v>
+        <v>221</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7347,10 +7431,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="B454" t="s">
-        <v>602</v>
+        <v>315</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7358,10 +7442,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>603</v>
+        <v>610</v>
       </c>
       <c r="B455" t="s">
-        <v>604</v>
+        <v>205</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7369,10 +7453,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="B456" t="s">
-        <v>606</v>
+        <v>313</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7380,10 +7464,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B457" t="s">
-        <v>608</v>
+        <v>512</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7391,10 +7475,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B458" t="s">
-        <v>610</v>
+        <v>572</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7402,10 +7486,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="B459" t="s">
-        <v>612</v>
+        <v>291</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7413,10 +7497,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B460" t="s">
-        <v>614</v>
+        <v>475</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7424,10 +7508,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B461" t="s">
-        <v>610</v>
+        <v>477</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7435,10 +7519,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="B462" t="s">
-        <v>617</v>
+        <v>217</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7449,7 +7533,7 @@
         <v>618</v>
       </c>
       <c r="B463" t="s">
-        <v>619</v>
+        <v>319</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7457,10 +7541,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B464" t="s">
-        <v>621</v>
+        <v>512</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7468,10 +7552,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="B465" t="s">
-        <v>555</v>
+        <v>221</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7479,10 +7563,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B466" t="s">
-        <v>425</v>
+        <v>313</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7490,10 +7574,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B467" t="s">
-        <v>379</v>
+        <v>219</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7501,10 +7585,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B468" t="s">
-        <v>379</v>
+        <v>388</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7512,10 +7596,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B469" t="s">
-        <v>367</v>
+        <v>456</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7523,10 +7607,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B470" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7534,10 +7618,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B471" t="s">
-        <v>371</v>
+        <v>583</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -7545,10 +7629,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B472" t="s">
-        <v>453</v>
+        <v>481</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -7556,10 +7640,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B473" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -7567,10 +7651,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B474" t="s">
-        <v>369</v>
+        <v>630</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -7578,10 +7662,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
+        <v>631</v>
+      </c>
+      <c r="B475" t="s">
         <v>632</v>
-      </c>
-      <c r="B475" t="s">
-        <v>404</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -7592,7 +7676,7 @@
         <v>633</v>
       </c>
       <c r="B476" t="s">
-        <v>369</v>
+        <v>634</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -7600,10 +7684,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="B477" t="s">
-        <v>555</v>
+        <v>636</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -7611,10 +7695,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B478" t="s">
-        <v>394</v>
+        <v>638</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -7622,10 +7706,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="B479" t="s">
-        <v>621</v>
+        <v>640</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -7633,10 +7717,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B480" t="s">
-        <v>621</v>
+        <v>642</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -7644,10 +7728,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
+        <v>643</v>
+      </c>
+      <c r="B481" t="s">
         <v>638</v>
-      </c>
-      <c r="B481" t="s">
-        <v>387</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -7655,10 +7739,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="B482" t="s">
-        <v>523</v>
+        <v>645</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -7666,10 +7750,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="B483" t="s">
-        <v>602</v>
+        <v>647</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -7677,10 +7761,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="B484" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -7688,10 +7772,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="B485" t="s">
-        <v>621</v>
+        <v>583</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -7699,10 +7783,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="B486" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -7710,10 +7794,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="B487" t="s">
-        <v>369</v>
+        <v>407</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -7721,10 +7805,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="B488" t="s">
-        <v>453</v>
+        <v>407</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -7732,10 +7816,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="B489" t="s">
-        <v>484</v>
+        <v>395</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -7743,10 +7827,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="B490" t="s">
-        <v>561</v>
+        <v>430</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -7754,10 +7838,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="B491" t="s">
-        <v>172</v>
+        <v>399</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -7765,10 +7849,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="B492" t="s">
-        <v>263</v>
+        <v>481</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -7776,10 +7860,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="B493" t="s">
-        <v>280</v>
+        <v>477</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -7787,10 +7871,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="B494" t="s">
-        <v>181</v>
+        <v>397</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -7798,10 +7882,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="B495" t="s">
-        <v>301</v>
+        <v>432</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -7809,10 +7893,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="B496" t="s">
-        <v>210</v>
+        <v>397</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -7820,10 +7904,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="B497" t="s">
-        <v>123</v>
+        <v>583</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -7831,10 +7915,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="B498" t="s">
-        <v>131</v>
+        <v>422</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -7842,10 +7926,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="B499" t="s">
-        <v>126</v>
+        <v>649</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -7853,10 +7937,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B500" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -7864,10 +7948,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="B501" t="s">
-        <v>121</v>
+        <v>415</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -7875,10 +7959,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>661</v>
+        <v>667</v>
       </c>
       <c r="B502" t="s">
-        <v>206</v>
+        <v>551</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -7886,10 +7970,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>662</v>
+        <v>668</v>
       </c>
       <c r="B503" t="s">
-        <v>663</v>
+        <v>630</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -7897,10 +7981,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>664</v>
+        <v>669</v>
       </c>
       <c r="B504" t="s">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -7908,10 +7992,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>666</v>
+        <v>671</v>
       </c>
       <c r="B505" t="s">
-        <v>665</v>
+        <v>649</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -7919,10 +8003,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="B506" t="s">
-        <v>668</v>
+        <v>399</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -7930,10 +8014,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B507" t="s">
-        <v>665</v>
+        <v>397</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -7941,10 +8025,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B508" t="s">
-        <v>671</v>
+        <v>481</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -7952,12 +8036,232 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="B509" t="s">
-        <v>671</v>
+        <v>512</v>
       </c>
       <c r="C509" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="s">
+        <v>676</v>
+      </c>
+      <c r="B510" t="s">
+        <v>589</v>
+      </c>
+      <c r="C510" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="s">
+        <v>677</v>
+      </c>
+      <c r="B511" t="s">
+        <v>200</v>
+      </c>
+      <c r="C511" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="s">
+        <v>678</v>
+      </c>
+      <c r="B512" t="s">
+        <v>291</v>
+      </c>
+      <c r="C512" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="s">
+        <v>679</v>
+      </c>
+      <c r="B513" t="s">
+        <v>308</v>
+      </c>
+      <c r="C513" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="s">
+        <v>680</v>
+      </c>
+      <c r="B514" t="s">
+        <v>209</v>
+      </c>
+      <c r="C514" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="s">
+        <v>681</v>
+      </c>
+      <c r="B515" t="s">
+        <v>329</v>
+      </c>
+      <c r="C515" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="s">
+        <v>682</v>
+      </c>
+      <c r="B516" t="s">
+        <v>238</v>
+      </c>
+      <c r="C516" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="s">
+        <v>683</v>
+      </c>
+      <c r="B517" t="s">
+        <v>151</v>
+      </c>
+      <c r="C517" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="s">
+        <v>684</v>
+      </c>
+      <c r="B518" t="s">
+        <v>159</v>
+      </c>
+      <c r="C518" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="s">
+        <v>685</v>
+      </c>
+      <c r="B519" t="s">
+        <v>154</v>
+      </c>
+      <c r="C519" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="s">
+        <v>686</v>
+      </c>
+      <c r="B520" t="s">
+        <v>687</v>
+      </c>
+      <c r="C520" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="s">
+        <v>688</v>
+      </c>
+      <c r="B521" t="s">
+        <v>149</v>
+      </c>
+      <c r="C521" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="s">
+        <v>689</v>
+      </c>
+      <c r="B522" t="s">
+        <v>234</v>
+      </c>
+      <c r="C522" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="s">
+        <v>690</v>
+      </c>
+      <c r="B523" t="s">
+        <v>691</v>
+      </c>
+      <c r="C523" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="s">
+        <v>692</v>
+      </c>
+      <c r="B524" t="s">
+        <v>693</v>
+      </c>
+      <c r="C524" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="s">
+        <v>694</v>
+      </c>
+      <c r="B525" t="s">
+        <v>693</v>
+      </c>
+      <c r="C525" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="s">
+        <v>695</v>
+      </c>
+      <c r="B526" t="s">
+        <v>696</v>
+      </c>
+      <c r="C526" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="s">
+        <v>697</v>
+      </c>
+      <c r="B527" t="s">
+        <v>693</v>
+      </c>
+      <c r="C527" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="s">
+        <v>698</v>
+      </c>
+      <c r="B528" t="s">
+        <v>699</v>
+      </c>
+      <c r="C528" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="s">
+        <v>700</v>
+      </c>
+      <c r="B529" t="s">
+        <v>699</v>
+      </c>
+      <c r="C529" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink International Health Care Fund.xlsx
+++ b/data/GreatLink/GreatLink International Health Care Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid893681"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid910714"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="730">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,120 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>10/06/2024</t>
+  </si>
+  <si>
+    <t>1.040</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>07/06/2024</t>
+  </si>
+  <si>
+    <t>1.035</t>
+  </si>
+  <si>
+    <t>06/06/2024</t>
+  </si>
+  <si>
+    <t>1.034</t>
+  </si>
+  <si>
+    <t>05/06/2024</t>
+  </si>
+  <si>
+    <t>1.030</t>
+  </si>
+  <si>
+    <t>04/06/2024</t>
+  </si>
+  <si>
+    <t>1.021</t>
+  </si>
+  <si>
+    <t>03/06/2024</t>
+  </si>
+  <si>
+    <t>1.015</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>1.017</t>
+  </si>
+  <si>
+    <t>30/05/2024</t>
+  </si>
+  <si>
+    <t>1.005</t>
+  </si>
+  <si>
+    <t>29/05/2024</t>
+  </si>
+  <si>
+    <t>28/05/2024</t>
+  </si>
+  <si>
+    <t>1.012</t>
+  </si>
+  <si>
+    <t>27/05/2024</t>
+  </si>
+  <si>
+    <t>1.025</t>
+  </si>
+  <si>
+    <t>24/05/2024</t>
+  </si>
+  <si>
+    <t>1.026</t>
+  </si>
+  <si>
+    <t>23/05/2024</t>
+  </si>
+  <si>
+    <t>1.031</t>
+  </si>
+  <si>
+    <t>21/05/2024</t>
+  </si>
+  <si>
+    <t>20/05/2024</t>
+  </si>
+  <si>
+    <t>1.036</t>
+  </si>
+  <si>
+    <t>17/05/2024</t>
+  </si>
+  <si>
+    <t>16/05/2024</t>
+  </si>
+  <si>
+    <t>1.033</t>
+  </si>
+  <si>
+    <t>15/05/2024</t>
+  </si>
+  <si>
+    <t>1.037</t>
+  </si>
+  <si>
+    <t>14/05/2024</t>
+  </si>
+  <si>
+    <t>1.024</t>
+  </si>
+  <si>
     <t>13/05/2024</t>
   </si>
   <si>
     <t>1.019</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>10/05/2024</t>
   </si>
   <si>
@@ -44,9 +149,6 @@
     <t>09/05/2024</t>
   </si>
   <si>
-    <t>1.005</t>
-  </si>
-  <si>
     <t>08/05/2024</t>
   </si>
   <si>
@@ -179,9 +281,6 @@
     <t>28/03/2024</t>
   </si>
   <si>
-    <t>1.037</t>
-  </si>
-  <si>
     <t>27/03/2024</t>
   </si>
   <si>
@@ -194,9 +293,6 @@
     <t>25/03/2024</t>
   </si>
   <si>
-    <t>1.025</t>
-  </si>
-  <si>
     <t>22/03/2024</t>
   </si>
   <si>
@@ -206,22 +302,13 @@
     <t>21/03/2024</t>
   </si>
   <si>
-    <t>1.026</t>
-  </si>
-  <si>
     <t>20/03/2024</t>
   </si>
   <si>
     <t>19/03/2024</t>
   </si>
   <si>
-    <t>1.024</t>
-  </si>
-  <si>
     <t>18/03/2024</t>
-  </si>
-  <si>
-    <t>1.017</t>
   </si>
   <si>
     <t>15/03/2024</t>
@@ -2550,7 +2637,7 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2572,7 +2659,7 @@
         <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2580,10 +2667,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2591,10 +2678,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2602,10 +2689,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2613,10 +2700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2624,10 +2711,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2638,7 +2725,7 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2646,10 +2733,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2657,10 +2744,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2668,10 +2755,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2679,10 +2766,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2690,10 +2777,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2701,10 +2788,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2712,10 +2799,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2723,10 +2810,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2734,10 +2821,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2745,10 +2832,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2756,10 +2843,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2767,10 +2854,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2778,10 +2865,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2789,10 +2876,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2800,10 +2887,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2811,10 +2898,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2822,10 +2909,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2833,10 +2920,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2844,10 +2931,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2855,10 +2942,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2866,10 +2953,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2877,10 +2964,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2888,10 +2975,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2899,10 +2986,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2910,10 +2997,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -2921,10 +3008,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>4</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -2932,10 +3019,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -2943,10 +3030,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -2954,10 +3041,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -2965,10 +3052,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -2976,10 +3063,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -2987,10 +3074,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -2998,10 +3085,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>36</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3009,10 +3096,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3020,10 +3107,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3031,10 +3118,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3042,10 +3129,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3053,10 +3140,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>66</v>
+        <v>93</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3064,10 +3151,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B57" t="s">
-        <v>80</v>
+        <v>38</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3075,10 +3162,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3086,10 +3173,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3097,10 +3184,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3108,10 +3195,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B61" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3119,10 +3206,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3130,10 +3217,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B63" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3141,10 +3228,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B64" t="s">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3152,10 +3239,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B65" t="s">
-        <v>9</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3163,10 +3250,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3174,10 +3261,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3185,10 +3272,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="B68" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3196,10 +3283,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B69" t="s">
-        <v>38</v>
+        <v>111</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3207,10 +3294,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>109</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3218,10 +3305,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="B71" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3229,7 +3316,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="B72" t="s">
         <v>111</v>
@@ -3240,10 +3327,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3251,10 +3338,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B74" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3262,10 +3349,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B75" t="s">
-        <v>116</v>
+        <v>38</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3273,10 +3360,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3284,10 +3371,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B77" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3295,10 +3382,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B78" t="s">
-        <v>122</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3306,10 +3393,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B79" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3317,10 +3404,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B80" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3331,7 +3418,7 @@
         <v>126</v>
       </c>
       <c r="B81" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3339,10 +3426,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B82" t="s">
-        <v>109</v>
+        <v>62</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3350,10 +3437,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
+        <v>128</v>
+      </c>
+      <c r="B83" t="s">
         <v>129</v>
-      </c>
-      <c r="B83" t="s">
-        <v>130</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3361,10 +3448,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B84" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3372,10 +3459,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B85" t="s">
-        <v>130</v>
+        <v>62</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3383,10 +3470,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B86" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3394,10 +3481,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>133</v>
+      </c>
+      <c r="B87" t="s">
         <v>134</v>
-      </c>
-      <c r="B87" t="s">
-        <v>135</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3405,10 +3492,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>72</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3416,10 +3503,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B89" t="s">
-        <v>139</v>
+        <v>74</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3427,10 +3514,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B90" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3438,10 +3525,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3449,10 +3536,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B92" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3460,10 +3547,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B93" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3471,10 +3558,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B94" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3482,10 +3569,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B95" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3493,10 +3580,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B96" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3504,7 +3591,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B97" t="s">
         <v>151</v>
@@ -3515,10 +3602,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B98" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3526,10 +3613,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B99" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3537,10 +3624,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B100" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3548,10 +3635,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B101" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3559,10 +3646,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B102" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3570,10 +3657,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B103" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3581,10 +3668,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B104" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3592,10 +3679,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B105" t="s">
-        <v>161</v>
+        <v>140</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3603,10 +3690,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B106" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3614,10 +3701,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B107" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3625,10 +3712,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B108" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3636,10 +3723,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B109" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3647,10 +3734,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B110" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3658,10 +3745,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B111" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3669,10 +3756,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B112" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3680,10 +3767,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B113" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3691,10 +3778,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B114" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3702,10 +3789,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B115" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3713,10 +3800,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B116" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3724,10 +3811,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B117" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3735,10 +3822,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B118" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3746,10 +3833,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B119" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3757,10 +3844,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B120" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3768,10 +3855,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B121" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3779,10 +3866,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B122" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3790,10 +3877,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B123" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3801,10 +3888,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B124" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3812,10 +3899,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B125" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3823,10 +3910,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B126" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3834,10 +3921,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B127" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3845,10 +3932,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B128" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3856,10 +3943,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B129" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3867,10 +3954,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B130" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3878,10 +3965,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B131" t="s">
-        <v>184</v>
+        <v>207</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3889,10 +3976,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B132" t="s">
-        <v>197</v>
+        <v>209</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3900,10 +3987,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B133" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3911,10 +3998,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B134" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -3922,10 +4009,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B135" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -3933,10 +4020,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B136" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -3944,10 +4031,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B137" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -3955,10 +4042,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B138" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -3966,10 +4053,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B139" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -3977,10 +4064,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>223</v>
+      </c>
+      <c r="B140" t="s">
         <v>224</v>
-      </c>
-      <c r="B140" t="s">
-        <v>203</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -3991,7 +4078,7 @@
         <v>225</v>
       </c>
       <c r="B141" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -3999,10 +4086,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B142" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4010,10 +4097,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B143" t="s">
-        <v>161</v>
+        <v>229</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4021,10 +4108,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B144" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4032,10 +4119,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B145" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4043,10 +4130,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B146" t="s">
-        <v>163</v>
+        <v>234</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4054,10 +4141,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B147" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4065,10 +4152,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B148" t="s">
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4076,10 +4163,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B149" t="s">
-        <v>161</v>
+        <v>226</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4087,10 +4174,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B150" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4098,10 +4185,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="B151" t="s">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4109,10 +4196,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B152" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4120,10 +4207,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B153" t="s">
-        <v>197</v>
+        <v>243</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4131,10 +4218,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="B154" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4142,10 +4229,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
-        <v>209</v>
+        <v>248</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4153,10 +4240,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B156" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4164,10 +4251,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B157" t="s">
-        <v>249</v>
+        <v>211</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4175,10 +4262,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B158" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4186,10 +4273,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B159" t="s">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4197,10 +4284,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B160" t="s">
-        <v>170</v>
+        <v>238</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4208,10 +4295,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B161" t="s">
-        <v>191</v>
+        <v>207</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4219,10 +4306,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B162" t="s">
-        <v>255</v>
+        <v>190</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4230,10 +4317,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B163" t="s">
-        <v>161</v>
+        <v>258</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4241,10 +4328,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B164" t="s">
-        <v>168</v>
+        <v>260</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4252,10 +4339,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B165" t="s">
-        <v>168</v>
+        <v>192</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4263,10 +4350,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="B166" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4274,10 +4361,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B167" t="s">
-        <v>262</v>
+        <v>180</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4285,10 +4372,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="B168" t="s">
-        <v>260</v>
+        <v>190</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4296,10 +4383,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B169" t="s">
-        <v>229</v>
+        <v>267</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4307,10 +4394,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B170" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4318,10 +4405,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B171" t="s">
-        <v>151</v>
+        <v>238</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4329,10 +4416,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B172" t="s">
-        <v>159</v>
+        <v>226</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4340,10 +4427,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B173" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4351,10 +4438,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B174" t="s">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4362,10 +4449,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B175" t="s">
-        <v>168</v>
+        <v>276</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4373,10 +4460,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="B176" t="s">
-        <v>156</v>
+        <v>278</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4384,10 +4471,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B177" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4395,10 +4482,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="B178" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4406,10 +4493,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B179" t="s">
-        <v>161</v>
+        <v>199</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4417,10 +4504,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="B180" t="s">
-        <v>156</v>
+        <v>220</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4428,10 +4515,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="B181" t="s">
-        <v>172</v>
+        <v>284</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4439,10 +4526,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B182" t="s">
-        <v>168</v>
+        <v>190</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4450,10 +4537,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B183" t="s">
-        <v>240</v>
+        <v>197</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4461,10 +4548,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B184" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4472,10 +4559,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B185" t="s">
-        <v>172</v>
+        <v>289</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4483,10 +4570,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="B186" t="s">
-        <v>174</v>
+        <v>291</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4494,10 +4581,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B187" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4505,10 +4592,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B188" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4516,10 +4603,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B189" t="s">
-        <v>163</v>
+        <v>258</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4527,10 +4614,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="B190" t="s">
-        <v>159</v>
+        <v>180</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4538,10 +4625,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B191" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4549,10 +4636,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="B192" t="s">
-        <v>260</v>
+        <v>298</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4560,10 +4647,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
+        <v>299</v>
+      </c>
+      <c r="B193" t="s">
         <v>289</v>
-      </c>
-      <c r="B193" t="s">
-        <v>247</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4571,10 +4658,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="B194" t="s">
-        <v>291</v>
+        <v>197</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4582,10 +4669,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B195" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4593,10 +4680,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
       <c r="B196" t="s">
-        <v>182</v>
+        <v>263</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4604,10 +4691,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B197" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4615,10 +4702,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
       <c r="B198" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4626,10 +4713,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B199" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4637,10 +4724,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="B200" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4648,10 +4735,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="B201" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4659,10 +4746,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B202" t="s">
-        <v>186</v>
+        <v>269</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4670,10 +4757,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B203" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4681,10 +4768,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B204" t="s">
-        <v>255</v>
+        <v>201</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4692,10 +4779,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B205" t="s">
-        <v>186</v>
+        <v>203</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4703,10 +4790,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B206" t="s">
-        <v>197</v>
+        <v>298</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4714,10 +4801,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B207" t="s">
-        <v>305</v>
+        <v>258</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4725,10 +4812,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="B208" t="s">
-        <v>291</v>
+        <v>192</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4736,10 +4823,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="B209" t="s">
-        <v>308</v>
+        <v>188</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4747,10 +4834,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="B210" t="s">
-        <v>310</v>
+        <v>197</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4758,10 +4845,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B211" t="s">
-        <v>219</v>
+        <v>289</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4769,10 +4856,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B212" t="s">
-        <v>313</v>
+        <v>276</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4780,10 +4867,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="B213" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4791,10 +4878,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="B214" t="s">
-        <v>317</v>
+        <v>234</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4802,10 +4889,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B215" t="s">
-        <v>319</v>
+        <v>211</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4813,10 +4900,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B216" t="s">
-        <v>321</v>
+        <v>232</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4824,10 +4911,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B217" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4835,10 +4922,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B218" t="s">
-        <v>305</v>
+        <v>224</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4846,10 +4933,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B219" t="s">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4857,10 +4944,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B220" t="s">
-        <v>326</v>
+        <v>222</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4868,10 +4955,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B221" t="s">
-        <v>326</v>
+        <v>215</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4879,10 +4966,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B222" t="s">
-        <v>329</v>
+        <v>209</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4893,7 +4980,7 @@
         <v>330</v>
       </c>
       <c r="B223" t="s">
-        <v>186</v>
+        <v>284</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4904,7 +4991,7 @@
         <v>331</v>
       </c>
       <c r="B224" t="s">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4915,7 +5002,7 @@
         <v>332</v>
       </c>
       <c r="B225" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -4926,7 +5013,7 @@
         <v>333</v>
       </c>
       <c r="B226" t="s">
-        <v>184</v>
+        <v>334</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -4934,10 +5021,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B227" t="s">
-        <v>197</v>
+        <v>320</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -4945,10 +5032,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B228" t="s">
-        <v>203</v>
+        <v>337</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -4956,10 +5043,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B229" t="s">
-        <v>197</v>
+        <v>339</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -4967,10 +5054,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B230" t="s">
-        <v>319</v>
+        <v>248</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -4978,10 +5065,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B231" t="s">
-        <v>321</v>
+        <v>342</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -4989,10 +5076,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B232" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5000,10 +5087,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="B233" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5011,10 +5098,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B234" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5022,10 +5109,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B235" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5033,10 +5120,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="B236" t="s">
-        <v>329</v>
+        <v>273</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5044,10 +5131,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B237" t="s">
-        <v>193</v>
+        <v>334</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5055,10 +5142,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B238" t="s">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5066,10 +5153,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
       <c r="B239" t="s">
-        <v>214</v>
+        <v>355</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5077,10 +5164,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B240" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5088,10 +5175,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B241" t="s">
-        <v>221</v>
+        <v>358</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5099,10 +5186,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B242" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5110,10 +5197,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B243" t="s">
-        <v>315</v>
+        <v>232</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5121,10 +5208,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B244" t="s">
-        <v>319</v>
+        <v>213</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5132,10 +5219,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B245" t="s">
-        <v>326</v>
+        <v>213</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5143,10 +5230,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B246" t="s">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5154,10 +5241,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="B247" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5165,10 +5252,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B248" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5176,10 +5263,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="B249" t="s">
-        <v>329</v>
+        <v>348</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5187,10 +5274,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B250" t="s">
-        <v>200</v>
+        <v>350</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5198,10 +5285,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="B251" t="s">
-        <v>195</v>
+        <v>334</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5209,10 +5296,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B252" t="s">
-        <v>193</v>
+        <v>355</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5220,10 +5307,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="B253" t="s">
-        <v>200</v>
+        <v>355</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5231,10 +5318,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B254" t="s">
-        <v>200</v>
+        <v>337</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5242,10 +5329,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B255" t="s">
-        <v>197</v>
+        <v>358</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5253,10 +5340,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B256" t="s">
-        <v>329</v>
+        <v>222</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5264,10 +5351,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B257" t="s">
-        <v>203</v>
+        <v>375</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5275,10 +5362,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B258" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5286,10 +5373,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="B259" t="s">
-        <v>197</v>
+        <v>378</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5297,10 +5384,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B260" t="s">
-        <v>203</v>
+        <v>250</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5308,10 +5395,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B261" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5319,10 +5406,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B262" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5330,10 +5417,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B263" t="s">
-        <v>291</v>
+        <v>348</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5341,10 +5428,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B264" t="s">
-        <v>186</v>
+        <v>355</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5352,10 +5439,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B265" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5363,10 +5450,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B266" t="s">
-        <v>189</v>
+        <v>224</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5374,10 +5461,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B267" t="s">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5385,10 +5472,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B268" t="s">
-        <v>203</v>
+        <v>358</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5396,10 +5483,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B269" t="s">
-        <v>186</v>
+        <v>229</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5407,10 +5494,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B270" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5418,10 +5505,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B271" t="s">
-        <v>189</v>
+        <v>222</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5429,10 +5516,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B272" t="s">
-        <v>180</v>
+        <v>229</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5440,10 +5527,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B273" t="s">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5451,10 +5538,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B274" t="s">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5462,10 +5549,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B275" t="s">
-        <v>200</v>
+        <v>358</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5473,10 +5560,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B276" t="s">
-        <v>305</v>
+        <v>232</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5484,10 +5571,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B277" t="s">
-        <v>319</v>
+        <v>234</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5495,10 +5582,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="B278" t="s">
-        <v>388</v>
+        <v>226</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5506,10 +5593,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B279" t="s">
-        <v>349</v>
+        <v>232</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5517,10 +5604,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>390</v>
+        <v>399</v>
       </c>
       <c r="B280" t="s">
-        <v>391</v>
+        <v>222</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5528,10 +5615,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="B281" t="s">
-        <v>393</v>
+        <v>358</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5539,10 +5626,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B282" t="s">
-        <v>395</v>
+        <v>320</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5550,10 +5637,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B283" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5561,10 +5648,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B284" t="s">
-        <v>399</v>
+        <v>201</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5572,10 +5659,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B285" t="s">
-        <v>397</v>
+        <v>218</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5583,10 +5670,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B286" t="s">
-        <v>402</v>
+        <v>229</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5594,10 +5681,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="B287" t="s">
-        <v>404</v>
+        <v>232</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5605,10 +5692,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B288" t="s">
-        <v>397</v>
+        <v>215</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5616,10 +5703,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B289" t="s">
-        <v>407</v>
+        <v>220</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5627,10 +5714,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B290" t="s">
-        <v>409</v>
+        <v>218</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5641,7 +5728,7 @@
         <v>410</v>
       </c>
       <c r="B291" t="s">
-        <v>411</v>
+        <v>209</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5649,10 +5736,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B292" t="s">
-        <v>413</v>
+        <v>213</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5660,10 +5747,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B293" t="s">
-        <v>415</v>
+        <v>229</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5671,10 +5758,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B294" t="s">
-        <v>409</v>
+        <v>229</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5682,10 +5769,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B295" t="s">
-        <v>418</v>
+        <v>334</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5693,10 +5780,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B296" t="s">
-        <v>402</v>
+        <v>348</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5704,10 +5791,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="B297" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5715,10 +5802,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B298" t="s">
-        <v>422</v>
+        <v>378</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5726,10 +5813,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B299" t="s">
-        <v>399</v>
+        <v>420</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5737,10 +5824,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="B300" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5748,10 +5835,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B301" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5759,10 +5846,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B302" t="s">
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5770,10 +5857,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B303" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5781,10 +5868,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B304" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5792,10 +5879,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B305" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5803,10 +5890,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B306" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5814,10 +5901,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B307" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5825,10 +5912,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B308" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5836,10 +5923,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B309" t="s">
-        <v>219</v>
+        <v>438</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5847,10 +5934,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
+        <v>439</v>
+      </c>
+      <c r="B310" t="s">
         <v>440</v>
-      </c>
-      <c r="B310" t="s">
-        <v>310</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5861,7 +5948,7 @@
         <v>441</v>
       </c>
       <c r="B311" t="s">
-        <v>425</v>
+        <v>442</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5869,10 +5956,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B312" t="s">
-        <v>217</v>
+        <v>444</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5880,10 +5967,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B313" t="s">
-        <v>310</v>
+        <v>438</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5891,10 +5978,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B314" t="s">
-        <v>388</v>
+        <v>447</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5902,10 +5989,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="B315" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -5913,10 +6000,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B316" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -5924,10 +6011,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B317" t="s">
-        <v>435</v>
+        <v>451</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -5935,10 +6022,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="B318" t="s">
-        <v>317</v>
+        <v>428</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -5946,10 +6033,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B319" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -5957,10 +6044,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B320" t="s">
-        <v>393</v>
+        <v>456</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -5968,10 +6055,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B321" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -5979,10 +6066,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B322" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -5990,10 +6077,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>455</v>
+        <v>460</v>
       </c>
       <c r="B323" t="s">
-        <v>456</v>
+        <v>461</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6001,10 +6088,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B324" t="s">
-        <v>458</v>
+        <v>426</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6012,10 +6099,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B325" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6023,10 +6110,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="B326" t="s">
-        <v>393</v>
+        <v>428</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6034,10 +6121,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B327" t="s">
-        <v>447</v>
+        <v>467</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6045,10 +6132,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B328" t="s">
-        <v>456</v>
+        <v>248</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6056,10 +6143,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="B329" t="s">
-        <v>447</v>
+        <v>339</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6067,10 +6154,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B330" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6078,10 +6165,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="B331" t="s">
-        <v>438</v>
+        <v>246</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6089,10 +6176,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B332" t="s">
-        <v>456</v>
+        <v>339</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6100,10 +6187,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B333" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6111,10 +6198,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B334" t="s">
-        <v>395</v>
+        <v>454</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6122,10 +6209,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="B335" t="s">
-        <v>456</v>
+        <v>476</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6133,10 +6220,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="B336" t="s">
-        <v>395</v>
+        <v>464</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6144,10 +6231,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="B337" t="s">
-        <v>407</v>
+        <v>346</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6155,10 +6242,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B338" t="s">
-        <v>425</v>
+        <v>454</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6166,10 +6253,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
       <c r="B339" t="s">
-        <v>395</v>
+        <v>422</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6177,10 +6264,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B340" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6188,10 +6275,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B341" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6199,10 +6286,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B342" t="s">
-        <v>391</v>
+        <v>485</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6210,10 +6297,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
       <c r="B343" t="s">
-        <v>217</v>
+        <v>487</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6221,10 +6308,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B344" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6232,10 +6319,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="B345" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6243,10 +6330,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
       <c r="B346" t="s">
-        <v>217</v>
+        <v>476</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6254,7 +6341,7 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="B347" t="s">
         <v>485</v>
@@ -6265,10 +6352,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B348" t="s">
-        <v>487</v>
+        <v>476</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6276,10 +6363,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="B349" t="s">
-        <v>317</v>
+        <v>426</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6287,10 +6374,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="B350" t="s">
-        <v>217</v>
+        <v>467</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6298,10 +6385,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="B351" t="s">
-        <v>308</v>
+        <v>485</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6309,10 +6396,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B352" t="s">
-        <v>321</v>
+        <v>428</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6320,10 +6407,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="B353" t="s">
-        <v>186</v>
+        <v>424</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6331,10 +6418,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="B354" t="s">
-        <v>247</v>
+        <v>485</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6342,10 +6429,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="B355" t="s">
-        <v>186</v>
+        <v>424</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6353,10 +6440,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="B356" t="s">
-        <v>184</v>
+        <v>436</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6364,10 +6451,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="B357" t="s">
-        <v>186</v>
+        <v>454</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6375,10 +6462,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="B358" t="s">
-        <v>329</v>
+        <v>424</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6386,10 +6473,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="B359" t="s">
-        <v>184</v>
+        <v>504</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6397,10 +6484,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B360" t="s">
-        <v>203</v>
+        <v>506</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6408,10 +6495,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="B361" t="s">
-        <v>178</v>
+        <v>420</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6419,10 +6506,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="B362" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6430,10 +6517,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="B363" t="s">
-        <v>238</v>
+        <v>510</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6441,10 +6528,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="B364" t="s">
-        <v>203</v>
+        <v>420</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6452,10 +6539,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="B365" t="s">
-        <v>209</v>
+        <v>246</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6463,10 +6550,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="B366" t="s">
-        <v>191</v>
+        <v>514</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6474,10 +6561,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="B367" t="s">
-        <v>195</v>
+        <v>516</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6485,10 +6572,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="B368" t="s">
-        <v>186</v>
+        <v>346</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6496,10 +6583,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="B369" t="s">
-        <v>193</v>
+        <v>246</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6507,10 +6594,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="B370" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6518,10 +6605,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="B371" t="s">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6529,10 +6616,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="B372" t="s">
-        <v>512</v>
+        <v>215</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6540,10 +6627,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>513</v>
+        <v>522</v>
       </c>
       <c r="B373" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6551,10 +6638,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>514</v>
+        <v>523</v>
       </c>
       <c r="B374" t="s">
-        <v>291</v>
+        <v>215</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6562,10 +6649,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>515</v>
+        <v>524</v>
       </c>
       <c r="B375" t="s">
-        <v>326</v>
+        <v>213</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6573,10 +6660,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>516</v>
+        <v>525</v>
       </c>
       <c r="B376" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6584,10 +6671,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>517</v>
+        <v>526</v>
       </c>
       <c r="B377" t="s">
-        <v>207</v>
+        <v>358</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6595,10 +6682,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>518</v>
+        <v>527</v>
       </c>
       <c r="B378" t="s">
-        <v>319</v>
+        <v>213</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6606,10 +6693,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>519</v>
+        <v>528</v>
       </c>
       <c r="B379" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6617,10 +6704,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>520</v>
+        <v>529</v>
       </c>
       <c r="B380" t="s">
-        <v>308</v>
+        <v>207</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6628,10 +6715,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>521</v>
+        <v>530</v>
       </c>
       <c r="B381" t="s">
-        <v>487</v>
+        <v>284</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6639,10 +6726,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>522</v>
+        <v>531</v>
       </c>
       <c r="B382" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6650,10 +6737,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>523</v>
+        <v>532</v>
       </c>
       <c r="B383" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6661,10 +6748,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>524</v>
+        <v>533</v>
       </c>
       <c r="B384" t="s">
-        <v>305</v>
+        <v>238</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6672,10 +6759,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>525</v>
+        <v>534</v>
       </c>
       <c r="B385" t="s">
-        <v>305</v>
+        <v>220</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6683,10 +6770,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>526</v>
+        <v>535</v>
       </c>
       <c r="B386" t="s">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6694,10 +6781,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>527</v>
+        <v>536</v>
       </c>
       <c r="B387" t="s">
-        <v>313</v>
+        <v>215</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6705,10 +6792,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>528</v>
+        <v>537</v>
       </c>
       <c r="B388" t="s">
-        <v>319</v>
+        <v>222</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6716,10 +6803,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>529</v>
+        <v>538</v>
       </c>
       <c r="B389" t="s">
-        <v>308</v>
+        <v>350</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6727,10 +6814,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>530</v>
+        <v>539</v>
       </c>
       <c r="B390" t="s">
-        <v>435</v>
+        <v>355</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6738,10 +6825,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>531</v>
+        <v>540</v>
       </c>
       <c r="B391" t="s">
-        <v>404</v>
+        <v>541</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6749,10 +6836,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="B392" t="s">
-        <v>407</v>
+        <v>250</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6760,10 +6847,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="B393" t="s">
-        <v>447</v>
+        <v>320</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6771,10 +6858,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="B394" t="s">
-        <v>397</v>
+        <v>355</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6782,10 +6869,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="B395" t="s">
-        <v>402</v>
+        <v>229</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6793,10 +6880,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="B396" t="s">
-        <v>427</v>
+        <v>236</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6804,10 +6891,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="B397" t="s">
-        <v>402</v>
+        <v>348</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6815,10 +6902,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="B398" t="s">
-        <v>413</v>
+        <v>234</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6826,10 +6913,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="B399" t="s">
-        <v>540</v>
+        <v>337</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6837,10 +6924,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>541</v>
+        <v>550</v>
       </c>
       <c r="B400" t="s">
-        <v>409</v>
+        <v>516</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6848,10 +6935,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>542</v>
+        <v>551</v>
       </c>
       <c r="B401" t="s">
-        <v>453</v>
+        <v>250</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6859,10 +6946,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>543</v>
+        <v>552</v>
       </c>
       <c r="B402" t="s">
-        <v>481</v>
+        <v>250</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6870,10 +6957,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>544</v>
+        <v>553</v>
       </c>
       <c r="B403" t="s">
-        <v>425</v>
+        <v>334</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6881,10 +6968,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="B404" t="s">
-        <v>415</v>
+        <v>334</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6892,10 +6979,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B405" t="s">
-        <v>547</v>
+        <v>229</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6903,10 +6990,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>548</v>
+        <v>556</v>
       </c>
       <c r="B406" t="s">
-        <v>549</v>
+        <v>342</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -6914,10 +7001,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B407" t="s">
-        <v>551</v>
+        <v>348</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -6925,10 +7012,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B408" t="s">
-        <v>553</v>
+        <v>337</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -6936,10 +7023,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>554</v>
+        <v>559</v>
       </c>
       <c r="B409" t="s">
-        <v>555</v>
+        <v>464</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -6947,10 +7034,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="B410" t="s">
-        <v>557</v>
+        <v>433</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -6958,10 +7045,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B411" t="s">
-        <v>559</v>
+        <v>436</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -6969,10 +7056,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B412" t="s">
-        <v>561</v>
+        <v>476</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -6980,10 +7067,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B413" t="s">
-        <v>563</v>
+        <v>426</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -6994,7 +7081,7 @@
         <v>564</v>
       </c>
       <c r="B414" t="s">
-        <v>404</v>
+        <v>431</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7005,7 +7092,7 @@
         <v>565</v>
       </c>
       <c r="B415" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7016,7 +7103,7 @@
         <v>566</v>
       </c>
       <c r="B416" t="s">
-        <v>397</v>
+        <v>431</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7027,7 +7114,7 @@
         <v>567</v>
       </c>
       <c r="B417" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7038,7 +7125,7 @@
         <v>568</v>
       </c>
       <c r="B418" t="s">
-        <v>422</v>
+        <v>569</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7046,10 +7133,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B419" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7057,10 +7144,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B420" t="s">
-        <v>313</v>
+        <v>482</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7068,10 +7155,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B421" t="s">
-        <v>572</v>
+        <v>510</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7082,7 +7169,7 @@
         <v>573</v>
       </c>
       <c r="B422" t="s">
-        <v>427</v>
+        <v>454</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7093,7 +7180,7 @@
         <v>574</v>
       </c>
       <c r="B423" t="s">
-        <v>409</v>
+        <v>444</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7104,7 +7191,7 @@
         <v>575</v>
       </c>
       <c r="B424" t="s">
-        <v>402</v>
+        <v>576</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7112,10 +7199,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B425" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7123,10 +7210,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B426" t="s">
-        <v>430</v>
+        <v>580</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7134,10 +7221,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B427" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7145,10 +7232,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B428" t="s">
-        <v>422</v>
+        <v>584</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7156,10 +7243,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
       <c r="B429" t="s">
-        <v>583</v>
+        <v>586</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7167,10 +7254,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>584</v>
+        <v>587</v>
       </c>
       <c r="B430" t="s">
-        <v>427</v>
+        <v>588</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7178,10 +7265,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B431" t="s">
-        <v>313</v>
+        <v>590</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7189,10 +7276,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>586</v>
+        <v>591</v>
       </c>
       <c r="B432" t="s">
-        <v>391</v>
+        <v>592</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7200,10 +7287,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="B433" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7211,10 +7298,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="B434" t="s">
-        <v>589</v>
+        <v>436</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7222,10 +7309,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B435" t="s">
-        <v>308</v>
+        <v>426</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7233,10 +7320,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>591</v>
+        <v>596</v>
       </c>
       <c r="B436" t="s">
-        <v>487</v>
+        <v>459</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7244,10 +7331,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="B437" t="s">
-        <v>319</v>
+        <v>451</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7255,10 +7342,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="B438" t="s">
-        <v>291</v>
+        <v>417</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7266,10 +7353,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="B439" t="s">
-        <v>291</v>
+        <v>342</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7277,10 +7364,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="B440" t="s">
-        <v>308</v>
+        <v>601</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7288,10 +7375,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="B441" t="s">
-        <v>217</v>
+        <v>456</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7299,10 +7386,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B442" t="s">
-        <v>221</v>
+        <v>438</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7310,10 +7397,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="B443" t="s">
-        <v>589</v>
+        <v>431</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7321,10 +7408,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B444" t="s">
-        <v>487</v>
+        <v>606</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7332,10 +7419,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>600</v>
+        <v>607</v>
       </c>
       <c r="B445" t="s">
-        <v>315</v>
+        <v>459</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7343,10 +7430,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>601</v>
+        <v>608</v>
       </c>
       <c r="B446" t="s">
-        <v>308</v>
+        <v>609</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7354,10 +7441,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>602</v>
+        <v>610</v>
       </c>
       <c r="B447" t="s">
-        <v>221</v>
+        <v>451</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7365,10 +7452,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="B448" t="s">
-        <v>319</v>
+        <v>612</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7376,10 +7463,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>604</v>
+        <v>613</v>
       </c>
       <c r="B449" t="s">
-        <v>200</v>
+        <v>456</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7387,10 +7474,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>605</v>
+        <v>614</v>
       </c>
       <c r="B450" t="s">
-        <v>184</v>
+        <v>342</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7398,10 +7485,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>606</v>
+        <v>615</v>
       </c>
       <c r="B451" t="s">
-        <v>200</v>
+        <v>420</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7409,10 +7496,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>607</v>
+        <v>616</v>
       </c>
       <c r="B452" t="s">
-        <v>512</v>
+        <v>467</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7420,10 +7507,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="B453" t="s">
-        <v>221</v>
+        <v>618</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7431,10 +7518,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="B454" t="s">
-        <v>315</v>
+        <v>337</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7442,10 +7529,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="B455" t="s">
-        <v>205</v>
+        <v>516</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7453,10 +7540,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="B456" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7464,10 +7551,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="B457" t="s">
-        <v>512</v>
+        <v>320</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7475,10 +7562,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="B458" t="s">
-        <v>572</v>
+        <v>320</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7486,10 +7573,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="B459" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7497,10 +7584,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B460" t="s">
-        <v>475</v>
+        <v>246</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7508,10 +7595,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="B461" t="s">
-        <v>477</v>
+        <v>250</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7519,10 +7606,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
       <c r="B462" t="s">
-        <v>217</v>
+        <v>618</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7530,10 +7617,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="B463" t="s">
-        <v>319</v>
+        <v>516</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7541,10 +7628,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
       <c r="B464" t="s">
-        <v>512</v>
+        <v>344</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7552,10 +7639,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="B465" t="s">
-        <v>221</v>
+        <v>337</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7563,10 +7650,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
       <c r="B466" t="s">
-        <v>313</v>
+        <v>250</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7574,10 +7661,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="B467" t="s">
-        <v>219</v>
+        <v>348</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7585,10 +7672,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="B468" t="s">
-        <v>388</v>
+        <v>229</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7596,10 +7683,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="B469" t="s">
-        <v>456</v>
+        <v>213</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7607,10 +7694,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="B470" t="s">
-        <v>438</v>
+        <v>229</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7618,10 +7705,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="B471" t="s">
-        <v>583</v>
+        <v>541</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -7629,10 +7716,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="B472" t="s">
-        <v>481</v>
+        <v>250</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -7640,10 +7727,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="B473" t="s">
-        <v>425</v>
+        <v>344</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -7651,10 +7738,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
       <c r="B474" t="s">
-        <v>630</v>
+        <v>234</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -7662,10 +7749,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>631</v>
+        <v>640</v>
       </c>
       <c r="B475" t="s">
-        <v>632</v>
+        <v>342</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -7673,10 +7760,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>633</v>
+        <v>641</v>
       </c>
       <c r="B476" t="s">
-        <v>634</v>
+        <v>541</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -7684,10 +7771,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="B477" t="s">
-        <v>636</v>
+        <v>601</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -7695,10 +7782,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="B478" t="s">
-        <v>638</v>
+        <v>320</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -7706,10 +7793,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>639</v>
+        <v>644</v>
       </c>
       <c r="B479" t="s">
-        <v>640</v>
+        <v>504</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -7717,10 +7804,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B480" t="s">
-        <v>642</v>
+        <v>506</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -7728,10 +7815,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="B481" t="s">
-        <v>638</v>
+        <v>246</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -7739,10 +7826,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="B482" t="s">
-        <v>645</v>
+        <v>348</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -7750,10 +7837,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B483" t="s">
-        <v>647</v>
+        <v>541</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -7761,10 +7848,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B484" t="s">
-        <v>649</v>
+        <v>250</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -7775,7 +7862,7 @@
         <v>650</v>
       </c>
       <c r="B485" t="s">
-        <v>583</v>
+        <v>342</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -7786,7 +7873,7 @@
         <v>651</v>
       </c>
       <c r="B486" t="s">
-        <v>453</v>
+        <v>248</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -7797,7 +7884,7 @@
         <v>652</v>
       </c>
       <c r="B487" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -7808,7 +7895,7 @@
         <v>653</v>
       </c>
       <c r="B488" t="s">
-        <v>407</v>
+        <v>485</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -7819,7 +7906,7 @@
         <v>654</v>
       </c>
       <c r="B489" t="s">
-        <v>395</v>
+        <v>467</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -7830,7 +7917,7 @@
         <v>655</v>
       </c>
       <c r="B490" t="s">
-        <v>430</v>
+        <v>612</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -7841,7 +7928,7 @@
         <v>656</v>
       </c>
       <c r="B491" t="s">
-        <v>399</v>
+        <v>510</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -7852,7 +7939,7 @@
         <v>657</v>
       </c>
       <c r="B492" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -7863,7 +7950,7 @@
         <v>658</v>
       </c>
       <c r="B493" t="s">
-        <v>477</v>
+        <v>659</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -7871,10 +7958,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B494" t="s">
-        <v>397</v>
+        <v>661</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -7882,10 +7969,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B495" t="s">
-        <v>432</v>
+        <v>663</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -7893,10 +7980,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="B496" t="s">
-        <v>397</v>
+        <v>665</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -7904,10 +7991,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B497" t="s">
-        <v>583</v>
+        <v>667</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -7915,10 +8002,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B498" t="s">
-        <v>422</v>
+        <v>669</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -7926,10 +8013,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>664</v>
+        <v>670</v>
       </c>
       <c r="B499" t="s">
-        <v>649</v>
+        <v>671</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -7937,10 +8024,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>665</v>
+        <v>672</v>
       </c>
       <c r="B500" t="s">
-        <v>649</v>
+        <v>667</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -7948,10 +8035,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>666</v>
+        <v>673</v>
       </c>
       <c r="B501" t="s">
-        <v>415</v>
+        <v>674</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -7959,10 +8046,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>667</v>
+        <v>675</v>
       </c>
       <c r="B502" t="s">
-        <v>551</v>
+        <v>676</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -7970,10 +8057,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="B503" t="s">
-        <v>630</v>
+        <v>678</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -7981,10 +8068,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="B504" t="s">
-        <v>670</v>
+        <v>612</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -7992,10 +8079,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="B505" t="s">
-        <v>649</v>
+        <v>482</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8003,10 +8090,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="B506" t="s">
-        <v>399</v>
+        <v>436</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8014,10 +8101,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="B507" t="s">
-        <v>397</v>
+        <v>436</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8025,10 +8112,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="B508" t="s">
-        <v>481</v>
+        <v>424</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8036,10 +8123,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="B509" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8047,10 +8134,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="B510" t="s">
-        <v>589</v>
+        <v>428</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8058,10 +8145,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="B511" t="s">
-        <v>200</v>
+        <v>510</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8069,10 +8156,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="B512" t="s">
-        <v>291</v>
+        <v>506</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8080,10 +8167,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="B513" t="s">
-        <v>308</v>
+        <v>426</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8091,10 +8178,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>680</v>
+        <v>689</v>
       </c>
       <c r="B514" t="s">
-        <v>209</v>
+        <v>461</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8102,10 +8189,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
       <c r="B515" t="s">
-        <v>329</v>
+        <v>426</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8113,10 +8200,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="B516" t="s">
-        <v>238</v>
+        <v>612</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8124,10 +8211,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>683</v>
+        <v>692</v>
       </c>
       <c r="B517" t="s">
-        <v>151</v>
+        <v>451</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8135,10 +8222,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>684</v>
+        <v>693</v>
       </c>
       <c r="B518" t="s">
-        <v>159</v>
+        <v>678</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8146,10 +8233,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>685</v>
+        <v>694</v>
       </c>
       <c r="B519" t="s">
-        <v>154</v>
+        <v>678</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8157,10 +8244,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>686</v>
+        <v>695</v>
       </c>
       <c r="B520" t="s">
-        <v>687</v>
+        <v>444</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8168,10 +8255,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="B521" t="s">
-        <v>149</v>
+        <v>580</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8179,10 +8266,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>689</v>
+        <v>697</v>
       </c>
       <c r="B522" t="s">
-        <v>234</v>
+        <v>659</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8190,10 +8277,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="B523" t="s">
-        <v>691</v>
+        <v>699</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8201,10 +8288,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="B524" t="s">
-        <v>693</v>
+        <v>678</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8212,10 +8299,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="B525" t="s">
-        <v>693</v>
+        <v>428</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8223,10 +8310,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="B526" t="s">
-        <v>696</v>
+        <v>426</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8234,10 +8321,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>697</v>
+        <v>703</v>
       </c>
       <c r="B527" t="s">
-        <v>693</v>
+        <v>510</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8245,10 +8332,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>698</v>
+        <v>704</v>
       </c>
       <c r="B528" t="s">
-        <v>699</v>
+        <v>541</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8256,12 +8343,221 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>700</v>
+        <v>705</v>
       </c>
       <c r="B529" t="s">
-        <v>699</v>
+        <v>618</v>
       </c>
       <c r="C529" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="s">
+        <v>706</v>
+      </c>
+      <c r="B530" t="s">
+        <v>229</v>
+      </c>
+      <c r="C530" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="s">
+        <v>707</v>
+      </c>
+      <c r="B531" t="s">
+        <v>320</v>
+      </c>
+      <c r="C531" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="s">
+        <v>708</v>
+      </c>
+      <c r="B532" t="s">
+        <v>337</v>
+      </c>
+      <c r="C532" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="s">
+        <v>709</v>
+      </c>
+      <c r="B533" t="s">
+        <v>238</v>
+      </c>
+      <c r="C533" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="s">
+        <v>710</v>
+      </c>
+      <c r="B534" t="s">
+        <v>358</v>
+      </c>
+      <c r="C534" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="s">
+        <v>711</v>
+      </c>
+      <c r="B535" t="s">
+        <v>267</v>
+      </c>
+      <c r="C535" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="s">
+        <v>712</v>
+      </c>
+      <c r="B536" t="s">
+        <v>180</v>
+      </c>
+      <c r="C536" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="s">
+        <v>713</v>
+      </c>
+      <c r="B537" t="s">
+        <v>188</v>
+      </c>
+      <c r="C537" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="s">
+        <v>714</v>
+      </c>
+      <c r="B538" t="s">
+        <v>183</v>
+      </c>
+      <c r="C538" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="s">
+        <v>715</v>
+      </c>
+      <c r="B539" t="s">
+        <v>716</v>
+      </c>
+      <c r="C539" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="s">
+        <v>717</v>
+      </c>
+      <c r="B540" t="s">
+        <v>178</v>
+      </c>
+      <c r="C540" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="s">
+        <v>718</v>
+      </c>
+      <c r="B541" t="s">
+        <v>263</v>
+      </c>
+      <c r="C541" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="s">
+        <v>719</v>
+      </c>
+      <c r="B542" t="s">
+        <v>720</v>
+      </c>
+      <c r="C542" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="s">
+        <v>721</v>
+      </c>
+      <c r="B543" t="s">
+        <v>722</v>
+      </c>
+      <c r="C543" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="s">
+        <v>723</v>
+      </c>
+      <c r="B544" t="s">
+        <v>722</v>
+      </c>
+      <c r="C544" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="s">
+        <v>724</v>
+      </c>
+      <c r="B545" t="s">
+        <v>725</v>
+      </c>
+      <c r="C545" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="s">
+        <v>726</v>
+      </c>
+      <c r="B546" t="s">
+        <v>722</v>
+      </c>
+      <c r="C546" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="s">
+        <v>727</v>
+      </c>
+      <c r="B547" t="s">
+        <v>728</v>
+      </c>
+      <c r="C547" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="s">
+        <v>729</v>
+      </c>
+      <c r="B548" t="s">
+        <v>728</v>
+      </c>
+      <c r="C548" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink International Health Care Fund.xlsx
+++ b/data/GreatLink/GreatLink International Health Care Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid910714"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid862312"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="751">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,87 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>01/07/2024</t>
+  </si>
+  <si>
+    <t>1.045</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>28/06/2024</t>
+  </si>
+  <si>
+    <t>1.046</t>
+  </si>
+  <si>
+    <t>27/06/2024</t>
+  </si>
+  <si>
+    <t>1.052</t>
+  </si>
+  <si>
+    <t>26/06/2024</t>
+  </si>
+  <si>
+    <t>25/06/2024</t>
+  </si>
+  <si>
+    <t>1.056</t>
+  </si>
+  <si>
+    <t>24/06/2024</t>
+  </si>
+  <si>
+    <t>1.051</t>
+  </si>
+  <si>
+    <t>21/06/2024</t>
+  </si>
+  <si>
+    <t>20/06/2024</t>
+  </si>
+  <si>
+    <t>1.042</t>
+  </si>
+  <si>
+    <t>19/06/2024</t>
+  </si>
+  <si>
+    <t>1.033</t>
+  </si>
+  <si>
+    <t>18/06/2024</t>
+  </si>
+  <si>
+    <t>1.034</t>
+  </si>
+  <si>
+    <t>14/06/2024</t>
+  </si>
+  <si>
+    <t>1.040</t>
+  </si>
+  <si>
+    <t>13/06/2024</t>
+  </si>
+  <si>
+    <t>1.037</t>
+  </si>
+  <si>
+    <t>12/06/2024</t>
+  </si>
+  <si>
+    <t>11/06/2024</t>
+  </si>
+  <si>
+    <t>1.038</t>
+  </si>
+  <si>
     <t>10/06/2024</t>
   </si>
   <si>
-    <t>1.040</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>07/06/2024</t>
   </si>
   <si>
@@ -44,9 +116,6 @@
     <t>06/06/2024</t>
   </si>
   <si>
-    <t>1.034</t>
-  </si>
-  <si>
     <t>05/06/2024</t>
   </si>
   <si>
@@ -119,13 +188,7 @@
     <t>16/05/2024</t>
   </si>
   <si>
-    <t>1.033</t>
-  </si>
-  <si>
     <t>15/05/2024</t>
-  </si>
-  <si>
-    <t>1.037</t>
   </si>
   <si>
     <t>14/05/2024</t>
@@ -2582,7 +2645,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2590,10 +2653,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2601,10 +2664,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2612,10 +2675,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2623,10 +2686,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2634,7 +2697,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -2645,10 +2708,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2656,10 +2719,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2667,10 +2730,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2678,10 +2741,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2689,10 +2752,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2700,10 +2763,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2711,10 +2774,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2722,10 +2785,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2733,10 +2796,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2744,10 +2807,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2755,10 +2818,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2766,10 +2829,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2777,10 +2840,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2788,10 +2851,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2799,10 +2862,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2810,10 +2873,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2821,10 +2884,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2832,10 +2895,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2843,10 +2906,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2854,10 +2917,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2865,10 +2928,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B31" t="s">
-        <v>49</v>
+        <v>21</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2876,10 +2939,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>19</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2887,10 +2950,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>60</v>
+        <v>25</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2898,10 +2961,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2909,10 +2972,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2920,10 +2983,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2931,10 +2994,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -2942,10 +3005,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -2953,10 +3016,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -2964,10 +3027,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -2975,10 +3038,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -2986,10 +3049,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -2997,10 +3060,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3008,10 +3071,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3019,10 +3082,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3030,10 +3093,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3041,10 +3104,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3052,7 +3115,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
         <v>83</v>
@@ -3063,10 +3126,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
         <v>85</v>
-      </c>
-      <c r="B49" t="s">
-        <v>86</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3074,10 +3137,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" t="s">
         <v>87</v>
-      </c>
-      <c r="B50" t="s">
-        <v>36</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3088,7 +3151,7 @@
         <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3110,7 +3173,7 @@
         <v>91</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>85</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3132,7 +3195,7 @@
         <v>94</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3140,10 +3203,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B56" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3151,10 +3214,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B57" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3162,10 +3225,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
-        <v>17</v>
+        <v>100</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3173,10 +3236,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3184,10 +3247,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>77</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3195,10 +3258,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3206,10 +3269,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3217,10 +3280,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B63" t="s">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3228,10 +3291,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B64" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3239,10 +3302,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3250,10 +3313,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3261,10 +3324,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3272,10 +3335,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B68" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3283,10 +3346,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B69" t="s">
-        <v>111</v>
+        <v>49</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3294,10 +3357,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B70" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3305,10 +3368,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B71" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3316,10 +3379,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B72" t="s">
-        <v>111</v>
+        <v>40</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3327,10 +3390,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B73" t="s">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3338,10 +3401,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3349,10 +3412,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B75" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3360,10 +3423,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B76" t="s">
-        <v>109</v>
+        <v>47</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3371,10 +3434,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B77" t="s">
-        <v>122</v>
+        <v>61</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3382,10 +3445,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B78" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3393,10 +3456,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B79" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3404,10 +3467,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>128</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3415,10 +3478,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B81" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3426,10 +3489,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B82" t="s">
-        <v>62</v>
+        <v>132</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3437,10 +3500,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B83" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3448,10 +3511,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>134</v>
+      </c>
+      <c r="B84" t="s">
         <v>130</v>
-      </c>
-      <c r="B84" t="s">
-        <v>19</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3459,10 +3522,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B85" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3470,10 +3533,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
+        <v>136</v>
+      </c>
+      <c r="B86" t="s">
         <v>132</v>
-      </c>
-      <c r="B86" t="s">
-        <v>79</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3481,10 +3544,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B87" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3492,10 +3555,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B88" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3503,10 +3566,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B89" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3514,10 +3577,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B90" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3525,10 +3588,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="B91" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3536,10 +3599,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B92" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3547,10 +3610,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B93" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3558,10 +3621,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B94" t="s">
-        <v>145</v>
+        <v>104</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3569,10 +3632,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B95" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3583,7 +3646,7 @@
         <v>148</v>
       </c>
       <c r="B96" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3591,10 +3654,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
+        <v>149</v>
+      </c>
+      <c r="B97" t="s">
         <v>150</v>
-      </c>
-      <c r="B97" t="s">
-        <v>151</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3602,10 +3665,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B98" t="s">
-        <v>143</v>
+        <v>42</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3613,10 +3676,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B99" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3624,10 +3687,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B100" t="s">
-        <v>156</v>
+        <v>100</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3635,10 +3698,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B101" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3646,10 +3709,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B102" t="s">
-        <v>159</v>
+        <v>93</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3657,10 +3720,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B103" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3668,7 +3731,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B104" t="s">
         <v>159</v>
@@ -3679,10 +3742,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B105" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3690,10 +3753,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B106" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3701,10 +3764,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B107" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3712,10 +3775,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B108" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3723,10 +3786,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B109" t="s">
-        <v>145</v>
+        <v>168</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3734,10 +3797,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
+        <v>169</v>
+      </c>
+      <c r="B110" t="s">
         <v>170</v>
-      </c>
-      <c r="B110" t="s">
-        <v>168</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3759,7 +3822,7 @@
         <v>173</v>
       </c>
       <c r="B112" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3767,10 +3830,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
+        <v>174</v>
+      </c>
+      <c r="B113" t="s">
         <v>175</v>
-      </c>
-      <c r="B113" t="s">
-        <v>176</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3778,10 +3841,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
+        <v>176</v>
+      </c>
+      <c r="B114" t="s">
         <v>177</v>
-      </c>
-      <c r="B114" t="s">
-        <v>178</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3789,10 +3852,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B115" t="s">
-        <v>180</v>
+        <v>159</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3800,7 +3863,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B116" t="s">
         <v>180</v>
@@ -3811,10 +3874,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B117" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3822,10 +3885,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B118" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3833,10 +3896,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B119" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3844,10 +3907,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B120" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3855,10 +3918,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B121" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3866,10 +3929,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B122" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3877,10 +3940,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B123" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3888,10 +3951,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B124" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3899,10 +3962,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B125" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3910,10 +3973,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B126" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3921,10 +3984,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B127" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3932,10 +3995,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B128" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -3943,10 +4006,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B129" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -3954,10 +4017,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B130" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -3965,10 +4028,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B131" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -3976,10 +4039,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B132" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -3987,10 +4050,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B133" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -3998,10 +4061,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B134" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4009,10 +4072,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B135" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4020,10 +4083,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B136" t="s">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4031,10 +4094,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B137" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4042,10 +4105,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B138" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4053,10 +4116,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="B139" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4064,10 +4127,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B140" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4075,10 +4138,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B141" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4086,10 +4149,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B142" t="s">
-        <v>211</v>
+        <v>224</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4097,10 +4160,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B143" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4108,10 +4171,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B144" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4119,10 +4182,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B145" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4130,10 +4193,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B146" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4141,10 +4204,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="B147" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4152,10 +4215,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B148" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4163,10 +4226,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B149" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4174,10 +4237,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B150" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4185,10 +4248,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B151" t="s">
-        <v>226</v>
+        <v>239</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4196,10 +4259,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B152" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4207,7 +4270,7 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B153" t="s">
         <v>243</v>
@@ -4218,10 +4281,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
+        <v>244</v>
+      </c>
+      <c r="B154" t="s">
         <v>245</v>
-      </c>
-      <c r="B154" t="s">
-        <v>246</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4229,10 +4292,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>246</v>
+      </c>
+      <c r="B155" t="s">
         <v>247</v>
-      </c>
-      <c r="B155" t="s">
-        <v>248</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4240,10 +4303,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4251,10 +4314,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
-        <v>211</v>
+        <v>250</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4262,10 +4325,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B158" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4273,10 +4336,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>252</v>
+      </c>
+      <c r="B159" t="s">
         <v>253</v>
-      </c>
-      <c r="B159" t="s">
-        <v>232</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4287,7 +4350,7 @@
         <v>254</v>
       </c>
       <c r="B160" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4295,10 +4358,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B161" t="s">
-        <v>207</v>
+        <v>257</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4306,10 +4369,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B162" t="s">
-        <v>190</v>
+        <v>259</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4317,10 +4380,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="B163" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4328,10 +4391,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B164" t="s">
-        <v>260</v>
+        <v>234</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4339,10 +4402,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B165" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4350,10 +4413,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B166" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4361,10 +4424,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
+        <v>265</v>
+      </c>
+      <c r="B167" t="s">
         <v>264</v>
-      </c>
-      <c r="B167" t="s">
-        <v>180</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4372,10 +4435,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B168" t="s">
-        <v>190</v>
+        <v>267</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4383,10 +4446,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B169" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4394,10 +4457,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B170" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4405,10 +4468,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B171" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4416,10 +4479,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B172" t="s">
-        <v>226</v>
+        <v>259</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4427,10 +4490,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B173" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4438,10 +4501,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B174" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4449,10 +4512,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B175" t="s">
-        <v>276</v>
+        <v>228</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4463,7 +4526,7 @@
         <v>277</v>
       </c>
       <c r="B176" t="s">
-        <v>278</v>
+        <v>211</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4471,10 +4534,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
+        <v>278</v>
+      </c>
+      <c r="B177" t="s">
         <v>279</v>
-      </c>
-      <c r="B177" t="s">
-        <v>207</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4485,7 +4548,7 @@
         <v>280</v>
       </c>
       <c r="B178" t="s">
-        <v>207</v>
+        <v>281</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4493,10 +4556,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B179" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4504,10 +4567,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B180" t="s">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4515,10 +4578,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B181" t="s">
-        <v>284</v>
+        <v>201</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4526,10 +4589,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B182" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4537,10 +4600,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B183" t="s">
-        <v>197</v>
+        <v>288</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4548,10 +4611,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B184" t="s">
-        <v>197</v>
+        <v>290</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4559,10 +4622,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B185" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4570,10 +4633,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B186" t="s">
-        <v>291</v>
+        <v>247</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4581,10 +4644,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B187" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4592,10 +4655,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B188" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4603,10 +4666,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B189" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4614,10 +4677,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B190" t="s">
-        <v>180</v>
+        <v>299</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4625,10 +4688,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B191" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4636,10 +4699,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B192" t="s">
-        <v>298</v>
+        <v>228</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4647,10 +4710,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="B193" t="s">
-        <v>289</v>
+        <v>220</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4658,10 +4721,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="B194" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4669,10 +4732,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B195" t="s">
-        <v>185</v>
+        <v>305</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4680,10 +4743,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B196" t="s">
-        <v>263</v>
+        <v>211</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4691,10 +4754,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B197" t="s">
-        <v>258</v>
+        <v>218</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4702,10 +4765,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B198" t="s">
-        <v>190</v>
+        <v>218</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4713,10 +4776,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B199" t="s">
-        <v>185</v>
+        <v>310</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4724,10 +4787,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="B200" t="s">
-        <v>201</v>
+        <v>312</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4735,10 +4798,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="B201" t="s">
-        <v>197</v>
+        <v>310</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4746,10 +4809,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B202" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4757,10 +4820,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B203" t="s">
-        <v>185</v>
+        <v>279</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4768,7 +4831,7 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B204" t="s">
         <v>201</v>
@@ -4779,10 +4842,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B205" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4790,10 +4853,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="B206" t="s">
-        <v>298</v>
+        <v>319</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4801,10 +4864,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>313</v>
+        <v>320</v>
       </c>
       <c r="B207" t="s">
-        <v>258</v>
+        <v>310</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4812,10 +4875,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>314</v>
+        <v>321</v>
       </c>
       <c r="B208" t="s">
-        <v>192</v>
+        <v>218</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4823,10 +4886,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>315</v>
+        <v>322</v>
       </c>
       <c r="B209" t="s">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4834,10 +4897,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>316</v>
+        <v>323</v>
       </c>
       <c r="B210" t="s">
-        <v>197</v>
+        <v>284</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4845,10 +4908,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B211" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4856,10 +4919,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="B212" t="s">
-        <v>276</v>
+        <v>211</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4867,10 +4930,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="B213" t="s">
-        <v>320</v>
+        <v>206</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4878,10 +4941,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B214" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4889,10 +4952,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B215" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4900,10 +4963,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B216" t="s">
-        <v>232</v>
+        <v>290</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4911,10 +4974,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B217" t="s">
-        <v>226</v>
+        <v>206</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4922,10 +4985,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B218" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4933,10 +4996,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B219" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -4944,10 +5007,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B220" t="s">
-        <v>222</v>
+        <v>319</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -4955,10 +5018,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B221" t="s">
-        <v>215</v>
+        <v>279</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -4966,10 +5029,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B222" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -4977,10 +5040,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B223" t="s">
-        <v>284</v>
+        <v>209</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -4988,10 +5051,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B224" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -4999,10 +5062,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B225" t="s">
-        <v>226</v>
+        <v>310</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5010,10 +5073,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B226" t="s">
-        <v>334</v>
+        <v>297</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5021,10 +5084,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
       <c r="B227" t="s">
-        <v>320</v>
+        <v>341</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5032,10 +5095,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B228" t="s">
-        <v>337</v>
+        <v>255</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5043,10 +5106,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="B229" t="s">
-        <v>339</v>
+        <v>232</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5054,10 +5117,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B230" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5065,10 +5128,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B231" t="s">
-        <v>342</v>
+        <v>247</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5076,10 +5139,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B232" t="s">
-        <v>344</v>
+        <v>245</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5087,10 +5150,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B233" t="s">
-        <v>346</v>
+        <v>253</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5098,10 +5161,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B234" t="s">
-        <v>348</v>
+        <v>243</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5112,7 +5175,7 @@
         <v>349</v>
       </c>
       <c r="B235" t="s">
-        <v>350</v>
+        <v>236</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5120,10 +5183,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B236" t="s">
-        <v>273</v>
+        <v>230</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5131,10 +5194,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B237" t="s">
-        <v>334</v>
+        <v>305</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5142,10 +5205,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B238" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5153,10 +5216,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B239" t="s">
-        <v>355</v>
+        <v>247</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5164,7 +5227,7 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B240" t="s">
         <v>355</v>
@@ -5175,10 +5238,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B241" t="s">
-        <v>358</v>
+        <v>341</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5186,10 +5249,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B242" t="s">
-        <v>215</v>
+        <v>358</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5197,10 +5260,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
+        <v>359</v>
+      </c>
+      <c r="B243" t="s">
         <v>360</v>
-      </c>
-      <c r="B243" t="s">
-        <v>232</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5211,7 +5274,7 @@
         <v>361</v>
       </c>
       <c r="B244" t="s">
-        <v>213</v>
+        <v>269</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5222,7 +5285,7 @@
         <v>362</v>
       </c>
       <c r="B245" t="s">
-        <v>213</v>
+        <v>363</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5230,10 +5293,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B246" t="s">
-        <v>226</v>
+        <v>365</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5241,10 +5304,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B247" t="s">
-        <v>232</v>
+        <v>367</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5252,10 +5315,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B248" t="s">
-        <v>226</v>
+        <v>369</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5263,10 +5326,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B249" t="s">
-        <v>348</v>
+        <v>371</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5274,10 +5337,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="B250" t="s">
-        <v>350</v>
+        <v>294</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5285,10 +5348,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="B251" t="s">
-        <v>334</v>
+        <v>355</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5296,10 +5359,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>369</v>
+        <v>374</v>
       </c>
       <c r="B252" t="s">
-        <v>355</v>
+        <v>297</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5307,10 +5370,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B253" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5318,10 +5381,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B254" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5329,10 +5392,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B255" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5340,10 +5403,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
       <c r="B256" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5351,10 +5414,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B257" t="s">
-        <v>375</v>
+        <v>253</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5362,10 +5425,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B258" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5373,10 +5436,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B259" t="s">
-        <v>378</v>
+        <v>234</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5384,10 +5447,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="B260" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5395,10 +5458,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="B261" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5406,10 +5469,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B262" t="s">
-        <v>344</v>
+        <v>247</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5417,10 +5480,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>382</v>
+        <v>387</v>
       </c>
       <c r="B263" t="s">
-        <v>348</v>
+        <v>369</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5428,10 +5491,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="B264" t="s">
-        <v>355</v>
+        <v>371</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5439,10 +5502,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="B265" t="s">
-        <v>224</v>
+        <v>355</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5450,10 +5513,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B266" t="s">
-        <v>224</v>
+        <v>376</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5461,10 +5524,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="B267" t="s">
-        <v>276</v>
+        <v>376</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5472,7 +5535,7 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="B268" t="s">
         <v>358</v>
@@ -5483,10 +5546,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="B269" t="s">
-        <v>229</v>
+        <v>379</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5494,10 +5557,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="B270" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5505,10 +5568,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="B271" t="s">
-        <v>222</v>
+        <v>396</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5516,10 +5579,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B272" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5527,10 +5590,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B273" t="s">
-        <v>229</v>
+        <v>399</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5538,10 +5601,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B274" t="s">
-        <v>226</v>
+        <v>271</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5549,10 +5612,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B275" t="s">
-        <v>358</v>
+        <v>264</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5560,10 +5623,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
       <c r="B276" t="s">
-        <v>232</v>
+        <v>365</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5571,10 +5634,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B277" t="s">
-        <v>234</v>
+        <v>369</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5582,10 +5645,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
       <c r="B278" t="s">
-        <v>226</v>
+        <v>376</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5593,10 +5656,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="B279" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5604,10 +5667,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
       <c r="B280" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5615,10 +5678,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B281" t="s">
-        <v>358</v>
+        <v>297</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5626,10 +5689,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="B282" t="s">
-        <v>320</v>
+        <v>379</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5637,10 +5700,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B283" t="s">
-        <v>215</v>
+        <v>250</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5648,10 +5711,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
       <c r="B284" t="s">
-        <v>201</v>
+        <v>245</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5659,10 +5722,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B285" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5670,10 +5733,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B286" t="s">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5681,10 +5744,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B287" t="s">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5692,10 +5755,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B288" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5703,10 +5766,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B289" t="s">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5714,10 +5777,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="B290" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5725,10 +5788,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B291" t="s">
-        <v>209</v>
+        <v>255</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5736,10 +5799,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B292" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5747,10 +5810,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B293" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5758,10 +5821,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B294" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5769,10 +5832,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B295" t="s">
-        <v>334</v>
+        <v>379</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5780,10 +5843,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B296" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5791,10 +5854,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B297" t="s">
-        <v>417</v>
+        <v>236</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5802,10 +5865,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B298" t="s">
-        <v>378</v>
+        <v>222</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5813,10 +5876,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B299" t="s">
-        <v>420</v>
+        <v>239</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5824,10 +5887,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B300" t="s">
-        <v>422</v>
+        <v>250</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5835,10 +5898,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B301" t="s">
-        <v>424</v>
+        <v>253</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5846,10 +5909,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="B302" t="s">
-        <v>426</v>
+        <v>236</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5857,10 +5920,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B303" t="s">
-        <v>428</v>
+        <v>241</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5868,10 +5931,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B304" t="s">
-        <v>426</v>
+        <v>239</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5879,10 +5942,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B305" t="s">
-        <v>431</v>
+        <v>230</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5893,7 +5956,7 @@
         <v>432</v>
       </c>
       <c r="B306" t="s">
-        <v>433</v>
+        <v>234</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5901,10 +5964,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B307" t="s">
-        <v>426</v>
+        <v>250</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5912,10 +5975,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B308" t="s">
-        <v>436</v>
+        <v>250</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5923,10 +5986,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B309" t="s">
-        <v>438</v>
+        <v>355</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5934,10 +5997,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="B310" t="s">
-        <v>440</v>
+        <v>369</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -5945,10 +6008,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="B311" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -5956,10 +6019,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B312" t="s">
-        <v>444</v>
+        <v>399</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -5967,10 +6030,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B313" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -5978,10 +6041,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B314" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -5989,10 +6052,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B315" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -6000,10 +6063,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B316" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6011,10 +6074,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B317" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6022,10 +6085,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B318" t="s">
-        <v>428</v>
+        <v>447</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6033,10 +6096,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B319" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6044,10 +6107,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B320" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6055,10 +6118,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B321" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6066,10 +6129,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B322" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6077,10 +6140,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B323" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6088,10 +6151,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B324" t="s">
-        <v>426</v>
+        <v>461</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6099,10 +6162,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
+        <v>462</v>
+      </c>
+      <c r="B325" t="s">
         <v>463</v>
-      </c>
-      <c r="B325" t="s">
-        <v>464</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6110,10 +6173,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
+        <v>464</v>
+      </c>
+      <c r="B326" t="s">
         <v>465</v>
-      </c>
-      <c r="B326" t="s">
-        <v>428</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6124,7 +6187,7 @@
         <v>466</v>
       </c>
       <c r="B327" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6132,10 +6195,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
+        <v>467</v>
+      </c>
+      <c r="B328" t="s">
         <v>468</v>
-      </c>
-      <c r="B328" t="s">
-        <v>248</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6146,7 +6209,7 @@
         <v>469</v>
       </c>
       <c r="B329" t="s">
-        <v>339</v>
+        <v>452</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6157,7 +6220,7 @@
         <v>470</v>
       </c>
       <c r="B330" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6168,7 +6231,7 @@
         <v>471</v>
       </c>
       <c r="B331" t="s">
-        <v>246</v>
+        <v>472</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6176,10 +6239,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B332" t="s">
-        <v>339</v>
+        <v>449</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6187,10 +6250,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B333" t="s">
-        <v>417</v>
+        <v>475</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6198,10 +6261,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B334" t="s">
-        <v>454</v>
+        <v>477</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6209,10 +6272,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="B335" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6220,10 +6283,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B336" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6231,10 +6294,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B337" t="s">
-        <v>346</v>
+        <v>482</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6242,10 +6305,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B338" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6253,10 +6316,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B339" t="s">
-        <v>422</v>
+        <v>485</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6264,10 +6327,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="B340" t="s">
-        <v>482</v>
+        <v>449</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6275,10 +6338,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B341" t="s">
-        <v>467</v>
+        <v>488</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6286,10 +6349,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="B342" t="s">
-        <v>485</v>
+        <v>269</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6297,10 +6360,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B343" t="s">
-        <v>487</v>
+        <v>360</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6308,10 +6371,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B344" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6319,10 +6382,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="B345" t="s">
-        <v>422</v>
+        <v>267</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6330,10 +6393,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="B346" t="s">
-        <v>476</v>
+        <v>360</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6341,10 +6404,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="B347" t="s">
-        <v>485</v>
+        <v>438</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6352,10 +6415,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="B348" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6363,10 +6426,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="B349" t="s">
-        <v>426</v>
+        <v>497</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6374,10 +6437,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B350" t="s">
-        <v>467</v>
+        <v>485</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6385,10 +6448,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B351" t="s">
-        <v>485</v>
+        <v>367</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6396,10 +6459,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B352" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6407,10 +6470,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B353" t="s">
-        <v>424</v>
+        <v>443</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6418,10 +6481,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B354" t="s">
-        <v>485</v>
+        <v>503</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6429,10 +6492,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="B355" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6440,10 +6503,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="B356" t="s">
-        <v>436</v>
+        <v>506</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6451,10 +6514,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B357" t="s">
-        <v>454</v>
+        <v>508</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6462,10 +6525,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>502</v>
+        <v>509</v>
       </c>
       <c r="B358" t="s">
-        <v>424</v>
+        <v>503</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6473,10 +6536,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>503</v>
+        <v>510</v>
       </c>
       <c r="B359" t="s">
-        <v>504</v>
+        <v>443</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6484,10 +6547,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B360" t="s">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6495,10 +6558,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>507</v>
+        <v>512</v>
       </c>
       <c r="B361" t="s">
-        <v>420</v>
+        <v>506</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6506,10 +6569,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>508</v>
+        <v>513</v>
       </c>
       <c r="B362" t="s">
-        <v>246</v>
+        <v>497</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6517,10 +6580,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="B363" t="s">
-        <v>510</v>
+        <v>447</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6528,10 +6591,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B364" t="s">
-        <v>420</v>
+        <v>488</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6539,10 +6602,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B365" t="s">
-        <v>246</v>
+        <v>506</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6550,10 +6613,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B366" t="s">
-        <v>514</v>
+        <v>449</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6561,10 +6624,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="B367" t="s">
-        <v>516</v>
+        <v>445</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6572,10 +6635,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B368" t="s">
-        <v>346</v>
+        <v>506</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6583,10 +6646,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B369" t="s">
-        <v>246</v>
+        <v>445</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6594,10 +6657,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B370" t="s">
-        <v>337</v>
+        <v>457</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6605,10 +6668,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B371" t="s">
-        <v>350</v>
+        <v>475</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6616,10 +6679,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B372" t="s">
-        <v>215</v>
+        <v>445</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6627,10 +6690,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B373" t="s">
-        <v>276</v>
+        <v>525</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6638,10 +6701,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B374" t="s">
-        <v>215</v>
+        <v>527</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6649,10 +6712,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B375" t="s">
-        <v>213</v>
+        <v>441</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6660,10 +6723,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B376" t="s">
-        <v>215</v>
+        <v>267</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6671,10 +6734,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B377" t="s">
-        <v>358</v>
+        <v>531</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6682,10 +6745,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="B378" t="s">
-        <v>213</v>
+        <v>441</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6693,10 +6756,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="B379" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6704,10 +6767,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>529</v>
+        <v>534</v>
       </c>
       <c r="B380" t="s">
-        <v>207</v>
+        <v>535</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6715,10 +6778,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B381" t="s">
-        <v>284</v>
+        <v>537</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6726,10 +6789,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="B382" t="s">
-        <v>267</v>
+        <v>367</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6737,10 +6800,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>532</v>
+        <v>539</v>
       </c>
       <c r="B383" t="s">
-        <v>232</v>
+        <v>267</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6748,10 +6811,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>533</v>
+        <v>540</v>
       </c>
       <c r="B384" t="s">
-        <v>238</v>
+        <v>358</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6759,10 +6822,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>534</v>
+        <v>541</v>
       </c>
       <c r="B385" t="s">
-        <v>220</v>
+        <v>371</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6770,10 +6833,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>535</v>
+        <v>542</v>
       </c>
       <c r="B386" t="s">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6781,10 +6844,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>536</v>
+        <v>543</v>
       </c>
       <c r="B387" t="s">
-        <v>215</v>
+        <v>297</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6792,10 +6855,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>537</v>
+        <v>544</v>
       </c>
       <c r="B388" t="s">
-        <v>222</v>
+        <v>236</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6803,10 +6866,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>538</v>
+        <v>545</v>
       </c>
       <c r="B389" t="s">
-        <v>350</v>
+        <v>234</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6814,10 +6877,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>539</v>
+        <v>546</v>
       </c>
       <c r="B390" t="s">
-        <v>355</v>
+        <v>236</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6825,10 +6888,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B391" t="s">
-        <v>541</v>
+        <v>379</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6836,10 +6899,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B392" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6847,10 +6910,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B393" t="s">
-        <v>320</v>
+        <v>253</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6858,10 +6921,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B394" t="s">
-        <v>355</v>
+        <v>228</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6869,10 +6932,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B395" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6880,10 +6943,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B396" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6891,10 +6954,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B397" t="s">
-        <v>348</v>
+        <v>253</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6902,10 +6965,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B398" t="s">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6913,10 +6976,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B399" t="s">
-        <v>337</v>
+        <v>241</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6924,10 +6987,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B400" t="s">
-        <v>516</v>
+        <v>245</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6935,10 +6998,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B401" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -6946,10 +7009,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B402" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -6957,10 +7020,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="B403" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -6968,10 +7031,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B404" t="s">
-        <v>334</v>
+        <v>376</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -6979,10 +7042,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B405" t="s">
-        <v>229</v>
+        <v>562</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -6990,10 +7053,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>556</v>
+        <v>563</v>
       </c>
       <c r="B406" t="s">
-        <v>342</v>
+        <v>271</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7001,10 +7064,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="B407" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7012,10 +7075,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="B408" t="s">
-        <v>337</v>
+        <v>376</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7023,10 +7086,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="B409" t="s">
-        <v>464</v>
+        <v>250</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7034,10 +7097,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>560</v>
+        <v>567</v>
       </c>
       <c r="B410" t="s">
-        <v>433</v>
+        <v>257</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7045,10 +7108,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>561</v>
+        <v>568</v>
       </c>
       <c r="B411" t="s">
-        <v>436</v>
+        <v>369</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7056,10 +7119,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="B412" t="s">
-        <v>476</v>
+        <v>255</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7067,10 +7130,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>563</v>
+        <v>570</v>
       </c>
       <c r="B413" t="s">
-        <v>426</v>
+        <v>358</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7078,10 +7141,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>564</v>
+        <v>571</v>
       </c>
       <c r="B414" t="s">
-        <v>431</v>
+        <v>537</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7089,10 +7152,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="B415" t="s">
-        <v>456</v>
+        <v>271</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7100,10 +7163,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>566</v>
+        <v>573</v>
       </c>
       <c r="B416" t="s">
-        <v>431</v>
+        <v>271</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7111,10 +7174,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>567</v>
+        <v>574</v>
       </c>
       <c r="B417" t="s">
-        <v>442</v>
+        <v>355</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7122,10 +7185,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="B418" t="s">
-        <v>569</v>
+        <v>355</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7133,10 +7196,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="B419" t="s">
-        <v>438</v>
+        <v>250</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7144,10 +7207,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B420" t="s">
-        <v>482</v>
+        <v>363</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7155,10 +7218,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B421" t="s">
-        <v>510</v>
+        <v>369</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7166,10 +7229,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B422" t="s">
-        <v>454</v>
+        <v>358</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7177,10 +7240,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B423" t="s">
-        <v>444</v>
+        <v>485</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7188,10 +7251,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B424" t="s">
-        <v>576</v>
+        <v>454</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7199,10 +7262,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="B425" t="s">
-        <v>578</v>
+        <v>457</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7210,10 +7273,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B426" t="s">
-        <v>580</v>
+        <v>497</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7221,10 +7284,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="B427" t="s">
-        <v>582</v>
+        <v>447</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7232,10 +7295,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B428" t="s">
-        <v>584</v>
+        <v>452</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7243,10 +7306,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B429" t="s">
-        <v>586</v>
+        <v>477</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7257,7 +7320,7 @@
         <v>587</v>
       </c>
       <c r="B430" t="s">
-        <v>588</v>
+        <v>452</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7265,10 +7328,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B431" t="s">
-        <v>590</v>
+        <v>463</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7276,10 +7339,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B432" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7287,10 +7350,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B433" t="s">
-        <v>433</v>
+        <v>459</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7298,10 +7361,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="B434" t="s">
-        <v>436</v>
+        <v>503</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7309,10 +7372,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B435" t="s">
-        <v>426</v>
+        <v>531</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7320,10 +7383,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B436" t="s">
-        <v>459</v>
+        <v>475</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7331,10 +7394,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B437" t="s">
-        <v>451</v>
+        <v>465</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7342,10 +7405,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B438" t="s">
-        <v>417</v>
+        <v>597</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7353,10 +7416,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
+        <v>598</v>
+      </c>
+      <c r="B439" t="s">
         <v>599</v>
-      </c>
-      <c r="B439" t="s">
-        <v>342</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7378,7 +7441,7 @@
         <v>602</v>
       </c>
       <c r="B441" t="s">
-        <v>456</v>
+        <v>603</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7386,10 +7449,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B442" t="s">
-        <v>438</v>
+        <v>605</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7397,10 +7460,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B443" t="s">
-        <v>431</v>
+        <v>607</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7408,10 +7471,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="B444" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7419,10 +7482,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="B445" t="s">
-        <v>459</v>
+        <v>611</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7430,10 +7493,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B446" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7441,10 +7504,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B447" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7452,10 +7515,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B448" t="s">
-        <v>612</v>
+        <v>457</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7463,10 +7526,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="B449" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7474,10 +7537,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="B450" t="s">
-        <v>342</v>
+        <v>480</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7485,10 +7548,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="B451" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7496,10 +7559,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B452" t="s">
-        <v>467</v>
+        <v>438</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7507,10 +7570,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B453" t="s">
-        <v>618</v>
+        <v>363</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7518,10 +7581,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B454" t="s">
-        <v>337</v>
+        <v>622</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7529,10 +7592,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="B455" t="s">
-        <v>516</v>
+        <v>477</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7540,10 +7603,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="B456" t="s">
-        <v>348</v>
+        <v>459</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7551,10 +7614,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="B457" t="s">
-        <v>320</v>
+        <v>452</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7562,10 +7625,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="B458" t="s">
-        <v>320</v>
+        <v>627</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7573,10 +7636,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B459" t="s">
-        <v>337</v>
+        <v>480</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7584,10 +7647,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B460" t="s">
-        <v>246</v>
+        <v>630</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7595,10 +7658,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>626</v>
+        <v>631</v>
       </c>
       <c r="B461" t="s">
-        <v>250</v>
+        <v>472</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7606,10 +7669,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="B462" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7617,10 +7680,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>628</v>
+        <v>634</v>
       </c>
       <c r="B463" t="s">
-        <v>516</v>
+        <v>477</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7628,10 +7691,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="B464" t="s">
-        <v>344</v>
+        <v>363</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7639,10 +7702,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>630</v>
+        <v>636</v>
       </c>
       <c r="B465" t="s">
-        <v>337</v>
+        <v>441</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7650,10 +7713,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="B466" t="s">
-        <v>250</v>
+        <v>488</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7661,10 +7724,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>632</v>
+        <v>638</v>
       </c>
       <c r="B467" t="s">
-        <v>348</v>
+        <v>639</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7672,10 +7735,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>633</v>
+        <v>640</v>
       </c>
       <c r="B468" t="s">
-        <v>229</v>
+        <v>358</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7683,10 +7746,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="B469" t="s">
-        <v>213</v>
+        <v>537</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7694,10 +7757,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>635</v>
+        <v>642</v>
       </c>
       <c r="B470" t="s">
-        <v>229</v>
+        <v>369</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7705,10 +7768,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>636</v>
+        <v>643</v>
       </c>
       <c r="B471" t="s">
-        <v>541</v>
+        <v>341</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -7716,10 +7779,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>637</v>
+        <v>644</v>
       </c>
       <c r="B472" t="s">
-        <v>250</v>
+        <v>341</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -7727,10 +7790,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>638</v>
+        <v>645</v>
       </c>
       <c r="B473" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -7738,10 +7801,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>639</v>
+        <v>646</v>
       </c>
       <c r="B474" t="s">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -7749,10 +7812,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>640</v>
+        <v>647</v>
       </c>
       <c r="B475" t="s">
-        <v>342</v>
+        <v>271</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -7760,10 +7823,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="B476" t="s">
-        <v>541</v>
+        <v>639</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -7771,10 +7834,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="B477" t="s">
-        <v>601</v>
+        <v>537</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -7782,10 +7845,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>643</v>
+        <v>650</v>
       </c>
       <c r="B478" t="s">
-        <v>320</v>
+        <v>365</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -7793,10 +7856,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>644</v>
+        <v>651</v>
       </c>
       <c r="B479" t="s">
-        <v>504</v>
+        <v>358</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -7804,10 +7867,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>645</v>
+        <v>652</v>
       </c>
       <c r="B480" t="s">
-        <v>506</v>
+        <v>271</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -7815,10 +7878,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>646</v>
+        <v>653</v>
       </c>
       <c r="B481" t="s">
-        <v>246</v>
+        <v>369</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -7826,10 +7889,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>647</v>
+        <v>654</v>
       </c>
       <c r="B482" t="s">
-        <v>348</v>
+        <v>250</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -7837,10 +7900,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="B483" t="s">
-        <v>541</v>
+        <v>234</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -7848,7 +7911,7 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>649</v>
+        <v>656</v>
       </c>
       <c r="B484" t="s">
         <v>250</v>
@@ -7859,10 +7922,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="B485" t="s">
-        <v>342</v>
+        <v>562</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -7870,10 +7933,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>651</v>
+        <v>658</v>
       </c>
       <c r="B486" t="s">
-        <v>248</v>
+        <v>271</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -7881,10 +7944,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="B487" t="s">
-        <v>417</v>
+        <v>365</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -7892,10 +7955,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="B488" t="s">
-        <v>485</v>
+        <v>255</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -7903,10 +7966,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="B489" t="s">
-        <v>467</v>
+        <v>363</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -7914,10 +7977,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="B490" t="s">
-        <v>612</v>
+        <v>562</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -7925,10 +7988,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="B491" t="s">
-        <v>510</v>
+        <v>622</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -7936,10 +7999,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="B492" t="s">
-        <v>454</v>
+        <v>341</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -7947,10 +8010,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B493" t="s">
-        <v>659</v>
+        <v>525</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -7958,10 +8021,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>660</v>
+        <v>666</v>
       </c>
       <c r="B494" t="s">
-        <v>661</v>
+        <v>527</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -7969,10 +8032,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>662</v>
+        <v>667</v>
       </c>
       <c r="B495" t="s">
-        <v>663</v>
+        <v>267</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -7980,10 +8043,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B496" t="s">
-        <v>665</v>
+        <v>369</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -7991,10 +8054,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="B497" t="s">
-        <v>667</v>
+        <v>562</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8002,10 +8065,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B498" t="s">
-        <v>669</v>
+        <v>271</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8013,10 +8076,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B499" t="s">
-        <v>671</v>
+        <v>363</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8027,7 +8090,7 @@
         <v>672</v>
       </c>
       <c r="B500" t="s">
-        <v>667</v>
+        <v>269</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8038,7 +8101,7 @@
         <v>673</v>
       </c>
       <c r="B501" t="s">
-        <v>674</v>
+        <v>438</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8046,10 +8109,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="B502" t="s">
-        <v>676</v>
+        <v>506</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8057,10 +8120,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B503" t="s">
-        <v>678</v>
+        <v>488</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8068,10 +8131,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="B504" t="s">
-        <v>612</v>
+        <v>633</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8079,10 +8142,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="B505" t="s">
-        <v>482</v>
+        <v>531</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8090,10 +8153,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="B506" t="s">
-        <v>436</v>
+        <v>475</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8101,10 +8164,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="B507" t="s">
-        <v>436</v>
+        <v>680</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8112,10 +8175,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B508" t="s">
-        <v>424</v>
+        <v>682</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8123,10 +8186,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
+        <v>683</v>
+      </c>
+      <c r="B509" t="s">
         <v>684</v>
-      </c>
-      <c r="B509" t="s">
-        <v>459</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8137,7 +8200,7 @@
         <v>685</v>
       </c>
       <c r="B510" t="s">
-        <v>428</v>
+        <v>686</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8145,10 +8208,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="B511" t="s">
-        <v>510</v>
+        <v>688</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8156,10 +8219,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B512" t="s">
-        <v>506</v>
+        <v>690</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8167,10 +8230,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="B513" t="s">
-        <v>426</v>
+        <v>692</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8178,10 +8241,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="B514" t="s">
-        <v>461</v>
+        <v>688</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8189,10 +8252,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B515" t="s">
-        <v>426</v>
+        <v>695</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8200,10 +8263,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="B516" t="s">
-        <v>612</v>
+        <v>697</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8211,10 +8274,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="B517" t="s">
-        <v>451</v>
+        <v>699</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8222,10 +8285,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="B518" t="s">
-        <v>678</v>
+        <v>633</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8233,10 +8296,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="B519" t="s">
-        <v>678</v>
+        <v>503</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8244,10 +8307,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="B520" t="s">
-        <v>444</v>
+        <v>457</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8255,10 +8318,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="B521" t="s">
-        <v>580</v>
+        <v>457</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8266,10 +8329,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="B522" t="s">
-        <v>659</v>
+        <v>445</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8277,10 +8340,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="B523" t="s">
-        <v>699</v>
+        <v>480</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8288,10 +8351,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>700</v>
+        <v>706</v>
       </c>
       <c r="B524" t="s">
-        <v>678</v>
+        <v>449</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8299,10 +8362,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>701</v>
+        <v>707</v>
       </c>
       <c r="B525" t="s">
-        <v>428</v>
+        <v>531</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8310,10 +8373,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>702</v>
+        <v>708</v>
       </c>
       <c r="B526" t="s">
-        <v>426</v>
+        <v>527</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8321,10 +8384,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>703</v>
+        <v>709</v>
       </c>
       <c r="B527" t="s">
-        <v>510</v>
+        <v>447</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8332,10 +8395,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="B528" t="s">
-        <v>541</v>
+        <v>482</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8343,10 +8406,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>705</v>
+        <v>711</v>
       </c>
       <c r="B529" t="s">
-        <v>618</v>
+        <v>447</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -8354,10 +8417,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>706</v>
+        <v>712</v>
       </c>
       <c r="B530" t="s">
-        <v>229</v>
+        <v>633</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -8365,10 +8428,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>707</v>
+        <v>713</v>
       </c>
       <c r="B531" t="s">
-        <v>320</v>
+        <v>472</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -8376,10 +8439,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>708</v>
+        <v>714</v>
       </c>
       <c r="B532" t="s">
-        <v>337</v>
+        <v>699</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -8387,10 +8450,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>709</v>
+        <v>715</v>
       </c>
       <c r="B533" t="s">
-        <v>238</v>
+        <v>699</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -8398,10 +8461,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>710</v>
+        <v>716</v>
       </c>
       <c r="B534" t="s">
-        <v>358</v>
+        <v>465</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -8409,10 +8472,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>711</v>
+        <v>717</v>
       </c>
       <c r="B535" t="s">
-        <v>267</v>
+        <v>601</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -8420,10 +8483,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>712</v>
+        <v>718</v>
       </c>
       <c r="B536" t="s">
-        <v>180</v>
+        <v>680</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -8431,10 +8494,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>713</v>
+        <v>719</v>
       </c>
       <c r="B537" t="s">
-        <v>188</v>
+        <v>720</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -8442,10 +8505,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="B538" t="s">
-        <v>183</v>
+        <v>699</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -8453,10 +8516,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="B539" t="s">
-        <v>716</v>
+        <v>449</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -8464,10 +8527,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="B540" t="s">
-        <v>178</v>
+        <v>447</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -8475,10 +8538,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>718</v>
+        <v>724</v>
       </c>
       <c r="B541" t="s">
-        <v>263</v>
+        <v>531</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -8486,10 +8549,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="B542" t="s">
-        <v>720</v>
+        <v>562</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -8497,10 +8560,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="B543" t="s">
-        <v>722</v>
+        <v>639</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -8508,10 +8571,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="B544" t="s">
-        <v>722</v>
+        <v>250</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -8519,10 +8582,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="B545" t="s">
-        <v>725</v>
+        <v>341</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -8530,10 +8593,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B546" t="s">
-        <v>722</v>
+        <v>358</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -8541,10 +8604,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B547" t="s">
-        <v>728</v>
+        <v>259</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -8552,12 +8615,166 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="B548" t="s">
-        <v>728</v>
+        <v>379</v>
       </c>
       <c r="C548" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="s">
+        <v>732</v>
+      </c>
+      <c r="B549" t="s">
+        <v>288</v>
+      </c>
+      <c r="C549" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="s">
+        <v>733</v>
+      </c>
+      <c r="B550" t="s">
+        <v>201</v>
+      </c>
+      <c r="C550" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="s">
+        <v>734</v>
+      </c>
+      <c r="B551" t="s">
+        <v>209</v>
+      </c>
+      <c r="C551" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="s">
+        <v>735</v>
+      </c>
+      <c r="B552" t="s">
+        <v>204</v>
+      </c>
+      <c r="C552" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="s">
+        <v>736</v>
+      </c>
+      <c r="B553" t="s">
+        <v>737</v>
+      </c>
+      <c r="C553" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="s">
+        <v>738</v>
+      </c>
+      <c r="B554" t="s">
+        <v>199</v>
+      </c>
+      <c r="C554" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="s">
+        <v>739</v>
+      </c>
+      <c r="B555" t="s">
+        <v>284</v>
+      </c>
+      <c r="C555" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="s">
+        <v>740</v>
+      </c>
+      <c r="B556" t="s">
+        <v>741</v>
+      </c>
+      <c r="C556" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="s">
+        <v>742</v>
+      </c>
+      <c r="B557" t="s">
+        <v>743</v>
+      </c>
+      <c r="C557" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="s">
+        <v>744</v>
+      </c>
+      <c r="B558" t="s">
+        <v>743</v>
+      </c>
+      <c r="C558" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="s">
+        <v>745</v>
+      </c>
+      <c r="B559" t="s">
+        <v>746</v>
+      </c>
+      <c r="C559" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="s">
+        <v>747</v>
+      </c>
+      <c r="B560" t="s">
+        <v>743</v>
+      </c>
+      <c r="C560" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="s">
+        <v>748</v>
+      </c>
+      <c r="B561" t="s">
+        <v>749</v>
+      </c>
+      <c r="C561" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="s">
+        <v>750</v>
+      </c>
+      <c r="B562" t="s">
+        <v>749</v>
+      </c>
+      <c r="C562" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink International Health Care Fund.xlsx
+++ b/data/GreatLink/GreatLink International Health Care Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid862312"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid455541"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="751" uniqueCount="751">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="783">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,135 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>01/08/2024</t>
+  </si>
+  <si>
+    <t>1.051</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>31/07/2024</t>
+  </si>
+  <si>
+    <t>1.043</t>
+  </si>
+  <si>
+    <t>30/07/2024</t>
+  </si>
+  <si>
+    <t>1.047</t>
+  </si>
+  <si>
+    <t>29/07/2024</t>
+  </si>
+  <si>
+    <t>1.049</t>
+  </si>
+  <si>
+    <t>26/07/2024</t>
+  </si>
+  <si>
+    <t>1.044</t>
+  </si>
+  <si>
+    <t>25/07/2024</t>
+  </si>
+  <si>
+    <t>1.037</t>
+  </si>
+  <si>
+    <t>24/07/2024</t>
+  </si>
+  <si>
+    <t>1.052</t>
+  </si>
+  <si>
+    <t>23/07/2024</t>
+  </si>
+  <si>
+    <t>1.053</t>
+  </si>
+  <si>
+    <t>22/07/2024</t>
+  </si>
+  <si>
+    <t>1.059</t>
+  </si>
+  <si>
+    <t>19/07/2024</t>
+  </si>
+  <si>
+    <t>18/07/2024</t>
+  </si>
+  <si>
+    <t>17/07/2024</t>
+  </si>
+  <si>
+    <t>1.063</t>
+  </si>
+  <si>
+    <t>16/07/2024</t>
+  </si>
+  <si>
+    <t>1.069</t>
+  </si>
+  <si>
+    <t>15/07/2024</t>
+  </si>
+  <si>
+    <t>1.056</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>1.058</t>
+  </si>
+  <si>
+    <t>11/07/2024</t>
+  </si>
+  <si>
+    <t>10/07/2024</t>
+  </si>
+  <si>
+    <t>09/07/2024</t>
+  </si>
+  <si>
+    <t>1.042</t>
+  </si>
+  <si>
+    <t>08/07/2024</t>
+  </si>
+  <si>
+    <t>05/07/2024</t>
+  </si>
+  <si>
+    <t>1.038</t>
+  </si>
+  <si>
+    <t>04/07/2024</t>
+  </si>
+  <si>
+    <t>1.030</t>
+  </si>
+  <si>
+    <t>03/07/2024</t>
+  </si>
+  <si>
+    <t>1.031</t>
+  </si>
+  <si>
+    <t>02/07/2024</t>
+  </si>
+  <si>
     <t>01/07/2024</t>
   </si>
   <si>
     <t>1.045</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>28/06/2024</t>
   </si>
   <si>
@@ -44,33 +164,21 @@
     <t>27/06/2024</t>
   </si>
   <si>
-    <t>1.052</t>
-  </si>
-  <si>
     <t>26/06/2024</t>
   </si>
   <si>
     <t>25/06/2024</t>
   </si>
   <si>
-    <t>1.056</t>
-  </si>
-  <si>
     <t>24/06/2024</t>
   </si>
   <si>
-    <t>1.051</t>
-  </si>
-  <si>
     <t>21/06/2024</t>
   </si>
   <si>
     <t>20/06/2024</t>
   </si>
   <si>
-    <t>1.042</t>
-  </si>
-  <si>
     <t>19/06/2024</t>
   </si>
   <si>
@@ -92,18 +200,12 @@
     <t>13/06/2024</t>
   </si>
   <si>
-    <t>1.037</t>
-  </si>
-  <si>
     <t>12/06/2024</t>
   </si>
   <si>
     <t>11/06/2024</t>
   </si>
   <si>
-    <t>1.038</t>
-  </si>
-  <si>
     <t>10/06/2024</t>
   </si>
   <si>
@@ -119,9 +221,6 @@
     <t>05/06/2024</t>
   </si>
   <si>
-    <t>1.030</t>
-  </si>
-  <si>
     <t>04/06/2024</t>
   </si>
   <si>
@@ -168,9 +267,6 @@
   </si>
   <si>
     <t>23/05/2024</t>
-  </si>
-  <si>
-    <t>1.031</t>
   </si>
   <si>
     <t>21/05/2024</t>
@@ -2645,7 +2741,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2653,10 +2749,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2664,10 +2760,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2675,10 +2771,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2686,10 +2782,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2697,10 +2793,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2708,10 +2804,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2719,10 +2815,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2744,7 +2840,7 @@
         <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2752,10 +2848,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2763,10 +2859,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2774,10 +2870,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2785,10 +2881,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2796,10 +2892,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2807,10 +2903,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2854,7 +2950,7 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2887,7 +2983,7 @@
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>17</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2895,10 +2991,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -2906,10 +3002,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -2917,10 +3013,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>54</v>
+        <v>4</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -2928,10 +3024,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -2939,10 +3035,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -2950,10 +3046,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -2961,10 +3057,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -2972,10 +3068,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -2983,10 +3079,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -2994,10 +3090,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3005,10 +3101,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>38</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3016,10 +3112,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3027,10 +3123,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3038,10 +3134,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3049,10 +3145,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3060,10 +3156,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3071,10 +3167,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3082,10 +3178,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3093,10 +3189,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3104,10 +3200,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B47" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3115,10 +3211,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3126,10 +3222,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3137,10 +3233,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3148,10 +3244,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>42</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3159,10 +3255,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B52" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3170,10 +3266,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3181,10 +3277,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3192,10 +3288,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B55" t="s">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3203,10 +3299,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3214,10 +3310,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B57" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3225,10 +3321,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B58" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3236,10 +3332,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B59" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3247,10 +3343,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3258,10 +3354,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3269,10 +3365,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3280,10 +3376,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B63" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3291,10 +3387,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3302,10 +3398,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>106</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3313,10 +3409,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B66" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3324,10 +3420,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s">
-        <v>47</v>
+        <v>109</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3335,10 +3431,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B68" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3346,10 +3442,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B69" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3357,10 +3453,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3368,10 +3464,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B71" t="s">
-        <v>59</v>
+        <v>115</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3379,10 +3475,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3390,10 +3486,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
+        <v>118</v>
+      </c>
+      <c r="B73" t="s">
         <v>119</v>
-      </c>
-      <c r="B73" t="s">
-        <v>120</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3401,10 +3497,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B74" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3412,10 +3508,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" t="s">
         <v>122</v>
-      </c>
-      <c r="B75" t="s">
-        <v>63</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3426,7 +3522,7 @@
         <v>123</v>
       </c>
       <c r="B76" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3437,7 +3533,7 @@
         <v>124</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3445,10 +3541,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B78" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3456,10 +3552,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B79" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3467,10 +3563,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B80" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3478,10 +3574,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B81" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3489,10 +3585,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B82" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3500,10 +3596,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B83" t="s">
-        <v>132</v>
+        <v>109</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3511,10 +3607,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B84" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3522,10 +3618,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B85" t="s">
-        <v>63</v>
+        <v>136</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3533,10 +3629,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B86" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3544,10 +3640,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="B87" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3555,10 +3651,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B88" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3566,10 +3662,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B89" t="s">
-        <v>59</v>
+        <v>143</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3577,10 +3673,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="B90" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3588,10 +3684,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B91" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3599,10 +3695,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B92" t="s">
-        <v>120</v>
+        <v>82</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3610,10 +3706,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B93" t="s">
-        <v>120</v>
+        <v>146</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3621,10 +3717,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3632,10 +3728,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="B95" t="s">
-        <v>143</v>
+        <v>73</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3643,10 +3739,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B96" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3654,10 +3750,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B97" t="s">
-        <v>150</v>
+        <v>93</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3665,10 +3761,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B98" t="s">
-        <v>42</v>
+        <v>95</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3676,10 +3772,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B99" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3687,10 +3783,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B100" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3698,10 +3794,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="B101" t="s">
-        <v>155</v>
+        <v>95</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3709,10 +3805,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B102" t="s">
-        <v>93</v>
+        <v>143</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3720,10 +3816,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B103" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3731,10 +3827,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B104" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3742,10 +3838,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B105" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3753,10 +3849,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="B106" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3764,10 +3860,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B107" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3775,10 +3871,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B108" t="s">
-        <v>166</v>
+        <v>95</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3786,10 +3882,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B109" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3800,7 +3896,7 @@
         <v>169</v>
       </c>
       <c r="B110" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3808,10 +3904,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
+        <v>170</v>
+      </c>
+      <c r="B111" t="s">
         <v>171</v>
-      </c>
-      <c r="B111" t="s">
-        <v>172</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3819,10 +3915,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B112" t="s">
-        <v>164</v>
+        <v>91</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3830,10 +3926,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B113" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3841,10 +3937,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B114" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3852,10 +3948,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B115" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3863,10 +3959,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B116" t="s">
-        <v>180</v>
+        <v>152</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3874,10 +3970,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B117" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3885,10 +3981,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B118" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3896,10 +3992,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B119" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -3907,10 +4003,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B120" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -3918,10 +4014,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B121" t="s">
-        <v>187</v>
+        <v>75</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -3929,10 +4025,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B122" t="s">
-        <v>189</v>
+        <v>115</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -3940,10 +4036,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B123" t="s">
-        <v>166</v>
+        <v>132</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -3951,10 +4047,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B124" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -3962,10 +4058,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B125" t="s">
-        <v>193</v>
+        <v>125</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -3973,10 +4069,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B126" t="s">
-        <v>195</v>
+        <v>127</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -3984,10 +4080,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B127" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -3995,10 +4091,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B128" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4006,10 +4102,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B129" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -4017,10 +4113,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B130" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4028,10 +4124,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B131" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4039,10 +4135,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B132" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4050,10 +4146,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B133" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4061,10 +4157,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B134" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4072,10 +4168,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B135" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4083,10 +4179,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B136" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4094,10 +4190,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B137" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4105,10 +4201,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B138" t="s">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4116,10 +4212,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B139" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4127,10 +4223,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B140" t="s">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4138,10 +4234,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B141" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4149,10 +4245,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="B142" t="s">
-        <v>224</v>
+        <v>193</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4160,10 +4256,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="B143" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4171,10 +4267,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="B144" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4182,10 +4278,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B145" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4193,10 +4289,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B146" t="s">
-        <v>230</v>
+        <v>198</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4204,10 +4300,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B147" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4215,10 +4311,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="B148" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4226,10 +4322,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="B149" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4237,10 +4333,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B150" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4248,10 +4344,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="B151" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4259,10 +4355,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="B152" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4270,10 +4366,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="B153" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4281,10 +4377,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B154" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4292,10 +4388,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B155" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4303,10 +4399,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="B156" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4314,10 +4410,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="B157" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4325,10 +4421,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="B158" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4336,10 +4432,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B159" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4347,10 +4443,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="B160" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4358,10 +4454,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="B161" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4369,10 +4465,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="B162" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4380,10 +4476,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="B163" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4391,10 +4487,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="B164" t="s">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4402,10 +4498,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B165" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4413,10 +4509,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B166" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4424,10 +4520,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="B167" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4435,10 +4531,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="B168" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4446,10 +4542,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="B169" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4457,10 +4553,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4468,10 +4564,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
-        <v>232</v>
+        <v>266</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4479,10 +4575,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B172" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4490,10 +4586,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B173" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4501,10 +4597,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B174" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4512,10 +4608,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B175" t="s">
-        <v>228</v>
+        <v>273</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4523,10 +4619,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B176" t="s">
-        <v>211</v>
+        <v>275</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4534,10 +4630,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B177" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4545,10 +4641,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B178" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4556,10 +4652,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B179" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4567,10 +4663,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B180" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4578,10 +4674,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B181" t="s">
-        <v>201</v>
+        <v>268</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4589,10 +4685,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B182" t="s">
-        <v>211</v>
+        <v>285</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4600,10 +4696,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
+        <v>286</v>
+      </c>
+      <c r="B183" t="s">
         <v>287</v>
-      </c>
-      <c r="B183" t="s">
-        <v>288</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4611,10 +4707,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
+        <v>288</v>
+      </c>
+      <c r="B184" t="s">
         <v>289</v>
-      </c>
-      <c r="B184" t="s">
-        <v>290</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4622,10 +4718,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
+        <v>290</v>
+      </c>
+      <c r="B185" t="s">
         <v>291</v>
-      </c>
-      <c r="B185" t="s">
-        <v>259</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4636,7 +4732,7 @@
         <v>292</v>
       </c>
       <c r="B186" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4647,7 +4743,7 @@
         <v>293</v>
       </c>
       <c r="B187" t="s">
-        <v>294</v>
+        <v>266</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4655,10 +4751,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B188" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4666,10 +4762,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
+        <v>295</v>
+      </c>
+      <c r="B189" t="s">
         <v>296</v>
-      </c>
-      <c r="B189" t="s">
-        <v>297</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4677,10 +4773,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B190" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4688,10 +4784,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B191" t="s">
-        <v>228</v>
+        <v>299</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4699,10 +4795,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
+        <v>300</v>
+      </c>
+      <c r="B192" t="s">
         <v>301</v>
-      </c>
-      <c r="B192" t="s">
-        <v>228</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4713,7 +4809,7 @@
         <v>302</v>
       </c>
       <c r="B193" t="s">
-        <v>220</v>
+        <v>303</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4721,10 +4817,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B194" t="s">
-        <v>241</v>
+        <v>264</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4732,10 +4828,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B195" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4746,7 +4842,7 @@
         <v>306</v>
       </c>
       <c r="B196" t="s">
-        <v>211</v>
+        <v>285</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4757,7 +4853,7 @@
         <v>307</v>
       </c>
       <c r="B197" t="s">
-        <v>218</v>
+        <v>291</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4768,7 +4864,7 @@
         <v>308</v>
       </c>
       <c r="B198" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4779,7 +4875,7 @@
         <v>309</v>
       </c>
       <c r="B199" t="s">
-        <v>310</v>
+        <v>243</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4787,10 +4883,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
+        <v>310</v>
+      </c>
+      <c r="B200" t="s">
         <v>311</v>
-      </c>
-      <c r="B200" t="s">
-        <v>312</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4798,10 +4894,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
+        <v>312</v>
+      </c>
+      <c r="B201" t="s">
         <v>313</v>
-      </c>
-      <c r="B201" t="s">
-        <v>310</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4812,7 +4908,7 @@
         <v>314</v>
       </c>
       <c r="B202" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4823,7 +4919,7 @@
         <v>315</v>
       </c>
       <c r="B203" t="s">
-        <v>279</v>
+        <v>316</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4831,10 +4927,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="B204" t="s">
-        <v>201</v>
+        <v>233</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4842,10 +4938,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B205" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4853,10 +4949,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B206" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4864,10 +4960,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B207" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4875,10 +4971,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B208" t="s">
-        <v>218</v>
+        <v>291</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4886,10 +4982,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B209" t="s">
-        <v>206</v>
+        <v>279</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4897,10 +4993,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B210" t="s">
-        <v>284</v>
+        <v>326</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -4908,10 +5004,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B211" t="s">
-        <v>279</v>
+        <v>291</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -4919,10 +5015,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B212" t="s">
-        <v>211</v>
+        <v>329</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -4930,10 +5026,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B213" t="s">
-        <v>206</v>
+        <v>331</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -4941,10 +5037,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="B214" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -4952,10 +5048,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="B215" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -4963,10 +5059,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="B216" t="s">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -4974,10 +5070,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="B217" t="s">
-        <v>206</v>
+        <v>273</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -4985,10 +5081,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="B218" t="s">
-        <v>222</v>
+        <v>337</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -4996,10 +5092,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B219" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5007,10 +5103,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="B220" t="s">
-        <v>319</v>
+        <v>250</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -5018,10 +5114,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B221" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -5029,10 +5125,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B222" t="s">
-        <v>213</v>
+        <v>342</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5040,10 +5136,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B223" t="s">
-        <v>209</v>
+        <v>344</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5051,10 +5147,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="B224" t="s">
-        <v>218</v>
+        <v>342</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5062,10 +5158,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="B225" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5073,10 +5169,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B226" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5084,10 +5180,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="B227" t="s">
-        <v>341</v>
+        <v>233</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5095,10 +5191,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B228" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5106,10 +5202,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="B229" t="s">
-        <v>232</v>
+        <v>351</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5117,10 +5213,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B230" t="s">
-        <v>253</v>
+        <v>342</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5128,10 +5224,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B231" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5139,10 +5235,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B232" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5150,10 +5246,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="B233" t="s">
-        <v>253</v>
+        <v>316</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5161,10 +5257,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="B234" t="s">
-        <v>243</v>
+        <v>311</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5172,10 +5268,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="B235" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5183,10 +5279,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="B236" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5194,10 +5290,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B237" t="s">
-        <v>305</v>
+        <v>254</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5205,10 +5301,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="B238" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5216,10 +5312,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B239" t="s">
-        <v>247</v>
+        <v>322</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5227,10 +5323,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="B240" t="s">
-        <v>355</v>
+        <v>238</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5238,10 +5334,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B241" t="s">
-        <v>341</v>
+        <v>254</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5249,10 +5345,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="B242" t="s">
-        <v>358</v>
+        <v>256</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5260,10 +5356,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B243" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5271,10 +5367,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>361</v>
+        <v>366</v>
       </c>
       <c r="B244" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5282,10 +5378,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="B245" t="s">
-        <v>363</v>
+        <v>245</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5293,10 +5389,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B246" t="s">
-        <v>365</v>
+        <v>241</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5304,10 +5400,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="B247" t="s">
-        <v>367</v>
+        <v>250</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5315,10 +5411,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B248" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5326,10 +5422,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B249" t="s">
-        <v>371</v>
+        <v>329</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5340,7 +5436,7 @@
         <v>372</v>
       </c>
       <c r="B250" t="s">
-        <v>294</v>
+        <v>373</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5348,10 +5444,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B251" t="s">
-        <v>355</v>
+        <v>287</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5359,10 +5455,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B252" t="s">
-        <v>297</v>
+        <v>264</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5370,10 +5466,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B253" t="s">
-        <v>376</v>
+        <v>285</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5384,7 +5480,7 @@
         <v>377</v>
       </c>
       <c r="B254" t="s">
-        <v>376</v>
+        <v>279</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5395,7 +5491,7 @@
         <v>378</v>
       </c>
       <c r="B255" t="s">
-        <v>379</v>
+        <v>277</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5403,10 +5499,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B256" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5414,10 +5510,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B257" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5425,10 +5521,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B258" t="s">
-        <v>234</v>
+        <v>268</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5436,10 +5532,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B259" t="s">
-        <v>234</v>
+        <v>262</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5447,10 +5543,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B260" t="s">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5458,10 +5554,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B261" t="s">
-        <v>253</v>
+        <v>268</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5469,10 +5565,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B262" t="s">
-        <v>247</v>
+        <v>279</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5480,10 +5576,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
+        <v>386</v>
+      </c>
+      <c r="B263" t="s">
         <v>387</v>
-      </c>
-      <c r="B263" t="s">
-        <v>369</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5494,7 +5590,7 @@
         <v>388</v>
       </c>
       <c r="B264" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5505,7 +5601,7 @@
         <v>389</v>
       </c>
       <c r="B265" t="s">
-        <v>355</v>
+        <v>390</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5513,10 +5609,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B266" t="s">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5524,10 +5620,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B267" t="s">
-        <v>376</v>
+        <v>301</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5535,10 +5631,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B268" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5546,10 +5642,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B269" t="s">
-        <v>379</v>
+        <v>397</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5557,10 +5653,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B270" t="s">
-        <v>243</v>
+        <v>399</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5568,10 +5664,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>395</v>
+        <v>400</v>
       </c>
       <c r="B271" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5579,10 +5675,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>397</v>
+        <v>402</v>
       </c>
       <c r="B272" t="s">
-        <v>264</v>
+        <v>403</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5590,10 +5686,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B273" t="s">
-        <v>399</v>
+        <v>326</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5601,10 +5697,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B274" t="s">
-        <v>271</v>
+        <v>387</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5612,10 +5708,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="B275" t="s">
-        <v>264</v>
+        <v>329</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5623,10 +5719,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>402</v>
+        <v>407</v>
       </c>
       <c r="B276" t="s">
-        <v>365</v>
+        <v>408</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5634,10 +5730,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B277" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5645,10 +5741,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B278" t="s">
-        <v>376</v>
+        <v>411</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5656,10 +5752,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
       <c r="B279" t="s">
-        <v>245</v>
+        <v>268</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5667,10 +5763,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B280" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5678,10 +5774,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
       <c r="B281" t="s">
-        <v>297</v>
+        <v>266</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5689,10 +5785,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B282" t="s">
-        <v>379</v>
+        <v>266</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5700,10 +5796,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="B283" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5711,10 +5807,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B284" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5722,10 +5818,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
       <c r="B285" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5733,10 +5829,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B286" t="s">
-        <v>250</v>
+        <v>401</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5744,10 +5840,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
       <c r="B287" t="s">
-        <v>250</v>
+        <v>403</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5755,10 +5851,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B288" t="s">
-        <v>247</v>
+        <v>387</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5766,10 +5862,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="B289" t="s">
-        <v>379</v>
+        <v>408</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5777,10 +5873,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B290" t="s">
-        <v>253</v>
+        <v>408</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5788,10 +5884,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
       <c r="B291" t="s">
-        <v>255</v>
+        <v>390</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5799,10 +5895,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B292" t="s">
-        <v>247</v>
+        <v>411</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5810,10 +5906,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
       <c r="B293" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5821,10 +5917,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B294" t="s">
-        <v>243</v>
+        <v>428</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5832,10 +5928,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B295" t="s">
-        <v>379</v>
+        <v>296</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5843,10 +5939,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B296" t="s">
-        <v>341</v>
+        <v>431</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5854,10 +5950,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="B297" t="s">
-        <v>236</v>
+        <v>303</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5865,10 +5961,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>424</v>
+        <v>433</v>
       </c>
       <c r="B298" t="s">
-        <v>222</v>
+        <v>296</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5876,10 +5972,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>425</v>
+        <v>434</v>
       </c>
       <c r="B299" t="s">
-        <v>239</v>
+        <v>397</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5887,10 +5983,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>426</v>
+        <v>435</v>
       </c>
       <c r="B300" t="s">
-        <v>250</v>
+        <v>401</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5898,10 +5994,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="B301" t="s">
-        <v>253</v>
+        <v>408</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -5909,10 +6005,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="B302" t="s">
-        <v>236</v>
+        <v>277</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -5920,10 +6016,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>429</v>
+        <v>438</v>
       </c>
       <c r="B303" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -5931,10 +6027,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="B304" t="s">
-        <v>239</v>
+        <v>329</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -5942,10 +6038,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="B305" t="s">
-        <v>230</v>
+        <v>411</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -5953,10 +6049,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>432</v>
+        <v>441</v>
       </c>
       <c r="B306" t="s">
-        <v>234</v>
+        <v>282</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -5964,10 +6060,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>433</v>
+        <v>442</v>
       </c>
       <c r="B307" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -5975,10 +6071,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>434</v>
+        <v>443</v>
       </c>
       <c r="B308" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -5986,10 +6082,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="B309" t="s">
-        <v>355</v>
+        <v>282</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -5997,10 +6093,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="B310" t="s">
-        <v>369</v>
+        <v>282</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -6008,10 +6104,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B311" t="s">
-        <v>438</v>
+        <v>279</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -6019,10 +6115,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="B312" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -6030,10 +6126,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B313" t="s">
-        <v>441</v>
+        <v>285</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -6041,10 +6137,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B314" t="s">
-        <v>443</v>
+        <v>287</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -6052,10 +6148,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B315" t="s">
-        <v>445</v>
+        <v>279</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -6063,10 +6159,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="B316" t="s">
-        <v>447</v>
+        <v>285</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6074,10 +6170,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B317" t="s">
-        <v>449</v>
+        <v>275</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6085,10 +6181,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="B318" t="s">
-        <v>447</v>
+        <v>411</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6096,10 +6192,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="B319" t="s">
-        <v>452</v>
+        <v>373</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6107,10 +6203,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B320" t="s">
-        <v>454</v>
+        <v>268</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6118,10 +6214,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B321" t="s">
-        <v>447</v>
+        <v>254</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6129,10 +6225,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B322" t="s">
-        <v>457</v>
+        <v>271</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6143,7 +6239,7 @@
         <v>458</v>
       </c>
       <c r="B323" t="s">
-        <v>459</v>
+        <v>282</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6151,10 +6247,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B324" t="s">
-        <v>461</v>
+        <v>285</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6162,10 +6258,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B325" t="s">
-        <v>463</v>
+        <v>268</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6173,10 +6269,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="B326" t="s">
-        <v>465</v>
+        <v>273</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6184,10 +6280,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B327" t="s">
-        <v>459</v>
+        <v>271</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6195,10 +6291,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B328" t="s">
-        <v>468</v>
+        <v>262</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6206,10 +6302,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="B329" t="s">
-        <v>452</v>
+        <v>266</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6217,10 +6313,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="B330" t="s">
-        <v>465</v>
+        <v>282</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6228,10 +6324,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="B331" t="s">
-        <v>472</v>
+        <v>282</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6239,10 +6335,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B332" t="s">
-        <v>449</v>
+        <v>387</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6250,10 +6346,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B333" t="s">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6261,10 +6357,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="B334" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6272,10 +6368,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B335" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6283,10 +6379,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B336" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6294,10 +6390,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="B337" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6305,10 +6401,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B338" t="s">
-        <v>447</v>
+        <v>477</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6316,10 +6412,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B339" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6327,10 +6423,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B340" t="s">
-        <v>449</v>
+        <v>481</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6338,10 +6434,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="B341" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6349,10 +6445,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B342" t="s">
-        <v>269</v>
+        <v>484</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6360,10 +6456,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="B343" t="s">
-        <v>360</v>
+        <v>486</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6371,10 +6467,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="B344" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6382,10 +6478,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="B345" t="s">
-        <v>267</v>
+        <v>489</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6393,10 +6489,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B346" t="s">
-        <v>360</v>
+        <v>491</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6404,10 +6500,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B347" t="s">
-        <v>438</v>
+        <v>493</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6415,10 +6511,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
+        <v>494</v>
+      </c>
+      <c r="B348" t="s">
         <v>495</v>
-      </c>
-      <c r="B348" t="s">
-        <v>475</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6440,7 +6536,7 @@
         <v>498</v>
       </c>
       <c r="B350" t="s">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6451,7 +6547,7 @@
         <v>499</v>
       </c>
       <c r="B351" t="s">
-        <v>367</v>
+        <v>500</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6459,10 +6555,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B352" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6470,10 +6566,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B353" t="s">
-        <v>443</v>
+        <v>497</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6481,10 +6577,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B354" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6492,10 +6588,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B355" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6503,10 +6599,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B356" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6514,10 +6610,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B357" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6525,10 +6621,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B358" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6536,10 +6632,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B359" t="s">
-        <v>443</v>
+        <v>512</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6547,10 +6643,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B360" t="s">
-        <v>497</v>
+        <v>514</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6558,10 +6654,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B361" t="s">
-        <v>506</v>
+        <v>479</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6569,10 +6665,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="B362" t="s">
-        <v>497</v>
+        <v>517</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6580,10 +6676,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B363" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6591,10 +6687,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B364" t="s">
-        <v>488</v>
+        <v>520</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6602,10 +6698,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="B365" t="s">
-        <v>506</v>
+        <v>301</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6613,10 +6709,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="B366" t="s">
-        <v>449</v>
+        <v>392</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6624,10 +6720,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="B367" t="s">
-        <v>445</v>
+        <v>507</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6635,10 +6731,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="B368" t="s">
-        <v>506</v>
+        <v>299</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6646,10 +6742,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="B369" t="s">
-        <v>445</v>
+        <v>392</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6657,10 +6753,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>521</v>
+        <v>526</v>
       </c>
       <c r="B370" t="s">
-        <v>457</v>
+        <v>470</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6668,10 +6764,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>522</v>
+        <v>527</v>
       </c>
       <c r="B371" t="s">
-        <v>475</v>
+        <v>507</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6679,10 +6775,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>523</v>
+        <v>528</v>
       </c>
       <c r="B372" t="s">
-        <v>445</v>
+        <v>529</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6690,10 +6786,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B373" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6701,10 +6797,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="B374" t="s">
-        <v>527</v>
+        <v>399</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6712,10 +6808,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B375" t="s">
-        <v>441</v>
+        <v>507</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6723,10 +6819,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B376" t="s">
-        <v>267</v>
+        <v>475</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6734,10 +6830,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B377" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6745,10 +6841,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B378" t="s">
-        <v>441</v>
+        <v>520</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6756,10 +6852,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B379" t="s">
-        <v>267</v>
+        <v>538</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6767,10 +6863,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>534</v>
+        <v>539</v>
       </c>
       <c r="B380" t="s">
-        <v>535</v>
+        <v>540</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6778,10 +6874,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>536</v>
+        <v>541</v>
       </c>
       <c r="B381" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6789,10 +6885,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B382" t="s">
-        <v>367</v>
+        <v>475</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6800,10 +6896,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B383" t="s">
-        <v>267</v>
+        <v>529</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6811,10 +6907,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B384" t="s">
-        <v>358</v>
+        <v>538</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6822,10 +6918,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B385" t="s">
-        <v>371</v>
+        <v>529</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6833,10 +6929,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B386" t="s">
-        <v>236</v>
+        <v>479</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6844,10 +6940,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B387" t="s">
-        <v>297</v>
+        <v>520</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6855,10 +6951,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B388" t="s">
-        <v>236</v>
+        <v>538</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6866,10 +6962,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B389" t="s">
-        <v>234</v>
+        <v>481</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6877,10 +6973,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B390" t="s">
-        <v>236</v>
+        <v>477</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6888,10 +6984,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B391" t="s">
-        <v>379</v>
+        <v>538</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6899,10 +6995,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="B392" t="s">
-        <v>234</v>
+        <v>477</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -6910,10 +7006,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B393" t="s">
-        <v>253</v>
+        <v>489</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -6921,10 +7017,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="B394" t="s">
-        <v>228</v>
+        <v>507</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -6932,10 +7028,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B395" t="s">
-        <v>305</v>
+        <v>477</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -6943,10 +7039,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B396" t="s">
-        <v>288</v>
+        <v>557</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -6954,10 +7050,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>553</v>
+        <v>558</v>
       </c>
       <c r="B397" t="s">
-        <v>253</v>
+        <v>559</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -6965,10 +7061,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B398" t="s">
-        <v>259</v>
+        <v>473</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -6976,10 +7072,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B399" t="s">
-        <v>241</v>
+        <v>299</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -6987,10 +7083,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="B400" t="s">
-        <v>245</v>
+        <v>563</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -6998,10 +7094,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>557</v>
+        <v>564</v>
       </c>
       <c r="B401" t="s">
-        <v>236</v>
+        <v>473</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -7009,10 +7105,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="B402" t="s">
-        <v>243</v>
+        <v>299</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -7020,10 +7116,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>559</v>
+        <v>566</v>
       </c>
       <c r="B403" t="s">
-        <v>371</v>
+        <v>567</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7031,10 +7127,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>560</v>
+        <v>568</v>
       </c>
       <c r="B404" t="s">
-        <v>376</v>
+        <v>569</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -7042,10 +7138,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>561</v>
+        <v>570</v>
       </c>
       <c r="B405" t="s">
-        <v>562</v>
+        <v>399</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -7053,10 +7149,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="B406" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7064,10 +7160,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>564</v>
+        <v>572</v>
       </c>
       <c r="B407" t="s">
-        <v>341</v>
+        <v>390</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7075,10 +7171,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="B408" t="s">
-        <v>376</v>
+        <v>403</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7086,10 +7182,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B409" t="s">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7097,10 +7193,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>567</v>
+        <v>575</v>
       </c>
       <c r="B410" t="s">
-        <v>257</v>
+        <v>329</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7108,10 +7204,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="B411" t="s">
-        <v>369</v>
+        <v>268</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7119,10 +7215,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>569</v>
+        <v>577</v>
       </c>
       <c r="B412" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7130,10 +7226,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="B413" t="s">
-        <v>358</v>
+        <v>268</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7141,10 +7237,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>571</v>
+        <v>579</v>
       </c>
       <c r="B414" t="s">
-        <v>537</v>
+        <v>411</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7152,10 +7248,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="B415" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7163,10 +7259,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="B416" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7174,10 +7270,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="B417" t="s">
-        <v>355</v>
+        <v>260</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7185,10 +7281,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>575</v>
+        <v>583</v>
       </c>
       <c r="B418" t="s">
-        <v>355</v>
+        <v>337</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7196,10 +7292,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="B419" t="s">
-        <v>250</v>
+        <v>320</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7207,10 +7303,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>577</v>
+        <v>585</v>
       </c>
       <c r="B420" t="s">
-        <v>363</v>
+        <v>285</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7218,10 +7314,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="B421" t="s">
-        <v>369</v>
+        <v>291</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7229,10 +7325,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>579</v>
+        <v>587</v>
       </c>
       <c r="B422" t="s">
-        <v>358</v>
+        <v>273</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7240,10 +7336,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="B423" t="s">
-        <v>485</v>
+        <v>277</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7251,10 +7347,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>581</v>
+        <v>589</v>
       </c>
       <c r="B424" t="s">
-        <v>454</v>
+        <v>268</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7262,10 +7358,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="B425" t="s">
-        <v>457</v>
+        <v>275</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7273,10 +7369,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="B426" t="s">
-        <v>497</v>
+        <v>403</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7284,10 +7380,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="B427" t="s">
-        <v>447</v>
+        <v>408</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7295,10 +7391,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="B428" t="s">
-        <v>452</v>
+        <v>594</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7306,10 +7402,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>586</v>
+        <v>595</v>
       </c>
       <c r="B429" t="s">
-        <v>477</v>
+        <v>303</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7317,10 +7413,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>587</v>
+        <v>596</v>
       </c>
       <c r="B430" t="s">
-        <v>452</v>
+        <v>373</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7328,10 +7424,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="B431" t="s">
-        <v>463</v>
+        <v>408</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7339,10 +7435,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="B432" t="s">
-        <v>590</v>
+        <v>282</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7350,10 +7446,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="B433" t="s">
-        <v>459</v>
+        <v>289</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7361,10 +7457,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>592</v>
+        <v>600</v>
       </c>
       <c r="B434" t="s">
-        <v>503</v>
+        <v>401</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7372,10 +7468,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B435" t="s">
-        <v>531</v>
+        <v>287</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7383,10 +7479,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>594</v>
+        <v>602</v>
       </c>
       <c r="B436" t="s">
-        <v>475</v>
+        <v>390</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7394,10 +7490,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
       <c r="B437" t="s">
-        <v>465</v>
+        <v>569</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7405,10 +7501,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>596</v>
+        <v>604</v>
       </c>
       <c r="B438" t="s">
-        <v>597</v>
+        <v>303</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7416,10 +7512,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>598</v>
+        <v>605</v>
       </c>
       <c r="B439" t="s">
-        <v>599</v>
+        <v>303</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7427,10 +7523,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="B440" t="s">
-        <v>601</v>
+        <v>387</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7438,10 +7534,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="B441" t="s">
-        <v>603</v>
+        <v>387</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7449,10 +7545,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B442" t="s">
-        <v>605</v>
+        <v>282</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7460,10 +7556,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="B443" t="s">
-        <v>607</v>
+        <v>395</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7471,10 +7567,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B444" t="s">
-        <v>609</v>
+        <v>401</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7482,10 +7578,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B445" t="s">
-        <v>611</v>
+        <v>390</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7496,7 +7592,7 @@
         <v>612</v>
       </c>
       <c r="B446" t="s">
-        <v>613</v>
+        <v>517</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7504,10 +7600,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B447" t="s">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7515,10 +7611,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B448" t="s">
-        <v>457</v>
+        <v>489</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7526,10 +7622,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B449" t="s">
-        <v>447</v>
+        <v>529</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7537,10 +7633,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B450" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7548,10 +7644,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B451" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7559,10 +7655,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B452" t="s">
-        <v>438</v>
+        <v>509</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7570,10 +7666,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B453" t="s">
-        <v>363</v>
+        <v>484</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7581,10 +7677,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B454" t="s">
-        <v>622</v>
+        <v>495</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7592,10 +7688,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B455" t="s">
-        <v>477</v>
+        <v>622</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7603,10 +7699,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B456" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7614,10 +7710,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B457" t="s">
-        <v>452</v>
+        <v>535</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7625,10 +7721,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B458" t="s">
-        <v>627</v>
+        <v>563</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7636,10 +7732,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B459" t="s">
-        <v>480</v>
+        <v>507</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7647,10 +7743,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B460" t="s">
-        <v>630</v>
+        <v>497</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7658,10 +7754,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B461" t="s">
-        <v>472</v>
+        <v>629</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7669,10 +7765,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B462" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7680,10 +7776,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="B463" t="s">
-        <v>477</v>
+        <v>633</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7691,10 +7787,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
+        <v>634</v>
+      </c>
+      <c r="B464" t="s">
         <v>635</v>
-      </c>
-      <c r="B464" t="s">
-        <v>363</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7705,7 +7801,7 @@
         <v>636</v>
       </c>
       <c r="B465" t="s">
-        <v>441</v>
+        <v>637</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7713,10 +7809,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B466" t="s">
-        <v>488</v>
+        <v>639</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7724,10 +7820,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B467" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7735,10 +7831,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B468" t="s">
-        <v>358</v>
+        <v>643</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7746,10 +7842,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="B469" t="s">
-        <v>537</v>
+        <v>645</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7757,10 +7853,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B470" t="s">
-        <v>369</v>
+        <v>486</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7768,10 +7864,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="B471" t="s">
-        <v>341</v>
+        <v>489</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -7779,10 +7875,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B472" t="s">
-        <v>341</v>
+        <v>479</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -7790,10 +7886,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B473" t="s">
-        <v>358</v>
+        <v>512</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -7801,10 +7897,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B474" t="s">
-        <v>267</v>
+        <v>504</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -7812,10 +7908,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B475" t="s">
-        <v>271</v>
+        <v>470</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -7823,10 +7919,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B476" t="s">
-        <v>639</v>
+        <v>395</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -7834,10 +7930,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B477" t="s">
-        <v>537</v>
+        <v>654</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -7845,10 +7941,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="B478" t="s">
-        <v>365</v>
+        <v>509</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -7856,10 +7952,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="B479" t="s">
-        <v>358</v>
+        <v>491</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -7867,10 +7963,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>652</v>
+        <v>657</v>
       </c>
       <c r="B480" t="s">
-        <v>271</v>
+        <v>484</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -7878,10 +7974,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="B481" t="s">
-        <v>369</v>
+        <v>659</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -7889,10 +7985,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="B482" t="s">
-        <v>250</v>
+        <v>512</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -7900,10 +7996,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="B483" t="s">
-        <v>234</v>
+        <v>662</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -7911,10 +8007,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="B484" t="s">
-        <v>250</v>
+        <v>504</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -7922,10 +8018,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="B485" t="s">
-        <v>562</v>
+        <v>665</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -7933,10 +8029,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="B486" t="s">
-        <v>271</v>
+        <v>509</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -7944,10 +8040,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="B487" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -7955,10 +8051,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="B488" t="s">
-        <v>255</v>
+        <v>473</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -7966,10 +8062,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B489" t="s">
-        <v>363</v>
+        <v>520</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -7977,10 +8073,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="B490" t="s">
-        <v>562</v>
+        <v>671</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -7988,10 +8084,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>663</v>
+        <v>672</v>
       </c>
       <c r="B491" t="s">
-        <v>622</v>
+        <v>390</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -7999,10 +8095,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>664</v>
+        <v>673</v>
       </c>
       <c r="B492" t="s">
-        <v>341</v>
+        <v>569</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -8010,10 +8106,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>665</v>
+        <v>674</v>
       </c>
       <c r="B493" t="s">
-        <v>525</v>
+        <v>401</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -8021,10 +8117,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>666</v>
+        <v>675</v>
       </c>
       <c r="B494" t="s">
-        <v>527</v>
+        <v>373</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -8032,10 +8128,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>667</v>
+        <v>676</v>
       </c>
       <c r="B495" t="s">
-        <v>267</v>
+        <v>373</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -8043,10 +8139,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>668</v>
+        <v>677</v>
       </c>
       <c r="B496" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -8054,10 +8150,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>669</v>
+        <v>678</v>
       </c>
       <c r="B497" t="s">
-        <v>562</v>
+        <v>299</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8065,10 +8161,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="B498" t="s">
-        <v>271</v>
+        <v>303</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8076,10 +8172,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
+        <v>680</v>
+      </c>
+      <c r="B499" t="s">
         <v>671</v>
-      </c>
-      <c r="B499" t="s">
-        <v>363</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8087,10 +8183,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>672</v>
+        <v>681</v>
       </c>
       <c r="B500" t="s">
-        <v>269</v>
+        <v>569</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8098,10 +8194,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="B501" t="s">
-        <v>438</v>
+        <v>397</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8109,10 +8205,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>674</v>
+        <v>683</v>
       </c>
       <c r="B502" t="s">
-        <v>506</v>
+        <v>390</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8120,10 +8216,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="B503" t="s">
-        <v>488</v>
+        <v>303</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8131,10 +8227,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>676</v>
+        <v>685</v>
       </c>
       <c r="B504" t="s">
-        <v>633</v>
+        <v>401</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8142,10 +8238,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>677</v>
+        <v>686</v>
       </c>
       <c r="B505" t="s">
-        <v>531</v>
+        <v>282</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8153,10 +8249,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>678</v>
+        <v>687</v>
       </c>
       <c r="B506" t="s">
-        <v>475</v>
+        <v>266</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8164,10 +8260,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>679</v>
+        <v>688</v>
       </c>
       <c r="B507" t="s">
-        <v>680</v>
+        <v>282</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8175,10 +8271,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>681</v>
+        <v>689</v>
       </c>
       <c r="B508" t="s">
-        <v>682</v>
+        <v>594</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8186,10 +8282,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="B509" t="s">
-        <v>684</v>
+        <v>303</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8197,10 +8293,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>685</v>
+        <v>691</v>
       </c>
       <c r="B510" t="s">
-        <v>686</v>
+        <v>397</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8208,10 +8304,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="B511" t="s">
-        <v>688</v>
+        <v>287</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8219,10 +8315,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="B512" t="s">
-        <v>690</v>
+        <v>395</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8230,10 +8326,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="B513" t="s">
-        <v>692</v>
+        <v>594</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8241,10 +8337,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B514" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8252,10 +8348,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B515" t="s">
-        <v>695</v>
+        <v>373</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8263,10 +8359,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B516" t="s">
-        <v>697</v>
+        <v>557</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8277,7 +8373,7 @@
         <v>698</v>
       </c>
       <c r="B517" t="s">
-        <v>699</v>
+        <v>559</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8285,10 +8381,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="B518" t="s">
-        <v>633</v>
+        <v>299</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8296,10 +8392,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B519" t="s">
-        <v>503</v>
+        <v>401</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8307,10 +8403,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B520" t="s">
-        <v>457</v>
+        <v>594</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8318,10 +8414,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B521" t="s">
-        <v>457</v>
+        <v>303</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8329,10 +8425,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B522" t="s">
-        <v>445</v>
+        <v>395</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8340,10 +8436,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B523" t="s">
-        <v>480</v>
+        <v>301</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8351,10 +8447,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B524" t="s">
-        <v>449</v>
+        <v>470</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8362,10 +8458,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B525" t="s">
-        <v>531</v>
+        <v>538</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8373,10 +8469,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B526" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8384,10 +8480,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B527" t="s">
-        <v>447</v>
+        <v>665</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8395,10 +8491,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B528" t="s">
-        <v>482</v>
+        <v>563</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8406,10 +8502,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B529" t="s">
-        <v>447</v>
+        <v>507</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -8417,10 +8513,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
+        <v>711</v>
+      </c>
+      <c r="B530" t="s">
         <v>712</v>
-      </c>
-      <c r="B530" t="s">
-        <v>633</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -8431,7 +8527,7 @@
         <v>713</v>
       </c>
       <c r="B531" t="s">
-        <v>472</v>
+        <v>714</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -8439,10 +8535,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B532" t="s">
-        <v>699</v>
+        <v>716</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -8450,10 +8546,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="B533" t="s">
-        <v>699</v>
+        <v>718</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -8461,10 +8557,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="B534" t="s">
-        <v>465</v>
+        <v>720</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -8472,10 +8568,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="B535" t="s">
-        <v>601</v>
+        <v>722</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -8483,10 +8579,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>718</v>
+        <v>723</v>
       </c>
       <c r="B536" t="s">
-        <v>680</v>
+        <v>724</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -8494,7 +8590,7 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>719</v>
+        <v>725</v>
       </c>
       <c r="B537" t="s">
         <v>720</v>
@@ -8505,10 +8601,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>721</v>
+        <v>726</v>
       </c>
       <c r="B538" t="s">
-        <v>699</v>
+        <v>727</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -8516,10 +8612,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>722</v>
+        <v>728</v>
       </c>
       <c r="B539" t="s">
-        <v>449</v>
+        <v>729</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -8527,10 +8623,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="B540" t="s">
-        <v>447</v>
+        <v>731</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -8538,10 +8634,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>724</v>
+        <v>732</v>
       </c>
       <c r="B541" t="s">
-        <v>531</v>
+        <v>665</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -8549,10 +8645,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="B542" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -8560,10 +8656,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="B543" t="s">
-        <v>639</v>
+        <v>489</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -8571,10 +8667,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="B544" t="s">
-        <v>250</v>
+        <v>489</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -8582,10 +8678,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>728</v>
+        <v>736</v>
       </c>
       <c r="B545" t="s">
-        <v>341</v>
+        <v>477</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -8593,10 +8689,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>729</v>
+        <v>737</v>
       </c>
       <c r="B546" t="s">
-        <v>358</v>
+        <v>512</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -8604,10 +8700,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>730</v>
+        <v>738</v>
       </c>
       <c r="B547" t="s">
-        <v>259</v>
+        <v>481</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -8615,10 +8711,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>731</v>
+        <v>739</v>
       </c>
       <c r="B548" t="s">
-        <v>379</v>
+        <v>563</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -8626,10 +8722,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B549" t="s">
-        <v>288</v>
+        <v>559</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -8637,10 +8733,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>733</v>
+        <v>741</v>
       </c>
       <c r="B550" t="s">
-        <v>201</v>
+        <v>479</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -8648,10 +8744,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>734</v>
+        <v>742</v>
       </c>
       <c r="B551" t="s">
-        <v>209</v>
+        <v>514</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -8659,10 +8755,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>735</v>
+        <v>743</v>
       </c>
       <c r="B552" t="s">
-        <v>204</v>
+        <v>479</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -8670,10 +8766,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>736</v>
+        <v>744</v>
       </c>
       <c r="B553" t="s">
-        <v>737</v>
+        <v>665</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -8681,10 +8777,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>738</v>
+        <v>745</v>
       </c>
       <c r="B554" t="s">
-        <v>199</v>
+        <v>504</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -8692,10 +8788,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>739</v>
+        <v>746</v>
       </c>
       <c r="B555" t="s">
-        <v>284</v>
+        <v>731</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -8703,10 +8799,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>740</v>
+        <v>747</v>
       </c>
       <c r="B556" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -8714,10 +8810,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>742</v>
+        <v>748</v>
       </c>
       <c r="B557" t="s">
-        <v>743</v>
+        <v>497</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -8725,10 +8821,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="B558" t="s">
-        <v>743</v>
+        <v>633</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -8736,10 +8832,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="B559" t="s">
-        <v>746</v>
+        <v>712</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -8747,10 +8843,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B560" t="s">
-        <v>743</v>
+        <v>752</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -8758,10 +8854,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
       <c r="B561" t="s">
-        <v>749</v>
+        <v>731</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -8769,12 +8865,265 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>750</v>
+        <v>754</v>
       </c>
       <c r="B562" t="s">
-        <v>749</v>
+        <v>481</v>
       </c>
       <c r="C562" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="s">
+        <v>755</v>
+      </c>
+      <c r="B563" t="s">
+        <v>479</v>
+      </c>
+      <c r="C563" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="s">
+        <v>756</v>
+      </c>
+      <c r="B564" t="s">
+        <v>563</v>
+      </c>
+      <c r="C564" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="s">
+        <v>757</v>
+      </c>
+      <c r="B565" t="s">
+        <v>594</v>
+      </c>
+      <c r="C565" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="s">
+        <v>758</v>
+      </c>
+      <c r="B566" t="s">
+        <v>671</v>
+      </c>
+      <c r="C566" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="s">
+        <v>759</v>
+      </c>
+      <c r="B567" t="s">
+        <v>282</v>
+      </c>
+      <c r="C567" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="s">
+        <v>760</v>
+      </c>
+      <c r="B568" t="s">
+        <v>373</v>
+      </c>
+      <c r="C568" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="s">
+        <v>761</v>
+      </c>
+      <c r="B569" t="s">
+        <v>390</v>
+      </c>
+      <c r="C569" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="s">
+        <v>762</v>
+      </c>
+      <c r="B570" t="s">
+        <v>291</v>
+      </c>
+      <c r="C570" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="s">
+        <v>763</v>
+      </c>
+      <c r="B571" t="s">
+        <v>411</v>
+      </c>
+      <c r="C571" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="s">
+        <v>764</v>
+      </c>
+      <c r="B572" t="s">
+        <v>320</v>
+      </c>
+      <c r="C572" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="s">
+        <v>765</v>
+      </c>
+      <c r="B573" t="s">
+        <v>233</v>
+      </c>
+      <c r="C573" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="s">
+        <v>766</v>
+      </c>
+      <c r="B574" t="s">
+        <v>241</v>
+      </c>
+      <c r="C574" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="s">
+        <v>767</v>
+      </c>
+      <c r="B575" t="s">
+        <v>236</v>
+      </c>
+      <c r="C575" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="s">
+        <v>768</v>
+      </c>
+      <c r="B576" t="s">
+        <v>769</v>
+      </c>
+      <c r="C576" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="s">
+        <v>770</v>
+      </c>
+      <c r="B577" t="s">
+        <v>231</v>
+      </c>
+      <c r="C577" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="s">
+        <v>771</v>
+      </c>
+      <c r="B578" t="s">
+        <v>316</v>
+      </c>
+      <c r="C578" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="s">
+        <v>772</v>
+      </c>
+      <c r="B579" t="s">
+        <v>773</v>
+      </c>
+      <c r="C579" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="s">
+        <v>774</v>
+      </c>
+      <c r="B580" t="s">
+        <v>775</v>
+      </c>
+      <c r="C580" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="s">
+        <v>776</v>
+      </c>
+      <c r="B581" t="s">
+        <v>775</v>
+      </c>
+      <c r="C581" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="s">
+        <v>777</v>
+      </c>
+      <c r="B582" t="s">
+        <v>778</v>
+      </c>
+      <c r="C582" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="s">
+        <v>779</v>
+      </c>
+      <c r="B583" t="s">
+        <v>775</v>
+      </c>
+      <c r="C583" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="s">
+        <v>780</v>
+      </c>
+      <c r="B584" t="s">
+        <v>781</v>
+      </c>
+      <c r="C584" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="s">
+        <v>782</v>
+      </c>
+      <c r="B585" t="s">
+        <v>781</v>
+      </c>
+      <c r="C585" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink International Health Care Fund.xlsx
+++ b/data/GreatLink/GreatLink International Health Care Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid455541"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid618540"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="816">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,138 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>03/09/2024</t>
+  </si>
+  <si>
+    <t>1.067</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>02/09/2024</t>
+  </si>
+  <si>
+    <t>1.078</t>
+  </si>
+  <si>
+    <t>30/08/2024</t>
+  </si>
+  <si>
+    <t>1.075</t>
+  </si>
+  <si>
+    <t>29/08/2024</t>
+  </si>
+  <si>
+    <t>1.070</t>
+  </si>
+  <si>
+    <t>28/08/2024</t>
+  </si>
+  <si>
+    <t>1.062</t>
+  </si>
+  <si>
+    <t>27/08/2024</t>
+  </si>
+  <si>
+    <t>1.061</t>
+  </si>
+  <si>
+    <t>26/08/2024</t>
+  </si>
+  <si>
+    <t>1.057</t>
+  </si>
+  <si>
+    <t>23/08/2024</t>
+  </si>
+  <si>
+    <t>22/08/2024</t>
+  </si>
+  <si>
+    <t>21/08/2024</t>
+  </si>
+  <si>
+    <t>1.059</t>
+  </si>
+  <si>
+    <t>20/08/2024</t>
+  </si>
+  <si>
+    <t>1.055</t>
+  </si>
+  <si>
+    <t>19/08/2024</t>
+  </si>
+  <si>
+    <t>16/08/2024</t>
+  </si>
+  <si>
+    <t>1.054</t>
+  </si>
+  <si>
+    <t>15/08/2024</t>
+  </si>
+  <si>
+    <t>1.050</t>
+  </si>
+  <si>
+    <t>14/08/2024</t>
+  </si>
+  <si>
+    <t>1.045</t>
+  </si>
+  <si>
+    <t>13/08/2024</t>
+  </si>
+  <si>
+    <t>1.046</t>
+  </si>
+  <si>
+    <t>12/08/2024</t>
+  </si>
+  <si>
+    <t>1.034</t>
+  </si>
+  <si>
+    <t>08/08/2024</t>
+  </si>
+  <si>
+    <t>1.031</t>
+  </si>
+  <si>
+    <t>07/08/2024</t>
+  </si>
+  <si>
+    <t>1.006</t>
+  </si>
+  <si>
+    <t>06/08/2024</t>
+  </si>
+  <si>
+    <t>1.017</t>
+  </si>
+  <si>
+    <t>05/08/2024</t>
+  </si>
+  <si>
+    <t>1.007</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>1.036</t>
+  </si>
+  <si>
     <t>01/08/2024</t>
   </si>
   <si>
     <t>1.051</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>31/07/2024</t>
   </si>
   <si>
@@ -80,9 +203,6 @@
     <t>22/07/2024</t>
   </si>
   <si>
-    <t>1.059</t>
-  </si>
-  <si>
     <t>19/07/2024</t>
   </si>
   <si>
@@ -143,24 +263,15 @@
     <t>03/07/2024</t>
   </si>
   <si>
-    <t>1.031</t>
-  </si>
-  <si>
     <t>02/07/2024</t>
   </si>
   <si>
     <t>01/07/2024</t>
   </si>
   <si>
-    <t>1.045</t>
-  </si>
-  <si>
     <t>28/06/2024</t>
   </si>
   <si>
-    <t>1.046</t>
-  </si>
-  <si>
     <t>27/06/2024</t>
   </si>
   <si>
@@ -188,9 +299,6 @@
     <t>18/06/2024</t>
   </si>
   <si>
-    <t>1.034</t>
-  </si>
-  <si>
     <t>14/06/2024</t>
   </si>
   <si>
@@ -236,9 +344,6 @@
     <t>31/05/2024</t>
   </si>
   <si>
-    <t>1.017</t>
-  </si>
-  <si>
     <t>30/05/2024</t>
   </si>
   <si>
@@ -275,9 +380,6 @@
     <t>20/05/2024</t>
   </si>
   <si>
-    <t>1.036</t>
-  </si>
-  <si>
     <t>17/05/2024</t>
   </si>
   <si>
@@ -309,9 +411,6 @@
   </si>
   <si>
     <t>08/05/2024</t>
-  </si>
-  <si>
-    <t>1.007</t>
   </si>
   <si>
     <t>07/05/2024</t>
@@ -2785,7 +2884,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2793,10 +2892,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2804,10 +2903,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2815,10 +2914,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2829,7 +2928,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2837,10 +2936,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2848,10 +2947,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2859,10 +2958,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2870,10 +2969,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2884,7 +2983,7 @@
         <v>33</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2892,10 +2991,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -2903,10 +3002,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -2914,10 +3013,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -2925,10 +3024,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -2936,10 +3035,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -2947,10 +3046,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -2958,10 +3057,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -2969,10 +3068,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -2980,10 +3079,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>17</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -2991,10 +3090,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3002,10 +3101,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3013,10 +3112,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3024,10 +3123,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3035,10 +3134,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3046,10 +3145,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3057,10 +3156,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3068,10 +3167,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3079,10 +3178,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="B36" t="s">
-        <v>15</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3090,10 +3189,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="B37" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3101,10 +3200,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3112,10 +3211,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3123,10 +3222,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3134,10 +3233,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3145,10 +3244,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>67</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3156,10 +3255,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3167,10 +3266,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3178,10 +3277,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3189,7 +3288,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
         <v>75</v>
@@ -3200,10 +3299,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3211,10 +3310,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3222,10 +3321,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3233,10 +3332,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3244,10 +3343,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3255,10 +3354,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3266,10 +3365,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3277,10 +3376,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>75</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3288,10 +3387,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3299,10 +3398,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3310,10 +3409,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3321,10 +3420,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B58" t="s">
-        <v>93</v>
+        <v>56</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3332,10 +3431,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B59" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3343,10 +3442,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3354,10 +3453,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B61" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3365,10 +3464,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B62" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3376,10 +3475,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B63" t="s">
-        <v>102</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3390,7 +3489,7 @@
         <v>103</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3398,10 +3497,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
+        <v>104</v>
+      </c>
+      <c r="B65" t="s">
         <v>105</v>
-      </c>
-      <c r="B65" t="s">
-        <v>106</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3409,10 +3508,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
+        <v>106</v>
+      </c>
+      <c r="B66" t="s">
         <v>107</v>
-      </c>
-      <c r="B66" t="s">
-        <v>104</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3423,7 +3522,7 @@
         <v>108</v>
       </c>
       <c r="B67" t="s">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3431,10 +3530,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
+        <v>109</v>
+      </c>
+      <c r="B68" t="s">
         <v>110</v>
-      </c>
-      <c r="B68" t="s">
-        <v>102</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3445,7 +3544,7 @@
         <v>111</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3489,7 +3588,7 @@
         <v>118</v>
       </c>
       <c r="B73" t="s">
-        <v>119</v>
+        <v>36</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3497,10 +3596,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3508,10 +3607,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>122</v>
+        <v>44</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3519,10 +3618,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B76" t="s">
-        <v>117</v>
+        <v>34</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3530,10 +3629,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B77" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3541,10 +3640,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B78" t="s">
-        <v>127</v>
+        <v>56</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3552,10 +3651,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B79" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3563,10 +3662,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B80" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3574,10 +3673,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3585,10 +3684,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3596,10 +3695,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B83" t="s">
-        <v>109</v>
+        <v>42</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3607,10 +3706,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B84" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3618,10 +3717,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B85" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3629,10 +3728,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B86" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3640,10 +3739,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B87" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3651,10 +3750,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3662,10 +3761,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
+        <v>141</v>
+      </c>
+      <c r="B89" t="s">
         <v>142</v>
-      </c>
-      <c r="B89" t="s">
-        <v>143</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3673,10 +3772,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B90" t="s">
-        <v>80</v>
+        <v>135</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3684,10 +3783,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B91" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3695,10 +3794,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B92" t="s">
-        <v>82</v>
+        <v>146</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3706,10 +3805,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
+        <v>147</v>
+      </c>
+      <c r="B93" t="s">
         <v>148</v>
-      </c>
-      <c r="B93" t="s">
-        <v>146</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3720,7 +3819,7 @@
         <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>91</v>
+        <v>150</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3728,10 +3827,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B95" t="s">
-        <v>73</v>
+        <v>152</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3739,7 +3838,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B96" t="s">
         <v>152</v>
@@ -3750,10 +3849,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B97" t="s">
-        <v>93</v>
+        <v>155</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3761,10 +3860,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B98" t="s">
-        <v>95</v>
+        <v>150</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3772,10 +3871,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B99" t="s">
-        <v>80</v>
+        <v>158</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3783,10 +3882,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B100" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3794,10 +3893,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B101" t="s">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3805,10 +3904,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B102" t="s">
-        <v>143</v>
+        <v>163</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3816,10 +3915,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="B103" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3827,10 +3926,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B104" t="s">
-        <v>162</v>
+        <v>42</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3838,10 +3937,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B105" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3849,10 +3948,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="B106" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3860,10 +3959,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B107" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3871,10 +3970,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B108" t="s">
-        <v>95</v>
+        <v>172</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3882,10 +3981,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B109" t="s">
-        <v>164</v>
+        <v>56</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3893,10 +3992,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="B110" t="s">
-        <v>146</v>
+        <v>56</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -3904,10 +4003,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B111" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -3915,10 +4014,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B112" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -3926,10 +4025,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="B113" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -3937,10 +4036,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B114" t="s">
-        <v>175</v>
+        <v>117</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -3948,10 +4047,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B115" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -3959,10 +4058,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B116" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -3970,10 +4069,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B117" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -3981,10 +4080,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="B118" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -3992,10 +4091,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B119" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -4003,10 +4102,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B120" t="s">
-        <v>182</v>
+        <v>129</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4014,10 +4113,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B121" t="s">
-        <v>75</v>
+        <v>115</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -4025,10 +4124,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B122" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -4036,10 +4135,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B123" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -4047,10 +4146,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B124" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -4058,10 +4157,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B125" t="s">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -4069,10 +4168,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B126" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4080,10 +4179,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B127" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4091,10 +4190,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B128" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4102,10 +4201,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B129" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -4113,10 +4212,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B130" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4124,10 +4223,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
+        <v>201</v>
+      </c>
+      <c r="B131" t="s">
         <v>197</v>
-      </c>
-      <c r="B131" t="s">
-        <v>198</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4135,10 +4234,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B132" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4146,10 +4245,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B133" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4157,10 +4256,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B134" t="s">
-        <v>204</v>
+        <v>125</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4168,10 +4267,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B135" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4179,10 +4278,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B136" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4190,10 +4289,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B137" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4204,7 +4303,7 @@
         <v>210</v>
       </c>
       <c r="B138" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4215,7 +4314,7 @@
         <v>211</v>
       </c>
       <c r="B139" t="s">
-        <v>212</v>
+        <v>169</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4223,10 +4322,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B140" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4234,10 +4333,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B141" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4245,10 +4344,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
+        <v>214</v>
+      </c>
+      <c r="B142" t="s">
         <v>215</v>
-      </c>
-      <c r="B142" t="s">
-        <v>193</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4259,7 +4358,7 @@
         <v>216</v>
       </c>
       <c r="B143" t="s">
-        <v>217</v>
+        <v>110</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4267,10 +4366,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B144" t="s">
-        <v>219</v>
+        <v>148</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4278,10 +4377,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B145" t="s">
-        <v>221</v>
+        <v>165</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4289,10 +4388,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B146" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4300,10 +4399,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B147" t="s">
-        <v>221</v>
+        <v>158</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4311,10 +4410,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B148" t="s">
-        <v>225</v>
+        <v>160</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4322,10 +4421,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B149" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4333,10 +4432,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B150" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4344,10 +4443,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B151" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4355,10 +4454,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B152" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4366,10 +4465,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B153" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4377,10 +4476,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="B154" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4388,10 +4487,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B155" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4399,10 +4498,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B156" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4410,10 +4509,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B157" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4421,10 +4520,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B158" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4432,10 +4531,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B159" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4443,10 +4542,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B160" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4454,10 +4553,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B161" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4465,10 +4564,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="B162" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4476,10 +4575,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B163" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4487,10 +4586,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B164" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4498,10 +4597,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B165" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4509,7 +4608,7 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B166" t="s">
         <v>252</v>
@@ -4520,10 +4619,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="B167" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4531,10 +4630,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B168" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4542,10 +4641,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="B169" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4553,10 +4652,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B170" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4564,10 +4663,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B171" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4575,10 +4674,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B172" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4586,10 +4685,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B173" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4597,10 +4696,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B174" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4608,10 +4707,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B175" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4619,10 +4718,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B176" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4630,10 +4729,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B177" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4641,10 +4740,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B178" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4652,10 +4751,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="B179" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4663,10 +4762,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B180" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4674,10 +4773,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B181" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4685,10 +4784,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4696,10 +4795,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B183" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4707,10 +4806,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B184" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4718,10 +4817,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B185" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4729,10 +4828,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B186" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4740,10 +4839,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B187" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4751,10 +4850,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B188" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4762,10 +4861,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B189" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4773,10 +4872,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B190" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4784,10 +4883,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B191" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4795,10 +4894,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="B192" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4806,10 +4905,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="B193" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4817,10 +4916,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="B194" t="s">
-        <v>264</v>
+        <v>301</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4828,10 +4927,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B195" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -4839,10 +4938,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B196" t="s">
-        <v>285</v>
+        <v>304</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4850,10 +4949,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B197" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4861,10 +4960,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
+        <v>307</v>
+      </c>
+      <c r="B198" t="s">
         <v>308</v>
-      </c>
-      <c r="B198" t="s">
-        <v>260</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4875,7 +4974,7 @@
         <v>309</v>
       </c>
       <c r="B199" t="s">
-        <v>243</v>
+        <v>310</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4883,10 +4982,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B200" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4894,10 +4993,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B201" t="s">
-        <v>313</v>
+        <v>297</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -4908,7 +5007,7 @@
         <v>314</v>
       </c>
       <c r="B202" t="s">
-        <v>245</v>
+        <v>315</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -4916,10 +5015,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B203" t="s">
-        <v>316</v>
+        <v>301</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -4930,7 +5029,7 @@
         <v>317</v>
       </c>
       <c r="B204" t="s">
-        <v>233</v>
+        <v>318</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -4938,10 +5037,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B205" t="s">
-        <v>243</v>
+        <v>320</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -4949,10 +5048,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B206" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -4960,10 +5059,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B207" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -4971,10 +5070,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B208" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -4982,10 +5081,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B209" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -4993,10 +5092,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B210" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -5004,10 +5103,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B211" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -5015,7 +5114,7 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B212" t="s">
         <v>329</v>
@@ -5026,10 +5125,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B213" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -5037,10 +5136,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B214" t="s">
-        <v>260</v>
+        <v>334</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -5048,10 +5147,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B215" t="s">
-        <v>260</v>
+        <v>336</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -5059,10 +5158,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B216" t="s">
-        <v>252</v>
+        <v>297</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -5070,10 +5169,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B217" t="s">
-        <v>273</v>
+        <v>324</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -5081,10 +5180,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B218" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -5092,10 +5191,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B219" t="s">
-        <v>243</v>
+        <v>324</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5103,10 +5202,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B220" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -5114,10 +5213,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B221" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -5125,10 +5224,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B222" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5136,10 +5235,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B223" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5147,10 +5246,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B224" t="s">
-        <v>342</v>
+        <v>278</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5158,10 +5257,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B225" t="s">
-        <v>311</v>
+        <v>349</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5169,10 +5268,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B226" t="s">
-        <v>311</v>
+        <v>266</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5180,10 +5279,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B227" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5191,10 +5290,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B228" t="s">
-        <v>241</v>
+        <v>353</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5202,10 +5301,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B229" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5213,10 +5312,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B230" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5224,10 +5323,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B231" t="s">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5235,10 +5334,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B232" t="s">
-        <v>238</v>
+        <v>359</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5246,10 +5345,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B233" t="s">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5257,10 +5356,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="B234" t="s">
-        <v>311</v>
+        <v>362</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5268,10 +5367,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B235" t="s">
-        <v>243</v>
+        <v>364</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5279,10 +5378,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B236" t="s">
-        <v>238</v>
+        <v>293</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5290,10 +5389,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
       <c r="B237" t="s">
-        <v>254</v>
+        <v>293</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5301,10 +5400,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B238" t="s">
-        <v>250</v>
+        <v>285</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5312,10 +5411,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
       <c r="B239" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5323,10 +5422,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B240" t="s">
-        <v>238</v>
+        <v>370</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5334,10 +5433,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B241" t="s">
-        <v>254</v>
+        <v>276</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5345,10 +5444,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="B242" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5356,10 +5455,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B243" t="s">
-        <v>351</v>
+        <v>283</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5367,10 +5466,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="B244" t="s">
-        <v>311</v>
+        <v>375</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5378,10 +5477,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="B245" t="s">
-        <v>245</v>
+        <v>377</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5389,10 +5488,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="B246" t="s">
-        <v>241</v>
+        <v>375</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5400,10 +5499,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="B247" t="s">
-        <v>250</v>
+        <v>344</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5411,10 +5510,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="B248" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5422,10 +5521,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="B249" t="s">
-        <v>329</v>
+        <v>266</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5433,10 +5532,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B250" t="s">
-        <v>373</v>
+        <v>274</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5444,10 +5543,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>374</v>
+        <v>383</v>
       </c>
       <c r="B251" t="s">
-        <v>287</v>
+        <v>384</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5455,10 +5554,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
+        <v>385</v>
+      </c>
+      <c r="B252" t="s">
         <v>375</v>
-      </c>
-      <c r="B252" t="s">
-        <v>264</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5466,10 +5565,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B253" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5477,10 +5576,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B254" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5488,10 +5587,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B255" t="s">
-        <v>277</v>
+        <v>349</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5499,10 +5598,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B256" t="s">
-        <v>285</v>
+        <v>344</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5510,10 +5609,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B257" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5521,10 +5620,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B258" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5532,10 +5631,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B259" t="s">
-        <v>262</v>
+        <v>287</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5543,10 +5642,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B260" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5554,10 +5653,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B261" t="s">
-        <v>268</v>
+        <v>355</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5565,10 +5664,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B262" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5576,10 +5675,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B263" t="s">
-        <v>387</v>
+        <v>287</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5587,10 +5686,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="B264" t="s">
-        <v>373</v>
+        <v>289</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5598,10 +5697,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="B265" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5609,10 +5708,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B266" t="s">
-        <v>392</v>
+        <v>344</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5620,10 +5719,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
       <c r="B267" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5631,10 +5730,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B268" t="s">
-        <v>395</v>
+        <v>274</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5642,10 +5741,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B269" t="s">
-        <v>397</v>
+        <v>283</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5653,10 +5752,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>398</v>
+        <v>403</v>
       </c>
       <c r="B270" t="s">
-        <v>399</v>
+        <v>375</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5664,10 +5763,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B271" t="s">
-        <v>401</v>
+        <v>362</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5675,10 +5774,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="B272" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5686,10 +5785,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="B273" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5697,10 +5796,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="B274" t="s">
-        <v>387</v>
+        <v>297</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5708,10 +5807,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="B275" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5719,10 +5818,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B276" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5730,10 +5829,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B277" t="s">
-        <v>408</v>
+        <v>310</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5741,10 +5840,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B278" t="s">
-        <v>411</v>
+        <v>318</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5752,10 +5851,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B279" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5763,10 +5862,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B280" t="s">
-        <v>285</v>
+        <v>301</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5774,10 +5873,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B281" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5785,10 +5884,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B282" t="s">
-        <v>266</v>
+        <v>370</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5796,10 +5895,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B283" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5807,10 +5906,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B284" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5818,10 +5917,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B285" t="s">
-        <v>279</v>
+        <v>420</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5829,10 +5928,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B286" t="s">
-        <v>401</v>
+        <v>406</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5840,10 +5939,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B287" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5851,10 +5950,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="B288" t="s">
-        <v>387</v>
+        <v>425</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5862,10 +5961,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B289" t="s">
-        <v>408</v>
+        <v>334</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5873,10 +5972,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B290" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5884,10 +5983,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="B291" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5895,10 +5994,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B292" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -5906,10 +6005,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B293" t="s">
-        <v>275</v>
+        <v>434</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -5917,10 +6016,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B294" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -5928,10 +6027,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B295" t="s">
-        <v>296</v>
+        <v>359</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -5939,10 +6038,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B296" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -5950,10 +6049,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B297" t="s">
-        <v>303</v>
+        <v>362</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -5961,10 +6060,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
       <c r="B298" t="s">
-        <v>296</v>
+        <v>441</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -5972,10 +6071,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B299" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -5983,10 +6082,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="B300" t="s">
-        <v>401</v>
+        <v>444</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -5994,10 +6093,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>436</v>
+        <v>445</v>
       </c>
       <c r="B301" t="s">
-        <v>408</v>
+        <v>301</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -6005,10 +6104,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>437</v>
+        <v>446</v>
       </c>
       <c r="B302" t="s">
-        <v>277</v>
+        <v>318</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -6016,10 +6115,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
       <c r="B303" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -6027,10 +6126,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="B304" t="s">
-        <v>329</v>
+        <v>299</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -6038,10 +6137,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>440</v>
+        <v>449</v>
       </c>
       <c r="B305" t="s">
-        <v>411</v>
+        <v>312</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -6049,10 +6148,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>441</v>
+        <v>450</v>
       </c>
       <c r="B306" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -6060,10 +6159,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="B307" t="s">
-        <v>277</v>
+        <v>312</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -6071,10 +6170,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>443</v>
+        <v>452</v>
       </c>
       <c r="B308" t="s">
-        <v>275</v>
+        <v>434</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -6082,10 +6181,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>444</v>
+        <v>453</v>
       </c>
       <c r="B309" t="s">
-        <v>282</v>
+        <v>436</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -6093,10 +6192,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>445</v>
+        <v>454</v>
       </c>
       <c r="B310" t="s">
-        <v>282</v>
+        <v>420</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -6104,10 +6203,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>446</v>
+        <v>455</v>
       </c>
       <c r="B311" t="s">
-        <v>279</v>
+        <v>441</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -6115,10 +6214,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>447</v>
+        <v>456</v>
       </c>
       <c r="B312" t="s">
-        <v>411</v>
+        <v>441</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -6126,10 +6225,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="B313" t="s">
-        <v>285</v>
+        <v>423</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -6137,10 +6236,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="B314" t="s">
-        <v>287</v>
+        <v>444</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -6148,10 +6247,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>450</v>
+        <v>459</v>
       </c>
       <c r="B315" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -6159,10 +6258,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="B316" t="s">
-        <v>285</v>
+        <v>461</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6170,10 +6269,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="B317" t="s">
-        <v>275</v>
+        <v>329</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6181,10 +6280,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="B318" t="s">
-        <v>411</v>
+        <v>464</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6192,10 +6291,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>454</v>
+        <v>465</v>
       </c>
       <c r="B319" t="s">
-        <v>373</v>
+        <v>336</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6203,10 +6302,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>455</v>
+        <v>466</v>
       </c>
       <c r="B320" t="s">
-        <v>268</v>
+        <v>329</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6214,10 +6313,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>456</v>
+        <v>467</v>
       </c>
       <c r="B321" t="s">
-        <v>254</v>
+        <v>430</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6225,10 +6324,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>457</v>
+        <v>468</v>
       </c>
       <c r="B322" t="s">
-        <v>271</v>
+        <v>434</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6236,10 +6335,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>458</v>
+        <v>469</v>
       </c>
       <c r="B323" t="s">
-        <v>282</v>
+        <v>441</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6247,10 +6346,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="B324" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6258,10 +6357,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>460</v>
+        <v>471</v>
       </c>
       <c r="B325" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6269,10 +6368,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>461</v>
+        <v>472</v>
       </c>
       <c r="B326" t="s">
-        <v>273</v>
+        <v>362</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6280,10 +6379,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>462</v>
+        <v>473</v>
       </c>
       <c r="B327" t="s">
-        <v>271</v>
+        <v>444</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6291,10 +6390,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>463</v>
+        <v>474</v>
       </c>
       <c r="B328" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6302,10 +6401,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>464</v>
+        <v>475</v>
       </c>
       <c r="B329" t="s">
-        <v>266</v>
+        <v>310</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6313,10 +6412,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="B330" t="s">
-        <v>282</v>
+        <v>308</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6324,10 +6423,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>466</v>
+        <v>477</v>
       </c>
       <c r="B331" t="s">
-        <v>282</v>
+        <v>315</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6335,10 +6434,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="B332" t="s">
-        <v>387</v>
+        <v>315</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6346,10 +6445,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>468</v>
+        <v>479</v>
       </c>
       <c r="B333" t="s">
-        <v>401</v>
+        <v>312</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6357,10 +6456,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>469</v>
+        <v>480</v>
       </c>
       <c r="B334" t="s">
-        <v>470</v>
+        <v>444</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6368,10 +6467,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B335" t="s">
-        <v>431</v>
+        <v>318</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6379,10 +6478,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="B336" t="s">
-        <v>473</v>
+        <v>320</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6390,10 +6489,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="B337" t="s">
-        <v>475</v>
+        <v>312</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6401,10 +6500,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B338" t="s">
-        <v>477</v>
+        <v>318</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6412,10 +6511,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B339" t="s">
-        <v>479</v>
+        <v>308</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6423,10 +6522,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B340" t="s">
-        <v>481</v>
+        <v>444</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6434,10 +6533,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="B341" t="s">
-        <v>479</v>
+        <v>406</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6445,10 +6544,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="B342" t="s">
-        <v>484</v>
+        <v>301</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6456,10 +6555,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B343" t="s">
-        <v>486</v>
+        <v>287</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6467,10 +6566,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="B344" t="s">
-        <v>479</v>
+        <v>304</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6478,10 +6577,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="B345" t="s">
-        <v>489</v>
+        <v>315</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6489,10 +6588,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B346" t="s">
-        <v>491</v>
+        <v>318</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6500,10 +6599,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B347" t="s">
-        <v>493</v>
+        <v>301</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6514,7 +6613,7 @@
         <v>494</v>
       </c>
       <c r="B348" t="s">
-        <v>495</v>
+        <v>306</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6522,10 +6621,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B349" t="s">
-        <v>497</v>
+        <v>304</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6533,10 +6632,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B350" t="s">
-        <v>491</v>
+        <v>295</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6544,10 +6643,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B351" t="s">
-        <v>500</v>
+        <v>299</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6555,10 +6654,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B352" t="s">
-        <v>484</v>
+        <v>315</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6566,10 +6665,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B353" t="s">
-        <v>497</v>
+        <v>315</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6577,10 +6676,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B354" t="s">
-        <v>504</v>
+        <v>420</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6588,10 +6687,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B355" t="s">
-        <v>481</v>
+        <v>434</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6599,10 +6698,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B356" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6610,10 +6709,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="B357" t="s">
-        <v>509</v>
+        <v>464</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6621,10 +6720,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="B358" t="s">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6632,10 +6731,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B359" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6643,10 +6742,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B360" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6654,10 +6753,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B361" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6665,10 +6764,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B362" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6676,10 +6775,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="B363" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6687,10 +6786,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B364" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6698,10 +6797,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B365" t="s">
-        <v>301</v>
+        <v>519</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6709,10 +6808,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B366" t="s">
-        <v>392</v>
+        <v>512</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6720,10 +6819,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B367" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6731,10 +6830,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
+        <v>523</v>
+      </c>
+      <c r="B368" t="s">
         <v>524</v>
-      </c>
-      <c r="B368" t="s">
-        <v>299</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6745,7 +6844,7 @@
         <v>525</v>
       </c>
       <c r="B369" t="s">
-        <v>392</v>
+        <v>526</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6753,10 +6852,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B370" t="s">
-        <v>470</v>
+        <v>528</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6764,10 +6863,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B371" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6775,10 +6874,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B372" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6786,10 +6885,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B373" t="s">
-        <v>517</v>
+        <v>533</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6797,10 +6896,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B374" t="s">
-        <v>399</v>
+        <v>517</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6808,10 +6907,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="B375" t="s">
-        <v>507</v>
+        <v>530</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6819,10 +6918,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="B376" t="s">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6830,10 +6929,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B377" t="s">
-        <v>535</v>
+        <v>514</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6841,10 +6940,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B378" t="s">
-        <v>520</v>
+        <v>540</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6852,10 +6951,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B379" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6863,10 +6962,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B380" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6874,10 +6973,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B381" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6885,10 +6984,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B382" t="s">
-        <v>475</v>
+        <v>547</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6896,10 +6995,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>543</v>
+        <v>548</v>
       </c>
       <c r="B383" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -6907,10 +7006,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>544</v>
+        <v>549</v>
       </c>
       <c r="B384" t="s">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -6918,10 +7017,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B385" t="s">
-        <v>529</v>
+        <v>514</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -6929,10 +7028,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B386" t="s">
-        <v>479</v>
+        <v>553</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -6940,10 +7039,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>547</v>
+        <v>554</v>
       </c>
       <c r="B387" t="s">
-        <v>520</v>
+        <v>334</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -6951,10 +7050,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>548</v>
+        <v>555</v>
       </c>
       <c r="B388" t="s">
-        <v>538</v>
+        <v>425</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -6962,10 +7061,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>549</v>
+        <v>556</v>
       </c>
       <c r="B389" t="s">
-        <v>481</v>
+        <v>540</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -6973,10 +7072,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>550</v>
+        <v>557</v>
       </c>
       <c r="B390" t="s">
-        <v>477</v>
+        <v>332</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -6984,10 +7083,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>551</v>
+        <v>558</v>
       </c>
       <c r="B391" t="s">
-        <v>538</v>
+        <v>425</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -6995,10 +7094,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>552</v>
+        <v>559</v>
       </c>
       <c r="B392" t="s">
-        <v>477</v>
+        <v>503</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -7006,10 +7105,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>553</v>
+        <v>560</v>
       </c>
       <c r="B393" t="s">
-        <v>489</v>
+        <v>540</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -7017,10 +7116,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>554</v>
+        <v>561</v>
       </c>
       <c r="B394" t="s">
-        <v>507</v>
+        <v>562</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -7028,10 +7127,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="B395" t="s">
-        <v>477</v>
+        <v>550</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -7039,10 +7138,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="B396" t="s">
-        <v>557</v>
+        <v>432</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -7050,10 +7149,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>558</v>
+        <v>565</v>
       </c>
       <c r="B397" t="s">
-        <v>559</v>
+        <v>540</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -7061,10 +7160,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>560</v>
+        <v>566</v>
       </c>
       <c r="B398" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -7072,10 +7171,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B399" t="s">
-        <v>299</v>
+        <v>568</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7083,10 +7182,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>562</v>
+        <v>569</v>
       </c>
       <c r="B400" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -7094,10 +7193,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>564</v>
+        <v>570</v>
       </c>
       <c r="B401" t="s">
-        <v>473</v>
+        <v>571</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -7105,10 +7204,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>565</v>
+        <v>572</v>
       </c>
       <c r="B402" t="s">
-        <v>299</v>
+        <v>573</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -7116,10 +7215,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B403" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7127,10 +7226,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>568</v>
+        <v>575</v>
       </c>
       <c r="B404" t="s">
-        <v>569</v>
+        <v>508</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -7138,10 +7237,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>570</v>
+        <v>576</v>
       </c>
       <c r="B405" t="s">
-        <v>399</v>
+        <v>562</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -7149,10 +7248,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
+        <v>577</v>
+      </c>
+      <c r="B406" t="s">
         <v>571</v>
-      </c>
-      <c r="B406" t="s">
-        <v>299</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7160,10 +7259,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>572</v>
+        <v>578</v>
       </c>
       <c r="B407" t="s">
-        <v>390</v>
+        <v>562</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7171,10 +7270,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B408" t="s">
-        <v>403</v>
+        <v>512</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7182,10 +7281,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>574</v>
+        <v>580</v>
       </c>
       <c r="B409" t="s">
-        <v>268</v>
+        <v>553</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7193,10 +7292,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B410" t="s">
-        <v>329</v>
+        <v>571</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7204,10 +7303,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>576</v>
+        <v>582</v>
       </c>
       <c r="B411" t="s">
-        <v>268</v>
+        <v>514</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7215,10 +7314,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B412" t="s">
-        <v>266</v>
+        <v>510</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7226,10 +7325,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="B413" t="s">
-        <v>268</v>
+        <v>571</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7237,10 +7336,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B414" t="s">
-        <v>411</v>
+        <v>510</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7248,10 +7347,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B415" t="s">
-        <v>266</v>
+        <v>522</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7259,10 +7358,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B416" t="s">
-        <v>285</v>
+        <v>540</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7270,10 +7369,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="B417" t="s">
-        <v>260</v>
+        <v>510</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7281,10 +7380,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B418" t="s">
-        <v>337</v>
+        <v>590</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7292,10 +7391,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>584</v>
+        <v>591</v>
       </c>
       <c r="B419" t="s">
-        <v>320</v>
+        <v>592</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7303,10 +7402,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="B420" t="s">
-        <v>285</v>
+        <v>506</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7314,10 +7413,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>586</v>
+        <v>594</v>
       </c>
       <c r="B421" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7325,10 +7424,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="B422" t="s">
-        <v>273</v>
+        <v>596</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7336,10 +7435,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>588</v>
+        <v>597</v>
       </c>
       <c r="B423" t="s">
-        <v>277</v>
+        <v>506</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7347,10 +7446,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>589</v>
+        <v>598</v>
       </c>
       <c r="B424" t="s">
-        <v>268</v>
+        <v>332</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7358,10 +7457,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>590</v>
+        <v>599</v>
       </c>
       <c r="B425" t="s">
-        <v>275</v>
+        <v>600</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7369,10 +7468,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
       <c r="B426" t="s">
-        <v>403</v>
+        <v>602</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7380,10 +7479,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>592</v>
+        <v>603</v>
       </c>
       <c r="B427" t="s">
-        <v>408</v>
+        <v>432</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7391,10 +7490,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>593</v>
+        <v>604</v>
       </c>
       <c r="B428" t="s">
-        <v>594</v>
+        <v>332</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7402,10 +7501,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
       <c r="B429" t="s">
-        <v>303</v>
+        <v>423</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7413,10 +7512,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="B430" t="s">
-        <v>373</v>
+        <v>436</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7424,10 +7523,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
       <c r="B431" t="s">
-        <v>408</v>
+        <v>301</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7435,10 +7534,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="B432" t="s">
-        <v>282</v>
+        <v>362</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7446,10 +7545,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
       <c r="B433" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7457,10 +7556,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="B434" t="s">
-        <v>401</v>
+        <v>299</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7468,10 +7567,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
       <c r="B435" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7479,10 +7578,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="B436" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7490,10 +7589,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
       <c r="B437" t="s">
-        <v>569</v>
+        <v>299</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7501,10 +7600,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="B438" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7512,10 +7611,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
       <c r="B439" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7523,10 +7622,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="B440" t="s">
-        <v>387</v>
+        <v>370</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7534,10 +7633,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
       <c r="B441" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7545,10 +7644,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="B442" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7556,10 +7655,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
       <c r="B443" t="s">
-        <v>395</v>
+        <v>324</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7567,10 +7666,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="B444" t="s">
-        <v>401</v>
+        <v>306</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7578,10 +7677,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
       <c r="B445" t="s">
-        <v>390</v>
+        <v>310</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7589,10 +7688,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="B446" t="s">
-        <v>517</v>
+        <v>301</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7600,10 +7699,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
       <c r="B447" t="s">
-        <v>486</v>
+        <v>308</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7611,10 +7710,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="B448" t="s">
-        <v>489</v>
+        <v>436</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7622,10 +7721,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
       <c r="B449" t="s">
-        <v>529</v>
+        <v>441</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7633,10 +7732,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="B450" t="s">
-        <v>479</v>
+        <v>627</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7644,10 +7743,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>617</v>
+        <v>628</v>
       </c>
       <c r="B451" t="s">
-        <v>484</v>
+        <v>336</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7655,10 +7754,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>618</v>
+        <v>629</v>
       </c>
       <c r="B452" t="s">
-        <v>509</v>
+        <v>406</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7666,10 +7765,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>619</v>
+        <v>630</v>
       </c>
       <c r="B453" t="s">
-        <v>484</v>
+        <v>441</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7677,10 +7776,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>620</v>
+        <v>631</v>
       </c>
       <c r="B454" t="s">
-        <v>495</v>
+        <v>315</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7688,10 +7787,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>621</v>
+        <v>632</v>
       </c>
       <c r="B455" t="s">
-        <v>622</v>
+        <v>322</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7699,10 +7798,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
       <c r="B456" t="s">
-        <v>491</v>
+        <v>434</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7710,10 +7809,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="B457" t="s">
-        <v>535</v>
+        <v>320</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7721,10 +7820,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
       <c r="B458" t="s">
-        <v>563</v>
+        <v>423</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7732,10 +7831,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="B459" t="s">
-        <v>507</v>
+        <v>602</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7743,10 +7842,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="B460" t="s">
-        <v>497</v>
+        <v>336</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7754,10 +7853,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="B461" t="s">
-        <v>629</v>
+        <v>336</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7765,10 +7864,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>630</v>
+        <v>639</v>
       </c>
       <c r="B462" t="s">
-        <v>631</v>
+        <v>420</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7776,10 +7875,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>632</v>
+        <v>640</v>
       </c>
       <c r="B463" t="s">
-        <v>633</v>
+        <v>420</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7787,10 +7886,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>634</v>
+        <v>641</v>
       </c>
       <c r="B464" t="s">
-        <v>635</v>
+        <v>315</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7798,10 +7897,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>636</v>
+        <v>642</v>
       </c>
       <c r="B465" t="s">
-        <v>637</v>
+        <v>428</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7809,10 +7908,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B466" t="s">
-        <v>639</v>
+        <v>434</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7820,10 +7919,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B467" t="s">
-        <v>641</v>
+        <v>423</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7831,10 +7930,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="B468" t="s">
-        <v>643</v>
+        <v>550</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7842,10 +7941,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B469" t="s">
-        <v>645</v>
+        <v>519</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7853,10 +7952,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B470" t="s">
-        <v>486</v>
+        <v>522</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7864,10 +7963,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B471" t="s">
-        <v>489</v>
+        <v>562</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -7875,10 +7974,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="B472" t="s">
-        <v>479</v>
+        <v>512</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -7886,10 +7985,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="B473" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -7897,10 +7996,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B474" t="s">
-        <v>504</v>
+        <v>542</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -7908,10 +8007,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B475" t="s">
-        <v>470</v>
+        <v>517</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -7919,10 +8018,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B476" t="s">
-        <v>395</v>
+        <v>528</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -7930,10 +8029,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B477" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -7941,10 +8040,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B478" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -7952,10 +8051,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B479" t="s">
-        <v>491</v>
+        <v>568</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -7963,10 +8062,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B480" t="s">
-        <v>484</v>
+        <v>596</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -7974,10 +8073,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B481" t="s">
-        <v>659</v>
+        <v>540</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -7988,7 +8087,7 @@
         <v>660</v>
       </c>
       <c r="B482" t="s">
-        <v>512</v>
+        <v>530</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -8010,7 +8109,7 @@
         <v>663</v>
       </c>
       <c r="B484" t="s">
-        <v>504</v>
+        <v>664</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -8018,10 +8117,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B485" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -8029,10 +8128,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B486" t="s">
-        <v>509</v>
+        <v>668</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -8040,10 +8139,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="B487" t="s">
-        <v>395</v>
+        <v>670</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -8051,10 +8150,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="B488" t="s">
-        <v>473</v>
+        <v>672</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -8062,10 +8161,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="B489" t="s">
-        <v>520</v>
+        <v>674</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -8073,10 +8172,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="B490" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -8084,10 +8183,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="B491" t="s">
-        <v>390</v>
+        <v>678</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -8095,10 +8194,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="B492" t="s">
-        <v>569</v>
+        <v>519</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -8106,10 +8205,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="B493" t="s">
-        <v>401</v>
+        <v>522</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -8117,10 +8216,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="B494" t="s">
-        <v>373</v>
+        <v>512</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -8128,10 +8227,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
       <c r="B495" t="s">
-        <v>373</v>
+        <v>545</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -8139,10 +8238,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="B496" t="s">
-        <v>390</v>
+        <v>537</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -8150,10 +8249,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B497" t="s">
-        <v>299</v>
+        <v>503</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8161,10 +8260,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="B498" t="s">
-        <v>303</v>
+        <v>428</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8172,10 +8271,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="B499" t="s">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8183,10 +8282,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="B500" t="s">
-        <v>569</v>
+        <v>542</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8194,10 +8293,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="B501" t="s">
-        <v>397</v>
+        <v>524</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8205,10 +8304,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="B502" t="s">
-        <v>390</v>
+        <v>517</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8216,10 +8315,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="B503" t="s">
-        <v>303</v>
+        <v>692</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8227,10 +8326,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>685</v>
+        <v>693</v>
       </c>
       <c r="B504" t="s">
-        <v>401</v>
+        <v>545</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8238,10 +8337,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="B505" t="s">
-        <v>282</v>
+        <v>695</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8249,10 +8348,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>687</v>
+        <v>696</v>
       </c>
       <c r="B506" t="s">
-        <v>266</v>
+        <v>537</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8260,10 +8359,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>688</v>
+        <v>697</v>
       </c>
       <c r="B507" t="s">
-        <v>282</v>
+        <v>698</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8271,10 +8370,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>689</v>
+        <v>699</v>
       </c>
       <c r="B508" t="s">
-        <v>594</v>
+        <v>542</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8282,10 +8381,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>690</v>
+        <v>700</v>
       </c>
       <c r="B509" t="s">
-        <v>303</v>
+        <v>428</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8293,10 +8392,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>691</v>
+        <v>701</v>
       </c>
       <c r="B510" t="s">
-        <v>397</v>
+        <v>506</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8304,10 +8403,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>692</v>
+        <v>702</v>
       </c>
       <c r="B511" t="s">
-        <v>287</v>
+        <v>553</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8315,10 +8414,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>693</v>
+        <v>703</v>
       </c>
       <c r="B512" t="s">
-        <v>395</v>
+        <v>704</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8326,10 +8425,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>694</v>
+        <v>705</v>
       </c>
       <c r="B513" t="s">
-        <v>594</v>
+        <v>423</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8337,10 +8436,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>695</v>
+        <v>706</v>
       </c>
       <c r="B514" t="s">
-        <v>654</v>
+        <v>602</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8348,10 +8447,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>696</v>
+        <v>707</v>
       </c>
       <c r="B515" t="s">
-        <v>373</v>
+        <v>434</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8359,10 +8458,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>697</v>
+        <v>708</v>
       </c>
       <c r="B516" t="s">
-        <v>557</v>
+        <v>406</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8370,10 +8469,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="B517" t="s">
-        <v>559</v>
+        <v>406</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8381,10 +8480,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>699</v>
+        <v>710</v>
       </c>
       <c r="B518" t="s">
-        <v>299</v>
+        <v>423</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8392,10 +8491,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>700</v>
+        <v>711</v>
       </c>
       <c r="B519" t="s">
-        <v>401</v>
+        <v>332</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8403,10 +8502,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>701</v>
+        <v>712</v>
       </c>
       <c r="B520" t="s">
-        <v>594</v>
+        <v>336</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8414,10 +8513,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>702</v>
+        <v>713</v>
       </c>
       <c r="B521" t="s">
-        <v>303</v>
+        <v>704</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8425,10 +8524,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>703</v>
+        <v>714</v>
       </c>
       <c r="B522" t="s">
-        <v>395</v>
+        <v>602</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8436,10 +8535,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="B523" t="s">
-        <v>301</v>
+        <v>430</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8447,10 +8546,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="B524" t="s">
-        <v>470</v>
+        <v>423</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8458,10 +8557,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="B525" t="s">
-        <v>538</v>
+        <v>336</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8469,10 +8568,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="B526" t="s">
-        <v>520</v>
+        <v>434</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8480,10 +8579,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="B527" t="s">
-        <v>665</v>
+        <v>315</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8491,10 +8590,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="B528" t="s">
-        <v>563</v>
+        <v>299</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8502,10 +8601,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="B529" t="s">
-        <v>507</v>
+        <v>315</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -8513,10 +8612,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="B530" t="s">
-        <v>712</v>
+        <v>627</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -8524,10 +8623,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>713</v>
+        <v>723</v>
       </c>
       <c r="B531" t="s">
-        <v>714</v>
+        <v>336</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -8535,10 +8634,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>715</v>
+        <v>724</v>
       </c>
       <c r="B532" t="s">
-        <v>716</v>
+        <v>430</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -8546,10 +8645,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="B533" t="s">
-        <v>718</v>
+        <v>320</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -8557,10 +8656,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="B534" t="s">
-        <v>720</v>
+        <v>428</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -8568,10 +8667,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>721</v>
+        <v>727</v>
       </c>
       <c r="B535" t="s">
-        <v>722</v>
+        <v>627</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -8579,10 +8678,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>723</v>
+        <v>728</v>
       </c>
       <c r="B536" t="s">
-        <v>724</v>
+        <v>687</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -8590,10 +8689,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B537" t="s">
-        <v>720</v>
+        <v>406</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -8601,10 +8700,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="B538" t="s">
-        <v>727</v>
+        <v>590</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -8612,10 +8711,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>728</v>
+        <v>731</v>
       </c>
       <c r="B539" t="s">
-        <v>729</v>
+        <v>592</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -8623,10 +8722,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B540" t="s">
-        <v>731</v>
+        <v>332</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -8634,10 +8733,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B541" t="s">
-        <v>665</v>
+        <v>434</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -8645,10 +8744,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B542" t="s">
-        <v>535</v>
+        <v>627</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -8656,10 +8755,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B543" t="s">
-        <v>489</v>
+        <v>336</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -8667,10 +8766,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B544" t="s">
-        <v>489</v>
+        <v>428</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -8678,10 +8777,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B545" t="s">
-        <v>477</v>
+        <v>334</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -8689,10 +8788,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B546" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -8700,10 +8799,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B547" t="s">
-        <v>481</v>
+        <v>571</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -8711,10 +8810,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B548" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -8722,10 +8821,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B549" t="s">
-        <v>559</v>
+        <v>698</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -8733,10 +8832,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B550" t="s">
-        <v>479</v>
+        <v>596</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -8744,10 +8843,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B551" t="s">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -8755,10 +8854,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B552" t="s">
-        <v>479</v>
+        <v>745</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -8766,10 +8865,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B553" t="s">
-        <v>665</v>
+        <v>747</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -8777,10 +8876,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B554" t="s">
-        <v>504</v>
+        <v>749</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -8788,10 +8887,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>746</v>
+        <v>750</v>
       </c>
       <c r="B555" t="s">
-        <v>731</v>
+        <v>751</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -8799,10 +8898,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="B556" t="s">
-        <v>731</v>
+        <v>753</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -8810,10 +8909,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>748</v>
+        <v>754</v>
       </c>
       <c r="B557" t="s">
-        <v>497</v>
+        <v>755</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -8821,10 +8920,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>749</v>
+        <v>756</v>
       </c>
       <c r="B558" t="s">
-        <v>633</v>
+        <v>757</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -8832,10 +8931,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>750</v>
+        <v>758</v>
       </c>
       <c r="B559" t="s">
-        <v>712</v>
+        <v>753</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -8843,10 +8942,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>751</v>
+        <v>759</v>
       </c>
       <c r="B560" t="s">
-        <v>752</v>
+        <v>760</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -8854,10 +8953,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>753</v>
+        <v>761</v>
       </c>
       <c r="B561" t="s">
-        <v>731</v>
+        <v>762</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -8865,10 +8964,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>754</v>
+        <v>763</v>
       </c>
       <c r="B562" t="s">
-        <v>481</v>
+        <v>764</v>
       </c>
       <c r="C562" t="s">
         <v>5</v>
@@ -8876,10 +8975,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
       <c r="B563" t="s">
-        <v>479</v>
+        <v>698</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -8887,10 +8986,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="B564" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="C564" t="s">
         <v>5</v>
@@ -8898,10 +8997,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
       <c r="B565" t="s">
-        <v>594</v>
+        <v>522</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -8909,10 +9008,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="B566" t="s">
-        <v>671</v>
+        <v>522</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -8920,10 +9019,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
       <c r="B567" t="s">
-        <v>282</v>
+        <v>510</v>
       </c>
       <c r="C567" t="s">
         <v>5</v>
@@ -8931,10 +9030,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B568" t="s">
-        <v>373</v>
+        <v>545</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -8942,10 +9041,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
       <c r="B569" t="s">
-        <v>390</v>
+        <v>514</v>
       </c>
       <c r="C569" t="s">
         <v>5</v>
@@ -8953,10 +9052,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="B570" t="s">
-        <v>291</v>
+        <v>596</v>
       </c>
       <c r="C570" t="s">
         <v>5</v>
@@ -8964,10 +9063,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>763</v>
+        <v>773</v>
       </c>
       <c r="B571" t="s">
-        <v>411</v>
+        <v>592</v>
       </c>
       <c r="C571" t="s">
         <v>5</v>
@@ -8975,10 +9074,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="B572" t="s">
-        <v>320</v>
+        <v>512</v>
       </c>
       <c r="C572" t="s">
         <v>5</v>
@@ -8986,10 +9085,10 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>765</v>
+        <v>775</v>
       </c>
       <c r="B573" t="s">
-        <v>233</v>
+        <v>547</v>
       </c>
       <c r="C573" t="s">
         <v>5</v>
@@ -8997,10 +9096,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>766</v>
+        <v>776</v>
       </c>
       <c r="B574" t="s">
-        <v>241</v>
+        <v>512</v>
       </c>
       <c r="C574" t="s">
         <v>5</v>
@@ -9008,10 +9107,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>767</v>
+        <v>777</v>
       </c>
       <c r="B575" t="s">
-        <v>236</v>
+        <v>698</v>
       </c>
       <c r="C575" t="s">
         <v>5</v>
@@ -9019,10 +9118,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>768</v>
+        <v>778</v>
       </c>
       <c r="B576" t="s">
-        <v>769</v>
+        <v>537</v>
       </c>
       <c r="C576" t="s">
         <v>5</v>
@@ -9030,10 +9129,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>770</v>
+        <v>779</v>
       </c>
       <c r="B577" t="s">
-        <v>231</v>
+        <v>764</v>
       </c>
       <c r="C577" t="s">
         <v>5</v>
@@ -9041,10 +9140,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>771</v>
+        <v>780</v>
       </c>
       <c r="B578" t="s">
-        <v>316</v>
+        <v>764</v>
       </c>
       <c r="C578" t="s">
         <v>5</v>
@@ -9052,10 +9151,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>772</v>
+        <v>781</v>
       </c>
       <c r="B579" t="s">
-        <v>773</v>
+        <v>530</v>
       </c>
       <c r="C579" t="s">
         <v>5</v>
@@ -9063,10 +9162,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="B580" t="s">
-        <v>775</v>
+        <v>666</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
@@ -9074,10 +9173,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>776</v>
+        <v>783</v>
       </c>
       <c r="B581" t="s">
-        <v>775</v>
+        <v>745</v>
       </c>
       <c r="C581" t="s">
         <v>5</v>
@@ -9085,10 +9184,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>777</v>
+        <v>784</v>
       </c>
       <c r="B582" t="s">
-        <v>778</v>
+        <v>785</v>
       </c>
       <c r="C582" t="s">
         <v>5</v>
@@ -9096,10 +9195,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>779</v>
+        <v>786</v>
       </c>
       <c r="B583" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="C583" t="s">
         <v>5</v>
@@ -9107,10 +9206,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>780</v>
+        <v>787</v>
       </c>
       <c r="B584" t="s">
-        <v>781</v>
+        <v>514</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
@@ -9118,12 +9217,254 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>782</v>
+        <v>788</v>
       </c>
       <c r="B585" t="s">
-        <v>781</v>
+        <v>512</v>
       </c>
       <c r="C585" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="s">
+        <v>789</v>
+      </c>
+      <c r="B586" t="s">
+        <v>596</v>
+      </c>
+      <c r="C586" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="s">
+        <v>790</v>
+      </c>
+      <c r="B587" t="s">
+        <v>627</v>
+      </c>
+      <c r="C587" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="s">
+        <v>791</v>
+      </c>
+      <c r="B588" t="s">
+        <v>704</v>
+      </c>
+      <c r="C588" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="s">
+        <v>792</v>
+      </c>
+      <c r="B589" t="s">
+        <v>315</v>
+      </c>
+      <c r="C589" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="s">
+        <v>793</v>
+      </c>
+      <c r="B590" t="s">
+        <v>406</v>
+      </c>
+      <c r="C590" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="s">
+        <v>794</v>
+      </c>
+      <c r="B591" t="s">
+        <v>423</v>
+      </c>
+      <c r="C591" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="s">
+        <v>795</v>
+      </c>
+      <c r="B592" t="s">
+        <v>324</v>
+      </c>
+      <c r="C592" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="s">
+        <v>796</v>
+      </c>
+      <c r="B593" t="s">
+        <v>444</v>
+      </c>
+      <c r="C593" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="s">
+        <v>797</v>
+      </c>
+      <c r="B594" t="s">
+        <v>353</v>
+      </c>
+      <c r="C594" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="s">
+        <v>798</v>
+      </c>
+      <c r="B595" t="s">
+        <v>266</v>
+      </c>
+      <c r="C595" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="s">
+        <v>799</v>
+      </c>
+      <c r="B596" t="s">
+        <v>274</v>
+      </c>
+      <c r="C596" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="s">
+        <v>800</v>
+      </c>
+      <c r="B597" t="s">
+        <v>269</v>
+      </c>
+      <c r="C597" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="s">
+        <v>801</v>
+      </c>
+      <c r="B598" t="s">
+        <v>802</v>
+      </c>
+      <c r="C598" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="s">
+        <v>803</v>
+      </c>
+      <c r="B599" t="s">
+        <v>264</v>
+      </c>
+      <c r="C599" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="s">
+        <v>804</v>
+      </c>
+      <c r="B600" t="s">
+        <v>349</v>
+      </c>
+      <c r="C600" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="s">
+        <v>805</v>
+      </c>
+      <c r="B601" t="s">
+        <v>806</v>
+      </c>
+      <c r="C601" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="s">
+        <v>807</v>
+      </c>
+      <c r="B602" t="s">
+        <v>808</v>
+      </c>
+      <c r="C602" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="s">
+        <v>809</v>
+      </c>
+      <c r="B603" t="s">
+        <v>808</v>
+      </c>
+      <c r="C603" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="s">
+        <v>810</v>
+      </c>
+      <c r="B604" t="s">
+        <v>811</v>
+      </c>
+      <c r="C604" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="s">
+        <v>812</v>
+      </c>
+      <c r="B605" t="s">
+        <v>808</v>
+      </c>
+      <c r="C605" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="s">
+        <v>813</v>
+      </c>
+      <c r="B606" t="s">
+        <v>814</v>
+      </c>
+      <c r="C606" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="s">
+        <v>815</v>
+      </c>
+      <c r="B607" t="s">
+        <v>814</v>
+      </c>
+      <c r="C607" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink International Health Care Fund.xlsx
+++ b/data/GreatLink/GreatLink International Health Care Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid618540"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid783518"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="839">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,138 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>03/10/2024</t>
+  </si>
+  <si>
+    <t>1.006</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>02/10/2024</t>
+  </si>
+  <si>
+    <t>1.012</t>
+  </si>
+  <si>
+    <t>01/10/2024</t>
+  </si>
+  <si>
+    <t>1.014</t>
+  </si>
+  <si>
+    <t>30/09/2024</t>
+  </si>
+  <si>
+    <t>27/09/2024</t>
+  </si>
+  <si>
+    <t>26/09/2024</t>
+  </si>
+  <si>
+    <t>1.017</t>
+  </si>
+  <si>
+    <t>25/09/2024</t>
+  </si>
+  <si>
+    <t>1.015</t>
+  </si>
+  <si>
+    <t>24/09/2024</t>
+  </si>
+  <si>
+    <t>1.022</t>
+  </si>
+  <si>
+    <t>23/09/2024</t>
+  </si>
+  <si>
+    <t>1.026</t>
+  </si>
+  <si>
+    <t>20/09/2024</t>
+  </si>
+  <si>
+    <t>1.035</t>
+  </si>
+  <si>
+    <t>19/09/2024</t>
+  </si>
+  <si>
+    <t>1.044</t>
+  </si>
+  <si>
+    <t>18/09/2024</t>
+  </si>
+  <si>
+    <t>1.042</t>
+  </si>
+  <si>
+    <t>17/09/2024</t>
+  </si>
+  <si>
+    <t>1.043</t>
+  </si>
+  <si>
+    <t>16/09/2024</t>
+  </si>
+  <si>
+    <t>1.054</t>
+  </si>
+  <si>
+    <t>13/09/2024</t>
+  </si>
+  <si>
+    <t>1.051</t>
+  </si>
+  <si>
+    <t>12/09/2024</t>
+  </si>
+  <si>
+    <t>1.053</t>
+  </si>
+  <si>
+    <t>11/09/2024</t>
+  </si>
+  <si>
+    <t>1.047</t>
+  </si>
+  <si>
+    <t>10/09/2024</t>
+  </si>
+  <si>
+    <t>1.049</t>
+  </si>
+  <si>
+    <t>09/09/2024</t>
+  </si>
+  <si>
+    <t>1.046</t>
+  </si>
+  <si>
+    <t>06/09/2024</t>
+  </si>
+  <si>
+    <t>1.038</t>
+  </si>
+  <si>
+    <t>05/09/2024</t>
+  </si>
+  <si>
+    <t>04/09/2024</t>
+  </si>
+  <si>
+    <t>1.061</t>
+  </si>
+  <si>
     <t>03/09/2024</t>
   </si>
   <si>
     <t>1.067</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>02/09/2024</t>
   </si>
   <si>
@@ -62,9 +185,6 @@
     <t>27/08/2024</t>
   </si>
   <si>
-    <t>1.061</t>
-  </si>
-  <si>
     <t>26/08/2024</t>
   </si>
   <si>
@@ -95,9 +215,6 @@
     <t>16/08/2024</t>
   </si>
   <si>
-    <t>1.054</t>
-  </si>
-  <si>
     <t>15/08/2024</t>
   </si>
   <si>
@@ -113,9 +230,6 @@
     <t>13/08/2024</t>
   </si>
   <si>
-    <t>1.046</t>
-  </si>
-  <si>
     <t>12/08/2024</t>
   </si>
   <si>
@@ -131,15 +245,9 @@
     <t>07/08/2024</t>
   </si>
   <si>
-    <t>1.006</t>
-  </si>
-  <si>
     <t>06/08/2024</t>
   </si>
   <si>
-    <t>1.017</t>
-  </si>
-  <si>
     <t>05/08/2024</t>
   </si>
   <si>
@@ -155,33 +263,18 @@
     <t>01/08/2024</t>
   </si>
   <si>
-    <t>1.051</t>
-  </si>
-  <si>
     <t>31/07/2024</t>
   </si>
   <si>
-    <t>1.043</t>
-  </si>
-  <si>
     <t>30/07/2024</t>
   </si>
   <si>
-    <t>1.047</t>
-  </si>
-  <si>
     <t>29/07/2024</t>
   </si>
   <si>
-    <t>1.049</t>
-  </si>
-  <si>
     <t>26/07/2024</t>
   </si>
   <si>
-    <t>1.044</t>
-  </si>
-  <si>
     <t>25/07/2024</t>
   </si>
   <si>
@@ -197,9 +290,6 @@
     <t>23/07/2024</t>
   </si>
   <si>
-    <t>1.053</t>
-  </si>
-  <si>
     <t>22/07/2024</t>
   </si>
   <si>
@@ -242,18 +332,12 @@
     <t>09/07/2024</t>
   </si>
   <si>
-    <t>1.042</t>
-  </si>
-  <si>
     <t>08/07/2024</t>
   </si>
   <si>
     <t>05/07/2024</t>
   </si>
   <si>
-    <t>1.038</t>
-  </si>
-  <si>
     <t>04/07/2024</t>
   </si>
   <si>
@@ -320,9 +404,6 @@
     <t>07/06/2024</t>
   </si>
   <si>
-    <t>1.035</t>
-  </si>
-  <si>
     <t>06/06/2024</t>
   </si>
   <si>
@@ -338,9 +419,6 @@
     <t>03/06/2024</t>
   </si>
   <si>
-    <t>1.015</t>
-  </si>
-  <si>
     <t>31/05/2024</t>
   </si>
   <si>
@@ -356,9 +434,6 @@
     <t>28/05/2024</t>
   </si>
   <si>
-    <t>1.012</t>
-  </si>
-  <si>
     <t>27/05/2024</t>
   </si>
   <si>
@@ -368,9 +443,6 @@
     <t>24/05/2024</t>
   </si>
   <si>
-    <t>1.026</t>
-  </si>
-  <si>
     <t>23/05/2024</t>
   </si>
   <si>
@@ -522,9 +594,6 @@
   </si>
   <si>
     <t>03/04/2024</t>
-  </si>
-  <si>
-    <t>1.014</t>
   </si>
   <si>
     <t>02/04/2024</t>
@@ -2840,7 +2909,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2848,10 +2917,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2859,10 +2928,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2870,10 +2939,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2881,10 +2950,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2892,10 +2961,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2928,7 +2997,7 @@
         <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -2936,10 +3005,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -2947,10 +3016,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -2958,10 +3027,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -2969,10 +3038,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -2980,10 +3049,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -2991,10 +3060,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3002,10 +3071,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3013,10 +3082,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3024,10 +3093,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3104,7 +3173,7 @@
         <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3112,10 +3181,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
         <v>57</v>
-      </c>
-      <c r="B30" t="s">
-        <v>58</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3123,10 +3192,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3134,10 +3203,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3145,10 +3214,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3156,10 +3225,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" t="s">
         <v>63</v>
-      </c>
-      <c r="B34" t="s">
-        <v>54</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3170,7 +3239,7 @@
         <v>64</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3178,10 +3247,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3189,10 +3258,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3200,10 +3269,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3211,10 +3280,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3222,10 +3291,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3233,10 +3302,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
         <v>74</v>
-      </c>
-      <c r="B41" t="s">
-        <v>75</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3244,10 +3313,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>56</v>
+        <v>4</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3255,10 +3324,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3266,10 +3335,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3277,10 +3346,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3288,10 +3357,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3299,10 +3368,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3310,10 +3379,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3321,10 +3390,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3332,10 +3401,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>58</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3343,10 +3412,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
+        <v>86</v>
+      </c>
+      <c r="B51" t="s">
         <v>87</v>
-      </c>
-      <c r="B51" t="s">
-        <v>69</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3357,7 +3426,7 @@
         <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3365,10 +3434,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3376,10 +3445,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B54" t="s">
-        <v>75</v>
+        <v>61</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3387,10 +3456,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3401,7 +3470,7 @@
         <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3423,7 +3492,7 @@
         <v>96</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3431,10 +3500,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3442,10 +3511,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3453,10 +3522,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3464,10 +3533,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3475,10 +3544,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3486,10 +3555,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3497,10 +3566,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3508,10 +3577,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B66" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3519,10 +3588,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3530,10 +3599,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B68" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3544,7 +3613,7 @@
         <v>111</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3555,7 +3624,7 @@
         <v>112</v>
       </c>
       <c r="B70" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3563,10 +3632,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B71" t="s">
-        <v>115</v>
+        <v>89</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3574,10 +3643,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B72" t="s">
-        <v>117</v>
+        <v>89</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3585,10 +3654,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B73" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3596,10 +3665,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B74" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3607,10 +3676,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B75" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3618,10 +3687,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3629,10 +3698,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B77" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3640,10 +3709,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B78" t="s">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3651,10 +3720,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B79" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3662,10 +3731,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B80" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3673,10 +3742,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3684,10 +3753,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B82" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3695,10 +3764,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B83" t="s">
-        <v>42</v>
+        <v>123</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3706,10 +3775,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B84" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3717,10 +3786,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B85" t="s">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3728,10 +3797,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="B86" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3739,10 +3808,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="B87" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3750,10 +3819,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B88" t="s">
-        <v>137</v>
+        <v>15</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3761,10 +3830,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B89" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3772,10 +3841,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B90" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3783,10 +3852,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="B91" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3794,10 +3863,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="B92" t="s">
-        <v>146</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3805,10 +3874,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B93" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3816,10 +3885,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B94" t="s">
-        <v>150</v>
+        <v>19</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3827,10 +3896,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B95" t="s">
-        <v>152</v>
+        <v>74</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3838,10 +3907,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="B96" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3849,10 +3918,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B97" t="s">
-        <v>155</v>
+        <v>80</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3860,10 +3929,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="B98" t="s">
-        <v>150</v>
+        <v>72</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3871,10 +3940,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="B99" t="s">
-        <v>158</v>
+        <v>120</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3882,10 +3951,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B100" t="s">
-        <v>160</v>
+        <v>87</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3893,10 +3962,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B101" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3904,10 +3973,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B102" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3915,10 +3984,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B103" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3926,10 +3995,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B104" t="s">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -3937,10 +4006,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B105" t="s">
-        <v>142</v>
+        <v>78</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -3948,10 +4017,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B106" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -3959,10 +4028,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B107" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -3970,10 +4039,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B108" t="s">
-        <v>172</v>
+        <v>161</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -3981,10 +4050,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="B109" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -3992,10 +4061,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="B110" t="s">
-        <v>56</v>
+        <v>161</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -4003,10 +4072,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="B111" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -4014,10 +4083,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="B112" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -4025,10 +4094,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="B113" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -4036,10 +4105,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B114" t="s">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -4047,10 +4116,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B115" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -4058,10 +4127,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B116" t="s">
-        <v>125</v>
+        <v>174</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -4069,10 +4138,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="B117" t="s">
-        <v>40</v>
+        <v>176</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -4080,10 +4149,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="B118" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -4091,10 +4160,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B119" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -4102,10 +4171,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="B120" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4113,10 +4182,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
       <c r="B121" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -4124,10 +4193,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B122" t="s">
-        <v>127</v>
+        <v>184</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -4135,10 +4204,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B123" t="s">
-        <v>129</v>
+        <v>166</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -4146,10 +4215,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B124" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -4157,10 +4226,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B125" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -4168,10 +4237,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B126" t="s">
-        <v>195</v>
+        <v>78</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4179,10 +4248,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B127" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4190,10 +4259,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B128" t="s">
-        <v>197</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4201,10 +4270,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B129" t="s">
-        <v>195</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -4212,10 +4281,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B130" t="s">
-        <v>129</v>
+        <v>195</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4223,10 +4292,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B131" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4234,10 +4303,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B132" t="s">
-        <v>179</v>
+        <v>87</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4245,10 +4314,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B133" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4256,10 +4325,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B134" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4267,10 +4336,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="B135" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4278,10 +4347,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B136" t="s">
-        <v>208</v>
+        <v>19</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4289,10 +4358,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B137" t="s">
-        <v>185</v>
+        <v>202</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4300,10 +4369,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B138" t="s">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4311,10 +4380,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B139" t="s">
-        <v>169</v>
+        <v>13</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4322,7 +4391,7 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B140" t="s">
         <v>208</v>
@@ -4333,10 +4402,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B141" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4344,10 +4413,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B142" t="s">
-        <v>215</v>
+        <v>153</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4355,10 +4424,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B143" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4366,10 +4435,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B144" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4377,10 +4446,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B145" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4388,10 +4457,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B146" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4399,10 +4468,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B147" t="s">
-        <v>158</v>
+        <v>216</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4410,10 +4479,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B148" t="s">
-        <v>160</v>
+        <v>218</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4421,10 +4490,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="B149" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4432,10 +4501,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B150" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4443,10 +4512,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B151" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4454,10 +4523,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B152" t="s">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4465,10 +4534,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B153" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4476,10 +4545,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="B154" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4487,10 +4556,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="B155" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4498,10 +4567,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="B156" t="s">
-        <v>237</v>
+        <v>149</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4509,10 +4578,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B157" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4520,10 +4589,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B158" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4531,10 +4600,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="B159" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4542,10 +4611,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B160" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4553,10 +4622,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="B161" t="s">
-        <v>245</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4564,10 +4633,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B162" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4575,10 +4644,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="B163" t="s">
-        <v>245</v>
+        <v>172</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4586,10 +4655,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B164" t="s">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4597,10 +4666,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="B165" t="s">
-        <v>250</v>
+        <v>136</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4608,10 +4677,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
       <c r="B166" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4619,10 +4688,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
       <c r="B167" t="s">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4630,10 +4699,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>255</v>
+        <v>242</v>
       </c>
       <c r="B168" t="s">
-        <v>231</v>
+        <v>243</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4641,10 +4710,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
       <c r="B169" t="s">
-        <v>254</v>
+        <v>182</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4652,10 +4721,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="B170" t="s">
-        <v>258</v>
+        <v>184</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4663,10 +4732,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="B171" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4674,10 +4743,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="B172" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4685,10 +4754,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="B173" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4696,10 +4765,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="B174" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4707,10 +4776,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>267</v>
+        <v>253</v>
       </c>
       <c r="B175" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4718,10 +4787,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B176" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4729,10 +4798,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B177" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4740,10 +4809,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B178" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4751,10 +4820,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="B179" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4762,10 +4831,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="B180" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4773,10 +4842,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B181" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4784,10 +4853,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B182" t="s">
-        <v>280</v>
+        <v>247</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4795,10 +4864,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="B183" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4806,10 +4875,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B184" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4817,10 +4886,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="B185" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4828,10 +4897,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>286</v>
+        <v>271</v>
       </c>
       <c r="B186" t="s">
-        <v>287</v>
+        <v>249</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4839,10 +4908,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B187" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4850,10 +4919,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B188" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4861,10 +4930,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>291</v>
+        <v>276</v>
       </c>
       <c r="B189" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4872,10 +4941,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="B190" t="s">
-        <v>293</v>
+        <v>254</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4883,10 +4952,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>294</v>
+        <v>279</v>
       </c>
       <c r="B191" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4894,10 +4963,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>296</v>
+        <v>280</v>
       </c>
       <c r="B192" t="s">
-        <v>297</v>
+        <v>281</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4905,10 +4974,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>298</v>
+        <v>282</v>
       </c>
       <c r="B193" t="s">
-        <v>299</v>
+        <v>283</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4916,10 +4985,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>300</v>
+        <v>284</v>
       </c>
       <c r="B194" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4927,7 +4996,7 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="B195" t="s">
         <v>287</v>
@@ -4938,10 +5007,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>303</v>
+        <v>288</v>
       </c>
       <c r="B196" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -4949,10 +5018,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>305</v>
+        <v>290</v>
       </c>
       <c r="B197" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -4960,10 +5029,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>307</v>
+        <v>291</v>
       </c>
       <c r="B198" t="s">
-        <v>308</v>
+        <v>292</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -4971,10 +5040,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="B199" t="s">
-        <v>310</v>
+        <v>294</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -4982,10 +5051,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>311</v>
+        <v>295</v>
       </c>
       <c r="B200" t="s">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -4993,7 +5062,7 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>313</v>
+        <v>296</v>
       </c>
       <c r="B201" t="s">
         <v>297</v>
@@ -5004,10 +5073,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>314</v>
+        <v>298</v>
       </c>
       <c r="B202" t="s">
-        <v>315</v>
+        <v>299</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -5015,7 +5084,7 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>316</v>
+        <v>300</v>
       </c>
       <c r="B203" t="s">
         <v>301</v>
@@ -5026,10 +5095,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="B204" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -5037,10 +5106,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>319</v>
+        <v>304</v>
       </c>
       <c r="B205" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -5048,10 +5117,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>321</v>
+        <v>305</v>
       </c>
       <c r="B206" t="s">
-        <v>322</v>
+        <v>306</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -5059,10 +5128,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>323</v>
+        <v>307</v>
       </c>
       <c r="B207" t="s">
-        <v>324</v>
+        <v>308</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -5070,10 +5139,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>325</v>
+        <v>309</v>
       </c>
       <c r="B208" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -5081,10 +5150,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B209" t="s">
-        <v>299</v>
+        <v>312</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -5092,10 +5161,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="B210" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -5103,10 +5172,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="B211" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -5114,10 +5183,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
-        <v>329</v>
+        <v>316</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -5125,10 +5194,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="B213" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -5136,10 +5205,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B214" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -5147,10 +5216,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="B215" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -5158,10 +5227,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="B216" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -5169,10 +5238,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>338</v>
+        <v>325</v>
       </c>
       <c r="B217" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -5180,10 +5249,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B218" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -5191,10 +5260,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B219" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5202,10 +5271,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>341</v>
+        <v>330</v>
       </c>
       <c r="B220" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -5213,10 +5282,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="B221" t="s">
-        <v>276</v>
+        <v>333</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -5224,10 +5293,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B222" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5235,10 +5304,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="B223" t="s">
-        <v>346</v>
+        <v>320</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5246,10 +5315,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="B224" t="s">
-        <v>278</v>
+        <v>338</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5257,10 +5326,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B225" t="s">
-        <v>349</v>
+        <v>324</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5268,10 +5337,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="B226" t="s">
-        <v>266</v>
+        <v>341</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5279,10 +5348,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B227" t="s">
-        <v>276</v>
+        <v>343</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5290,10 +5359,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="B228" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5301,10 +5370,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="B229" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5312,10 +5381,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="B230" t="s">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5323,10 +5392,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="B231" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5334,10 +5403,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B232" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5345,10 +5414,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="B233" t="s">
-        <v>324</v>
+        <v>352</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5356,10 +5425,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="B234" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5367,10 +5436,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="B235" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5378,10 +5447,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B236" t="s">
-        <v>293</v>
+        <v>357</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5389,10 +5458,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="B237" t="s">
-        <v>293</v>
+        <v>359</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5400,10 +5469,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="B238" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5411,10 +5480,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B239" t="s">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5422,10 +5491,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="B240" t="s">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5433,10 +5502,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="B241" t="s">
-        <v>276</v>
+        <v>347</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5444,10 +5513,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="B242" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5455,10 +5524,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B243" t="s">
-        <v>283</v>
+        <v>299</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5466,10 +5535,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="B244" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5477,10 +5546,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="B245" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5488,10 +5557,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="B246" t="s">
-        <v>375</v>
+        <v>301</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5499,10 +5568,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="B247" t="s">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5510,10 +5579,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="B248" t="s">
-        <v>344</v>
+        <v>289</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5521,10 +5590,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="B249" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5532,10 +5601,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B250" t="s">
-        <v>274</v>
+        <v>376</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5543,10 +5612,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B251" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5554,10 +5623,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B252" t="s">
-        <v>375</v>
+        <v>347</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5565,10 +5634,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B253" t="s">
-        <v>283</v>
+        <v>335</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5576,10 +5645,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B254" t="s">
-        <v>271</v>
+        <v>382</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5587,10 +5656,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="B255" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5598,10 +5667,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="B256" t="s">
-        <v>344</v>
+        <v>385</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5609,10 +5678,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B257" t="s">
-        <v>276</v>
+        <v>387</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5620,10 +5689,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B258" t="s">
-        <v>271</v>
+        <v>316</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5631,10 +5700,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B259" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5642,10 +5711,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B260" t="s">
-        <v>283</v>
+        <v>308</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5653,10 +5722,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B261" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5664,10 +5733,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B262" t="s">
-        <v>271</v>
+        <v>393</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5675,10 +5744,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B263" t="s">
-        <v>287</v>
+        <v>299</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5686,10 +5755,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B264" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5697,10 +5766,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B265" t="s">
-        <v>384</v>
+        <v>306</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5708,10 +5777,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B266" t="s">
-        <v>344</v>
+        <v>398</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5719,10 +5788,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
+        <v>399</v>
+      </c>
+      <c r="B267" t="s">
         <v>400</v>
-      </c>
-      <c r="B267" t="s">
-        <v>278</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5733,7 +5802,7 @@
         <v>401</v>
       </c>
       <c r="B268" t="s">
-        <v>274</v>
+        <v>398</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5744,7 +5813,7 @@
         <v>402</v>
       </c>
       <c r="B269" t="s">
-        <v>283</v>
+        <v>367</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5755,7 +5824,7 @@
         <v>403</v>
       </c>
       <c r="B270" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5766,7 +5835,7 @@
         <v>404</v>
       </c>
       <c r="B271" t="s">
-        <v>362</v>
+        <v>289</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5777,7 +5846,7 @@
         <v>405</v>
       </c>
       <c r="B272" t="s">
-        <v>406</v>
+        <v>297</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5785,10 +5854,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
+        <v>406</v>
+      </c>
+      <c r="B273" t="s">
         <v>407</v>
-      </c>
-      <c r="B273" t="s">
-        <v>320</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5799,7 +5868,7 @@
         <v>408</v>
       </c>
       <c r="B274" t="s">
-        <v>297</v>
+        <v>398</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5810,7 +5879,7 @@
         <v>409</v>
       </c>
       <c r="B275" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5821,7 +5890,7 @@
         <v>410</v>
       </c>
       <c r="B276" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5832,7 +5901,7 @@
         <v>411</v>
       </c>
       <c r="B277" t="s">
-        <v>310</v>
+        <v>372</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5843,7 +5912,7 @@
         <v>412</v>
       </c>
       <c r="B278" t="s">
-        <v>318</v>
+        <v>367</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5854,7 +5923,7 @@
         <v>413</v>
       </c>
       <c r="B279" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5865,7 +5934,7 @@
         <v>414</v>
       </c>
       <c r="B280" t="s">
-        <v>301</v>
+        <v>294</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5876,7 +5945,7 @@
         <v>415</v>
       </c>
       <c r="B281" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5887,7 +5956,7 @@
         <v>416</v>
       </c>
       <c r="B282" t="s">
-        <v>370</v>
+        <v>306</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5898,7 +5967,7 @@
         <v>417</v>
       </c>
       <c r="B283" t="s">
-        <v>301</v>
+        <v>378</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5909,7 +5978,7 @@
         <v>418</v>
       </c>
       <c r="B284" t="s">
-        <v>312</v>
+        <v>294</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5920,7 +5989,7 @@
         <v>419</v>
       </c>
       <c r="B285" t="s">
-        <v>420</v>
+        <v>310</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -5928,10 +5997,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B286" t="s">
-        <v>406</v>
+        <v>312</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -5939,10 +6008,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B287" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -5950,10 +6019,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B288" t="s">
-        <v>425</v>
+        <v>367</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -5961,10 +6030,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B289" t="s">
-        <v>334</v>
+        <v>301</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -5972,10 +6041,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B290" t="s">
-        <v>428</v>
+        <v>297</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -5983,10 +6052,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="B291" t="s">
-        <v>430</v>
+        <v>306</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -5994,10 +6063,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B292" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -6005,10 +6074,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B293" t="s">
-        <v>434</v>
+        <v>385</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -6016,10 +6085,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="B294" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -6027,10 +6096,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="B295" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -6038,10 +6107,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="B296" t="s">
-        <v>420</v>
+        <v>320</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -6049,10 +6118,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="B297" t="s">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -6060,10 +6129,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="B298" t="s">
-        <v>441</v>
+        <v>335</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -6071,10 +6140,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="B299" t="s">
-        <v>441</v>
+        <v>333</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -6082,10 +6151,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="B300" t="s">
-        <v>444</v>
+        <v>341</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -6093,10 +6162,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="B301" t="s">
-        <v>301</v>
+        <v>331</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -6104,10 +6173,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="B302" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -6115,10 +6184,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="B303" t="s">
-        <v>299</v>
+        <v>318</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -6126,10 +6195,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
       <c r="B304" t="s">
-        <v>299</v>
+        <v>393</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -6137,10 +6206,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
       <c r="B305" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -6148,10 +6217,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
       <c r="B306" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -6159,10 +6228,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="B307" t="s">
-        <v>312</v>
+        <v>443</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -6170,10 +6239,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="B308" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -6181,10 +6250,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="B309" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -6192,10 +6261,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="B310" t="s">
-        <v>420</v>
+        <v>448</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -6203,10 +6272,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B311" t="s">
-        <v>441</v>
+        <v>357</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -6214,10 +6283,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B312" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -6225,10 +6294,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B313" t="s">
-        <v>423</v>
+        <v>453</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -6236,10 +6305,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="B314" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -6247,10 +6316,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B315" t="s">
-        <v>308</v>
+        <v>457</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -6258,10 +6327,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B316" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6269,10 +6338,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B317" t="s">
-        <v>329</v>
+        <v>382</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6280,10 +6349,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B318" t="s">
-        <v>464</v>
+        <v>443</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6291,10 +6360,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="B319" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6302,10 +6371,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B320" t="s">
-        <v>329</v>
+        <v>464</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6313,10 +6382,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B321" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6324,10 +6393,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B322" t="s">
-        <v>434</v>
+        <v>467</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6335,10 +6404,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B323" t="s">
-        <v>441</v>
+        <v>324</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6346,10 +6415,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B324" t="s">
-        <v>310</v>
+        <v>341</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6357,10 +6426,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B325" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6368,10 +6437,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B326" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6379,10 +6448,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B327" t="s">
-        <v>444</v>
+        <v>335</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6390,10 +6459,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B328" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6401,10 +6470,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B329" t="s">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6412,10 +6481,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B330" t="s">
-        <v>308</v>
+        <v>457</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6423,10 +6492,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B331" t="s">
-        <v>315</v>
+        <v>459</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6434,10 +6503,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B332" t="s">
-        <v>315</v>
+        <v>443</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6445,10 +6514,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B333" t="s">
-        <v>312</v>
+        <v>464</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6456,10 +6525,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B334" t="s">
-        <v>444</v>
+        <v>464</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6467,10 +6536,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B335" t="s">
-        <v>318</v>
+        <v>446</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6478,10 +6547,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B336" t="s">
-        <v>320</v>
+        <v>467</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6489,10 +6558,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B337" t="s">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6500,10 +6569,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
+        <v>483</v>
+      </c>
+      <c r="B338" t="s">
         <v>484</v>
-      </c>
-      <c r="B338" t="s">
-        <v>318</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6514,7 +6583,7 @@
         <v>485</v>
       </c>
       <c r="B339" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6525,7 +6594,7 @@
         <v>486</v>
       </c>
       <c r="B340" t="s">
-        <v>444</v>
+        <v>487</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6533,10 +6602,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B341" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6544,10 +6613,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B342" t="s">
-        <v>301</v>
+        <v>352</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6555,10 +6624,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B343" t="s">
-        <v>287</v>
+        <v>453</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6566,10 +6635,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B344" t="s">
-        <v>304</v>
+        <v>457</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6577,10 +6646,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B345" t="s">
-        <v>315</v>
+        <v>464</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6588,10 +6657,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B346" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6599,10 +6668,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B347" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6610,10 +6679,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B348" t="s">
-        <v>306</v>
+        <v>385</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6621,10 +6690,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B349" t="s">
-        <v>304</v>
+        <v>467</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6632,10 +6701,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B350" t="s">
-        <v>295</v>
+        <v>338</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6643,10 +6712,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B351" t="s">
-        <v>299</v>
+        <v>333</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6654,10 +6723,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B352" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6665,10 +6734,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B353" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6676,10 +6745,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B354" t="s">
-        <v>420</v>
+        <v>338</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6687,10 +6756,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B355" t="s">
-        <v>434</v>
+        <v>335</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6698,10 +6767,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B356" t="s">
-        <v>503</v>
+        <v>467</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6712,7 +6781,7 @@
         <v>504</v>
       </c>
       <c r="B357" t="s">
-        <v>464</v>
+        <v>341</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6723,7 +6792,7 @@
         <v>505</v>
       </c>
       <c r="B358" t="s">
-        <v>506</v>
+        <v>343</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6731,10 +6800,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B359" t="s">
-        <v>508</v>
+        <v>335</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6742,10 +6811,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B360" t="s">
-        <v>510</v>
+        <v>341</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6753,10 +6822,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B361" t="s">
-        <v>512</v>
+        <v>331</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6764,10 +6833,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B362" t="s">
-        <v>514</v>
+        <v>467</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6775,10 +6844,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="B363" t="s">
-        <v>512</v>
+        <v>429</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6786,10 +6855,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="B364" t="s">
-        <v>517</v>
+        <v>324</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6797,10 +6866,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B365" t="s">
-        <v>519</v>
+        <v>310</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6808,10 +6877,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="B366" t="s">
-        <v>512</v>
+        <v>327</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6819,10 +6888,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="B367" t="s">
-        <v>522</v>
+        <v>338</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6830,10 +6899,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="B368" t="s">
-        <v>524</v>
+        <v>341</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6841,10 +6910,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B369" t="s">
-        <v>526</v>
+        <v>324</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6852,10 +6921,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="B370" t="s">
-        <v>528</v>
+        <v>329</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6863,10 +6932,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>529</v>
+        <v>518</v>
       </c>
       <c r="B371" t="s">
-        <v>530</v>
+        <v>327</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6874,10 +6943,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>531</v>
+        <v>519</v>
       </c>
       <c r="B372" t="s">
-        <v>524</v>
+        <v>318</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6885,10 +6954,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>532</v>
+        <v>520</v>
       </c>
       <c r="B373" t="s">
-        <v>533</v>
+        <v>322</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6896,10 +6965,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>534</v>
+        <v>521</v>
       </c>
       <c r="B374" t="s">
-        <v>517</v>
+        <v>338</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6907,10 +6976,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>535</v>
+        <v>522</v>
       </c>
       <c r="B375" t="s">
-        <v>530</v>
+        <v>338</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6918,10 +6987,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>536</v>
+        <v>523</v>
       </c>
       <c r="B376" t="s">
-        <v>537</v>
+        <v>443</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6929,10 +6998,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>538</v>
+        <v>524</v>
       </c>
       <c r="B377" t="s">
-        <v>514</v>
+        <v>457</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -6940,10 +7009,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>539</v>
+        <v>525</v>
       </c>
       <c r="B378" t="s">
-        <v>540</v>
+        <v>526</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -6951,10 +7020,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>541</v>
+        <v>527</v>
       </c>
       <c r="B379" t="s">
-        <v>542</v>
+        <v>487</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -6962,10 +7031,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>543</v>
+        <v>528</v>
       </c>
       <c r="B380" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -6973,10 +7042,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>544</v>
+        <v>530</v>
       </c>
       <c r="B381" t="s">
-        <v>545</v>
+        <v>531</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -6984,10 +7053,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>546</v>
+        <v>532</v>
       </c>
       <c r="B382" t="s">
-        <v>547</v>
+        <v>533</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -6995,10 +7064,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>548</v>
+        <v>534</v>
       </c>
       <c r="B383" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -7006,10 +7075,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>549</v>
+        <v>536</v>
       </c>
       <c r="B384" t="s">
-        <v>550</v>
+        <v>537</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -7017,10 +7086,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>551</v>
+        <v>538</v>
       </c>
       <c r="B385" t="s">
-        <v>514</v>
+        <v>535</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -7028,10 +7097,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="B386" t="s">
-        <v>553</v>
+        <v>540</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -7039,10 +7108,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>554</v>
+        <v>541</v>
       </c>
       <c r="B387" t="s">
-        <v>334</v>
+        <v>542</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -7050,10 +7119,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>555</v>
+        <v>543</v>
       </c>
       <c r="B388" t="s">
-        <v>425</v>
+        <v>535</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -7061,10 +7130,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>556</v>
+        <v>544</v>
       </c>
       <c r="B389" t="s">
-        <v>540</v>
+        <v>545</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -7072,10 +7141,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="B390" t="s">
-        <v>332</v>
+        <v>547</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -7083,10 +7152,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="B391" t="s">
-        <v>425</v>
+        <v>549</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -7094,10 +7163,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>559</v>
+        <v>550</v>
       </c>
       <c r="B392" t="s">
-        <v>503</v>
+        <v>551</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -7105,10 +7174,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="B393" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -7116,10 +7185,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="B394" t="s">
-        <v>562</v>
+        <v>547</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -7127,10 +7196,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="B395" t="s">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -7138,10 +7207,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="B396" t="s">
-        <v>432</v>
+        <v>540</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -7149,10 +7218,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="B397" t="s">
-        <v>540</v>
+        <v>553</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -7160,10 +7229,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="B398" t="s">
-        <v>508</v>
+        <v>560</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -7171,10 +7240,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B399" t="s">
-        <v>568</v>
+        <v>537</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7182,10 +7251,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B400" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -7193,10 +7262,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B401" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -7204,10 +7273,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B402" t="s">
-        <v>573</v>
+        <v>553</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -7215,7 +7284,7 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="B403" t="s">
         <v>568</v>
@@ -7226,10 +7295,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B404" t="s">
-        <v>508</v>
+        <v>570</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -7237,10 +7306,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="B405" t="s">
-        <v>562</v>
+        <v>535</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -7248,10 +7317,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="B406" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7259,10 +7328,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B407" t="s">
-        <v>562</v>
+        <v>537</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7270,10 +7339,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B408" t="s">
-        <v>512</v>
+        <v>576</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7281,10 +7350,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B409" t="s">
-        <v>553</v>
+        <v>357</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7292,10 +7361,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B410" t="s">
-        <v>571</v>
+        <v>448</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7303,10 +7372,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B411" t="s">
-        <v>514</v>
+        <v>563</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7314,10 +7383,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B412" t="s">
-        <v>510</v>
+        <v>355</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7325,10 +7394,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B413" t="s">
-        <v>571</v>
+        <v>448</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7336,10 +7405,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B414" t="s">
-        <v>510</v>
+        <v>526</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7347,10 +7416,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B415" t="s">
-        <v>522</v>
+        <v>563</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7358,10 +7427,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B416" t="s">
-        <v>540</v>
+        <v>585</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7369,10 +7438,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B417" t="s">
-        <v>510</v>
+        <v>573</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7380,10 +7449,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B418" t="s">
-        <v>590</v>
+        <v>455</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7391,10 +7460,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B419" t="s">
-        <v>592</v>
+        <v>563</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7402,10 +7471,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="B420" t="s">
-        <v>506</v>
+        <v>531</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7413,10 +7482,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="B421" t="s">
-        <v>332</v>
+        <v>591</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7424,10 +7493,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B422" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7435,10 +7504,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B423" t="s">
-        <v>506</v>
+        <v>594</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7446,10 +7515,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B424" t="s">
-        <v>332</v>
+        <v>596</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7457,10 +7526,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B425" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7468,10 +7537,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B426" t="s">
-        <v>602</v>
+        <v>531</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7479,10 +7548,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="B427" t="s">
-        <v>432</v>
+        <v>585</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7490,10 +7559,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="B428" t="s">
-        <v>332</v>
+        <v>594</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7501,10 +7570,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="B429" t="s">
-        <v>423</v>
+        <v>585</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7512,10 +7581,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="B430" t="s">
-        <v>436</v>
+        <v>535</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7523,10 +7592,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="B431" t="s">
-        <v>301</v>
+        <v>576</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7534,10 +7603,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="B432" t="s">
-        <v>362</v>
+        <v>594</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7545,10 +7614,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B433" t="s">
-        <v>301</v>
+        <v>537</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7556,10 +7625,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="B434" t="s">
-        <v>299</v>
+        <v>533</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7567,10 +7636,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="B435" t="s">
-        <v>301</v>
+        <v>594</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7578,10 +7647,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="B436" t="s">
-        <v>444</v>
+        <v>533</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7589,10 +7658,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B437" t="s">
-        <v>299</v>
+        <v>545</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7600,10 +7669,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="B438" t="s">
-        <v>318</v>
+        <v>563</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7611,10 +7680,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="B439" t="s">
-        <v>293</v>
+        <v>533</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7622,10 +7691,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="B440" t="s">
-        <v>370</v>
+        <v>613</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7633,10 +7702,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B441" t="s">
-        <v>353</v>
+        <v>615</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7644,10 +7713,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B442" t="s">
-        <v>318</v>
+        <v>529</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7655,10 +7724,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B443" t="s">
-        <v>324</v>
+        <v>355</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7666,10 +7735,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="B444" t="s">
-        <v>306</v>
+        <v>619</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7677,10 +7746,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B445" t="s">
-        <v>310</v>
+        <v>529</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7688,10 +7757,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B446" t="s">
-        <v>301</v>
+        <v>355</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7699,10 +7768,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
+        <v>622</v>
+      </c>
+      <c r="B447" t="s">
         <v>623</v>
-      </c>
-      <c r="B447" t="s">
-        <v>308</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7713,7 +7782,7 @@
         <v>624</v>
       </c>
       <c r="B448" t="s">
-        <v>436</v>
+        <v>625</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7721,10 +7790,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B449" t="s">
-        <v>441</v>
+        <v>455</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7732,10 +7801,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="B450" t="s">
-        <v>627</v>
+        <v>355</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7746,7 +7815,7 @@
         <v>628</v>
       </c>
       <c r="B451" t="s">
-        <v>336</v>
+        <v>446</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7757,7 +7826,7 @@
         <v>629</v>
       </c>
       <c r="B452" t="s">
-        <v>406</v>
+        <v>459</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7768,7 +7837,7 @@
         <v>630</v>
       </c>
       <c r="B453" t="s">
-        <v>441</v>
+        <v>324</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7779,7 +7848,7 @@
         <v>631</v>
       </c>
       <c r="B454" t="s">
-        <v>315</v>
+        <v>385</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7790,7 +7859,7 @@
         <v>632</v>
       </c>
       <c r="B455" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7801,7 +7870,7 @@
         <v>633</v>
       </c>
       <c r="B456" t="s">
-        <v>434</v>
+        <v>322</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7812,7 +7881,7 @@
         <v>634</v>
       </c>
       <c r="B457" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7823,7 +7892,7 @@
         <v>635</v>
       </c>
       <c r="B458" t="s">
-        <v>423</v>
+        <v>467</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7834,7 +7903,7 @@
         <v>636</v>
       </c>
       <c r="B459" t="s">
-        <v>602</v>
+        <v>322</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7845,7 +7914,7 @@
         <v>637</v>
       </c>
       <c r="B460" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7856,7 +7925,7 @@
         <v>638</v>
       </c>
       <c r="B461" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7867,7 +7936,7 @@
         <v>639</v>
       </c>
       <c r="B462" t="s">
-        <v>420</v>
+        <v>393</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7878,7 +7947,7 @@
         <v>640</v>
       </c>
       <c r="B463" t="s">
-        <v>420</v>
+        <v>376</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7889,7 +7958,7 @@
         <v>641</v>
       </c>
       <c r="B464" t="s">
-        <v>315</v>
+        <v>341</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7900,7 +7969,7 @@
         <v>642</v>
       </c>
       <c r="B465" t="s">
-        <v>428</v>
+        <v>347</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7911,7 +7980,7 @@
         <v>643</v>
       </c>
       <c r="B466" t="s">
-        <v>434</v>
+        <v>329</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7922,7 +7991,7 @@
         <v>644</v>
       </c>
       <c r="B467" t="s">
-        <v>423</v>
+        <v>333</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7933,7 +8002,7 @@
         <v>645</v>
       </c>
       <c r="B468" t="s">
-        <v>550</v>
+        <v>324</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -7944,7 +8013,7 @@
         <v>646</v>
       </c>
       <c r="B469" t="s">
-        <v>519</v>
+        <v>331</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -7955,7 +8024,7 @@
         <v>647</v>
       </c>
       <c r="B470" t="s">
-        <v>522</v>
+        <v>459</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -7966,7 +8035,7 @@
         <v>648</v>
       </c>
       <c r="B471" t="s">
-        <v>562</v>
+        <v>464</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -7977,7 +8046,7 @@
         <v>649</v>
       </c>
       <c r="B472" t="s">
-        <v>512</v>
+        <v>650</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -7985,10 +8054,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B473" t="s">
-        <v>517</v>
+        <v>359</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -7996,10 +8065,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B474" t="s">
-        <v>542</v>
+        <v>429</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -8007,10 +8076,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B475" t="s">
-        <v>517</v>
+        <v>464</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -8018,10 +8087,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B476" t="s">
-        <v>528</v>
+        <v>338</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -8029,10 +8098,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B477" t="s">
-        <v>655</v>
+        <v>345</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -8043,7 +8112,7 @@
         <v>656</v>
       </c>
       <c r="B478" t="s">
-        <v>524</v>
+        <v>457</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -8054,7 +8123,7 @@
         <v>657</v>
       </c>
       <c r="B479" t="s">
-        <v>568</v>
+        <v>343</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -8065,7 +8134,7 @@
         <v>658</v>
       </c>
       <c r="B480" t="s">
-        <v>596</v>
+        <v>446</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -8076,7 +8145,7 @@
         <v>659</v>
       </c>
       <c r="B481" t="s">
-        <v>540</v>
+        <v>625</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -8087,7 +8156,7 @@
         <v>660</v>
       </c>
       <c r="B482" t="s">
-        <v>530</v>
+        <v>359</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -8098,7 +8167,7 @@
         <v>661</v>
       </c>
       <c r="B483" t="s">
-        <v>662</v>
+        <v>359</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -8106,10 +8175,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B484" t="s">
-        <v>664</v>
+        <v>443</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -8117,10 +8186,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B485" t="s">
-        <v>666</v>
+        <v>443</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -8128,10 +8197,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="B486" t="s">
-        <v>668</v>
+        <v>338</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -8139,10 +8208,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="B487" t="s">
-        <v>670</v>
+        <v>451</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -8150,10 +8219,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="B488" t="s">
-        <v>672</v>
+        <v>457</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -8161,10 +8230,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B489" t="s">
-        <v>674</v>
+        <v>446</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -8172,10 +8241,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B490" t="s">
-        <v>676</v>
+        <v>573</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -8183,10 +8252,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
       <c r="B491" t="s">
-        <v>678</v>
+        <v>542</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -8194,10 +8263,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>679</v>
+        <v>670</v>
       </c>
       <c r="B492" t="s">
-        <v>519</v>
+        <v>545</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -8205,10 +8274,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>680</v>
+        <v>671</v>
       </c>
       <c r="B493" t="s">
-        <v>522</v>
+        <v>585</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -8216,10 +8285,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>681</v>
+        <v>672</v>
       </c>
       <c r="B494" t="s">
-        <v>512</v>
+        <v>535</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -8227,10 +8296,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>682</v>
+        <v>673</v>
       </c>
       <c r="B495" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -8238,10 +8307,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>683</v>
+        <v>674</v>
       </c>
       <c r="B496" t="s">
-        <v>537</v>
+        <v>565</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -8249,10 +8318,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>684</v>
+        <v>675</v>
       </c>
       <c r="B497" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8260,10 +8329,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="B498" t="s">
-        <v>428</v>
+        <v>551</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8271,10 +8340,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="B499" t="s">
-        <v>687</v>
+        <v>678</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8282,10 +8351,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>688</v>
+        <v>679</v>
       </c>
       <c r="B500" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8293,10 +8362,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>689</v>
+        <v>680</v>
       </c>
       <c r="B501" t="s">
-        <v>524</v>
+        <v>591</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8304,10 +8373,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>690</v>
+        <v>681</v>
       </c>
       <c r="B502" t="s">
-        <v>517</v>
+        <v>619</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8315,10 +8384,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>691</v>
+        <v>682</v>
       </c>
       <c r="B503" t="s">
-        <v>692</v>
+        <v>563</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8326,10 +8395,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="B504" t="s">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8337,10 +8406,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="B505" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8348,10 +8417,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="B506" t="s">
-        <v>537</v>
+        <v>687</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8359,10 +8428,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
       <c r="B507" t="s">
-        <v>698</v>
+        <v>689</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8370,10 +8439,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>699</v>
+        <v>690</v>
       </c>
       <c r="B508" t="s">
-        <v>542</v>
+        <v>691</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8381,10 +8450,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
       <c r="B509" t="s">
-        <v>428</v>
+        <v>693</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8392,10 +8461,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>701</v>
+        <v>694</v>
       </c>
       <c r="B510" t="s">
-        <v>506</v>
+        <v>695</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8403,10 +8472,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="B511" t="s">
-        <v>553</v>
+        <v>697</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8414,10 +8483,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="B512" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8425,10 +8494,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="B513" t="s">
-        <v>423</v>
+        <v>701</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8436,10 +8505,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="B514" t="s">
-        <v>602</v>
+        <v>542</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8447,10 +8516,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="B515" t="s">
-        <v>434</v>
+        <v>545</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8458,10 +8527,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="B516" t="s">
-        <v>406</v>
+        <v>535</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8469,10 +8538,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="B517" t="s">
-        <v>406</v>
+        <v>568</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8480,10 +8549,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B518" t="s">
-        <v>423</v>
+        <v>560</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8491,10 +8560,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B519" t="s">
-        <v>332</v>
+        <v>526</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8502,10 +8571,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B520" t="s">
-        <v>336</v>
+        <v>451</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8513,10 +8582,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B521" t="s">
-        <v>704</v>
+        <v>710</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8524,10 +8593,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="B522" t="s">
-        <v>602</v>
+        <v>565</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8535,10 +8604,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B523" t="s">
-        <v>430</v>
+        <v>547</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8546,10 +8615,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="B524" t="s">
-        <v>423</v>
+        <v>540</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8557,10 +8626,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="B525" t="s">
-        <v>336</v>
+        <v>715</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8568,10 +8637,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B526" t="s">
-        <v>434</v>
+        <v>568</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8579,10 +8648,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B527" t="s">
-        <v>315</v>
+        <v>718</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8590,10 +8659,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B528" t="s">
-        <v>299</v>
+        <v>560</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8601,10 +8670,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
+        <v>720</v>
+      </c>
+      <c r="B529" t="s">
         <v>721</v>
-      </c>
-      <c r="B529" t="s">
-        <v>315</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -8615,7 +8684,7 @@
         <v>722</v>
       </c>
       <c r="B530" t="s">
-        <v>627</v>
+        <v>565</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -8626,7 +8695,7 @@
         <v>723</v>
       </c>
       <c r="B531" t="s">
-        <v>336</v>
+        <v>451</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -8637,7 +8706,7 @@
         <v>724</v>
       </c>
       <c r="B532" t="s">
-        <v>430</v>
+        <v>529</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -8648,7 +8717,7 @@
         <v>725</v>
       </c>
       <c r="B533" t="s">
-        <v>320</v>
+        <v>576</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -8659,7 +8728,7 @@
         <v>726</v>
       </c>
       <c r="B534" t="s">
-        <v>428</v>
+        <v>727</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -8667,10 +8736,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B535" t="s">
-        <v>627</v>
+        <v>446</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -8678,10 +8747,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B536" t="s">
-        <v>687</v>
+        <v>625</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -8689,10 +8758,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B537" t="s">
-        <v>406</v>
+        <v>457</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -8700,10 +8769,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="B538" t="s">
-        <v>590</v>
+        <v>429</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -8711,10 +8780,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B539" t="s">
-        <v>592</v>
+        <v>429</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -8722,10 +8791,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B540" t="s">
-        <v>332</v>
+        <v>446</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -8733,10 +8802,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B541" t="s">
-        <v>434</v>
+        <v>355</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -8744,10 +8813,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B542" t="s">
-        <v>627</v>
+        <v>359</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -8755,10 +8824,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B543" t="s">
-        <v>336</v>
+        <v>727</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -8766,10 +8835,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B544" t="s">
-        <v>428</v>
+        <v>625</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -8777,10 +8846,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B545" t="s">
-        <v>334</v>
+        <v>453</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -8788,10 +8857,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B546" t="s">
-        <v>503</v>
+        <v>446</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -8799,10 +8868,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B547" t="s">
-        <v>571</v>
+        <v>359</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -8810,10 +8879,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B548" t="s">
-        <v>553</v>
+        <v>457</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -8821,10 +8890,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B549" t="s">
-        <v>698</v>
+        <v>338</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -8832,10 +8901,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B550" t="s">
-        <v>596</v>
+        <v>322</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -8843,10 +8912,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B551" t="s">
-        <v>540</v>
+        <v>338</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -8854,10 +8923,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B552" t="s">
-        <v>745</v>
+        <v>650</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -8868,7 +8937,7 @@
         <v>746</v>
       </c>
       <c r="B553" t="s">
-        <v>747</v>
+        <v>359</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -8876,10 +8945,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B554" t="s">
-        <v>749</v>
+        <v>453</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -8887,10 +8956,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B555" t="s">
-        <v>751</v>
+        <v>343</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -8898,10 +8967,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B556" t="s">
-        <v>753</v>
+        <v>451</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -8909,10 +8978,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B557" t="s">
-        <v>755</v>
+        <v>650</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -8920,10 +8989,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="B558" t="s">
-        <v>757</v>
+        <v>710</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -8931,10 +9000,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="B559" t="s">
-        <v>753</v>
+        <v>429</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -8942,10 +9011,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="B560" t="s">
-        <v>760</v>
+        <v>613</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -8953,10 +9022,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>761</v>
+        <v>754</v>
       </c>
       <c r="B561" t="s">
-        <v>762</v>
+        <v>615</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -8964,10 +9033,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
       <c r="B562" t="s">
-        <v>764</v>
+        <v>355</v>
       </c>
       <c r="C562" t="s">
         <v>5</v>
@@ -8975,10 +9044,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>765</v>
+        <v>756</v>
       </c>
       <c r="B563" t="s">
-        <v>698</v>
+        <v>457</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -8986,10 +9055,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>766</v>
+        <v>757</v>
       </c>
       <c r="B564" t="s">
-        <v>568</v>
+        <v>650</v>
       </c>
       <c r="C564" t="s">
         <v>5</v>
@@ -8997,10 +9066,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>767</v>
+        <v>758</v>
       </c>
       <c r="B565" t="s">
-        <v>522</v>
+        <v>359</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -9008,10 +9077,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>768</v>
+        <v>759</v>
       </c>
       <c r="B566" t="s">
-        <v>522</v>
+        <v>451</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -9019,10 +9088,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>769</v>
+        <v>760</v>
       </c>
       <c r="B567" t="s">
-        <v>510</v>
+        <v>357</v>
       </c>
       <c r="C567" t="s">
         <v>5</v>
@@ -9030,10 +9099,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>770</v>
+        <v>761</v>
       </c>
       <c r="B568" t="s">
-        <v>545</v>
+        <v>526</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -9041,10 +9110,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>771</v>
+        <v>762</v>
       </c>
       <c r="B569" t="s">
-        <v>514</v>
+        <v>594</v>
       </c>
       <c r="C569" t="s">
         <v>5</v>
@@ -9052,10 +9121,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>772</v>
+        <v>763</v>
       </c>
       <c r="B570" t="s">
-        <v>596</v>
+        <v>576</v>
       </c>
       <c r="C570" t="s">
         <v>5</v>
@@ -9063,10 +9132,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>773</v>
+        <v>764</v>
       </c>
       <c r="B571" t="s">
-        <v>592</v>
+        <v>721</v>
       </c>
       <c r="C571" t="s">
         <v>5</v>
@@ -9074,10 +9143,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>774</v>
+        <v>765</v>
       </c>
       <c r="B572" t="s">
-        <v>512</v>
+        <v>619</v>
       </c>
       <c r="C572" t="s">
         <v>5</v>
@@ -9085,10 +9154,10 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>775</v>
+        <v>766</v>
       </c>
       <c r="B573" t="s">
-        <v>547</v>
+        <v>563</v>
       </c>
       <c r="C573" t="s">
         <v>5</v>
@@ -9096,10 +9165,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>776</v>
+        <v>767</v>
       </c>
       <c r="B574" t="s">
-        <v>512</v>
+        <v>768</v>
       </c>
       <c r="C574" t="s">
         <v>5</v>
@@ -9107,10 +9176,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
       <c r="B575" t="s">
-        <v>698</v>
+        <v>770</v>
       </c>
       <c r="C575" t="s">
         <v>5</v>
@@ -9118,10 +9187,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>778</v>
+        <v>771</v>
       </c>
       <c r="B576" t="s">
-        <v>537</v>
+        <v>772</v>
       </c>
       <c r="C576" t="s">
         <v>5</v>
@@ -9129,10 +9198,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
       <c r="B577" t="s">
-        <v>764</v>
+        <v>774</v>
       </c>
       <c r="C577" t="s">
         <v>5</v>
@@ -9140,10 +9209,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B578" t="s">
-        <v>764</v>
+        <v>776</v>
       </c>
       <c r="C578" t="s">
         <v>5</v>
@@ -9151,10 +9220,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="B579" t="s">
-        <v>530</v>
+        <v>778</v>
       </c>
       <c r="C579" t="s">
         <v>5</v>
@@ -9162,10 +9231,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="B580" t="s">
-        <v>666</v>
+        <v>780</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
@@ -9173,10 +9242,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B581" t="s">
-        <v>745</v>
+        <v>776</v>
       </c>
       <c r="C581" t="s">
         <v>5</v>
@@ -9184,10 +9253,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B582" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C582" t="s">
         <v>5</v>
@@ -9195,10 +9264,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="B583" t="s">
-        <v>764</v>
+        <v>785</v>
       </c>
       <c r="C583" t="s">
         <v>5</v>
@@ -9206,10 +9275,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
+        <v>786</v>
+      </c>
+      <c r="B584" t="s">
         <v>787</v>
-      </c>
-      <c r="B584" t="s">
-        <v>514</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
@@ -9220,7 +9289,7 @@
         <v>788</v>
       </c>
       <c r="B585" t="s">
-        <v>512</v>
+        <v>721</v>
       </c>
       <c r="C585" t="s">
         <v>5</v>
@@ -9231,7 +9300,7 @@
         <v>789</v>
       </c>
       <c r="B586" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="C586" t="s">
         <v>5</v>
@@ -9242,7 +9311,7 @@
         <v>790</v>
       </c>
       <c r="B587" t="s">
-        <v>627</v>
+        <v>545</v>
       </c>
       <c r="C587" t="s">
         <v>5</v>
@@ -9253,7 +9322,7 @@
         <v>791</v>
       </c>
       <c r="B588" t="s">
-        <v>704</v>
+        <v>545</v>
       </c>
       <c r="C588" t="s">
         <v>5</v>
@@ -9264,7 +9333,7 @@
         <v>792</v>
       </c>
       <c r="B589" t="s">
-        <v>315</v>
+        <v>533</v>
       </c>
       <c r="C589" t="s">
         <v>5</v>
@@ -9275,7 +9344,7 @@
         <v>793</v>
       </c>
       <c r="B590" t="s">
-        <v>406</v>
+        <v>568</v>
       </c>
       <c r="C590" t="s">
         <v>5</v>
@@ -9286,7 +9355,7 @@
         <v>794</v>
       </c>
       <c r="B591" t="s">
-        <v>423</v>
+        <v>537</v>
       </c>
       <c r="C591" t="s">
         <v>5</v>
@@ -9297,7 +9366,7 @@
         <v>795</v>
       </c>
       <c r="B592" t="s">
-        <v>324</v>
+        <v>619</v>
       </c>
       <c r="C592" t="s">
         <v>5</v>
@@ -9308,7 +9377,7 @@
         <v>796</v>
       </c>
       <c r="B593" t="s">
-        <v>444</v>
+        <v>615</v>
       </c>
       <c r="C593" t="s">
         <v>5</v>
@@ -9319,7 +9388,7 @@
         <v>797</v>
       </c>
       <c r="B594" t="s">
-        <v>353</v>
+        <v>535</v>
       </c>
       <c r="C594" t="s">
         <v>5</v>
@@ -9330,7 +9399,7 @@
         <v>798</v>
       </c>
       <c r="B595" t="s">
-        <v>266</v>
+        <v>570</v>
       </c>
       <c r="C595" t="s">
         <v>5</v>
@@ -9341,7 +9410,7 @@
         <v>799</v>
       </c>
       <c r="B596" t="s">
-        <v>274</v>
+        <v>535</v>
       </c>
       <c r="C596" t="s">
         <v>5</v>
@@ -9352,7 +9421,7 @@
         <v>800</v>
       </c>
       <c r="B597" t="s">
-        <v>269</v>
+        <v>721</v>
       </c>
       <c r="C597" t="s">
         <v>5</v>
@@ -9363,7 +9432,7 @@
         <v>801</v>
       </c>
       <c r="B598" t="s">
-        <v>802</v>
+        <v>560</v>
       </c>
       <c r="C598" t="s">
         <v>5</v>
@@ -9371,10 +9440,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B599" t="s">
-        <v>264</v>
+        <v>787</v>
       </c>
       <c r="C599" t="s">
         <v>5</v>
@@ -9382,10 +9451,10 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B600" t="s">
-        <v>349</v>
+        <v>787</v>
       </c>
       <c r="C600" t="s">
         <v>5</v>
@@ -9393,10 +9462,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B601" t="s">
-        <v>806</v>
+        <v>553</v>
       </c>
       <c r="C601" t="s">
         <v>5</v>
@@ -9404,10 +9473,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B602" t="s">
-        <v>808</v>
+        <v>689</v>
       </c>
       <c r="C602" t="s">
         <v>5</v>
@@ -9415,10 +9484,10 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="B603" t="s">
-        <v>808</v>
+        <v>768</v>
       </c>
       <c r="C603" t="s">
         <v>5</v>
@@ -9426,10 +9495,10 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="B604" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
       <c r="C604" t="s">
         <v>5</v>
@@ -9437,10 +9506,10 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
       <c r="B605" t="s">
-        <v>808</v>
+        <v>787</v>
       </c>
       <c r="C605" t="s">
         <v>5</v>
@@ -9448,10 +9517,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
       <c r="B606" t="s">
-        <v>814</v>
+        <v>537</v>
       </c>
       <c r="C606" t="s">
         <v>5</v>
@@ -9459,12 +9528,254 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
+        <v>811</v>
+      </c>
+      <c r="B607" t="s">
+        <v>535</v>
+      </c>
+      <c r="C607" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="s">
+        <v>812</v>
+      </c>
+      <c r="B608" t="s">
+        <v>619</v>
+      </c>
+      <c r="C608" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="s">
+        <v>813</v>
+      </c>
+      <c r="B609" t="s">
+        <v>650</v>
+      </c>
+      <c r="C609" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="s">
+        <v>814</v>
+      </c>
+      <c r="B610" t="s">
+        <v>727</v>
+      </c>
+      <c r="C610" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="s">
         <v>815</v>
       </c>
-      <c r="B607" t="s">
-        <v>814</v>
-      </c>
-      <c r="C607" t="s">
+      <c r="B611" t="s">
+        <v>338</v>
+      </c>
+      <c r="C611" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="s">
+        <v>816</v>
+      </c>
+      <c r="B612" t="s">
+        <v>429</v>
+      </c>
+      <c r="C612" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="s">
+        <v>817</v>
+      </c>
+      <c r="B613" t="s">
+        <v>446</v>
+      </c>
+      <c r="C613" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="s">
+        <v>818</v>
+      </c>
+      <c r="B614" t="s">
+        <v>347</v>
+      </c>
+      <c r="C614" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="s">
+        <v>819</v>
+      </c>
+      <c r="B615" t="s">
+        <v>467</v>
+      </c>
+      <c r="C615" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="s">
+        <v>820</v>
+      </c>
+      <c r="B616" t="s">
+        <v>376</v>
+      </c>
+      <c r="C616" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="s">
+        <v>821</v>
+      </c>
+      <c r="B617" t="s">
+        <v>289</v>
+      </c>
+      <c r="C617" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="s">
+        <v>822</v>
+      </c>
+      <c r="B618" t="s">
+        <v>297</v>
+      </c>
+      <c r="C618" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="s">
+        <v>823</v>
+      </c>
+      <c r="B619" t="s">
+        <v>292</v>
+      </c>
+      <c r="C619" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="s">
+        <v>824</v>
+      </c>
+      <c r="B620" t="s">
+        <v>825</v>
+      </c>
+      <c r="C620" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="s">
+        <v>826</v>
+      </c>
+      <c r="B621" t="s">
+        <v>287</v>
+      </c>
+      <c r="C621" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="s">
+        <v>827</v>
+      </c>
+      <c r="B622" t="s">
+        <v>372</v>
+      </c>
+      <c r="C622" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="s">
+        <v>828</v>
+      </c>
+      <c r="B623" t="s">
+        <v>829</v>
+      </c>
+      <c r="C623" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="s">
+        <v>830</v>
+      </c>
+      <c r="B624" t="s">
+        <v>831</v>
+      </c>
+      <c r="C624" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="s">
+        <v>832</v>
+      </c>
+      <c r="B625" t="s">
+        <v>831</v>
+      </c>
+      <c r="C625" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="s">
+        <v>833</v>
+      </c>
+      <c r="B626" t="s">
+        <v>834</v>
+      </c>
+      <c r="C626" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="s">
+        <v>835</v>
+      </c>
+      <c r="B627" t="s">
+        <v>831</v>
+      </c>
+      <c r="C627" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="s">
+        <v>836</v>
+      </c>
+      <c r="B628" t="s">
+        <v>837</v>
+      </c>
+      <c r="C628" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="s">
+        <v>838</v>
+      </c>
+      <c r="B629" t="s">
+        <v>837</v>
+      </c>
+      <c r="C629" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink International Health Care Fund.xlsx
+++ b/data/GreatLink/GreatLink International Health Care Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid783518"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid830798"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="860">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,117 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>30/10/2024</t>
+  </si>
+  <si>
+    <t>1.002</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>29/10/2024</t>
+  </si>
+  <si>
+    <t>1.010</t>
+  </si>
+  <si>
+    <t>28/10/2024</t>
+  </si>
+  <si>
+    <t>1.011</t>
+  </si>
+  <si>
+    <t>25/10/2024</t>
+  </si>
+  <si>
+    <t>1.008</t>
+  </si>
+  <si>
+    <t>24/10/2024</t>
+  </si>
+  <si>
+    <t>23/10/2024</t>
+  </si>
+  <si>
+    <t>1.015</t>
+  </si>
+  <si>
+    <t>22/10/2024</t>
+  </si>
+  <si>
+    <t>21/10/2024</t>
+  </si>
+  <si>
+    <t>18/10/2024</t>
+  </si>
+  <si>
+    <t>1.022</t>
+  </si>
+  <si>
+    <t>17/10/2024</t>
+  </si>
+  <si>
+    <t>1.021</t>
+  </si>
+  <si>
+    <t>16/10/2024</t>
+  </si>
+  <si>
+    <t>1.025</t>
+  </si>
+  <si>
+    <t>15/10/2024</t>
+  </si>
+  <si>
+    <t>1.020</t>
+  </si>
+  <si>
+    <t>14/10/2024</t>
+  </si>
+  <si>
+    <t>1.031</t>
+  </si>
+  <si>
+    <t>11/10/2024</t>
+  </si>
+  <si>
+    <t>1.026</t>
+  </si>
+  <si>
+    <t>10/10/2024</t>
+  </si>
+  <si>
+    <t>1.018</t>
+  </si>
+  <si>
+    <t>09/10/2024</t>
+  </si>
+  <si>
+    <t>1.019</t>
+  </si>
+  <si>
+    <t>08/10/2024</t>
+  </si>
+  <si>
+    <t>1.009</t>
+  </si>
+  <si>
+    <t>07/10/2024</t>
+  </si>
+  <si>
+    <t>1.004</t>
+  </si>
+  <si>
+    <t>04/10/2024</t>
+  </si>
+  <si>
     <t>03/10/2024</t>
   </si>
   <si>
     <t>1.006</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>02/10/2024</t>
   </si>
   <si>
@@ -62,21 +164,12 @@
     <t>25/09/2024</t>
   </si>
   <si>
-    <t>1.015</t>
-  </si>
-  <si>
     <t>24/09/2024</t>
   </si>
   <si>
-    <t>1.022</t>
-  </si>
-  <si>
     <t>23/09/2024</t>
   </si>
   <si>
-    <t>1.026</t>
-  </si>
-  <si>
     <t>20/09/2024</t>
   </si>
   <si>
@@ -239,9 +332,6 @@
     <t>08/08/2024</t>
   </si>
   <si>
-    <t>1.031</t>
-  </si>
-  <si>
     <t>07/08/2024</t>
   </si>
   <si>
@@ -413,9 +503,6 @@
     <t>04/06/2024</t>
   </si>
   <si>
-    <t>1.021</t>
-  </si>
-  <si>
     <t>03/06/2024</t>
   </si>
   <si>
@@ -437,9 +524,6 @@
     <t>27/05/2024</t>
   </si>
   <si>
-    <t>1.025</t>
-  </si>
-  <si>
     <t>24/05/2024</t>
   </si>
   <si>
@@ -470,15 +554,9 @@
     <t>13/05/2024</t>
   </si>
   <si>
-    <t>1.019</t>
-  </si>
-  <si>
     <t>10/05/2024</t>
   </si>
   <si>
-    <t>1.020</t>
-  </si>
-  <si>
     <t>09/05/2024</t>
   </si>
   <si>
@@ -488,9 +566,6 @@
     <t>07/05/2024</t>
   </si>
   <si>
-    <t>1.010</t>
-  </si>
-  <si>
     <t>06/05/2024</t>
   </si>
   <si>
@@ -578,9 +653,6 @@
     <t>09/04/2024</t>
   </si>
   <si>
-    <t>1.002</t>
-  </si>
-  <si>
     <t>08/04/2024</t>
   </si>
   <si>
@@ -671,9 +743,6 @@
     <t>05/03/2024</t>
   </si>
   <si>
-    <t>1.011</t>
-  </si>
-  <si>
     <t>04/03/2024</t>
   </si>
   <si>
@@ -710,9 +779,6 @@
     <t>20/02/2024</t>
   </si>
   <si>
-    <t>1.009</t>
-  </si>
-  <si>
     <t>19/02/2024</t>
   </si>
   <si>
@@ -729,9 +795,6 @@
   </si>
   <si>
     <t>09/02/2024</t>
-  </si>
-  <si>
-    <t>1.008</t>
   </si>
   <si>
     <t>08/02/2024</t>
@@ -2909,7 +2972,7 @@
         <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -2917,7 +2980,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>7</v>
@@ -2928,10 +2991,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -2939,10 +3002,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -2953,7 +3016,7 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -2961,10 +3024,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -2972,10 +3035,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -2983,10 +3046,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -2994,10 +3057,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3005,10 +3068,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" t="s">
-        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3016,10 +3079,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
         <v>28</v>
-      </c>
-      <c r="B15" t="s">
-        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3027,10 +3090,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
         <v>30</v>
-      </c>
-      <c r="B16" t="s">
-        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3038,10 +3101,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3049,10 +3112,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3060,10 +3123,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
         <v>36</v>
-      </c>
-      <c r="B19" t="s">
-        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3071,10 +3134,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3082,10 +3145,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3093,10 +3156,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3104,10 +3167,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
         <v>43</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3115,10 +3178,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3126,10 +3189,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3137,10 +3200,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3148,10 +3211,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3159,10 +3222,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3170,10 +3233,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3181,10 +3244,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3192,7 +3255,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B31" t="s">
         <v>54</v>
@@ -3203,10 +3266,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3214,10 +3277,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3225,10 +3288,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3236,10 +3299,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3247,10 +3310,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>64</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3258,10 +3321,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" t="s">
         <v>66</v>
-      </c>
-      <c r="B37" t="s">
-        <v>67</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3269,10 +3332,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" t="s">
         <v>68</v>
-      </c>
-      <c r="B38" t="s">
-        <v>69</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3280,10 +3343,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
         <v>70</v>
-      </c>
-      <c r="B39" t="s">
-        <v>39</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3305,7 +3368,7 @@
         <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3313,10 +3376,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
+        <v>74</v>
+      </c>
+      <c r="B42" t="s">
         <v>75</v>
-      </c>
-      <c r="B42" t="s">
-        <v>4</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3327,7 +3390,7 @@
         <v>76</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3335,10 +3398,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3346,10 +3409,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B45" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3357,10 +3420,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3368,10 +3431,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B47" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3379,10 +3442,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B48" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3390,10 +3453,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3401,10 +3464,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
+        <v>89</v>
+      </c>
+      <c r="B50" t="s">
         <v>85</v>
-      </c>
-      <c r="B50" t="s">
-        <v>23</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3412,10 +3475,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3423,10 +3486,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3434,10 +3497,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3445,10 +3508,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>61</v>
+        <v>94</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3456,10 +3519,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>60</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3467,10 +3530,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>98</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3478,10 +3541,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B57" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3489,10 +3552,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3500,10 +3563,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3511,10 +3574,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3522,10 +3585,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3533,10 +3596,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
-        <v>89</v>
+        <v>47</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3544,10 +3607,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>25</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3555,10 +3618,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3566,10 +3629,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B65" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3577,10 +3640,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B66" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3588,10 +3651,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B67" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3599,10 +3662,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B68" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3610,10 +3673,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B69" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3621,10 +3684,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B70" t="s">
-        <v>39</v>
+        <v>117</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3632,10 +3695,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B71" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3643,10 +3706,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3654,10 +3717,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B73" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3665,10 +3728,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>31</v>
+        <v>62</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3676,10 +3739,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B75" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3687,10 +3750,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3698,10 +3761,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="B77" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3709,10 +3772,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>129</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3720,10 +3783,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B79" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3731,10 +3794,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="B80" t="s">
-        <v>87</v>
+        <v>64</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3742,10 +3805,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B81" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3753,10 +3816,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B82" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3764,10 +3827,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="B83" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3775,10 +3838,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B84" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3786,10 +3849,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>138</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3797,10 +3860,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="B86" t="s">
-        <v>108</v>
+        <v>26</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3808,10 +3871,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="B87" t="s">
-        <v>132</v>
+        <v>56</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3819,10 +3882,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3830,10 +3893,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B89" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3841,10 +3904,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="B90" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3852,10 +3915,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B91" t="s">
-        <v>136</v>
+        <v>119</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3863,10 +3926,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>129</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3874,10 +3937,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="B93" t="s">
-        <v>140</v>
+        <v>62</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3885,10 +3948,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B94" t="s">
-        <v>19</v>
+        <v>70</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3896,10 +3959,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B95" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3907,10 +3970,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B96" t="s">
-        <v>21</v>
+        <v>150</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3918,10 +3981,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B97" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3929,10 +3992,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B98" t="s">
-        <v>72</v>
+        <v>153</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -3940,10 +4003,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B99" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -3951,10 +4014,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="B100" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -3962,10 +4025,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B101" t="s">
-        <v>149</v>
+        <v>72</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -3973,10 +4036,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="B102" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -3984,10 +4047,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B103" t="s">
-        <v>153</v>
+        <v>52</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -3995,10 +4058,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B104" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -4006,10 +4069,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="B105" t="s">
-        <v>78</v>
+        <v>138</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -4017,10 +4080,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B106" t="s">
-        <v>157</v>
+        <v>20</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -4028,10 +4091,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B107" t="s">
-        <v>159</v>
+        <v>14</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -4039,10 +4102,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B108" t="s">
-        <v>161</v>
+        <v>47</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -4050,10 +4113,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B109" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -4061,10 +4124,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B110" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -4072,10 +4135,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B111" t="s">
-        <v>166</v>
+        <v>41</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -4083,10 +4146,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B112" t="s">
-        <v>159</v>
+        <v>22</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -4094,10 +4157,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B113" t="s">
-        <v>163</v>
+        <v>28</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -4105,10 +4168,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B114" t="s">
-        <v>170</v>
+        <v>26</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -4119,7 +4182,7 @@
         <v>171</v>
       </c>
       <c r="B115" t="s">
-        <v>172</v>
+        <v>52</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -4127,10 +4190,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B116" t="s">
-        <v>174</v>
+        <v>110</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -4138,10 +4201,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B117" t="s">
-        <v>176</v>
+        <v>103</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -4149,10 +4212,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B118" t="s">
-        <v>176</v>
+        <v>150</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -4160,10 +4223,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B119" t="s">
-        <v>179</v>
+        <v>117</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -4171,10 +4234,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B120" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4182,10 +4245,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B121" t="s">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -4193,10 +4256,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B122" t="s">
-        <v>184</v>
+        <v>24</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -4204,10 +4267,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B123" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -4215,10 +4278,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B124" t="s">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -4226,10 +4289,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B125" t="s">
-        <v>189</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -4237,10 +4300,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B126" t="s">
-        <v>78</v>
+        <v>184</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4248,10 +4311,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B127" t="s">
-        <v>166</v>
+        <v>186</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4259,10 +4322,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B128" t="s">
-        <v>9</v>
+        <v>188</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4270,10 +4333,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B129" t="s">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -4281,10 +4344,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B130" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4292,10 +4355,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B131" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4303,10 +4366,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B132" t="s">
-        <v>87</v>
+        <v>188</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4314,10 +4377,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B133" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4325,10 +4388,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B134" t="s">
-        <v>140</v>
+        <v>197</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4336,10 +4399,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B135" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4347,10 +4410,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B136" t="s">
-        <v>19</v>
+        <v>201</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4358,10 +4421,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B137" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4369,10 +4432,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B138" t="s">
-        <v>149</v>
+        <v>204</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4380,10 +4443,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4391,10 +4454,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
+        <v>206</v>
+      </c>
+      <c r="B140" t="s">
         <v>207</v>
-      </c>
-      <c r="B140" t="s">
-        <v>208</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4402,10 +4465,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
+        <v>208</v>
+      </c>
+      <c r="B141" t="s">
         <v>209</v>
-      </c>
-      <c r="B141" t="s">
-        <v>151</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4416,7 +4479,7 @@
         <v>210</v>
       </c>
       <c r="B142" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4427,7 +4490,7 @@
         <v>211</v>
       </c>
       <c r="B143" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4438,7 +4501,7 @@
         <v>212</v>
       </c>
       <c r="B144" t="s">
-        <v>151</v>
+        <v>213</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4446,10 +4509,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B145" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4457,10 +4520,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B146" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4468,10 +4531,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B147" t="s">
-        <v>216</v>
+        <v>43</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4482,7 +4545,7 @@
         <v>217</v>
       </c>
       <c r="B148" t="s">
-        <v>218</v>
+        <v>43</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4490,10 +4553,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
+        <v>218</v>
+      </c>
+      <c r="B149" t="s">
         <v>219</v>
-      </c>
-      <c r="B149" t="s">
-        <v>220</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4501,10 +4564,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B150" t="s">
-        <v>220</v>
+        <v>117</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4512,10 +4575,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B151" t="s">
-        <v>218</v>
+        <v>117</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4523,10 +4586,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
+        <v>222</v>
+      </c>
+      <c r="B152" t="s">
         <v>223</v>
-      </c>
-      <c r="B152" t="s">
-        <v>153</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4537,7 +4600,7 @@
         <v>224</v>
       </c>
       <c r="B153" t="s">
-        <v>220</v>
+        <v>22</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4548,7 +4611,7 @@
         <v>225</v>
       </c>
       <c r="B154" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4556,10 +4619,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B155" t="s">
-        <v>227</v>
+        <v>28</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4570,7 +4633,7 @@
         <v>228</v>
       </c>
       <c r="B156" t="s">
-        <v>149</v>
+        <v>226</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4581,7 +4644,7 @@
         <v>229</v>
       </c>
       <c r="B157" t="s">
-        <v>218</v>
+        <v>177</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4592,7 +4655,7 @@
         <v>230</v>
       </c>
       <c r="B158" t="s">
-        <v>231</v>
+        <v>47</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4600,10 +4663,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
+        <v>231</v>
+      </c>
+      <c r="B159" t="s">
         <v>232</v>
-      </c>
-      <c r="B159" t="s">
-        <v>208</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4614,7 +4677,7 @@
         <v>233</v>
       </c>
       <c r="B160" t="s">
-        <v>208</v>
+        <v>32</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4625,7 +4688,7 @@
         <v>234</v>
       </c>
       <c r="B161" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4636,7 +4699,7 @@
         <v>235</v>
       </c>
       <c r="B162" t="s">
-        <v>231</v>
+        <v>22</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4647,7 +4710,7 @@
         <v>236</v>
       </c>
       <c r="B163" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4658,7 +4721,7 @@
         <v>237</v>
       </c>
       <c r="B164" t="s">
-        <v>238</v>
+        <v>24</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4666,10 +4729,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B165" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4677,10 +4740,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
+        <v>239</v>
+      </c>
+      <c r="B166" t="s">
         <v>240</v>
-      </c>
-      <c r="B166" t="s">
-        <v>172</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4691,7 +4754,7 @@
         <v>241</v>
       </c>
       <c r="B167" t="s">
-        <v>189</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4713,7 +4776,7 @@
         <v>244</v>
       </c>
       <c r="B169" t="s">
-        <v>182</v>
+        <v>243</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4724,7 +4787,7 @@
         <v>245</v>
       </c>
       <c r="B170" t="s">
-        <v>184</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4735,7 +4798,7 @@
         <v>246</v>
       </c>
       <c r="B171" t="s">
-        <v>247</v>
+        <v>24</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4743,10 +4806,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B172" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4754,10 +4817,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B173" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4765,10 +4828,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B174" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4776,10 +4839,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B175" t="s">
-        <v>254</v>
+        <v>177</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4787,10 +4850,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B176" t="s">
-        <v>256</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4798,10 +4861,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B177" t="s">
-        <v>258</v>
+        <v>34</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4809,10 +4872,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B178" t="s">
-        <v>260</v>
+        <v>232</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4820,10 +4883,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B179" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4831,10 +4894,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="B180" t="s">
-        <v>263</v>
+        <v>43</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4842,10 +4905,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B181" t="s">
-        <v>265</v>
+        <v>34</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4853,10 +4916,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B182" t="s">
-        <v>247</v>
+        <v>197</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4864,10 +4927,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="B183" t="s">
-        <v>268</v>
+        <v>11</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4875,10 +4938,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B184" t="s">
-        <v>249</v>
+        <v>165</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4886,10 +4949,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B185" t="s">
-        <v>268</v>
+        <v>197</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4897,10 +4960,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B186" t="s">
-        <v>249</v>
+        <v>213</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4908,10 +4971,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B187" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4919,10 +4982,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="B188" t="s">
-        <v>275</v>
+        <v>207</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4930,10 +4993,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B189" t="s">
-        <v>277</v>
+        <v>209</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -4941,10 +5004,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>278</v>
+        <v>267</v>
       </c>
       <c r="B190" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -4952,10 +5015,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="B191" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -4963,10 +5026,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="B192" t="s">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -4974,10 +5037,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="B193" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -4985,10 +5048,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="B194" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -4996,10 +5059,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B195" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -5007,10 +5070,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="B196" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -5018,10 +5081,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="B197" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -5029,10 +5092,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B198" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -5040,10 +5103,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B199" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -5051,10 +5114,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B200" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -5062,10 +5125,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="B201" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -5073,10 +5136,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="B202" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -5084,10 +5147,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="B203" t="s">
-        <v>301</v>
+        <v>270</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -5095,10 +5158,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>302</v>
+        <v>291</v>
       </c>
       <c r="B204" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -5106,10 +5169,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="B205" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -5117,10 +5180,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
       <c r="B206" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -5128,10 +5191,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="B207" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -5139,10 +5202,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="B208" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -5150,10 +5213,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
       <c r="B209" t="s">
-        <v>312</v>
+        <v>275</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -5161,10 +5224,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>313</v>
+        <v>300</v>
       </c>
       <c r="B210" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -5172,10 +5235,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>314</v>
+        <v>301</v>
       </c>
       <c r="B211" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -5183,10 +5246,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="B212" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -5194,10 +5257,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B213" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -5205,10 +5268,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="B214" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -5216,10 +5279,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B215" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -5227,10 +5290,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B216" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -5238,10 +5301,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B217" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -5249,10 +5312,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B218" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -5260,10 +5323,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="B219" t="s">
-        <v>329</v>
+        <v>313</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5271,10 +5334,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>330</v>
+        <v>317</v>
       </c>
       <c r="B220" t="s">
-        <v>331</v>
+        <v>318</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -5282,10 +5345,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>332</v>
+        <v>319</v>
       </c>
       <c r="B221" t="s">
-        <v>333</v>
+        <v>320</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -5293,10 +5356,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>334</v>
+        <v>321</v>
       </c>
       <c r="B222" t="s">
-        <v>335</v>
+        <v>322</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5304,10 +5367,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="B223" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5315,10 +5378,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B224" t="s">
-        <v>338</v>
+        <v>320</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5326,10 +5389,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>339</v>
+        <v>326</v>
       </c>
       <c r="B225" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5337,10 +5400,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B226" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5348,10 +5411,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="B227" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5359,10 +5422,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="B228" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5370,10 +5433,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="B229" t="s">
-        <v>347</v>
+        <v>329</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5381,10 +5444,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="B230" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5392,10 +5455,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>349</v>
+        <v>336</v>
       </c>
       <c r="B231" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5403,10 +5466,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B232" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5414,10 +5477,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>351</v>
+        <v>340</v>
       </c>
       <c r="B233" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5425,10 +5488,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B234" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5436,10 +5499,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="B235" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5447,10 +5510,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="B236" t="s">
-        <v>357</v>
+        <v>331</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5458,10 +5521,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>358</v>
+        <v>347</v>
       </c>
       <c r="B237" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5469,10 +5532,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>360</v>
+        <v>349</v>
       </c>
       <c r="B238" t="s">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5480,10 +5543,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="B239" t="s">
-        <v>347</v>
+        <v>352</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5491,10 +5554,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B240" t="s">
-        <v>341</v>
+        <v>354</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5502,10 +5565,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="B241" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5513,10 +5576,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B242" t="s">
-        <v>316</v>
+        <v>341</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5524,10 +5587,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="B243" t="s">
-        <v>299</v>
+        <v>359</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5535,10 +5598,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B244" t="s">
-        <v>367</v>
+        <v>345</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5546,10 +5609,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="B245" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5557,10 +5620,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="B246" t="s">
-        <v>301</v>
+        <v>364</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5568,10 +5631,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B247" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5579,10 +5642,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B248" t="s">
-        <v>289</v>
+        <v>368</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5590,10 +5653,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="B249" t="s">
-        <v>299</v>
+        <v>356</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5601,10 +5664,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="B250" t="s">
-        <v>376</v>
+        <v>343</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5612,10 +5675,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B251" t="s">
-        <v>378</v>
+        <v>356</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5623,10 +5686,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="B252" t="s">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5634,10 +5697,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B253" t="s">
-        <v>335</v>
+        <v>373</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5645,10 +5708,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B254" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5656,10 +5719,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B255" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5667,10 +5730,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="B256" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5678,10 +5741,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="B257" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5689,10 +5752,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B258" t="s">
-        <v>316</v>
+        <v>368</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5700,10 +5763,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B259" t="s">
-        <v>316</v>
+        <v>362</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5711,10 +5774,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B260" t="s">
-        <v>308</v>
+        <v>368</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5722,10 +5785,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B261" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5733,10 +5796,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B262" t="s">
-        <v>393</v>
+        <v>320</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5744,10 +5807,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="B263" t="s">
-        <v>299</v>
+        <v>388</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5755,10 +5818,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B264" t="s">
-        <v>306</v>
+        <v>390</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5766,10 +5829,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="B265" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5777,10 +5840,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="B266" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5788,10 +5851,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="B267" t="s">
-        <v>400</v>
+        <v>310</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5799,10 +5862,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B268" t="s">
-        <v>398</v>
+        <v>320</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5810,10 +5873,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B269" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5821,10 +5884,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="B270" t="s">
-        <v>367</v>
+        <v>399</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5832,10 +5895,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B271" t="s">
-        <v>289</v>
+        <v>368</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5843,10 +5906,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="B272" t="s">
-        <v>297</v>
+        <v>356</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5854,10 +5917,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B273" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5865,10 +5928,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B274" t="s">
-        <v>398</v>
+        <v>368</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5876,10 +5939,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="B275" t="s">
-        <v>306</v>
+        <v>406</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5887,10 +5950,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="B276" t="s">
-        <v>294</v>
+        <v>408</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5898,10 +5961,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B277" t="s">
-        <v>372</v>
+        <v>337</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5909,10 +5972,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B278" t="s">
-        <v>367</v>
+        <v>337</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5920,10 +5983,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B279" t="s">
-        <v>299</v>
+        <v>329</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5931,10 +5994,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B280" t="s">
-        <v>294</v>
+        <v>350</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -5942,10 +6005,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B281" t="s">
-        <v>310</v>
+        <v>414</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -5953,10 +6016,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B282" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -5964,10 +6027,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B283" t="s">
-        <v>378</v>
+        <v>327</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -5975,10 +6038,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B284" t="s">
-        <v>294</v>
+        <v>327</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -5986,10 +6049,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
+        <v>418</v>
+      </c>
+      <c r="B285" t="s">
         <v>419</v>
-      </c>
-      <c r="B285" t="s">
-        <v>310</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -6000,7 +6063,7 @@
         <v>420</v>
       </c>
       <c r="B286" t="s">
-        <v>312</v>
+        <v>421</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -6008,10 +6071,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B287" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -6019,10 +6082,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B288" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -6030,10 +6093,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B289" t="s">
-        <v>301</v>
+        <v>388</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -6041,10 +6104,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B290" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -6052,10 +6115,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B291" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -6063,10 +6126,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B292" t="s">
-        <v>398</v>
+        <v>428</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -6074,10 +6137,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="B293" t="s">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -6085,10 +6148,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B294" t="s">
-        <v>429</v>
+        <v>327</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -6096,10 +6159,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B295" t="s">
-        <v>343</v>
+        <v>315</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -6107,10 +6170,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B296" t="s">
-        <v>320</v>
+        <v>393</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -6118,10 +6181,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B297" t="s">
-        <v>341</v>
+        <v>388</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -6129,10 +6192,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B298" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -6140,10 +6203,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B299" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -6151,10 +6214,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B300" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -6162,10 +6225,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B301" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -6173,10 +6236,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B302" t="s">
-        <v>324</v>
+        <v>399</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -6184,10 +6247,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B303" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -6195,10 +6258,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B304" t="s">
-        <v>393</v>
+        <v>331</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -6206,10 +6269,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B305" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -6217,10 +6280,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B306" t="s">
-        <v>335</v>
+        <v>428</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -6228,10 +6291,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="B307" t="s">
-        <v>443</v>
+        <v>388</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -6242,7 +6305,7 @@
         <v>444</v>
       </c>
       <c r="B308" t="s">
-        <v>429</v>
+        <v>322</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -6253,7 +6316,7 @@
         <v>445</v>
       </c>
       <c r="B309" t="s">
-        <v>446</v>
+        <v>318</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -6261,10 +6324,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B310" t="s">
-        <v>448</v>
+        <v>327</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -6272,10 +6335,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B311" t="s">
-        <v>357</v>
+        <v>419</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -6283,10 +6346,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B312" t="s">
-        <v>451</v>
+        <v>406</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -6294,10 +6357,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="B313" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -6305,10 +6368,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B314" t="s">
-        <v>455</v>
+        <v>364</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -6316,10 +6379,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B315" t="s">
-        <v>457</v>
+        <v>341</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -6327,10 +6390,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B316" t="s">
-        <v>459</v>
+        <v>362</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6338,10 +6401,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B317" t="s">
-        <v>382</v>
+        <v>356</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6349,10 +6412,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B318" t="s">
-        <v>443</v>
+        <v>354</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6360,10 +6423,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B319" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6371,10 +6434,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B320" t="s">
-        <v>464</v>
+        <v>352</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6382,10 +6445,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="B321" t="s">
-        <v>464</v>
+        <v>345</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6393,10 +6456,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="B322" t="s">
-        <v>467</v>
+        <v>339</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6404,10 +6467,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B323" t="s">
-        <v>324</v>
+        <v>414</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6415,10 +6478,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="B324" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6426,10 +6489,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="B325" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6437,10 +6500,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="B326" t="s">
-        <v>322</v>
+        <v>464</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6448,10 +6511,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="B327" t="s">
-        <v>335</v>
+        <v>450</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6459,10 +6522,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
       <c r="B328" t="s">
-        <v>341</v>
+        <v>467</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6470,10 +6533,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B329" t="s">
-        <v>335</v>
+        <v>469</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6481,10 +6544,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B330" t="s">
-        <v>457</v>
+        <v>378</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6492,10 +6555,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="B331" t="s">
-        <v>459</v>
+        <v>472</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6503,10 +6566,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B332" t="s">
-        <v>443</v>
+        <v>474</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6514,10 +6577,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B333" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6525,10 +6588,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B334" t="s">
-        <v>464</v>
+        <v>478</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6536,10 +6599,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
+        <v>479</v>
+      </c>
+      <c r="B335" t="s">
         <v>480</v>
-      </c>
-      <c r="B335" t="s">
-        <v>446</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6550,7 +6613,7 @@
         <v>481</v>
       </c>
       <c r="B336" t="s">
-        <v>467</v>
+        <v>403</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6561,7 +6624,7 @@
         <v>482</v>
       </c>
       <c r="B337" t="s">
-        <v>331</v>
+        <v>464</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6572,7 +6635,7 @@
         <v>483</v>
       </c>
       <c r="B338" t="s">
-        <v>484</v>
+        <v>406</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6580,10 +6643,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
+        <v>484</v>
+      </c>
+      <c r="B339" t="s">
         <v>485</v>
-      </c>
-      <c r="B339" t="s">
-        <v>352</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6594,7 +6657,7 @@
         <v>486</v>
       </c>
       <c r="B340" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6602,10 +6665,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
+        <v>487</v>
+      </c>
+      <c r="B341" t="s">
         <v>488</v>
-      </c>
-      <c r="B341" t="s">
-        <v>359</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6616,7 +6679,7 @@
         <v>489</v>
       </c>
       <c r="B342" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6627,7 +6690,7 @@
         <v>490</v>
       </c>
       <c r="B343" t="s">
-        <v>453</v>
+        <v>362</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6638,7 +6701,7 @@
         <v>491</v>
       </c>
       <c r="B344" t="s">
-        <v>457</v>
+        <v>343</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6649,7 +6712,7 @@
         <v>492</v>
       </c>
       <c r="B345" t="s">
-        <v>464</v>
+        <v>343</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6660,7 +6723,7 @@
         <v>493</v>
       </c>
       <c r="B346" t="s">
-        <v>333</v>
+        <v>356</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6671,7 +6734,7 @@
         <v>494</v>
       </c>
       <c r="B347" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6682,7 +6745,7 @@
         <v>495</v>
       </c>
       <c r="B348" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6693,7 +6756,7 @@
         <v>496</v>
       </c>
       <c r="B349" t="s">
-        <v>467</v>
+        <v>478</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6704,7 +6767,7 @@
         <v>497</v>
       </c>
       <c r="B350" t="s">
-        <v>338</v>
+        <v>480</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6715,7 +6778,7 @@
         <v>498</v>
       </c>
       <c r="B351" t="s">
-        <v>333</v>
+        <v>464</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6726,7 +6789,7 @@
         <v>499</v>
       </c>
       <c r="B352" t="s">
-        <v>331</v>
+        <v>485</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6737,7 +6800,7 @@
         <v>500</v>
       </c>
       <c r="B353" t="s">
-        <v>338</v>
+        <v>485</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6748,7 +6811,7 @@
         <v>501</v>
       </c>
       <c r="B354" t="s">
-        <v>338</v>
+        <v>467</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6759,7 +6822,7 @@
         <v>502</v>
       </c>
       <c r="B355" t="s">
-        <v>335</v>
+        <v>488</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6770,7 +6833,7 @@
         <v>503</v>
       </c>
       <c r="B356" t="s">
-        <v>467</v>
+        <v>352</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6781,7 +6844,7 @@
         <v>504</v>
       </c>
       <c r="B357" t="s">
-        <v>341</v>
+        <v>505</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6789,10 +6852,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="B358" t="s">
-        <v>343</v>
+        <v>373</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6800,10 +6863,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B359" t="s">
-        <v>335</v>
+        <v>508</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6811,10 +6874,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B360" t="s">
-        <v>341</v>
+        <v>380</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6822,10 +6885,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B361" t="s">
-        <v>331</v>
+        <v>373</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6833,10 +6896,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B362" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6844,10 +6907,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B363" t="s">
-        <v>429</v>
+        <v>478</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6855,10 +6918,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B364" t="s">
-        <v>324</v>
+        <v>485</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6866,10 +6929,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B365" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6877,10 +6940,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B366" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6888,10 +6951,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B367" t="s">
-        <v>338</v>
+        <v>406</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6899,10 +6962,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B368" t="s">
-        <v>341</v>
+        <v>488</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6910,10 +6973,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B369" t="s">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6921,10 +6984,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B370" t="s">
-        <v>329</v>
+        <v>354</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6932,10 +6995,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B371" t="s">
-        <v>327</v>
+        <v>352</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -6943,10 +7006,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B372" t="s">
-        <v>318</v>
+        <v>359</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -6954,10 +7017,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B373" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -6965,10 +7028,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B374" t="s">
-        <v>338</v>
+        <v>356</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -6976,10 +7039,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B375" t="s">
-        <v>338</v>
+        <v>488</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -6987,10 +7050,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B376" t="s">
-        <v>443</v>
+        <v>362</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -6998,10 +7061,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B377" t="s">
-        <v>457</v>
+        <v>364</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -7009,10 +7072,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B378" t="s">
-        <v>526</v>
+        <v>356</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -7020,10 +7083,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B379" t="s">
-        <v>487</v>
+        <v>362</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -7031,10 +7094,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B380" t="s">
-        <v>529</v>
+        <v>352</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -7045,7 +7108,7 @@
         <v>530</v>
       </c>
       <c r="B381" t="s">
-        <v>531</v>
+        <v>488</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -7053,10 +7116,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B382" t="s">
-        <v>533</v>
+        <v>450</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -7064,10 +7127,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B383" t="s">
-        <v>535</v>
+        <v>345</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -7075,10 +7138,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="B384" t="s">
-        <v>537</v>
+        <v>331</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -7086,10 +7149,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B385" t="s">
-        <v>535</v>
+        <v>348</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -7097,10 +7160,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B386" t="s">
-        <v>540</v>
+        <v>359</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -7108,10 +7171,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="B387" t="s">
-        <v>542</v>
+        <v>362</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -7119,10 +7182,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B388" t="s">
-        <v>535</v>
+        <v>345</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -7130,10 +7193,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B389" t="s">
-        <v>545</v>
+        <v>350</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -7141,10 +7204,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B390" t="s">
-        <v>547</v>
+        <v>348</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -7152,10 +7215,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="B391" t="s">
-        <v>549</v>
+        <v>339</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -7163,10 +7226,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>550</v>
+        <v>541</v>
       </c>
       <c r="B392" t="s">
-        <v>551</v>
+        <v>343</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -7174,10 +7237,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="B393" t="s">
-        <v>553</v>
+        <v>359</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -7185,10 +7248,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="B394" t="s">
-        <v>547</v>
+        <v>359</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -7196,10 +7259,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B395" t="s">
-        <v>556</v>
+        <v>464</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -7207,10 +7270,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>557</v>
+        <v>545</v>
       </c>
       <c r="B396" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -7218,10 +7281,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>558</v>
+        <v>546</v>
       </c>
       <c r="B397" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -7229,10 +7292,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="B398" t="s">
-        <v>560</v>
+        <v>508</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -7240,10 +7303,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="B399" t="s">
-        <v>537</v>
+        <v>550</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7251,10 +7314,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
       <c r="B400" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -7262,10 +7325,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="B401" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -7273,10 +7336,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>566</v>
+        <v>555</v>
       </c>
       <c r="B402" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -7284,10 +7347,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="B403" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7295,10 +7358,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="B404" t="s">
-        <v>570</v>
+        <v>556</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -7306,10 +7369,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="B405" t="s">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -7317,10 +7380,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="B406" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7328,10 +7391,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="B407" t="s">
-        <v>537</v>
+        <v>556</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7339,10 +7402,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B408" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7350,10 +7413,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="B409" t="s">
-        <v>357</v>
+        <v>568</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7361,10 +7424,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>578</v>
+        <v>569</v>
       </c>
       <c r="B410" t="s">
-        <v>448</v>
+        <v>570</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7372,10 +7435,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="B411" t="s">
-        <v>563</v>
+        <v>572</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7383,10 +7446,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="B412" t="s">
-        <v>355</v>
+        <v>574</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7394,10 +7457,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B413" t="s">
-        <v>448</v>
+        <v>568</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7405,10 +7468,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="B414" t="s">
-        <v>526</v>
+        <v>577</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7416,10 +7479,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="B415" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7427,10 +7490,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="B416" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7438,10 +7501,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B417" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7449,10 +7512,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="B418" t="s">
-        <v>455</v>
+        <v>558</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7460,10 +7523,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="B419" t="s">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7471,10 +7534,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="B420" t="s">
-        <v>531</v>
+        <v>586</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7482,10 +7545,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B421" t="s">
-        <v>591</v>
+        <v>574</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7493,10 +7556,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="B422" t="s">
-        <v>576</v>
+        <v>589</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7504,10 +7567,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B423" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7515,10 +7578,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B424" t="s">
-        <v>596</v>
+        <v>556</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7526,10 +7589,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="B425" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7537,10 +7600,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B426" t="s">
-        <v>531</v>
+        <v>558</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7548,10 +7611,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B427" t="s">
-        <v>585</v>
+        <v>597</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7559,10 +7622,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B428" t="s">
-        <v>594</v>
+        <v>378</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7570,10 +7633,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B429" t="s">
-        <v>585</v>
+        <v>469</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7581,10 +7644,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B430" t="s">
-        <v>535</v>
+        <v>584</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7592,10 +7655,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B431" t="s">
-        <v>576</v>
+        <v>376</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7603,10 +7666,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B432" t="s">
-        <v>594</v>
+        <v>469</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7614,10 +7677,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B433" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7625,10 +7688,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B434" t="s">
-        <v>533</v>
+        <v>584</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7636,10 +7699,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B435" t="s">
-        <v>594</v>
+        <v>606</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7647,10 +7710,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B436" t="s">
-        <v>533</v>
+        <v>594</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7658,10 +7721,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B437" t="s">
-        <v>545</v>
+        <v>476</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7669,10 +7732,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B438" t="s">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7680,10 +7743,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B439" t="s">
-        <v>533</v>
+        <v>552</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7691,10 +7754,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
+        <v>611</v>
+      </c>
+      <c r="B440" t="s">
         <v>612</v>
-      </c>
-      <c r="B440" t="s">
-        <v>613</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7702,10 +7765,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B441" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7713,10 +7776,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="B442" t="s">
-        <v>529</v>
+        <v>615</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7724,10 +7787,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
+        <v>616</v>
+      </c>
+      <c r="B443" t="s">
         <v>617</v>
-      </c>
-      <c r="B443" t="s">
-        <v>355</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7738,7 +7801,7 @@
         <v>618</v>
       </c>
       <c r="B444" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7746,10 +7809,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B445" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7757,10 +7820,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B446" t="s">
-        <v>355</v>
+        <v>606</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7768,10 +7831,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B447" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7779,10 +7842,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="B448" t="s">
-        <v>625</v>
+        <v>606</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7790,10 +7853,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B449" t="s">
-        <v>455</v>
+        <v>556</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7801,10 +7864,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B450" t="s">
-        <v>355</v>
+        <v>597</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7812,10 +7875,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B451" t="s">
-        <v>446</v>
+        <v>615</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7823,10 +7886,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B452" t="s">
-        <v>459</v>
+        <v>558</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7834,10 +7897,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B453" t="s">
-        <v>324</v>
+        <v>554</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7845,10 +7908,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B454" t="s">
-        <v>385</v>
+        <v>615</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7856,10 +7919,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B455" t="s">
-        <v>324</v>
+        <v>554</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7867,10 +7930,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B456" t="s">
-        <v>322</v>
+        <v>566</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7878,10 +7941,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B457" t="s">
-        <v>324</v>
+        <v>584</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7889,10 +7952,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B458" t="s">
-        <v>467</v>
+        <v>554</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7900,10 +7963,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B459" t="s">
-        <v>322</v>
+        <v>634</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7911,10 +7974,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B460" t="s">
-        <v>341</v>
+        <v>636</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7922,10 +7985,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B461" t="s">
-        <v>316</v>
+        <v>550</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7933,10 +7996,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B462" t="s">
-        <v>393</v>
+        <v>376</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -7944,10 +8007,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
+        <v>639</v>
+      </c>
+      <c r="B463" t="s">
         <v>640</v>
-      </c>
-      <c r="B463" t="s">
-        <v>376</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -7958,7 +8021,7 @@
         <v>641</v>
       </c>
       <c r="B464" t="s">
-        <v>341</v>
+        <v>550</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -7969,7 +8032,7 @@
         <v>642</v>
       </c>
       <c r="B465" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -7980,7 +8043,7 @@
         <v>643</v>
       </c>
       <c r="B466" t="s">
-        <v>329</v>
+        <v>644</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -7988,10 +8051,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B467" t="s">
-        <v>333</v>
+        <v>646</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -7999,10 +8062,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B468" t="s">
-        <v>324</v>
+        <v>476</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -8010,10 +8073,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B469" t="s">
-        <v>331</v>
+        <v>376</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -8021,10 +8084,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B470" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -8032,10 +8095,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B471" t="s">
-        <v>464</v>
+        <v>480</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -8043,10 +8106,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B472" t="s">
-        <v>650</v>
+        <v>345</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -8054,10 +8117,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B473" t="s">
-        <v>359</v>
+        <v>406</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -8065,10 +8128,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B474" t="s">
-        <v>429</v>
+        <v>345</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -8076,10 +8139,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B475" t="s">
-        <v>464</v>
+        <v>343</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -8087,10 +8150,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="B476" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -8098,10 +8161,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B477" t="s">
-        <v>345</v>
+        <v>488</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -8109,10 +8172,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="B478" t="s">
-        <v>457</v>
+        <v>343</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -8120,10 +8183,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B479" t="s">
-        <v>343</v>
+        <v>362</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -8131,10 +8194,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="B480" t="s">
-        <v>446</v>
+        <v>337</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -8142,10 +8205,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="B481" t="s">
-        <v>625</v>
+        <v>414</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -8153,10 +8216,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B482" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -8164,10 +8227,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="B483" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -8175,10 +8238,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B484" t="s">
-        <v>443</v>
+        <v>368</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -8186,10 +8249,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B485" t="s">
-        <v>443</v>
+        <v>350</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -8197,10 +8260,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="B486" t="s">
-        <v>338</v>
+        <v>354</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -8208,10 +8271,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="B487" t="s">
-        <v>451</v>
+        <v>345</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -8219,10 +8282,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B488" t="s">
-        <v>457</v>
+        <v>352</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -8230,10 +8293,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="B489" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -8241,10 +8304,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B490" t="s">
-        <v>573</v>
+        <v>485</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -8252,10 +8315,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B491" t="s">
-        <v>542</v>
+        <v>671</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -8263,10 +8326,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B492" t="s">
-        <v>545</v>
+        <v>380</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -8274,10 +8337,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="B493" t="s">
-        <v>585</v>
+        <v>450</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -8285,10 +8348,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B494" t="s">
-        <v>535</v>
+        <v>485</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -8296,10 +8359,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B495" t="s">
-        <v>540</v>
+        <v>359</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -8307,10 +8370,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B496" t="s">
-        <v>565</v>
+        <v>366</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -8318,10 +8381,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B497" t="s">
-        <v>540</v>
+        <v>478</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8329,10 +8392,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B498" t="s">
-        <v>551</v>
+        <v>364</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8340,10 +8403,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B499" t="s">
-        <v>678</v>
+        <v>467</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8351,10 +8414,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B500" t="s">
-        <v>547</v>
+        <v>646</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8362,10 +8425,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="B501" t="s">
-        <v>591</v>
+        <v>380</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8373,10 +8436,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="B502" t="s">
-        <v>619</v>
+        <v>380</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8384,10 +8447,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B503" t="s">
-        <v>563</v>
+        <v>464</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8395,10 +8458,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="B504" t="s">
-        <v>553</v>
+        <v>464</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8406,10 +8469,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="B505" t="s">
-        <v>685</v>
+        <v>359</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8420,7 +8483,7 @@
         <v>686</v>
       </c>
       <c r="B506" t="s">
-        <v>687</v>
+        <v>472</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8428,10 +8491,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B507" t="s">
-        <v>689</v>
+        <v>478</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8439,10 +8502,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="B508" t="s">
-        <v>691</v>
+        <v>467</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8450,10 +8513,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B509" t="s">
-        <v>693</v>
+        <v>594</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8461,10 +8524,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="B510" t="s">
-        <v>695</v>
+        <v>563</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8472,10 +8535,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="B511" t="s">
-        <v>697</v>
+        <v>566</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8483,10 +8546,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="B512" t="s">
-        <v>699</v>
+        <v>606</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8494,10 +8557,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>700</v>
+        <v>693</v>
       </c>
       <c r="B513" t="s">
-        <v>701</v>
+        <v>556</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8505,10 +8568,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="B514" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8516,10 +8579,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="B515" t="s">
-        <v>545</v>
+        <v>586</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8527,10 +8590,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="B516" t="s">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8538,10 +8601,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
       <c r="B517" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8549,10 +8612,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
       <c r="B518" t="s">
-        <v>560</v>
+        <v>699</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8560,10 +8623,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="B519" t="s">
-        <v>526</v>
+        <v>568</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8571,10 +8634,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B520" t="s">
-        <v>451</v>
+        <v>612</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8582,10 +8645,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="B521" t="s">
-        <v>710</v>
+        <v>640</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8593,10 +8656,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
       <c r="B522" t="s">
-        <v>565</v>
+        <v>584</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8604,10 +8667,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
       <c r="B523" t="s">
-        <v>547</v>
+        <v>574</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8615,10 +8678,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
       <c r="B524" t="s">
-        <v>540</v>
+        <v>706</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8626,10 +8689,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>714</v>
+        <v>707</v>
       </c>
       <c r="B525" t="s">
-        <v>715</v>
+        <v>708</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8637,10 +8700,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>716</v>
+        <v>709</v>
       </c>
       <c r="B526" t="s">
-        <v>568</v>
+        <v>710</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8648,10 +8711,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="B527" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8659,10 +8722,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="B528" t="s">
-        <v>560</v>
+        <v>714</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8670,10 +8733,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="B529" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -8681,10 +8744,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B530" t="s">
-        <v>565</v>
+        <v>718</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -8692,10 +8755,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B531" t="s">
-        <v>451</v>
+        <v>720</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -8703,10 +8766,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="B532" t="s">
-        <v>529</v>
+        <v>722</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -8714,10 +8777,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B533" t="s">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -8725,10 +8788,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B534" t="s">
-        <v>727</v>
+        <v>566</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -8736,10 +8799,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="B535" t="s">
-        <v>446</v>
+        <v>556</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -8747,10 +8810,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="B536" t="s">
-        <v>625</v>
+        <v>589</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -8758,10 +8821,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="B537" t="s">
-        <v>457</v>
+        <v>581</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -8769,10 +8832,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="B538" t="s">
-        <v>429</v>
+        <v>547</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -8780,10 +8843,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="B539" t="s">
-        <v>429</v>
+        <v>472</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -8791,10 +8854,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
       <c r="B540" t="s">
-        <v>446</v>
+        <v>731</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -8802,10 +8865,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B541" t="s">
-        <v>355</v>
+        <v>586</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -8813,10 +8876,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B542" t="s">
-        <v>359</v>
+        <v>568</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -8824,10 +8887,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B543" t="s">
-        <v>727</v>
+        <v>561</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -8835,10 +8898,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B544" t="s">
-        <v>625</v>
+        <v>736</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -8846,10 +8909,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B545" t="s">
-        <v>453</v>
+        <v>589</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -8857,10 +8920,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
+        <v>738</v>
+      </c>
+      <c r="B546" t="s">
         <v>739</v>
-      </c>
-      <c r="B546" t="s">
-        <v>446</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -8871,7 +8934,7 @@
         <v>740</v>
       </c>
       <c r="B547" t="s">
-        <v>359</v>
+        <v>581</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -8882,7 +8945,7 @@
         <v>741</v>
       </c>
       <c r="B548" t="s">
-        <v>457</v>
+        <v>742</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -8890,10 +8953,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="B549" t="s">
-        <v>338</v>
+        <v>586</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -8901,10 +8964,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B550" t="s">
-        <v>322</v>
+        <v>472</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -8912,10 +8975,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B551" t="s">
-        <v>338</v>
+        <v>550</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -8923,10 +8986,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B552" t="s">
-        <v>650</v>
+        <v>597</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -8934,10 +8997,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B553" t="s">
-        <v>359</v>
+        <v>748</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -8945,10 +9008,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="B554" t="s">
-        <v>453</v>
+        <v>467</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -8956,10 +9019,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B555" t="s">
-        <v>343</v>
+        <v>646</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -8967,10 +9030,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="B556" t="s">
-        <v>451</v>
+        <v>478</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -8978,10 +9041,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B557" t="s">
-        <v>650</v>
+        <v>450</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -8989,10 +9052,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B558" t="s">
-        <v>710</v>
+        <v>450</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -9000,10 +9063,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B559" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -9011,10 +9074,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B560" t="s">
-        <v>613</v>
+        <v>376</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -9022,10 +9085,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B561" t="s">
-        <v>615</v>
+        <v>380</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -9033,10 +9096,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B562" t="s">
-        <v>355</v>
+        <v>748</v>
       </c>
       <c r="C562" t="s">
         <v>5</v>
@@ -9044,10 +9107,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B563" t="s">
-        <v>457</v>
+        <v>646</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -9055,10 +9118,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B564" t="s">
-        <v>650</v>
+        <v>474</v>
       </c>
       <c r="C564" t="s">
         <v>5</v>
@@ -9066,10 +9129,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B565" t="s">
-        <v>359</v>
+        <v>467</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -9077,10 +9140,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>759</v>
+        <v>761</v>
       </c>
       <c r="B566" t="s">
-        <v>451</v>
+        <v>380</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -9088,10 +9151,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="B567" t="s">
-        <v>357</v>
+        <v>478</v>
       </c>
       <c r="C567" t="s">
         <v>5</v>
@@ -9099,10 +9162,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="B568" t="s">
-        <v>526</v>
+        <v>359</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -9110,10 +9173,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="B569" t="s">
-        <v>594</v>
+        <v>343</v>
       </c>
       <c r="C569" t="s">
         <v>5</v>
@@ -9121,10 +9184,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B570" t="s">
-        <v>576</v>
+        <v>359</v>
       </c>
       <c r="C570" t="s">
         <v>5</v>
@@ -9132,10 +9195,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="B571" t="s">
-        <v>721</v>
+        <v>671</v>
       </c>
       <c r="C571" t="s">
         <v>5</v>
@@ -9143,10 +9206,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="B572" t="s">
-        <v>619</v>
+        <v>380</v>
       </c>
       <c r="C572" t="s">
         <v>5</v>
@@ -9154,10 +9217,10 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="B573" t="s">
-        <v>563</v>
+        <v>474</v>
       </c>
       <c r="C573" t="s">
         <v>5</v>
@@ -9165,10 +9228,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="B574" t="s">
-        <v>768</v>
+        <v>364</v>
       </c>
       <c r="C574" t="s">
         <v>5</v>
@@ -9176,10 +9239,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B575" t="s">
-        <v>770</v>
+        <v>472</v>
       </c>
       <c r="C575" t="s">
         <v>5</v>
@@ -9190,7 +9253,7 @@
         <v>771</v>
       </c>
       <c r="B576" t="s">
-        <v>772</v>
+        <v>671</v>
       </c>
       <c r="C576" t="s">
         <v>5</v>
@@ -9198,10 +9261,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B577" t="s">
-        <v>774</v>
+        <v>731</v>
       </c>
       <c r="C577" t="s">
         <v>5</v>
@@ -9209,10 +9272,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B578" t="s">
-        <v>776</v>
+        <v>450</v>
       </c>
       <c r="C578" t="s">
         <v>5</v>
@@ -9220,10 +9283,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="B579" t="s">
-        <v>778</v>
+        <v>634</v>
       </c>
       <c r="C579" t="s">
         <v>5</v>
@@ -9231,10 +9294,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>779</v>
+        <v>775</v>
       </c>
       <c r="B580" t="s">
-        <v>780</v>
+        <v>636</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
@@ -9242,10 +9305,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="B581" t="s">
-        <v>776</v>
+        <v>376</v>
       </c>
       <c r="C581" t="s">
         <v>5</v>
@@ -9253,10 +9316,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="B582" t="s">
-        <v>783</v>
+        <v>478</v>
       </c>
       <c r="C582" t="s">
         <v>5</v>
@@ -9264,10 +9327,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
       <c r="B583" t="s">
-        <v>785</v>
+        <v>671</v>
       </c>
       <c r="C583" t="s">
         <v>5</v>
@@ -9275,10 +9338,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>786</v>
+        <v>779</v>
       </c>
       <c r="B584" t="s">
-        <v>787</v>
+        <v>380</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
@@ -9286,10 +9349,10 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
       <c r="B585" t="s">
-        <v>721</v>
+        <v>472</v>
       </c>
       <c r="C585" t="s">
         <v>5</v>
@@ -9297,10 +9360,10 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
       <c r="B586" t="s">
-        <v>591</v>
+        <v>378</v>
       </c>
       <c r="C586" t="s">
         <v>5</v>
@@ -9308,10 +9371,10 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
       <c r="B587" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C587" t="s">
         <v>5</v>
@@ -9319,10 +9382,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
       <c r="B588" t="s">
-        <v>545</v>
+        <v>615</v>
       </c>
       <c r="C588" t="s">
         <v>5</v>
@@ -9330,10 +9393,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
       <c r="B589" t="s">
-        <v>533</v>
+        <v>597</v>
       </c>
       <c r="C589" t="s">
         <v>5</v>
@@ -9341,10 +9404,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
       <c r="B590" t="s">
-        <v>568</v>
+        <v>742</v>
       </c>
       <c r="C590" t="s">
         <v>5</v>
@@ -9352,10 +9415,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
       <c r="B591" t="s">
-        <v>537</v>
+        <v>640</v>
       </c>
       <c r="C591" t="s">
         <v>5</v>
@@ -9363,10 +9426,10 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
       <c r="B592" t="s">
-        <v>619</v>
+        <v>584</v>
       </c>
       <c r="C592" t="s">
         <v>5</v>
@@ -9374,10 +9437,10 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
       <c r="B593" t="s">
-        <v>615</v>
+        <v>789</v>
       </c>
       <c r="C593" t="s">
         <v>5</v>
@@ -9385,10 +9448,10 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>797</v>
+        <v>790</v>
       </c>
       <c r="B594" t="s">
-        <v>535</v>
+        <v>791</v>
       </c>
       <c r="C594" t="s">
         <v>5</v>
@@ -9396,10 +9459,10 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B595" t="s">
-        <v>570</v>
+        <v>793</v>
       </c>
       <c r="C595" t="s">
         <v>5</v>
@@ -9407,10 +9470,10 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
       <c r="B596" t="s">
-        <v>535</v>
+        <v>795</v>
       </c>
       <c r="C596" t="s">
         <v>5</v>
@@ -9418,10 +9481,10 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>800</v>
+        <v>796</v>
       </c>
       <c r="B597" t="s">
-        <v>721</v>
+        <v>797</v>
       </c>
       <c r="C597" t="s">
         <v>5</v>
@@ -9429,10 +9492,10 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="B598" t="s">
-        <v>560</v>
+        <v>799</v>
       </c>
       <c r="C598" t="s">
         <v>5</v>
@@ -9440,10 +9503,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="B599" t="s">
-        <v>787</v>
+        <v>801</v>
       </c>
       <c r="C599" t="s">
         <v>5</v>
@@ -9451,10 +9514,10 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B600" t="s">
-        <v>787</v>
+        <v>797</v>
       </c>
       <c r="C600" t="s">
         <v>5</v>
@@ -9462,10 +9525,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
+        <v>803</v>
+      </c>
+      <c r="B601" t="s">
         <v>804</v>
-      </c>
-      <c r="B601" t="s">
-        <v>553</v>
       </c>
       <c r="C601" t="s">
         <v>5</v>
@@ -9476,7 +9539,7 @@
         <v>805</v>
       </c>
       <c r="B602" t="s">
-        <v>689</v>
+        <v>806</v>
       </c>
       <c r="C602" t="s">
         <v>5</v>
@@ -9484,10 +9547,10 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B603" t="s">
-        <v>768</v>
+        <v>808</v>
       </c>
       <c r="C603" t="s">
         <v>5</v>
@@ -9495,10 +9558,10 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B604" t="s">
-        <v>808</v>
+        <v>742</v>
       </c>
       <c r="C604" t="s">
         <v>5</v>
@@ -9506,10 +9569,10 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B605" t="s">
-        <v>787</v>
+        <v>612</v>
       </c>
       <c r="C605" t="s">
         <v>5</v>
@@ -9517,10 +9580,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="B606" t="s">
-        <v>537</v>
+        <v>566</v>
       </c>
       <c r="C606" t="s">
         <v>5</v>
@@ -9528,10 +9591,10 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B607" t="s">
-        <v>535</v>
+        <v>566</v>
       </c>
       <c r="C607" t="s">
         <v>5</v>
@@ -9539,10 +9602,10 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B608" t="s">
-        <v>619</v>
+        <v>554</v>
       </c>
       <c r="C608" t="s">
         <v>5</v>
@@ -9550,10 +9613,10 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B609" t="s">
-        <v>650</v>
+        <v>589</v>
       </c>
       <c r="C609" t="s">
         <v>5</v>
@@ -9561,10 +9624,10 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B610" t="s">
-        <v>727</v>
+        <v>558</v>
       </c>
       <c r="C610" t="s">
         <v>5</v>
@@ -9572,10 +9635,10 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B611" t="s">
-        <v>338</v>
+        <v>640</v>
       </c>
       <c r="C611" t="s">
         <v>5</v>
@@ -9583,10 +9646,10 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B612" t="s">
-        <v>429</v>
+        <v>636</v>
       </c>
       <c r="C612" t="s">
         <v>5</v>
@@ -9594,10 +9657,10 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B613" t="s">
-        <v>446</v>
+        <v>556</v>
       </c>
       <c r="C613" t="s">
         <v>5</v>
@@ -9605,10 +9668,10 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B614" t="s">
-        <v>347</v>
+        <v>591</v>
       </c>
       <c r="C614" t="s">
         <v>5</v>
@@ -9616,10 +9679,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B615" t="s">
-        <v>467</v>
+        <v>556</v>
       </c>
       <c r="C615" t="s">
         <v>5</v>
@@ -9627,10 +9690,10 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B616" t="s">
-        <v>376</v>
+        <v>742</v>
       </c>
       <c r="C616" t="s">
         <v>5</v>
@@ -9638,10 +9701,10 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="B617" t="s">
-        <v>289</v>
+        <v>581</v>
       </c>
       <c r="C617" t="s">
         <v>5</v>
@@ -9649,10 +9712,10 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="B618" t="s">
-        <v>297</v>
+        <v>808</v>
       </c>
       <c r="C618" t="s">
         <v>5</v>
@@ -9660,10 +9723,10 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B619" t="s">
-        <v>292</v>
+        <v>808</v>
       </c>
       <c r="C619" t="s">
         <v>5</v>
@@ -9671,10 +9734,10 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B620" t="s">
-        <v>825</v>
+        <v>574</v>
       </c>
       <c r="C620" t="s">
         <v>5</v>
@@ -9685,7 +9748,7 @@
         <v>826</v>
       </c>
       <c r="B621" t="s">
-        <v>287</v>
+        <v>710</v>
       </c>
       <c r="C621" t="s">
         <v>5</v>
@@ -9696,7 +9759,7 @@
         <v>827</v>
       </c>
       <c r="B622" t="s">
-        <v>372</v>
+        <v>789</v>
       </c>
       <c r="C622" t="s">
         <v>5</v>
@@ -9718,7 +9781,7 @@
         <v>830</v>
       </c>
       <c r="B624" t="s">
-        <v>831</v>
+        <v>808</v>
       </c>
       <c r="C624" t="s">
         <v>5</v>
@@ -9726,10 +9789,10 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B625" t="s">
-        <v>831</v>
+        <v>558</v>
       </c>
       <c r="C625" t="s">
         <v>5</v>
@@ -9737,10 +9800,10 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B626" t="s">
-        <v>834</v>
+        <v>556</v>
       </c>
       <c r="C626" t="s">
         <v>5</v>
@@ -9748,10 +9811,10 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B627" t="s">
-        <v>831</v>
+        <v>640</v>
       </c>
       <c r="C627" t="s">
         <v>5</v>
@@ -9759,10 +9822,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="B628" t="s">
-        <v>837</v>
+        <v>671</v>
       </c>
       <c r="C628" t="s">
         <v>5</v>
@@ -9770,12 +9833,221 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
+        <v>835</v>
+      </c>
+      <c r="B629" t="s">
+        <v>748</v>
+      </c>
+      <c r="C629" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="s">
+        <v>836</v>
+      </c>
+      <c r="B630" t="s">
+        <v>359</v>
+      </c>
+      <c r="C630" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="s">
+        <v>837</v>
+      </c>
+      <c r="B631" t="s">
+        <v>450</v>
+      </c>
+      <c r="C631" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="s">
         <v>838</v>
       </c>
-      <c r="B629" t="s">
-        <v>837</v>
-      </c>
-      <c r="C629" t="s">
+      <c r="B632" t="s">
+        <v>467</v>
+      </c>
+      <c r="C632" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="s">
+        <v>839</v>
+      </c>
+      <c r="B633" t="s">
+        <v>368</v>
+      </c>
+      <c r="C633" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="s">
+        <v>840</v>
+      </c>
+      <c r="B634" t="s">
+        <v>488</v>
+      </c>
+      <c r="C634" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="s">
+        <v>841</v>
+      </c>
+      <c r="B635" t="s">
+        <v>397</v>
+      </c>
+      <c r="C635" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="s">
+        <v>842</v>
+      </c>
+      <c r="B636" t="s">
+        <v>310</v>
+      </c>
+      <c r="C636" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="s">
+        <v>843</v>
+      </c>
+      <c r="B637" t="s">
+        <v>318</v>
+      </c>
+      <c r="C637" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="s">
+        <v>844</v>
+      </c>
+      <c r="B638" t="s">
+        <v>313</v>
+      </c>
+      <c r="C638" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="s">
+        <v>845</v>
+      </c>
+      <c r="B639" t="s">
+        <v>846</v>
+      </c>
+      <c r="C639" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="s">
+        <v>847</v>
+      </c>
+      <c r="B640" t="s">
+        <v>308</v>
+      </c>
+      <c r="C640" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="s">
+        <v>848</v>
+      </c>
+      <c r="B641" t="s">
+        <v>393</v>
+      </c>
+      <c r="C641" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="s">
+        <v>849</v>
+      </c>
+      <c r="B642" t="s">
+        <v>850</v>
+      </c>
+      <c r="C642" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="s">
+        <v>851</v>
+      </c>
+      <c r="B643" t="s">
+        <v>852</v>
+      </c>
+      <c r="C643" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="s">
+        <v>853</v>
+      </c>
+      <c r="B644" t="s">
+        <v>852</v>
+      </c>
+      <c r="C644" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="s">
+        <v>854</v>
+      </c>
+      <c r="B645" t="s">
+        <v>855</v>
+      </c>
+      <c r="C645" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="s">
+        <v>856</v>
+      </c>
+      <c r="B646" t="s">
+        <v>852</v>
+      </c>
+      <c r="C646" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="s">
+        <v>857</v>
+      </c>
+      <c r="B647" t="s">
+        <v>858</v>
+      </c>
+      <c r="C647" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="s">
+        <v>859</v>
+      </c>
+      <c r="B648" t="s">
+        <v>858</v>
+      </c>
+      <c r="C648" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink International Health Care Fund.xlsx
+++ b/data/GreatLink/GreatLink International Health Care Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid830798"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid684990"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="888">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,21 +26,159 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>05/12/2024</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>04/12/2024</t>
+  </si>
+  <si>
+    <t>1.008</t>
+  </si>
+  <si>
+    <t>03/12/2024</t>
+  </si>
+  <si>
+    <t>1.007</t>
+  </si>
+  <si>
+    <t>02/12/2024</t>
+  </si>
+  <si>
+    <t>1.010</t>
+  </si>
+  <si>
+    <t>29/11/2024</t>
+  </si>
+  <si>
+    <t>1.003</t>
+  </si>
+  <si>
+    <t>28/11/2024</t>
+  </si>
+  <si>
+    <t>1.001</t>
+  </si>
+  <si>
+    <t>27/11/2024</t>
+  </si>
+  <si>
+    <t>0.999</t>
+  </si>
+  <si>
+    <t>26/11/2024</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>25/11/2024</t>
+  </si>
+  <si>
+    <t>0.994</t>
+  </si>
+  <si>
+    <t>22/11/2024</t>
+  </si>
+  <si>
+    <t>0.988</t>
+  </si>
+  <si>
+    <t>21/11/2024</t>
+  </si>
+  <si>
+    <t>0.983</t>
+  </si>
+  <si>
+    <t>20/11/2024</t>
+  </si>
+  <si>
+    <t>0.978</t>
+  </si>
+  <si>
+    <t>19/11/2024</t>
+  </si>
+  <si>
+    <t>0.962</t>
+  </si>
+  <si>
+    <t>18/11/2024</t>
+  </si>
+  <si>
+    <t>0.969</t>
+  </si>
+  <si>
+    <t>15/11/2024</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>14/11/2024</t>
+  </si>
+  <si>
+    <t>13/11/2024</t>
+  </si>
+  <si>
+    <t>1.013</t>
+  </si>
+  <si>
+    <t>12/11/2024</t>
+  </si>
+  <si>
+    <t>1.018</t>
+  </si>
+  <si>
+    <t>11/11/2024</t>
+  </si>
+  <si>
+    <t>1.031</t>
+  </si>
+  <si>
+    <t>08/11/2024</t>
+  </si>
+  <si>
+    <t>1.026</t>
+  </si>
+  <si>
+    <t>07/11/2024</t>
+  </si>
+  <si>
+    <t>1.015</t>
+  </si>
+  <si>
+    <t>06/11/2024</t>
+  </si>
+  <si>
+    <t>1.012</t>
+  </si>
+  <si>
+    <t>05/11/2024</t>
+  </si>
+  <si>
+    <t>04/11/2024</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
+    <t>01/11/2024</t>
+  </si>
+  <si>
     <t>30/10/2024</t>
   </si>
   <si>
     <t>1.002</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>29/10/2024</t>
   </si>
   <si>
-    <t>1.010</t>
-  </si>
-  <si>
     <t>28/10/2024</t>
   </si>
   <si>
@@ -50,18 +188,12 @@
     <t>25/10/2024</t>
   </si>
   <si>
-    <t>1.008</t>
-  </si>
-  <si>
     <t>24/10/2024</t>
   </si>
   <si>
     <t>23/10/2024</t>
   </si>
   <si>
-    <t>1.015</t>
-  </si>
-  <si>
     <t>22/10/2024</t>
   </si>
   <si>
@@ -95,21 +227,12 @@
     <t>14/10/2024</t>
   </si>
   <si>
-    <t>1.031</t>
-  </si>
-  <si>
     <t>11/10/2024</t>
   </si>
   <si>
-    <t>1.026</t>
-  </si>
-  <si>
     <t>10/10/2024</t>
   </si>
   <si>
-    <t>1.018</t>
-  </si>
-  <si>
     <t>09/10/2024</t>
   </si>
   <si>
@@ -140,9 +263,6 @@
     <t>02/10/2024</t>
   </si>
   <si>
-    <t>1.012</t>
-  </si>
-  <si>
     <t>01/10/2024</t>
   </si>
   <si>
@@ -341,9 +461,6 @@
     <t>05/08/2024</t>
   </si>
   <si>
-    <t>1.007</t>
-  </si>
-  <si>
     <t>02/08/2024</t>
   </si>
   <si>
@@ -575,9 +692,6 @@
     <t>03/05/2024</t>
   </si>
   <si>
-    <t>0.992</t>
-  </si>
-  <si>
     <t>02/05/2024</t>
   </si>
   <si>
@@ -590,9 +704,6 @@
     <t>29/04/2024</t>
   </si>
   <si>
-    <t>0.998</t>
-  </si>
-  <si>
     <t>26/04/2024</t>
   </si>
   <si>
@@ -608,9 +719,6 @@
     <t>23/04/2024</t>
   </si>
   <si>
-    <t>1.001</t>
-  </si>
-  <si>
     <t>22/04/2024</t>
   </si>
   <si>
@@ -644,9 +752,6 @@
     <t>12/04/2024</t>
   </si>
   <si>
-    <t>0.988</t>
-  </si>
-  <si>
     <t>11/04/2024</t>
   </si>
   <si>
@@ -656,9 +761,6 @@
     <t>08/04/2024</t>
   </si>
   <si>
-    <t>1.003</t>
-  </si>
-  <si>
     <t>05/04/2024</t>
   </si>
   <si>
@@ -737,9 +839,6 @@
     <t>06/03/2024</t>
   </si>
   <si>
-    <t>1.013</t>
-  </si>
-  <si>
     <t>05/03/2024</t>
   </si>
   <si>
@@ -809,9 +908,6 @@
     <t>05/02/2024</t>
   </si>
   <si>
-    <t>0.999</t>
-  </si>
-  <si>
     <t>02/02/2024</t>
   </si>
   <si>
@@ -827,9 +923,6 @@
     <t>30/01/2024</t>
   </si>
   <si>
-    <t>0.978</t>
-  </si>
-  <si>
     <t>29/01/2024</t>
   </si>
   <si>
@@ -848,15 +941,9 @@
     <t>24/01/2024</t>
   </si>
   <si>
-    <t>0.962</t>
-  </si>
-  <si>
     <t>23/01/2024</t>
   </si>
   <si>
-    <t>0.969</t>
-  </si>
-  <si>
     <t>22/01/2024</t>
   </si>
   <si>
@@ -873,9 +960,6 @@
   </si>
   <si>
     <t>17/01/2024</t>
-  </si>
-  <si>
-    <t>0.975</t>
   </si>
   <si>
     <t>16/01/2024</t>
@@ -2983,7 +3067,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -2991,10 +3075,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3002,10 +3086,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3013,10 +3097,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3024,10 +3108,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3035,10 +3119,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3046,10 +3130,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3057,10 +3141,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3068,10 +3152,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3079,10 +3163,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3090,10 +3174,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3101,10 +3185,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3112,10 +3196,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3123,10 +3207,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3134,10 +3218,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3145,10 +3229,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3156,10 +3240,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3167,10 +3251,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3178,10 +3262,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3189,10 +3273,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3200,10 +3284,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3211,10 +3295,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3222,10 +3306,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3233,10 +3317,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3244,10 +3328,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3255,10 +3339,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3266,10 +3350,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3277,10 +3361,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3288,10 +3372,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3346,7 +3430,7 @@
         <v>69</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3354,10 +3438,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3365,10 +3449,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3376,10 +3460,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3387,10 +3471,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3398,10 +3482,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3409,10 +3493,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>81</v>
+        <v>11</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3420,10 +3504,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3431,10 +3515,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3442,10 +3526,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3453,10 +3537,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3464,10 +3548,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B50" t="s">
-        <v>85</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3475,10 +3559,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3486,10 +3570,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>92</v>
+        <v>44</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3497,10 +3581,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B53" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3508,10 +3592,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
+        <v>42</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3519,10 +3603,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3530,10 +3614,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3541,10 +3625,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B57" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3552,10 +3636,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B58" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3563,10 +3647,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3574,10 +3658,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
-        <v>26</v>
+        <v>102</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3585,10 +3669,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
-        <v>39</v>
+        <v>104</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3596,10 +3680,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" t="s">
         <v>106</v>
-      </c>
-      <c r="B62" t="s">
-        <v>47</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3632,7 +3716,7 @@
         <v>111</v>
       </c>
       <c r="B65" t="s">
-        <v>62</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3640,10 +3724,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B66" t="s">
-        <v>58</v>
+        <v>110</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3651,10 +3735,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B67" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3662,10 +3746,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B68" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3673,10 +3757,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>119</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3684,10 +3768,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3695,10 +3779,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B71" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3706,10 +3790,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B72" t="s">
-        <v>64</v>
+        <v>125</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3717,10 +3801,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B73" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3728,10 +3812,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="B74" t="s">
-        <v>62</v>
+        <v>128</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3739,10 +3823,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>54</v>
+        <v>125</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3750,7 +3834,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="B76" t="s">
         <v>125</v>
@@ -3761,10 +3845,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="B77" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3772,10 +3856,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3783,10 +3867,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B79" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3794,10 +3878,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B80" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3805,10 +3889,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3816,10 +3900,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B82" t="s">
-        <v>56</v>
+        <v>140</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3827,10 +3911,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B83" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3838,10 +3922,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="B84" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3849,10 +3933,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="B85" t="s">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3860,10 +3944,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B86" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3871,10 +3955,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="B87" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3882,10 +3966,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B88" t="s">
-        <v>100</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3893,10 +3977,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B89" t="s">
-        <v>70</v>
+        <v>149</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3904,10 +3988,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B90" t="s">
-        <v>119</v>
+        <v>102</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3915,10 +3999,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B91" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -3926,10 +4010,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B92" t="s">
-        <v>129</v>
+        <v>106</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -3937,10 +4021,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="B93" t="s">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -3948,10 +4032,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B94" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -3959,10 +4043,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B95" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -3970,10 +4054,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="B96" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -3981,10 +4065,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="B97" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -3992,10 +4076,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B98" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -4003,10 +4087,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B99" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -4014,10 +4098,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B100" t="s">
-        <v>150</v>
+        <v>94</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -4025,10 +4109,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="B101" t="s">
-        <v>72</v>
+        <v>164</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -4036,10 +4120,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="B102" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -4047,10 +4131,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>158</v>
+        <v>167</v>
       </c>
       <c r="B103" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -4058,10 +4142,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="B104" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -4069,10 +4153,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="B105" t="s">
-        <v>138</v>
+        <v>104</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -4080,10 +4164,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B106" t="s">
-        <v>20</v>
+        <v>158</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -4091,10 +4175,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="B107" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -4102,10 +4186,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B108" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -4113,10 +4197,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="B109" t="s">
-        <v>165</v>
+        <v>112</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -4124,10 +4208,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B110" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -4135,10 +4219,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -4146,10 +4230,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="B112" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -4157,10 +4241,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B113" t="s">
-        <v>28</v>
+        <v>140</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -4168,10 +4252,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="B114" t="s">
-        <v>26</v>
+        <v>110</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -4179,10 +4263,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B115" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -4190,10 +4274,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="B116" t="s">
-        <v>110</v>
+        <v>158</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -4201,10 +4285,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B117" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -4212,10 +4296,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="B118" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -4223,10 +4307,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B119" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -4234,10 +4318,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B120" t="s">
-        <v>177</v>
+        <v>96</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4245,10 +4329,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B121" t="s">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -4256,10 +4340,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B122" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -4267,10 +4351,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="B123" t="s">
-        <v>165</v>
+        <v>192</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -4278,10 +4362,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B124" t="s">
-        <v>108</v>
+        <v>156</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -4289,10 +4373,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>189</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -4300,10 +4384,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B126" t="s">
-        <v>184</v>
+        <v>112</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4311,10 +4395,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B127" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4322,10 +4406,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="B128" t="s">
-        <v>188</v>
+        <v>92</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4333,10 +4417,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="B129" t="s">
-        <v>186</v>
+        <v>143</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -4344,10 +4428,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B130" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4355,10 +4439,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B131" t="s">
-        <v>184</v>
+        <v>64</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4366,10 +4450,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B132" t="s">
-        <v>188</v>
+        <v>44</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4377,10 +4461,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B133" t="s">
-        <v>195</v>
+        <v>87</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4388,10 +4472,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B134" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4399,10 +4483,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="B135" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4410,10 +4494,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B136" t="s">
-        <v>201</v>
+        <v>46</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4421,10 +4505,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="B137" t="s">
-        <v>201</v>
+        <v>66</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4432,10 +4516,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B138" t="s">
-        <v>204</v>
+        <v>42</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4443,10 +4527,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B139" t="s">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4454,10 +4538,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B140" t="s">
-        <v>207</v>
+        <v>92</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4465,10 +4549,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B141" t="s">
-        <v>209</v>
+        <v>149</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4476,10 +4560,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B142" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4487,10 +4571,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B143" t="s">
-        <v>4</v>
+        <v>189</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4498,10 +4582,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B144" t="s">
-        <v>213</v>
+        <v>156</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4509,10 +4593,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B145" t="s">
-        <v>108</v>
+        <v>216</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4520,10 +4604,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B146" t="s">
-        <v>191</v>
+        <v>73</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4531,10 +4615,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B147" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4542,10 +4626,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B148" t="s">
-        <v>43</v>
+        <v>204</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4553,10 +4637,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B149" t="s">
-        <v>219</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4564,10 +4648,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B150" t="s">
-        <v>117</v>
+        <v>11</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4575,10 +4659,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B151" t="s">
-        <v>117</v>
+        <v>223</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4586,10 +4670,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B152" t="s">
-        <v>223</v>
+        <v>49</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4597,10 +4681,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B153" t="s">
-        <v>22</v>
+        <v>226</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4608,10 +4692,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B154" t="s">
-        <v>226</v>
+        <v>49</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4619,10 +4703,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B155" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4630,10 +4714,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B156" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4641,10 +4725,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B157" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4652,10 +4736,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B158" t="s">
-        <v>47</v>
+        <v>232</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4663,10 +4747,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="B159" t="s">
-        <v>232</v>
+        <v>15</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4674,10 +4758,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B160" t="s">
-        <v>32</v>
+        <v>235</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4685,10 +4769,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B161" t="s">
-        <v>24</v>
+        <v>237</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4696,10 +4780,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B162" t="s">
-        <v>22</v>
+        <v>237</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4707,10 +4791,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B163" t="s">
-        <v>32</v>
+        <v>240</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4718,10 +4802,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B164" t="s">
-        <v>24</v>
+        <v>235</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4729,10 +4813,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B165" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4740,10 +4824,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B166" t="s">
-        <v>240</v>
+        <v>23</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4751,10 +4835,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B167" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4762,10 +4846,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B168" t="s">
-        <v>243</v>
+        <v>52</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4773,10 +4857,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="B169" t="s">
-        <v>243</v>
+        <v>13</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4784,7 +4868,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="B170" t="s">
         <v>9</v>
@@ -4795,10 +4879,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B171" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4806,10 +4890,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B172" t="s">
-        <v>243</v>
+        <v>83</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4817,10 +4901,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="B173" t="s">
-        <v>226</v>
+        <v>83</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4828,10 +4912,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B174" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4839,10 +4923,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B175" t="s">
-        <v>177</v>
+        <v>156</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4850,10 +4934,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="B176" t="s">
-        <v>9</v>
+        <v>156</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4861,10 +4945,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B177" t="s">
-        <v>34</v>
+        <v>257</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4872,10 +4956,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B178" t="s">
-        <v>232</v>
+        <v>66</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4883,10 +4967,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B179" t="s">
-        <v>232</v>
+        <v>260</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4894,10 +4978,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="B180" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4905,10 +4989,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B181" t="s">
-        <v>34</v>
+        <v>260</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -4916,10 +5000,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="B182" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -4927,10 +5011,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B183" t="s">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -4938,10 +5022,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="B184" t="s">
-        <v>165</v>
+        <v>266</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -4949,10 +5033,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B185" t="s">
-        <v>197</v>
+        <v>73</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -4960,10 +5044,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="B186" t="s">
-        <v>213</v>
+        <v>68</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -4971,10 +5055,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="B187" t="s">
-        <v>264</v>
+        <v>66</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -4982,10 +5066,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B188" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -4993,10 +5077,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="B189" t="s">
-        <v>209</v>
+        <v>68</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -5004,10 +5088,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B190" t="s">
-        <v>268</v>
+        <v>257</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -5015,10 +5099,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B191" t="s">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -5026,10 +5110,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B192" t="s">
-        <v>270</v>
+        <v>55</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -5037,10 +5121,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B193" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -5048,10 +5132,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B194" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -5059,10 +5143,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B195" t="s">
-        <v>277</v>
+        <v>55</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -5070,10 +5154,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B196" t="s">
-        <v>279</v>
+        <v>68</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -5084,7 +5168,7 @@
         <v>280</v>
       </c>
       <c r="B197" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -5092,10 +5176,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B198" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -5103,10 +5187,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
+        <v>282</v>
+      </c>
+      <c r="B199" t="s">
         <v>283</v>
-      </c>
-      <c r="B199" t="s">
-        <v>284</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -5114,10 +5198,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B200" t="s">
-        <v>286</v>
+        <v>216</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -5125,10 +5209,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B201" t="s">
-        <v>268</v>
+        <v>55</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -5136,10 +5220,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B202" t="s">
-        <v>289</v>
+        <v>75</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -5147,10 +5231,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B203" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -5158,10 +5242,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B204" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -5169,10 +5253,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B205" t="s">
-        <v>270</v>
+        <v>83</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -5180,10 +5264,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B206" t="s">
-        <v>294</v>
+        <v>75</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -5191,10 +5275,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B207" t="s">
-        <v>296</v>
+        <v>15</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -5202,10 +5286,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B208" t="s">
-        <v>298</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -5213,10 +5297,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B209" t="s">
-        <v>275</v>
+        <v>204</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -5224,10 +5308,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B210" t="s">
-        <v>298</v>
+        <v>15</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -5235,10 +5319,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B211" t="s">
-        <v>302</v>
+        <v>13</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -5246,10 +5330,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
       <c r="B212" t="s">
-        <v>304</v>
+        <v>17</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -5257,10 +5341,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B213" t="s">
-        <v>306</v>
+        <v>243</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -5268,10 +5352,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="B214" t="s">
-        <v>308</v>
+        <v>23</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -5279,10 +5363,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B215" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -5290,10 +5374,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="B216" t="s">
-        <v>310</v>
+        <v>27</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -5301,10 +5385,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="B217" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -5312,10 +5396,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="B218" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -5323,10 +5407,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="B219" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5334,10 +5418,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B220" t="s">
-        <v>318</v>
+        <v>29</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -5345,10 +5429,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="B221" t="s">
-        <v>320</v>
+        <v>31</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -5356,10 +5440,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="B222" t="s">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5367,10 +5451,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B223" t="s">
-        <v>324</v>
+        <v>304</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5378,10 +5462,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="B224" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5389,10 +5473,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="B225" t="s">
-        <v>327</v>
+        <v>33</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5400,10 +5484,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="B226" t="s">
-        <v>329</v>
+        <v>300</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5411,10 +5495,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="B227" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5422,10 +5506,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="B228" t="s">
-        <v>333</v>
+        <v>27</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5433,10 +5517,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>334</v>
+        <v>319</v>
       </c>
       <c r="B229" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5444,10 +5528,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>335</v>
+        <v>320</v>
       </c>
       <c r="B230" t="s">
-        <v>333</v>
+        <v>27</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5455,10 +5539,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>336</v>
+        <v>321</v>
       </c>
       <c r="B231" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5466,10 +5550,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>338</v>
+        <v>323</v>
       </c>
       <c r="B232" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5477,10 +5561,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>340</v>
+        <v>325</v>
       </c>
       <c r="B233" t="s">
-        <v>341</v>
+        <v>326</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5488,10 +5572,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="B234" t="s">
-        <v>343</v>
+        <v>306</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5499,10 +5583,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>344</v>
+        <v>328</v>
       </c>
       <c r="B235" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5510,10 +5594,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>346</v>
+        <v>329</v>
       </c>
       <c r="B236" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5521,10 +5605,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B237" t="s">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5532,10 +5616,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
       <c r="B238" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5543,10 +5627,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="B239" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5554,10 +5638,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B240" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5565,10 +5649,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B241" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5576,7 +5660,7 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="B242" t="s">
         <v>341</v>
@@ -5587,10 +5671,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="B243" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5598,10 +5682,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="B244" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5609,10 +5693,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="B245" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5620,10 +5704,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="B246" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5631,10 +5715,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="B247" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5642,10 +5726,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="B248" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5653,10 +5737,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="B249" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5664,10 +5748,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="B250" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5675,10 +5759,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="B251" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5686,10 +5770,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B252" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5697,10 +5781,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="B253" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5708,10 +5792,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>375</v>
+        <v>362</v>
       </c>
       <c r="B254" t="s">
-        <v>376</v>
+        <v>357</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5719,10 +5803,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B255" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5730,10 +5814,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="B256" t="s">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5741,10 +5825,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="B257" t="s">
-        <v>341</v>
+        <v>367</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5752,10 +5836,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="B258" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5763,10 +5847,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="B259" t="s">
-        <v>362</v>
+        <v>371</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5774,10 +5858,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>384</v>
+        <v>372</v>
       </c>
       <c r="B260" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5785,10 +5869,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="B261" t="s">
-        <v>337</v>
+        <v>359</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5796,10 +5880,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B262" t="s">
-        <v>320</v>
+        <v>376</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5807,10 +5891,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B263" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5818,10 +5902,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
       <c r="B264" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5829,10 +5913,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
       <c r="B265" t="s">
-        <v>322</v>
+        <v>382</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5840,10 +5924,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B266" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5851,10 +5935,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B267" t="s">
-        <v>310</v>
+        <v>369</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5862,10 +5946,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="B268" t="s">
-        <v>320</v>
+        <v>387</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5873,10 +5957,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B269" t="s">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5884,10 +5968,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B270" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5895,10 +5979,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B271" t="s">
-        <v>368</v>
+        <v>392</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5906,10 +5990,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B272" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -5917,10 +6001,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B273" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -5928,10 +6012,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="B274" t="s">
-        <v>368</v>
+        <v>384</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -5939,10 +6023,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B275" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -5950,10 +6034,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B276" t="s">
-        <v>408</v>
+        <v>384</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -5961,10 +6045,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="B277" t="s">
-        <v>337</v>
+        <v>401</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -5972,10 +6056,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B278" t="s">
-        <v>337</v>
+        <v>401</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -5983,10 +6067,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B279" t="s">
-        <v>329</v>
+        <v>404</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -5994,10 +6078,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="B280" t="s">
-        <v>350</v>
+        <v>406</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -6005,10 +6089,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B281" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -6016,10 +6100,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B282" t="s">
-        <v>320</v>
+        <v>369</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -6027,10 +6111,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B283" t="s">
-        <v>327</v>
+        <v>396</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -6038,10 +6122,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B284" t="s">
-        <v>327</v>
+        <v>390</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -6049,10 +6133,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B285" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -6060,10 +6144,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="B286" t="s">
-        <v>421</v>
+        <v>365</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -6071,10 +6155,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="B287" t="s">
-        <v>419</v>
+        <v>348</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -6082,10 +6166,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="B288" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -6093,10 +6177,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="B289" t="s">
-        <v>388</v>
+        <v>418</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -6104,10 +6188,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B290" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -6115,10 +6199,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B291" t="s">
-        <v>318</v>
+        <v>421</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -6126,10 +6210,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B292" t="s">
-        <v>428</v>
+        <v>338</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -6137,10 +6221,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B293" t="s">
-        <v>419</v>
+        <v>348</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -6148,10 +6232,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B294" t="s">
-        <v>327</v>
+        <v>425</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -6159,10 +6243,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="B295" t="s">
-        <v>315</v>
+        <v>427</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -6170,10 +6254,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="B296" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -6181,10 +6265,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="B297" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -6192,10 +6276,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B298" t="s">
-        <v>320</v>
+        <v>431</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -6203,10 +6287,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="B299" t="s">
-        <v>315</v>
+        <v>396</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -6214,10 +6298,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B300" t="s">
-        <v>331</v>
+        <v>434</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -6225,10 +6309,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B301" t="s">
-        <v>327</v>
+        <v>436</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -6236,10 +6320,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B302" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -6247,10 +6331,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B303" t="s">
-        <v>315</v>
+        <v>365</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -6258,10 +6342,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B304" t="s">
-        <v>331</v>
+        <v>357</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -6269,10 +6353,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B305" t="s">
-        <v>333</v>
+        <v>378</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -6280,10 +6364,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
+        <v>441</v>
+      </c>
+      <c r="B306" t="s">
         <v>442</v>
-      </c>
-      <c r="B306" t="s">
-        <v>428</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -6294,7 +6378,7 @@
         <v>443</v>
       </c>
       <c r="B307" t="s">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -6305,7 +6389,7 @@
         <v>444</v>
       </c>
       <c r="B308" t="s">
-        <v>322</v>
+        <v>355</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -6316,7 +6400,7 @@
         <v>445</v>
       </c>
       <c r="B309" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -6327,7 +6411,7 @@
         <v>446</v>
       </c>
       <c r="B310" t="s">
-        <v>327</v>
+        <v>447</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -6335,10 +6419,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B311" t="s">
-        <v>419</v>
+        <v>449</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -6346,10 +6430,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B312" t="s">
-        <v>406</v>
+        <v>447</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -6357,10 +6441,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B313" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -6368,10 +6452,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B314" t="s">
-        <v>364</v>
+        <v>416</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -6379,10 +6463,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B315" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -6390,10 +6474,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B316" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6401,10 +6485,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B317" t="s">
-        <v>356</v>
+        <v>456</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6412,10 +6496,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B318" t="s">
-        <v>354</v>
+        <v>447</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6423,10 +6507,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B319" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6434,10 +6518,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B320" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6445,10 +6529,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B321" t="s">
-        <v>345</v>
+        <v>421</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6456,10 +6540,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B322" t="s">
-        <v>339</v>
+        <v>416</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6467,10 +6551,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B323" t="s">
-        <v>414</v>
+        <v>348</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6478,10 +6562,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B324" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6489,10 +6573,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B325" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6500,10 +6584,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B326" t="s">
-        <v>464</v>
+        <v>355</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6511,10 +6595,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B327" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6522,10 +6606,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B328" t="s">
-        <v>467</v>
+        <v>343</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6536,7 +6620,7 @@
         <v>468</v>
       </c>
       <c r="B329" t="s">
-        <v>469</v>
+        <v>359</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6544,10 +6628,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B330" t="s">
-        <v>378</v>
+        <v>361</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6555,10 +6639,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B331" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6566,10 +6650,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B332" t="s">
-        <v>474</v>
+        <v>416</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6577,10 +6661,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B333" t="s">
-        <v>476</v>
+        <v>350</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6588,10 +6672,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="B334" t="s">
-        <v>478</v>
+        <v>346</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6599,10 +6683,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B335" t="s">
-        <v>480</v>
+        <v>355</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6610,10 +6694,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B336" t="s">
-        <v>403</v>
+        <v>447</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6621,10 +6705,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B337" t="s">
-        <v>464</v>
+        <v>434</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6632,10 +6716,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B338" t="s">
-        <v>406</v>
+        <v>478</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6643,10 +6727,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B339" t="s">
-        <v>485</v>
+        <v>392</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6654,10 +6738,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B340" t="s">
-        <v>485</v>
+        <v>369</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6665,10 +6749,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B341" t="s">
-        <v>488</v>
+        <v>390</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6676,10 +6760,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B342" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6687,10 +6771,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B343" t="s">
-        <v>362</v>
+        <v>382</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6698,10 +6782,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B344" t="s">
-        <v>343</v>
+        <v>390</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6709,10 +6793,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="B345" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6720,10 +6804,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="B346" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6731,10 +6815,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="B347" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6742,10 +6826,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="B348" t="s">
-        <v>356</v>
+        <v>442</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6753,10 +6837,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B349" t="s">
-        <v>478</v>
+        <v>373</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6764,10 +6848,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B350" t="s">
-        <v>480</v>
+        <v>384</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6775,10 +6859,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="B351" t="s">
-        <v>464</v>
+        <v>492</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6786,10 +6870,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B352" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6797,10 +6881,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B353" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6808,10 +6892,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B354" t="s">
-        <v>467</v>
+        <v>497</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6819,10 +6903,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="B355" t="s">
-        <v>488</v>
+        <v>406</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6830,10 +6914,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B356" t="s">
-        <v>352</v>
+        <v>500</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6841,10 +6925,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B357" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6852,10 +6936,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B358" t="s">
-        <v>373</v>
+        <v>504</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6863,10 +6947,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B359" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6874,10 +6958,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B360" t="s">
-        <v>380</v>
+        <v>508</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6885,10 +6969,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B361" t="s">
-        <v>373</v>
+        <v>431</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6896,10 +6980,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B362" t="s">
-        <v>474</v>
+        <v>492</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6907,10 +6991,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B363" t="s">
-        <v>478</v>
+        <v>434</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -6918,10 +7002,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
+        <v>512</v>
+      </c>
+      <c r="B364" t="s">
         <v>513</v>
-      </c>
-      <c r="B364" t="s">
-        <v>485</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -6932,7 +7016,7 @@
         <v>514</v>
       </c>
       <c r="B365" t="s">
-        <v>354</v>
+        <v>513</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -6943,7 +7027,7 @@
         <v>515</v>
       </c>
       <c r="B366" t="s">
-        <v>354</v>
+        <v>516</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -6951,10 +7035,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B367" t="s">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -6962,10 +7046,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B368" t="s">
-        <v>488</v>
+        <v>390</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -6973,10 +7057,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B369" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -6984,10 +7068,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B370" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -6995,10 +7079,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B371" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -7006,10 +7090,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="B372" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -7017,10 +7101,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B373" t="s">
-        <v>359</v>
+        <v>384</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -7028,10 +7112,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B374" t="s">
-        <v>356</v>
+        <v>506</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -7039,10 +7123,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B375" t="s">
-        <v>488</v>
+        <v>508</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -7050,10 +7134,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B376" t="s">
-        <v>362</v>
+        <v>492</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -7061,10 +7145,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B377" t="s">
-        <v>364</v>
+        <v>513</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -7072,10 +7156,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B378" t="s">
-        <v>356</v>
+        <v>513</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -7083,10 +7167,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B379" t="s">
-        <v>362</v>
+        <v>495</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -7094,10 +7178,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B380" t="s">
-        <v>352</v>
+        <v>516</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -7105,10 +7189,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B381" t="s">
-        <v>488</v>
+        <v>380</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -7116,10 +7200,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B382" t="s">
-        <v>450</v>
+        <v>533</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -7127,10 +7211,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B383" t="s">
-        <v>345</v>
+        <v>401</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -7138,10 +7222,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B384" t="s">
-        <v>331</v>
+        <v>536</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -7149,10 +7233,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B385" t="s">
-        <v>348</v>
+        <v>408</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -7160,10 +7244,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B386" t="s">
-        <v>359</v>
+        <v>401</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -7171,10 +7255,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B387" t="s">
-        <v>362</v>
+        <v>502</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -7182,10 +7266,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B388" t="s">
-        <v>345</v>
+        <v>506</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -7193,10 +7277,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B389" t="s">
-        <v>350</v>
+        <v>513</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -7204,10 +7288,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="B390" t="s">
-        <v>348</v>
+        <v>382</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -7215,10 +7299,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B391" t="s">
-        <v>339</v>
+        <v>382</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -7226,10 +7310,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="B392" t="s">
-        <v>343</v>
+        <v>434</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -7237,10 +7321,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B393" t="s">
-        <v>359</v>
+        <v>516</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -7248,10 +7332,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="B394" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -7259,10 +7343,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="B395" t="s">
-        <v>464</v>
+        <v>382</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -7270,10 +7354,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="B396" t="s">
-        <v>478</v>
+        <v>380</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -7281,10 +7365,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="B397" t="s">
-        <v>547</v>
+        <v>387</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -7292,10 +7376,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B398" t="s">
-        <v>508</v>
+        <v>387</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -7303,10 +7387,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B399" t="s">
-        <v>550</v>
+        <v>384</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7314,10 +7398,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B400" t="s">
-        <v>552</v>
+        <v>516</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -7328,7 +7412,7 @@
         <v>553</v>
       </c>
       <c r="B401" t="s">
-        <v>554</v>
+        <v>390</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -7336,10 +7420,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B402" t="s">
-        <v>556</v>
+        <v>392</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -7347,10 +7431,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B403" t="s">
-        <v>558</v>
+        <v>384</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7358,10 +7442,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="B404" t="s">
-        <v>556</v>
+        <v>390</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -7369,10 +7453,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="B405" t="s">
-        <v>561</v>
+        <v>380</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -7380,10 +7464,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="B406" t="s">
-        <v>563</v>
+        <v>516</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7391,10 +7475,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="B407" t="s">
-        <v>556</v>
+        <v>478</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7402,10 +7486,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="B408" t="s">
-        <v>566</v>
+        <v>373</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7413,10 +7497,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B409" t="s">
-        <v>568</v>
+        <v>359</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7424,10 +7508,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="B410" t="s">
-        <v>570</v>
+        <v>376</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7435,10 +7519,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="B411" t="s">
-        <v>572</v>
+        <v>387</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7446,10 +7530,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>573</v>
+        <v>564</v>
       </c>
       <c r="B412" t="s">
-        <v>574</v>
+        <v>390</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7457,10 +7541,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="B413" t="s">
-        <v>568</v>
+        <v>373</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7468,10 +7552,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="B414" t="s">
-        <v>577</v>
+        <v>378</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7479,10 +7563,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
       <c r="B415" t="s">
-        <v>561</v>
+        <v>376</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7490,10 +7574,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
       <c r="B416" t="s">
-        <v>574</v>
+        <v>367</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7501,10 +7585,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B417" t="s">
-        <v>581</v>
+        <v>371</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7512,10 +7596,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="B418" t="s">
-        <v>558</v>
+        <v>387</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7523,10 +7607,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="B419" t="s">
-        <v>584</v>
+        <v>387</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7534,10 +7618,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>585</v>
+        <v>572</v>
       </c>
       <c r="B420" t="s">
-        <v>586</v>
+        <v>492</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7545,10 +7629,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>587</v>
+        <v>573</v>
       </c>
       <c r="B421" t="s">
-        <v>574</v>
+        <v>506</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7556,10 +7640,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>588</v>
+        <v>574</v>
       </c>
       <c r="B422" t="s">
-        <v>589</v>
+        <v>575</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7567,10 +7651,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
       <c r="B423" t="s">
-        <v>591</v>
+        <v>536</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7578,10 +7662,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="B424" t="s">
-        <v>556</v>
+        <v>578</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7589,10 +7673,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>593</v>
+        <v>579</v>
       </c>
       <c r="B425" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7600,10 +7684,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>595</v>
+        <v>581</v>
       </c>
       <c r="B426" t="s">
-        <v>558</v>
+        <v>582</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7611,10 +7695,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>596</v>
+        <v>583</v>
       </c>
       <c r="B427" t="s">
-        <v>597</v>
+        <v>584</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7622,10 +7706,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>598</v>
+        <v>585</v>
       </c>
       <c r="B428" t="s">
-        <v>378</v>
+        <v>586</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7633,10 +7717,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="B429" t="s">
-        <v>469</v>
+        <v>584</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7644,10 +7728,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B430" t="s">
-        <v>584</v>
+        <v>589</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7655,10 +7739,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>601</v>
+        <v>590</v>
       </c>
       <c r="B431" t="s">
-        <v>376</v>
+        <v>591</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7666,10 +7750,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="B432" t="s">
-        <v>469</v>
+        <v>584</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7677,10 +7761,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="B433" t="s">
-        <v>547</v>
+        <v>594</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7688,10 +7772,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>604</v>
+        <v>595</v>
       </c>
       <c r="B434" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7699,10 +7783,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
       <c r="B435" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7710,10 +7794,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
       <c r="B436" t="s">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7721,10 +7805,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
       <c r="B437" t="s">
-        <v>476</v>
+        <v>602</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7732,10 +7816,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B438" t="s">
-        <v>584</v>
+        <v>596</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7743,10 +7827,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B439" t="s">
-        <v>552</v>
+        <v>605</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7754,10 +7838,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="B440" t="s">
-        <v>612</v>
+        <v>589</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7765,10 +7849,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B441" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7776,10 +7860,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B442" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7787,10 +7871,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B443" t="s">
-        <v>617</v>
+        <v>586</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7798,7 +7882,7 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B444" t="s">
         <v>612</v>
@@ -7809,10 +7893,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B445" t="s">
-        <v>552</v>
+        <v>614</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7820,10 +7904,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="B446" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7831,10 +7915,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="B447" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7842,10 +7926,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="B448" t="s">
-        <v>606</v>
+        <v>619</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7853,10 +7937,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B449" t="s">
-        <v>556</v>
+        <v>584</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7864,10 +7948,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B450" t="s">
-        <v>597</v>
+        <v>622</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7875,10 +7959,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B451" t="s">
-        <v>615</v>
+        <v>586</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7886,10 +7970,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="B452" t="s">
-        <v>558</v>
+        <v>625</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7897,10 +7981,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B453" t="s">
-        <v>554</v>
+        <v>406</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7908,10 +7992,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B454" t="s">
-        <v>615</v>
+        <v>497</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -7919,10 +8003,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B455" t="s">
-        <v>554</v>
+        <v>612</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -7930,10 +8014,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B456" t="s">
-        <v>566</v>
+        <v>404</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -7941,10 +8025,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B457" t="s">
-        <v>584</v>
+        <v>497</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -7952,10 +8036,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B458" t="s">
-        <v>554</v>
+        <v>575</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -7963,10 +8047,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B459" t="s">
-        <v>634</v>
+        <v>612</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -7974,10 +8058,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B460" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -7985,10 +8069,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B461" t="s">
-        <v>550</v>
+        <v>622</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -7996,10 +8080,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="B462" t="s">
-        <v>376</v>
+        <v>504</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -8007,10 +8091,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B463" t="s">
-        <v>640</v>
+        <v>612</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -8018,10 +8102,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="B464" t="s">
-        <v>550</v>
+        <v>580</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -8029,10 +8113,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B465" t="s">
-        <v>376</v>
+        <v>640</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -8040,10 +8124,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B466" t="s">
-        <v>644</v>
+        <v>625</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -8051,10 +8135,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B467" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -8062,10 +8146,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B468" t="s">
-        <v>476</v>
+        <v>645</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -8073,10 +8157,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="B469" t="s">
-        <v>376</v>
+        <v>640</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -8084,10 +8168,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B470" t="s">
-        <v>467</v>
+        <v>580</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -8095,10 +8179,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B471" t="s">
-        <v>480</v>
+        <v>634</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -8106,10 +8190,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B472" t="s">
-        <v>345</v>
+        <v>643</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -8117,10 +8201,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="B473" t="s">
-        <v>406</v>
+        <v>634</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -8128,10 +8212,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B474" t="s">
-        <v>345</v>
+        <v>584</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -8139,10 +8223,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B475" t="s">
-        <v>343</v>
+        <v>625</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -8150,10 +8234,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B476" t="s">
-        <v>345</v>
+        <v>643</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -8161,10 +8245,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B477" t="s">
-        <v>488</v>
+        <v>586</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -8172,10 +8256,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B478" t="s">
-        <v>343</v>
+        <v>582</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -8183,10 +8267,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B479" t="s">
-        <v>362</v>
+        <v>643</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -8194,10 +8278,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B480" t="s">
-        <v>337</v>
+        <v>582</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -8205,10 +8289,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B481" t="s">
-        <v>414</v>
+        <v>594</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -8216,10 +8300,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B482" t="s">
-        <v>397</v>
+        <v>612</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -8227,10 +8311,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B483" t="s">
-        <v>362</v>
+        <v>582</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -8238,10 +8322,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B484" t="s">
-        <v>368</v>
+        <v>662</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -8249,10 +8333,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
+        <v>663</v>
+      </c>
+      <c r="B485" t="s">
         <v>664</v>
-      </c>
-      <c r="B485" t="s">
-        <v>350</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -8263,7 +8347,7 @@
         <v>665</v>
       </c>
       <c r="B486" t="s">
-        <v>354</v>
+        <v>578</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -8274,7 +8358,7 @@
         <v>666</v>
       </c>
       <c r="B487" t="s">
-        <v>345</v>
+        <v>404</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -8285,7 +8369,7 @@
         <v>667</v>
       </c>
       <c r="B488" t="s">
-        <v>352</v>
+        <v>668</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -8293,10 +8377,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="B489" t="s">
-        <v>480</v>
+        <v>578</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -8304,10 +8388,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B490" t="s">
-        <v>485</v>
+        <v>404</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -8315,10 +8399,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="B491" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -8326,10 +8410,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B492" t="s">
-        <v>380</v>
+        <v>674</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -8337,10 +8421,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="B493" t="s">
-        <v>450</v>
+        <v>504</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -8348,10 +8432,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B494" t="s">
-        <v>485</v>
+        <v>404</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -8359,10 +8443,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="B495" t="s">
-        <v>359</v>
+        <v>495</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -8370,10 +8454,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B496" t="s">
-        <v>366</v>
+        <v>508</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -8381,10 +8465,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="B497" t="s">
-        <v>478</v>
+        <v>373</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8392,10 +8476,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B498" t="s">
-        <v>364</v>
+        <v>434</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8403,10 +8487,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B499" t="s">
-        <v>467</v>
+        <v>373</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8414,10 +8498,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B500" t="s">
-        <v>646</v>
+        <v>371</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8425,10 +8509,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B501" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8436,10 +8520,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B502" t="s">
-        <v>380</v>
+        <v>516</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8447,10 +8531,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B503" t="s">
-        <v>464</v>
+        <v>371</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8458,10 +8542,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B504" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8469,10 +8553,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B505" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8480,10 +8564,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B506" t="s">
-        <v>472</v>
+        <v>442</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8491,10 +8575,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B507" t="s">
-        <v>478</v>
+        <v>425</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8502,10 +8586,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B508" t="s">
-        <v>467</v>
+        <v>390</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8513,10 +8597,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B509" t="s">
-        <v>594</v>
+        <v>396</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8524,10 +8608,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B510" t="s">
-        <v>563</v>
+        <v>378</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8535,10 +8619,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B511" t="s">
-        <v>566</v>
+        <v>382</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8546,10 +8630,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B512" t="s">
-        <v>606</v>
+        <v>373</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8557,10 +8641,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B513" t="s">
-        <v>556</v>
+        <v>380</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8568,10 +8652,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B514" t="s">
-        <v>561</v>
+        <v>508</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8579,10 +8663,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B515" t="s">
-        <v>586</v>
+        <v>513</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8590,10 +8674,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B516" t="s">
-        <v>561</v>
+        <v>699</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8601,10 +8685,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="B517" t="s">
-        <v>572</v>
+        <v>408</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8612,10 +8696,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="B518" t="s">
-        <v>699</v>
+        <v>478</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8623,10 +8707,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B519" t="s">
-        <v>568</v>
+        <v>513</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8634,10 +8718,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="B520" t="s">
-        <v>612</v>
+        <v>387</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8645,10 +8729,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B521" t="s">
-        <v>640</v>
+        <v>394</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8656,10 +8740,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="B522" t="s">
-        <v>584</v>
+        <v>506</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8667,10 +8751,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B523" t="s">
-        <v>574</v>
+        <v>392</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8678,10 +8762,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="B524" t="s">
-        <v>706</v>
+        <v>495</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8689,10 +8773,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="B525" t="s">
-        <v>708</v>
+        <v>674</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8703,7 +8787,7 @@
         <v>709</v>
       </c>
       <c r="B526" t="s">
-        <v>710</v>
+        <v>408</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8711,10 +8795,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B527" t="s">
-        <v>712</v>
+        <v>408</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8722,10 +8806,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B528" t="s">
-        <v>714</v>
+        <v>492</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8733,10 +8817,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="B529" t="s">
-        <v>716</v>
+        <v>492</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -8744,10 +8828,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B530" t="s">
-        <v>718</v>
+        <v>387</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -8755,10 +8839,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="B531" t="s">
-        <v>720</v>
+        <v>500</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -8766,10 +8850,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="B532" t="s">
-        <v>722</v>
+        <v>506</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -8777,10 +8861,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>723</v>
+        <v>716</v>
       </c>
       <c r="B533" t="s">
-        <v>563</v>
+        <v>495</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -8788,10 +8872,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>724</v>
+        <v>717</v>
       </c>
       <c r="B534" t="s">
-        <v>566</v>
+        <v>622</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -8799,10 +8883,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>725</v>
+        <v>718</v>
       </c>
       <c r="B535" t="s">
-        <v>556</v>
+        <v>591</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -8810,10 +8894,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>726</v>
+        <v>719</v>
       </c>
       <c r="B536" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -8821,10 +8905,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>727</v>
+        <v>720</v>
       </c>
       <c r="B537" t="s">
-        <v>581</v>
+        <v>634</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -8832,10 +8916,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>728</v>
+        <v>721</v>
       </c>
       <c r="B538" t="s">
-        <v>547</v>
+        <v>584</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -8843,10 +8927,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="B539" t="s">
-        <v>472</v>
+        <v>589</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -8854,10 +8938,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>730</v>
+        <v>723</v>
       </c>
       <c r="B540" t="s">
-        <v>731</v>
+        <v>614</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -8865,10 +8949,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
       <c r="B541" t="s">
-        <v>586</v>
+        <v>589</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -8876,10 +8960,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
       <c r="B542" t="s">
-        <v>568</v>
+        <v>600</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -8887,10 +8971,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
       <c r="B543" t="s">
-        <v>561</v>
+        <v>727</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -8898,10 +8982,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>735</v>
+        <v>728</v>
       </c>
       <c r="B544" t="s">
-        <v>736</v>
+        <v>596</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -8909,10 +8993,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
       <c r="B545" t="s">
-        <v>589</v>
+        <v>640</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -8920,10 +9004,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
       <c r="B546" t="s">
-        <v>739</v>
+        <v>668</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -8931,10 +9015,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>740</v>
+        <v>731</v>
       </c>
       <c r="B547" t="s">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -8942,10 +9026,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>741</v>
+        <v>732</v>
       </c>
       <c r="B548" t="s">
-        <v>742</v>
+        <v>602</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -8953,10 +9037,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="B549" t="s">
-        <v>586</v>
+        <v>734</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -8964,10 +9048,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>744</v>
+        <v>735</v>
       </c>
       <c r="B550" t="s">
-        <v>472</v>
+        <v>736</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -8975,10 +9059,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
       <c r="B551" t="s">
-        <v>550</v>
+        <v>738</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -8986,10 +9070,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>746</v>
+        <v>739</v>
       </c>
       <c r="B552" t="s">
-        <v>597</v>
+        <v>740</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -8997,10 +9081,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
       <c r="B553" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -9008,10 +9092,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
       <c r="B554" t="s">
-        <v>467</v>
+        <v>744</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -9019,10 +9103,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B555" t="s">
-        <v>646</v>
+        <v>746</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -9030,10 +9114,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="B556" t="s">
-        <v>478</v>
+        <v>748</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -9041,10 +9125,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="B557" t="s">
-        <v>450</v>
+        <v>750</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -9052,10 +9136,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B558" t="s">
-        <v>450</v>
+        <v>591</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -9063,10 +9147,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="B559" t="s">
-        <v>467</v>
+        <v>594</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -9074,10 +9158,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B560" t="s">
-        <v>376</v>
+        <v>584</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -9085,10 +9169,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B561" t="s">
-        <v>380</v>
+        <v>617</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -9096,10 +9180,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="B562" t="s">
-        <v>748</v>
+        <v>609</v>
       </c>
       <c r="C562" t="s">
         <v>5</v>
@@ -9107,10 +9191,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="B563" t="s">
-        <v>646</v>
+        <v>575</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -9118,10 +9202,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B564" t="s">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="C564" t="s">
         <v>5</v>
@@ -9129,10 +9213,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="B565" t="s">
-        <v>467</v>
+        <v>759</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -9140,10 +9224,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B566" t="s">
-        <v>380</v>
+        <v>614</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -9151,10 +9235,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B567" t="s">
-        <v>478</v>
+        <v>596</v>
       </c>
       <c r="C567" t="s">
         <v>5</v>
@@ -9162,10 +9246,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B568" t="s">
-        <v>359</v>
+        <v>589</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -9173,10 +9257,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
+        <v>763</v>
+      </c>
+      <c r="B569" t="s">
         <v>764</v>
-      </c>
-      <c r="B569" t="s">
-        <v>343</v>
       </c>
       <c r="C569" t="s">
         <v>5</v>
@@ -9187,7 +9271,7 @@
         <v>765</v>
       </c>
       <c r="B570" t="s">
-        <v>359</v>
+        <v>617</v>
       </c>
       <c r="C570" t="s">
         <v>5</v>
@@ -9198,7 +9282,7 @@
         <v>766</v>
       </c>
       <c r="B571" t="s">
-        <v>671</v>
+        <v>767</v>
       </c>
       <c r="C571" t="s">
         <v>5</v>
@@ -9206,10 +9290,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B572" t="s">
-        <v>380</v>
+        <v>609</v>
       </c>
       <c r="C572" t="s">
         <v>5</v>
@@ -9217,10 +9301,10 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B573" t="s">
-        <v>474</v>
+        <v>770</v>
       </c>
       <c r="C573" t="s">
         <v>5</v>
@@ -9228,10 +9312,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="B574" t="s">
-        <v>364</v>
+        <v>614</v>
       </c>
       <c r="C574" t="s">
         <v>5</v>
@@ -9239,10 +9323,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="B575" t="s">
-        <v>472</v>
+        <v>500</v>
       </c>
       <c r="C575" t="s">
         <v>5</v>
@@ -9250,10 +9334,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="B576" t="s">
-        <v>671</v>
+        <v>578</v>
       </c>
       <c r="C576" t="s">
         <v>5</v>
@@ -9261,10 +9345,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="B577" t="s">
-        <v>731</v>
+        <v>625</v>
       </c>
       <c r="C577" t="s">
         <v>5</v>
@@ -9272,10 +9356,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="B578" t="s">
-        <v>450</v>
+        <v>776</v>
       </c>
       <c r="C578" t="s">
         <v>5</v>
@@ -9283,10 +9367,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B579" t="s">
-        <v>634</v>
+        <v>495</v>
       </c>
       <c r="C579" t="s">
         <v>5</v>
@@ -9294,10 +9378,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B580" t="s">
-        <v>636</v>
+        <v>674</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
@@ -9305,10 +9389,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B581" t="s">
-        <v>376</v>
+        <v>506</v>
       </c>
       <c r="C581" t="s">
         <v>5</v>
@@ -9316,7 +9400,7 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B582" t="s">
         <v>478</v>
@@ -9327,10 +9411,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B583" t="s">
-        <v>671</v>
+        <v>478</v>
       </c>
       <c r="C583" t="s">
         <v>5</v>
@@ -9338,10 +9422,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B584" t="s">
-        <v>380</v>
+        <v>495</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
@@ -9349,10 +9433,10 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B585" t="s">
-        <v>472</v>
+        <v>404</v>
       </c>
       <c r="C585" t="s">
         <v>5</v>
@@ -9360,10 +9444,10 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B586" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="C586" t="s">
         <v>5</v>
@@ -9371,10 +9455,10 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B587" t="s">
-        <v>547</v>
+        <v>776</v>
       </c>
       <c r="C587" t="s">
         <v>5</v>
@@ -9382,10 +9466,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B588" t="s">
-        <v>615</v>
+        <v>674</v>
       </c>
       <c r="C588" t="s">
         <v>5</v>
@@ -9393,10 +9477,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B589" t="s">
-        <v>597</v>
+        <v>502</v>
       </c>
       <c r="C589" t="s">
         <v>5</v>
@@ -9404,10 +9488,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B590" t="s">
-        <v>742</v>
+        <v>495</v>
       </c>
       <c r="C590" t="s">
         <v>5</v>
@@ -9415,10 +9499,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B591" t="s">
-        <v>640</v>
+        <v>408</v>
       </c>
       <c r="C591" t="s">
         <v>5</v>
@@ -9426,10 +9510,10 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B592" t="s">
-        <v>584</v>
+        <v>506</v>
       </c>
       <c r="C592" t="s">
         <v>5</v>
@@ -9437,10 +9521,10 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B593" t="s">
-        <v>789</v>
+        <v>387</v>
       </c>
       <c r="C593" t="s">
         <v>5</v>
@@ -9448,10 +9532,10 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="B594" t="s">
-        <v>791</v>
+        <v>371</v>
       </c>
       <c r="C594" t="s">
         <v>5</v>
@@ -9459,10 +9543,10 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B595" t="s">
-        <v>793</v>
+        <v>387</v>
       </c>
       <c r="C595" t="s">
         <v>5</v>
@@ -9473,7 +9557,7 @@
         <v>794</v>
       </c>
       <c r="B596" t="s">
-        <v>795</v>
+        <v>699</v>
       </c>
       <c r="C596" t="s">
         <v>5</v>
@@ -9481,10 +9565,10 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B597" t="s">
-        <v>797</v>
+        <v>408</v>
       </c>
       <c r="C597" t="s">
         <v>5</v>
@@ -9492,10 +9576,10 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B598" t="s">
-        <v>799</v>
+        <v>502</v>
       </c>
       <c r="C598" t="s">
         <v>5</v>
@@ -9503,10 +9587,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="B599" t="s">
-        <v>801</v>
+        <v>392</v>
       </c>
       <c r="C599" t="s">
         <v>5</v>
@@ -9514,10 +9598,10 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>802</v>
+        <v>798</v>
       </c>
       <c r="B600" t="s">
-        <v>797</v>
+        <v>500</v>
       </c>
       <c r="C600" t="s">
         <v>5</v>
@@ -9525,10 +9609,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>803</v>
+        <v>799</v>
       </c>
       <c r="B601" t="s">
-        <v>804</v>
+        <v>699</v>
       </c>
       <c r="C601" t="s">
         <v>5</v>
@@ -9536,10 +9620,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="B602" t="s">
-        <v>806</v>
+        <v>759</v>
       </c>
       <c r="C602" t="s">
         <v>5</v>
@@ -9547,10 +9631,10 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
       <c r="B603" t="s">
-        <v>808</v>
+        <v>478</v>
       </c>
       <c r="C603" t="s">
         <v>5</v>
@@ -9558,10 +9642,10 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>809</v>
+        <v>802</v>
       </c>
       <c r="B604" t="s">
-        <v>742</v>
+        <v>662</v>
       </c>
       <c r="C604" t="s">
         <v>5</v>
@@ -9569,10 +9653,10 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>810</v>
+        <v>803</v>
       </c>
       <c r="B605" t="s">
-        <v>612</v>
+        <v>664</v>
       </c>
       <c r="C605" t="s">
         <v>5</v>
@@ -9580,10 +9664,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>811</v>
+        <v>804</v>
       </c>
       <c r="B606" t="s">
-        <v>566</v>
+        <v>404</v>
       </c>
       <c r="C606" t="s">
         <v>5</v>
@@ -9591,10 +9675,10 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>812</v>
+        <v>805</v>
       </c>
       <c r="B607" t="s">
-        <v>566</v>
+        <v>506</v>
       </c>
       <c r="C607" t="s">
         <v>5</v>
@@ -9602,10 +9686,10 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B608" t="s">
-        <v>554</v>
+        <v>699</v>
       </c>
       <c r="C608" t="s">
         <v>5</v>
@@ -9613,10 +9697,10 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>814</v>
+        <v>807</v>
       </c>
       <c r="B609" t="s">
-        <v>589</v>
+        <v>408</v>
       </c>
       <c r="C609" t="s">
         <v>5</v>
@@ -9624,10 +9708,10 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>815</v>
+        <v>808</v>
       </c>
       <c r="B610" t="s">
-        <v>558</v>
+        <v>500</v>
       </c>
       <c r="C610" t="s">
         <v>5</v>
@@ -9635,10 +9719,10 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>816</v>
+        <v>809</v>
       </c>
       <c r="B611" t="s">
-        <v>640</v>
+        <v>406</v>
       </c>
       <c r="C611" t="s">
         <v>5</v>
@@ -9646,10 +9730,10 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>817</v>
+        <v>810</v>
       </c>
       <c r="B612" t="s">
-        <v>636</v>
+        <v>575</v>
       </c>
       <c r="C612" t="s">
         <v>5</v>
@@ -9657,10 +9741,10 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>818</v>
+        <v>811</v>
       </c>
       <c r="B613" t="s">
-        <v>556</v>
+        <v>643</v>
       </c>
       <c r="C613" t="s">
         <v>5</v>
@@ -9668,10 +9752,10 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>819</v>
+        <v>812</v>
       </c>
       <c r="B614" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="C614" t="s">
         <v>5</v>
@@ -9679,10 +9763,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>820</v>
+        <v>813</v>
       </c>
       <c r="B615" t="s">
-        <v>556</v>
+        <v>770</v>
       </c>
       <c r="C615" t="s">
         <v>5</v>
@@ -9690,10 +9774,10 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>821</v>
+        <v>814</v>
       </c>
       <c r="B616" t="s">
-        <v>742</v>
+        <v>668</v>
       </c>
       <c r="C616" t="s">
         <v>5</v>
@@ -9701,10 +9785,10 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>822</v>
+        <v>815</v>
       </c>
       <c r="B617" t="s">
-        <v>581</v>
+        <v>612</v>
       </c>
       <c r="C617" t="s">
         <v>5</v>
@@ -9712,10 +9796,10 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>823</v>
+        <v>816</v>
       </c>
       <c r="B618" t="s">
-        <v>808</v>
+        <v>817</v>
       </c>
       <c r="C618" t="s">
         <v>5</v>
@@ -9723,10 +9807,10 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
       <c r="B619" t="s">
-        <v>808</v>
+        <v>819</v>
       </c>
       <c r="C619" t="s">
         <v>5</v>
@@ -9734,10 +9818,10 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="B620" t="s">
-        <v>574</v>
+        <v>821</v>
       </c>
       <c r="C620" t="s">
         <v>5</v>
@@ -9745,10 +9829,10 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>826</v>
+        <v>822</v>
       </c>
       <c r="B621" t="s">
-        <v>710</v>
+        <v>823</v>
       </c>
       <c r="C621" t="s">
         <v>5</v>
@@ -9756,10 +9840,10 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B622" t="s">
-        <v>789</v>
+        <v>825</v>
       </c>
       <c r="C622" t="s">
         <v>5</v>
@@ -9767,10 +9851,10 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="B623" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="C623" t="s">
         <v>5</v>
@@ -9778,10 +9862,10 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
       <c r="B624" t="s">
-        <v>808</v>
+        <v>829</v>
       </c>
       <c r="C624" t="s">
         <v>5</v>
@@ -9789,10 +9873,10 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B625" t="s">
-        <v>558</v>
+        <v>825</v>
       </c>
       <c r="C625" t="s">
         <v>5</v>
@@ -9800,10 +9884,10 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
+        <v>831</v>
+      </c>
+      <c r="B626" t="s">
         <v>832</v>
-      </c>
-      <c r="B626" t="s">
-        <v>556</v>
       </c>
       <c r="C626" t="s">
         <v>5</v>
@@ -9814,7 +9898,7 @@
         <v>833</v>
       </c>
       <c r="B627" t="s">
-        <v>640</v>
+        <v>834</v>
       </c>
       <c r="C627" t="s">
         <v>5</v>
@@ -9822,10 +9906,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B628" t="s">
-        <v>671</v>
+        <v>836</v>
       </c>
       <c r="C628" t="s">
         <v>5</v>
@@ -9833,10 +9917,10 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B629" t="s">
-        <v>748</v>
+        <v>770</v>
       </c>
       <c r="C629" t="s">
         <v>5</v>
@@ -9844,10 +9928,10 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B630" t="s">
-        <v>359</v>
+        <v>640</v>
       </c>
       <c r="C630" t="s">
         <v>5</v>
@@ -9855,10 +9939,10 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B631" t="s">
-        <v>450</v>
+        <v>594</v>
       </c>
       <c r="C631" t="s">
         <v>5</v>
@@ -9866,10 +9950,10 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B632" t="s">
-        <v>467</v>
+        <v>594</v>
       </c>
       <c r="C632" t="s">
         <v>5</v>
@@ -9877,10 +9961,10 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B633" t="s">
-        <v>368</v>
+        <v>582</v>
       </c>
       <c r="C633" t="s">
         <v>5</v>
@@ -9888,10 +9972,10 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B634" t="s">
-        <v>488</v>
+        <v>617</v>
       </c>
       <c r="C634" t="s">
         <v>5</v>
@@ -9899,10 +9983,10 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B635" t="s">
-        <v>397</v>
+        <v>586</v>
       </c>
       <c r="C635" t="s">
         <v>5</v>
@@ -9910,10 +9994,10 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B636" t="s">
-        <v>310</v>
+        <v>668</v>
       </c>
       <c r="C636" t="s">
         <v>5</v>
@@ -9921,10 +10005,10 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B637" t="s">
-        <v>318</v>
+        <v>664</v>
       </c>
       <c r="C637" t="s">
         <v>5</v>
@@ -9932,10 +10016,10 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B638" t="s">
-        <v>313</v>
+        <v>584</v>
       </c>
       <c r="C638" t="s">
         <v>5</v>
@@ -9943,10 +10027,10 @@
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B639" t="s">
-        <v>846</v>
+        <v>619</v>
       </c>
       <c r="C639" t="s">
         <v>5</v>
@@ -9954,10 +10038,10 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B640" t="s">
-        <v>308</v>
+        <v>584</v>
       </c>
       <c r="C640" t="s">
         <v>5</v>
@@ -9965,10 +10049,10 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="B641" t="s">
-        <v>393</v>
+        <v>770</v>
       </c>
       <c r="C641" t="s">
         <v>5</v>
@@ -9976,10 +10060,10 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="B642" t="s">
-        <v>850</v>
+        <v>609</v>
       </c>
       <c r="C642" t="s">
         <v>5</v>
@@ -9990,7 +10074,7 @@
         <v>851</v>
       </c>
       <c r="B643" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="C643" t="s">
         <v>5</v>
@@ -9998,10 +10082,10 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B644" t="s">
-        <v>852</v>
+        <v>836</v>
       </c>
       <c r="C644" t="s">
         <v>5</v>
@@ -10009,10 +10093,10 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="B645" t="s">
-        <v>855</v>
+        <v>602</v>
       </c>
       <c r="C645" t="s">
         <v>5</v>
@@ -10020,10 +10104,10 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="B646" t="s">
-        <v>852</v>
+        <v>738</v>
       </c>
       <c r="C646" t="s">
         <v>5</v>
@@ -10031,10 +10115,10 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B647" t="s">
-        <v>858</v>
+        <v>817</v>
       </c>
       <c r="C647" t="s">
         <v>5</v>
@@ -10042,12 +10126,287 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
+        <v>856</v>
+      </c>
+      <c r="B648" t="s">
+        <v>857</v>
+      </c>
+      <c r="C648" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="s">
+        <v>858</v>
+      </c>
+      <c r="B649" t="s">
+        <v>836</v>
+      </c>
+      <c r="C649" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="s">
         <v>859</v>
       </c>
-      <c r="B648" t="s">
-        <v>858</v>
-      </c>
-      <c r="C648" t="s">
+      <c r="B650" t="s">
+        <v>586</v>
+      </c>
+      <c r="C650" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="s">
+        <v>860</v>
+      </c>
+      <c r="B651" t="s">
+        <v>584</v>
+      </c>
+      <c r="C651" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="s">
+        <v>861</v>
+      </c>
+      <c r="B652" t="s">
+        <v>668</v>
+      </c>
+      <c r="C652" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="s">
+        <v>862</v>
+      </c>
+      <c r="B653" t="s">
+        <v>699</v>
+      </c>
+      <c r="C653" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="s">
+        <v>863</v>
+      </c>
+      <c r="B654" t="s">
+        <v>776</v>
+      </c>
+      <c r="C654" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="s">
+        <v>864</v>
+      </c>
+      <c r="B655" t="s">
+        <v>387</v>
+      </c>
+      <c r="C655" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="s">
+        <v>865</v>
+      </c>
+      <c r="B656" t="s">
+        <v>478</v>
+      </c>
+      <c r="C656" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="s">
+        <v>866</v>
+      </c>
+      <c r="B657" t="s">
+        <v>495</v>
+      </c>
+      <c r="C657" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="s">
+        <v>867</v>
+      </c>
+      <c r="B658" t="s">
+        <v>396</v>
+      </c>
+      <c r="C658" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="s">
+        <v>868</v>
+      </c>
+      <c r="B659" t="s">
+        <v>516</v>
+      </c>
+      <c r="C659" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="s">
+        <v>869</v>
+      </c>
+      <c r="B660" t="s">
+        <v>425</v>
+      </c>
+      <c r="C660" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="s">
+        <v>870</v>
+      </c>
+      <c r="B661" t="s">
+        <v>338</v>
+      </c>
+      <c r="C661" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="s">
+        <v>871</v>
+      </c>
+      <c r="B662" t="s">
+        <v>346</v>
+      </c>
+      <c r="C662" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="s">
+        <v>872</v>
+      </c>
+      <c r="B663" t="s">
+        <v>341</v>
+      </c>
+      <c r="C663" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="s">
+        <v>873</v>
+      </c>
+      <c r="B664" t="s">
+        <v>874</v>
+      </c>
+      <c r="C664" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="s">
+        <v>875</v>
+      </c>
+      <c r="B665" t="s">
+        <v>336</v>
+      </c>
+      <c r="C665" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="666">
+      <c r="A666" t="s">
+        <v>876</v>
+      </c>
+      <c r="B666" t="s">
+        <v>421</v>
+      </c>
+      <c r="C666" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="667">
+      <c r="A667" t="s">
+        <v>877</v>
+      </c>
+      <c r="B667" t="s">
+        <v>878</v>
+      </c>
+      <c r="C667" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="668">
+      <c r="A668" t="s">
+        <v>879</v>
+      </c>
+      <c r="B668" t="s">
+        <v>880</v>
+      </c>
+      <c r="C668" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="669">
+      <c r="A669" t="s">
+        <v>881</v>
+      </c>
+      <c r="B669" t="s">
+        <v>880</v>
+      </c>
+      <c r="C669" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="670">
+      <c r="A670" t="s">
+        <v>882</v>
+      </c>
+      <c r="B670" t="s">
+        <v>883</v>
+      </c>
+      <c r="C670" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="671">
+      <c r="A671" t="s">
+        <v>884</v>
+      </c>
+      <c r="B671" t="s">
+        <v>880</v>
+      </c>
+      <c r="C671" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="672">
+      <c r="A672" t="s">
+        <v>885</v>
+      </c>
+      <c r="B672" t="s">
+        <v>886</v>
+      </c>
+      <c r="C672" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="673">
+      <c r="A673" t="s">
+        <v>887</v>
+      </c>
+      <c r="B673" t="s">
+        <v>886</v>
+      </c>
+      <c r="C673" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink International Health Care Fund.xlsx
+++ b/data/GreatLink/GreatLink International Health Care Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid684990"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid746593"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="888" uniqueCount="888">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="927">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,168 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>16/01/2025</t>
+  </si>
+  <si>
+    <t>0.969</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>15/01/2025</t>
+  </si>
+  <si>
+    <t>14/01/2025</t>
+  </si>
+  <si>
+    <t>0.961</t>
+  </si>
+  <si>
+    <t>13/01/2025</t>
+  </si>
+  <si>
+    <t>0.974</t>
+  </si>
+  <si>
+    <t>10/01/2025</t>
+  </si>
+  <si>
+    <t>0.966</t>
+  </si>
+  <si>
+    <t>09/01/2025</t>
+  </si>
+  <si>
+    <t>0.971</t>
+  </si>
+  <si>
+    <t>08/01/2025</t>
+  </si>
+  <si>
+    <t>0.972</t>
+  </si>
+  <si>
+    <t>07/01/2025</t>
+  </si>
+  <si>
+    <t>0.962</t>
+  </si>
+  <si>
+    <t>06/01/2025</t>
+  </si>
+  <si>
+    <t>0.956</t>
+  </si>
+  <si>
+    <t>03/01/2025</t>
+  </si>
+  <si>
+    <t>02/01/2025</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>31/12/2024</t>
+  </si>
+  <si>
+    <t>0.950</t>
+  </si>
+  <si>
+    <t>30/12/2024</t>
+  </si>
+  <si>
+    <t>0.946</t>
+  </si>
+  <si>
+    <t>27/12/2024</t>
+  </si>
+  <si>
+    <t>0.955</t>
+  </si>
+  <si>
+    <t>26/12/2024</t>
+  </si>
+  <si>
+    <t>0.957</t>
+  </si>
+  <si>
+    <t>24/12/2024</t>
+  </si>
+  <si>
+    <t>0.958</t>
+  </si>
+  <si>
+    <t>23/12/2024</t>
+  </si>
+  <si>
+    <t>20/12/2024</t>
+  </si>
+  <si>
+    <t>0.942</t>
+  </si>
+  <si>
+    <t>19/12/2024</t>
+  </si>
+  <si>
+    <t>0.951</t>
+  </si>
+  <si>
+    <t>18/12/2024</t>
+  </si>
+  <si>
+    <t>17/12/2024</t>
+  </si>
+  <si>
+    <t>0.973</t>
+  </si>
+  <si>
+    <t>16/12/2024</t>
+  </si>
+  <si>
+    <t>13/12/2024</t>
+  </si>
+  <si>
+    <t>0.978</t>
+  </si>
+  <si>
+    <t>12/12/2024</t>
+  </si>
+  <si>
+    <t>0.977</t>
+  </si>
+  <si>
+    <t>11/12/2024</t>
+  </si>
+  <si>
+    <t>0.986</t>
+  </si>
+  <si>
+    <t>10/12/2024</t>
+  </si>
+  <si>
+    <t>0.993</t>
+  </si>
+  <si>
+    <t>09/12/2024</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>06/12/2024</t>
+  </si>
+  <si>
+    <t>0.997</t>
+  </si>
+  <si>
     <t>05/12/2024</t>
   </si>
   <si>
     <t>0.998</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>04/12/2024</t>
   </si>
   <si>
@@ -98,21 +251,12 @@
     <t>20/11/2024</t>
   </si>
   <si>
-    <t>0.978</t>
-  </si>
-  <si>
     <t>19/11/2024</t>
   </si>
   <si>
-    <t>0.962</t>
-  </si>
-  <si>
     <t>18/11/2024</t>
   </si>
   <si>
-    <t>0.969</t>
-  </si>
-  <si>
     <t>15/11/2024</t>
   </si>
   <si>
@@ -686,9 +830,6 @@
     <t>06/05/2024</t>
   </si>
   <si>
-    <t>0.997</t>
-  </si>
-  <si>
     <t>03/05/2024</t>
   </si>
   <si>
@@ -713,9 +854,6 @@
     <t>24/04/2024</t>
   </si>
   <si>
-    <t>0.996</t>
-  </si>
-  <si>
     <t>23/04/2024</t>
   </si>
   <si>
@@ -917,9 +1055,6 @@
     <t>31/01/2024</t>
   </si>
   <si>
-    <t>0.977</t>
-  </si>
-  <si>
     <t>30/01/2024</t>
   </si>
   <si>
@@ -947,18 +1082,12 @@
     <t>22/01/2024</t>
   </si>
   <si>
-    <t>0.971</t>
-  </si>
-  <si>
     <t>19/01/2024</t>
   </si>
   <si>
     <t>18/01/2024</t>
   </si>
   <si>
-    <t>0.974</t>
-  </si>
-  <si>
     <t>17/01/2024</t>
   </si>
   <si>
@@ -983,9 +1112,6 @@
     <t>09/01/2024</t>
   </si>
   <si>
-    <t>0.972</t>
-  </si>
-  <si>
     <t>08/01/2024</t>
   </si>
   <si>
@@ -995,9 +1121,6 @@
     <t>05/01/2024</t>
   </si>
   <si>
-    <t>0.956</t>
-  </si>
-  <si>
     <t>04/01/2024</t>
   </si>
   <si>
@@ -1025,9 +1148,6 @@
     <t>27/12/2023</t>
   </si>
   <si>
-    <t>0.942</t>
-  </si>
-  <si>
     <t>26/12/2023</t>
   </si>
   <si>
@@ -2673,9 +2793,6 @@
   </si>
   <si>
     <t>04/04/2022</t>
-  </si>
-  <si>
-    <t>0.950</t>
   </si>
   <si>
     <t>01/04/2022</t>
@@ -3034,7 +3151,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -3042,10 +3159,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -3053,10 +3170,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3064,10 +3181,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3075,10 +3192,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3086,10 +3203,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
         <v>16</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3097,10 +3214,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3108,10 +3225,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
         <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3119,10 +3236,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3130,10 +3247,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3141,10 +3258,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3152,10 +3269,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3163,10 +3280,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3174,10 +3291,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3185,10 +3302,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3196,10 +3313,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3207,10 +3324,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3218,10 +3335,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3229,10 +3346,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3240,10 +3357,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3251,10 +3368,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3262,10 +3379,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3273,10 +3390,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3284,10 +3401,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3295,10 +3412,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3306,10 +3423,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3317,10 +3434,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" t="s">
         <v>54</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3328,10 +3445,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
         <v>56</v>
-      </c>
-      <c r="B30" t="s">
-        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3342,7 +3459,7 @@
         <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3350,10 +3467,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3361,10 +3478,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3372,10 +3489,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3383,10 +3500,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3394,10 +3511,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3405,10 +3522,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3416,10 +3533,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3427,10 +3544,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3438,10 +3555,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B40" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3449,10 +3566,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="B41" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3460,10 +3577,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>18</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3471,10 +3588,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>4</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3482,10 +3599,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3493,10 +3610,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3504,10 +3621,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3515,10 +3632,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3526,10 +3643,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3537,10 +3654,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3548,10 +3665,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B50" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3559,10 +3676,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3570,10 +3687,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3581,10 +3698,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>97</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3592,10 +3709,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3603,10 +3720,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3614,10 +3731,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3625,10 +3742,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3636,10 +3753,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>58</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3647,10 +3764,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B59" t="s">
-        <v>100</v>
+        <v>62</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3658,10 +3775,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B60" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3669,10 +3786,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3680,10 +3797,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3691,10 +3808,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B63" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3702,10 +3819,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3713,10 +3830,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3724,10 +3841,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B66" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3735,10 +3852,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B67" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3746,10 +3863,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B68" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3757,10 +3874,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B69" t="s">
-        <v>119</v>
+        <v>86</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3804,7 +3921,7 @@
         <v>126</v>
       </c>
       <c r="B73" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3826,7 +3943,7 @@
         <v>129</v>
       </c>
       <c r="B75" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3837,7 +3954,7 @@
         <v>130</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3845,10 +3962,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
+        <v>132</v>
+      </c>
+      <c r="B77" t="s">
         <v>131</v>
-      </c>
-      <c r="B77" t="s">
-        <v>132</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3859,7 +3976,7 @@
         <v>133</v>
       </c>
       <c r="B78" t="s">
-        <v>134</v>
+        <v>94</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3867,10 +3984,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>134</v>
+      </c>
+      <c r="B79" t="s">
         <v>135</v>
-      </c>
-      <c r="B79" t="s">
-        <v>134</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3881,7 +3998,7 @@
         <v>136</v>
       </c>
       <c r="B80" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -3892,7 +4009,7 @@
         <v>137</v>
       </c>
       <c r="B81" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -3900,10 +4017,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B82" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -3911,10 +4028,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -3922,10 +4039,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>141</v>
+      </c>
+      <c r="B84" t="s">
         <v>142</v>
-      </c>
-      <c r="B84" t="s">
-        <v>143</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -3933,10 +4050,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
+        <v>143</v>
+      </c>
+      <c r="B85" t="s">
         <v>144</v>
-      </c>
-      <c r="B85" t="s">
-        <v>40</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -3947,7 +4064,7 @@
         <v>145</v>
       </c>
       <c r="B86" t="s">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -3955,10 +4072,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B87" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -3966,10 +4083,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
+        <v>150</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -3977,10 +4094,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="B89" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -3988,10 +4105,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B90" t="s">
-        <v>102</v>
+        <v>154</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -3999,10 +4116,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B91" t="s">
-        <v>98</v>
+        <v>156</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -4010,10 +4127,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B92" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -4021,10 +4138,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B93" t="s">
-        <v>108</v>
+        <v>160</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -4032,10 +4149,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="B94" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -4043,10 +4160,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="B95" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -4054,10 +4171,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="B96" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -4065,10 +4182,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="B97" t="s">
-        <v>104</v>
+        <v>167</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -4076,10 +4193,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B98" t="s">
-        <v>132</v>
+        <v>169</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -4087,10 +4204,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>171</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -4098,10 +4215,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B100" t="s">
-        <v>94</v>
+        <v>173</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -4109,10 +4226,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
+        <v>174</v>
+      </c>
+      <c r="B101" t="s">
         <v>163</v>
-      </c>
-      <c r="B101" t="s">
-        <v>164</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -4120,10 +4237,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="B102" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -4131,10 +4248,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="B103" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -4142,10 +4259,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="B104" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -4153,10 +4270,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="B105" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -4164,10 +4281,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="B106" t="s">
-        <v>158</v>
+        <v>182</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -4175,10 +4292,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="B107" t="s">
-        <v>96</v>
+        <v>182</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -4186,10 +4303,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B108" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -4197,10 +4314,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="B109" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -4208,10 +4325,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="B110" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -4219,10 +4336,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
       <c r="B111" t="s">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -4230,10 +4347,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B112" t="s">
-        <v>96</v>
+        <v>191</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -4241,10 +4358,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B113" t="s">
-        <v>140</v>
+        <v>88</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -4252,10 +4369,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="B114" t="s">
-        <v>110</v>
+        <v>128</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -4263,10 +4380,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B115" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -4274,10 +4391,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>183</v>
+        <v>195</v>
       </c>
       <c r="B116" t="s">
-        <v>158</v>
+        <v>60</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -4285,10 +4402,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B117" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -4296,10 +4413,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="B118" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -4307,10 +4424,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="B119" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -4318,10 +4435,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>187</v>
+        <v>200</v>
       </c>
       <c r="B120" t="s">
-        <v>96</v>
+        <v>154</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4329,10 +4446,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="B121" t="s">
-        <v>189</v>
+        <v>156</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -4340,10 +4457,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B122" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -4351,10 +4468,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>191</v>
+        <v>203</v>
       </c>
       <c r="B123" t="s">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -4362,10 +4479,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>193</v>
+        <v>205</v>
       </c>
       <c r="B124" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -4373,10 +4490,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>194</v>
+        <v>207</v>
       </c>
       <c r="B125" t="s">
-        <v>189</v>
+        <v>152</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -4384,10 +4501,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="B126" t="s">
-        <v>112</v>
+        <v>180</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4395,10 +4512,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B127" t="s">
-        <v>192</v>
+        <v>150</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4406,10 +4523,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>197</v>
+        <v>210</v>
       </c>
       <c r="B128" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4417,10 +4534,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="B129" t="s">
-        <v>143</v>
+        <v>212</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -4428,10 +4545,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="B130" t="s">
-        <v>177</v>
+        <v>214</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4439,10 +4556,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="B131" t="s">
-        <v>64</v>
+        <v>216</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4450,10 +4567,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B132" t="s">
-        <v>44</v>
+        <v>218</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4461,10 +4578,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="B133" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4472,10 +4589,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>203</v>
+        <v>220</v>
       </c>
       <c r="B134" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4483,10 +4600,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>205</v>
+        <v>221</v>
       </c>
       <c r="B135" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4494,10 +4611,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
       <c r="B136" t="s">
-        <v>46</v>
+        <v>204</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4505,10 +4622,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>207</v>
+        <v>223</v>
       </c>
       <c r="B137" t="s">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4516,10 +4633,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="B138" t="s">
-        <v>42</v>
+        <v>225</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4527,10 +4644,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="B139" t="s">
-        <v>40</v>
+        <v>88</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4538,10 +4655,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="B140" t="s">
-        <v>92</v>
+        <v>144</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4549,10 +4666,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="B141" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4560,10 +4677,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="B142" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4571,10 +4688,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="B143" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4582,10 +4699,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="B144" t="s">
-        <v>156</v>
+        <v>206</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4593,7 +4710,7 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="B145" t="s">
         <v>216</v>
@@ -4604,10 +4721,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="B146" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4615,10 +4732,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>218</v>
+        <v>234</v>
       </c>
       <c r="B147" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4626,10 +4743,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B148" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4637,10 +4754,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>220</v>
+        <v>236</v>
       </c>
       <c r="B149" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4648,10 +4765,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>191</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4659,10 +4776,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="B151" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4670,10 +4787,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="B152" t="s">
-        <v>49</v>
+        <v>204</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4681,10 +4798,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="B153" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4692,10 +4809,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="B154" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4703,10 +4820,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="B155" t="s">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4714,10 +4831,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>229</v>
+        <v>245</v>
       </c>
       <c r="B156" t="s">
-        <v>223</v>
+        <v>140</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4725,10 +4842,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>230</v>
+        <v>246</v>
       </c>
       <c r="B157" t="s">
-        <v>226</v>
+        <v>191</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4736,10 +4853,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B158" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4747,10 +4864,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="B159" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4758,10 +4875,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>234</v>
+        <v>249</v>
       </c>
       <c r="B160" t="s">
-        <v>235</v>
+        <v>92</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4769,10 +4886,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="B161" t="s">
-        <v>237</v>
+        <v>135</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4780,10 +4897,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="B162" t="s">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4791,10 +4908,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="B163" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4802,10 +4919,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="B164" t="s">
-        <v>235</v>
+        <v>94</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4813,10 +4930,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="B165" t="s">
-        <v>243</v>
+        <v>114</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4824,10 +4941,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B166" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4835,10 +4952,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B167" t="s">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4846,10 +4963,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B168" t="s">
-        <v>52</v>
+        <v>140</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4857,10 +4974,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="B169" t="s">
-        <v>13</v>
+        <v>197</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4868,10 +4985,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B170" t="s">
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4879,10 +4996,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="B171" t="s">
-        <v>4</v>
+        <v>237</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -4890,10 +5007,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B172" t="s">
-        <v>83</v>
+        <v>204</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -4901,10 +5018,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="B173" t="s">
-        <v>83</v>
+        <v>264</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -4912,10 +5029,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
       <c r="B174" t="s">
-        <v>253</v>
+        <v>121</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -4923,10 +5040,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B175" t="s">
-        <v>156</v>
+        <v>116</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -4934,10 +5051,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>255</v>
+        <v>267</v>
       </c>
       <c r="B176" t="s">
-        <v>156</v>
+        <v>252</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -4945,10 +5062,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B177" t="s">
-        <v>257</v>
+        <v>60</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -4956,10 +5073,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B178" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -4967,10 +5084,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="B179" t="s">
-        <v>260</v>
+        <v>54</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -4978,10 +5095,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B180" t="s">
-        <v>42</v>
+        <v>97</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -4989,10 +5106,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="B181" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -5000,10 +5117,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="B182" t="s">
-        <v>216</v>
+        <v>97</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -5011,10 +5128,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B183" t="s">
-        <v>87</v>
+        <v>56</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -5022,10 +5139,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
       <c r="B184" t="s">
-        <v>266</v>
+        <v>54</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -5033,10 +5150,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B185" t="s">
-        <v>73</v>
+        <v>273</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -5044,10 +5161,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="B186" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -5055,7 +5172,7 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="B187" t="s">
         <v>66</v>
@@ -5066,10 +5183,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B188" t="s">
-        <v>73</v>
+        <v>281</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -5077,10 +5194,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="B189" t="s">
-        <v>68</v>
+        <v>283</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -5088,10 +5205,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B190" t="s">
-        <v>257</v>
+        <v>283</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -5099,10 +5216,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>273</v>
+        <v>285</v>
       </c>
       <c r="B191" t="s">
-        <v>36</v>
+        <v>286</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -5110,10 +5227,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
       <c r="B192" t="s">
-        <v>55</v>
+        <v>281</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -5121,10 +5238,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="B193" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -5132,10 +5249,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="B194" t="s">
-        <v>276</v>
+        <v>74</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -5143,10 +5260,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>278</v>
+        <v>291</v>
       </c>
       <c r="B195" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -5154,10 +5271,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="B196" t="s">
-        <v>68</v>
+        <v>100</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -5165,10 +5282,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="B197" t="s">
-        <v>276</v>
+        <v>64</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -5176,10 +5293,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="B198" t="s">
-        <v>260</v>
+        <v>60</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -5187,10 +5304,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>282</v>
+        <v>295</v>
       </c>
       <c r="B199" t="s">
-        <v>283</v>
+        <v>56</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -5198,10 +5315,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B200" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -5209,10 +5326,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>285</v>
+        <v>297</v>
       </c>
       <c r="B201" t="s">
-        <v>55</v>
+        <v>131</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -5220,10 +5337,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B202" t="s">
-        <v>75</v>
+        <v>299</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -5231,10 +5348,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="B203" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -5242,10 +5359,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="B204" t="s">
-        <v>266</v>
+        <v>204</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -5253,10 +5370,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="B205" t="s">
-        <v>83</v>
+        <v>303</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -5264,10 +5381,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="B206" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -5275,10 +5392,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B207" t="s">
-        <v>15</v>
+        <v>306</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -5286,10 +5403,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>90</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -5297,10 +5414,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>293</v>
+        <v>308</v>
       </c>
       <c r="B209" t="s">
-        <v>204</v>
+        <v>306</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -5308,10 +5425,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>294</v>
+        <v>309</v>
       </c>
       <c r="B210" t="s">
-        <v>15</v>
+        <v>264</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -5319,10 +5436,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="B211" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -5330,10 +5447,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="B212" t="s">
-        <v>17</v>
+        <v>312</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -5341,10 +5458,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>297</v>
+        <v>313</v>
       </c>
       <c r="B213" t="s">
-        <v>243</v>
+        <v>121</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -5352,10 +5469,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>298</v>
+        <v>314</v>
       </c>
       <c r="B214" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -5363,10 +5480,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>299</v>
+        <v>315</v>
       </c>
       <c r="B215" t="s">
-        <v>300</v>
+        <v>114</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -5374,10 +5491,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="B216" t="s">
-        <v>27</v>
+        <v>121</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -5385,10 +5502,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
       <c r="B217" t="s">
-        <v>27</v>
+        <v>116</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -5396,10 +5513,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
+        <v>318</v>
+      </c>
+      <c r="B218" t="s">
         <v>303</v>
-      </c>
-      <c r="B218" t="s">
-        <v>304</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -5407,10 +5524,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="B219" t="s">
-        <v>306</v>
+        <v>84</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5418,10 +5535,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="B220" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -5429,10 +5546,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B221" t="s">
-        <v>31</v>
+        <v>322</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -5440,10 +5557,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="B222" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5451,10 +5568,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="B223" t="s">
-        <v>304</v>
+        <v>103</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5462,10 +5579,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="B224" t="s">
-        <v>313</v>
+        <v>116</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5473,10 +5590,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="B225" t="s">
-        <v>33</v>
+        <v>322</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5484,10 +5601,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="B226" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5495,10 +5612,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="B227" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5506,10 +5623,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B228" t="s">
-        <v>27</v>
+        <v>264</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5517,10 +5634,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B229" t="s">
-        <v>317</v>
+        <v>103</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5528,10 +5645,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B230" t="s">
-        <v>27</v>
+        <v>123</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5539,10 +5656,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B231" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5550,10 +5667,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="B232" t="s">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5561,10 +5678,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="B233" t="s">
-        <v>326</v>
+        <v>131</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5572,10 +5689,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="B234" t="s">
-        <v>306</v>
+        <v>123</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5583,10 +5700,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B235" t="s">
-        <v>326</v>
+        <v>66</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5594,10 +5711,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="B236" t="s">
-        <v>330</v>
+        <v>58</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5605,10 +5722,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="B237" t="s">
-        <v>332</v>
+        <v>252</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5616,10 +5733,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="B238" t="s">
-        <v>334</v>
+        <v>66</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5627,10 +5744,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B239" t="s">
-        <v>336</v>
+        <v>64</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5638,10 +5755,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="B240" t="s">
-        <v>338</v>
+        <v>68</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5649,10 +5766,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B241" t="s">
-        <v>338</v>
+        <v>289</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5660,10 +5777,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B242" t="s">
-        <v>341</v>
+        <v>74</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5671,10 +5788,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B243" t="s">
-        <v>343</v>
+        <v>46</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5682,10 +5799,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B244" t="s">
-        <v>341</v>
+        <v>44</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5693,10 +5810,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B245" t="s">
-        <v>346</v>
+        <v>44</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5704,10 +5821,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B246" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5715,10 +5832,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B247" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5726,10 +5843,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B248" t="s">
-        <v>352</v>
+        <v>18</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5740,7 +5857,7 @@
         <v>353</v>
       </c>
       <c r="B249" t="s">
-        <v>348</v>
+        <v>4</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5751,7 +5868,7 @@
         <v>354</v>
       </c>
       <c r="B250" t="s">
-        <v>355</v>
+        <v>14</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5759,10 +5876,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B251" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5770,10 +5887,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B252" t="s">
-        <v>359</v>
+        <v>10</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5781,10 +5898,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B253" t="s">
-        <v>361</v>
+        <v>81</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5792,10 +5909,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B254" t="s">
-        <v>357</v>
+        <v>46</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5803,10 +5920,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="B255" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5814,10 +5931,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="B256" t="s">
-        <v>365</v>
+        <v>44</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5825,10 +5942,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="B257" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5836,10 +5953,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B258" t="s">
-        <v>369</v>
+        <v>44</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5847,10 +5964,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B259" t="s">
-        <v>371</v>
+        <v>16</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5858,10 +5975,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="B260" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5869,10 +5986,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="B261" t="s">
-        <v>359</v>
+        <v>20</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5880,10 +5997,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B262" t="s">
-        <v>376</v>
+        <v>351</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -5891,10 +6008,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="B263" t="s">
-        <v>378</v>
+        <v>20</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -5902,10 +6019,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="B264" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -5913,10 +6030,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="B265" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -5924,10 +6041,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="B266" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -5935,10 +6052,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="B267" t="s">
-        <v>369</v>
+        <v>36</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -5946,10 +6063,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="B268" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -5957,10 +6074,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="B269" t="s">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -5968,10 +6085,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="B270" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -5979,10 +6096,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="B271" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -5990,10 +6107,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="B272" t="s">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -6001,10 +6118,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="B273" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -6012,10 +6129,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="B274" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -6023,10 +6140,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="B275" t="s">
-        <v>371</v>
+        <v>390</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -6034,10 +6151,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B276" t="s">
-        <v>384</v>
+        <v>392</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -6045,10 +6162,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="B277" t="s">
-        <v>401</v>
+        <v>388</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -6056,10 +6173,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B278" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -6067,10 +6184,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B279" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -6078,10 +6195,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="B280" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -6089,10 +6206,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="B281" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -6100,10 +6217,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B282" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -6111,10 +6228,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="B283" t="s">
-        <v>396</v>
+        <v>401</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -6122,10 +6239,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="B284" t="s">
-        <v>390</v>
+        <v>405</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -6133,10 +6250,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B285" t="s">
-        <v>396</v>
+        <v>407</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -6144,10 +6261,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="B286" t="s">
-        <v>365</v>
+        <v>409</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -6155,10 +6272,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B287" t="s">
-        <v>348</v>
+        <v>411</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -6166,10 +6283,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B288" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -6177,10 +6294,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B289" t="s">
-        <v>418</v>
+        <v>399</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -6188,10 +6305,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="B290" t="s">
-        <v>350</v>
+        <v>416</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -6199,10 +6316,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B291" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -6210,10 +6327,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B292" t="s">
-        <v>338</v>
+        <v>420</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -6221,10 +6338,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B293" t="s">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -6232,10 +6349,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
+        <v>423</v>
+      </c>
+      <c r="B294" t="s">
         <v>424</v>
-      </c>
-      <c r="B294" t="s">
-        <v>425</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -6243,10 +6360,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B295" t="s">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -6254,10 +6371,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B296" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -6265,10 +6382,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B297" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -6276,10 +6393,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
+        <v>429</v>
+      </c>
+      <c r="B298" t="s">
         <v>430</v>
-      </c>
-      <c r="B298" t="s">
-        <v>431</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -6287,10 +6404,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
+        <v>431</v>
+      </c>
+      <c r="B299" t="s">
         <v>432</v>
-      </c>
-      <c r="B299" t="s">
-        <v>396</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -6323,7 +6440,7 @@
         <v>437</v>
       </c>
       <c r="B302" t="s">
-        <v>365</v>
+        <v>424</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -6334,7 +6451,7 @@
         <v>438</v>
       </c>
       <c r="B303" t="s">
-        <v>365</v>
+        <v>411</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -6345,7 +6462,7 @@
         <v>439</v>
       </c>
       <c r="B304" t="s">
-        <v>357</v>
+        <v>424</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -6356,7 +6473,7 @@
         <v>440</v>
       </c>
       <c r="B305" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -6364,10 +6481,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
+        <v>442</v>
+      </c>
+      <c r="B306" t="s">
         <v>441</v>
-      </c>
-      <c r="B306" t="s">
-        <v>442</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -6378,7 +6495,7 @@
         <v>443</v>
       </c>
       <c r="B307" t="s">
-        <v>348</v>
+        <v>444</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -6386,10 +6503,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B308" t="s">
-        <v>355</v>
+        <v>446</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -6397,10 +6514,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="B309" t="s">
-        <v>355</v>
+        <v>448</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -6408,10 +6525,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="B310" t="s">
-        <v>447</v>
+        <v>409</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -6419,10 +6536,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B311" t="s">
-        <v>449</v>
+        <v>436</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -6430,10 +6547,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="B312" t="s">
-        <v>447</v>
+        <v>430</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -6441,10 +6558,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B313" t="s">
-        <v>416</v>
+        <v>436</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -6452,10 +6569,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="B314" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -6463,10 +6580,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B315" t="s">
-        <v>338</v>
+        <v>388</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -6474,10 +6591,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B316" t="s">
-        <v>346</v>
+        <v>456</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6485,10 +6602,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B317" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6496,10 +6613,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B318" t="s">
-        <v>447</v>
+        <v>390</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6507,10 +6624,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B319" t="s">
-        <v>355</v>
+        <v>461</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6518,10 +6635,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="B320" t="s">
-        <v>343</v>
+        <v>378</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6529,10 +6646,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="B321" t="s">
-        <v>421</v>
+        <v>388</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6540,10 +6657,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="B322" t="s">
-        <v>416</v>
+        <v>465</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6551,10 +6668,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B323" t="s">
-        <v>348</v>
+        <v>467</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6562,10 +6679,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="B324" t="s">
-        <v>343</v>
+        <v>436</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6573,10 +6690,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>464</v>
+        <v>469</v>
       </c>
       <c r="B325" t="s">
-        <v>359</v>
+        <v>424</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6584,10 +6701,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>465</v>
+        <v>470</v>
       </c>
       <c r="B326" t="s">
-        <v>355</v>
+        <v>471</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6595,10 +6712,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B327" t="s">
-        <v>427</v>
+        <v>436</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6606,10 +6723,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="B328" t="s">
-        <v>343</v>
+        <v>474</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6617,10 +6734,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B329" t="s">
-        <v>359</v>
+        <v>476</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6628,10 +6745,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>469</v>
+        <v>477</v>
       </c>
       <c r="B330" t="s">
-        <v>361</v>
+        <v>405</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6639,10 +6756,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B331" t="s">
-        <v>456</v>
+        <v>405</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6650,10 +6767,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>471</v>
+        <v>479</v>
       </c>
       <c r="B332" t="s">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6661,10 +6778,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B333" t="s">
-        <v>350</v>
+        <v>418</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6672,10 +6789,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>473</v>
+        <v>481</v>
       </c>
       <c r="B334" t="s">
-        <v>346</v>
+        <v>482</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6683,10 +6800,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>474</v>
+        <v>483</v>
       </c>
       <c r="B335" t="s">
-        <v>355</v>
+        <v>388</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6694,10 +6811,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="B336" t="s">
-        <v>447</v>
+        <v>395</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6705,10 +6822,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>476</v>
+        <v>485</v>
       </c>
       <c r="B337" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6716,10 +6833,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>477</v>
+        <v>486</v>
       </c>
       <c r="B338" t="s">
-        <v>478</v>
+        <v>487</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6727,10 +6844,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="B339" t="s">
-        <v>392</v>
+        <v>489</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6738,10 +6855,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="B340" t="s">
-        <v>369</v>
+        <v>487</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6749,10 +6866,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="B341" t="s">
-        <v>390</v>
+        <v>456</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6760,10 +6877,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B342" t="s">
-        <v>384</v>
+        <v>456</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6771,10 +6888,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="B343" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6782,10 +6899,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="B344" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6793,10 +6910,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="B345" t="s">
-        <v>380</v>
+        <v>496</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6804,10 +6921,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>486</v>
+        <v>497</v>
       </c>
       <c r="B346" t="s">
-        <v>373</v>
+        <v>487</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6815,10 +6932,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>487</v>
+        <v>498</v>
       </c>
       <c r="B347" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6826,10 +6943,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>488</v>
+        <v>499</v>
       </c>
       <c r="B348" t="s">
-        <v>442</v>
+        <v>383</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6837,10 +6954,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="B349" t="s">
-        <v>373</v>
+        <v>461</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6848,10 +6965,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>490</v>
+        <v>501</v>
       </c>
       <c r="B350" t="s">
-        <v>384</v>
+        <v>456</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6859,10 +6976,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>491</v>
+        <v>502</v>
       </c>
       <c r="B351" t="s">
-        <v>492</v>
+        <v>388</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6870,10 +6987,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="B352" t="s">
-        <v>478</v>
+        <v>383</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6881,10 +6998,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B353" t="s">
-        <v>495</v>
+        <v>399</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -6892,10 +7009,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B354" t="s">
-        <v>497</v>
+        <v>395</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -6903,10 +7020,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="B355" t="s">
-        <v>406</v>
+        <v>467</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -6914,10 +7031,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B356" t="s">
-        <v>500</v>
+        <v>383</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -6925,10 +7042,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>501</v>
+        <v>508</v>
       </c>
       <c r="B357" t="s">
-        <v>502</v>
+        <v>399</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -6936,10 +7053,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B358" t="s">
-        <v>504</v>
+        <v>401</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -6947,10 +7064,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="B359" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -6958,10 +7075,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B360" t="s">
-        <v>508</v>
+        <v>456</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -6969,10 +7086,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="B361" t="s">
-        <v>431</v>
+        <v>390</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -6980,10 +7097,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B362" t="s">
-        <v>492</v>
+        <v>386</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -6991,10 +7108,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B363" t="s">
-        <v>434</v>
+        <v>395</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -7002,10 +7119,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B364" t="s">
-        <v>513</v>
+        <v>487</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -7013,10 +7130,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B365" t="s">
-        <v>513</v>
+        <v>474</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -7024,10 +7141,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B366" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -7035,10 +7152,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B367" t="s">
-        <v>373</v>
+        <v>432</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -7046,10 +7163,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B368" t="s">
-        <v>390</v>
+        <v>409</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -7057,10 +7174,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B369" t="s">
-        <v>371</v>
+        <v>430</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -7068,10 +7185,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B370" t="s">
-        <v>371</v>
+        <v>424</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -7079,10 +7196,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B371" t="s">
-        <v>384</v>
+        <v>422</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -7090,10 +7207,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B372" t="s">
-        <v>390</v>
+        <v>430</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -7101,10 +7218,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B373" t="s">
-        <v>384</v>
+        <v>420</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -7112,10 +7229,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B374" t="s">
-        <v>506</v>
+        <v>413</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -7123,10 +7240,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B375" t="s">
-        <v>508</v>
+        <v>407</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -7134,10 +7251,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B376" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -7145,10 +7262,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B377" t="s">
-        <v>513</v>
+        <v>413</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -7156,10 +7273,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B378" t="s">
-        <v>513</v>
+        <v>424</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -7167,10 +7284,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B379" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -7178,10 +7295,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B380" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -7189,10 +7306,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B381" t="s">
-        <v>380</v>
+        <v>535</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -7200,10 +7317,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B382" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -7211,10 +7328,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B383" t="s">
-        <v>401</v>
+        <v>446</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -7222,10 +7339,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B384" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -7233,10 +7350,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B385" t="s">
-        <v>408</v>
+        <v>542</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -7244,10 +7361,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>538</v>
+        <v>543</v>
       </c>
       <c r="B386" t="s">
-        <v>401</v>
+        <v>544</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -7255,10 +7372,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B387" t="s">
-        <v>502</v>
+        <v>546</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -7266,10 +7383,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>540</v>
+        <v>547</v>
       </c>
       <c r="B388" t="s">
-        <v>506</v>
+        <v>548</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -7277,10 +7394,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="B389" t="s">
-        <v>513</v>
+        <v>471</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -7288,10 +7405,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
       <c r="B390" t="s">
-        <v>382</v>
+        <v>532</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -7299,10 +7416,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B391" t="s">
-        <v>382</v>
+        <v>474</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -7310,10 +7427,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>544</v>
+        <v>552</v>
       </c>
       <c r="B392" t="s">
-        <v>434</v>
+        <v>553</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -7321,10 +7438,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>545</v>
+        <v>554</v>
       </c>
       <c r="B393" t="s">
-        <v>516</v>
+        <v>553</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -7332,10 +7449,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>546</v>
+        <v>555</v>
       </c>
       <c r="B394" t="s">
-        <v>387</v>
+        <v>556</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -7343,10 +7460,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
       <c r="B395" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -7354,10 +7471,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
       <c r="B396" t="s">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -7365,10 +7482,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
       <c r="B397" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -7376,10 +7493,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
       <c r="B398" t="s">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -7387,10 +7504,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
       <c r="B399" t="s">
-        <v>384</v>
+        <v>424</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7398,10 +7515,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
       <c r="B400" t="s">
-        <v>516</v>
+        <v>430</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -7409,10 +7526,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="B401" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -7420,10 +7537,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
       <c r="B402" t="s">
-        <v>392</v>
+        <v>546</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -7431,10 +7548,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B403" t="s">
-        <v>384</v>
+        <v>548</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7442,10 +7559,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
       <c r="B404" t="s">
-        <v>390</v>
+        <v>532</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -7453,10 +7570,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="B405" t="s">
-        <v>380</v>
+        <v>553</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -7464,10 +7581,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
       <c r="B406" t="s">
-        <v>516</v>
+        <v>553</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7475,10 +7592,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="B407" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7486,10 +7603,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="B408" t="s">
-        <v>373</v>
+        <v>556</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7497,10 +7614,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
       <c r="B409" t="s">
-        <v>359</v>
+        <v>420</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7508,10 +7625,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="B410" t="s">
-        <v>376</v>
+        <v>573</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7519,10 +7636,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>563</v>
+        <v>574</v>
       </c>
       <c r="B411" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7530,10 +7647,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>564</v>
+        <v>575</v>
       </c>
       <c r="B412" t="s">
-        <v>390</v>
+        <v>576</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7541,10 +7658,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="B413" t="s">
-        <v>373</v>
+        <v>448</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7552,10 +7669,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="B414" t="s">
-        <v>378</v>
+        <v>441</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7563,10 +7680,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="B415" t="s">
-        <v>376</v>
+        <v>542</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7574,10 +7691,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="B416" t="s">
-        <v>367</v>
+        <v>546</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7585,10 +7702,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>569</v>
+        <v>581</v>
       </c>
       <c r="B417" t="s">
-        <v>371</v>
+        <v>553</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7596,10 +7713,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>570</v>
+        <v>582</v>
       </c>
       <c r="B418" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7607,10 +7724,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>571</v>
+        <v>583</v>
       </c>
       <c r="B419" t="s">
-        <v>387</v>
+        <v>422</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7618,10 +7735,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>572</v>
+        <v>584</v>
       </c>
       <c r="B420" t="s">
-        <v>492</v>
+        <v>474</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7629,10 +7746,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>573</v>
+        <v>585</v>
       </c>
       <c r="B421" t="s">
-        <v>506</v>
+        <v>556</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7640,10 +7757,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>574</v>
+        <v>586</v>
       </c>
       <c r="B422" t="s">
-        <v>575</v>
+        <v>427</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7651,10 +7768,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
       <c r="B423" t="s">
-        <v>536</v>
+        <v>422</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7662,10 +7779,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="B424" t="s">
-        <v>578</v>
+        <v>420</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7673,10 +7790,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
       <c r="B425" t="s">
-        <v>580</v>
+        <v>427</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7684,10 +7801,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>581</v>
+        <v>590</v>
       </c>
       <c r="B426" t="s">
-        <v>582</v>
+        <v>427</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7695,10 +7812,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="B427" t="s">
-        <v>584</v>
+        <v>424</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7706,10 +7823,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>585</v>
+        <v>592</v>
       </c>
       <c r="B428" t="s">
-        <v>586</v>
+        <v>556</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7717,10 +7834,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="B429" t="s">
-        <v>584</v>
+        <v>430</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7728,10 +7845,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="B430" t="s">
-        <v>589</v>
+        <v>432</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7739,10 +7856,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>590</v>
+        <v>595</v>
       </c>
       <c r="B431" t="s">
-        <v>591</v>
+        <v>424</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7750,10 +7867,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B432" t="s">
-        <v>584</v>
+        <v>430</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7761,10 +7878,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B433" t="s">
-        <v>594</v>
+        <v>420</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7772,10 +7889,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="B434" t="s">
-        <v>596</v>
+        <v>556</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7783,10 +7900,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B435" t="s">
-        <v>598</v>
+        <v>518</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7794,10 +7911,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B436" t="s">
-        <v>600</v>
+        <v>413</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7808,7 +7925,7 @@
         <v>601</v>
       </c>
       <c r="B437" t="s">
-        <v>602</v>
+        <v>399</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7816,10 +7933,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B438" t="s">
-        <v>596</v>
+        <v>416</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7827,10 +7944,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B439" t="s">
-        <v>605</v>
+        <v>427</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7838,10 +7955,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="B440" t="s">
-        <v>589</v>
+        <v>430</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7849,10 +7966,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B441" t="s">
-        <v>602</v>
+        <v>413</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7860,10 +7977,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="B442" t="s">
-        <v>609</v>
+        <v>418</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7871,10 +7988,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B443" t="s">
-        <v>586</v>
+        <v>416</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7882,10 +7999,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B444" t="s">
-        <v>612</v>
+        <v>407</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -7893,10 +8010,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B445" t="s">
-        <v>614</v>
+        <v>411</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -7904,10 +8021,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="B446" t="s">
-        <v>602</v>
+        <v>427</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -7915,10 +8032,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="B447" t="s">
-        <v>617</v>
+        <v>427</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -7926,10 +8043,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B448" t="s">
-        <v>619</v>
+        <v>532</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -7937,10 +8054,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="B449" t="s">
-        <v>584</v>
+        <v>546</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -7948,10 +8065,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="B450" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -7959,10 +8076,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B451" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -7970,10 +8087,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="B452" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -7981,10 +8098,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="B453" t="s">
-        <v>406</v>
+        <v>620</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -7992,10 +8109,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B454" t="s">
-        <v>497</v>
+        <v>622</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -8003,10 +8120,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="B455" t="s">
-        <v>612</v>
+        <v>624</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -8014,10 +8131,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="B456" t="s">
-        <v>404</v>
+        <v>626</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -8025,10 +8142,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B457" t="s">
-        <v>497</v>
+        <v>624</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -8036,10 +8153,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B458" t="s">
-        <v>575</v>
+        <v>629</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -8047,10 +8164,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B459" t="s">
-        <v>612</v>
+        <v>631</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -8058,10 +8175,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B460" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -8069,10 +8186,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B461" t="s">
-        <v>622</v>
+        <v>634</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -8080,10 +8197,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
+        <v>635</v>
+      </c>
+      <c r="B462" t="s">
         <v>636</v>
-      </c>
-      <c r="B462" t="s">
-        <v>504</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -8094,7 +8211,7 @@
         <v>637</v>
       </c>
       <c r="B463" t="s">
-        <v>612</v>
+        <v>638</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -8102,10 +8219,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B464" t="s">
-        <v>580</v>
+        <v>640</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -8113,10 +8230,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B465" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -8124,10 +8241,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B466" t="s">
-        <v>625</v>
+        <v>636</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -8135,10 +8252,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B467" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -8146,10 +8263,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B468" t="s">
-        <v>645</v>
+        <v>629</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -8157,10 +8274,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B469" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -8168,10 +8285,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="B470" t="s">
-        <v>580</v>
+        <v>649</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -8179,10 +8296,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B471" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -8190,10 +8307,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B472" t="s">
-        <v>643</v>
+        <v>652</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -8201,10 +8318,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="B473" t="s">
-        <v>634</v>
+        <v>654</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -8212,10 +8329,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B474" t="s">
-        <v>584</v>
+        <v>642</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -8223,10 +8340,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B475" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -8234,10 +8351,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="B476" t="s">
-        <v>643</v>
+        <v>659</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -8245,10 +8362,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="B477" t="s">
-        <v>586</v>
+        <v>624</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -8256,10 +8373,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="B478" t="s">
-        <v>582</v>
+        <v>662</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -8267,10 +8384,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="B479" t="s">
-        <v>643</v>
+        <v>626</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -8278,10 +8395,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
       <c r="B480" t="s">
-        <v>582</v>
+        <v>665</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -8289,10 +8406,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="B481" t="s">
-        <v>594</v>
+        <v>446</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -8300,10 +8417,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="B482" t="s">
-        <v>612</v>
+        <v>537</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -8311,10 +8428,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="B483" t="s">
-        <v>582</v>
+        <v>652</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -8322,10 +8439,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B484" t="s">
-        <v>662</v>
+        <v>444</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -8333,10 +8450,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>663</v>
+        <v>670</v>
       </c>
       <c r="B485" t="s">
-        <v>664</v>
+        <v>537</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -8344,10 +8461,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="B486" t="s">
-        <v>578</v>
+        <v>615</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -8355,10 +8472,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>666</v>
+        <v>672</v>
       </c>
       <c r="B487" t="s">
-        <v>404</v>
+        <v>652</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -8366,10 +8483,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>667</v>
+        <v>673</v>
       </c>
       <c r="B488" t="s">
-        <v>668</v>
+        <v>674</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -8377,10 +8494,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>669</v>
+        <v>675</v>
       </c>
       <c r="B489" t="s">
-        <v>578</v>
+        <v>662</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -8388,10 +8505,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>670</v>
+        <v>676</v>
       </c>
       <c r="B490" t="s">
-        <v>404</v>
+        <v>544</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -8399,10 +8516,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="B491" t="s">
-        <v>672</v>
+        <v>652</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -8410,10 +8527,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="B492" t="s">
-        <v>674</v>
+        <v>620</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -8421,10 +8538,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="B493" t="s">
-        <v>504</v>
+        <v>680</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -8432,10 +8549,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>676</v>
+        <v>681</v>
       </c>
       <c r="B494" t="s">
-        <v>404</v>
+        <v>665</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -8443,10 +8560,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B495" t="s">
-        <v>495</v>
+        <v>683</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -8454,10 +8571,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="B496" t="s">
-        <v>508</v>
+        <v>685</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -8465,10 +8582,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>679</v>
+        <v>686</v>
       </c>
       <c r="B497" t="s">
-        <v>373</v>
+        <v>680</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8476,10 +8593,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>680</v>
+        <v>687</v>
       </c>
       <c r="B498" t="s">
-        <v>434</v>
+        <v>620</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8487,10 +8604,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="B499" t="s">
-        <v>373</v>
+        <v>674</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8498,10 +8615,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>682</v>
+        <v>689</v>
       </c>
       <c r="B500" t="s">
-        <v>371</v>
+        <v>683</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8509,10 +8626,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>683</v>
+        <v>690</v>
       </c>
       <c r="B501" t="s">
-        <v>373</v>
+        <v>674</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8520,10 +8637,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>684</v>
+        <v>691</v>
       </c>
       <c r="B502" t="s">
-        <v>516</v>
+        <v>624</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8531,10 +8648,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>685</v>
+        <v>692</v>
       </c>
       <c r="B503" t="s">
-        <v>371</v>
+        <v>665</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8542,10 +8659,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>686</v>
+        <v>693</v>
       </c>
       <c r="B504" t="s">
-        <v>390</v>
+        <v>683</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8553,10 +8670,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>687</v>
+        <v>694</v>
       </c>
       <c r="B505" t="s">
-        <v>365</v>
+        <v>626</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8564,10 +8681,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>688</v>
+        <v>695</v>
       </c>
       <c r="B506" t="s">
-        <v>442</v>
+        <v>622</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8575,10 +8692,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>689</v>
+        <v>696</v>
       </c>
       <c r="B507" t="s">
-        <v>425</v>
+        <v>683</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8586,10 +8703,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="B508" t="s">
-        <v>390</v>
+        <v>622</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8597,10 +8714,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>691</v>
+        <v>698</v>
       </c>
       <c r="B509" t="s">
-        <v>396</v>
+        <v>634</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8608,10 +8725,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>692</v>
+        <v>699</v>
       </c>
       <c r="B510" t="s">
-        <v>378</v>
+        <v>652</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8619,10 +8736,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>693</v>
+        <v>700</v>
       </c>
       <c r="B511" t="s">
-        <v>382</v>
+        <v>622</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8630,10 +8747,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="B512" t="s">
-        <v>373</v>
+        <v>702</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8641,10 +8758,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>695</v>
+        <v>703</v>
       </c>
       <c r="B513" t="s">
-        <v>380</v>
+        <v>704</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8652,10 +8769,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>696</v>
+        <v>705</v>
       </c>
       <c r="B514" t="s">
-        <v>508</v>
+        <v>618</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8663,10 +8780,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>697</v>
+        <v>706</v>
       </c>
       <c r="B515" t="s">
-        <v>513</v>
+        <v>444</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8674,10 +8791,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>698</v>
+        <v>707</v>
       </c>
       <c r="B516" t="s">
-        <v>699</v>
+        <v>708</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8685,10 +8802,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>700</v>
+        <v>709</v>
       </c>
       <c r="B517" t="s">
-        <v>408</v>
+        <v>618</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8696,10 +8813,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>701</v>
+        <v>710</v>
       </c>
       <c r="B518" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8707,10 +8824,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>702</v>
+        <v>711</v>
       </c>
       <c r="B519" t="s">
-        <v>513</v>
+        <v>712</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8718,10 +8835,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>703</v>
+        <v>713</v>
       </c>
       <c r="B520" t="s">
-        <v>387</v>
+        <v>714</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8729,10 +8846,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>704</v>
+        <v>715</v>
       </c>
       <c r="B521" t="s">
-        <v>394</v>
+        <v>544</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8740,10 +8857,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>705</v>
+        <v>716</v>
       </c>
       <c r="B522" t="s">
-        <v>506</v>
+        <v>444</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8751,10 +8868,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>706</v>
+        <v>717</v>
       </c>
       <c r="B523" t="s">
-        <v>392</v>
+        <v>535</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8762,10 +8879,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>707</v>
+        <v>718</v>
       </c>
       <c r="B524" t="s">
-        <v>495</v>
+        <v>548</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8773,10 +8890,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>708</v>
+        <v>719</v>
       </c>
       <c r="B525" t="s">
-        <v>674</v>
+        <v>413</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8784,10 +8901,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>709</v>
+        <v>720</v>
       </c>
       <c r="B526" t="s">
-        <v>408</v>
+        <v>474</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8795,10 +8912,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>710</v>
+        <v>721</v>
       </c>
       <c r="B527" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8806,10 +8923,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="B528" t="s">
-        <v>492</v>
+        <v>411</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8817,10 +8934,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="B529" t="s">
-        <v>492</v>
+        <v>413</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -8828,10 +8945,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="B530" t="s">
-        <v>387</v>
+        <v>556</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -8839,10 +8956,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="B531" t="s">
-        <v>500</v>
+        <v>411</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -8850,10 +8967,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="B532" t="s">
-        <v>506</v>
+        <v>430</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -8861,10 +8978,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
       <c r="B533" t="s">
-        <v>495</v>
+        <v>405</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -8872,10 +8989,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="B534" t="s">
-        <v>622</v>
+        <v>482</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -8883,10 +9000,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="B535" t="s">
-        <v>591</v>
+        <v>465</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -8894,10 +9011,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="B536" t="s">
-        <v>594</v>
+        <v>430</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -8905,10 +9022,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>720</v>
+        <v>731</v>
       </c>
       <c r="B537" t="s">
-        <v>634</v>
+        <v>436</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -8916,10 +9033,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="B538" t="s">
-        <v>584</v>
+        <v>418</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -8927,10 +9044,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>722</v>
+        <v>733</v>
       </c>
       <c r="B539" t="s">
-        <v>589</v>
+        <v>422</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -8938,10 +9055,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>723</v>
+        <v>734</v>
       </c>
       <c r="B540" t="s">
-        <v>614</v>
+        <v>413</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -8949,10 +9066,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>724</v>
+        <v>735</v>
       </c>
       <c r="B541" t="s">
-        <v>589</v>
+        <v>420</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -8960,10 +9077,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>725</v>
+        <v>736</v>
       </c>
       <c r="B542" t="s">
-        <v>600</v>
+        <v>548</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -8971,10 +9088,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>726</v>
+        <v>737</v>
       </c>
       <c r="B543" t="s">
-        <v>727</v>
+        <v>553</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -8982,10 +9099,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>728</v>
+        <v>738</v>
       </c>
       <c r="B544" t="s">
-        <v>596</v>
+        <v>739</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -8993,10 +9110,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>729</v>
+        <v>740</v>
       </c>
       <c r="B545" t="s">
-        <v>640</v>
+        <v>448</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -9004,10 +9121,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>730</v>
+        <v>741</v>
       </c>
       <c r="B546" t="s">
-        <v>668</v>
+        <v>518</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -9015,10 +9132,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>731</v>
+        <v>742</v>
       </c>
       <c r="B547" t="s">
-        <v>612</v>
+        <v>553</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -9026,10 +9143,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>732</v>
+        <v>743</v>
       </c>
       <c r="B548" t="s">
-        <v>602</v>
+        <v>427</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -9037,10 +9154,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>733</v>
+        <v>744</v>
       </c>
       <c r="B549" t="s">
-        <v>734</v>
+        <v>434</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -9048,10 +9165,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>735</v>
+        <v>745</v>
       </c>
       <c r="B550" t="s">
-        <v>736</v>
+        <v>546</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -9059,10 +9176,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>737</v>
+        <v>746</v>
       </c>
       <c r="B551" t="s">
-        <v>738</v>
+        <v>432</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -9070,10 +9187,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>739</v>
+        <v>747</v>
       </c>
       <c r="B552" t="s">
-        <v>740</v>
+        <v>535</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -9081,10 +9198,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>741</v>
+        <v>748</v>
       </c>
       <c r="B553" t="s">
-        <v>742</v>
+        <v>714</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -9092,10 +9209,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>743</v>
+        <v>749</v>
       </c>
       <c r="B554" t="s">
-        <v>744</v>
+        <v>448</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -9103,10 +9220,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="B555" t="s">
-        <v>746</v>
+        <v>448</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -9114,10 +9231,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>747</v>
+        <v>751</v>
       </c>
       <c r="B556" t="s">
-        <v>748</v>
+        <v>532</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -9125,10 +9242,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B557" t="s">
-        <v>750</v>
+        <v>532</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -9136,10 +9253,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
       <c r="B558" t="s">
-        <v>591</v>
+        <v>427</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -9147,10 +9264,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B559" t="s">
-        <v>594</v>
+        <v>540</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -9158,10 +9275,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B560" t="s">
-        <v>584</v>
+        <v>546</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -9169,10 +9286,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B561" t="s">
-        <v>617</v>
+        <v>535</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -9180,10 +9297,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B562" t="s">
-        <v>609</v>
+        <v>662</v>
       </c>
       <c r="C562" t="s">
         <v>5</v>
@@ -9191,10 +9308,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B563" t="s">
-        <v>575</v>
+        <v>631</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -9202,10 +9319,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B564" t="s">
-        <v>500</v>
+        <v>634</v>
       </c>
       <c r="C564" t="s">
         <v>5</v>
@@ -9213,10 +9330,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B565" t="s">
-        <v>759</v>
+        <v>674</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -9224,10 +9341,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B566" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -9235,10 +9352,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B567" t="s">
-        <v>596</v>
+        <v>629</v>
       </c>
       <c r="C567" t="s">
         <v>5</v>
@@ -9246,10 +9363,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B568" t="s">
-        <v>589</v>
+        <v>654</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -9257,10 +9374,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B569" t="s">
-        <v>764</v>
+        <v>629</v>
       </c>
       <c r="C569" t="s">
         <v>5</v>
@@ -9271,7 +9388,7 @@
         <v>765</v>
       </c>
       <c r="B570" t="s">
-        <v>617</v>
+        <v>640</v>
       </c>
       <c r="C570" t="s">
         <v>5</v>
@@ -9293,7 +9410,7 @@
         <v>768</v>
       </c>
       <c r="B572" t="s">
-        <v>609</v>
+        <v>636</v>
       </c>
       <c r="C572" t="s">
         <v>5</v>
@@ -9304,7 +9421,7 @@
         <v>769</v>
       </c>
       <c r="B573" t="s">
-        <v>770</v>
+        <v>680</v>
       </c>
       <c r="C573" t="s">
         <v>5</v>
@@ -9312,10 +9429,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B574" t="s">
-        <v>614</v>
+        <v>708</v>
       </c>
       <c r="C574" t="s">
         <v>5</v>
@@ -9323,10 +9440,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="B575" t="s">
-        <v>500</v>
+        <v>652</v>
       </c>
       <c r="C575" t="s">
         <v>5</v>
@@ -9334,10 +9451,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B576" t="s">
-        <v>578</v>
+        <v>642</v>
       </c>
       <c r="C576" t="s">
         <v>5</v>
@@ -9345,10 +9462,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
+        <v>773</v>
+      </c>
+      <c r="B577" t="s">
         <v>774</v>
-      </c>
-      <c r="B577" t="s">
-        <v>625</v>
       </c>
       <c r="C577" t="s">
         <v>5</v>
@@ -9370,7 +9487,7 @@
         <v>777</v>
       </c>
       <c r="B579" t="s">
-        <v>495</v>
+        <v>778</v>
       </c>
       <c r="C579" t="s">
         <v>5</v>
@@ -9378,10 +9495,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B580" t="s">
-        <v>674</v>
+        <v>780</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
@@ -9389,10 +9506,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B581" t="s">
-        <v>506</v>
+        <v>782</v>
       </c>
       <c r="C581" t="s">
         <v>5</v>
@@ -9400,10 +9517,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B582" t="s">
-        <v>478</v>
+        <v>784</v>
       </c>
       <c r="C582" t="s">
         <v>5</v>
@@ -9411,10 +9528,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>781</v>
+        <v>785</v>
       </c>
       <c r="B583" t="s">
-        <v>478</v>
+        <v>786</v>
       </c>
       <c r="C583" t="s">
         <v>5</v>
@@ -9422,10 +9539,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="B584" t="s">
-        <v>495</v>
+        <v>788</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
@@ -9433,10 +9550,10 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>783</v>
+        <v>789</v>
       </c>
       <c r="B585" t="s">
-        <v>404</v>
+        <v>790</v>
       </c>
       <c r="C585" t="s">
         <v>5</v>
@@ -9444,10 +9561,10 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>784</v>
+        <v>791</v>
       </c>
       <c r="B586" t="s">
-        <v>408</v>
+        <v>631</v>
       </c>
       <c r="C586" t="s">
         <v>5</v>
@@ -9455,10 +9572,10 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>785</v>
+        <v>792</v>
       </c>
       <c r="B587" t="s">
-        <v>776</v>
+        <v>634</v>
       </c>
       <c r="C587" t="s">
         <v>5</v>
@@ -9466,10 +9583,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>786</v>
+        <v>793</v>
       </c>
       <c r="B588" t="s">
-        <v>674</v>
+        <v>624</v>
       </c>
       <c r="C588" t="s">
         <v>5</v>
@@ -9477,10 +9594,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>787</v>
+        <v>794</v>
       </c>
       <c r="B589" t="s">
-        <v>502</v>
+        <v>657</v>
       </c>
       <c r="C589" t="s">
         <v>5</v>
@@ -9488,10 +9605,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>788</v>
+        <v>795</v>
       </c>
       <c r="B590" t="s">
-        <v>495</v>
+        <v>649</v>
       </c>
       <c r="C590" t="s">
         <v>5</v>
@@ -9499,10 +9616,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>789</v>
+        <v>796</v>
       </c>
       <c r="B591" t="s">
-        <v>408</v>
+        <v>615</v>
       </c>
       <c r="C591" t="s">
         <v>5</v>
@@ -9510,10 +9627,10 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>790</v>
+        <v>797</v>
       </c>
       <c r="B592" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="C592" t="s">
         <v>5</v>
@@ -9521,10 +9638,10 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>791</v>
+        <v>798</v>
       </c>
       <c r="B593" t="s">
-        <v>387</v>
+        <v>799</v>
       </c>
       <c r="C593" t="s">
         <v>5</v>
@@ -9532,10 +9649,10 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>792</v>
+        <v>800</v>
       </c>
       <c r="B594" t="s">
-        <v>371</v>
+        <v>654</v>
       </c>
       <c r="C594" t="s">
         <v>5</v>
@@ -9543,10 +9660,10 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>793</v>
+        <v>801</v>
       </c>
       <c r="B595" t="s">
-        <v>387</v>
+        <v>636</v>
       </c>
       <c r="C595" t="s">
         <v>5</v>
@@ -9554,10 +9671,10 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>794</v>
+        <v>802</v>
       </c>
       <c r="B596" t="s">
-        <v>699</v>
+        <v>629</v>
       </c>
       <c r="C596" t="s">
         <v>5</v>
@@ -9565,10 +9682,10 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>795</v>
+        <v>803</v>
       </c>
       <c r="B597" t="s">
-        <v>408</v>
+        <v>804</v>
       </c>
       <c r="C597" t="s">
         <v>5</v>
@@ -9576,10 +9693,10 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>796</v>
+        <v>805</v>
       </c>
       <c r="B598" t="s">
-        <v>502</v>
+        <v>657</v>
       </c>
       <c r="C598" t="s">
         <v>5</v>
@@ -9587,10 +9704,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>797</v>
+        <v>806</v>
       </c>
       <c r="B599" t="s">
-        <v>392</v>
+        <v>807</v>
       </c>
       <c r="C599" t="s">
         <v>5</v>
@@ -9598,10 +9715,10 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
       <c r="B600" t="s">
-        <v>500</v>
+        <v>649</v>
       </c>
       <c r="C600" t="s">
         <v>5</v>
@@ -9609,10 +9726,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
       <c r="B601" t="s">
-        <v>699</v>
+        <v>810</v>
       </c>
       <c r="C601" t="s">
         <v>5</v>
@@ -9620,10 +9737,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B602" t="s">
-        <v>759</v>
+        <v>654</v>
       </c>
       <c r="C602" t="s">
         <v>5</v>
@@ -9631,10 +9748,10 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>801</v>
+        <v>812</v>
       </c>
       <c r="B603" t="s">
-        <v>478</v>
+        <v>540</v>
       </c>
       <c r="C603" t="s">
         <v>5</v>
@@ -9642,10 +9759,10 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>802</v>
+        <v>813</v>
       </c>
       <c r="B604" t="s">
-        <v>662</v>
+        <v>618</v>
       </c>
       <c r="C604" t="s">
         <v>5</v>
@@ -9653,10 +9770,10 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>803</v>
+        <v>814</v>
       </c>
       <c r="B605" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C605" t="s">
         <v>5</v>
@@ -9664,10 +9781,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>804</v>
+        <v>815</v>
       </c>
       <c r="B606" t="s">
-        <v>404</v>
+        <v>816</v>
       </c>
       <c r="C606" t="s">
         <v>5</v>
@@ -9675,10 +9792,10 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="B607" t="s">
-        <v>506</v>
+        <v>535</v>
       </c>
       <c r="C607" t="s">
         <v>5</v>
@@ -9686,10 +9803,10 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>806</v>
+        <v>818</v>
       </c>
       <c r="B608" t="s">
-        <v>699</v>
+        <v>714</v>
       </c>
       <c r="C608" t="s">
         <v>5</v>
@@ -9697,10 +9814,10 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>807</v>
+        <v>819</v>
       </c>
       <c r="B609" t="s">
-        <v>408</v>
+        <v>546</v>
       </c>
       <c r="C609" t="s">
         <v>5</v>
@@ -9708,10 +9825,10 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>808</v>
+        <v>820</v>
       </c>
       <c r="B610" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
       <c r="C610" t="s">
         <v>5</v>
@@ -9719,10 +9836,10 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>809</v>
+        <v>821</v>
       </c>
       <c r="B611" t="s">
-        <v>406</v>
+        <v>518</v>
       </c>
       <c r="C611" t="s">
         <v>5</v>
@@ -9730,10 +9847,10 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>810</v>
+        <v>822</v>
       </c>
       <c r="B612" t="s">
-        <v>575</v>
+        <v>535</v>
       </c>
       <c r="C612" t="s">
         <v>5</v>
@@ -9741,10 +9858,10 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>811</v>
+        <v>823</v>
       </c>
       <c r="B613" t="s">
-        <v>643</v>
+        <v>444</v>
       </c>
       <c r="C613" t="s">
         <v>5</v>
@@ -9752,10 +9869,10 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>812</v>
+        <v>824</v>
       </c>
       <c r="B614" t="s">
-        <v>625</v>
+        <v>448</v>
       </c>
       <c r="C614" t="s">
         <v>5</v>
@@ -9763,10 +9880,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>813</v>
+        <v>825</v>
       </c>
       <c r="B615" t="s">
-        <v>770</v>
+        <v>816</v>
       </c>
       <c r="C615" t="s">
         <v>5</v>
@@ -9774,10 +9891,10 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>814</v>
+        <v>826</v>
       </c>
       <c r="B616" t="s">
-        <v>668</v>
+        <v>714</v>
       </c>
       <c r="C616" t="s">
         <v>5</v>
@@ -9785,10 +9902,10 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
       <c r="B617" t="s">
-        <v>612</v>
+        <v>542</v>
       </c>
       <c r="C617" t="s">
         <v>5</v>
@@ -9796,10 +9913,10 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>816</v>
+        <v>828</v>
       </c>
       <c r="B618" t="s">
-        <v>817</v>
+        <v>535</v>
       </c>
       <c r="C618" t="s">
         <v>5</v>
@@ -9807,10 +9924,10 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>818</v>
+        <v>829</v>
       </c>
       <c r="B619" t="s">
-        <v>819</v>
+        <v>448</v>
       </c>
       <c r="C619" t="s">
         <v>5</v>
@@ -9818,10 +9935,10 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B620" t="s">
-        <v>821</v>
+        <v>546</v>
       </c>
       <c r="C620" t="s">
         <v>5</v>
@@ -9829,10 +9946,10 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>822</v>
+        <v>831</v>
       </c>
       <c r="B621" t="s">
-        <v>823</v>
+        <v>427</v>
       </c>
       <c r="C621" t="s">
         <v>5</v>
@@ -9840,10 +9957,10 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>824</v>
+        <v>832</v>
       </c>
       <c r="B622" t="s">
-        <v>825</v>
+        <v>411</v>
       </c>
       <c r="C622" t="s">
         <v>5</v>
@@ -9851,10 +9968,10 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>826</v>
+        <v>833</v>
       </c>
       <c r="B623" t="s">
-        <v>827</v>
+        <v>427</v>
       </c>
       <c r="C623" t="s">
         <v>5</v>
@@ -9862,10 +9979,10 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>828</v>
+        <v>834</v>
       </c>
       <c r="B624" t="s">
-        <v>829</v>
+        <v>739</v>
       </c>
       <c r="C624" t="s">
         <v>5</v>
@@ -9873,10 +9990,10 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>830</v>
+        <v>835</v>
       </c>
       <c r="B625" t="s">
-        <v>825</v>
+        <v>448</v>
       </c>
       <c r="C625" t="s">
         <v>5</v>
@@ -9884,10 +10001,10 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>831</v>
+        <v>836</v>
       </c>
       <c r="B626" t="s">
-        <v>832</v>
+        <v>542</v>
       </c>
       <c r="C626" t="s">
         <v>5</v>
@@ -9895,10 +10012,10 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>833</v>
+        <v>837</v>
       </c>
       <c r="B627" t="s">
-        <v>834</v>
+        <v>432</v>
       </c>
       <c r="C627" t="s">
         <v>5</v>
@@ -9906,10 +10023,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B628" t="s">
-        <v>836</v>
+        <v>540</v>
       </c>
       <c r="C628" t="s">
         <v>5</v>
@@ -9917,10 +10034,10 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="B629" t="s">
-        <v>770</v>
+        <v>739</v>
       </c>
       <c r="C629" t="s">
         <v>5</v>
@@ -9928,10 +10045,10 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="B630" t="s">
-        <v>640</v>
+        <v>799</v>
       </c>
       <c r="C630" t="s">
         <v>5</v>
@@ -9939,10 +10056,10 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="B631" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
       <c r="C631" t="s">
         <v>5</v>
@@ -9950,10 +10067,10 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="B632" t="s">
-        <v>594</v>
+        <v>702</v>
       </c>
       <c r="C632" t="s">
         <v>5</v>
@@ -9961,10 +10078,10 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="B633" t="s">
-        <v>582</v>
+        <v>704</v>
       </c>
       <c r="C633" t="s">
         <v>5</v>
@@ -9972,10 +10089,10 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="B634" t="s">
-        <v>617</v>
+        <v>444</v>
       </c>
       <c r="C634" t="s">
         <v>5</v>
@@ -9983,10 +10100,10 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="B635" t="s">
-        <v>586</v>
+        <v>546</v>
       </c>
       <c r="C635" t="s">
         <v>5</v>
@@ -9994,10 +10111,10 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="B636" t="s">
-        <v>668</v>
+        <v>739</v>
       </c>
       <c r="C636" t="s">
         <v>5</v>
@@ -10005,10 +10122,10 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="B637" t="s">
-        <v>664</v>
+        <v>448</v>
       </c>
       <c r="C637" t="s">
         <v>5</v>
@@ -10016,10 +10133,10 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="B638" t="s">
-        <v>584</v>
+        <v>540</v>
       </c>
       <c r="C638" t="s">
         <v>5</v>
@@ -10027,10 +10144,10 @@
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="B639" t="s">
-        <v>619</v>
+        <v>446</v>
       </c>
       <c r="C639" t="s">
         <v>5</v>
@@ -10038,10 +10155,10 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="B640" t="s">
-        <v>584</v>
+        <v>615</v>
       </c>
       <c r="C640" t="s">
         <v>5</v>
@@ -10049,10 +10166,10 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="B641" t="s">
-        <v>770</v>
+        <v>683</v>
       </c>
       <c r="C641" t="s">
         <v>5</v>
@@ -10060,10 +10177,10 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="B642" t="s">
-        <v>609</v>
+        <v>665</v>
       </c>
       <c r="C642" t="s">
         <v>5</v>
@@ -10071,10 +10188,10 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="B643" t="s">
-        <v>836</v>
+        <v>810</v>
       </c>
       <c r="C643" t="s">
         <v>5</v>
@@ -10082,10 +10199,10 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B644" t="s">
-        <v>836</v>
+        <v>708</v>
       </c>
       <c r="C644" t="s">
         <v>5</v>
@@ -10093,10 +10210,10 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B645" t="s">
-        <v>602</v>
+        <v>652</v>
       </c>
       <c r="C645" t="s">
         <v>5</v>
@@ -10104,10 +10221,10 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="B646" t="s">
-        <v>738</v>
+        <v>857</v>
       </c>
       <c r="C646" t="s">
         <v>5</v>
@@ -10115,10 +10232,10 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B647" t="s">
-        <v>817</v>
+        <v>859</v>
       </c>
       <c r="C647" t="s">
         <v>5</v>
@@ -10126,10 +10243,10 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="B648" t="s">
-        <v>857</v>
+        <v>861</v>
       </c>
       <c r="C648" t="s">
         <v>5</v>
@@ -10137,10 +10254,10 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="B649" t="s">
-        <v>836</v>
+        <v>863</v>
       </c>
       <c r="C649" t="s">
         <v>5</v>
@@ -10148,10 +10265,10 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>859</v>
+        <v>864</v>
       </c>
       <c r="B650" t="s">
-        <v>586</v>
+        <v>865</v>
       </c>
       <c r="C650" t="s">
         <v>5</v>
@@ -10159,10 +10276,10 @@
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>860</v>
+        <v>866</v>
       </c>
       <c r="B651" t="s">
-        <v>584</v>
+        <v>867</v>
       </c>
       <c r="C651" t="s">
         <v>5</v>
@@ -10170,10 +10287,10 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>861</v>
+        <v>868</v>
       </c>
       <c r="B652" t="s">
-        <v>668</v>
+        <v>869</v>
       </c>
       <c r="C652" t="s">
         <v>5</v>
@@ -10181,10 +10298,10 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>862</v>
+        <v>870</v>
       </c>
       <c r="B653" t="s">
-        <v>699</v>
+        <v>865</v>
       </c>
       <c r="C653" t="s">
         <v>5</v>
@@ -10192,10 +10309,10 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>863</v>
+        <v>871</v>
       </c>
       <c r="B654" t="s">
-        <v>776</v>
+        <v>872</v>
       </c>
       <c r="C654" t="s">
         <v>5</v>
@@ -10203,10 +10320,10 @@
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>864</v>
+        <v>873</v>
       </c>
       <c r="B655" t="s">
-        <v>387</v>
+        <v>874</v>
       </c>
       <c r="C655" t="s">
         <v>5</v>
@@ -10214,10 +10331,10 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>865</v>
+        <v>875</v>
       </c>
       <c r="B656" t="s">
-        <v>478</v>
+        <v>876</v>
       </c>
       <c r="C656" t="s">
         <v>5</v>
@@ -10225,10 +10342,10 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>866</v>
+        <v>877</v>
       </c>
       <c r="B657" t="s">
-        <v>495</v>
+        <v>810</v>
       </c>
       <c r="C657" t="s">
         <v>5</v>
@@ -10236,10 +10353,10 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>867</v>
+        <v>878</v>
       </c>
       <c r="B658" t="s">
-        <v>396</v>
+        <v>680</v>
       </c>
       <c r="C658" t="s">
         <v>5</v>
@@ -10247,10 +10364,10 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>868</v>
+        <v>879</v>
       </c>
       <c r="B659" t="s">
-        <v>516</v>
+        <v>634</v>
       </c>
       <c r="C659" t="s">
         <v>5</v>
@@ -10258,10 +10375,10 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>869</v>
+        <v>880</v>
       </c>
       <c r="B660" t="s">
-        <v>425</v>
+        <v>634</v>
       </c>
       <c r="C660" t="s">
         <v>5</v>
@@ -10269,10 +10386,10 @@
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>870</v>
+        <v>881</v>
       </c>
       <c r="B661" t="s">
-        <v>338</v>
+        <v>622</v>
       </c>
       <c r="C661" t="s">
         <v>5</v>
@@ -10280,10 +10397,10 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>871</v>
+        <v>882</v>
       </c>
       <c r="B662" t="s">
-        <v>346</v>
+        <v>657</v>
       </c>
       <c r="C662" t="s">
         <v>5</v>
@@ -10291,10 +10408,10 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>872</v>
+        <v>883</v>
       </c>
       <c r="B663" t="s">
-        <v>341</v>
+        <v>626</v>
       </c>
       <c r="C663" t="s">
         <v>5</v>
@@ -10302,10 +10419,10 @@
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>873</v>
+        <v>884</v>
       </c>
       <c r="B664" t="s">
-        <v>874</v>
+        <v>708</v>
       </c>
       <c r="C664" t="s">
         <v>5</v>
@@ -10313,10 +10430,10 @@
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>875</v>
+        <v>885</v>
       </c>
       <c r="B665" t="s">
-        <v>336</v>
+        <v>704</v>
       </c>
       <c r="C665" t="s">
         <v>5</v>
@@ -10324,10 +10441,10 @@
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="B666" t="s">
-        <v>421</v>
+        <v>624</v>
       </c>
       <c r="C666" t="s">
         <v>5</v>
@@ -10335,10 +10452,10 @@
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
       <c r="B667" t="s">
-        <v>878</v>
+        <v>659</v>
       </c>
       <c r="C667" t="s">
         <v>5</v>
@@ -10346,10 +10463,10 @@
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>879</v>
+        <v>888</v>
       </c>
       <c r="B668" t="s">
-        <v>880</v>
+        <v>624</v>
       </c>
       <c r="C668" t="s">
         <v>5</v>
@@ -10357,10 +10474,10 @@
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>881</v>
+        <v>889</v>
       </c>
       <c r="B669" t="s">
-        <v>880</v>
+        <v>810</v>
       </c>
       <c r="C669" t="s">
         <v>5</v>
@@ -10368,10 +10485,10 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>882</v>
+        <v>890</v>
       </c>
       <c r="B670" t="s">
-        <v>883</v>
+        <v>649</v>
       </c>
       <c r="C670" t="s">
         <v>5</v>
@@ -10379,10 +10496,10 @@
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>884</v>
+        <v>891</v>
       </c>
       <c r="B671" t="s">
-        <v>880</v>
+        <v>876</v>
       </c>
       <c r="C671" t="s">
         <v>5</v>
@@ -10390,10 +10507,10 @@
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>885</v>
+        <v>892</v>
       </c>
       <c r="B672" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="C672" t="s">
         <v>5</v>
@@ -10401,12 +10518,320 @@
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>887</v>
+        <v>893</v>
       </c>
       <c r="B673" t="s">
-        <v>886</v>
+        <v>642</v>
       </c>
       <c r="C673" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="674">
+      <c r="A674" t="s">
+        <v>894</v>
+      </c>
+      <c r="B674" t="s">
+        <v>778</v>
+      </c>
+      <c r="C674" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="675">
+      <c r="A675" t="s">
+        <v>895</v>
+      </c>
+      <c r="B675" t="s">
+        <v>857</v>
+      </c>
+      <c r="C675" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="676">
+      <c r="A676" t="s">
+        <v>896</v>
+      </c>
+      <c r="B676" t="s">
+        <v>897</v>
+      </c>
+      <c r="C676" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="677">
+      <c r="A677" t="s">
+        <v>898</v>
+      </c>
+      <c r="B677" t="s">
+        <v>876</v>
+      </c>
+      <c r="C677" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="678">
+      <c r="A678" t="s">
+        <v>899</v>
+      </c>
+      <c r="B678" t="s">
+        <v>626</v>
+      </c>
+      <c r="C678" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="679">
+      <c r="A679" t="s">
+        <v>900</v>
+      </c>
+      <c r="B679" t="s">
+        <v>624</v>
+      </c>
+      <c r="C679" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="680">
+      <c r="A680" t="s">
+        <v>901</v>
+      </c>
+      <c r="B680" t="s">
+        <v>708</v>
+      </c>
+      <c r="C680" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="681">
+      <c r="A681" t="s">
+        <v>902</v>
+      </c>
+      <c r="B681" t="s">
+        <v>739</v>
+      </c>
+      <c r="C681" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="682">
+      <c r="A682" t="s">
+        <v>903</v>
+      </c>
+      <c r="B682" t="s">
+        <v>816</v>
+      </c>
+      <c r="C682" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="683">
+      <c r="A683" t="s">
+        <v>904</v>
+      </c>
+      <c r="B683" t="s">
+        <v>427</v>
+      </c>
+      <c r="C683" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="684">
+      <c r="A684" t="s">
+        <v>905</v>
+      </c>
+      <c r="B684" t="s">
+        <v>518</v>
+      </c>
+      <c r="C684" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="685">
+      <c r="A685" t="s">
+        <v>906</v>
+      </c>
+      <c r="B685" t="s">
+        <v>535</v>
+      </c>
+      <c r="C685" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="686">
+      <c r="A686" t="s">
+        <v>907</v>
+      </c>
+      <c r="B686" t="s">
+        <v>436</v>
+      </c>
+      <c r="C686" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="687">
+      <c r="A687" t="s">
+        <v>908</v>
+      </c>
+      <c r="B687" t="s">
+        <v>556</v>
+      </c>
+      <c r="C687" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="688">
+      <c r="A688" t="s">
+        <v>909</v>
+      </c>
+      <c r="B688" t="s">
+        <v>465</v>
+      </c>
+      <c r="C688" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="689">
+      <c r="A689" t="s">
+        <v>910</v>
+      </c>
+      <c r="B689" t="s">
+        <v>378</v>
+      </c>
+      <c r="C689" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="690">
+      <c r="A690" t="s">
+        <v>911</v>
+      </c>
+      <c r="B690" t="s">
+        <v>386</v>
+      </c>
+      <c r="C690" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="691">
+      <c r="A691" t="s">
+        <v>912</v>
+      </c>
+      <c r="B691" t="s">
+        <v>381</v>
+      </c>
+      <c r="C691" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="692">
+      <c r="A692" t="s">
+        <v>913</v>
+      </c>
+      <c r="B692" t="s">
+        <v>914</v>
+      </c>
+      <c r="C692" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="693">
+      <c r="A693" t="s">
+        <v>915</v>
+      </c>
+      <c r="B693" t="s">
+        <v>36</v>
+      </c>
+      <c r="C693" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="694">
+      <c r="A694" t="s">
+        <v>916</v>
+      </c>
+      <c r="B694" t="s">
+        <v>461</v>
+      </c>
+      <c r="C694" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="695">
+      <c r="A695" t="s">
+        <v>917</v>
+      </c>
+      <c r="B695" t="s">
+        <v>918</v>
+      </c>
+      <c r="C695" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="696">
+      <c r="A696" t="s">
+        <v>919</v>
+      </c>
+      <c r="B696" t="s">
+        <v>920</v>
+      </c>
+      <c r="C696" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="697">
+      <c r="A697" t="s">
+        <v>921</v>
+      </c>
+      <c r="B697" t="s">
+        <v>920</v>
+      </c>
+      <c r="C697" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="698">
+      <c r="A698" t="s">
+        <v>922</v>
+      </c>
+      <c r="B698" t="s">
+        <v>923</v>
+      </c>
+      <c r="C698" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="699">
+      <c r="A699" t="s">
+        <v>924</v>
+      </c>
+      <c r="B699" t="s">
+        <v>920</v>
+      </c>
+      <c r="C699" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="700">
+      <c r="A700" t="s">
+        <v>925</v>
+      </c>
+      <c r="B700" t="s">
+        <v>25</v>
+      </c>
+      <c r="C700" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="701">
+      <c r="A701" t="s">
+        <v>926</v>
+      </c>
+      <c r="B701" t="s">
+        <v>25</v>
+      </c>
+      <c r="C701" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink International Health Care Fund.xlsx
+++ b/data/GreatLink/GreatLink International Health Care Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid746593"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid145493"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="927">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="956">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,144 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>24/02/2025</t>
+  </si>
+  <si>
+    <t>0.987</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>21/02/2025</t>
+  </si>
+  <si>
+    <t>0.980</t>
+  </si>
+  <si>
+    <t>20/02/2025</t>
+  </si>
+  <si>
+    <t>0.981</t>
+  </si>
+  <si>
+    <t>19/02/2025</t>
+  </si>
+  <si>
+    <t>0.984</t>
+  </si>
+  <si>
+    <t>18/02/2025</t>
+  </si>
+  <si>
+    <t>0.972</t>
+  </si>
+  <si>
+    <t>17/02/2025</t>
+  </si>
+  <si>
+    <t>0.969</t>
+  </si>
+  <si>
+    <t>14/02/2025</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t>13/02/2025</t>
+  </si>
+  <si>
+    <t>0.986</t>
+  </si>
+  <si>
+    <t>12/02/2025</t>
+  </si>
+  <si>
+    <t>11/02/2025</t>
+  </si>
+  <si>
+    <t>0.989</t>
+  </si>
+  <si>
+    <t>10/02/2025</t>
+  </si>
+  <si>
+    <t>0.991</t>
+  </si>
+  <si>
+    <t>07/02/2025</t>
+  </si>
+  <si>
+    <t>06/02/2025</t>
+  </si>
+  <si>
+    <t>0.997</t>
+  </si>
+  <si>
+    <t>05/02/2025</t>
+  </si>
+  <si>
+    <t>1.000</t>
+  </si>
+  <si>
+    <t>04/02/2025</t>
+  </si>
+  <si>
+    <t>03/02/2025</t>
+  </si>
+  <si>
+    <t>0.998</t>
+  </si>
+  <si>
+    <t>31/01/2025</t>
+  </si>
+  <si>
+    <t>0.992</t>
+  </si>
+  <si>
+    <t>28/01/2025</t>
+  </si>
+  <si>
+    <t>0.985</t>
+  </si>
+  <si>
+    <t>27/01/2025</t>
+  </si>
+  <si>
+    <t>24/01/2025</t>
+  </si>
+  <si>
+    <t>23/01/2025</t>
+  </si>
+  <si>
+    <t>0.977</t>
+  </si>
+  <si>
+    <t>22/01/2025</t>
+  </si>
+  <si>
+    <t>0.968</t>
+  </si>
+  <si>
+    <t>21/01/2025</t>
+  </si>
+  <si>
+    <t>20/01/2025</t>
+  </si>
+  <si>
+    <t>0.953</t>
+  </si>
+  <si>
+    <t>17/01/2025</t>
+  </si>
+  <si>
+    <t>0.960</t>
+  </si>
+  <si>
     <t>16/01/2025</t>
   </si>
   <si>
-    <t>0.969</t>
-  </si>
-  <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>15/01/2025</t>
   </si>
   <si>
@@ -65,9 +194,6 @@
     <t>08/01/2025</t>
   </si>
   <si>
-    <t>0.972</t>
-  </si>
-  <si>
     <t>07/01/2025</t>
   </si>
   <si>
@@ -86,9 +212,6 @@
     <t>02/01/2025</t>
   </si>
   <si>
-    <t>0.953</t>
-  </si>
-  <si>
     <t>31/12/2024</t>
   </si>
   <si>
@@ -155,15 +278,9 @@
     <t>12/12/2024</t>
   </si>
   <si>
-    <t>0.977</t>
-  </si>
-  <si>
     <t>11/12/2024</t>
   </si>
   <si>
-    <t>0.986</t>
-  </si>
-  <si>
     <t>10/12/2024</t>
   </si>
   <si>
@@ -179,15 +296,9 @@
     <t>06/12/2024</t>
   </si>
   <si>
-    <t>0.997</t>
-  </si>
-  <si>
     <t>05/12/2024</t>
   </si>
   <si>
-    <t>0.998</t>
-  </si>
-  <si>
     <t>04/12/2024</t>
   </si>
   <si>
@@ -227,9 +338,6 @@
     <t>26/11/2024</t>
   </si>
   <si>
-    <t>1.000</t>
-  </si>
-  <si>
     <t>25/11/2024</t>
   </si>
   <si>
@@ -308,9 +416,6 @@
     <t>04/11/2024</t>
   </si>
   <si>
-    <t>0.992</t>
-  </si>
-  <si>
     <t>01/11/2024</t>
   </si>
   <si>
@@ -836,9 +941,6 @@
     <t>02/05/2024</t>
   </si>
   <si>
-    <t>0.991</t>
-  </si>
-  <si>
     <t>30/04/2024</t>
   </si>
   <si>
@@ -860,9 +962,6 @@
     <t>22/04/2024</t>
   </si>
   <si>
-    <t>0.989</t>
-  </si>
-  <si>
     <t>19/04/2024</t>
   </si>
   <si>
@@ -875,18 +974,12 @@
     <t>17/04/2024</t>
   </si>
   <si>
-    <t>0.984</t>
-  </si>
-  <si>
     <t>16/04/2024</t>
   </si>
   <si>
     <t>15/04/2024</t>
   </si>
   <si>
-    <t>0.987</t>
-  </si>
-  <si>
     <t>12/04/2024</t>
   </si>
   <si>
@@ -1097,9 +1190,6 @@
     <t>15/01/2024</t>
   </si>
   <si>
-    <t>0.980</t>
-  </si>
-  <si>
     <t>12/01/2024</t>
   </si>
   <si>
@@ -1113,9 +1203,6 @@
   </si>
   <si>
     <t>08/01/2024</t>
-  </si>
-  <si>
-    <t>0.968</t>
   </si>
   <si>
     <t>05/01/2024</t>
@@ -3151,7 +3238,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -3159,10 +3246,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
         <v>5</v>
@@ -3170,10 +3257,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -3181,10 +3268,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3192,10 +3279,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3203,10 +3290,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3214,10 +3301,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3225,10 +3312,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3239,7 +3326,7 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3247,10 +3334,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3258,10 +3345,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3294,7 +3381,7 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3302,10 +3389,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
         <v>32</v>
-      </c>
-      <c r="B17" t="s">
-        <v>33</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3313,10 +3400,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
         <v>34</v>
-      </c>
-      <c r="B18" t="s">
-        <v>29</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3338,7 +3425,7 @@
         <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3346,10 +3433,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3357,10 +3444,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
         <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3368,10 +3455,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>16</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3382,7 +3469,7 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3390,10 +3477,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s">
         <v>45</v>
-      </c>
-      <c r="B25" t="s">
-        <v>46</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3401,10 +3488,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" t="s">
         <v>47</v>
-      </c>
-      <c r="B26" t="s">
-        <v>48</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3412,10 +3499,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3423,10 +3510,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3434,10 +3521,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3445,10 +3532,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3456,10 +3543,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3467,10 +3554,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3478,10 +3565,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3489,10 +3576,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3500,10 +3587,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3511,10 +3598,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B36" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3522,10 +3609,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3533,10 +3620,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3544,10 +3631,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3555,10 +3642,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3566,10 +3653,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3577,10 +3664,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3588,10 +3675,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3599,10 +3686,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3610,10 +3697,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>70</v>
+        <v>79</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3621,10 +3708,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3632,10 +3719,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3643,10 +3730,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B48" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3654,10 +3741,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B49" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3665,10 +3752,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>40</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3676,10 +3763,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3687,10 +3774,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B52" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3698,10 +3785,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3709,10 +3796,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3720,10 +3807,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>100</v>
+        <v>32</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3731,10 +3818,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B56" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3742,10 +3829,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B57" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3753,10 +3840,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3764,10 +3851,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3775,10 +3862,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B60" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3786,10 +3873,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B61" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3797,10 +3884,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3808,10 +3895,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B63" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3819,10 +3906,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B64" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3830,10 +3917,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B65" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3841,10 +3928,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B66" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3852,10 +3939,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
+        <v>60</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3863,10 +3950,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B68" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3874,10 +3961,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3885,10 +3972,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>29</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3896,10 +3983,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3907,10 +3994,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B72" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -3918,10 +4005,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B73" t="s">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -3929,10 +4016,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B74" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -3940,10 +4027,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B75" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -3951,10 +4038,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
+        <v>129</v>
+      </c>
+      <c r="B76" t="s">
         <v>130</v>
-      </c>
-      <c r="B76" t="s">
-        <v>131</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -3962,10 +4049,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B77" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -3973,10 +4060,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B78" t="s">
-        <v>94</v>
+        <v>34</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -3984,10 +4071,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B79" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -3995,10 +4082,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B80" t="s">
-        <v>92</v>
+        <v>135</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -4006,10 +4093,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B81" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -4017,10 +4104,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
+        <v>137</v>
+      </c>
+      <c r="B82" t="s">
         <v>138</v>
-      </c>
-      <c r="B82" t="s">
-        <v>90</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -4031,7 +4118,7 @@
         <v>139</v>
       </c>
       <c r="B83" t="s">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -4039,10 +4126,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B84" t="s">
-        <v>142</v>
+        <v>99</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -4050,10 +4137,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B85" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -4061,10 +4148,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B86" t="s">
-        <v>146</v>
+        <v>128</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -4072,10 +4159,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B87" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -4083,10 +4170,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B88" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -4094,10 +4181,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B89" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -4105,10 +4192,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B90" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -4116,10 +4203,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B91" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -4127,10 +4214,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="B92" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -4138,10 +4225,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B93" t="s">
-        <v>160</v>
+        <v>126</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -4149,10 +4236,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="B94" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -4160,10 +4247,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B95" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -4171,10 +4258,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="B96" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -4182,10 +4269,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B97" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -4193,10 +4280,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="B98" t="s">
-        <v>169</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -4204,10 +4291,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B99" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -4215,10 +4302,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B100" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -4226,10 +4313,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="B101" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -4237,10 +4324,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B102" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -4248,10 +4335,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B103" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -4259,10 +4346,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B104" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -4270,10 +4357,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B105" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -4281,10 +4368,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B106" t="s">
-        <v>182</v>
+        <v>145</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -4292,10 +4379,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B107" t="s">
-        <v>182</v>
+        <v>126</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -4303,10 +4390,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
       <c r="B108" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -4314,10 +4401,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B109" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -4325,10 +4412,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="B110" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -4336,10 +4423,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B111" t="s">
-        <v>158</v>
+        <v>181</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -4347,10 +4434,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B112" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -4358,10 +4445,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B113" t="s">
-        <v>88</v>
+        <v>185</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -4369,10 +4456,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B114" t="s">
-        <v>128</v>
+        <v>187</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -4380,10 +4467,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B115" t="s">
-        <v>135</v>
+        <v>189</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -4391,10 +4478,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B116" t="s">
-        <v>60</v>
+        <v>191</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -4402,10 +4489,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B117" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -4413,10 +4500,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B118" t="s">
-        <v>150</v>
+        <v>195</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -4424,10 +4511,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B119" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -4435,10 +4522,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B120" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4446,10 +4533,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B121" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -4457,10 +4544,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
+        <v>201</v>
+      </c>
+      <c r="B122" t="s">
         <v>202</v>
-      </c>
-      <c r="B122" t="s">
-        <v>142</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -4493,7 +4580,7 @@
         <v>207</v>
       </c>
       <c r="B125" t="s">
-        <v>152</v>
+        <v>208</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -4501,10 +4588,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B126" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4512,10 +4599,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B127" t="s">
-        <v>150</v>
+        <v>211</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4523,10 +4610,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B128" t="s">
-        <v>142</v>
+        <v>208</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4534,10 +4621,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B129" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -4545,10 +4632,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B130" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4556,10 +4643,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B131" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4567,10 +4654,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
+        <v>218</v>
+      </c>
+      <c r="B132" t="s">
         <v>217</v>
-      </c>
-      <c r="B132" t="s">
-        <v>218</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4581,7 +4668,7 @@
         <v>219</v>
       </c>
       <c r="B133" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4592,7 +4679,7 @@
         <v>220</v>
       </c>
       <c r="B134" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4600,10 +4687,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B135" t="s">
-        <v>144</v>
+        <v>223</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4611,10 +4698,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B136" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4622,10 +4709,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B137" t="s">
-        <v>160</v>
+        <v>226</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4633,10 +4720,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="B138" t="s">
-        <v>225</v>
+        <v>124</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4644,10 +4731,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B139" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4655,10 +4742,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B140" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4666,10 +4753,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B141" t="s">
-        <v>188</v>
+        <v>97</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4677,10 +4764,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B142" t="s">
-        <v>158</v>
+        <v>232</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4688,10 +4775,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="B143" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4699,10 +4786,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B144" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4710,10 +4797,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B145" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4721,10 +4808,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B146" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4732,10 +4819,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B147" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4743,10 +4830,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B148" t="s">
-        <v>144</v>
+        <v>239</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4754,10 +4841,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B149" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4765,10 +4852,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B150" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4776,10 +4863,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B151" t="s">
-        <v>240</v>
+        <v>215</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4787,10 +4874,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B152" t="s">
-        <v>204</v>
+        <v>185</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4798,10 +4885,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B153" t="s">
-        <v>237</v>
+        <v>177</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4809,10 +4896,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
-        <v>160</v>
+        <v>247</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4820,10 +4907,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B155" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4831,10 +4918,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="B156" t="s">
-        <v>140</v>
+        <v>251</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4842,10 +4929,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B157" t="s">
-        <v>191</v>
+        <v>253</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4853,10 +4940,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="B158" t="s">
-        <v>225</v>
+        <v>187</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4864,10 +4951,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="B159" t="s">
-        <v>112</v>
+        <v>241</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4875,10 +4962,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="B160" t="s">
-        <v>92</v>
+        <v>179</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4886,10 +4973,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="B161" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4897,10 +4984,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="B162" t="s">
-        <v>252</v>
+        <v>195</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4908,10 +4995,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="B163" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -4919,10 +5006,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="B164" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -4930,10 +5017,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B165" t="s">
-        <v>114</v>
+        <v>179</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -4941,10 +5028,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>256</v>
+        <v>263</v>
       </c>
       <c r="B166" t="s">
-        <v>90</v>
+        <v>223</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -4952,10 +5039,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B167" t="s">
-        <v>88</v>
+        <v>193</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -4963,10 +5050,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>258</v>
+        <v>265</v>
       </c>
       <c r="B168" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -4974,10 +5061,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>259</v>
+        <v>266</v>
       </c>
       <c r="B169" t="s">
-        <v>197</v>
+        <v>241</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -4985,10 +5072,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B170" t="s">
-        <v>191</v>
+        <v>251</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -4996,10 +5083,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>261</v>
+        <v>268</v>
       </c>
       <c r="B171" t="s">
-        <v>237</v>
+        <v>185</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -5007,10 +5094,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="B172" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -5018,10 +5105,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="B173" t="s">
-        <v>264</v>
+        <v>179</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -5029,10 +5116,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B174" t="s">
-        <v>121</v>
+        <v>272</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -5040,10 +5127,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B175" t="s">
-        <v>116</v>
+        <v>226</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -5051,10 +5138,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B176" t="s">
-        <v>252</v>
+        <v>275</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -5062,10 +5149,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B177" t="s">
-        <v>60</v>
+        <v>239</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -5073,10 +5160,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B178" t="s">
-        <v>62</v>
+        <v>272</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -5084,10 +5171,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B179" t="s">
-        <v>54</v>
+        <v>195</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -5095,10 +5182,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B180" t="s">
-        <v>97</v>
+        <v>275</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -5106,10 +5193,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B181" t="s">
-        <v>273</v>
+        <v>175</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -5117,10 +5204,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>274</v>
+        <v>281</v>
       </c>
       <c r="B182" t="s">
-        <v>97</v>
+        <v>226</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -5128,10 +5215,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>275</v>
+        <v>282</v>
       </c>
       <c r="B183" t="s">
-        <v>56</v>
+        <v>260</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -5139,10 +5226,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="B184" t="s">
-        <v>54</v>
+        <v>147</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -5150,10 +5237,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B185" t="s">
-        <v>273</v>
+        <v>128</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -5161,10 +5248,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B186" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -5172,10 +5259,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="B187" t="s">
-        <v>66</v>
+        <v>287</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -5183,10 +5270,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="B188" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -5194,10 +5281,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B189" t="s">
-        <v>283</v>
+        <v>130</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -5205,10 +5292,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="B190" t="s">
-        <v>283</v>
+        <v>149</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -5216,10 +5303,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="B191" t="s">
-        <v>286</v>
+        <v>126</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -5227,10 +5314,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="B192" t="s">
-        <v>281</v>
+        <v>124</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -5238,10 +5325,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="B193" t="s">
-        <v>289</v>
+        <v>175</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -5249,10 +5336,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B194" t="s">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -5260,10 +5347,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B195" t="s">
-        <v>56</v>
+        <v>226</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -5271,10 +5358,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B196" t="s">
-        <v>100</v>
+        <v>272</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -5282,10 +5369,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B197" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -5293,10 +5380,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B198" t="s">
-        <v>60</v>
+        <v>299</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -5304,10 +5391,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B199" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -5315,10 +5402,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B200" t="s">
-        <v>131</v>
+        <v>151</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -5326,10 +5413,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="B201" t="s">
-        <v>131</v>
+        <v>287</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -5337,10 +5424,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="B202" t="s">
-        <v>299</v>
+        <v>97</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -5348,10 +5435,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B203" t="s">
-        <v>204</v>
+        <v>99</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -5359,10 +5446,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B204" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -5370,10 +5457,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B205" t="s">
-        <v>303</v>
+        <v>34</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -5381,10 +5468,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B206" t="s">
-        <v>114</v>
+        <v>24</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -5392,10 +5479,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B207" t="s">
-        <v>306</v>
+        <v>34</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -5403,10 +5490,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B208" t="s">
-        <v>90</v>
+        <v>32</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -5414,10 +5501,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B209" t="s">
-        <v>306</v>
+        <v>27</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -5425,10 +5512,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B210" t="s">
-        <v>264</v>
+        <v>24</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -5436,10 +5523,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B211" t="s">
-        <v>135</v>
+        <v>91</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -5447,10 +5534,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B212" t="s">
-        <v>312</v>
+        <v>103</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -5458,10 +5545,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B213" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -5469,10 +5556,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B214" t="s">
-        <v>116</v>
+        <v>316</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -5480,10 +5567,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B215" t="s">
-        <v>114</v>
+        <v>316</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -5491,10 +5578,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B216" t="s">
-        <v>121</v>
+        <v>11</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -5502,10 +5589,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B217" t="s">
-        <v>116</v>
+        <v>22</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -5513,10 +5600,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B218" t="s">
-        <v>303</v>
+        <v>4</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -5524,10 +5611,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B219" t="s">
-        <v>84</v>
+        <v>110</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5535,10 +5622,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B220" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -5546,10 +5633,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B221" t="s">
-        <v>322</v>
+        <v>135</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -5557,10 +5644,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B222" t="s">
-        <v>322</v>
+        <v>101</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5568,10 +5655,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B223" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5579,10 +5666,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B224" t="s">
-        <v>116</v>
+        <v>32</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5590,10 +5677,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B225" t="s">
-        <v>322</v>
+        <v>166</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5601,10 +5688,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B226" t="s">
-        <v>306</v>
+        <v>166</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5612,10 +5699,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B227" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5623,10 +5710,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B228" t="s">
-        <v>264</v>
+        <v>239</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5634,10 +5721,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B229" t="s">
-        <v>103</v>
+        <v>239</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5645,10 +5732,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B230" t="s">
-        <v>123</v>
+        <v>334</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5656,10 +5743,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B231" t="s">
-        <v>312</v>
+        <v>149</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5667,10 +5754,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B232" t="s">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5678,10 +5765,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B233" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5689,10 +5776,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B234" t="s">
-        <v>123</v>
+        <v>337</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5700,10 +5787,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B235" t="s">
-        <v>66</v>
+        <v>299</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5711,10 +5798,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B236" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5722,10 +5809,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B237" t="s">
-        <v>252</v>
+        <v>343</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5733,10 +5820,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B238" t="s">
-        <v>66</v>
+        <v>156</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5744,10 +5831,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B239" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5755,10 +5842,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B240" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5766,10 +5853,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B241" t="s">
-        <v>289</v>
+        <v>156</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5777,10 +5864,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B242" t="s">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5788,10 +5875,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B243" t="s">
-        <v>46</v>
+        <v>334</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5799,10 +5886,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B244" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5810,10 +5897,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B245" t="s">
-        <v>44</v>
+        <v>138</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5821,10 +5908,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B246" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5832,10 +5919,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B247" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5843,10 +5930,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B248" t="s">
-        <v>18</v>
+        <v>138</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5854,10 +5941,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B249" t="s">
-        <v>4</v>
+        <v>151</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5865,10 +5952,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B250" t="s">
-        <v>14</v>
+        <v>353</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5876,10 +5963,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B251" t="s">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5887,10 +5974,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B252" t="s">
-        <v>10</v>
+        <v>360</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5898,10 +5985,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B253" t="s">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5909,10 +5996,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B254" t="s">
-        <v>46</v>
+        <v>138</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -5920,10 +6007,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B255" t="s">
-        <v>360</v>
+        <v>158</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -5931,10 +6018,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="B256" t="s">
-        <v>44</v>
+        <v>343</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -5942,10 +6029,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B257" t="s">
-        <v>360</v>
+        <v>343</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -5953,10 +6040,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="B258" t="s">
-        <v>44</v>
+        <v>166</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -5964,10 +6051,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="B259" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -5975,10 +6062,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B260" t="s">
-        <v>366</v>
+        <v>103</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -5986,10 +6073,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B261" t="s">
-        <v>20</v>
+        <v>95</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -5997,10 +6084,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B262" t="s">
-        <v>351</v>
+        <v>287</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -6008,10 +6095,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B263" t="s">
-        <v>20</v>
+        <v>103</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -6019,10 +6106,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B264" t="s">
-        <v>371</v>
+        <v>101</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -6030,10 +6117,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B265" t="s">
-        <v>373</v>
+        <v>105</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -6044,7 +6131,7 @@
         <v>374</v>
       </c>
       <c r="B266" t="s">
-        <v>375</v>
+        <v>4</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -6052,10 +6139,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B267" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -6063,10 +6150,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B268" t="s">
-        <v>378</v>
+        <v>40</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -6074,10 +6161,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B269" t="s">
-        <v>378</v>
+        <v>85</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -6085,10 +6172,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B270" t="s">
-        <v>381</v>
+        <v>85</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -6096,10 +6183,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B271" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -6107,10 +6194,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B272" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -6118,10 +6205,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B273" t="s">
-        <v>386</v>
+        <v>60</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -6129,10 +6216,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B274" t="s">
-        <v>388</v>
+        <v>15</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -6140,10 +6227,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B275" t="s">
-        <v>390</v>
+        <v>57</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -6151,10 +6238,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B276" t="s">
-        <v>392</v>
+        <v>380</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -6162,10 +6249,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B277" t="s">
-        <v>388</v>
+        <v>53</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -6173,10 +6260,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B278" t="s">
-        <v>395</v>
+        <v>117</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -6184,10 +6271,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="B279" t="s">
-        <v>397</v>
+        <v>40</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -6195,10 +6282,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B280" t="s">
-        <v>399</v>
+        <v>7</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -6206,10 +6293,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="B281" t="s">
-        <v>401</v>
+        <v>85</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -6217,10 +6304,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="B282" t="s">
-        <v>397</v>
+        <v>7</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -6228,10 +6315,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B283" t="s">
-        <v>401</v>
+        <v>85</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -6239,10 +6326,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B284" t="s">
-        <v>405</v>
+        <v>13</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -6250,10 +6337,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>406</v>
+        <v>395</v>
       </c>
       <c r="B285" t="s">
-        <v>407</v>
+        <v>42</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -6261,10 +6348,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>408</v>
+        <v>396</v>
       </c>
       <c r="B286" t="s">
-        <v>409</v>
+        <v>62</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -6272,10 +6359,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>410</v>
+        <v>397</v>
       </c>
       <c r="B287" t="s">
-        <v>411</v>
+        <v>382</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -6283,10 +6370,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="B288" t="s">
-        <v>413</v>
+        <v>62</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -6294,10 +6381,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="B289" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -6305,10 +6392,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="B290" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -6316,10 +6403,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="B291" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -6327,10 +6414,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="B292" t="s">
-        <v>420</v>
+        <v>77</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -6338,10 +6425,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>421</v>
+        <v>406</v>
       </c>
       <c r="B293" t="s">
-        <v>422</v>
+        <v>407</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -6349,10 +6436,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>423</v>
+        <v>408</v>
       </c>
       <c r="B294" t="s">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -6360,10 +6447,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="B295" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -6371,10 +6458,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>426</v>
+        <v>411</v>
       </c>
       <c r="B296" t="s">
-        <v>427</v>
+        <v>412</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -6382,10 +6469,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>428</v>
+        <v>413</v>
       </c>
       <c r="B297" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -6393,10 +6480,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>429</v>
+        <v>414</v>
       </c>
       <c r="B298" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -6404,10 +6491,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>431</v>
+        <v>416</v>
       </c>
       <c r="B299" t="s">
-        <v>432</v>
+        <v>417</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -6415,10 +6502,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>433</v>
+        <v>418</v>
       </c>
       <c r="B300" t="s">
-        <v>434</v>
+        <v>419</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -6426,10 +6513,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>435</v>
+        <v>420</v>
       </c>
       <c r="B301" t="s">
-        <v>436</v>
+        <v>421</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -6437,10 +6524,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>437</v>
+        <v>422</v>
       </c>
       <c r="B302" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -6448,10 +6535,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>438</v>
+        <v>423</v>
       </c>
       <c r="B303" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -6459,10 +6546,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="B304" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -6470,10 +6557,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>440</v>
+        <v>427</v>
       </c>
       <c r="B305" t="s">
-        <v>441</v>
+        <v>428</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -6481,10 +6568,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>442</v>
+        <v>429</v>
       </c>
       <c r="B306" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -6492,10 +6579,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>443</v>
+        <v>431</v>
       </c>
       <c r="B307" t="s">
-        <v>444</v>
+        <v>426</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -6503,10 +6590,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>445</v>
+        <v>432</v>
       </c>
       <c r="B308" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -6514,10 +6601,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="B309" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -6525,10 +6612,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="B310" t="s">
-        <v>409</v>
+        <v>436</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -6536,10 +6623,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>450</v>
+        <v>437</v>
       </c>
       <c r="B311" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -6547,10 +6634,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>451</v>
+        <v>439</v>
       </c>
       <c r="B312" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -6558,10 +6645,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>452</v>
+        <v>441</v>
       </c>
       <c r="B313" t="s">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -6569,10 +6656,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>453</v>
+        <v>443</v>
       </c>
       <c r="B314" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -6580,10 +6667,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>454</v>
+        <v>444</v>
       </c>
       <c r="B315" t="s">
-        <v>388</v>
+        <v>445</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -6591,10 +6678,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="B316" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6602,10 +6689,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="B317" t="s">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6613,10 +6700,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B318" t="s">
-        <v>390</v>
+        <v>451</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6624,10 +6711,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="B319" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6635,10 +6722,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="B320" t="s">
-        <v>378</v>
+        <v>438</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6646,10 +6733,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B321" t="s">
-        <v>388</v>
+        <v>456</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6657,10 +6744,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="B322" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6668,10 +6755,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="B323" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6679,10 +6766,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="B324" t="s">
-        <v>436</v>
+        <v>461</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6690,10 +6777,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="B325" t="s">
-        <v>424</v>
+        <v>463</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6701,10 +6788,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B326" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6712,10 +6799,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B327" t="s">
-        <v>436</v>
+        <v>453</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6723,10 +6810,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B328" t="s">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6734,10 +6821,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B329" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6745,10 +6832,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B330" t="s">
-        <v>405</v>
+        <v>470</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6756,10 +6843,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="B331" t="s">
-        <v>405</v>
+        <v>470</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6767,10 +6854,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="B332" t="s">
-        <v>397</v>
+        <v>473</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6778,10 +6865,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B333" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6789,10 +6876,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="B334" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6800,10 +6887,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B335" t="s">
-        <v>388</v>
+        <v>438</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6811,10 +6898,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="B336" t="s">
-        <v>395</v>
+        <v>465</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6822,10 +6909,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="B337" t="s">
-        <v>395</v>
+        <v>459</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6833,10 +6920,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B338" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6844,10 +6931,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B339" t="s">
-        <v>489</v>
+        <v>434</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6855,10 +6942,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="B340" t="s">
-        <v>487</v>
+        <v>417</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6866,10 +6953,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B341" t="s">
-        <v>456</v>
+        <v>485</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6877,10 +6964,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B342" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6888,10 +6975,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="B343" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6899,10 +6986,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B344" t="s">
-        <v>386</v>
+        <v>490</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6910,10 +6997,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B345" t="s">
-        <v>496</v>
+        <v>407</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -6921,10 +7008,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="B346" t="s">
-        <v>487</v>
+        <v>417</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -6932,10 +7019,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="B347" t="s">
-        <v>395</v>
+        <v>494</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -6943,10 +7030,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="B348" t="s">
-        <v>383</v>
+        <v>496</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -6954,10 +7041,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B349" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -6965,10 +7052,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B350" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -6976,10 +7063,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B351" t="s">
-        <v>388</v>
+        <v>500</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -6987,10 +7074,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B352" t="s">
-        <v>383</v>
+        <v>465</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -6998,10 +7085,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B353" t="s">
-        <v>399</v>
+        <v>503</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -7009,10 +7096,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
+        <v>504</v>
+      </c>
+      <c r="B354" t="s">
         <v>505</v>
-      </c>
-      <c r="B354" t="s">
-        <v>395</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -7023,7 +7110,7 @@
         <v>506</v>
       </c>
       <c r="B355" t="s">
-        <v>467</v>
+        <v>434</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -7034,7 +7121,7 @@
         <v>507</v>
       </c>
       <c r="B356" t="s">
-        <v>383</v>
+        <v>434</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -7045,7 +7132,7 @@
         <v>508</v>
       </c>
       <c r="B357" t="s">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -7056,7 +7143,7 @@
         <v>509</v>
       </c>
       <c r="B358" t="s">
-        <v>401</v>
+        <v>447</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -7067,7 +7154,7 @@
         <v>510</v>
       </c>
       <c r="B359" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -7075,10 +7162,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="B360" t="s">
-        <v>456</v>
+        <v>417</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -7086,10 +7173,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B361" t="s">
-        <v>390</v>
+        <v>424</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -7097,10 +7184,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B362" t="s">
-        <v>386</v>
+        <v>424</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -7108,10 +7195,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B363" t="s">
-        <v>395</v>
+        <v>516</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -7119,10 +7206,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B364" t="s">
-        <v>487</v>
+        <v>518</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -7130,10 +7217,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
+        <v>519</v>
+      </c>
+      <c r="B365" t="s">
         <v>516</v>
-      </c>
-      <c r="B365" t="s">
-        <v>474</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -7141,10 +7228,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="B366" t="s">
-        <v>518</v>
+        <v>485</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -7152,10 +7239,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B367" t="s">
-        <v>432</v>
+        <v>485</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -7163,10 +7250,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B368" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -7174,10 +7261,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B369" t="s">
-        <v>430</v>
+        <v>415</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -7185,10 +7272,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B370" t="s">
-        <v>424</v>
+        <v>525</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -7196,10 +7283,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="B371" t="s">
-        <v>422</v>
+        <v>516</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -7207,10 +7294,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="B372" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -7218,10 +7305,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="B373" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -7229,10 +7316,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="B374" t="s">
-        <v>413</v>
+        <v>490</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -7240,10 +7327,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="B375" t="s">
-        <v>407</v>
+        <v>485</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -7251,10 +7338,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="B376" t="s">
-        <v>482</v>
+        <v>417</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -7262,10 +7349,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="B377" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -7273,10 +7360,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="B378" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -7284,10 +7371,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="B379" t="s">
-        <v>532</v>
+        <v>424</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -7295,10 +7382,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B380" t="s">
-        <v>518</v>
+        <v>496</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -7306,10 +7393,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B381" t="s">
-        <v>535</v>
+        <v>412</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -7317,10 +7404,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B382" t="s">
-        <v>537</v>
+        <v>428</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -7331,7 +7418,7 @@
         <v>538</v>
       </c>
       <c r="B383" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -7342,7 +7429,7 @@
         <v>539</v>
       </c>
       <c r="B384" t="s">
-        <v>540</v>
+        <v>525</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -7350,10 +7437,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B385" t="s">
-        <v>542</v>
+        <v>485</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -7361,10 +7448,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B386" t="s">
-        <v>544</v>
+        <v>419</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -7372,10 +7459,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="B387" t="s">
-        <v>546</v>
+        <v>415</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -7383,10 +7470,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B388" t="s">
-        <v>548</v>
+        <v>424</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -7394,10 +7481,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="B389" t="s">
-        <v>471</v>
+        <v>516</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -7405,10 +7492,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="B390" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -7416,10 +7503,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="B391" t="s">
-        <v>474</v>
+        <v>547</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -7427,10 +7514,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="B392" t="s">
-        <v>553</v>
+        <v>461</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -7438,10 +7525,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="B393" t="s">
-        <v>553</v>
+        <v>438</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -7449,10 +7536,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="B394" t="s">
-        <v>556</v>
+        <v>459</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -7460,10 +7547,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B395" t="s">
-        <v>413</v>
+        <v>453</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -7471,10 +7558,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B396" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -7482,10 +7569,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B397" t="s">
-        <v>411</v>
+        <v>459</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -7493,10 +7580,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B398" t="s">
-        <v>411</v>
+        <v>449</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -7504,10 +7591,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B399" t="s">
-        <v>424</v>
+        <v>442</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7515,10 +7602,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B400" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -7526,10 +7613,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B401" t="s">
-        <v>424</v>
+        <v>511</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -7537,10 +7624,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B402" t="s">
-        <v>546</v>
+        <v>442</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -7548,10 +7635,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B403" t="s">
-        <v>548</v>
+        <v>453</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7559,10 +7646,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B404" t="s">
-        <v>532</v>
+        <v>561</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -7570,10 +7657,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="B405" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -7581,10 +7668,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="B406" t="s">
-        <v>553</v>
+        <v>564</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7592,10 +7679,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="B407" t="s">
-        <v>535</v>
+        <v>566</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7603,10 +7690,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B408" t="s">
-        <v>556</v>
+        <v>475</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7614,10 +7701,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B409" t="s">
-        <v>420</v>
+        <v>569</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7625,10 +7712,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B410" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7636,10 +7723,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B411" t="s">
-        <v>441</v>
+        <v>573</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7647,10 +7734,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
+        <v>574</v>
+      </c>
+      <c r="B412" t="s">
         <v>575</v>
-      </c>
-      <c r="B412" t="s">
-        <v>576</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7658,10 +7745,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
+        <v>576</v>
+      </c>
+      <c r="B413" t="s">
         <v>577</v>
-      </c>
-      <c r="B413" t="s">
-        <v>448</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7672,7 +7759,7 @@
         <v>578</v>
       </c>
       <c r="B414" t="s">
-        <v>441</v>
+        <v>500</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7683,7 +7770,7 @@
         <v>579</v>
       </c>
       <c r="B415" t="s">
-        <v>542</v>
+        <v>561</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7694,7 +7781,7 @@
         <v>580</v>
       </c>
       <c r="B416" t="s">
-        <v>546</v>
+        <v>503</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7705,7 +7792,7 @@
         <v>581</v>
       </c>
       <c r="B417" t="s">
-        <v>553</v>
+        <v>582</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7713,10 +7800,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
+        <v>583</v>
+      </c>
+      <c r="B418" t="s">
         <v>582</v>
-      </c>
-      <c r="B418" t="s">
-        <v>422</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7724,10 +7811,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B419" t="s">
-        <v>422</v>
+        <v>585</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7735,10 +7822,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B420" t="s">
-        <v>474</v>
+        <v>442</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7746,10 +7833,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B421" t="s">
-        <v>556</v>
+        <v>459</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7757,10 +7844,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B422" t="s">
-        <v>427</v>
+        <v>440</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7768,10 +7855,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B423" t="s">
-        <v>422</v>
+        <v>440</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7779,10 +7866,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B424" t="s">
-        <v>420</v>
+        <v>453</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7790,10 +7877,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B425" t="s">
-        <v>427</v>
+        <v>459</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7801,10 +7888,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B426" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7812,10 +7899,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B427" t="s">
-        <v>424</v>
+        <v>575</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7823,10 +7910,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B428" t="s">
-        <v>556</v>
+        <v>577</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7834,10 +7921,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B429" t="s">
-        <v>430</v>
+        <v>561</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7845,10 +7932,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B430" t="s">
-        <v>432</v>
+        <v>582</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7856,10 +7943,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B431" t="s">
-        <v>424</v>
+        <v>582</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7867,10 +7954,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B432" t="s">
-        <v>430</v>
+        <v>564</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7878,10 +7965,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B433" t="s">
-        <v>420</v>
+        <v>585</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7889,10 +7976,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B434" t="s">
-        <v>556</v>
+        <v>449</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7900,10 +7987,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B435" t="s">
-        <v>518</v>
+        <v>602</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7911,10 +7998,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="B436" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -7922,10 +8009,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="B437" t="s">
-        <v>399</v>
+        <v>605</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -7933,10 +8020,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B438" t="s">
-        <v>416</v>
+        <v>477</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -7944,10 +8031,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B439" t="s">
-        <v>427</v>
+        <v>470</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -7955,10 +8042,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B440" t="s">
-        <v>430</v>
+        <v>571</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -7966,10 +8053,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B441" t="s">
-        <v>413</v>
+        <v>575</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -7977,10 +8064,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="B442" t="s">
-        <v>418</v>
+        <v>582</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -7988,10 +8075,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B443" t="s">
-        <v>416</v>
+        <v>451</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -7999,10 +8086,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B444" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -8010,10 +8097,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B445" t="s">
-        <v>411</v>
+        <v>503</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -8021,10 +8108,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B446" t="s">
-        <v>427</v>
+        <v>585</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -8032,10 +8119,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B447" t="s">
-        <v>427</v>
+        <v>456</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -8043,10 +8130,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B448" t="s">
-        <v>532</v>
+        <v>451</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -8054,10 +8141,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B449" t="s">
-        <v>546</v>
+        <v>449</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -8065,10 +8152,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B450" t="s">
-        <v>615</v>
+        <v>456</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -8076,10 +8163,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="B451" t="s">
-        <v>576</v>
+        <v>456</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -8087,10 +8174,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B452" t="s">
-        <v>618</v>
+        <v>453</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -8098,10 +8185,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B453" t="s">
-        <v>620</v>
+        <v>585</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -8109,10 +8196,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B454" t="s">
-        <v>622</v>
+        <v>459</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -8123,7 +8210,7 @@
         <v>623</v>
       </c>
       <c r="B455" t="s">
-        <v>624</v>
+        <v>461</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -8131,10 +8218,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B456" t="s">
-        <v>626</v>
+        <v>453</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -8142,10 +8229,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B457" t="s">
-        <v>624</v>
+        <v>459</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -8153,10 +8240,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="B458" t="s">
-        <v>629</v>
+        <v>449</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -8164,10 +8251,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B459" t="s">
-        <v>631</v>
+        <v>585</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -8175,10 +8262,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="B460" t="s">
-        <v>624</v>
+        <v>547</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -8186,10 +8273,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B461" t="s">
-        <v>634</v>
+        <v>442</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -8197,10 +8284,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="B462" t="s">
-        <v>636</v>
+        <v>428</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -8208,10 +8295,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B463" t="s">
-        <v>638</v>
+        <v>445</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -8219,10 +8306,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="B464" t="s">
-        <v>640</v>
+        <v>456</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -8230,10 +8317,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="B465" t="s">
-        <v>642</v>
+        <v>459</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -8241,10 +8328,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>643</v>
+        <v>634</v>
       </c>
       <c r="B466" t="s">
-        <v>636</v>
+        <v>442</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -8252,10 +8339,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>644</v>
+        <v>635</v>
       </c>
       <c r="B467" t="s">
-        <v>645</v>
+        <v>447</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -8263,10 +8350,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="B468" t="s">
-        <v>629</v>
+        <v>445</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -8274,10 +8361,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="B469" t="s">
-        <v>642</v>
+        <v>436</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -8285,10 +8372,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="B470" t="s">
-        <v>649</v>
+        <v>440</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -8296,10 +8383,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>650</v>
+        <v>639</v>
       </c>
       <c r="B471" t="s">
-        <v>626</v>
+        <v>456</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -8307,10 +8394,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>651</v>
+        <v>640</v>
       </c>
       <c r="B472" t="s">
-        <v>652</v>
+        <v>456</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -8318,10 +8405,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>653</v>
+        <v>641</v>
       </c>
       <c r="B473" t="s">
-        <v>654</v>
+        <v>561</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -8329,10 +8416,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="B474" t="s">
-        <v>642</v>
+        <v>575</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -8340,10 +8427,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="B475" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -8351,10 +8438,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="B476" t="s">
-        <v>659</v>
+        <v>605</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -8362,10 +8449,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>660</v>
+        <v>646</v>
       </c>
       <c r="B477" t="s">
-        <v>624</v>
+        <v>647</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -8373,10 +8460,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="B478" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -8384,10 +8471,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>663</v>
+        <v>650</v>
       </c>
       <c r="B479" t="s">
-        <v>626</v>
+        <v>651</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -8395,10 +8482,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>664</v>
+        <v>652</v>
       </c>
       <c r="B480" t="s">
-        <v>665</v>
+        <v>653</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -8406,10 +8493,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>666</v>
+        <v>654</v>
       </c>
       <c r="B481" t="s">
-        <v>446</v>
+        <v>655</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -8417,10 +8504,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>667</v>
+        <v>656</v>
       </c>
       <c r="B482" t="s">
-        <v>537</v>
+        <v>653</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -8428,10 +8515,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>668</v>
+        <v>657</v>
       </c>
       <c r="B483" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -8439,10 +8526,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="B484" t="s">
-        <v>444</v>
+        <v>660</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -8450,10 +8537,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>670</v>
+        <v>661</v>
       </c>
       <c r="B485" t="s">
-        <v>537</v>
+        <v>653</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -8461,10 +8548,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>671</v>
+        <v>662</v>
       </c>
       <c r="B486" t="s">
-        <v>615</v>
+        <v>663</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -8472,10 +8559,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
       <c r="B487" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -8483,10 +8570,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="B488" t="s">
-        <v>674</v>
+        <v>667</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -8494,10 +8581,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>675</v>
+        <v>668</v>
       </c>
       <c r="B489" t="s">
-        <v>662</v>
+        <v>669</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -8505,10 +8592,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="B490" t="s">
-        <v>544</v>
+        <v>671</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -8516,10 +8603,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="B491" t="s">
-        <v>652</v>
+        <v>665</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -8527,10 +8614,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="B492" t="s">
-        <v>620</v>
+        <v>674</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -8538,10 +8625,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="B493" t="s">
-        <v>680</v>
+        <v>658</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -8549,10 +8636,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="B494" t="s">
-        <v>665</v>
+        <v>671</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -8560,10 +8647,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="B495" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -8571,10 +8658,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B496" t="s">
-        <v>685</v>
+        <v>655</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -8582,10 +8669,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="B497" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8593,10 +8680,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B498" t="s">
-        <v>620</v>
+        <v>683</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8604,10 +8691,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="B499" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8615,10 +8702,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B500" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8626,10 +8713,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B501" t="s">
-        <v>674</v>
+        <v>688</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8637,10 +8724,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B502" t="s">
-        <v>624</v>
+        <v>653</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8648,10 +8735,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="B503" t="s">
-        <v>665</v>
+        <v>691</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8659,10 +8746,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B504" t="s">
-        <v>683</v>
+        <v>655</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8670,10 +8757,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
+        <v>693</v>
+      </c>
+      <c r="B505" t="s">
         <v>694</v>
-      </c>
-      <c r="B505" t="s">
-        <v>626</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8684,7 +8771,7 @@
         <v>695</v>
       </c>
       <c r="B506" t="s">
-        <v>622</v>
+        <v>475</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8695,7 +8782,7 @@
         <v>696</v>
       </c>
       <c r="B507" t="s">
-        <v>683</v>
+        <v>566</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8706,7 +8793,7 @@
         <v>697</v>
       </c>
       <c r="B508" t="s">
-        <v>622</v>
+        <v>681</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8717,7 +8804,7 @@
         <v>698</v>
       </c>
       <c r="B509" t="s">
-        <v>634</v>
+        <v>473</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8728,7 +8815,7 @@
         <v>699</v>
       </c>
       <c r="B510" t="s">
-        <v>652</v>
+        <v>566</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8739,7 +8826,7 @@
         <v>700</v>
       </c>
       <c r="B511" t="s">
-        <v>622</v>
+        <v>644</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8750,7 +8837,7 @@
         <v>701</v>
       </c>
       <c r="B512" t="s">
-        <v>702</v>
+        <v>681</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8758,10 +8845,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
+        <v>702</v>
+      </c>
+      <c r="B513" t="s">
         <v>703</v>
-      </c>
-      <c r="B513" t="s">
-        <v>704</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8769,10 +8856,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B514" t="s">
-        <v>618</v>
+        <v>691</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8780,10 +8867,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="B515" t="s">
-        <v>444</v>
+        <v>573</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8791,10 +8878,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B516" t="s">
-        <v>708</v>
+        <v>681</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8802,10 +8889,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B517" t="s">
-        <v>618</v>
+        <v>649</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8813,10 +8900,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B518" t="s">
-        <v>444</v>
+        <v>709</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8824,10 +8911,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B519" t="s">
-        <v>712</v>
+        <v>694</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8835,10 +8922,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B520" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8846,10 +8933,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B521" t="s">
-        <v>544</v>
+        <v>714</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8857,10 +8944,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B522" t="s">
-        <v>444</v>
+        <v>709</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8868,10 +8955,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B523" t="s">
-        <v>535</v>
+        <v>649</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8879,10 +8966,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B524" t="s">
-        <v>548</v>
+        <v>703</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8890,10 +8977,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B525" t="s">
-        <v>413</v>
+        <v>712</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8901,10 +8988,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="B526" t="s">
-        <v>474</v>
+        <v>703</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8912,10 +8999,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B527" t="s">
-        <v>413</v>
+        <v>653</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -8923,10 +9010,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="B528" t="s">
-        <v>411</v>
+        <v>694</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -8934,10 +9021,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="B529" t="s">
-        <v>413</v>
+        <v>712</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -8945,10 +9032,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B530" t="s">
-        <v>556</v>
+        <v>655</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -8956,10 +9043,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B531" t="s">
-        <v>411</v>
+        <v>651</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -8967,10 +9054,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="B532" t="s">
-        <v>430</v>
+        <v>712</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -8978,10 +9065,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B533" t="s">
-        <v>405</v>
+        <v>651</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -8989,10 +9076,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B534" t="s">
-        <v>482</v>
+        <v>663</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -9000,10 +9087,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B535" t="s">
-        <v>465</v>
+        <v>681</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -9011,10 +9098,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B536" t="s">
-        <v>430</v>
+        <v>651</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -9022,10 +9109,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
+        <v>730</v>
+      </c>
+      <c r="B537" t="s">
         <v>731</v>
-      </c>
-      <c r="B537" t="s">
-        <v>436</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -9036,7 +9123,7 @@
         <v>732</v>
       </c>
       <c r="B538" t="s">
-        <v>418</v>
+        <v>733</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -9044,10 +9131,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B539" t="s">
-        <v>422</v>
+        <v>647</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -9055,10 +9142,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B540" t="s">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -9066,10 +9153,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B541" t="s">
-        <v>420</v>
+        <v>737</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -9077,10 +9164,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B542" t="s">
-        <v>548</v>
+        <v>647</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -9088,10 +9175,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>737</v>
+        <v>739</v>
       </c>
       <c r="B543" t="s">
-        <v>553</v>
+        <v>473</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -9099,10 +9186,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B544" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -9110,10 +9197,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B545" t="s">
-        <v>448</v>
+        <v>743</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -9121,10 +9208,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>741</v>
+        <v>744</v>
       </c>
       <c r="B546" t="s">
-        <v>518</v>
+        <v>573</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -9132,10 +9219,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>742</v>
+        <v>745</v>
       </c>
       <c r="B547" t="s">
-        <v>553</v>
+        <v>473</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -9143,10 +9230,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>743</v>
+        <v>746</v>
       </c>
       <c r="B548" t="s">
-        <v>427</v>
+        <v>564</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -9154,10 +9241,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>744</v>
+        <v>747</v>
       </c>
       <c r="B549" t="s">
-        <v>434</v>
+        <v>577</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -9165,10 +9252,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>745</v>
+        <v>748</v>
       </c>
       <c r="B550" t="s">
-        <v>546</v>
+        <v>442</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -9176,10 +9263,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>746</v>
+        <v>749</v>
       </c>
       <c r="B551" t="s">
-        <v>432</v>
+        <v>503</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -9187,10 +9274,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>747</v>
+        <v>750</v>
       </c>
       <c r="B552" t="s">
-        <v>535</v>
+        <v>442</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -9198,10 +9285,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>748</v>
+        <v>751</v>
       </c>
       <c r="B553" t="s">
-        <v>714</v>
+        <v>440</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -9209,10 +9296,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>749</v>
+        <v>752</v>
       </c>
       <c r="B554" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -9220,10 +9307,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>750</v>
+        <v>753</v>
       </c>
       <c r="B555" t="s">
-        <v>448</v>
+        <v>585</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -9231,10 +9318,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>751</v>
+        <v>754</v>
       </c>
       <c r="B556" t="s">
-        <v>532</v>
+        <v>440</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -9242,10 +9329,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>752</v>
+        <v>755</v>
       </c>
       <c r="B557" t="s">
-        <v>532</v>
+        <v>459</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -9253,10 +9340,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>753</v>
+        <v>756</v>
       </c>
       <c r="B558" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -9264,10 +9351,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>754</v>
+        <v>757</v>
       </c>
       <c r="B559" t="s">
-        <v>540</v>
+        <v>511</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -9275,10 +9362,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>755</v>
+        <v>758</v>
       </c>
       <c r="B560" t="s">
-        <v>546</v>
+        <v>494</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -9286,10 +9373,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B561" t="s">
-        <v>535</v>
+        <v>459</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -9297,10 +9384,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>757</v>
+        <v>760</v>
       </c>
       <c r="B562" t="s">
-        <v>662</v>
+        <v>465</v>
       </c>
       <c r="C562" t="s">
         <v>5</v>
@@ -9308,10 +9395,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="B563" t="s">
-        <v>631</v>
+        <v>447</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -9319,10 +9406,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>759</v>
+        <v>762</v>
       </c>
       <c r="B564" t="s">
-        <v>634</v>
+        <v>451</v>
       </c>
       <c r="C564" t="s">
         <v>5</v>
@@ -9330,10 +9417,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>760</v>
+        <v>763</v>
       </c>
       <c r="B565" t="s">
-        <v>674</v>
+        <v>442</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -9341,10 +9428,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>761</v>
+        <v>764</v>
       </c>
       <c r="B566" t="s">
-        <v>624</v>
+        <v>449</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -9352,10 +9439,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>762</v>
+        <v>765</v>
       </c>
       <c r="B567" t="s">
-        <v>629</v>
+        <v>577</v>
       </c>
       <c r="C567" t="s">
         <v>5</v>
@@ -9363,10 +9450,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>763</v>
+        <v>766</v>
       </c>
       <c r="B568" t="s">
-        <v>654</v>
+        <v>582</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -9374,10 +9461,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>764</v>
+        <v>767</v>
       </c>
       <c r="B569" t="s">
-        <v>629</v>
+        <v>768</v>
       </c>
       <c r="C569" t="s">
         <v>5</v>
@@ -9385,10 +9472,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="B570" t="s">
-        <v>640</v>
+        <v>477</v>
       </c>
       <c r="C570" t="s">
         <v>5</v>
@@ -9396,10 +9483,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="B571" t="s">
-        <v>767</v>
+        <v>547</v>
       </c>
       <c r="C571" t="s">
         <v>5</v>
@@ -9407,10 +9494,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>768</v>
+        <v>771</v>
       </c>
       <c r="B572" t="s">
-        <v>636</v>
+        <v>582</v>
       </c>
       <c r="C572" t="s">
         <v>5</v>
@@ -9418,10 +9505,10 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B573" t="s">
-        <v>680</v>
+        <v>456</v>
       </c>
       <c r="C573" t="s">
         <v>5</v>
@@ -9429,10 +9516,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B574" t="s">
-        <v>708</v>
+        <v>463</v>
       </c>
       <c r="C574" t="s">
         <v>5</v>
@@ -9440,10 +9527,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B575" t="s">
-        <v>652</v>
+        <v>575</v>
       </c>
       <c r="C575" t="s">
         <v>5</v>
@@ -9451,10 +9538,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B576" t="s">
-        <v>642</v>
+        <v>461</v>
       </c>
       <c r="C576" t="s">
         <v>5</v>
@@ -9462,10 +9549,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B577" t="s">
-        <v>774</v>
+        <v>564</v>
       </c>
       <c r="C577" t="s">
         <v>5</v>
@@ -9473,10 +9560,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="B578" t="s">
-        <v>776</v>
+        <v>743</v>
       </c>
       <c r="C578" t="s">
         <v>5</v>
@@ -9484,10 +9571,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B579" t="s">
-        <v>778</v>
+        <v>477</v>
       </c>
       <c r="C579" t="s">
         <v>5</v>
@@ -9498,7 +9585,7 @@
         <v>779</v>
       </c>
       <c r="B580" t="s">
-        <v>780</v>
+        <v>477</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
@@ -9506,10 +9593,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B581" t="s">
-        <v>782</v>
+        <v>561</v>
       </c>
       <c r="C581" t="s">
         <v>5</v>
@@ -9517,10 +9604,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B582" t="s">
-        <v>784</v>
+        <v>561</v>
       </c>
       <c r="C582" t="s">
         <v>5</v>
@@ -9528,10 +9615,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="B583" t="s">
-        <v>786</v>
+        <v>456</v>
       </c>
       <c r="C583" t="s">
         <v>5</v>
@@ -9539,10 +9626,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="B584" t="s">
-        <v>788</v>
+        <v>569</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
@@ -9550,10 +9637,10 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="B585" t="s">
-        <v>790</v>
+        <v>575</v>
       </c>
       <c r="C585" t="s">
         <v>5</v>
@@ -9561,10 +9648,10 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
       <c r="B586" t="s">
-        <v>631</v>
+        <v>564</v>
       </c>
       <c r="C586" t="s">
         <v>5</v>
@@ -9572,10 +9659,10 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
       <c r="B587" t="s">
-        <v>634</v>
+        <v>691</v>
       </c>
       <c r="C587" t="s">
         <v>5</v>
@@ -9583,10 +9670,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
       <c r="B588" t="s">
-        <v>624</v>
+        <v>660</v>
       </c>
       <c r="C588" t="s">
         <v>5</v>
@@ -9594,10 +9681,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
       <c r="B589" t="s">
-        <v>657</v>
+        <v>663</v>
       </c>
       <c r="C589" t="s">
         <v>5</v>
@@ -9605,10 +9692,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
       <c r="B590" t="s">
-        <v>649</v>
+        <v>703</v>
       </c>
       <c r="C590" t="s">
         <v>5</v>
@@ -9616,10 +9703,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
       <c r="B591" t="s">
-        <v>615</v>
+        <v>653</v>
       </c>
       <c r="C591" t="s">
         <v>5</v>
@@ -9627,10 +9714,10 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
       <c r="B592" t="s">
-        <v>540</v>
+        <v>658</v>
       </c>
       <c r="C592" t="s">
         <v>5</v>
@@ -9638,10 +9725,10 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
       <c r="B593" t="s">
-        <v>799</v>
+        <v>683</v>
       </c>
       <c r="C593" t="s">
         <v>5</v>
@@ -9649,10 +9736,10 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>800</v>
+        <v>793</v>
       </c>
       <c r="B594" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C594" t="s">
         <v>5</v>
@@ -9660,10 +9747,10 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>801</v>
+        <v>794</v>
       </c>
       <c r="B595" t="s">
-        <v>636</v>
+        <v>669</v>
       </c>
       <c r="C595" t="s">
         <v>5</v>
@@ -9671,10 +9758,10 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>802</v>
+        <v>795</v>
       </c>
       <c r="B596" t="s">
-        <v>629</v>
+        <v>796</v>
       </c>
       <c r="C596" t="s">
         <v>5</v>
@@ -9682,10 +9769,10 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
       <c r="B597" t="s">
-        <v>804</v>
+        <v>665</v>
       </c>
       <c r="C597" t="s">
         <v>5</v>
@@ -9693,10 +9780,10 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>805</v>
+        <v>798</v>
       </c>
       <c r="B598" t="s">
-        <v>657</v>
+        <v>709</v>
       </c>
       <c r="C598" t="s">
         <v>5</v>
@@ -9704,10 +9791,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>806</v>
+        <v>799</v>
       </c>
       <c r="B599" t="s">
-        <v>807</v>
+        <v>737</v>
       </c>
       <c r="C599" t="s">
         <v>5</v>
@@ -9715,10 +9802,10 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
       <c r="B600" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
       <c r="C600" t="s">
         <v>5</v>
@@ -9726,10 +9813,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
       <c r="B601" t="s">
-        <v>810</v>
+        <v>671</v>
       </c>
       <c r="C601" t="s">
         <v>5</v>
@@ -9737,10 +9824,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>811</v>
+        <v>802</v>
       </c>
       <c r="B602" t="s">
-        <v>654</v>
+        <v>803</v>
       </c>
       <c r="C602" t="s">
         <v>5</v>
@@ -9748,10 +9835,10 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
       <c r="B603" t="s">
-        <v>540</v>
+        <v>805</v>
       </c>
       <c r="C603" t="s">
         <v>5</v>
@@ -9759,10 +9846,10 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>813</v>
+        <v>806</v>
       </c>
       <c r="B604" t="s">
-        <v>618</v>
+        <v>807</v>
       </c>
       <c r="C604" t="s">
         <v>5</v>
@@ -9770,10 +9857,10 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
       <c r="B605" t="s">
-        <v>665</v>
+        <v>809</v>
       </c>
       <c r="C605" t="s">
         <v>5</v>
@@ -9781,10 +9868,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="B606" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="C606" t="s">
         <v>5</v>
@@ -9792,10 +9879,10 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="B607" t="s">
-        <v>535</v>
+        <v>813</v>
       </c>
       <c r="C607" t="s">
         <v>5</v>
@@ -9803,10 +9890,10 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B608" t="s">
-        <v>714</v>
+        <v>815</v>
       </c>
       <c r="C608" t="s">
         <v>5</v>
@@ -9814,10 +9901,10 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="B609" t="s">
-        <v>546</v>
+        <v>817</v>
       </c>
       <c r="C609" t="s">
         <v>5</v>
@@ -9825,10 +9912,10 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B610" t="s">
-        <v>518</v>
+        <v>819</v>
       </c>
       <c r="C610" t="s">
         <v>5</v>
@@ -9836,10 +9923,10 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B611" t="s">
-        <v>518</v>
+        <v>660</v>
       </c>
       <c r="C611" t="s">
         <v>5</v>
@@ -9847,10 +9934,10 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B612" t="s">
-        <v>535</v>
+        <v>663</v>
       </c>
       <c r="C612" t="s">
         <v>5</v>
@@ -9858,10 +9945,10 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B613" t="s">
-        <v>444</v>
+        <v>653</v>
       </c>
       <c r="C613" t="s">
         <v>5</v>
@@ -9869,10 +9956,10 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B614" t="s">
-        <v>448</v>
+        <v>686</v>
       </c>
       <c r="C614" t="s">
         <v>5</v>
@@ -9880,10 +9967,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B615" t="s">
-        <v>816</v>
+        <v>678</v>
       </c>
       <c r="C615" t="s">
         <v>5</v>
@@ -9891,10 +9978,10 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B616" t="s">
-        <v>714</v>
+        <v>644</v>
       </c>
       <c r="C616" t="s">
         <v>5</v>
@@ -9902,10 +9989,10 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B617" t="s">
-        <v>542</v>
+        <v>569</v>
       </c>
       <c r="C617" t="s">
         <v>5</v>
@@ -9913,10 +10000,10 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
+        <v>827</v>
+      </c>
+      <c r="B618" t="s">
         <v>828</v>
-      </c>
-      <c r="B618" t="s">
-        <v>535</v>
       </c>
       <c r="C618" t="s">
         <v>5</v>
@@ -9927,7 +10014,7 @@
         <v>829</v>
       </c>
       <c r="B619" t="s">
-        <v>448</v>
+        <v>683</v>
       </c>
       <c r="C619" t="s">
         <v>5</v>
@@ -9938,7 +10025,7 @@
         <v>830</v>
       </c>
       <c r="B620" t="s">
-        <v>546</v>
+        <v>665</v>
       </c>
       <c r="C620" t="s">
         <v>5</v>
@@ -9949,7 +10036,7 @@
         <v>831</v>
       </c>
       <c r="B621" t="s">
-        <v>427</v>
+        <v>658</v>
       </c>
       <c r="C621" t="s">
         <v>5</v>
@@ -9960,7 +10047,7 @@
         <v>832</v>
       </c>
       <c r="B622" t="s">
-        <v>411</v>
+        <v>833</v>
       </c>
       <c r="C622" t="s">
         <v>5</v>
@@ -9968,10 +10055,10 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B623" t="s">
-        <v>427</v>
+        <v>686</v>
       </c>
       <c r="C623" t="s">
         <v>5</v>
@@ -9979,10 +10066,10 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B624" t="s">
-        <v>739</v>
+        <v>836</v>
       </c>
       <c r="C624" t="s">
         <v>5</v>
@@ -9990,10 +10077,10 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B625" t="s">
-        <v>448</v>
+        <v>678</v>
       </c>
       <c r="C625" t="s">
         <v>5</v>
@@ -10001,10 +10088,10 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="B626" t="s">
-        <v>542</v>
+        <v>839</v>
       </c>
       <c r="C626" t="s">
         <v>5</v>
@@ -10012,10 +10099,10 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B627" t="s">
-        <v>432</v>
+        <v>683</v>
       </c>
       <c r="C627" t="s">
         <v>5</v>
@@ -10023,10 +10110,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B628" t="s">
-        <v>540</v>
+        <v>569</v>
       </c>
       <c r="C628" t="s">
         <v>5</v>
@@ -10034,10 +10121,10 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B629" t="s">
-        <v>739</v>
+        <v>647</v>
       </c>
       <c r="C629" t="s">
         <v>5</v>
@@ -10045,10 +10132,10 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B630" t="s">
-        <v>799</v>
+        <v>694</v>
       </c>
       <c r="C630" t="s">
         <v>5</v>
@@ -10056,10 +10143,10 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B631" t="s">
-        <v>518</v>
+        <v>845</v>
       </c>
       <c r="C631" t="s">
         <v>5</v>
@@ -10067,10 +10154,10 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>842</v>
+        <v>846</v>
       </c>
       <c r="B632" t="s">
-        <v>702</v>
+        <v>564</v>
       </c>
       <c r="C632" t="s">
         <v>5</v>
@@ -10078,10 +10165,10 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>843</v>
+        <v>847</v>
       </c>
       <c r="B633" t="s">
-        <v>704</v>
+        <v>743</v>
       </c>
       <c r="C633" t="s">
         <v>5</v>
@@ -10089,10 +10176,10 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>844</v>
+        <v>848</v>
       </c>
       <c r="B634" t="s">
-        <v>444</v>
+        <v>575</v>
       </c>
       <c r="C634" t="s">
         <v>5</v>
@@ -10100,10 +10187,10 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="B635" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C635" t="s">
         <v>5</v>
@@ -10111,10 +10198,10 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="B636" t="s">
-        <v>739</v>
+        <v>547</v>
       </c>
       <c r="C636" t="s">
         <v>5</v>
@@ -10122,10 +10209,10 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="B637" t="s">
-        <v>448</v>
+        <v>564</v>
       </c>
       <c r="C637" t="s">
         <v>5</v>
@@ -10133,10 +10220,10 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B638" t="s">
-        <v>540</v>
+        <v>473</v>
       </c>
       <c r="C638" t="s">
         <v>5</v>
@@ -10144,10 +10231,10 @@
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>849</v>
+        <v>853</v>
       </c>
       <c r="B639" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
       <c r="C639" t="s">
         <v>5</v>
@@ -10155,10 +10242,10 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="B640" t="s">
-        <v>615</v>
+        <v>845</v>
       </c>
       <c r="C640" t="s">
         <v>5</v>
@@ -10166,10 +10253,10 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="B641" t="s">
-        <v>683</v>
+        <v>743</v>
       </c>
       <c r="C641" t="s">
         <v>5</v>
@@ -10177,10 +10264,10 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="B642" t="s">
-        <v>665</v>
+        <v>571</v>
       </c>
       <c r="C642" t="s">
         <v>5</v>
@@ -10188,10 +10275,10 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="B643" t="s">
-        <v>810</v>
+        <v>564</v>
       </c>
       <c r="C643" t="s">
         <v>5</v>
@@ -10199,10 +10286,10 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>854</v>
+        <v>858</v>
       </c>
       <c r="B644" t="s">
-        <v>708</v>
+        <v>477</v>
       </c>
       <c r="C644" t="s">
         <v>5</v>
@@ -10210,10 +10297,10 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>855</v>
+        <v>859</v>
       </c>
       <c r="B645" t="s">
-        <v>652</v>
+        <v>575</v>
       </c>
       <c r="C645" t="s">
         <v>5</v>
@@ -10221,10 +10308,10 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>856</v>
+        <v>860</v>
       </c>
       <c r="B646" t="s">
-        <v>857</v>
+        <v>456</v>
       </c>
       <c r="C646" t="s">
         <v>5</v>
@@ -10232,10 +10319,10 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B647" t="s">
-        <v>859</v>
+        <v>440</v>
       </c>
       <c r="C647" t="s">
         <v>5</v>
@@ -10243,10 +10330,10 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="B648" t="s">
-        <v>861</v>
+        <v>456</v>
       </c>
       <c r="C648" t="s">
         <v>5</v>
@@ -10254,10 +10341,10 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B649" t="s">
-        <v>863</v>
+        <v>768</v>
       </c>
       <c r="C649" t="s">
         <v>5</v>
@@ -10268,7 +10355,7 @@
         <v>864</v>
       </c>
       <c r="B650" t="s">
-        <v>865</v>
+        <v>477</v>
       </c>
       <c r="C650" t="s">
         <v>5</v>
@@ -10276,10 +10363,10 @@
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B651" t="s">
-        <v>867</v>
+        <v>571</v>
       </c>
       <c r="C651" t="s">
         <v>5</v>
@@ -10287,10 +10374,10 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B652" t="s">
-        <v>869</v>
+        <v>461</v>
       </c>
       <c r="C652" t="s">
         <v>5</v>
@@ -10298,10 +10385,10 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="B653" t="s">
-        <v>865</v>
+        <v>569</v>
       </c>
       <c r="C653" t="s">
         <v>5</v>
@@ -10309,10 +10396,10 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="B654" t="s">
-        <v>872</v>
+        <v>768</v>
       </c>
       <c r="C654" t="s">
         <v>5</v>
@@ -10320,10 +10407,10 @@
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="B655" t="s">
-        <v>874</v>
+        <v>828</v>
       </c>
       <c r="C655" t="s">
         <v>5</v>
@@ -10331,10 +10418,10 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="B656" t="s">
-        <v>876</v>
+        <v>547</v>
       </c>
       <c r="C656" t="s">
         <v>5</v>
@@ -10342,10 +10429,10 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
       <c r="B657" t="s">
-        <v>810</v>
+        <v>731</v>
       </c>
       <c r="C657" t="s">
         <v>5</v>
@@ -10353,10 +10440,10 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
       <c r="B658" t="s">
-        <v>680</v>
+        <v>733</v>
       </c>
       <c r="C658" t="s">
         <v>5</v>
@@ -10364,10 +10451,10 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
       <c r="B659" t="s">
-        <v>634</v>
+        <v>473</v>
       </c>
       <c r="C659" t="s">
         <v>5</v>
@@ -10375,10 +10462,10 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
       <c r="B660" t="s">
-        <v>634</v>
+        <v>575</v>
       </c>
       <c r="C660" t="s">
         <v>5</v>
@@ -10386,10 +10473,10 @@
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
       <c r="B661" t="s">
-        <v>622</v>
+        <v>768</v>
       </c>
       <c r="C661" t="s">
         <v>5</v>
@@ -10397,10 +10484,10 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
       <c r="B662" t="s">
-        <v>657</v>
+        <v>477</v>
       </c>
       <c r="C662" t="s">
         <v>5</v>
@@ -10408,10 +10495,10 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
       <c r="B663" t="s">
-        <v>626</v>
+        <v>569</v>
       </c>
       <c r="C663" t="s">
         <v>5</v>
@@ -10419,10 +10506,10 @@
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
       <c r="B664" t="s">
-        <v>708</v>
+        <v>475</v>
       </c>
       <c r="C664" t="s">
         <v>5</v>
@@ -10430,10 +10517,10 @@
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
       <c r="B665" t="s">
-        <v>704</v>
+        <v>644</v>
       </c>
       <c r="C665" t="s">
         <v>5</v>
@@ -10441,10 +10528,10 @@
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="B666" t="s">
-        <v>624</v>
+        <v>712</v>
       </c>
       <c r="C666" t="s">
         <v>5</v>
@@ -10452,10 +10539,10 @@
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="B667" t="s">
-        <v>659</v>
+        <v>694</v>
       </c>
       <c r="C667" t="s">
         <v>5</v>
@@ -10463,10 +10550,10 @@
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>888</v>
+        <v>882</v>
       </c>
       <c r="B668" t="s">
-        <v>624</v>
+        <v>839</v>
       </c>
       <c r="C668" t="s">
         <v>5</v>
@@ -10474,10 +10561,10 @@
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>889</v>
+        <v>883</v>
       </c>
       <c r="B669" t="s">
-        <v>810</v>
+        <v>737</v>
       </c>
       <c r="C669" t="s">
         <v>5</v>
@@ -10485,10 +10572,10 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>890</v>
+        <v>884</v>
       </c>
       <c r="B670" t="s">
-        <v>649</v>
+        <v>681</v>
       </c>
       <c r="C670" t="s">
         <v>5</v>
@@ -10496,10 +10583,10 @@
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>891</v>
+        <v>885</v>
       </c>
       <c r="B671" t="s">
-        <v>876</v>
+        <v>886</v>
       </c>
       <c r="C671" t="s">
         <v>5</v>
@@ -10507,10 +10594,10 @@
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="B672" t="s">
-        <v>876</v>
+        <v>888</v>
       </c>
       <c r="C672" t="s">
         <v>5</v>
@@ -10518,10 +10605,10 @@
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>893</v>
+        <v>889</v>
       </c>
       <c r="B673" t="s">
-        <v>642</v>
+        <v>890</v>
       </c>
       <c r="C673" t="s">
         <v>5</v>
@@ -10529,10 +10616,10 @@
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B674" t="s">
-        <v>778</v>
+        <v>892</v>
       </c>
       <c r="C674" t="s">
         <v>5</v>
@@ -10540,10 +10627,10 @@
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B675" t="s">
-        <v>857</v>
+        <v>894</v>
       </c>
       <c r="C675" t="s">
         <v>5</v>
@@ -10551,10 +10638,10 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
+        <v>895</v>
+      </c>
+      <c r="B676" t="s">
         <v>896</v>
-      </c>
-      <c r="B676" t="s">
-        <v>897</v>
       </c>
       <c r="C676" t="s">
         <v>5</v>
@@ -10562,10 +10649,10 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
+        <v>897</v>
+      </c>
+      <c r="B677" t="s">
         <v>898</v>
-      </c>
-      <c r="B677" t="s">
-        <v>876</v>
       </c>
       <c r="C677" t="s">
         <v>5</v>
@@ -10576,7 +10663,7 @@
         <v>899</v>
       </c>
       <c r="B678" t="s">
-        <v>626</v>
+        <v>894</v>
       </c>
       <c r="C678" t="s">
         <v>5</v>
@@ -10587,7 +10674,7 @@
         <v>900</v>
       </c>
       <c r="B679" t="s">
-        <v>624</v>
+        <v>901</v>
       </c>
       <c r="C679" t="s">
         <v>5</v>
@@ -10595,10 +10682,10 @@
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="B680" t="s">
-        <v>708</v>
+        <v>903</v>
       </c>
       <c r="C680" t="s">
         <v>5</v>
@@ -10606,10 +10693,10 @@
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B681" t="s">
-        <v>739</v>
+        <v>905</v>
       </c>
       <c r="C681" t="s">
         <v>5</v>
@@ -10617,10 +10704,10 @@
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="B682" t="s">
-        <v>816</v>
+        <v>839</v>
       </c>
       <c r="C682" t="s">
         <v>5</v>
@@ -10628,10 +10715,10 @@
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="B683" t="s">
-        <v>427</v>
+        <v>709</v>
       </c>
       <c r="C683" t="s">
         <v>5</v>
@@ -10639,10 +10726,10 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="B684" t="s">
-        <v>518</v>
+        <v>663</v>
       </c>
       <c r="C684" t="s">
         <v>5</v>
@@ -10650,10 +10737,10 @@
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="B685" t="s">
-        <v>535</v>
+        <v>663</v>
       </c>
       <c r="C685" t="s">
         <v>5</v>
@@ -10661,10 +10748,10 @@
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="B686" t="s">
-        <v>436</v>
+        <v>651</v>
       </c>
       <c r="C686" t="s">
         <v>5</v>
@@ -10672,10 +10759,10 @@
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="B687" t="s">
-        <v>556</v>
+        <v>686</v>
       </c>
       <c r="C687" t="s">
         <v>5</v>
@@ -10683,10 +10770,10 @@
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="B688" t="s">
-        <v>465</v>
+        <v>655</v>
       </c>
       <c r="C688" t="s">
         <v>5</v>
@@ -10694,10 +10781,10 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="B689" t="s">
-        <v>378</v>
+        <v>737</v>
       </c>
       <c r="C689" t="s">
         <v>5</v>
@@ -10705,10 +10792,10 @@
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="B690" t="s">
-        <v>386</v>
+        <v>733</v>
       </c>
       <c r="C690" t="s">
         <v>5</v>
@@ -10716,10 +10803,10 @@
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="B691" t="s">
-        <v>381</v>
+        <v>653</v>
       </c>
       <c r="C691" t="s">
         <v>5</v>
@@ -10727,10 +10814,10 @@
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="B692" t="s">
-        <v>914</v>
+        <v>688</v>
       </c>
       <c r="C692" t="s">
         <v>5</v>
@@ -10738,10 +10825,10 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="B693" t="s">
-        <v>36</v>
+        <v>653</v>
       </c>
       <c r="C693" t="s">
         <v>5</v>
@@ -10749,10 +10836,10 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>916</v>
+        <v>918</v>
       </c>
       <c r="B694" t="s">
-        <v>461</v>
+        <v>839</v>
       </c>
       <c r="C694" t="s">
         <v>5</v>
@@ -10760,10 +10847,10 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B695" t="s">
-        <v>918</v>
+        <v>678</v>
       </c>
       <c r="C695" t="s">
         <v>5</v>
@@ -10771,10 +10858,10 @@
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="B696" t="s">
-        <v>920</v>
+        <v>905</v>
       </c>
       <c r="C696" t="s">
         <v>5</v>
@@ -10785,7 +10872,7 @@
         <v>921</v>
       </c>
       <c r="B697" t="s">
-        <v>920</v>
+        <v>905</v>
       </c>
       <c r="C697" t="s">
         <v>5</v>
@@ -10796,7 +10883,7 @@
         <v>922</v>
       </c>
       <c r="B698" t="s">
-        <v>923</v>
+        <v>671</v>
       </c>
       <c r="C698" t="s">
         <v>5</v>
@@ -10804,10 +10891,10 @@
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B699" t="s">
-        <v>920</v>
+        <v>807</v>
       </c>
       <c r="C699" t="s">
         <v>5</v>
@@ -10815,10 +10902,10 @@
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="B700" t="s">
-        <v>25</v>
+        <v>886</v>
       </c>
       <c r="C700" t="s">
         <v>5</v>
@@ -10826,12 +10913,287 @@
     </row>
     <row r="701">
       <c r="A701" t="s">
+        <v>925</v>
+      </c>
+      <c r="B701" t="s">
         <v>926</v>
       </c>
-      <c r="B701" t="s">
-        <v>25</v>
-      </c>
       <c r="C701" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="702">
+      <c r="A702" t="s">
+        <v>927</v>
+      </c>
+      <c r="B702" t="s">
+        <v>905</v>
+      </c>
+      <c r="C702" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="703">
+      <c r="A703" t="s">
+        <v>928</v>
+      </c>
+      <c r="B703" t="s">
+        <v>655</v>
+      </c>
+      <c r="C703" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="704">
+      <c r="A704" t="s">
+        <v>929</v>
+      </c>
+      <c r="B704" t="s">
+        <v>653</v>
+      </c>
+      <c r="C704" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="705">
+      <c r="A705" t="s">
+        <v>930</v>
+      </c>
+      <c r="B705" t="s">
+        <v>737</v>
+      </c>
+      <c r="C705" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="706">
+      <c r="A706" t="s">
+        <v>931</v>
+      </c>
+      <c r="B706" t="s">
+        <v>768</v>
+      </c>
+      <c r="C706" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="707">
+      <c r="A707" t="s">
+        <v>932</v>
+      </c>
+      <c r="B707" t="s">
+        <v>845</v>
+      </c>
+      <c r="C707" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="708">
+      <c r="A708" t="s">
+        <v>933</v>
+      </c>
+      <c r="B708" t="s">
+        <v>456</v>
+      </c>
+      <c r="C708" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="709">
+      <c r="A709" t="s">
+        <v>934</v>
+      </c>
+      <c r="B709" t="s">
+        <v>547</v>
+      </c>
+      <c r="C709" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="710">
+      <c r="A710" t="s">
+        <v>935</v>
+      </c>
+      <c r="B710" t="s">
+        <v>564</v>
+      </c>
+      <c r="C710" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="711">
+      <c r="A711" t="s">
+        <v>936</v>
+      </c>
+      <c r="B711" t="s">
+        <v>465</v>
+      </c>
+      <c r="C711" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="712">
+      <c r="A712" t="s">
+        <v>937</v>
+      </c>
+      <c r="B712" t="s">
+        <v>585</v>
+      </c>
+      <c r="C712" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="713">
+      <c r="A713" t="s">
+        <v>938</v>
+      </c>
+      <c r="B713" t="s">
+        <v>494</v>
+      </c>
+      <c r="C713" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="714">
+      <c r="A714" t="s">
+        <v>939</v>
+      </c>
+      <c r="B714" t="s">
+        <v>407</v>
+      </c>
+      <c r="C714" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="715">
+      <c r="A715" t="s">
+        <v>940</v>
+      </c>
+      <c r="B715" t="s">
+        <v>415</v>
+      </c>
+      <c r="C715" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="716">
+      <c r="A716" t="s">
+        <v>941</v>
+      </c>
+      <c r="B716" t="s">
+        <v>410</v>
+      </c>
+      <c r="C716" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="717">
+      <c r="A717" t="s">
+        <v>942</v>
+      </c>
+      <c r="B717" t="s">
+        <v>943</v>
+      </c>
+      <c r="C717" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" t="s">
+        <v>944</v>
+      </c>
+      <c r="B718" t="s">
+        <v>77</v>
+      </c>
+      <c r="C718" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" t="s">
+        <v>945</v>
+      </c>
+      <c r="B719" t="s">
+        <v>490</v>
+      </c>
+      <c r="C719" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" t="s">
+        <v>946</v>
+      </c>
+      <c r="B720" t="s">
+        <v>947</v>
+      </c>
+      <c r="C720" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" t="s">
+        <v>948</v>
+      </c>
+      <c r="B721" t="s">
+        <v>949</v>
+      </c>
+      <c r="C721" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" t="s">
+        <v>950</v>
+      </c>
+      <c r="B722" t="s">
+        <v>949</v>
+      </c>
+      <c r="C722" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" t="s">
+        <v>951</v>
+      </c>
+      <c r="B723" t="s">
+        <v>952</v>
+      </c>
+      <c r="C723" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" t="s">
+        <v>953</v>
+      </c>
+      <c r="B724" t="s">
+        <v>949</v>
+      </c>
+      <c r="C724" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" t="s">
+        <v>954</v>
+      </c>
+      <c r="B725" t="s">
+        <v>66</v>
+      </c>
+      <c r="C725" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" t="s">
+        <v>955</v>
+      </c>
+      <c r="B726" t="s">
+        <v>66</v>
+      </c>
+      <c r="C726" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink International Health Care Fund.xlsx
+++ b/data/GreatLink/GreatLink International Health Care Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid145493"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid532326"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="956" uniqueCount="956">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="973">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,81 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>13/03/2025</t>
+  </si>
+  <si>
+    <t>0.959</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>12/03/2025</t>
+  </si>
+  <si>
+    <t>0.961</t>
+  </si>
+  <si>
+    <t>11/03/2025</t>
+  </si>
+  <si>
+    <t>0.965</t>
+  </si>
+  <si>
+    <t>10/03/2025</t>
+  </si>
+  <si>
+    <t>0.979</t>
+  </si>
+  <si>
+    <t>07/03/2025</t>
+  </si>
+  <si>
+    <t>0.991</t>
+  </si>
+  <si>
+    <t>06/03/2025</t>
+  </si>
+  <si>
+    <t>0.990</t>
+  </si>
+  <si>
+    <t>05/03/2025</t>
+  </si>
+  <si>
+    <t>04/03/2025</t>
+  </si>
+  <si>
+    <t>03/03/2025</t>
+  </si>
+  <si>
+    <t>0.996</t>
+  </si>
+  <si>
+    <t>28/02/2025</t>
+  </si>
+  <si>
+    <t>0.997</t>
+  </si>
+  <si>
+    <t>27/02/2025</t>
+  </si>
+  <si>
+    <t>0.988</t>
+  </si>
+  <si>
+    <t>26/02/2025</t>
+  </si>
+  <si>
+    <t>25/02/2025</t>
+  </si>
+  <si>
     <t>24/02/2025</t>
   </si>
   <si>
     <t>0.987</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>21/02/2025</t>
   </si>
   <si>
@@ -89,18 +155,12 @@
     <t>10/02/2025</t>
   </si>
   <si>
-    <t>0.991</t>
-  </si>
-  <si>
     <t>07/02/2025</t>
   </si>
   <si>
     <t>06/02/2025</t>
   </si>
   <si>
-    <t>0.997</t>
-  </si>
-  <si>
     <t>05/02/2025</t>
   </si>
   <si>
@@ -170,9 +230,6 @@
     <t>14/01/2025</t>
   </si>
   <si>
-    <t>0.961</t>
-  </si>
-  <si>
     <t>13/01/2025</t>
   </si>
   <si>
@@ -290,9 +347,6 @@
     <t>09/12/2024</t>
   </si>
   <si>
-    <t>0.996</t>
-  </si>
-  <si>
     <t>06/12/2024</t>
   </si>
   <si>
@@ -345,9 +399,6 @@
   </si>
   <si>
     <t>22/11/2024</t>
-  </si>
-  <si>
-    <t>0.988</t>
   </si>
   <si>
     <t>21/11/2024</t>
@@ -3293,7 +3344,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3301,10 +3352,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3312,10 +3363,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3323,10 +3374,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3334,10 +3385,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
-      </c>
-      <c r="B12" t="s">
-        <v>24</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3345,10 +3396,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3356,10 +3407,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3367,10 +3418,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3378,10 +3429,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3389,10 +3440,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
         <v>31</v>
-      </c>
-      <c r="B17" t="s">
-        <v>32</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3400,10 +3451,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" t="s">
-        <v>34</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3411,10 +3462,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s">
         <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3422,10 +3473,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" t="s">
         <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3436,7 +3487,7 @@
         <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3444,10 +3495,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3455,10 +3506,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3469,7 +3520,7 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3477,10 +3528,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3491,7 +3542,7 @@
         <v>46</v>
       </c>
       <c r="B26" t="s">
-        <v>47</v>
+        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3499,10 +3550,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3510,10 +3561,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s">
         <v>49</v>
-      </c>
-      <c r="B28" t="s">
-        <v>15</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3524,7 +3575,7 @@
         <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3532,10 +3583,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
         <v>52</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3543,10 +3594,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
         <v>54</v>
-      </c>
-      <c r="B31" t="s">
-        <v>55</v>
       </c>
       <c r="C31" t="s">
         <v>5</v>
@@ -3554,10 +3605,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
         <v>56</v>
-      </c>
-      <c r="B32" t="s">
-        <v>57</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3565,10 +3616,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B33" t="s">
-        <v>13</v>
+        <v>56</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3576,10 +3627,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3587,10 +3638,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3598,10 +3649,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3609,10 +3660,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3620,10 +3671,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B38" t="s">
         <v>65</v>
-      </c>
-      <c r="B38" t="s">
-        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3631,10 +3682,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B39" t="s">
         <v>67</v>
-      </c>
-      <c r="B39" t="s">
-        <v>68</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3642,10 +3693,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3653,10 +3704,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3664,10 +3715,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3675,10 +3726,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3686,10 +3737,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B44" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3697,10 +3748,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3708,10 +3759,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B46" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3719,10 +3770,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B47" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3730,10 +3781,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B48" t="s">
-        <v>13</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3741,10 +3792,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3752,10 +3803,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3763,10 +3814,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3774,10 +3825,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B52" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3785,10 +3836,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3796,10 +3847,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3807,10 +3858,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" t="s">
         <v>93</v>
-      </c>
-      <c r="B55" t="s">
-        <v>32</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3821,7 +3872,7 @@
         <v>94</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3829,10 +3880,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B57" t="s">
         <v>96</v>
-      </c>
-      <c r="B57" t="s">
-        <v>97</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3840,10 +3891,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58" t="s">
         <v>98</v>
-      </c>
-      <c r="B58" t="s">
-        <v>99</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3851,10 +3902,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B59" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3862,10 +3913,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B60" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3873,10 +3924,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3884,10 +3935,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
-        <v>29</v>
+        <v>104</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3895,10 +3946,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B63" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3906,10 +3957,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B64" t="s">
-        <v>110</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3917,10 +3968,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B65" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3928,10 +3979,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B66" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3939,10 +3990,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B67" t="s">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -3950,10 +4001,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B68" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -3961,10 +4012,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B69" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -3972,10 +4023,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B70" t="s">
-        <v>29</v>
+        <v>115</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -3983,10 +4034,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B71" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -3994,10 +4045,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -4005,10 +4056,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B73" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -4016,10 +4067,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B74" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -4027,10 +4078,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B75" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -4038,10 +4089,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B76" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -4049,10 +4100,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B77" t="s">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -4060,10 +4111,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B78" t="s">
-        <v>34</v>
+        <v>129</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -4071,10 +4122,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -4082,10 +4133,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B80" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -4093,10 +4144,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B81" t="s">
-        <v>99</v>
+        <v>37</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -4104,10 +4155,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B82" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -4115,10 +4166,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B83" t="s">
-        <v>95</v>
+        <v>49</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -4126,10 +4177,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B84" t="s">
-        <v>99</v>
+        <v>137</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -4137,10 +4188,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B85" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -4148,10 +4199,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B86" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -4159,10 +4210,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" t="s">
         <v>143</v>
-      </c>
-      <c r="B87" t="s">
-        <v>128</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -4195,7 +4246,7 @@
         <v>148</v>
       </c>
       <c r="B90" t="s">
-        <v>149</v>
+        <v>123</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -4203,10 +4254,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B91" t="s">
-        <v>151</v>
+        <v>54</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -4214,10 +4265,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B92" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -4225,10 +4276,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B93" t="s">
-        <v>126</v>
+        <v>152</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -4236,10 +4287,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B94" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -4247,10 +4298,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
+        <v>154</v>
+      </c>
+      <c r="B95" t="s">
         <v>155</v>
-      </c>
-      <c r="B95" t="s">
-        <v>156</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -4258,10 +4309,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B96" t="s">
-        <v>158</v>
+        <v>113</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -4269,10 +4320,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B97" t="s">
-        <v>160</v>
+        <v>117</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -4280,10 +4331,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B98" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -4291,10 +4342,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B99" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -4302,10 +4353,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B100" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -4313,10 +4364,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B101" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -4324,10 +4375,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B102" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -4335,10 +4386,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B103" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -4346,10 +4397,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B104" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -4357,10 +4408,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B105" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -4368,10 +4419,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B106" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -4379,10 +4430,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B107" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -4390,10 +4441,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B108" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -4401,10 +4452,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B109" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -4412,10 +4463,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B110" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -4423,10 +4474,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B111" t="s">
-        <v>181</v>
+        <v>117</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -4434,10 +4485,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B112" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -4445,10 +4496,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B113" t="s">
-        <v>185</v>
+        <v>147</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -4456,10 +4507,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B114" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -4467,10 +4518,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B115" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -4478,10 +4529,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B116" t="s">
-        <v>191</v>
+        <v>147</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -4489,10 +4540,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="B117" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -4500,10 +4551,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B118" t="s">
-        <v>195</v>
+        <v>145</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -4511,10 +4562,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B119" t="s">
-        <v>193</v>
+        <v>162</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -4522,10 +4573,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="B120" t="s">
-        <v>198</v>
+        <v>143</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4533,10 +4584,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B121" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -4544,10 +4595,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B122" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -4555,10 +4606,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B123" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -4566,10 +4617,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B124" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -4577,10 +4628,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B125" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -4588,10 +4639,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B126" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4599,10 +4650,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B127" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4610,10 +4661,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B128" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4621,7 +4672,7 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B129" t="s">
         <v>208</v>
@@ -4632,10 +4683,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="B130" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4643,10 +4694,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B131" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4654,10 +4705,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B132" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4665,10 +4716,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B133" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4676,10 +4727,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B134" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4687,10 +4738,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B135" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4698,10 +4749,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B136" t="s">
-        <v>193</v>
+        <v>221</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4709,10 +4760,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B137" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4720,10 +4771,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B138" t="s">
-        <v>124</v>
+        <v>225</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4731,10 +4782,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B139" t="s">
-        <v>163</v>
+        <v>215</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4742,10 +4793,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B140" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4753,10 +4804,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B141" t="s">
-        <v>97</v>
+        <v>225</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4764,10 +4815,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B142" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4775,10 +4826,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B143" t="s">
-        <v>185</v>
+        <v>232</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4786,10 +4837,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
+        <v>233</v>
+      </c>
+      <c r="B144" t="s">
         <v>234</v>
-      </c>
-      <c r="B144" t="s">
-        <v>181</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4800,7 +4851,7 @@
         <v>235</v>
       </c>
       <c r="B145" t="s">
-        <v>189</v>
+        <v>234</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4811,7 +4862,7 @@
         <v>236</v>
       </c>
       <c r="B146" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4822,7 +4873,7 @@
         <v>237</v>
       </c>
       <c r="B147" t="s">
-        <v>177</v>
+        <v>238</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4830,10 +4881,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B148" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4841,10 +4892,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B149" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4855,7 +4906,7 @@
         <v>242</v>
       </c>
       <c r="B150" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4863,10 +4914,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B151" t="s">
-        <v>215</v>
+        <v>141</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4874,10 +4925,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B152" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4885,10 +4936,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B153" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4896,10 +4947,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B154" t="s">
-        <v>247</v>
+        <v>115</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4921,7 +4972,7 @@
         <v>250</v>
       </c>
       <c r="B156" t="s">
-        <v>251</v>
+        <v>202</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4929,10 +4980,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B157" t="s">
-        <v>253</v>
+        <v>198</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4940,10 +4991,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B158" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -4951,10 +5002,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B159" t="s">
-        <v>241</v>
+        <v>208</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -4962,10 +5013,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B160" t="s">
-        <v>179</v>
+        <v>194</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -4973,10 +5024,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B161" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -4984,10 +5035,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
+        <v>257</v>
+      </c>
+      <c r="B162" t="s">
         <v>258</v>
-      </c>
-      <c r="B162" t="s">
-        <v>195</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -4998,7 +5049,7 @@
         <v>259</v>
       </c>
       <c r="B163" t="s">
-        <v>260</v>
+        <v>204</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -5006,10 +5057,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B164" t="s">
-        <v>124</v>
+        <v>232</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -5017,10 +5068,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B165" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -5028,10 +5079,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B166" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -5039,10 +5090,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
+        <v>263</v>
+      </c>
+      <c r="B167" t="s">
         <v>264</v>
-      </c>
-      <c r="B167" t="s">
-        <v>193</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -5053,7 +5104,7 @@
         <v>265</v>
       </c>
       <c r="B168" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -5061,10 +5112,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B169" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -5072,10 +5123,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B170" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -5083,10 +5134,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="B171" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -5094,10 +5145,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B172" t="s">
-        <v>193</v>
+        <v>258</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -5105,10 +5156,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="B173" t="s">
-        <v>179</v>
+        <v>196</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -5116,10 +5167,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B174" t="s">
-        <v>272</v>
+        <v>256</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -5127,10 +5178,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="B175" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -5138,10 +5189,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B176" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -5149,10 +5200,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B177" t="s">
-        <v>239</v>
+        <v>141</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -5160,10 +5211,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="B178" t="s">
-        <v>272</v>
+        <v>196</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -5171,10 +5222,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B179" t="s">
-        <v>195</v>
+        <v>240</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -5182,10 +5233,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B180" t="s">
-        <v>275</v>
+        <v>210</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -5193,10 +5244,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B181" t="s">
-        <v>175</v>
+        <v>258</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -5204,10 +5255,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B182" t="s">
-        <v>226</v>
+        <v>258</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -5215,10 +5266,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B183" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -5226,10 +5277,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B184" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -5237,10 +5288,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B185" t="s">
-        <v>128</v>
+        <v>210</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -5248,10 +5299,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B186" t="s">
-        <v>170</v>
+        <v>196</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -5259,10 +5310,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B187" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -5270,10 +5321,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B188" t="s">
-        <v>287</v>
+        <v>243</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -5281,10 +5332,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="B189" t="s">
-        <v>130</v>
+        <v>292</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -5292,10 +5343,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="B190" t="s">
-        <v>149</v>
+        <v>256</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -5303,10 +5354,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="B191" t="s">
-        <v>126</v>
+        <v>289</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -5314,10 +5365,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B192" t="s">
-        <v>124</v>
+        <v>212</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -5325,10 +5376,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="B193" t="s">
-        <v>175</v>
+        <v>292</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -5336,10 +5387,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="B194" t="s">
-        <v>232</v>
+        <v>192</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -5347,10 +5398,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B195" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -5358,10 +5409,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="B196" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -5369,10 +5420,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="B197" t="s">
-        <v>239</v>
+        <v>164</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -5380,10 +5431,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B198" t="s">
-        <v>299</v>
+        <v>145</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -5391,10 +5442,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B199" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -5402,10 +5453,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B200" t="s">
-        <v>151</v>
+        <v>304</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -5413,10 +5464,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B201" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -5424,10 +5475,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="B202" t="s">
-        <v>97</v>
+        <v>147</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -5435,10 +5486,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B203" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -5446,10 +5497,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B204" t="s">
-        <v>27</v>
+        <v>143</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -5457,10 +5508,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="B205" t="s">
-        <v>34</v>
+        <v>141</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -5468,10 +5519,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="B206" t="s">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -5479,10 +5530,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B207" t="s">
-        <v>34</v>
+        <v>249</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -5490,10 +5541,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="B208" t="s">
-        <v>32</v>
+        <v>243</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -5501,10 +5552,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B209" t="s">
-        <v>27</v>
+        <v>289</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -5512,10 +5563,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B210" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -5523,10 +5574,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B211" t="s">
-        <v>91</v>
+        <v>316</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -5534,10 +5585,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B212" t="s">
-        <v>103</v>
+        <v>173</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -5545,10 +5596,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B213" t="s">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -5556,10 +5607,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B214" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -5567,10 +5618,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="B215" t="s">
-        <v>316</v>
+        <v>115</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -5578,10 +5629,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="B216" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -5589,10 +5640,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="B217" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -5600,10 +5651,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B218" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -5611,10 +5662,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="B219" t="s">
-        <v>110</v>
+        <v>13</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5622,10 +5673,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B220" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -5633,10 +5684,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B221" t="s">
-        <v>135</v>
+        <v>52</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -5644,10 +5695,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B222" t="s">
-        <v>101</v>
+        <v>21</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5655,10 +5706,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B223" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5666,10 +5717,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B224" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5677,10 +5728,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B225" t="s">
-        <v>166</v>
+        <v>121</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5688,10 +5739,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B226" t="s">
-        <v>166</v>
+        <v>44</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5699,10 +5750,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B227" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5710,10 +5761,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B228" t="s">
-        <v>239</v>
+        <v>333</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5721,10 +5772,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B229" t="s">
-        <v>239</v>
+        <v>33</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5732,10 +5783,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="B230" t="s">
-        <v>334</v>
+        <v>44</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5743,10 +5794,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B231" t="s">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5754,10 +5805,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B232" t="s">
-        <v>337</v>
+        <v>23</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5765,10 +5816,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B233" t="s">
-        <v>126</v>
+        <v>52</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5776,10 +5827,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B234" t="s">
-        <v>337</v>
+        <v>152</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5787,10 +5838,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B235" t="s">
-        <v>299</v>
+        <v>119</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5798,10 +5849,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B236" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5809,10 +5860,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B237" t="s">
-        <v>343</v>
+        <v>52</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5823,7 +5874,7 @@
         <v>344</v>
       </c>
       <c r="B238" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5834,7 +5885,7 @@
         <v>345</v>
       </c>
       <c r="B239" t="s">
-        <v>151</v>
+        <v>183</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5845,7 +5896,7 @@
         <v>346</v>
       </c>
       <c r="B240" t="s">
-        <v>149</v>
+        <v>347</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5853,10 +5904,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B241" t="s">
-        <v>156</v>
+        <v>256</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5864,10 +5915,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B242" t="s">
-        <v>151</v>
+        <v>256</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5875,10 +5926,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B243" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5886,10 +5937,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B244" t="s">
-        <v>120</v>
+        <v>166</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5897,10 +5948,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B245" t="s">
-        <v>138</v>
+        <v>354</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5908,10 +5959,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B246" t="s">
-        <v>353</v>
+        <v>143</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5919,10 +5970,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
+        <v>356</v>
+      </c>
+      <c r="B247" t="s">
         <v>354</v>
-      </c>
-      <c r="B247" t="s">
-        <v>353</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5930,10 +5981,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B248" t="s">
-        <v>138</v>
+        <v>316</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5941,10 +5992,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B249" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -5952,10 +6003,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B250" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -5963,10 +6014,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="B251" t="s">
-        <v>337</v>
+        <v>173</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -5974,10 +6025,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B252" t="s">
-        <v>360</v>
+        <v>168</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -5985,10 +6036,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B253" t="s">
-        <v>299</v>
+        <v>166</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -5996,10 +6047,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B254" t="s">
-        <v>138</v>
+        <v>173</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -6007,10 +6058,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B255" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -6018,10 +6069,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B256" t="s">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -6029,10 +6080,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B257" t="s">
-        <v>343</v>
+        <v>137</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -6040,10 +6091,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B258" t="s">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -6051,10 +6102,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B259" t="s">
-        <v>158</v>
+        <v>370</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -6062,10 +6113,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B260" t="s">
-        <v>103</v>
+        <v>370</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -6073,10 +6124,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="B261" t="s">
-        <v>95</v>
+        <v>155</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -6084,10 +6135,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="B262" t="s">
-        <v>287</v>
+        <v>168</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -6095,10 +6146,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="B263" t="s">
-        <v>103</v>
+        <v>370</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -6106,10 +6157,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B264" t="s">
-        <v>101</v>
+        <v>354</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -6117,10 +6168,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="B265" t="s">
-        <v>105</v>
+        <v>377</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -6128,10 +6179,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B266" t="s">
-        <v>4</v>
+        <v>316</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -6139,10 +6190,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B267" t="s">
-        <v>110</v>
+        <v>155</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -6150,10 +6201,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B268" t="s">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -6161,10 +6212,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B269" t="s">
-        <v>85</v>
+        <v>360</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -6172,10 +6223,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B270" t="s">
-        <v>85</v>
+        <v>360</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -6183,10 +6234,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B271" t="s">
-        <v>380</v>
+        <v>183</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -6194,10 +6245,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B272" t="s">
-        <v>382</v>
+        <v>175</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -6205,10 +6256,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B273" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -6216,10 +6267,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B274" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -6227,10 +6278,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B275" t="s">
-        <v>57</v>
+        <v>304</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -6238,10 +6289,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B276" t="s">
-        <v>380</v>
+        <v>121</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -6249,10 +6300,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B277" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -6260,10 +6311,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B278" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -6271,10 +6322,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B279" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -6282,10 +6333,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B280" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -6293,10 +6344,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B281" t="s">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -6304,10 +6355,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B282" t="s">
-        <v>7</v>
+        <v>104</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -6315,10 +6366,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B283" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -6326,10 +6377,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B284" t="s">
-        <v>13</v>
+        <v>397</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -6337,10 +6388,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B285" t="s">
-        <v>42</v>
+        <v>399</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -6348,10 +6399,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B286" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -6359,10 +6410,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B287" t="s">
-        <v>382</v>
+        <v>37</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -6370,10 +6421,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B288" t="s">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -6381,10 +6432,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B289" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -6392,10 +6443,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="B290" t="s">
-        <v>402</v>
+        <v>72</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -6403,10 +6454,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B291" t="s">
-        <v>404</v>
+        <v>134</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -6414,10 +6465,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="B292" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -6425,10 +6476,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B293" t="s">
-        <v>407</v>
+        <v>29</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -6439,7 +6490,7 @@
         <v>408</v>
       </c>
       <c r="B294" t="s">
-        <v>407</v>
+        <v>104</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -6450,7 +6501,7 @@
         <v>409</v>
       </c>
       <c r="B295" t="s">
-        <v>410</v>
+        <v>29</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -6458,10 +6509,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B296" t="s">
-        <v>412</v>
+        <v>104</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -6469,10 +6520,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B297" t="s">
-        <v>410</v>
+        <v>35</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -6480,10 +6531,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B298" t="s">
-        <v>415</v>
+        <v>62</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -6491,10 +6542,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="B299" t="s">
-        <v>417</v>
+        <v>81</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -6502,10 +6553,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="B300" t="s">
-        <v>419</v>
+        <v>399</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -6513,10 +6564,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B301" t="s">
-        <v>421</v>
+        <v>81</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -6524,7 +6575,7 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B302" t="s">
         <v>417</v>
@@ -6535,10 +6586,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="B303" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -6546,10 +6597,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="B304" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -6557,10 +6608,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="B305" t="s">
-        <v>428</v>
+        <v>96</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -6568,10 +6619,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B306" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -6579,10 +6630,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B307" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -6590,10 +6641,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B308" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -6601,10 +6652,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="B309" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -6612,10 +6663,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B310" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -6623,10 +6674,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B311" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -6634,10 +6685,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B312" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -6645,10 +6696,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B313" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -6656,10 +6707,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B314" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -6667,10 +6718,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="B315" t="s">
-        <v>445</v>
+        <v>434</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -6678,10 +6729,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B316" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6689,10 +6740,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B317" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6700,10 +6751,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B318" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6711,10 +6762,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B319" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6722,10 +6773,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B320" t="s">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6733,10 +6784,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B321" t="s">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6744,10 +6795,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="B322" t="s">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6755,10 +6806,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B323" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6766,10 +6817,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B324" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6777,10 +6828,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B325" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6788,10 +6839,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B326" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6799,10 +6850,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B327" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6810,10 +6861,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B328" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6821,10 +6872,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B329" t="s">
-        <v>453</v>
+        <v>464</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6832,10 +6883,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B330" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6843,10 +6894,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B331" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6854,10 +6905,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="B332" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6865,10 +6916,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B333" t="s">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6876,10 +6927,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B334" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6887,10 +6938,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B335" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6898,10 +6949,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="B336" t="s">
-        <v>465</v>
+        <v>476</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6909,10 +6960,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B337" t="s">
-        <v>459</v>
+        <v>478</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6920,10 +6971,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B338" t="s">
-        <v>465</v>
+        <v>480</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6931,10 +6982,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
+        <v>481</v>
+      </c>
+      <c r="B339" t="s">
         <v>482</v>
-      </c>
-      <c r="B339" t="s">
-        <v>434</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6945,7 +6996,7 @@
         <v>483</v>
       </c>
       <c r="B340" t="s">
-        <v>417</v>
+        <v>470</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -6956,7 +7007,7 @@
         <v>484</v>
       </c>
       <c r="B341" t="s">
-        <v>485</v>
+        <v>457</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -6964,10 +7015,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B342" t="s">
-        <v>487</v>
+        <v>470</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -6975,10 +7026,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B343" t="s">
-        <v>419</v>
+        <v>487</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -6986,10 +7037,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B344" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -6997,10 +7048,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B345" t="s">
-        <v>407</v>
+        <v>490</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -7008,10 +7059,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
+        <v>491</v>
+      </c>
+      <c r="B346" t="s">
         <v>492</v>
-      </c>
-      <c r="B346" t="s">
-        <v>417</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -7033,7 +7084,7 @@
         <v>495</v>
       </c>
       <c r="B348" t="s">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -7041,10 +7092,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B349" t="s">
-        <v>465</v>
+        <v>482</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -7052,10 +7103,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B350" t="s">
-        <v>453</v>
+        <v>476</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -7063,10 +7114,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B351" t="s">
-        <v>500</v>
+        <v>482</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -7074,10 +7125,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B352" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -7085,10 +7136,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B353" t="s">
-        <v>503</v>
+        <v>434</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -7096,10 +7147,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B354" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -7107,10 +7158,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B355" t="s">
-        <v>434</v>
+        <v>504</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -7118,10 +7169,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B356" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -7129,10 +7180,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B357" t="s">
-        <v>426</v>
+        <v>507</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -7140,10 +7191,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B358" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -7151,10 +7202,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B359" t="s">
-        <v>511</v>
+        <v>434</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -7162,10 +7213,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B360" t="s">
-        <v>417</v>
+        <v>511</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -7173,10 +7224,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
+        <v>512</v>
+      </c>
+      <c r="B361" t="s">
         <v>513</v>
-      </c>
-      <c r="B361" t="s">
-        <v>424</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -7187,7 +7238,7 @@
         <v>514</v>
       </c>
       <c r="B362" t="s">
-        <v>424</v>
+        <v>482</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -7198,7 +7249,7 @@
         <v>515</v>
       </c>
       <c r="B363" t="s">
-        <v>516</v>
+        <v>470</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -7206,10 +7257,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
+        <v>516</v>
+      </c>
+      <c r="B364" t="s">
         <v>517</v>
-      </c>
-      <c r="B364" t="s">
-        <v>518</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -7217,10 +7268,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B365" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -7228,10 +7279,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
+        <v>519</v>
+      </c>
+      <c r="B366" t="s">
         <v>520</v>
-      </c>
-      <c r="B366" t="s">
-        <v>485</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -7242,7 +7293,7 @@
         <v>521</v>
       </c>
       <c r="B367" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -7250,10 +7301,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B368" t="s">
-        <v>407</v>
+        <v>451</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -7261,10 +7312,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B369" t="s">
-        <v>415</v>
+        <v>451</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -7272,10 +7323,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B370" t="s">
-        <v>525</v>
+        <v>443</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -7286,7 +7337,7 @@
         <v>526</v>
       </c>
       <c r="B371" t="s">
-        <v>516</v>
+        <v>464</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -7297,7 +7348,7 @@
         <v>527</v>
       </c>
       <c r="B372" t="s">
-        <v>424</v>
+        <v>528</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -7305,10 +7356,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B373" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -7316,10 +7367,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B374" t="s">
-        <v>490</v>
+        <v>441</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -7327,10 +7378,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B375" t="s">
-        <v>485</v>
+        <v>441</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -7338,10 +7389,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B376" t="s">
-        <v>417</v>
+        <v>533</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -7349,10 +7400,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B377" t="s">
-        <v>412</v>
+        <v>535</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -7360,10 +7411,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
+        <v>536</v>
+      </c>
+      <c r="B378" t="s">
         <v>533</v>
-      </c>
-      <c r="B378" t="s">
-        <v>428</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -7371,10 +7422,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="B379" t="s">
-        <v>424</v>
+        <v>502</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -7382,10 +7433,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="B380" t="s">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -7393,10 +7444,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="B381" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -7404,10 +7455,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="B382" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -7415,10 +7466,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="B383" t="s">
-        <v>430</v>
+        <v>542</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -7426,10 +7477,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B384" t="s">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -7437,10 +7488,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B385" t="s">
-        <v>485</v>
+        <v>441</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -7448,10 +7499,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B386" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -7459,10 +7510,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B387" t="s">
-        <v>415</v>
+        <v>507</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -7470,10 +7521,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B388" t="s">
-        <v>424</v>
+        <v>502</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -7481,10 +7532,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B389" t="s">
-        <v>516</v>
+        <v>434</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -7492,10 +7543,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B390" t="s">
-        <v>503</v>
+        <v>429</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -7503,10 +7554,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B391" t="s">
-        <v>547</v>
+        <v>445</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -7514,10 +7565,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="B392" t="s">
-        <v>461</v>
+        <v>441</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -7525,10 +7576,10 @@
     </row>
     <row r="393">
       <c r="A393" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="B393" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -7536,10 +7587,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="B394" t="s">
-        <v>459</v>
+        <v>429</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -7547,10 +7598,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="B395" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -7558,10 +7609,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="B396" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -7569,10 +7620,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="B397" t="s">
-        <v>459</v>
+        <v>542</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -7580,10 +7631,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="B398" t="s">
-        <v>449</v>
+        <v>502</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -7591,10 +7642,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="B399" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7602,10 +7653,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="B400" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -7613,10 +7664,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="B401" t="s">
-        <v>511</v>
+        <v>441</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -7624,10 +7675,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="B402" t="s">
-        <v>442</v>
+        <v>533</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -7635,10 +7686,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="B403" t="s">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7646,10 +7697,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="B404" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -7657,10 +7708,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="B405" t="s">
-        <v>547</v>
+        <v>478</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -7668,10 +7719,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="B406" t="s">
-        <v>564</v>
+        <v>455</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7679,10 +7730,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B407" t="s">
-        <v>566</v>
+        <v>476</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7690,10 +7741,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B408" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7701,10 +7752,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B409" t="s">
-        <v>569</v>
+        <v>468</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7715,7 +7766,7 @@
         <v>570</v>
       </c>
       <c r="B410" t="s">
-        <v>571</v>
+        <v>476</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7723,10 +7774,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B411" t="s">
-        <v>573</v>
+        <v>466</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7734,10 +7785,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B412" t="s">
-        <v>575</v>
+        <v>459</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7745,10 +7796,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="B413" t="s">
-        <v>577</v>
+        <v>453</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7756,10 +7807,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="B414" t="s">
-        <v>500</v>
+        <v>528</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7767,10 +7818,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="B415" t="s">
-        <v>561</v>
+        <v>459</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7778,10 +7829,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="B416" t="s">
-        <v>503</v>
+        <v>470</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7789,10 +7840,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="B417" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7800,10 +7851,10 @@
     </row>
     <row r="418">
       <c r="A418" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="B418" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7811,10 +7862,10 @@
     </row>
     <row r="419">
       <c r="A419" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B419" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7822,10 +7873,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="B420" t="s">
-        <v>442</v>
+        <v>583</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7833,10 +7884,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B421" t="s">
-        <v>459</v>
+        <v>492</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7844,10 +7895,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B422" t="s">
-        <v>440</v>
+        <v>586</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7855,10 +7906,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B423" t="s">
-        <v>440</v>
+        <v>588</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7866,10 +7917,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
+        <v>589</v>
+      </c>
+      <c r="B424" t="s">
         <v>590</v>
-      </c>
-      <c r="B424" t="s">
-        <v>453</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7880,7 +7931,7 @@
         <v>591</v>
       </c>
       <c r="B425" t="s">
-        <v>459</v>
+        <v>592</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7888,10 +7939,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B426" t="s">
-        <v>453</v>
+        <v>594</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7899,10 +7950,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B427" t="s">
-        <v>575</v>
+        <v>517</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7910,10 +7961,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B428" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7921,10 +7972,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B429" t="s">
-        <v>561</v>
+        <v>520</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7932,10 +7983,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B430" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7943,10 +7994,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="B431" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -7954,10 +8005,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="B432" t="s">
-        <v>564</v>
+        <v>602</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -7965,10 +8016,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B433" t="s">
-        <v>585</v>
+        <v>459</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -7976,10 +8027,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="B434" t="s">
-        <v>449</v>
+        <v>476</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -7987,10 +8038,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B435" t="s">
-        <v>602</v>
+        <v>457</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -7998,10 +8049,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="B436" t="s">
-        <v>470</v>
+        <v>457</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -8009,10 +8060,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="B437" t="s">
-        <v>605</v>
+        <v>470</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -8020,10 +8071,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B438" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -8031,7 +8082,7 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B439" t="s">
         <v>470</v>
@@ -8042,10 +8093,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="B440" t="s">
-        <v>571</v>
+        <v>592</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -8053,10 +8104,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B441" t="s">
-        <v>575</v>
+        <v>594</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -8064,10 +8115,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="B442" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -8075,10 +8126,10 @@
     </row>
     <row r="443">
       <c r="A443" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B443" t="s">
-        <v>451</v>
+        <v>599</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -8086,10 +8137,10 @@
     </row>
     <row r="444">
       <c r="A444" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B444" t="s">
-        <v>451</v>
+        <v>599</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -8097,10 +8148,10 @@
     </row>
     <row r="445">
       <c r="A445" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B445" t="s">
-        <v>503</v>
+        <v>581</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -8108,10 +8159,10 @@
     </row>
     <row r="446">
       <c r="A446" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B446" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -8119,10 +8170,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B447" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -8130,10 +8181,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="B448" t="s">
-        <v>451</v>
+        <v>619</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -8141,10 +8192,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B449" t="s">
-        <v>449</v>
+        <v>487</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -8152,10 +8203,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="B450" t="s">
-        <v>456</v>
+        <v>622</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -8163,10 +8214,10 @@
     </row>
     <row r="451">
       <c r="A451" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B451" t="s">
-        <v>456</v>
+        <v>494</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -8174,10 +8225,10 @@
     </row>
     <row r="452">
       <c r="A452" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B452" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -8185,10 +8236,10 @@
     </row>
     <row r="453">
       <c r="A453" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B453" t="s">
-        <v>585</v>
+        <v>588</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -8196,10 +8247,10 @@
     </row>
     <row r="454">
       <c r="A454" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B454" t="s">
-        <v>459</v>
+        <v>592</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -8207,10 +8258,10 @@
     </row>
     <row r="455">
       <c r="A455" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B455" t="s">
-        <v>461</v>
+        <v>599</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -8218,10 +8269,10 @@
     </row>
     <row r="456">
       <c r="A456" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B456" t="s">
-        <v>453</v>
+        <v>468</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -8229,10 +8280,10 @@
     </row>
     <row r="457">
       <c r="A457" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B457" t="s">
-        <v>459</v>
+        <v>468</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -8240,10 +8291,10 @@
     </row>
     <row r="458">
       <c r="A458" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B458" t="s">
-        <v>449</v>
+        <v>520</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -8251,10 +8302,10 @@
     </row>
     <row r="459">
       <c r="A459" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="B459" t="s">
-        <v>585</v>
+        <v>602</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -8262,10 +8313,10 @@
     </row>
     <row r="460">
       <c r="A460" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B460" t="s">
-        <v>547</v>
+        <v>473</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -8273,10 +8324,10 @@
     </row>
     <row r="461">
       <c r="A461" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="B461" t="s">
-        <v>442</v>
+        <v>468</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -8284,10 +8335,10 @@
     </row>
     <row r="462">
       <c r="A462" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B462" t="s">
-        <v>428</v>
+        <v>466</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -8295,10 +8346,10 @@
     </row>
     <row r="463">
       <c r="A463" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B463" t="s">
-        <v>445</v>
+        <v>473</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -8306,10 +8357,10 @@
     </row>
     <row r="464">
       <c r="A464" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B464" t="s">
-        <v>456</v>
+        <v>473</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -8317,10 +8368,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="B465" t="s">
-        <v>459</v>
+        <v>470</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -8328,10 +8379,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B466" t="s">
-        <v>442</v>
+        <v>602</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -8339,10 +8390,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B467" t="s">
-        <v>447</v>
+        <v>476</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -8350,10 +8401,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B468" t="s">
-        <v>445</v>
+        <v>478</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -8361,10 +8412,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B469" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -8372,10 +8423,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B470" t="s">
-        <v>440</v>
+        <v>476</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -8383,10 +8434,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B471" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -8394,10 +8445,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B472" t="s">
-        <v>456</v>
+        <v>602</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -8405,10 +8456,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B473" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -8416,10 +8467,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B474" t="s">
-        <v>575</v>
+        <v>459</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -8427,10 +8478,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="B475" t="s">
-        <v>644</v>
+        <v>445</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -8438,10 +8489,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="B476" t="s">
-        <v>605</v>
+        <v>462</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -8449,10 +8500,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="B477" t="s">
-        <v>647</v>
+        <v>473</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -8460,10 +8511,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B478" t="s">
-        <v>649</v>
+        <v>476</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -8471,10 +8522,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="B479" t="s">
-        <v>651</v>
+        <v>459</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -8485,7 +8536,7 @@
         <v>652</v>
       </c>
       <c r="B480" t="s">
-        <v>653</v>
+        <v>464</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -8493,10 +8544,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B481" t="s">
-        <v>655</v>
+        <v>462</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -8504,10 +8555,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B482" t="s">
-        <v>653</v>
+        <v>453</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -8515,10 +8566,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B483" t="s">
-        <v>658</v>
+        <v>457</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -8526,10 +8577,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B484" t="s">
-        <v>660</v>
+        <v>473</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -8537,10 +8588,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="B485" t="s">
-        <v>653</v>
+        <v>473</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -8548,10 +8599,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="B486" t="s">
-        <v>663</v>
+        <v>578</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -8559,10 +8610,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="B487" t="s">
-        <v>665</v>
+        <v>592</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -8570,10 +8621,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
       <c r="B488" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -8581,10 +8632,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
       <c r="B489" t="s">
-        <v>669</v>
+        <v>622</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -8592,10 +8643,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>670</v>
+        <v>663</v>
       </c>
       <c r="B490" t="s">
-        <v>671</v>
+        <v>664</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -8603,10 +8654,10 @@
     </row>
     <row r="491">
       <c r="A491" t="s">
-        <v>672</v>
+        <v>665</v>
       </c>
       <c r="B491" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -8614,10 +8665,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="B492" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -8625,10 +8676,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="B493" t="s">
-        <v>658</v>
+        <v>670</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -8636,10 +8687,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B494" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -8647,10 +8698,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B495" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -8658,10 +8709,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="B496" t="s">
-        <v>655</v>
+        <v>675</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -8669,10 +8720,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B497" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8680,10 +8731,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="B498" t="s">
-        <v>683</v>
+        <v>670</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8691,10 +8742,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="B499" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8702,10 +8753,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="B500" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8713,10 +8764,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="B501" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8724,10 +8775,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="B502" t="s">
-        <v>653</v>
+        <v>686</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8735,10 +8786,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="B503" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8746,10 +8797,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="B504" t="s">
-        <v>655</v>
+        <v>682</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8757,10 +8808,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="B505" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8768,10 +8819,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="B506" t="s">
-        <v>475</v>
+        <v>675</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8779,10 +8830,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="B507" t="s">
-        <v>566</v>
+        <v>688</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8790,10 +8841,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B508" t="s">
-        <v>681</v>
+        <v>695</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8801,10 +8852,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B509" t="s">
-        <v>473</v>
+        <v>672</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8812,10 +8863,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B510" t="s">
-        <v>566</v>
+        <v>698</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8823,10 +8874,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
+        <v>699</v>
+      </c>
+      <c r="B511" t="s">
         <v>700</v>
-      </c>
-      <c r="B511" t="s">
-        <v>644</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8837,7 +8888,7 @@
         <v>701</v>
       </c>
       <c r="B512" t="s">
-        <v>681</v>
+        <v>688</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8859,7 +8910,7 @@
         <v>704</v>
       </c>
       <c r="B514" t="s">
-        <v>691</v>
+        <v>705</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8867,10 +8918,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B515" t="s">
-        <v>573</v>
+        <v>670</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8878,10 +8929,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B516" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8889,10 +8940,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="B517" t="s">
-        <v>649</v>
+        <v>672</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8900,10 +8951,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B518" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8911,10 +8962,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B519" t="s">
-        <v>694</v>
+        <v>492</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8922,10 +8973,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="B520" t="s">
-        <v>712</v>
+        <v>583</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8933,10 +8984,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="B521" t="s">
-        <v>714</v>
+        <v>698</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8947,7 +8998,7 @@
         <v>715</v>
       </c>
       <c r="B522" t="s">
-        <v>709</v>
+        <v>490</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -8958,7 +9009,7 @@
         <v>716</v>
       </c>
       <c r="B523" t="s">
-        <v>649</v>
+        <v>583</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -8969,7 +9020,7 @@
         <v>717</v>
       </c>
       <c r="B524" t="s">
-        <v>703</v>
+        <v>661</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -8980,7 +9031,7 @@
         <v>718</v>
       </c>
       <c r="B525" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -8991,7 +9042,7 @@
         <v>719</v>
       </c>
       <c r="B526" t="s">
-        <v>703</v>
+        <v>720</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -8999,10 +9050,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B527" t="s">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -9010,10 +9061,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B528" t="s">
-        <v>694</v>
+        <v>590</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -9021,10 +9072,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B529" t="s">
-        <v>712</v>
+        <v>698</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -9032,10 +9083,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B530" t="s">
-        <v>655</v>
+        <v>666</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -9043,10 +9094,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="B531" t="s">
-        <v>651</v>
+        <v>726</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -9054,10 +9105,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B532" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -9065,10 +9116,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B533" t="s">
-        <v>651</v>
+        <v>729</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -9076,10 +9127,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B534" t="s">
-        <v>663</v>
+        <v>731</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -9087,10 +9138,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="B535" t="s">
-        <v>681</v>
+        <v>726</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -9098,10 +9149,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B536" t="s">
-        <v>651</v>
+        <v>666</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -9109,10 +9160,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>730</v>
+        <v>734</v>
       </c>
       <c r="B537" t="s">
-        <v>731</v>
+        <v>720</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -9120,10 +9171,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>732</v>
+        <v>735</v>
       </c>
       <c r="B538" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -9131,10 +9182,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B539" t="s">
-        <v>647</v>
+        <v>720</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -9142,10 +9193,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="B540" t="s">
-        <v>473</v>
+        <v>670</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -9153,10 +9204,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B541" t="s">
-        <v>737</v>
+        <v>711</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -9164,10 +9215,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B542" t="s">
-        <v>647</v>
+        <v>729</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -9175,10 +9226,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B543" t="s">
-        <v>473</v>
+        <v>672</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -9186,10 +9237,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="B544" t="s">
-        <v>741</v>
+        <v>668</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -9200,7 +9251,7 @@
         <v>742</v>
       </c>
       <c r="B545" t="s">
-        <v>743</v>
+        <v>729</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -9208,10 +9259,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B546" t="s">
-        <v>573</v>
+        <v>668</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -9219,10 +9270,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B547" t="s">
-        <v>473</v>
+        <v>680</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -9230,10 +9281,10 @@
     </row>
     <row r="548">
       <c r="A548" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B548" t="s">
-        <v>564</v>
+        <v>698</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -9241,10 +9292,10 @@
     </row>
     <row r="549">
       <c r="A549" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="B549" t="s">
-        <v>577</v>
+        <v>668</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -9252,10 +9303,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
+        <v>747</v>
+      </c>
+      <c r="B550" t="s">
         <v>748</v>
-      </c>
-      <c r="B550" t="s">
-        <v>442</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -9266,7 +9317,7 @@
         <v>749</v>
       </c>
       <c r="B551" t="s">
-        <v>503</v>
+        <v>750</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -9274,10 +9325,10 @@
     </row>
     <row r="552">
       <c r="A552" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B552" t="s">
-        <v>442</v>
+        <v>664</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -9285,10 +9336,10 @@
     </row>
     <row r="553">
       <c r="A553" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B553" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -9296,10 +9347,10 @@
     </row>
     <row r="554">
       <c r="A554" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B554" t="s">
-        <v>442</v>
+        <v>754</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -9307,10 +9358,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="B555" t="s">
-        <v>585</v>
+        <v>664</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -9318,10 +9369,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B556" t="s">
-        <v>440</v>
+        <v>490</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -9329,10 +9380,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
       <c r="B557" t="s">
-        <v>459</v>
+        <v>758</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -9340,10 +9391,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>756</v>
+        <v>759</v>
       </c>
       <c r="B558" t="s">
-        <v>434</v>
+        <v>760</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -9351,10 +9402,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>757</v>
+        <v>761</v>
       </c>
       <c r="B559" t="s">
-        <v>511</v>
+        <v>590</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -9362,10 +9413,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>758</v>
+        <v>762</v>
       </c>
       <c r="B560" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -9373,10 +9424,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>759</v>
+        <v>763</v>
       </c>
       <c r="B561" t="s">
-        <v>459</v>
+        <v>581</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -9384,10 +9435,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>760</v>
+        <v>764</v>
       </c>
       <c r="B562" t="s">
-        <v>465</v>
+        <v>594</v>
       </c>
       <c r="C562" t="s">
         <v>5</v>
@@ -9395,10 +9446,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>761</v>
+        <v>765</v>
       </c>
       <c r="B563" t="s">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -9406,10 +9457,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>762</v>
+        <v>766</v>
       </c>
       <c r="B564" t="s">
-        <v>451</v>
+        <v>520</v>
       </c>
       <c r="C564" t="s">
         <v>5</v>
@@ -9417,10 +9468,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>763</v>
+        <v>767</v>
       </c>
       <c r="B565" t="s">
-        <v>442</v>
+        <v>459</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -9428,10 +9479,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>764</v>
+        <v>768</v>
       </c>
       <c r="B566" t="s">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -9439,10 +9490,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>765</v>
+        <v>769</v>
       </c>
       <c r="B567" t="s">
-        <v>577</v>
+        <v>459</v>
       </c>
       <c r="C567" t="s">
         <v>5</v>
@@ -9450,10 +9501,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>766</v>
+        <v>770</v>
       </c>
       <c r="B568" t="s">
-        <v>582</v>
+        <v>602</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -9461,10 +9512,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>767</v>
+        <v>771</v>
       </c>
       <c r="B569" t="s">
-        <v>768</v>
+        <v>457</v>
       </c>
       <c r="C569" t="s">
         <v>5</v>
@@ -9472,10 +9523,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
-        <v>769</v>
+        <v>772</v>
       </c>
       <c r="B570" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C570" t="s">
         <v>5</v>
@@ -9483,10 +9534,10 @@
     </row>
     <row r="571">
       <c r="A571" t="s">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B571" t="s">
-        <v>547</v>
+        <v>451</v>
       </c>
       <c r="C571" t="s">
         <v>5</v>
@@ -9494,10 +9545,10 @@
     </row>
     <row r="572">
       <c r="A572" t="s">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B572" t="s">
-        <v>582</v>
+        <v>528</v>
       </c>
       <c r="C572" t="s">
         <v>5</v>
@@ -9505,10 +9556,10 @@
     </row>
     <row r="573">
       <c r="A573" t="s">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B573" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="C573" t="s">
         <v>5</v>
@@ -9516,10 +9567,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B574" t="s">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="C574" t="s">
         <v>5</v>
@@ -9527,10 +9578,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B575" t="s">
-        <v>575</v>
+        <v>482</v>
       </c>
       <c r="C575" t="s">
         <v>5</v>
@@ -9538,10 +9589,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B576" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="C576" t="s">
         <v>5</v>
@@ -9549,10 +9600,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B577" t="s">
-        <v>564</v>
+        <v>468</v>
       </c>
       <c r="C577" t="s">
         <v>5</v>
@@ -9560,10 +9611,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B578" t="s">
-        <v>743</v>
+        <v>459</v>
       </c>
       <c r="C578" t="s">
         <v>5</v>
@@ -9571,10 +9622,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B579" t="s">
-        <v>477</v>
+        <v>466</v>
       </c>
       <c r="C579" t="s">
         <v>5</v>
@@ -9582,10 +9633,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B580" t="s">
-        <v>477</v>
+        <v>594</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
@@ -9593,10 +9644,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B581" t="s">
-        <v>561</v>
+        <v>599</v>
       </c>
       <c r="C581" t="s">
         <v>5</v>
@@ -9604,10 +9655,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B582" t="s">
-        <v>561</v>
+        <v>785</v>
       </c>
       <c r="C582" t="s">
         <v>5</v>
@@ -9615,10 +9666,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>782</v>
+        <v>786</v>
       </c>
       <c r="B583" t="s">
-        <v>456</v>
+        <v>494</v>
       </c>
       <c r="C583" t="s">
         <v>5</v>
@@ -9626,10 +9677,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>783</v>
+        <v>787</v>
       </c>
       <c r="B584" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
@@ -9637,10 +9688,10 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>784</v>
+        <v>788</v>
       </c>
       <c r="B585" t="s">
-        <v>575</v>
+        <v>599</v>
       </c>
       <c r="C585" t="s">
         <v>5</v>
@@ -9648,10 +9699,10 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>785</v>
+        <v>789</v>
       </c>
       <c r="B586" t="s">
-        <v>564</v>
+        <v>473</v>
       </c>
       <c r="C586" t="s">
         <v>5</v>
@@ -9659,10 +9710,10 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>786</v>
+        <v>790</v>
       </c>
       <c r="B587" t="s">
-        <v>691</v>
+        <v>480</v>
       </c>
       <c r="C587" t="s">
         <v>5</v>
@@ -9670,10 +9721,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>787</v>
+        <v>791</v>
       </c>
       <c r="B588" t="s">
-        <v>660</v>
+        <v>592</v>
       </c>
       <c r="C588" t="s">
         <v>5</v>
@@ -9681,10 +9732,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>788</v>
+        <v>792</v>
       </c>
       <c r="B589" t="s">
-        <v>663</v>
+        <v>478</v>
       </c>
       <c r="C589" t="s">
         <v>5</v>
@@ -9692,10 +9743,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>789</v>
+        <v>793</v>
       </c>
       <c r="B590" t="s">
-        <v>703</v>
+        <v>581</v>
       </c>
       <c r="C590" t="s">
         <v>5</v>
@@ -9703,10 +9754,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>790</v>
+        <v>794</v>
       </c>
       <c r="B591" t="s">
-        <v>653</v>
+        <v>760</v>
       </c>
       <c r="C591" t="s">
         <v>5</v>
@@ -9714,10 +9765,10 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>791</v>
+        <v>795</v>
       </c>
       <c r="B592" t="s">
-        <v>658</v>
+        <v>494</v>
       </c>
       <c r="C592" t="s">
         <v>5</v>
@@ -9725,10 +9776,10 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>792</v>
+        <v>796</v>
       </c>
       <c r="B593" t="s">
-        <v>683</v>
+        <v>494</v>
       </c>
       <c r="C593" t="s">
         <v>5</v>
@@ -9736,10 +9787,10 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B594" t="s">
-        <v>658</v>
+        <v>578</v>
       </c>
       <c r="C594" t="s">
         <v>5</v>
@@ -9747,10 +9798,10 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>794</v>
+        <v>798</v>
       </c>
       <c r="B595" t="s">
-        <v>669</v>
+        <v>578</v>
       </c>
       <c r="C595" t="s">
         <v>5</v>
@@ -9758,10 +9809,10 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>795</v>
+        <v>799</v>
       </c>
       <c r="B596" t="s">
-        <v>796</v>
+        <v>473</v>
       </c>
       <c r="C596" t="s">
         <v>5</v>
@@ -9769,10 +9820,10 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>797</v>
+        <v>800</v>
       </c>
       <c r="B597" t="s">
-        <v>665</v>
+        <v>586</v>
       </c>
       <c r="C597" t="s">
         <v>5</v>
@@ -9780,10 +9831,10 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>798</v>
+        <v>801</v>
       </c>
       <c r="B598" t="s">
-        <v>709</v>
+        <v>592</v>
       </c>
       <c r="C598" t="s">
         <v>5</v>
@@ -9791,10 +9842,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>799</v>
+        <v>802</v>
       </c>
       <c r="B599" t="s">
-        <v>737</v>
+        <v>581</v>
       </c>
       <c r="C599" t="s">
         <v>5</v>
@@ -9802,10 +9853,10 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>800</v>
+        <v>803</v>
       </c>
       <c r="B600" t="s">
-        <v>681</v>
+        <v>708</v>
       </c>
       <c r="C600" t="s">
         <v>5</v>
@@ -9813,10 +9864,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>801</v>
+        <v>804</v>
       </c>
       <c r="B601" t="s">
-        <v>671</v>
+        <v>677</v>
       </c>
       <c r="C601" t="s">
         <v>5</v>
@@ -9824,10 +9875,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B602" t="s">
-        <v>803</v>
+        <v>680</v>
       </c>
       <c r="C602" t="s">
         <v>5</v>
@@ -9835,10 +9886,10 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B603" t="s">
-        <v>805</v>
+        <v>720</v>
       </c>
       <c r="C603" t="s">
         <v>5</v>
@@ -9846,10 +9897,10 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="B604" t="s">
-        <v>807</v>
+        <v>670</v>
       </c>
       <c r="C604" t="s">
         <v>5</v>
@@ -9860,7 +9911,7 @@
         <v>808</v>
       </c>
       <c r="B605" t="s">
-        <v>809</v>
+        <v>675</v>
       </c>
       <c r="C605" t="s">
         <v>5</v>
@@ -9868,10 +9919,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B606" t="s">
-        <v>811</v>
+        <v>700</v>
       </c>
       <c r="C606" t="s">
         <v>5</v>
@@ -9879,10 +9930,10 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B607" t="s">
-        <v>813</v>
+        <v>675</v>
       </c>
       <c r="C607" t="s">
         <v>5</v>
@@ -9890,10 +9941,10 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="B608" t="s">
-        <v>815</v>
+        <v>686</v>
       </c>
       <c r="C608" t="s">
         <v>5</v>
@@ -9901,10 +9952,10 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="B609" t="s">
-        <v>817</v>
+        <v>813</v>
       </c>
       <c r="C609" t="s">
         <v>5</v>
@@ -9912,10 +9963,10 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>818</v>
+        <v>814</v>
       </c>
       <c r="B610" t="s">
-        <v>819</v>
+        <v>682</v>
       </c>
       <c r="C610" t="s">
         <v>5</v>
@@ -9923,10 +9974,10 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
       <c r="B611" t="s">
-        <v>660</v>
+        <v>726</v>
       </c>
       <c r="C611" t="s">
         <v>5</v>
@@ -9934,10 +9985,10 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B612" t="s">
-        <v>663</v>
+        <v>754</v>
       </c>
       <c r="C612" t="s">
         <v>5</v>
@@ -9945,10 +9996,10 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="B613" t="s">
-        <v>653</v>
+        <v>698</v>
       </c>
       <c r="C613" t="s">
         <v>5</v>
@@ -9956,10 +10007,10 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
       <c r="B614" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C614" t="s">
         <v>5</v>
@@ -9967,10 +10018,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B615" t="s">
-        <v>678</v>
+        <v>820</v>
       </c>
       <c r="C615" t="s">
         <v>5</v>
@@ -9978,10 +10029,10 @@
     </row>
     <row r="616">
       <c r="A616" t="s">
-        <v>825</v>
+        <v>821</v>
       </c>
       <c r="B616" t="s">
-        <v>644</v>
+        <v>822</v>
       </c>
       <c r="C616" t="s">
         <v>5</v>
@@ -9989,10 +10040,10 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="B617" t="s">
-        <v>569</v>
+        <v>824</v>
       </c>
       <c r="C617" t="s">
         <v>5</v>
@@ -10000,10 +10051,10 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B618" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
       <c r="C618" t="s">
         <v>5</v>
@@ -10011,10 +10062,10 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B619" t="s">
-        <v>683</v>
+        <v>828</v>
       </c>
       <c r="C619" t="s">
         <v>5</v>
@@ -10022,10 +10073,10 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
+        <v>829</v>
+      </c>
+      <c r="B620" t="s">
         <v>830</v>
-      </c>
-      <c r="B620" t="s">
-        <v>665</v>
       </c>
       <c r="C620" t="s">
         <v>5</v>
@@ -10036,7 +10087,7 @@
         <v>831</v>
       </c>
       <c r="B621" t="s">
-        <v>658</v>
+        <v>832</v>
       </c>
       <c r="C621" t="s">
         <v>5</v>
@@ -10044,10 +10095,10 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="B622" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="C622" t="s">
         <v>5</v>
@@ -10055,10 +10106,10 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B623" t="s">
-        <v>686</v>
+        <v>836</v>
       </c>
       <c r="C623" t="s">
         <v>5</v>
@@ -10066,10 +10117,10 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="B624" t="s">
-        <v>836</v>
+        <v>677</v>
       </c>
       <c r="C624" t="s">
         <v>5</v>
@@ -10077,10 +10128,10 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B625" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="C625" t="s">
         <v>5</v>
@@ -10088,10 +10139,10 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B626" t="s">
-        <v>839</v>
+        <v>670</v>
       </c>
       <c r="C626" t="s">
         <v>5</v>
@@ -10102,7 +10153,7 @@
         <v>840</v>
       </c>
       <c r="B627" t="s">
-        <v>683</v>
+        <v>703</v>
       </c>
       <c r="C627" t="s">
         <v>5</v>
@@ -10113,7 +10164,7 @@
         <v>841</v>
       </c>
       <c r="B628" t="s">
-        <v>569</v>
+        <v>695</v>
       </c>
       <c r="C628" t="s">
         <v>5</v>
@@ -10124,7 +10175,7 @@
         <v>842</v>
       </c>
       <c r="B629" t="s">
-        <v>647</v>
+        <v>661</v>
       </c>
       <c r="C629" t="s">
         <v>5</v>
@@ -10135,7 +10186,7 @@
         <v>843</v>
       </c>
       <c r="B630" t="s">
-        <v>694</v>
+        <v>586</v>
       </c>
       <c r="C630" t="s">
         <v>5</v>
@@ -10157,7 +10208,7 @@
         <v>846</v>
       </c>
       <c r="B632" t="s">
-        <v>564</v>
+        <v>700</v>
       </c>
       <c r="C632" t="s">
         <v>5</v>
@@ -10168,7 +10219,7 @@
         <v>847</v>
       </c>
       <c r="B633" t="s">
-        <v>743</v>
+        <v>682</v>
       </c>
       <c r="C633" t="s">
         <v>5</v>
@@ -10179,7 +10230,7 @@
         <v>848</v>
       </c>
       <c r="B634" t="s">
-        <v>575</v>
+        <v>675</v>
       </c>
       <c r="C634" t="s">
         <v>5</v>
@@ -10190,7 +10241,7 @@
         <v>849</v>
       </c>
       <c r="B635" t="s">
-        <v>547</v>
+        <v>850</v>
       </c>
       <c r="C635" t="s">
         <v>5</v>
@@ -10198,10 +10249,10 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B636" t="s">
-        <v>547</v>
+        <v>703</v>
       </c>
       <c r="C636" t="s">
         <v>5</v>
@@ -10209,10 +10260,10 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B637" t="s">
-        <v>564</v>
+        <v>853</v>
       </c>
       <c r="C637" t="s">
         <v>5</v>
@@ -10220,10 +10271,10 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="B638" t="s">
-        <v>473</v>
+        <v>695</v>
       </c>
       <c r="C638" t="s">
         <v>5</v>
@@ -10231,10 +10282,10 @@
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="B639" t="s">
-        <v>477</v>
+        <v>856</v>
       </c>
       <c r="C639" t="s">
         <v>5</v>
@@ -10242,10 +10293,10 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B640" t="s">
-        <v>845</v>
+        <v>700</v>
       </c>
       <c r="C640" t="s">
         <v>5</v>
@@ -10253,10 +10304,10 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B641" t="s">
-        <v>743</v>
+        <v>586</v>
       </c>
       <c r="C641" t="s">
         <v>5</v>
@@ -10264,10 +10315,10 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="B642" t="s">
-        <v>571</v>
+        <v>664</v>
       </c>
       <c r="C642" t="s">
         <v>5</v>
@@ -10275,10 +10326,10 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="B643" t="s">
-        <v>564</v>
+        <v>711</v>
       </c>
       <c r="C643" t="s">
         <v>5</v>
@@ -10286,10 +10337,10 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B644" t="s">
-        <v>477</v>
+        <v>862</v>
       </c>
       <c r="C644" t="s">
         <v>5</v>
@@ -10297,10 +10348,10 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>859</v>
+        <v>863</v>
       </c>
       <c r="B645" t="s">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="C645" t="s">
         <v>5</v>
@@ -10308,10 +10359,10 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>860</v>
+        <v>864</v>
       </c>
       <c r="B646" t="s">
-        <v>456</v>
+        <v>760</v>
       </c>
       <c r="C646" t="s">
         <v>5</v>
@@ -10319,10 +10370,10 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>861</v>
+        <v>865</v>
       </c>
       <c r="B647" t="s">
-        <v>440</v>
+        <v>592</v>
       </c>
       <c r="C647" t="s">
         <v>5</v>
@@ -10330,10 +10381,10 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>862</v>
+        <v>866</v>
       </c>
       <c r="B648" t="s">
-        <v>456</v>
+        <v>564</v>
       </c>
       <c r="C648" t="s">
         <v>5</v>
@@ -10341,10 +10392,10 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>863</v>
+        <v>867</v>
       </c>
       <c r="B649" t="s">
-        <v>768</v>
+        <v>564</v>
       </c>
       <c r="C649" t="s">
         <v>5</v>
@@ -10352,10 +10403,10 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>864</v>
+        <v>868</v>
       </c>
       <c r="B650" t="s">
-        <v>477</v>
+        <v>581</v>
       </c>
       <c r="C650" t="s">
         <v>5</v>
@@ -10363,10 +10414,10 @@
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>865</v>
+        <v>869</v>
       </c>
       <c r="B651" t="s">
-        <v>571</v>
+        <v>490</v>
       </c>
       <c r="C651" t="s">
         <v>5</v>
@@ -10374,10 +10425,10 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>866</v>
+        <v>870</v>
       </c>
       <c r="B652" t="s">
-        <v>461</v>
+        <v>494</v>
       </c>
       <c r="C652" t="s">
         <v>5</v>
@@ -10385,10 +10436,10 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
-        <v>867</v>
+        <v>871</v>
       </c>
       <c r="B653" t="s">
-        <v>569</v>
+        <v>862</v>
       </c>
       <c r="C653" t="s">
         <v>5</v>
@@ -10396,10 +10447,10 @@
     </row>
     <row r="654">
       <c r="A654" t="s">
-        <v>868</v>
+        <v>872</v>
       </c>
       <c r="B654" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
       <c r="C654" t="s">
         <v>5</v>
@@ -10407,10 +10458,10 @@
     </row>
     <row r="655">
       <c r="A655" t="s">
-        <v>869</v>
+        <v>873</v>
       </c>
       <c r="B655" t="s">
-        <v>828</v>
+        <v>588</v>
       </c>
       <c r="C655" t="s">
         <v>5</v>
@@ -10418,10 +10469,10 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>870</v>
+        <v>874</v>
       </c>
       <c r="B656" t="s">
-        <v>547</v>
+        <v>581</v>
       </c>
       <c r="C656" t="s">
         <v>5</v>
@@ -10429,10 +10480,10 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>871</v>
+        <v>875</v>
       </c>
       <c r="B657" t="s">
-        <v>731</v>
+        <v>494</v>
       </c>
       <c r="C657" t="s">
         <v>5</v>
@@ -10440,10 +10491,10 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>872</v>
+        <v>876</v>
       </c>
       <c r="B658" t="s">
-        <v>733</v>
+        <v>592</v>
       </c>
       <c r="C658" t="s">
         <v>5</v>
@@ -10451,7 +10502,7 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="B659" t="s">
         <v>473</v>
@@ -10462,10 +10513,10 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>874</v>
+        <v>878</v>
       </c>
       <c r="B660" t="s">
-        <v>575</v>
+        <v>457</v>
       </c>
       <c r="C660" t="s">
         <v>5</v>
@@ -10473,10 +10524,10 @@
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>875</v>
+        <v>879</v>
       </c>
       <c r="B661" t="s">
-        <v>768</v>
+        <v>473</v>
       </c>
       <c r="C661" t="s">
         <v>5</v>
@@ -10484,10 +10535,10 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>876</v>
+        <v>880</v>
       </c>
       <c r="B662" t="s">
-        <v>477</v>
+        <v>785</v>
       </c>
       <c r="C662" t="s">
         <v>5</v>
@@ -10495,10 +10546,10 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>877</v>
+        <v>881</v>
       </c>
       <c r="B663" t="s">
-        <v>569</v>
+        <v>494</v>
       </c>
       <c r="C663" t="s">
         <v>5</v>
@@ -10506,10 +10557,10 @@
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>878</v>
+        <v>882</v>
       </c>
       <c r="B664" t="s">
-        <v>475</v>
+        <v>588</v>
       </c>
       <c r="C664" t="s">
         <v>5</v>
@@ -10517,10 +10568,10 @@
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>879</v>
+        <v>883</v>
       </c>
       <c r="B665" t="s">
-        <v>644</v>
+        <v>478</v>
       </c>
       <c r="C665" t="s">
         <v>5</v>
@@ -10528,10 +10579,10 @@
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>880</v>
+        <v>884</v>
       </c>
       <c r="B666" t="s">
-        <v>712</v>
+        <v>586</v>
       </c>
       <c r="C666" t="s">
         <v>5</v>
@@ -10539,10 +10590,10 @@
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="B667" t="s">
-        <v>694</v>
+        <v>785</v>
       </c>
       <c r="C667" t="s">
         <v>5</v>
@@ -10550,10 +10601,10 @@
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B668" t="s">
-        <v>839</v>
+        <v>845</v>
       </c>
       <c r="C668" t="s">
         <v>5</v>
@@ -10561,10 +10612,10 @@
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>883</v>
+        <v>887</v>
       </c>
       <c r="B669" t="s">
-        <v>737</v>
+        <v>564</v>
       </c>
       <c r="C669" t="s">
         <v>5</v>
@@ -10572,10 +10623,10 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>884</v>
+        <v>888</v>
       </c>
       <c r="B670" t="s">
-        <v>681</v>
+        <v>748</v>
       </c>
       <c r="C670" t="s">
         <v>5</v>
@@ -10583,10 +10634,10 @@
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>885</v>
+        <v>889</v>
       </c>
       <c r="B671" t="s">
-        <v>886</v>
+        <v>750</v>
       </c>
       <c r="C671" t="s">
         <v>5</v>
@@ -10594,10 +10645,10 @@
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="B672" t="s">
-        <v>888</v>
+        <v>490</v>
       </c>
       <c r="C672" t="s">
         <v>5</v>
@@ -10605,10 +10656,10 @@
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B673" t="s">
-        <v>890</v>
+        <v>592</v>
       </c>
       <c r="C673" t="s">
         <v>5</v>
@@ -10616,10 +10667,10 @@
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B674" t="s">
-        <v>892</v>
+        <v>785</v>
       </c>
       <c r="C674" t="s">
         <v>5</v>
@@ -10630,7 +10681,7 @@
         <v>893</v>
       </c>
       <c r="B675" t="s">
-        <v>894</v>
+        <v>494</v>
       </c>
       <c r="C675" t="s">
         <v>5</v>
@@ -10638,10 +10689,10 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B676" t="s">
-        <v>896</v>
+        <v>586</v>
       </c>
       <c r="C676" t="s">
         <v>5</v>
@@ -10649,10 +10700,10 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B677" t="s">
-        <v>898</v>
+        <v>492</v>
       </c>
       <c r="C677" t="s">
         <v>5</v>
@@ -10660,10 +10711,10 @@
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B678" t="s">
-        <v>894</v>
+        <v>661</v>
       </c>
       <c r="C678" t="s">
         <v>5</v>
@@ -10671,10 +10722,10 @@
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="B679" t="s">
-        <v>901</v>
+        <v>729</v>
       </c>
       <c r="C679" t="s">
         <v>5</v>
@@ -10682,10 +10733,10 @@
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="B680" t="s">
-        <v>903</v>
+        <v>711</v>
       </c>
       <c r="C680" t="s">
         <v>5</v>
@@ -10693,10 +10744,10 @@
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="B681" t="s">
-        <v>905</v>
+        <v>856</v>
       </c>
       <c r="C681" t="s">
         <v>5</v>
@@ -10704,10 +10755,10 @@
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="B682" t="s">
-        <v>839</v>
+        <v>754</v>
       </c>
       <c r="C682" t="s">
         <v>5</v>
@@ -10715,10 +10766,10 @@
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="B683" t="s">
-        <v>709</v>
+        <v>698</v>
       </c>
       <c r="C683" t="s">
         <v>5</v>
@@ -10726,10 +10777,10 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="B684" t="s">
-        <v>663</v>
+        <v>903</v>
       </c>
       <c r="C684" t="s">
         <v>5</v>
@@ -10737,10 +10788,10 @@
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="B685" t="s">
-        <v>663</v>
+        <v>905</v>
       </c>
       <c r="C685" t="s">
         <v>5</v>
@@ -10748,10 +10799,10 @@
     </row>
     <row r="686">
       <c r="A686" t="s">
-        <v>910</v>
+        <v>906</v>
       </c>
       <c r="B686" t="s">
-        <v>651</v>
+        <v>907</v>
       </c>
       <c r="C686" t="s">
         <v>5</v>
@@ -10759,10 +10810,10 @@
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B687" t="s">
-        <v>686</v>
+        <v>909</v>
       </c>
       <c r="C687" t="s">
         <v>5</v>
@@ -10770,10 +10821,10 @@
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="B688" t="s">
-        <v>655</v>
+        <v>911</v>
       </c>
       <c r="C688" t="s">
         <v>5</v>
@@ -10781,10 +10832,10 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
+        <v>912</v>
+      </c>
+      <c r="B689" t="s">
         <v>913</v>
-      </c>
-      <c r="B689" t="s">
-        <v>737</v>
       </c>
       <c r="C689" t="s">
         <v>5</v>
@@ -10795,7 +10846,7 @@
         <v>914</v>
       </c>
       <c r="B690" t="s">
-        <v>733</v>
+        <v>915</v>
       </c>
       <c r="C690" t="s">
         <v>5</v>
@@ -10803,10 +10854,10 @@
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B691" t="s">
-        <v>653</v>
+        <v>911</v>
       </c>
       <c r="C691" t="s">
         <v>5</v>
@@ -10814,10 +10865,10 @@
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B692" t="s">
-        <v>688</v>
+        <v>918</v>
       </c>
       <c r="C692" t="s">
         <v>5</v>
@@ -10825,10 +10876,10 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>917</v>
+        <v>919</v>
       </c>
       <c r="B693" t="s">
-        <v>653</v>
+        <v>920</v>
       </c>
       <c r="C693" t="s">
         <v>5</v>
@@ -10836,10 +10887,10 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="B694" t="s">
-        <v>839</v>
+        <v>922</v>
       </c>
       <c r="C694" t="s">
         <v>5</v>
@@ -10847,10 +10898,10 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="B695" t="s">
-        <v>678</v>
+        <v>856</v>
       </c>
       <c r="C695" t="s">
         <v>5</v>
@@ -10858,10 +10909,10 @@
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>920</v>
+        <v>924</v>
       </c>
       <c r="B696" t="s">
-        <v>905</v>
+        <v>726</v>
       </c>
       <c r="C696" t="s">
         <v>5</v>
@@ -10869,10 +10920,10 @@
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>921</v>
+        <v>925</v>
       </c>
       <c r="B697" t="s">
-        <v>905</v>
+        <v>680</v>
       </c>
       <c r="C697" t="s">
         <v>5</v>
@@ -10880,10 +10931,10 @@
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>922</v>
+        <v>926</v>
       </c>
       <c r="B698" t="s">
-        <v>671</v>
+        <v>680</v>
       </c>
       <c r="C698" t="s">
         <v>5</v>
@@ -10891,10 +10942,10 @@
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="B699" t="s">
-        <v>807</v>
+        <v>668</v>
       </c>
       <c r="C699" t="s">
         <v>5</v>
@@ -10902,10 +10953,10 @@
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="B700" t="s">
-        <v>886</v>
+        <v>703</v>
       </c>
       <c r="C700" t="s">
         <v>5</v>
@@ -10913,10 +10964,10 @@
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="B701" t="s">
-        <v>926</v>
+        <v>672</v>
       </c>
       <c r="C701" t="s">
         <v>5</v>
@@ -10924,10 +10975,10 @@
     </row>
     <row r="702">
       <c r="A702" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="B702" t="s">
-        <v>905</v>
+        <v>754</v>
       </c>
       <c r="C702" t="s">
         <v>5</v>
@@ -10935,10 +10986,10 @@
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B703" t="s">
-        <v>655</v>
+        <v>750</v>
       </c>
       <c r="C703" t="s">
         <v>5</v>
@@ -10946,10 +10997,10 @@
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="B704" t="s">
-        <v>653</v>
+        <v>670</v>
       </c>
       <c r="C704" t="s">
         <v>5</v>
@@ -10957,10 +11008,10 @@
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="B705" t="s">
-        <v>737</v>
+        <v>705</v>
       </c>
       <c r="C705" t="s">
         <v>5</v>
@@ -10968,10 +11019,10 @@
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="B706" t="s">
-        <v>768</v>
+        <v>670</v>
       </c>
       <c r="C706" t="s">
         <v>5</v>
@@ -10979,10 +11030,10 @@
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="B707" t="s">
-        <v>845</v>
+        <v>856</v>
       </c>
       <c r="C707" t="s">
         <v>5</v>
@@ -10990,10 +11041,10 @@
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="B708" t="s">
-        <v>456</v>
+        <v>695</v>
       </c>
       <c r="C708" t="s">
         <v>5</v>
@@ -11001,10 +11052,10 @@
     </row>
     <row r="709">
       <c r="A709" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="B709" t="s">
-        <v>547</v>
+        <v>922</v>
       </c>
       <c r="C709" t="s">
         <v>5</v>
@@ -11012,10 +11063,10 @@
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="B710" t="s">
-        <v>564</v>
+        <v>922</v>
       </c>
       <c r="C710" t="s">
         <v>5</v>
@@ -11023,10 +11074,10 @@
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="B711" t="s">
-        <v>465</v>
+        <v>688</v>
       </c>
       <c r="C711" t="s">
         <v>5</v>
@@ -11034,10 +11085,10 @@
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="B712" t="s">
-        <v>585</v>
+        <v>824</v>
       </c>
       <c r="C712" t="s">
         <v>5</v>
@@ -11045,10 +11096,10 @@
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="B713" t="s">
-        <v>494</v>
+        <v>903</v>
       </c>
       <c r="C713" t="s">
         <v>5</v>
@@ -11056,10 +11107,10 @@
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="B714" t="s">
-        <v>407</v>
+        <v>943</v>
       </c>
       <c r="C714" t="s">
         <v>5</v>
@@ -11067,10 +11118,10 @@
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>940</v>
+        <v>944</v>
       </c>
       <c r="B715" t="s">
-        <v>415</v>
+        <v>922</v>
       </c>
       <c r="C715" t="s">
         <v>5</v>
@@ -11078,10 +11129,10 @@
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>941</v>
+        <v>945</v>
       </c>
       <c r="B716" t="s">
-        <v>410</v>
+        <v>672</v>
       </c>
       <c r="C716" t="s">
         <v>5</v>
@@ -11089,10 +11140,10 @@
     </row>
     <row r="717">
       <c r="A717" t="s">
-        <v>942</v>
+        <v>946</v>
       </c>
       <c r="B717" t="s">
-        <v>943</v>
+        <v>670</v>
       </c>
       <c r="C717" t="s">
         <v>5</v>
@@ -11100,10 +11151,10 @@
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B718" t="s">
-        <v>77</v>
+        <v>754</v>
       </c>
       <c r="C718" t="s">
         <v>5</v>
@@ -11111,10 +11162,10 @@
     </row>
     <row r="719">
       <c r="A719" t="s">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="B719" t="s">
-        <v>490</v>
+        <v>785</v>
       </c>
       <c r="C719" t="s">
         <v>5</v>
@@ -11122,10 +11173,10 @@
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>946</v>
+        <v>949</v>
       </c>
       <c r="B720" t="s">
-        <v>947</v>
+        <v>862</v>
       </c>
       <c r="C720" t="s">
         <v>5</v>
@@ -11133,10 +11184,10 @@
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="B721" t="s">
-        <v>949</v>
+        <v>473</v>
       </c>
       <c r="C721" t="s">
         <v>5</v>
@@ -11144,10 +11195,10 @@
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B722" t="s">
-        <v>949</v>
+        <v>564</v>
       </c>
       <c r="C722" t="s">
         <v>5</v>
@@ -11155,10 +11206,10 @@
     </row>
     <row r="723">
       <c r="A723" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B723" t="s">
-        <v>952</v>
+        <v>581</v>
       </c>
       <c r="C723" t="s">
         <v>5</v>
@@ -11169,7 +11220,7 @@
         <v>953</v>
       </c>
       <c r="B724" t="s">
-        <v>949</v>
+        <v>482</v>
       </c>
       <c r="C724" t="s">
         <v>5</v>
@@ -11180,7 +11231,7 @@
         <v>954</v>
       </c>
       <c r="B725" t="s">
-        <v>66</v>
+        <v>602</v>
       </c>
       <c r="C725" t="s">
         <v>5</v>
@@ -11191,9 +11242,152 @@
         <v>955</v>
       </c>
       <c r="B726" t="s">
-        <v>66</v>
+        <v>511</v>
       </c>
       <c r="C726" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" t="s">
+        <v>956</v>
+      </c>
+      <c r="B727" t="s">
+        <v>424</v>
+      </c>
+      <c r="C727" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" t="s">
+        <v>957</v>
+      </c>
+      <c r="B728" t="s">
+        <v>432</v>
+      </c>
+      <c r="C728" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" t="s">
+        <v>958</v>
+      </c>
+      <c r="B729" t="s">
+        <v>427</v>
+      </c>
+      <c r="C729" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" t="s">
+        <v>959</v>
+      </c>
+      <c r="B730" t="s">
+        <v>960</v>
+      </c>
+      <c r="C730" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" t="s">
+        <v>961</v>
+      </c>
+      <c r="B731" t="s">
+        <v>96</v>
+      </c>
+      <c r="C731" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" t="s">
+        <v>962</v>
+      </c>
+      <c r="B732" t="s">
+        <v>507</v>
+      </c>
+      <c r="C732" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" t="s">
+        <v>963</v>
+      </c>
+      <c r="B733" t="s">
+        <v>964</v>
+      </c>
+      <c r="C733" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" t="s">
+        <v>965</v>
+      </c>
+      <c r="B734" t="s">
+        <v>966</v>
+      </c>
+      <c r="C734" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" t="s">
+        <v>967</v>
+      </c>
+      <c r="B735" t="s">
+        <v>966</v>
+      </c>
+      <c r="C735" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" t="s">
+        <v>968</v>
+      </c>
+      <c r="B736" t="s">
+        <v>969</v>
+      </c>
+      <c r="C736" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" t="s">
+        <v>970</v>
+      </c>
+      <c r="B737" t="s">
+        <v>966</v>
+      </c>
+      <c r="C737" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" t="s">
+        <v>971</v>
+      </c>
+      <c r="B738" t="s">
+        <v>85</v>
+      </c>
+      <c r="C738" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" t="s">
+        <v>972</v>
+      </c>
+      <c r="B739" t="s">
+        <v>85</v>
+      </c>
+      <c r="C739" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink International Health Care Fund.xlsx
+++ b/data/GreatLink/GreatLink International Health Care Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid532326"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid810745"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>

--- a/data/GreatLink/GreatLink International Health Care Fund.xlsx
+++ b/data/GreatLink/GreatLink International Health Care Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid810745"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid70121"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="973">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="990">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,96 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>07/04/2025</t>
+  </si>
+  <si>
+    <t>0.902</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>04/04/2025</t>
+  </si>
+  <si>
+    <t>0.907</t>
+  </si>
+  <si>
+    <t>03/04/2025</t>
+  </si>
+  <si>
+    <t>0.948</t>
+  </si>
+  <si>
+    <t>02/04/2025</t>
+  </si>
+  <si>
+    <t>0.956</t>
+  </si>
+  <si>
+    <t>01/04/2025</t>
+  </si>
+  <si>
+    <t>28/03/2025</t>
+  </si>
+  <si>
+    <t>0.967</t>
+  </si>
+  <si>
+    <t>27/03/2025</t>
+  </si>
+  <si>
+    <t>26/03/2025</t>
+  </si>
+  <si>
+    <t>25/03/2025</t>
+  </si>
+  <si>
+    <t>0.971</t>
+  </si>
+  <si>
+    <t>24/03/2025</t>
+  </si>
+  <si>
+    <t>0.980</t>
+  </si>
+  <si>
+    <t>21/03/2025</t>
+  </si>
+  <si>
+    <t>0.975</t>
+  </si>
+  <si>
+    <t>20/03/2025</t>
+  </si>
+  <si>
+    <t>0.976</t>
+  </si>
+  <si>
+    <t>19/03/2025</t>
+  </si>
+  <si>
+    <t>18/03/2025</t>
+  </si>
+  <si>
+    <t>17/03/2025</t>
+  </si>
+  <si>
+    <t>0.977</t>
+  </si>
+  <si>
+    <t>14/03/2025</t>
+  </si>
+  <si>
+    <t>0.966</t>
+  </si>
+  <si>
     <t>13/03/2025</t>
   </si>
   <si>
     <t>0.959</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>12/03/2025</t>
   </si>
   <si>
@@ -104,9 +185,6 @@
     <t>21/02/2025</t>
   </si>
   <si>
-    <t>0.980</t>
-  </si>
-  <si>
     <t>20/02/2025</t>
   </si>
   <si>
@@ -134,9 +212,6 @@
     <t>14/02/2025</t>
   </si>
   <si>
-    <t>0.967</t>
-  </si>
-  <si>
     <t>13/02/2025</t>
   </si>
   <si>
@@ -197,9 +272,6 @@
     <t>23/01/2025</t>
   </si>
   <si>
-    <t>0.977</t>
-  </si>
-  <si>
     <t>22/01/2025</t>
   </si>
   <si>
@@ -239,15 +311,9 @@
     <t>10/01/2025</t>
   </si>
   <si>
-    <t>0.966</t>
-  </si>
-  <si>
     <t>09/01/2025</t>
   </si>
   <si>
-    <t>0.971</t>
-  </si>
-  <si>
     <t>08/01/2025</t>
   </si>
   <si>
@@ -260,9 +326,6 @@
     <t>06/01/2025</t>
   </si>
   <si>
-    <t>0.956</t>
-  </si>
-  <si>
     <t>03/01/2025</t>
   </si>
   <si>
@@ -419,9 +482,6 @@
     <t>15/11/2024</t>
   </si>
   <si>
-    <t>0.975</t>
-  </si>
-  <si>
     <t>14/11/2024</t>
   </si>
   <si>
@@ -1388,9 +1448,6 @@
     <t>28/11/2023</t>
   </si>
   <si>
-    <t>0.902</t>
-  </si>
-  <si>
     <t>27/11/2023</t>
   </si>
   <si>
@@ -1415,9 +1472,6 @@
     <t>21/11/2023</t>
   </si>
   <si>
-    <t>0.907</t>
-  </si>
-  <si>
     <t>20/11/2023</t>
   </si>
   <si>
@@ -2922,9 +2976,6 @@
   </si>
   <si>
     <t>06/04/2022</t>
-  </si>
-  <si>
-    <t>0.948</t>
   </si>
   <si>
     <t>05/04/2022</t>
@@ -3322,7 +3373,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3330,10 +3381,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
         <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3341,10 +3392,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3352,10 +3403,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3363,10 +3414,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3374,10 +3425,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" t="s">
-        <v>21</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3385,10 +3436,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3396,10 +3447,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" t="s">
-        <v>23</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3410,7 +3461,7 @@
         <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3421,7 +3472,7 @@
         <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3429,10 +3480,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s">
         <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3440,10 +3491,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
-      </c>
-      <c r="B17" t="s">
-        <v>31</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3451,10 +3502,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3462,10 +3513,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
         <v>34</v>
-      </c>
-      <c r="B19" t="s">
-        <v>35</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3473,10 +3524,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3484,10 +3535,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
         <v>38</v>
-      </c>
-      <c r="B21" t="s">
-        <v>39</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3495,10 +3546,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
         <v>40</v>
-      </c>
-      <c r="B22" t="s">
-        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3506,10 +3557,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" t="s">
         <v>42</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3520,7 +3571,7 @@
         <v>43</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3528,10 +3579,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3539,10 +3590,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
         <v>46</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3553,7 +3604,7 @@
         <v>47</v>
       </c>
       <c r="B27" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3561,10 +3612,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B28" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3572,10 +3623,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
         <v>50</v>
-      </c>
-      <c r="B29" t="s">
-        <v>44</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3583,10 +3634,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3608,7 +3659,7 @@
         <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>56</v>
+        <v>20</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3616,10 +3667,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
+        <v>56</v>
+      </c>
+      <c r="B33" t="s">
         <v>57</v>
-      </c>
-      <c r="B33" t="s">
-        <v>56</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3630,7 +3681,7 @@
         <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3638,10 +3689,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3649,10 +3700,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3660,10 +3711,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3671,10 +3722,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3682,10 +3733,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3696,7 +3747,7 @@
         <v>68</v>
       </c>
       <c r="B40" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3704,10 +3755,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3715,10 +3766,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3726,10 +3777,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3751,7 +3802,7 @@
         <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3759,10 +3810,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>76</v>
+      </c>
+      <c r="B46" t="s">
         <v>77</v>
-      </c>
-      <c r="B46" t="s">
-        <v>35</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3795,7 +3846,7 @@
         <v>82</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3806,7 +3857,7 @@
         <v>83</v>
       </c>
       <c r="B50" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3817,7 +3868,7 @@
         <v>84</v>
       </c>
       <c r="B51" t="s">
-        <v>85</v>
+        <v>28</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3825,10 +3876,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
+        <v>85</v>
+      </c>
+      <c r="B52" t="s">
         <v>86</v>
-      </c>
-      <c r="B52" t="s">
-        <v>87</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3836,10 +3887,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B53" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3847,10 +3898,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B54" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3858,10 +3909,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3869,10 +3920,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B56" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3880,10 +3931,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B57" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3891,10 +3942,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B58" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3902,10 +3953,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3913,10 +3964,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B60" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3924,10 +3975,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3935,10 +3986,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3946,10 +3997,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B63" t="s">
-        <v>60</v>
+        <v>101</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -3957,10 +4008,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -3968,10 +4019,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -3979,10 +4030,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B66" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -3990,10 +4041,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -4001,10 +4052,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B68" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -4012,10 +4063,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -4023,10 +4074,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B70" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -4034,10 +4085,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B71" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -4045,10 +4096,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B72" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -4056,10 +4107,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -4067,10 +4118,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B74" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -4078,10 +4129,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B75" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -4089,10 +4140,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B76" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -4100,10 +4151,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -4111,10 +4162,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B78" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -4122,10 +4173,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B79" t="s">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -4133,10 +4184,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -4144,10 +4195,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B81" t="s">
-        <v>37</v>
+        <v>129</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -4155,10 +4206,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B82" t="s">
-        <v>134</v>
+        <v>46</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -4166,10 +4217,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B83" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -4177,10 +4228,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B84" t="s">
-        <v>137</v>
+        <v>77</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -4188,10 +4239,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B85" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -4199,10 +4250,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B86" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -4210,10 +4261,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B87" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -4221,10 +4272,10 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="B88" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="C88" t="s">
         <v>5</v>
@@ -4232,10 +4283,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B89" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -4243,10 +4294,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B90" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -4254,10 +4305,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B91" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -4265,10 +4316,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B92" t="s">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -4276,10 +4327,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B93" t="s">
-        <v>152</v>
+        <v>50</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -4287,10 +4338,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B94" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -4298,10 +4349,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B95" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -4309,10 +4360,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -4320,10 +4371,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B97" t="s">
-        <v>117</v>
+        <v>63</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -4331,10 +4382,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B98" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -4342,10 +4393,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B99" t="s">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -4353,10 +4404,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B100" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -4364,10 +4415,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B101" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -4375,10 +4426,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B102" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -4386,10 +4437,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B103" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -4397,10 +4448,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B104" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -4408,10 +4459,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B105" t="s">
-        <v>141</v>
+        <v>167</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -4419,10 +4470,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B106" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -4430,10 +4481,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B107" t="s">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -4441,10 +4492,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B108" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -4452,10 +4503,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B109" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -4463,10 +4514,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B110" t="s">
-        <v>177</v>
+        <v>138</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -4474,10 +4525,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B111" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -4485,10 +4536,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B112" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -4496,10 +4547,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B113" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -4507,10 +4558,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B114" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -4518,10 +4569,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B115" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -4529,10 +4580,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B116" t="s">
-        <v>147</v>
+        <v>165</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -4540,10 +4591,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B117" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -4551,10 +4602,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B118" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -4562,10 +4613,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B119" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -4573,10 +4624,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B120" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4584,10 +4635,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B121" t="s">
-        <v>192</v>
+        <v>161</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -4595,10 +4646,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B122" t="s">
-        <v>194</v>
+        <v>163</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -4606,10 +4657,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B123" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -4617,10 +4668,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="B124" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -4628,10 +4679,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B125" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -4639,10 +4690,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B126" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4650,10 +4701,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B127" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4661,10 +4712,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B128" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4672,10 +4723,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B129" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -4683,10 +4734,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="B130" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4694,10 +4745,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="B131" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4705,10 +4756,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B132" t="s">
-        <v>210</v>
+        <v>167</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4716,10 +4767,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="B133" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4727,10 +4778,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="B134" t="s">
-        <v>217</v>
+        <v>165</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4738,10 +4789,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B135" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4749,10 +4800,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="B136" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4760,10 +4811,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="B137" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4771,10 +4822,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="B138" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4782,10 +4833,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="B139" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4793,10 +4844,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="B140" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4804,10 +4855,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B141" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4815,10 +4866,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B142" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4826,10 +4877,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="B143" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4837,10 +4888,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="B144" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4848,10 +4899,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B145" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4859,10 +4910,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B146" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4870,10 +4921,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B147" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4881,10 +4932,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B148" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4892,10 +4943,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="B149" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4903,10 +4954,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B150" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4914,10 +4965,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B151" t="s">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4925,10 +4976,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="B152" t="s">
-        <v>180</v>
+        <v>241</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4936,10 +4987,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B153" t="s">
-        <v>187</v>
+        <v>243</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4947,10 +4998,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B154" t="s">
-        <v>115</v>
+        <v>245</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -4958,10 +5009,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B155" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -4969,10 +5020,10 @@
     </row>
     <row r="156">
       <c r="A156" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B156" t="s">
-        <v>202</v>
+        <v>248</v>
       </c>
       <c r="C156" t="s">
         <v>5</v>
@@ -4980,10 +5031,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
-        <v>198</v>
+        <v>245</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -4991,10 +5042,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
-        <v>206</v>
+        <v>245</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -5002,10 +5053,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
-        <v>208</v>
+        <v>252</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -5013,10 +5064,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
+        <v>253</v>
+      </c>
+      <c r="B160" t="s">
         <v>254</v>
-      </c>
-      <c r="B160" t="s">
-        <v>194</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -5027,7 +5078,7 @@
         <v>255</v>
       </c>
       <c r="B161" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -5035,10 +5086,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B162" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -5046,10 +5097,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B163" t="s">
-        <v>204</v>
+        <v>258</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -5057,10 +5108,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
+        <v>259</v>
+      </c>
+      <c r="B164" t="s">
         <v>260</v>
-      </c>
-      <c r="B164" t="s">
-        <v>232</v>
       </c>
       <c r="C164" t="s">
         <v>5</v>
@@ -5071,7 +5122,7 @@
         <v>261</v>
       </c>
       <c r="B165" t="s">
-        <v>202</v>
+        <v>230</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -5082,7 +5133,7 @@
         <v>262</v>
       </c>
       <c r="B166" t="s">
-        <v>194</v>
+        <v>263</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -5090,10 +5141,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B167" t="s">
-        <v>264</v>
+        <v>161</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -5104,7 +5155,7 @@
         <v>265</v>
       </c>
       <c r="B168" t="s">
-        <v>266</v>
+        <v>200</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -5112,10 +5163,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B169" t="s">
-        <v>268</v>
+        <v>207</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -5123,10 +5174,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B170" t="s">
-        <v>270</v>
+        <v>136</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -5134,10 +5185,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B171" t="s">
-        <v>204</v>
+        <v>269</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -5145,10 +5196,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B172" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -5156,10 +5207,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B173" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -5167,10 +5218,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B174" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -5178,10 +5229,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B175" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -5189,10 +5240,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B176" t="s">
-        <v>277</v>
+        <v>214</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -5200,10 +5251,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B177" t="s">
-        <v>141</v>
+        <v>276</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -5211,10 +5262,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B178" t="s">
-        <v>196</v>
+        <v>278</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -5222,10 +5273,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B179" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -5233,10 +5284,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B180" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -5244,10 +5295,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B181" t="s">
-        <v>258</v>
+        <v>222</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -5255,10 +5306,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B182" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -5266,10 +5317,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
+        <v>283</v>
+      </c>
+      <c r="B183" t="s">
         <v>284</v>
-      </c>
-      <c r="B183" t="s">
-        <v>268</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -5280,7 +5331,7 @@
         <v>285</v>
       </c>
       <c r="B184" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -5288,10 +5339,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B185" t="s">
-        <v>210</v>
+        <v>288</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -5299,10 +5350,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="B186" t="s">
-        <v>196</v>
+        <v>290</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -5310,10 +5361,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B187" t="s">
-        <v>289</v>
+        <v>224</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -5321,10 +5372,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B188" t="s">
-        <v>243</v>
+        <v>278</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -5332,10 +5383,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B189" t="s">
-        <v>292</v>
+        <v>216</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -5343,10 +5394,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B190" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -5354,10 +5405,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B191" t="s">
-        <v>289</v>
+        <v>232</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -5365,10 +5416,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B192" t="s">
-        <v>212</v>
+        <v>297</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -5376,10 +5427,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B193" t="s">
-        <v>292</v>
+        <v>161</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -5387,10 +5438,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B194" t="s">
-        <v>192</v>
+        <v>216</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -5398,10 +5449,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B195" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -5409,10 +5460,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B196" t="s">
-        <v>277</v>
+        <v>230</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -5420,10 +5471,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B197" t="s">
-        <v>164</v>
+        <v>278</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -5431,10 +5482,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B198" t="s">
-        <v>145</v>
+        <v>278</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -5442,10 +5493,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B199" t="s">
-        <v>187</v>
+        <v>288</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -5453,10 +5504,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B200" t="s">
-        <v>304</v>
+        <v>222</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -5464,10 +5515,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B201" t="s">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -5475,10 +5526,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B202" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -5486,10 +5537,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B203" t="s">
-        <v>166</v>
+        <v>309</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -5497,10 +5548,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B204" t="s">
-        <v>143</v>
+        <v>263</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -5508,10 +5559,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B205" t="s">
-        <v>141</v>
+        <v>312</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -5519,10 +5570,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="B206" t="s">
-        <v>192</v>
+        <v>276</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -5530,10 +5581,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="B207" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -5541,10 +5592,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="B208" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -5552,10 +5603,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="B209" t="s">
-        <v>289</v>
+        <v>312</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -5563,10 +5614,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="B210" t="s">
-        <v>256</v>
+        <v>212</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -5574,10 +5625,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="B211" t="s">
-        <v>316</v>
+        <v>263</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -5585,10 +5636,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B212" t="s">
-        <v>173</v>
+        <v>297</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -5596,10 +5647,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B213" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -5607,10 +5658,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B214" t="s">
-        <v>304</v>
+        <v>165</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -5618,10 +5669,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B215" t="s">
-        <v>115</v>
+        <v>207</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -5629,10 +5680,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B216" t="s">
-        <v>117</v>
+        <v>324</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -5640,10 +5691,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="B217" t="s">
-        <v>21</v>
+        <v>324</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -5651,10 +5702,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B218" t="s">
-        <v>54</v>
+        <v>167</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -5662,10 +5713,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="B219" t="s">
-        <v>13</v>
+        <v>186</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5673,10 +5724,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="B220" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -5684,10 +5735,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B221" t="s">
-        <v>52</v>
+        <v>161</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -5695,10 +5746,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="B222" t="s">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5706,10 +5757,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B223" t="s">
-        <v>13</v>
+        <v>269</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5717,10 +5768,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B224" t="s">
-        <v>19</v>
+        <v>263</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5728,10 +5779,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="B225" t="s">
-        <v>121</v>
+        <v>309</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5739,10 +5790,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B226" t="s">
-        <v>44</v>
+        <v>276</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5750,10 +5801,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="B227" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5761,10 +5812,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B228" t="s">
-        <v>333</v>
+        <v>193</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5772,10 +5823,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B229" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5783,10 +5834,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B230" t="s">
-        <v>44</v>
+        <v>324</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5794,10 +5845,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B231" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5805,10 +5856,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B232" t="s">
-        <v>23</v>
+        <v>138</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5816,10 +5867,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B233" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5827,10 +5878,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="B234" t="s">
-        <v>152</v>
+        <v>79</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5838,10 +5889,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B235" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5849,10 +5900,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B236" t="s">
-        <v>115</v>
+        <v>79</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5860,10 +5911,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B237" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5871,10 +5922,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="B238" t="s">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5882,10 +5933,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="B239" t="s">
-        <v>183</v>
+        <v>40</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5893,10 +5944,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="B240" t="s">
-        <v>347</v>
+        <v>46</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5904,10 +5955,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B241" t="s">
-        <v>256</v>
+        <v>142</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5915,10 +5966,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B242" t="s">
-        <v>256</v>
+        <v>69</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5926,10 +5977,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B243" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5937,10 +5988,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B244" t="s">
-        <v>166</v>
+        <v>353</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5948,10 +5999,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B245" t="s">
-        <v>354</v>
+        <v>59</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -5959,10 +6010,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B246" t="s">
-        <v>143</v>
+        <v>69</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -5970,10 +6021,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B247" t="s">
-        <v>354</v>
+        <v>54</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -5981,10 +6032,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B248" t="s">
-        <v>316</v>
+        <v>50</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -5992,10 +6043,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B249" t="s">
-        <v>187</v>
+        <v>77</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -6003,10 +6054,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B250" t="s">
-        <v>360</v>
+        <v>172</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -6017,7 +6068,7 @@
         <v>361</v>
       </c>
       <c r="B251" t="s">
-        <v>173</v>
+        <v>140</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -6028,7 +6079,7 @@
         <v>362</v>
       </c>
       <c r="B252" t="s">
-        <v>168</v>
+        <v>136</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -6039,7 +6090,7 @@
         <v>363</v>
       </c>
       <c r="B253" t="s">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -6050,7 +6101,7 @@
         <v>364</v>
       </c>
       <c r="B254" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -6061,7 +6112,7 @@
         <v>365</v>
       </c>
       <c r="B255" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -6072,7 +6123,7 @@
         <v>366</v>
       </c>
       <c r="B256" t="s">
-        <v>351</v>
+        <v>367</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -6080,10 +6131,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B257" t="s">
-        <v>137</v>
+        <v>276</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -6091,10 +6142,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B258" t="s">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -6102,10 +6153,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B259" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -6113,10 +6164,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B260" t="s">
-        <v>370</v>
+        <v>186</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -6124,10 +6175,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B261" t="s">
-        <v>155</v>
+        <v>374</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -6135,10 +6186,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B262" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -6146,10 +6197,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
+        <v>376</v>
+      </c>
+      <c r="B263" t="s">
         <v>374</v>
-      </c>
-      <c r="B263" t="s">
-        <v>370</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -6157,10 +6208,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B264" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -6168,10 +6219,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="B265" t="s">
-        <v>377</v>
+        <v>207</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -6179,10 +6230,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B266" t="s">
-        <v>316</v>
+        <v>380</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -6190,10 +6241,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B267" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -6201,10 +6252,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B268" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -6212,10 +6263,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B269" t="s">
-        <v>360</v>
+        <v>186</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -6223,10 +6274,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="B270" t="s">
-        <v>360</v>
+        <v>193</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -6234,10 +6285,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B271" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -6245,10 +6296,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B272" t="s">
-        <v>175</v>
+        <v>371</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -6256,10 +6307,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B273" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -6267,10 +6318,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B274" t="s">
-        <v>113</v>
+        <v>175</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -6278,10 +6329,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B275" t="s">
-        <v>304</v>
+        <v>390</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -6289,10 +6340,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="B276" t="s">
-        <v>121</v>
+        <v>390</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -6300,10 +6351,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B277" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -6311,10 +6362,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="B278" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -6322,10 +6373,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="B279" t="s">
-        <v>27</v>
+        <v>390</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -6333,10 +6384,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="B280" t="s">
-        <v>23</v>
+        <v>374</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -6344,10 +6395,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="B281" t="s">
-        <v>60</v>
+        <v>397</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -6355,10 +6406,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B282" t="s">
-        <v>104</v>
+        <v>336</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -6366,10 +6417,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B283" t="s">
-        <v>104</v>
+        <v>175</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -6377,10 +6428,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B284" t="s">
-        <v>397</v>
+        <v>195</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -6388,10 +6439,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="B285" t="s">
-        <v>399</v>
+        <v>380</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -6399,10 +6450,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B286" t="s">
-        <v>79</v>
+        <v>380</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -6410,10 +6461,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B287" t="s">
-        <v>37</v>
+        <v>203</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -6421,10 +6472,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B288" t="s">
-        <v>76</v>
+        <v>195</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -6432,10 +6483,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B289" t="s">
-        <v>397</v>
+        <v>142</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -6443,10 +6494,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B290" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -6454,10 +6505,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B291" t="s">
-        <v>134</v>
+        <v>324</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -6465,10 +6516,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B292" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -6476,10 +6527,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B293" t="s">
-        <v>29</v>
+        <v>140</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -6487,10 +6538,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B294" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -6498,10 +6549,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B295" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -6509,10 +6560,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B296" t="s">
-        <v>104</v>
+        <v>50</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -6520,10 +6571,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B297" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -6531,10 +6582,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B298" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -6542,10 +6593,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B299" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -6553,10 +6604,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B300" t="s">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -6564,10 +6615,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="B301" t="s">
-        <v>81</v>
+        <v>419</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -6575,10 +6626,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B302" t="s">
-        <v>417</v>
+        <v>101</v>
       </c>
       <c r="C302" t="s">
         <v>5</v>
@@ -6586,10 +6637,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B303" t="s">
-        <v>419</v>
+        <v>63</v>
       </c>
       <c r="C303" t="s">
         <v>5</v>
@@ -6597,10 +6648,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B304" t="s">
-        <v>421</v>
+        <v>18</v>
       </c>
       <c r="C304" t="s">
         <v>5</v>
@@ -6608,10 +6659,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="B305" t="s">
-        <v>96</v>
+        <v>417</v>
       </c>
       <c r="C305" t="s">
         <v>5</v>
@@ -6619,10 +6670,10 @@
     </row>
     <row r="306">
       <c r="A306" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B306" t="s">
-        <v>424</v>
+        <v>96</v>
       </c>
       <c r="C306" t="s">
         <v>5</v>
@@ -6633,7 +6684,7 @@
         <v>425</v>
       </c>
       <c r="B307" t="s">
-        <v>424</v>
+        <v>22</v>
       </c>
       <c r="C307" t="s">
         <v>5</v>
@@ -6644,7 +6695,7 @@
         <v>426</v>
       </c>
       <c r="B308" t="s">
-        <v>427</v>
+        <v>28</v>
       </c>
       <c r="C308" t="s">
         <v>5</v>
@@ -6652,10 +6703,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B309" t="s">
-        <v>429</v>
+        <v>20</v>
       </c>
       <c r="C309" t="s">
         <v>5</v>
@@ -6663,10 +6714,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B310" t="s">
-        <v>427</v>
+        <v>125</v>
       </c>
       <c r="C310" t="s">
         <v>5</v>
@@ -6674,10 +6725,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B311" t="s">
-        <v>432</v>
+        <v>20</v>
       </c>
       <c r="C311" t="s">
         <v>5</v>
@@ -6685,10 +6736,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B312" t="s">
-        <v>434</v>
+        <v>125</v>
       </c>
       <c r="C312" t="s">
         <v>5</v>
@@ -6696,10 +6747,10 @@
     </row>
     <row r="313">
       <c r="A313" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="B313" t="s">
-        <v>436</v>
+        <v>61</v>
       </c>
       <c r="C313" t="s">
         <v>5</v>
@@ -6707,10 +6758,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="B314" t="s">
-        <v>438</v>
+        <v>86</v>
       </c>
       <c r="C314" t="s">
         <v>5</v>
@@ -6718,10 +6769,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B315" t="s">
-        <v>434</v>
+        <v>11</v>
       </c>
       <c r="C315" t="s">
         <v>5</v>
@@ -6729,10 +6780,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B316" t="s">
-        <v>441</v>
+        <v>419</v>
       </c>
       <c r="C316" t="s">
         <v>5</v>
@@ -6740,10 +6791,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="B317" t="s">
-        <v>443</v>
+        <v>11</v>
       </c>
       <c r="C317" t="s">
         <v>5</v>
@@ -6751,10 +6802,10 @@
     </row>
     <row r="318">
       <c r="A318" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="B318" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C318" t="s">
         <v>5</v>
@@ -6762,10 +6813,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B319" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C319" t="s">
         <v>5</v>
@@ -6773,10 +6824,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B320" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C320" t="s">
         <v>5</v>
@@ -6784,10 +6835,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="B321" t="s">
-        <v>447</v>
+        <v>117</v>
       </c>
       <c r="C321" t="s">
         <v>5</v>
@@ -6795,10 +6846,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="B322" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="C322" t="s">
         <v>5</v>
@@ -6806,10 +6857,10 @@
     </row>
     <row r="323">
       <c r="A323" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
       <c r="B323" t="s">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="C323" t="s">
         <v>5</v>
@@ -6817,10 +6868,10 @@
     </row>
     <row r="324">
       <c r="A324" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="B324" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C324" t="s">
         <v>5</v>
@@ -6828,10 +6879,10 @@
     </row>
     <row r="325">
       <c r="A325" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="B325" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C325" t="s">
         <v>5</v>
@@ -6839,10 +6890,10 @@
     </row>
     <row r="326">
       <c r="A326" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="B326" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="C326" t="s">
         <v>5</v>
@@ -6850,10 +6901,10 @@
     </row>
     <row r="327">
       <c r="A327" t="s">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="B327" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
       <c r="C327" t="s">
         <v>5</v>
@@ -6861,10 +6912,10 @@
     </row>
     <row r="328">
       <c r="A328" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="B328" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C328" t="s">
         <v>5</v>
@@ -6872,10 +6923,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="B329" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C329" t="s">
         <v>5</v>
@@ -6883,10 +6934,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="B330" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
@@ -6894,10 +6945,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="B331" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="C331" t="s">
         <v>5</v>
@@ -6905,10 +6956,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="B332" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C332" t="s">
         <v>5</v>
@@ -6916,10 +6967,10 @@
     </row>
     <row r="333">
       <c r="A333" t="s">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="B333" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
@@ -6927,10 +6978,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="B334" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C334" t="s">
         <v>5</v>
@@ -6938,10 +6989,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="B335" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C335" t="s">
         <v>5</v>
@@ -6949,10 +7000,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="B336" t="s">
-        <v>476</v>
+        <v>463</v>
       </c>
       <c r="C336" t="s">
         <v>5</v>
@@ -6960,10 +7011,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="B337" t="s">
-        <v>478</v>
+        <v>467</v>
       </c>
       <c r="C337" t="s">
         <v>5</v>
@@ -6971,10 +7022,10 @@
     </row>
     <row r="338">
       <c r="A338" t="s">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="B338" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C338" t="s">
         <v>5</v>
@@ -6982,10 +7033,10 @@
     </row>
     <row r="339">
       <c r="A339" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="B339" t="s">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="C339" t="s">
         <v>5</v>
@@ -6993,10 +7044,10 @@
     </row>
     <row r="340">
       <c r="A340" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="B340" t="s">
-        <v>470</v>
+        <v>475</v>
       </c>
       <c r="C340" t="s">
         <v>5</v>
@@ -7004,10 +7055,10 @@
     </row>
     <row r="341">
       <c r="A341" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="B341" t="s">
-        <v>457</v>
+        <v>4</v>
       </c>
       <c r="C341" t="s">
         <v>5</v>
@@ -7015,10 +7066,10 @@
     </row>
     <row r="342">
       <c r="A342" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="B342" t="s">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="C342" t="s">
         <v>5</v>
@@ -7026,10 +7077,10 @@
     </row>
     <row r="343">
       <c r="A343" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="B343" t="s">
-        <v>487</v>
+        <v>465</v>
       </c>
       <c r="C343" t="s">
         <v>5</v>
@@ -7037,10 +7088,10 @@
     </row>
     <row r="344">
       <c r="A344" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="B344" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="C344" t="s">
         <v>5</v>
@@ -7048,10 +7099,10 @@
     </row>
     <row r="345">
       <c r="A345" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="B345" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="C345" t="s">
         <v>5</v>
@@ -7059,10 +7110,10 @@
     </row>
     <row r="346">
       <c r="A346" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="B346" t="s">
-        <v>492</v>
+        <v>7</v>
       </c>
       <c r="C346" t="s">
         <v>5</v>
@@ -7070,10 +7121,10 @@
     </row>
     <row r="347">
       <c r="A347" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="B347" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C347" t="s">
         <v>5</v>
@@ -7081,10 +7132,10 @@
     </row>
     <row r="348">
       <c r="A348" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="B348" t="s">
-        <v>455</v>
+        <v>488</v>
       </c>
       <c r="C348" t="s">
         <v>5</v>
@@ -7092,10 +7143,10 @@
     </row>
     <row r="349">
       <c r="A349" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="B349" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="C349" t="s">
         <v>5</v>
@@ -7103,10 +7154,10 @@
     </row>
     <row r="350">
       <c r="A350" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="B350" t="s">
-        <v>476</v>
+        <v>491</v>
       </c>
       <c r="C350" t="s">
         <v>5</v>
@@ -7114,10 +7165,10 @@
     </row>
     <row r="351">
       <c r="A351" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B351" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="C351" t="s">
         <v>5</v>
@@ -7125,10 +7176,10 @@
     </row>
     <row r="352">
       <c r="A352" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B352" t="s">
-        <v>451</v>
+        <v>494</v>
       </c>
       <c r="C352" t="s">
         <v>5</v>
@@ -7136,10 +7187,10 @@
     </row>
     <row r="353">
       <c r="A353" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B353" t="s">
-        <v>434</v>
+        <v>496</v>
       </c>
       <c r="C353" t="s">
         <v>5</v>
@@ -7147,10 +7198,10 @@
     </row>
     <row r="354">
       <c r="A354" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="B354" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="C354" t="s">
         <v>5</v>
@@ -7158,10 +7209,10 @@
     </row>
     <row r="355">
       <c r="A355" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="B355" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="C355" t="s">
         <v>5</v>
@@ -7169,10 +7220,10 @@
     </row>
     <row r="356">
       <c r="A356" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="B356" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="C356" t="s">
         <v>5</v>
@@ -7180,10 +7231,10 @@
     </row>
     <row r="357">
       <c r="A357" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B357" t="s">
-        <v>507</v>
+        <v>4</v>
       </c>
       <c r="C357" t="s">
         <v>5</v>
@@ -7191,10 +7242,10 @@
     </row>
     <row r="358">
       <c r="A358" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="B358" t="s">
-        <v>424</v>
+        <v>488</v>
       </c>
       <c r="C358" t="s">
         <v>5</v>
@@ -7202,10 +7253,10 @@
     </row>
     <row r="359">
       <c r="A359" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="B359" t="s">
-        <v>434</v>
+        <v>505</v>
       </c>
       <c r="C359" t="s">
         <v>5</v>
@@ -7213,10 +7264,10 @@
     </row>
     <row r="360">
       <c r="A360" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="B360" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C360" t="s">
         <v>5</v>
@@ -7224,10 +7275,10 @@
     </row>
     <row r="361">
       <c r="A361" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="B361" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="C361" t="s">
         <v>5</v>
@@ -7235,10 +7286,10 @@
     </row>
     <row r="362">
       <c r="A362" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="B362" t="s">
-        <v>482</v>
+        <v>510</v>
       </c>
       <c r="C362" t="s">
         <v>5</v>
@@ -7246,10 +7297,10 @@
     </row>
     <row r="363">
       <c r="A363" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B363" t="s">
-        <v>470</v>
+        <v>512</v>
       </c>
       <c r="C363" t="s">
         <v>5</v>
@@ -7257,10 +7308,10 @@
     </row>
     <row r="364">
       <c r="A364" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="B364" t="s">
-        <v>517</v>
+        <v>475</v>
       </c>
       <c r="C364" t="s">
         <v>5</v>
@@ -7268,10 +7319,10 @@
     </row>
     <row r="365">
       <c r="A365" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B365" t="s">
-        <v>482</v>
+        <v>500</v>
       </c>
       <c r="C365" t="s">
         <v>5</v>
@@ -7279,10 +7330,10 @@
     </row>
     <row r="366">
       <c r="A366" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B366" t="s">
-        <v>520</v>
+        <v>494</v>
       </c>
       <c r="C366" t="s">
         <v>5</v>
@@ -7290,10 +7341,10 @@
     </row>
     <row r="367">
       <c r="A367" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B367" t="s">
-        <v>522</v>
+        <v>500</v>
       </c>
       <c r="C367" t="s">
         <v>5</v>
@@ -7301,10 +7352,10 @@
     </row>
     <row r="368">
       <c r="A368" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B368" t="s">
-        <v>451</v>
+        <v>471</v>
       </c>
       <c r="C368" t="s">
         <v>5</v>
@@ -7312,10 +7363,10 @@
     </row>
     <row r="369">
       <c r="A369" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B369" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="C369" t="s">
         <v>5</v>
@@ -7323,10 +7374,10 @@
     </row>
     <row r="370">
       <c r="A370" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B370" t="s">
-        <v>443</v>
+        <v>520</v>
       </c>
       <c r="C370" t="s">
         <v>5</v>
@@ -7334,10 +7385,10 @@
     </row>
     <row r="371">
       <c r="A371" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="B371" t="s">
-        <v>464</v>
+        <v>522</v>
       </c>
       <c r="C371" t="s">
         <v>5</v>
@@ -7345,10 +7396,10 @@
     </row>
     <row r="372">
       <c r="A372" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B372" t="s">
-        <v>528</v>
+        <v>456</v>
       </c>
       <c r="C372" t="s">
         <v>5</v>
@@ -7356,10 +7407,10 @@
     </row>
     <row r="373">
       <c r="A373" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="B373" t="s">
-        <v>434</v>
+        <v>525</v>
       </c>
       <c r="C373" t="s">
         <v>5</v>
@@ -7367,10 +7418,10 @@
     </row>
     <row r="374">
       <c r="A374" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B374" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="C374" t="s">
         <v>5</v>
@@ -7378,10 +7429,10 @@
     </row>
     <row r="375">
       <c r="A375" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B375" t="s">
-        <v>441</v>
+        <v>454</v>
       </c>
       <c r="C375" t="s">
         <v>5</v>
@@ -7389,10 +7440,10 @@
     </row>
     <row r="376">
       <c r="A376" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B376" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C376" t="s">
         <v>5</v>
@@ -7400,10 +7451,10 @@
     </row>
     <row r="377">
       <c r="A377" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="B377" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="C377" t="s">
         <v>5</v>
@@ -7411,10 +7462,10 @@
     </row>
     <row r="378">
       <c r="A378" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B378" t="s">
-        <v>533</v>
+        <v>500</v>
       </c>
       <c r="C378" t="s">
         <v>5</v>
@@ -7422,10 +7473,10 @@
     </row>
     <row r="379">
       <c r="A379" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B379" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="C379" t="s">
         <v>5</v>
@@ -7433,10 +7484,10 @@
     </row>
     <row r="380">
       <c r="A380" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B380" t="s">
-        <v>502</v>
+        <v>535</v>
       </c>
       <c r="C380" t="s">
         <v>5</v>
@@ -7444,10 +7495,10 @@
     </row>
     <row r="381">
       <c r="A381" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="B381" t="s">
-        <v>424</v>
+        <v>500</v>
       </c>
       <c r="C381" t="s">
         <v>5</v>
@@ -7455,10 +7506,10 @@
     </row>
     <row r="382">
       <c r="A382" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="B382" t="s">
-        <v>432</v>
+        <v>538</v>
       </c>
       <c r="C382" t="s">
         <v>5</v>
@@ -7466,10 +7517,10 @@
     </row>
     <row r="383">
       <c r="A383" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B383" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C383" t="s">
         <v>5</v>
@@ -7477,10 +7528,10 @@
     </row>
     <row r="384">
       <c r="A384" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B384" t="s">
-        <v>533</v>
+        <v>471</v>
       </c>
       <c r="C384" t="s">
         <v>5</v>
@@ -7488,10 +7539,10 @@
     </row>
     <row r="385">
       <c r="A385" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B385" t="s">
-        <v>441</v>
+        <v>471</v>
       </c>
       <c r="C385" t="s">
         <v>5</v>
@@ -7499,10 +7550,10 @@
     </row>
     <row r="386">
       <c r="A386" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B386" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="C386" t="s">
         <v>5</v>
@@ -7510,10 +7561,10 @@
     </row>
     <row r="387">
       <c r="A387" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B387" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="C387" t="s">
         <v>5</v>
@@ -7521,10 +7572,10 @@
     </row>
     <row r="388">
       <c r="A388" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B388" t="s">
-        <v>502</v>
+        <v>546</v>
       </c>
       <c r="C388" t="s">
         <v>5</v>
@@ -7532,10 +7583,10 @@
     </row>
     <row r="389">
       <c r="A389" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B389" t="s">
-        <v>434</v>
+        <v>454</v>
       </c>
       <c r="C389" t="s">
         <v>5</v>
@@ -7543,10 +7594,10 @@
     </row>
     <row r="390">
       <c r="A390" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B390" t="s">
-        <v>429</v>
+        <v>461</v>
       </c>
       <c r="C390" t="s">
         <v>5</v>
@@ -7554,10 +7605,10 @@
     </row>
     <row r="391">
       <c r="A391" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B391" t="s">
-        <v>445</v>
+        <v>461</v>
       </c>
       <c r="C391" t="s">
         <v>5</v>
@@ -7565,10 +7616,10 @@
     </row>
     <row r="392">
       <c r="A392" t="s">
+        <v>550</v>
+      </c>
+      <c r="B392" t="s">
         <v>551</v>
-      </c>
-      <c r="B392" t="s">
-        <v>441</v>
       </c>
       <c r="C392" t="s">
         <v>5</v>
@@ -7579,7 +7630,7 @@
         <v>552</v>
       </c>
       <c r="B393" t="s">
-        <v>513</v>
+        <v>553</v>
       </c>
       <c r="C393" t="s">
         <v>5</v>
@@ -7587,10 +7638,10 @@
     </row>
     <row r="394">
       <c r="A394" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B394" t="s">
-        <v>429</v>
+        <v>551</v>
       </c>
       <c r="C394" t="s">
         <v>5</v>
@@ -7598,10 +7649,10 @@
     </row>
     <row r="395">
       <c r="A395" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B395" t="s">
-        <v>445</v>
+        <v>520</v>
       </c>
       <c r="C395" t="s">
         <v>5</v>
@@ -7609,10 +7660,10 @@
     </row>
     <row r="396">
       <c r="A396" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B396" t="s">
-        <v>447</v>
+        <v>520</v>
       </c>
       <c r="C396" t="s">
         <v>5</v>
@@ -7620,10 +7671,10 @@
     </row>
     <row r="397">
       <c r="A397" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B397" t="s">
-        <v>542</v>
+        <v>444</v>
       </c>
       <c r="C397" t="s">
         <v>5</v>
@@ -7631,10 +7682,10 @@
     </row>
     <row r="398">
       <c r="A398" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B398" t="s">
-        <v>502</v>
+        <v>452</v>
       </c>
       <c r="C398" t="s">
         <v>5</v>
@@ -7642,10 +7693,10 @@
     </row>
     <row r="399">
       <c r="A399" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B399" t="s">
-        <v>436</v>
+        <v>560</v>
       </c>
       <c r="C399" t="s">
         <v>5</v>
@@ -7653,10 +7704,10 @@
     </row>
     <row r="400">
       <c r="A400" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B400" t="s">
-        <v>432</v>
+        <v>551</v>
       </c>
       <c r="C400" t="s">
         <v>5</v>
@@ -7664,10 +7715,10 @@
     </row>
     <row r="401">
       <c r="A401" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B401" t="s">
-        <v>441</v>
+        <v>461</v>
       </c>
       <c r="C401" t="s">
         <v>5</v>
@@ -7675,10 +7726,10 @@
     </row>
     <row r="402">
       <c r="A402" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B402" t="s">
-        <v>533</v>
+        <v>449</v>
       </c>
       <c r="C402" t="s">
         <v>5</v>
@@ -7686,10 +7737,10 @@
     </row>
     <row r="403">
       <c r="A403" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B403" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="C403" t="s">
         <v>5</v>
@@ -7697,10 +7748,10 @@
     </row>
     <row r="404">
       <c r="A404" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B404" t="s">
-        <v>564</v>
+        <v>520</v>
       </c>
       <c r="C404" t="s">
         <v>5</v>
@@ -7708,10 +7759,10 @@
     </row>
     <row r="405">
       <c r="A405" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B405" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
       <c r="C405" t="s">
         <v>5</v>
@@ -7719,10 +7770,10 @@
     </row>
     <row r="406">
       <c r="A406" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B406" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="C406" t="s">
         <v>5</v>
@@ -7730,10 +7781,10 @@
     </row>
     <row r="407">
       <c r="A407" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B407" t="s">
-        <v>476</v>
+        <v>465</v>
       </c>
       <c r="C407" t="s">
         <v>5</v>
@@ -7741,10 +7792,10 @@
     </row>
     <row r="408">
       <c r="A408" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B408" t="s">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="C408" t="s">
         <v>5</v>
@@ -7752,10 +7803,10 @@
     </row>
     <row r="409">
       <c r="A409" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B409" t="s">
-        <v>468</v>
+        <v>531</v>
       </c>
       <c r="C409" t="s">
         <v>5</v>
@@ -7763,10 +7814,10 @@
     </row>
     <row r="410">
       <c r="A410" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B410" t="s">
-        <v>476</v>
+        <v>449</v>
       </c>
       <c r="C410" t="s">
         <v>5</v>
@@ -7774,10 +7825,10 @@
     </row>
     <row r="411">
       <c r="A411" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B411" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C411" t="s">
         <v>5</v>
@@ -7785,10 +7836,10 @@
     </row>
     <row r="412">
       <c r="A412" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B412" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="C412" t="s">
         <v>5</v>
@@ -7796,10 +7847,10 @@
     </row>
     <row r="413">
       <c r="A413" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B413" t="s">
-        <v>453</v>
+        <v>560</v>
       </c>
       <c r="C413" t="s">
         <v>5</v>
@@ -7807,10 +7858,10 @@
     </row>
     <row r="414">
       <c r="A414" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B414" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C414" t="s">
         <v>5</v>
@@ -7818,10 +7869,10 @@
     </row>
     <row r="415">
       <c r="A415" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B415" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C415" t="s">
         <v>5</v>
@@ -7829,10 +7880,10 @@
     </row>
     <row r="416">
       <c r="A416" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B416" t="s">
-        <v>470</v>
+        <v>452</v>
       </c>
       <c r="C416" t="s">
         <v>5</v>
@@ -7840,10 +7891,10 @@
     </row>
     <row r="417">
       <c r="A417" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B417" t="s">
-        <v>578</v>
+        <v>461</v>
       </c>
       <c r="C417" t="s">
         <v>5</v>
@@ -7854,7 +7905,7 @@
         <v>579</v>
       </c>
       <c r="B418" t="s">
-        <v>564</v>
+        <v>551</v>
       </c>
       <c r="C418" t="s">
         <v>5</v>
@@ -7865,7 +7916,7 @@
         <v>580</v>
       </c>
       <c r="B419" t="s">
-        <v>581</v>
+        <v>538</v>
       </c>
       <c r="C419" t="s">
         <v>5</v>
@@ -7873,10 +7924,10 @@
     </row>
     <row r="420">
       <c r="A420" t="s">
+        <v>581</v>
+      </c>
+      <c r="B420" t="s">
         <v>582</v>
-      </c>
-      <c r="B420" t="s">
-        <v>583</v>
       </c>
       <c r="C420" t="s">
         <v>5</v>
@@ -7884,10 +7935,10 @@
     </row>
     <row r="421">
       <c r="A421" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B421" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="C421" t="s">
         <v>5</v>
@@ -7895,10 +7946,10 @@
     </row>
     <row r="422">
       <c r="A422" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B422" t="s">
-        <v>586</v>
+        <v>475</v>
       </c>
       <c r="C422" t="s">
         <v>5</v>
@@ -7906,10 +7957,10 @@
     </row>
     <row r="423">
       <c r="A423" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B423" t="s">
-        <v>588</v>
+        <v>494</v>
       </c>
       <c r="C423" t="s">
         <v>5</v>
@@ -7917,10 +7968,10 @@
     </row>
     <row r="424">
       <c r="A424" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B424" t="s">
-        <v>590</v>
+        <v>488</v>
       </c>
       <c r="C424" t="s">
         <v>5</v>
@@ -7928,10 +7979,10 @@
     </row>
     <row r="425">
       <c r="A425" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="B425" t="s">
-        <v>592</v>
+        <v>486</v>
       </c>
       <c r="C425" t="s">
         <v>5</v>
@@ -7939,10 +7990,10 @@
     </row>
     <row r="426">
       <c r="A426" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B426" t="s">
-        <v>594</v>
+        <v>494</v>
       </c>
       <c r="C426" t="s">
         <v>5</v>
@@ -7950,10 +8001,10 @@
     </row>
     <row r="427">
       <c r="A427" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B427" t="s">
-        <v>517</v>
+        <v>7</v>
       </c>
       <c r="C427" t="s">
         <v>5</v>
@@ -7961,10 +8012,10 @@
     </row>
     <row r="428">
       <c r="A428" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B428" t="s">
-        <v>578</v>
+        <v>478</v>
       </c>
       <c r="C428" t="s">
         <v>5</v>
@@ -7972,10 +8023,10 @@
     </row>
     <row r="429">
       <c r="A429" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B429" t="s">
-        <v>520</v>
+        <v>473</v>
       </c>
       <c r="C429" t="s">
         <v>5</v>
@@ -7983,10 +8034,10 @@
     </row>
     <row r="430">
       <c r="A430" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B430" t="s">
-        <v>599</v>
+        <v>546</v>
       </c>
       <c r="C430" t="s">
         <v>5</v>
@@ -7994,10 +8045,10 @@
     </row>
     <row r="431">
       <c r="A431" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="B431" t="s">
-        <v>599</v>
+        <v>478</v>
       </c>
       <c r="C431" t="s">
         <v>5</v>
@@ -8005,10 +8056,10 @@
     </row>
     <row r="432">
       <c r="A432" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="B432" t="s">
-        <v>602</v>
+        <v>488</v>
       </c>
       <c r="C432" t="s">
         <v>5</v>
@@ -8016,10 +8067,10 @@
     </row>
     <row r="433">
       <c r="A433" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
       <c r="B433" t="s">
-        <v>459</v>
+        <v>596</v>
       </c>
       <c r="C433" t="s">
         <v>5</v>
@@ -8027,10 +8078,10 @@
     </row>
     <row r="434">
       <c r="A434" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
       <c r="B434" t="s">
-        <v>476</v>
+        <v>582</v>
       </c>
       <c r="C434" t="s">
         <v>5</v>
@@ -8038,10 +8089,10 @@
     </row>
     <row r="435">
       <c r="A435" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
       <c r="B435" t="s">
-        <v>457</v>
+        <v>599</v>
       </c>
       <c r="C435" t="s">
         <v>5</v>
@@ -8049,10 +8100,10 @@
     </row>
     <row r="436">
       <c r="A436" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B436" t="s">
-        <v>457</v>
+        <v>601</v>
       </c>
       <c r="C436" t="s">
         <v>5</v>
@@ -8060,10 +8111,10 @@
     </row>
     <row r="437">
       <c r="A437" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B437" t="s">
-        <v>470</v>
+        <v>510</v>
       </c>
       <c r="C437" t="s">
         <v>5</v>
@@ -8071,10 +8122,10 @@
     </row>
     <row r="438">
       <c r="A438" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B438" t="s">
-        <v>476</v>
+        <v>604</v>
       </c>
       <c r="C438" t="s">
         <v>5</v>
@@ -8082,10 +8133,10 @@
     </row>
     <row r="439">
       <c r="A439" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="B439" t="s">
-        <v>470</v>
+        <v>606</v>
       </c>
       <c r="C439" t="s">
         <v>5</v>
@@ -8093,10 +8144,10 @@
     </row>
     <row r="440">
       <c r="A440" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B440" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="C440" t="s">
         <v>5</v>
@@ -8104,10 +8155,10 @@
     </row>
     <row r="441">
       <c r="A441" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B441" t="s">
-        <v>594</v>
+        <v>610</v>
       </c>
       <c r="C441" t="s">
         <v>5</v>
@@ -8115,10 +8166,10 @@
     </row>
     <row r="442">
       <c r="A442" t="s">
+        <v>611</v>
+      </c>
+      <c r="B442" t="s">
         <v>612</v>
-      </c>
-      <c r="B442" t="s">
-        <v>578</v>
       </c>
       <c r="C442" t="s">
         <v>5</v>
@@ -8129,7 +8180,7 @@
         <v>613</v>
       </c>
       <c r="B443" t="s">
-        <v>599</v>
+        <v>535</v>
       </c>
       <c r="C443" t="s">
         <v>5</v>
@@ -8140,7 +8191,7 @@
         <v>614</v>
       </c>
       <c r="B444" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="C444" t="s">
         <v>5</v>
@@ -8151,7 +8202,7 @@
         <v>615</v>
       </c>
       <c r="B445" t="s">
-        <v>581</v>
+        <v>538</v>
       </c>
       <c r="C445" t="s">
         <v>5</v>
@@ -8162,7 +8213,7 @@
         <v>616</v>
       </c>
       <c r="B446" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="C446" t="s">
         <v>5</v>
@@ -8170,10 +8221,10 @@
     </row>
     <row r="447">
       <c r="A447" t="s">
+        <v>618</v>
+      </c>
+      <c r="B447" t="s">
         <v>617</v>
-      </c>
-      <c r="B447" t="s">
-        <v>466</v>
       </c>
       <c r="C447" t="s">
         <v>5</v>
@@ -8181,10 +8232,10 @@
     </row>
     <row r="448">
       <c r="A448" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="B448" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C448" t="s">
         <v>5</v>
@@ -8192,10 +8243,10 @@
     </row>
     <row r="449">
       <c r="A449" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="B449" t="s">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="C449" t="s">
         <v>5</v>
@@ -8203,10 +8254,10 @@
     </row>
     <row r="450">
       <c r="A450" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B450" t="s">
-        <v>622</v>
+        <v>494</v>
       </c>
       <c r="C450" t="s">
         <v>5</v>
@@ -8217,7 +8268,7 @@
         <v>623</v>
       </c>
       <c r="B451" t="s">
-        <v>494</v>
+        <v>4</v>
       </c>
       <c r="C451" t="s">
         <v>5</v>
@@ -8228,7 +8279,7 @@
         <v>624</v>
       </c>
       <c r="B452" t="s">
-        <v>487</v>
+        <v>4</v>
       </c>
       <c r="C452" t="s">
         <v>5</v>
@@ -8239,7 +8290,7 @@
         <v>625</v>
       </c>
       <c r="B453" t="s">
-        <v>588</v>
+        <v>488</v>
       </c>
       <c r="C453" t="s">
         <v>5</v>
@@ -8250,7 +8301,7 @@
         <v>626</v>
       </c>
       <c r="B454" t="s">
-        <v>592</v>
+        <v>494</v>
       </c>
       <c r="C454" t="s">
         <v>5</v>
@@ -8261,7 +8312,7 @@
         <v>627</v>
       </c>
       <c r="B455" t="s">
-        <v>599</v>
+        <v>488</v>
       </c>
       <c r="C455" t="s">
         <v>5</v>
@@ -8272,7 +8323,7 @@
         <v>628</v>
       </c>
       <c r="B456" t="s">
-        <v>468</v>
+        <v>610</v>
       </c>
       <c r="C456" t="s">
         <v>5</v>
@@ -8283,7 +8334,7 @@
         <v>629</v>
       </c>
       <c r="B457" t="s">
-        <v>468</v>
+        <v>612</v>
       </c>
       <c r="C457" t="s">
         <v>5</v>
@@ -8294,7 +8345,7 @@
         <v>630</v>
       </c>
       <c r="B458" t="s">
-        <v>520</v>
+        <v>596</v>
       </c>
       <c r="C458" t="s">
         <v>5</v>
@@ -8305,7 +8356,7 @@
         <v>631</v>
       </c>
       <c r="B459" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="C459" t="s">
         <v>5</v>
@@ -8316,7 +8367,7 @@
         <v>632</v>
       </c>
       <c r="B460" t="s">
-        <v>473</v>
+        <v>617</v>
       </c>
       <c r="C460" t="s">
         <v>5</v>
@@ -8327,7 +8378,7 @@
         <v>633</v>
       </c>
       <c r="B461" t="s">
-        <v>468</v>
+        <v>599</v>
       </c>
       <c r="C461" t="s">
         <v>5</v>
@@ -8338,7 +8389,7 @@
         <v>634</v>
       </c>
       <c r="B462" t="s">
-        <v>466</v>
+        <v>620</v>
       </c>
       <c r="C462" t="s">
         <v>5</v>
@@ -8349,7 +8400,7 @@
         <v>635</v>
       </c>
       <c r="B463" t="s">
-        <v>473</v>
+        <v>7</v>
       </c>
       <c r="C463" t="s">
         <v>5</v>
@@ -8360,7 +8411,7 @@
         <v>636</v>
       </c>
       <c r="B464" t="s">
-        <v>473</v>
+        <v>637</v>
       </c>
       <c r="C464" t="s">
         <v>5</v>
@@ -8368,10 +8419,10 @@
     </row>
     <row r="465">
       <c r="A465" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B465" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="C465" t="s">
         <v>5</v>
@@ -8379,10 +8430,10 @@
     </row>
     <row r="466">
       <c r="A466" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B466" t="s">
-        <v>602</v>
+        <v>640</v>
       </c>
       <c r="C466" t="s">
         <v>5</v>
@@ -8390,10 +8441,10 @@
     </row>
     <row r="467">
       <c r="A467" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B467" t="s">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="C467" t="s">
         <v>5</v>
@@ -8401,10 +8452,10 @@
     </row>
     <row r="468">
       <c r="A468" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B468" t="s">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="C468" t="s">
         <v>5</v>
@@ -8412,10 +8463,10 @@
     </row>
     <row r="469">
       <c r="A469" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="B469" t="s">
-        <v>470</v>
+        <v>606</v>
       </c>
       <c r="C469" t="s">
         <v>5</v>
@@ -8423,10 +8474,10 @@
     </row>
     <row r="470">
       <c r="A470" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B470" t="s">
-        <v>476</v>
+        <v>610</v>
       </c>
       <c r="C470" t="s">
         <v>5</v>
@@ -8434,10 +8485,10 @@
     </row>
     <row r="471">
       <c r="A471" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="B471" t="s">
-        <v>466</v>
+        <v>617</v>
       </c>
       <c r="C471" t="s">
         <v>5</v>
@@ -8445,10 +8496,10 @@
     </row>
     <row r="472">
       <c r="A472" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B472" t="s">
-        <v>602</v>
+        <v>486</v>
       </c>
       <c r="C472" t="s">
         <v>5</v>
@@ -8456,10 +8507,10 @@
     </row>
     <row r="473">
       <c r="A473" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B473" t="s">
-        <v>564</v>
+        <v>486</v>
       </c>
       <c r="C473" t="s">
         <v>5</v>
@@ -8467,10 +8518,10 @@
     </row>
     <row r="474">
       <c r="A474" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="B474" t="s">
-        <v>459</v>
+        <v>538</v>
       </c>
       <c r="C474" t="s">
         <v>5</v>
@@ -8478,10 +8529,10 @@
     </row>
     <row r="475">
       <c r="A475" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B475" t="s">
-        <v>445</v>
+        <v>620</v>
       </c>
       <c r="C475" t="s">
         <v>5</v>
@@ -8489,10 +8540,10 @@
     </row>
     <row r="476">
       <c r="A476" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="B476" t="s">
-        <v>462</v>
+        <v>491</v>
       </c>
       <c r="C476" t="s">
         <v>5</v>
@@ -8500,10 +8551,10 @@
     </row>
     <row r="477">
       <c r="A477" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B477" t="s">
-        <v>473</v>
+        <v>486</v>
       </c>
       <c r="C477" t="s">
         <v>5</v>
@@ -8511,10 +8562,10 @@
     </row>
     <row r="478">
       <c r="A478" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="B478" t="s">
-        <v>476</v>
+        <v>7</v>
       </c>
       <c r="C478" t="s">
         <v>5</v>
@@ -8522,10 +8573,10 @@
     </row>
     <row r="479">
       <c r="A479" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B479" t="s">
-        <v>459</v>
+        <v>491</v>
       </c>
       <c r="C479" t="s">
         <v>5</v>
@@ -8533,10 +8584,10 @@
     </row>
     <row r="480">
       <c r="A480" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B480" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="C480" t="s">
         <v>5</v>
@@ -8544,10 +8595,10 @@
     </row>
     <row r="481">
       <c r="A481" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B481" t="s">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="C481" t="s">
         <v>5</v>
@@ -8555,10 +8606,10 @@
     </row>
     <row r="482">
       <c r="A482" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B482" t="s">
-        <v>453</v>
+        <v>620</v>
       </c>
       <c r="C482" t="s">
         <v>5</v>
@@ -8566,10 +8617,10 @@
     </row>
     <row r="483">
       <c r="A483" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B483" t="s">
-        <v>457</v>
+        <v>494</v>
       </c>
       <c r="C483" t="s">
         <v>5</v>
@@ -8577,10 +8628,10 @@
     </row>
     <row r="484">
       <c r="A484" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B484" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="C484" t="s">
         <v>5</v>
@@ -8588,10 +8639,10 @@
     </row>
     <row r="485">
       <c r="A485" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B485" t="s">
-        <v>473</v>
+        <v>488</v>
       </c>
       <c r="C485" t="s">
         <v>5</v>
@@ -8599,10 +8650,10 @@
     </row>
     <row r="486">
       <c r="A486" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B486" t="s">
-        <v>578</v>
+        <v>494</v>
       </c>
       <c r="C486" t="s">
         <v>5</v>
@@ -8610,10 +8661,10 @@
     </row>
     <row r="487">
       <c r="A487" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B487" t="s">
-        <v>592</v>
+        <v>7</v>
       </c>
       <c r="C487" t="s">
         <v>5</v>
@@ -8621,10 +8672,10 @@
     </row>
     <row r="488">
       <c r="A488" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B488" t="s">
-        <v>661</v>
+        <v>620</v>
       </c>
       <c r="C488" t="s">
         <v>5</v>
@@ -8632,10 +8683,10 @@
     </row>
     <row r="489">
       <c r="A489" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="B489" t="s">
-        <v>622</v>
+        <v>582</v>
       </c>
       <c r="C489" t="s">
         <v>5</v>
@@ -8643,10 +8694,10 @@
     </row>
     <row r="490">
       <c r="A490" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="B490" t="s">
-        <v>664</v>
+        <v>478</v>
       </c>
       <c r="C490" t="s">
         <v>5</v>
@@ -8657,7 +8708,7 @@
         <v>665</v>
       </c>
       <c r="B491" t="s">
-        <v>666</v>
+        <v>465</v>
       </c>
       <c r="C491" t="s">
         <v>5</v>
@@ -8665,10 +8716,10 @@
     </row>
     <row r="492">
       <c r="A492" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B492" t="s">
-        <v>668</v>
+        <v>481</v>
       </c>
       <c r="C492" t="s">
         <v>5</v>
@@ -8676,10 +8727,10 @@
     </row>
     <row r="493">
       <c r="A493" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="B493" t="s">
-        <v>670</v>
+        <v>491</v>
       </c>
       <c r="C493" t="s">
         <v>5</v>
@@ -8687,10 +8738,10 @@
     </row>
     <row r="494">
       <c r="A494" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="B494" t="s">
-        <v>672</v>
+        <v>494</v>
       </c>
       <c r="C494" t="s">
         <v>5</v>
@@ -8698,10 +8749,10 @@
     </row>
     <row r="495">
       <c r="A495" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="B495" t="s">
-        <v>670</v>
+        <v>478</v>
       </c>
       <c r="C495" t="s">
         <v>5</v>
@@ -8709,10 +8760,10 @@
     </row>
     <row r="496">
       <c r="A496" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="B496" t="s">
-        <v>675</v>
+        <v>483</v>
       </c>
       <c r="C496" t="s">
         <v>5</v>
@@ -8720,10 +8771,10 @@
     </row>
     <row r="497">
       <c r="A497" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="B497" t="s">
-        <v>677</v>
+        <v>481</v>
       </c>
       <c r="C497" t="s">
         <v>5</v>
@@ -8731,10 +8782,10 @@
     </row>
     <row r="498">
       <c r="A498" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="B498" t="s">
-        <v>670</v>
+        <v>473</v>
       </c>
       <c r="C498" t="s">
         <v>5</v>
@@ -8742,10 +8793,10 @@
     </row>
     <row r="499">
       <c r="A499" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="B499" t="s">
-        <v>680</v>
+        <v>4</v>
       </c>
       <c r="C499" t="s">
         <v>5</v>
@@ -8753,10 +8804,10 @@
     </row>
     <row r="500">
       <c r="A500" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="B500" t="s">
-        <v>682</v>
+        <v>491</v>
       </c>
       <c r="C500" t="s">
         <v>5</v>
@@ -8764,10 +8815,10 @@
     </row>
     <row r="501">
       <c r="A501" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
       <c r="B501" t="s">
-        <v>684</v>
+        <v>491</v>
       </c>
       <c r="C501" t="s">
         <v>5</v>
@@ -8775,10 +8826,10 @@
     </row>
     <row r="502">
       <c r="A502" t="s">
-        <v>685</v>
+        <v>676</v>
       </c>
       <c r="B502" t="s">
-        <v>686</v>
+        <v>596</v>
       </c>
       <c r="C502" t="s">
         <v>5</v>
@@ -8786,10 +8837,10 @@
     </row>
     <row r="503">
       <c r="A503" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="B503" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="C503" t="s">
         <v>5</v>
@@ -8797,10 +8848,10 @@
     </row>
     <row r="504">
       <c r="A504" t="s">
-        <v>689</v>
+        <v>678</v>
       </c>
       <c r="B504" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="C504" t="s">
         <v>5</v>
@@ -8808,10 +8859,10 @@
     </row>
     <row r="505">
       <c r="A505" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="B505" t="s">
-        <v>691</v>
+        <v>640</v>
       </c>
       <c r="C505" t="s">
         <v>5</v>
@@ -8819,10 +8870,10 @@
     </row>
     <row r="506">
       <c r="A506" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="B506" t="s">
-        <v>675</v>
+        <v>682</v>
       </c>
       <c r="C506" t="s">
         <v>5</v>
@@ -8830,10 +8881,10 @@
     </row>
     <row r="507">
       <c r="A507" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="B507" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="C507" t="s">
         <v>5</v>
@@ -8841,10 +8892,10 @@
     </row>
     <row r="508">
       <c r="A508" t="s">
-        <v>694</v>
+        <v>685</v>
       </c>
       <c r="B508" t="s">
-        <v>695</v>
+        <v>686</v>
       </c>
       <c r="C508" t="s">
         <v>5</v>
@@ -8852,10 +8903,10 @@
     </row>
     <row r="509">
       <c r="A509" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
       <c r="B509" t="s">
-        <v>672</v>
+        <v>688</v>
       </c>
       <c r="C509" t="s">
         <v>5</v>
@@ -8863,10 +8914,10 @@
     </row>
     <row r="510">
       <c r="A510" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
       <c r="B510" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="C510" t="s">
         <v>5</v>
@@ -8874,10 +8925,10 @@
     </row>
     <row r="511">
       <c r="A511" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
       <c r="B511" t="s">
-        <v>700</v>
+        <v>688</v>
       </c>
       <c r="C511" t="s">
         <v>5</v>
@@ -8885,10 +8936,10 @@
     </row>
     <row r="512">
       <c r="A512" t="s">
-        <v>701</v>
+        <v>692</v>
       </c>
       <c r="B512" t="s">
-        <v>688</v>
+        <v>693</v>
       </c>
       <c r="C512" t="s">
         <v>5</v>
@@ -8896,10 +8947,10 @@
     </row>
     <row r="513">
       <c r="A513" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
       <c r="B513" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
       <c r="C513" t="s">
         <v>5</v>
@@ -8907,10 +8958,10 @@
     </row>
     <row r="514">
       <c r="A514" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
       <c r="B514" t="s">
-        <v>705</v>
+        <v>688</v>
       </c>
       <c r="C514" t="s">
         <v>5</v>
@@ -8918,10 +8969,10 @@
     </row>
     <row r="515">
       <c r="A515" t="s">
-        <v>706</v>
+        <v>697</v>
       </c>
       <c r="B515" t="s">
-        <v>670</v>
+        <v>698</v>
       </c>
       <c r="C515" t="s">
         <v>5</v>
@@ -8929,10 +8980,10 @@
     </row>
     <row r="516">
       <c r="A516" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
       <c r="B516" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
       <c r="C516" t="s">
         <v>5</v>
@@ -8940,10 +8991,10 @@
     </row>
     <row r="517">
       <c r="A517" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
       <c r="B517" t="s">
-        <v>672</v>
+        <v>702</v>
       </c>
       <c r="C517" t="s">
         <v>5</v>
@@ -8951,10 +9002,10 @@
     </row>
     <row r="518">
       <c r="A518" t="s">
-        <v>710</v>
+        <v>703</v>
       </c>
       <c r="B518" t="s">
-        <v>711</v>
+        <v>704</v>
       </c>
       <c r="C518" t="s">
         <v>5</v>
@@ -8962,10 +9013,10 @@
     </row>
     <row r="519">
       <c r="A519" t="s">
-        <v>712</v>
+        <v>705</v>
       </c>
       <c r="B519" t="s">
-        <v>492</v>
+        <v>706</v>
       </c>
       <c r="C519" t="s">
         <v>5</v>
@@ -8973,10 +9024,10 @@
     </row>
     <row r="520">
       <c r="A520" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="B520" t="s">
-        <v>583</v>
+        <v>700</v>
       </c>
       <c r="C520" t="s">
         <v>5</v>
@@ -8984,10 +9035,10 @@
     </row>
     <row r="521">
       <c r="A521" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B521" t="s">
-        <v>698</v>
+        <v>709</v>
       </c>
       <c r="C521" t="s">
         <v>5</v>
@@ -8995,10 +9046,10 @@
     </row>
     <row r="522">
       <c r="A522" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="B522" t="s">
-        <v>490</v>
+        <v>693</v>
       </c>
       <c r="C522" t="s">
         <v>5</v>
@@ -9006,10 +9057,10 @@
     </row>
     <row r="523">
       <c r="A523" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="B523" t="s">
-        <v>583</v>
+        <v>706</v>
       </c>
       <c r="C523" t="s">
         <v>5</v>
@@ -9017,10 +9068,10 @@
     </row>
     <row r="524">
       <c r="A524" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="B524" t="s">
-        <v>661</v>
+        <v>713</v>
       </c>
       <c r="C524" t="s">
         <v>5</v>
@@ -9028,10 +9079,10 @@
     </row>
     <row r="525">
       <c r="A525" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="B525" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
       <c r="C525" t="s">
         <v>5</v>
@@ -9039,10 +9090,10 @@
     </row>
     <row r="526">
       <c r="A526" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="B526" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C526" t="s">
         <v>5</v>
@@ -9050,10 +9101,10 @@
     </row>
     <row r="527">
       <c r="A527" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="B527" t="s">
-        <v>708</v>
+        <v>718</v>
       </c>
       <c r="C527" t="s">
         <v>5</v>
@@ -9061,10 +9112,10 @@
     </row>
     <row r="528">
       <c r="A528" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="B528" t="s">
-        <v>590</v>
+        <v>706</v>
       </c>
       <c r="C528" t="s">
         <v>5</v>
@@ -9072,10 +9123,10 @@
     </row>
     <row r="529">
       <c r="A529" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="B529" t="s">
-        <v>698</v>
+        <v>721</v>
       </c>
       <c r="C529" t="s">
         <v>5</v>
@@ -9083,10 +9134,10 @@
     </row>
     <row r="530">
       <c r="A530" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="B530" t="s">
-        <v>666</v>
+        <v>723</v>
       </c>
       <c r="C530" t="s">
         <v>5</v>
@@ -9094,10 +9145,10 @@
     </row>
     <row r="531">
       <c r="A531" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B531" t="s">
-        <v>726</v>
+        <v>688</v>
       </c>
       <c r="C531" t="s">
         <v>5</v>
@@ -9105,10 +9156,10 @@
     </row>
     <row r="532">
       <c r="A532" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B532" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="C532" t="s">
         <v>5</v>
@@ -9116,10 +9167,10 @@
     </row>
     <row r="533">
       <c r="A533" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B533" t="s">
-        <v>729</v>
+        <v>690</v>
       </c>
       <c r="C533" t="s">
         <v>5</v>
@@ -9127,10 +9178,10 @@
     </row>
     <row r="534">
       <c r="A534" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B534" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C534" t="s">
         <v>5</v>
@@ -9138,10 +9189,10 @@
     </row>
     <row r="535">
       <c r="A535" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="B535" t="s">
-        <v>726</v>
+        <v>510</v>
       </c>
       <c r="C535" t="s">
         <v>5</v>
@@ -9149,10 +9200,10 @@
     </row>
     <row r="536">
       <c r="A536" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B536" t="s">
-        <v>666</v>
+        <v>601</v>
       </c>
       <c r="C536" t="s">
         <v>5</v>
@@ -9160,10 +9211,10 @@
     </row>
     <row r="537">
       <c r="A537" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B537" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="C537" t="s">
         <v>5</v>
@@ -9171,10 +9222,10 @@
     </row>
     <row r="538">
       <c r="A538" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B538" t="s">
-        <v>729</v>
+        <v>508</v>
       </c>
       <c r="C538" t="s">
         <v>5</v>
@@ -9182,10 +9233,10 @@
     </row>
     <row r="539">
       <c r="A539" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="B539" t="s">
-        <v>720</v>
+        <v>601</v>
       </c>
       <c r="C539" t="s">
         <v>5</v>
@@ -9193,10 +9244,10 @@
     </row>
     <row r="540">
       <c r="A540" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B540" t="s">
-        <v>670</v>
+        <v>679</v>
       </c>
       <c r="C540" t="s">
         <v>5</v>
@@ -9204,10 +9255,10 @@
     </row>
     <row r="541">
       <c r="A541" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="B541" t="s">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="C541" t="s">
         <v>5</v>
@@ -9215,10 +9266,10 @@
     </row>
     <row r="542">
       <c r="A542" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B542" t="s">
-        <v>729</v>
+        <v>738</v>
       </c>
       <c r="C542" t="s">
         <v>5</v>
@@ -9226,10 +9277,10 @@
     </row>
     <row r="543">
       <c r="A543" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="B543" t="s">
-        <v>672</v>
+        <v>726</v>
       </c>
       <c r="C543" t="s">
         <v>5</v>
@@ -9237,10 +9288,10 @@
     </row>
     <row r="544">
       <c r="A544" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B544" t="s">
-        <v>668</v>
+        <v>608</v>
       </c>
       <c r="C544" t="s">
         <v>5</v>
@@ -9248,10 +9299,10 @@
     </row>
     <row r="545">
       <c r="A545" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B545" t="s">
-        <v>729</v>
+        <v>716</v>
       </c>
       <c r="C545" t="s">
         <v>5</v>
@@ -9259,10 +9310,10 @@
     </row>
     <row r="546">
       <c r="A546" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B546" t="s">
-        <v>668</v>
+        <v>684</v>
       </c>
       <c r="C546" t="s">
         <v>5</v>
@@ -9270,10 +9321,10 @@
     </row>
     <row r="547">
       <c r="A547" t="s">
+        <v>743</v>
+      </c>
+      <c r="B547" t="s">
         <v>744</v>
-      </c>
-      <c r="B547" t="s">
-        <v>680</v>
       </c>
       <c r="C547" t="s">
         <v>5</v>
@@ -9284,7 +9335,7 @@
         <v>745</v>
       </c>
       <c r="B548" t="s">
-        <v>698</v>
+        <v>729</v>
       </c>
       <c r="C548" t="s">
         <v>5</v>
@@ -9295,7 +9346,7 @@
         <v>746</v>
       </c>
       <c r="B549" t="s">
-        <v>668</v>
+        <v>747</v>
       </c>
       <c r="C549" t="s">
         <v>5</v>
@@ -9303,10 +9354,10 @@
     </row>
     <row r="550">
       <c r="A550" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B550" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C550" t="s">
         <v>5</v>
@@ -9314,10 +9365,10 @@
     </row>
     <row r="551">
       <c r="A551" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B551" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
       <c r="C551" t="s">
         <v>5</v>
@@ -9328,7 +9379,7 @@
         <v>751</v>
       </c>
       <c r="B552" t="s">
-        <v>664</v>
+        <v>684</v>
       </c>
       <c r="C552" t="s">
         <v>5</v>
@@ -9339,7 +9390,7 @@
         <v>752</v>
       </c>
       <c r="B553" t="s">
-        <v>490</v>
+        <v>738</v>
       </c>
       <c r="C553" t="s">
         <v>5</v>
@@ -9350,7 +9401,7 @@
         <v>753</v>
       </c>
       <c r="B554" t="s">
-        <v>754</v>
+        <v>747</v>
       </c>
       <c r="C554" t="s">
         <v>5</v>
@@ -9358,10 +9409,10 @@
     </row>
     <row r="555">
       <c r="A555" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B555" t="s">
-        <v>664</v>
+        <v>738</v>
       </c>
       <c r="C555" t="s">
         <v>5</v>
@@ -9369,10 +9420,10 @@
     </row>
     <row r="556">
       <c r="A556" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B556" t="s">
-        <v>490</v>
+        <v>688</v>
       </c>
       <c r="C556" t="s">
         <v>5</v>
@@ -9380,10 +9431,10 @@
     </row>
     <row r="557">
       <c r="A557" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B557" t="s">
-        <v>758</v>
+        <v>729</v>
       </c>
       <c r="C557" t="s">
         <v>5</v>
@@ -9391,10 +9442,10 @@
     </row>
     <row r="558">
       <c r="A558" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B558" t="s">
-        <v>760</v>
+        <v>747</v>
       </c>
       <c r="C558" t="s">
         <v>5</v>
@@ -9402,10 +9453,10 @@
     </row>
     <row r="559">
       <c r="A559" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="B559" t="s">
-        <v>590</v>
+        <v>690</v>
       </c>
       <c r="C559" t="s">
         <v>5</v>
@@ -9413,10 +9464,10 @@
     </row>
     <row r="560">
       <c r="A560" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="B560" t="s">
-        <v>490</v>
+        <v>686</v>
       </c>
       <c r="C560" t="s">
         <v>5</v>
@@ -9424,10 +9475,10 @@
     </row>
     <row r="561">
       <c r="A561" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="B561" t="s">
-        <v>581</v>
+        <v>747</v>
       </c>
       <c r="C561" t="s">
         <v>5</v>
@@ -9435,10 +9486,10 @@
     </row>
     <row r="562">
       <c r="A562" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="B562" t="s">
-        <v>594</v>
+        <v>686</v>
       </c>
       <c r="C562" t="s">
         <v>5</v>
@@ -9446,10 +9497,10 @@
     </row>
     <row r="563">
       <c r="A563" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="B563" t="s">
-        <v>459</v>
+        <v>698</v>
       </c>
       <c r="C563" t="s">
         <v>5</v>
@@ -9457,10 +9508,10 @@
     </row>
     <row r="564">
       <c r="A564" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="B564" t="s">
-        <v>520</v>
+        <v>716</v>
       </c>
       <c r="C564" t="s">
         <v>5</v>
@@ -9468,10 +9519,10 @@
     </row>
     <row r="565">
       <c r="A565" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="B565" t="s">
-        <v>459</v>
+        <v>686</v>
       </c>
       <c r="C565" t="s">
         <v>5</v>
@@ -9479,10 +9530,10 @@
     </row>
     <row r="566">
       <c r="A566" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="B566" t="s">
-        <v>457</v>
+        <v>766</v>
       </c>
       <c r="C566" t="s">
         <v>5</v>
@@ -9490,10 +9541,10 @@
     </row>
     <row r="567">
       <c r="A567" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B567" t="s">
-        <v>459</v>
+        <v>768</v>
       </c>
       <c r="C567" t="s">
         <v>5</v>
@@ -9501,10 +9552,10 @@
     </row>
     <row r="568">
       <c r="A568" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="B568" t="s">
-        <v>602</v>
+        <v>682</v>
       </c>
       <c r="C568" t="s">
         <v>5</v>
@@ -9512,10 +9563,10 @@
     </row>
     <row r="569">
       <c r="A569" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B569" t="s">
-        <v>457</v>
+        <v>508</v>
       </c>
       <c r="C569" t="s">
         <v>5</v>
@@ -9523,10 +9574,10 @@
     </row>
     <row r="570">
       <c r="A570" t="s">
+        <v>771</v>
+      </c>
+      <c r="B570" t="s">
         <v>772</v>
-      </c>
-      <c r="B570" t="s">
-        <v>476</v>
       </c>
       <c r="C570" t="s">
         <v>5</v>
@@ -9537,7 +9588,7 @@
         <v>773</v>
       </c>
       <c r="B571" t="s">
-        <v>451</v>
+        <v>682</v>
       </c>
       <c r="C571" t="s">
         <v>5</v>
@@ -9548,7 +9599,7 @@
         <v>774</v>
       </c>
       <c r="B572" t="s">
-        <v>528</v>
+        <v>508</v>
       </c>
       <c r="C572" t="s">
         <v>5</v>
@@ -9559,7 +9610,7 @@
         <v>775</v>
       </c>
       <c r="B573" t="s">
-        <v>511</v>
+        <v>776</v>
       </c>
       <c r="C573" t="s">
         <v>5</v>
@@ -9567,10 +9618,10 @@
     </row>
     <row r="574">
       <c r="A574" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B574" t="s">
-        <v>476</v>
+        <v>778</v>
       </c>
       <c r="C574" t="s">
         <v>5</v>
@@ -9578,10 +9629,10 @@
     </row>
     <row r="575">
       <c r="A575" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="B575" t="s">
-        <v>482</v>
+        <v>608</v>
       </c>
       <c r="C575" t="s">
         <v>5</v>
@@ -9589,10 +9640,10 @@
     </row>
     <row r="576">
       <c r="A576" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="B576" t="s">
-        <v>464</v>
+        <v>508</v>
       </c>
       <c r="C576" t="s">
         <v>5</v>
@@ -9600,10 +9651,10 @@
     </row>
     <row r="577">
       <c r="A577" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="B577" t="s">
-        <v>468</v>
+        <v>599</v>
       </c>
       <c r="C577" t="s">
         <v>5</v>
@@ -9611,10 +9662,10 @@
     </row>
     <row r="578">
       <c r="A578" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="B578" t="s">
-        <v>459</v>
+        <v>612</v>
       </c>
       <c r="C578" t="s">
         <v>5</v>
@@ -9622,10 +9673,10 @@
     </row>
     <row r="579">
       <c r="A579" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="B579" t="s">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="C579" t="s">
         <v>5</v>
@@ -9633,10 +9684,10 @@
     </row>
     <row r="580">
       <c r="A580" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="B580" t="s">
-        <v>594</v>
+        <v>538</v>
       </c>
       <c r="C580" t="s">
         <v>5</v>
@@ -9644,10 +9695,10 @@
     </row>
     <row r="581">
       <c r="A581" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="B581" t="s">
-        <v>599</v>
+        <v>478</v>
       </c>
       <c r="C581" t="s">
         <v>5</v>
@@ -9655,10 +9706,10 @@
     </row>
     <row r="582">
       <c r="A582" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="B582" t="s">
-        <v>785</v>
+        <v>4</v>
       </c>
       <c r="C582" t="s">
         <v>5</v>
@@ -9666,10 +9717,10 @@
     </row>
     <row r="583">
       <c r="A583" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="B583" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
       <c r="C583" t="s">
         <v>5</v>
@@ -9677,10 +9728,10 @@
     </row>
     <row r="584">
       <c r="A584" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B584" t="s">
-        <v>564</v>
+        <v>620</v>
       </c>
       <c r="C584" t="s">
         <v>5</v>
@@ -9688,10 +9739,10 @@
     </row>
     <row r="585">
       <c r="A585" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B585" t="s">
-        <v>599</v>
+        <v>4</v>
       </c>
       <c r="C585" t="s">
         <v>5</v>
@@ -9699,10 +9750,10 @@
     </row>
     <row r="586">
       <c r="A586" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B586" t="s">
-        <v>473</v>
+        <v>494</v>
       </c>
       <c r="C586" t="s">
         <v>5</v>
@@ -9710,10 +9761,10 @@
     </row>
     <row r="587">
       <c r="A587" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B587" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="C587" t="s">
         <v>5</v>
@@ -9721,10 +9772,10 @@
     </row>
     <row r="588">
       <c r="A588" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B588" t="s">
-        <v>592</v>
+        <v>546</v>
       </c>
       <c r="C588" t="s">
         <v>5</v>
@@ -9732,10 +9783,10 @@
     </row>
     <row r="589">
       <c r="A589" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B589" t="s">
-        <v>478</v>
+        <v>529</v>
       </c>
       <c r="C589" t="s">
         <v>5</v>
@@ -9743,10 +9794,10 @@
     </row>
     <row r="590">
       <c r="A590" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B590" t="s">
-        <v>581</v>
+        <v>494</v>
       </c>
       <c r="C590" t="s">
         <v>5</v>
@@ -9754,10 +9805,10 @@
     </row>
     <row r="591">
       <c r="A591" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B591" t="s">
-        <v>760</v>
+        <v>500</v>
       </c>
       <c r="C591" t="s">
         <v>5</v>
@@ -9765,10 +9816,10 @@
     </row>
     <row r="592">
       <c r="A592" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="B592" t="s">
-        <v>494</v>
+        <v>483</v>
       </c>
       <c r="C592" t="s">
         <v>5</v>
@@ -9776,10 +9827,10 @@
     </row>
     <row r="593">
       <c r="A593" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B593" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C593" t="s">
         <v>5</v>
@@ -9787,10 +9838,10 @@
     </row>
     <row r="594">
       <c r="A594" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="B594" t="s">
-        <v>578</v>
+        <v>478</v>
       </c>
       <c r="C594" t="s">
         <v>5</v>
@@ -9798,10 +9849,10 @@
     </row>
     <row r="595">
       <c r="A595" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B595" t="s">
-        <v>578</v>
+        <v>7</v>
       </c>
       <c r="C595" t="s">
         <v>5</v>
@@ -9809,10 +9860,10 @@
     </row>
     <row r="596">
       <c r="A596" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B596" t="s">
-        <v>473</v>
+        <v>612</v>
       </c>
       <c r="C596" t="s">
         <v>5</v>
@@ -9820,10 +9871,10 @@
     </row>
     <row r="597">
       <c r="A597" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B597" t="s">
-        <v>586</v>
+        <v>617</v>
       </c>
       <c r="C597" t="s">
         <v>5</v>
@@ -9831,10 +9882,10 @@
     </row>
     <row r="598">
       <c r="A598" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="B598" t="s">
-        <v>592</v>
+        <v>803</v>
       </c>
       <c r="C598" t="s">
         <v>5</v>
@@ -9842,10 +9893,10 @@
     </row>
     <row r="599">
       <c r="A599" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="B599" t="s">
-        <v>581</v>
+        <v>512</v>
       </c>
       <c r="C599" t="s">
         <v>5</v>
@@ -9853,10 +9904,10 @@
     </row>
     <row r="600">
       <c r="A600" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="B600" t="s">
-        <v>708</v>
+        <v>582</v>
       </c>
       <c r="C600" t="s">
         <v>5</v>
@@ -9864,10 +9915,10 @@
     </row>
     <row r="601">
       <c r="A601" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="B601" t="s">
-        <v>677</v>
+        <v>617</v>
       </c>
       <c r="C601" t="s">
         <v>5</v>
@@ -9875,10 +9926,10 @@
     </row>
     <row r="602">
       <c r="A602" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="B602" t="s">
-        <v>680</v>
+        <v>491</v>
       </c>
       <c r="C602" t="s">
         <v>5</v>
@@ -9886,10 +9937,10 @@
     </row>
     <row r="603">
       <c r="A603" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="B603" t="s">
-        <v>720</v>
+        <v>498</v>
       </c>
       <c r="C603" t="s">
         <v>5</v>
@@ -9897,10 +9948,10 @@
     </row>
     <row r="604">
       <c r="A604" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="B604" t="s">
-        <v>670</v>
+        <v>610</v>
       </c>
       <c r="C604" t="s">
         <v>5</v>
@@ -9908,10 +9959,10 @@
     </row>
     <row r="605">
       <c r="A605" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="B605" t="s">
-        <v>675</v>
+        <v>496</v>
       </c>
       <c r="C605" t="s">
         <v>5</v>
@@ -9919,10 +9970,10 @@
     </row>
     <row r="606">
       <c r="A606" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="B606" t="s">
-        <v>700</v>
+        <v>599</v>
       </c>
       <c r="C606" t="s">
         <v>5</v>
@@ -9930,10 +9981,10 @@
     </row>
     <row r="607">
       <c r="A607" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="B607" t="s">
-        <v>675</v>
+        <v>778</v>
       </c>
       <c r="C607" t="s">
         <v>5</v>
@@ -9941,10 +9992,10 @@
     </row>
     <row r="608">
       <c r="A608" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="B608" t="s">
-        <v>686</v>
+        <v>512</v>
       </c>
       <c r="C608" t="s">
         <v>5</v>
@@ -9952,10 +10003,10 @@
     </row>
     <row r="609">
       <c r="A609" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="B609" t="s">
-        <v>813</v>
+        <v>512</v>
       </c>
       <c r="C609" t="s">
         <v>5</v>
@@ -9963,10 +10014,10 @@
     </row>
     <row r="610">
       <c r="A610" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B610" t="s">
-        <v>682</v>
+        <v>596</v>
       </c>
       <c r="C610" t="s">
         <v>5</v>
@@ -9974,10 +10025,10 @@
     </row>
     <row r="611">
       <c r="A611" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="B611" t="s">
-        <v>726</v>
+        <v>596</v>
       </c>
       <c r="C611" t="s">
         <v>5</v>
@@ -9985,10 +10036,10 @@
     </row>
     <row r="612">
       <c r="A612" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B612" t="s">
-        <v>754</v>
+        <v>491</v>
       </c>
       <c r="C612" t="s">
         <v>5</v>
@@ -9996,10 +10047,10 @@
     </row>
     <row r="613">
       <c r="A613" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B613" t="s">
-        <v>698</v>
+        <v>604</v>
       </c>
       <c r="C613" t="s">
         <v>5</v>
@@ -10007,10 +10058,10 @@
     </row>
     <row r="614">
       <c r="A614" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B614" t="s">
-        <v>688</v>
+        <v>610</v>
       </c>
       <c r="C614" t="s">
         <v>5</v>
@@ -10018,10 +10069,10 @@
     </row>
     <row r="615">
       <c r="A615" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B615" t="s">
-        <v>820</v>
+        <v>599</v>
       </c>
       <c r="C615" t="s">
         <v>5</v>
@@ -10032,7 +10083,7 @@
         <v>821</v>
       </c>
       <c r="B616" t="s">
-        <v>822</v>
+        <v>726</v>
       </c>
       <c r="C616" t="s">
         <v>5</v>
@@ -10040,10 +10091,10 @@
     </row>
     <row r="617">
       <c r="A617" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B617" t="s">
-        <v>824</v>
+        <v>695</v>
       </c>
       <c r="C617" t="s">
         <v>5</v>
@@ -10051,10 +10102,10 @@
     </row>
     <row r="618">
       <c r="A618" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B618" t="s">
-        <v>826</v>
+        <v>698</v>
       </c>
       <c r="C618" t="s">
         <v>5</v>
@@ -10062,10 +10113,10 @@
     </row>
     <row r="619">
       <c r="A619" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="B619" t="s">
-        <v>828</v>
+        <v>738</v>
       </c>
       <c r="C619" t="s">
         <v>5</v>
@@ -10073,10 +10124,10 @@
     </row>
     <row r="620">
       <c r="A620" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="B620" t="s">
-        <v>830</v>
+        <v>688</v>
       </c>
       <c r="C620" t="s">
         <v>5</v>
@@ -10084,10 +10135,10 @@
     </row>
     <row r="621">
       <c r="A621" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="B621" t="s">
-        <v>832</v>
+        <v>693</v>
       </c>
       <c r="C621" t="s">
         <v>5</v>
@@ -10095,10 +10146,10 @@
     </row>
     <row r="622">
       <c r="A622" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
       <c r="B622" t="s">
-        <v>834</v>
+        <v>718</v>
       </c>
       <c r="C622" t="s">
         <v>5</v>
@@ -10106,10 +10157,10 @@
     </row>
     <row r="623">
       <c r="A623" t="s">
-        <v>835</v>
+        <v>828</v>
       </c>
       <c r="B623" t="s">
-        <v>836</v>
+        <v>693</v>
       </c>
       <c r="C623" t="s">
         <v>5</v>
@@ -10117,10 +10168,10 @@
     </row>
     <row r="624">
       <c r="A624" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
       <c r="B624" t="s">
-        <v>677</v>
+        <v>704</v>
       </c>
       <c r="C624" t="s">
         <v>5</v>
@@ -10128,10 +10179,10 @@
     </row>
     <row r="625">
       <c r="A625" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
       <c r="B625" t="s">
-        <v>680</v>
+        <v>831</v>
       </c>
       <c r="C625" t="s">
         <v>5</v>
@@ -10139,10 +10190,10 @@
     </row>
     <row r="626">
       <c r="A626" t="s">
-        <v>839</v>
+        <v>832</v>
       </c>
       <c r="B626" t="s">
-        <v>670</v>
+        <v>700</v>
       </c>
       <c r="C626" t="s">
         <v>5</v>
@@ -10150,10 +10201,10 @@
     </row>
     <row r="627">
       <c r="A627" t="s">
-        <v>840</v>
+        <v>833</v>
       </c>
       <c r="B627" t="s">
-        <v>703</v>
+        <v>744</v>
       </c>
       <c r="C627" t="s">
         <v>5</v>
@@ -10161,10 +10212,10 @@
     </row>
     <row r="628">
       <c r="A628" t="s">
-        <v>841</v>
+        <v>834</v>
       </c>
       <c r="B628" t="s">
-        <v>695</v>
+        <v>772</v>
       </c>
       <c r="C628" t="s">
         <v>5</v>
@@ -10172,10 +10223,10 @@
     </row>
     <row r="629">
       <c r="A629" t="s">
-        <v>842</v>
+        <v>835</v>
       </c>
       <c r="B629" t="s">
-        <v>661</v>
+        <v>716</v>
       </c>
       <c r="C629" t="s">
         <v>5</v>
@@ -10183,10 +10234,10 @@
     </row>
     <row r="630">
       <c r="A630" t="s">
-        <v>843</v>
+        <v>836</v>
       </c>
       <c r="B630" t="s">
-        <v>586</v>
+        <v>706</v>
       </c>
       <c r="C630" t="s">
         <v>5</v>
@@ -10194,10 +10245,10 @@
     </row>
     <row r="631">
       <c r="A631" t="s">
-        <v>844</v>
+        <v>837</v>
       </c>
       <c r="B631" t="s">
-        <v>845</v>
+        <v>838</v>
       </c>
       <c r="C631" t="s">
         <v>5</v>
@@ -10205,10 +10256,10 @@
     </row>
     <row r="632">
       <c r="A632" t="s">
-        <v>846</v>
+        <v>839</v>
       </c>
       <c r="B632" t="s">
-        <v>700</v>
+        <v>840</v>
       </c>
       <c r="C632" t="s">
         <v>5</v>
@@ -10216,10 +10267,10 @@
     </row>
     <row r="633">
       <c r="A633" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
       <c r="B633" t="s">
-        <v>682</v>
+        <v>842</v>
       </c>
       <c r="C633" t="s">
         <v>5</v>
@@ -10227,10 +10278,10 @@
     </row>
     <row r="634">
       <c r="A634" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="B634" t="s">
-        <v>675</v>
+        <v>844</v>
       </c>
       <c r="C634" t="s">
         <v>5</v>
@@ -10238,10 +10289,10 @@
     </row>
     <row r="635">
       <c r="A635" t="s">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="B635" t="s">
-        <v>850</v>
+        <v>846</v>
       </c>
       <c r="C635" t="s">
         <v>5</v>
@@ -10249,10 +10300,10 @@
     </row>
     <row r="636">
       <c r="A636" t="s">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="B636" t="s">
-        <v>703</v>
+        <v>848</v>
       </c>
       <c r="C636" t="s">
         <v>5</v>
@@ -10260,10 +10311,10 @@
     </row>
     <row r="637">
       <c r="A637" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="B637" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="C637" t="s">
         <v>5</v>
@@ -10271,10 +10322,10 @@
     </row>
     <row r="638">
       <c r="A638" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="B638" t="s">
-        <v>695</v>
+        <v>852</v>
       </c>
       <c r="C638" t="s">
         <v>5</v>
@@ -10282,10 +10333,10 @@
     </row>
     <row r="639">
       <c r="A639" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B639" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="C639" t="s">
         <v>5</v>
@@ -10293,10 +10344,10 @@
     </row>
     <row r="640">
       <c r="A640" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B640" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C640" t="s">
         <v>5</v>
@@ -10304,10 +10355,10 @@
     </row>
     <row r="641">
       <c r="A641" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B641" t="s">
-        <v>586</v>
+        <v>698</v>
       </c>
       <c r="C641" t="s">
         <v>5</v>
@@ -10315,10 +10366,10 @@
     </row>
     <row r="642">
       <c r="A642" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B642" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="C642" t="s">
         <v>5</v>
@@ -10326,10 +10377,10 @@
     </row>
     <row r="643">
       <c r="A643" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="B643" t="s">
-        <v>711</v>
+        <v>721</v>
       </c>
       <c r="C643" t="s">
         <v>5</v>
@@ -10337,10 +10388,10 @@
     </row>
     <row r="644">
       <c r="A644" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B644" t="s">
-        <v>862</v>
+        <v>713</v>
       </c>
       <c r="C644" t="s">
         <v>5</v>
@@ -10348,10 +10399,10 @@
     </row>
     <row r="645">
       <c r="A645" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="B645" t="s">
-        <v>581</v>
+        <v>679</v>
       </c>
       <c r="C645" t="s">
         <v>5</v>
@@ -10359,10 +10410,10 @@
     </row>
     <row r="646">
       <c r="A646" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="B646" t="s">
-        <v>760</v>
+        <v>604</v>
       </c>
       <c r="C646" t="s">
         <v>5</v>
@@ -10370,10 +10421,10 @@
     </row>
     <row r="647">
       <c r="A647" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="B647" t="s">
-        <v>592</v>
+        <v>863</v>
       </c>
       <c r="C647" t="s">
         <v>5</v>
@@ -10381,10 +10432,10 @@
     </row>
     <row r="648">
       <c r="A648" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B648" t="s">
-        <v>564</v>
+        <v>718</v>
       </c>
       <c r="C648" t="s">
         <v>5</v>
@@ -10392,10 +10443,10 @@
     </row>
     <row r="649">
       <c r="A649" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B649" t="s">
-        <v>564</v>
+        <v>700</v>
       </c>
       <c r="C649" t="s">
         <v>5</v>
@@ -10403,10 +10454,10 @@
     </row>
     <row r="650">
       <c r="A650" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B650" t="s">
-        <v>581</v>
+        <v>693</v>
       </c>
       <c r="C650" t="s">
         <v>5</v>
@@ -10414,10 +10465,10 @@
     </row>
     <row r="651">
       <c r="A651" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B651" t="s">
-        <v>490</v>
+        <v>868</v>
       </c>
       <c r="C651" t="s">
         <v>5</v>
@@ -10425,10 +10476,10 @@
     </row>
     <row r="652">
       <c r="A652" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B652" t="s">
-        <v>494</v>
+        <v>721</v>
       </c>
       <c r="C652" t="s">
         <v>5</v>
@@ -10436,10 +10487,10 @@
     </row>
     <row r="653">
       <c r="A653" t="s">
+        <v>870</v>
+      </c>
+      <c r="B653" t="s">
         <v>871</v>
-      </c>
-      <c r="B653" t="s">
-        <v>862</v>
       </c>
       <c r="C653" t="s">
         <v>5</v>
@@ -10450,7 +10501,7 @@
         <v>872</v>
       </c>
       <c r="B654" t="s">
-        <v>760</v>
+        <v>713</v>
       </c>
       <c r="C654" t="s">
         <v>5</v>
@@ -10461,7 +10512,7 @@
         <v>873</v>
       </c>
       <c r="B655" t="s">
-        <v>588</v>
+        <v>874</v>
       </c>
       <c r="C655" t="s">
         <v>5</v>
@@ -10469,10 +10520,10 @@
     </row>
     <row r="656">
       <c r="A656" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B656" t="s">
-        <v>581</v>
+        <v>718</v>
       </c>
       <c r="C656" t="s">
         <v>5</v>
@@ -10480,10 +10531,10 @@
     </row>
     <row r="657">
       <c r="A657" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B657" t="s">
-        <v>494</v>
+        <v>604</v>
       </c>
       <c r="C657" t="s">
         <v>5</v>
@@ -10491,10 +10542,10 @@
     </row>
     <row r="658">
       <c r="A658" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B658" t="s">
-        <v>592</v>
+        <v>682</v>
       </c>
       <c r="C658" t="s">
         <v>5</v>
@@ -10502,10 +10553,10 @@
     </row>
     <row r="659">
       <c r="A659" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B659" t="s">
-        <v>473</v>
+        <v>729</v>
       </c>
       <c r="C659" t="s">
         <v>5</v>
@@ -10513,10 +10564,10 @@
     </row>
     <row r="660">
       <c r="A660" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B660" t="s">
-        <v>457</v>
+        <v>880</v>
       </c>
       <c r="C660" t="s">
         <v>5</v>
@@ -10524,10 +10575,10 @@
     </row>
     <row r="661">
       <c r="A661" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="B661" t="s">
-        <v>473</v>
+        <v>599</v>
       </c>
       <c r="C661" t="s">
         <v>5</v>
@@ -10535,10 +10586,10 @@
     </row>
     <row r="662">
       <c r="A662" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="B662" t="s">
-        <v>785</v>
+        <v>778</v>
       </c>
       <c r="C662" t="s">
         <v>5</v>
@@ -10546,10 +10597,10 @@
     </row>
     <row r="663">
       <c r="A663" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="B663" t="s">
-        <v>494</v>
+        <v>610</v>
       </c>
       <c r="C663" t="s">
         <v>5</v>
@@ -10557,10 +10608,10 @@
     </row>
     <row r="664">
       <c r="A664" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="B664" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="C664" t="s">
         <v>5</v>
@@ -10568,10 +10619,10 @@
     </row>
     <row r="665">
       <c r="A665" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="B665" t="s">
-        <v>478</v>
+        <v>582</v>
       </c>
       <c r="C665" t="s">
         <v>5</v>
@@ -10579,10 +10630,10 @@
     </row>
     <row r="666">
       <c r="A666" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="B666" t="s">
-        <v>586</v>
+        <v>599</v>
       </c>
       <c r="C666" t="s">
         <v>5</v>
@@ -10590,10 +10641,10 @@
     </row>
     <row r="667">
       <c r="A667" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="B667" t="s">
-        <v>785</v>
+        <v>508</v>
       </c>
       <c r="C667" t="s">
         <v>5</v>
@@ -10601,10 +10652,10 @@
     </row>
     <row r="668">
       <c r="A668" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="B668" t="s">
-        <v>845</v>
+        <v>512</v>
       </c>
       <c r="C668" t="s">
         <v>5</v>
@@ -10612,10 +10663,10 @@
     </row>
     <row r="669">
       <c r="A669" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="B669" t="s">
-        <v>564</v>
+        <v>880</v>
       </c>
       <c r="C669" t="s">
         <v>5</v>
@@ -10623,10 +10674,10 @@
     </row>
     <row r="670">
       <c r="A670" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="B670" t="s">
-        <v>748</v>
+        <v>778</v>
       </c>
       <c r="C670" t="s">
         <v>5</v>
@@ -10634,10 +10685,10 @@
     </row>
     <row r="671">
       <c r="A671" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
       <c r="B671" t="s">
-        <v>750</v>
+        <v>606</v>
       </c>
       <c r="C671" t="s">
         <v>5</v>
@@ -10645,10 +10696,10 @@
     </row>
     <row r="672">
       <c r="A672" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="B672" t="s">
-        <v>490</v>
+        <v>599</v>
       </c>
       <c r="C672" t="s">
         <v>5</v>
@@ -10656,10 +10707,10 @@
     </row>
     <row r="673">
       <c r="A673" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="B673" t="s">
-        <v>592</v>
+        <v>512</v>
       </c>
       <c r="C673" t="s">
         <v>5</v>
@@ -10667,10 +10718,10 @@
     </row>
     <row r="674">
       <c r="A674" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="B674" t="s">
-        <v>785</v>
+        <v>610</v>
       </c>
       <c r="C674" t="s">
         <v>5</v>
@@ -10678,10 +10729,10 @@
     </row>
     <row r="675">
       <c r="A675" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="B675" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C675" t="s">
         <v>5</v>
@@ -10689,10 +10740,10 @@
     </row>
     <row r="676">
       <c r="A676" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
       <c r="B676" t="s">
-        <v>586</v>
+        <v>4</v>
       </c>
       <c r="C676" t="s">
         <v>5</v>
@@ -10700,10 +10751,10 @@
     </row>
     <row r="677">
       <c r="A677" t="s">
-        <v>895</v>
+        <v>897</v>
       </c>
       <c r="B677" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C677" t="s">
         <v>5</v>
@@ -10711,10 +10762,10 @@
     </row>
     <row r="678">
       <c r="A678" t="s">
-        <v>896</v>
+        <v>898</v>
       </c>
       <c r="B678" t="s">
-        <v>661</v>
+        <v>803</v>
       </c>
       <c r="C678" t="s">
         <v>5</v>
@@ -10722,10 +10773,10 @@
     </row>
     <row r="679">
       <c r="A679" t="s">
-        <v>897</v>
+        <v>899</v>
       </c>
       <c r="B679" t="s">
-        <v>729</v>
+        <v>512</v>
       </c>
       <c r="C679" t="s">
         <v>5</v>
@@ -10733,10 +10784,10 @@
     </row>
     <row r="680">
       <c r="A680" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="B680" t="s">
-        <v>711</v>
+        <v>606</v>
       </c>
       <c r="C680" t="s">
         <v>5</v>
@@ -10744,10 +10795,10 @@
     </row>
     <row r="681">
       <c r="A681" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="B681" t="s">
-        <v>856</v>
+        <v>496</v>
       </c>
       <c r="C681" t="s">
         <v>5</v>
@@ -10755,10 +10806,10 @@
     </row>
     <row r="682">
       <c r="A682" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="B682" t="s">
-        <v>754</v>
+        <v>604</v>
       </c>
       <c r="C682" t="s">
         <v>5</v>
@@ -10766,10 +10817,10 @@
     </row>
     <row r="683">
       <c r="A683" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="B683" t="s">
-        <v>698</v>
+        <v>803</v>
       </c>
       <c r="C683" t="s">
         <v>5</v>
@@ -10777,10 +10828,10 @@
     </row>
     <row r="684">
       <c r="A684" t="s">
-        <v>902</v>
+        <v>904</v>
       </c>
       <c r="B684" t="s">
-        <v>903</v>
+        <v>863</v>
       </c>
       <c r="C684" t="s">
         <v>5</v>
@@ -10788,10 +10839,10 @@
     </row>
     <row r="685">
       <c r="A685" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="B685" t="s">
-        <v>905</v>
+        <v>582</v>
       </c>
       <c r="C685" t="s">
         <v>5</v>
@@ -10802,7 +10853,7 @@
         <v>906</v>
       </c>
       <c r="B686" t="s">
-        <v>907</v>
+        <v>766</v>
       </c>
       <c r="C686" t="s">
         <v>5</v>
@@ -10810,10 +10861,10 @@
     </row>
     <row r="687">
       <c r="A687" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="B687" t="s">
-        <v>909</v>
+        <v>768</v>
       </c>
       <c r="C687" t="s">
         <v>5</v>
@@ -10821,10 +10872,10 @@
     </row>
     <row r="688">
       <c r="A688" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="B688" t="s">
-        <v>911</v>
+        <v>508</v>
       </c>
       <c r="C688" t="s">
         <v>5</v>
@@ -10832,10 +10883,10 @@
     </row>
     <row r="689">
       <c r="A689" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="B689" t="s">
-        <v>913</v>
+        <v>610</v>
       </c>
       <c r="C689" t="s">
         <v>5</v>
@@ -10843,10 +10894,10 @@
     </row>
     <row r="690">
       <c r="A690" t="s">
-        <v>914</v>
+        <v>910</v>
       </c>
       <c r="B690" t="s">
-        <v>915</v>
+        <v>803</v>
       </c>
       <c r="C690" t="s">
         <v>5</v>
@@ -10854,10 +10905,10 @@
     </row>
     <row r="691">
       <c r="A691" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="B691" t="s">
-        <v>911</v>
+        <v>512</v>
       </c>
       <c r="C691" t="s">
         <v>5</v>
@@ -10865,10 +10916,10 @@
     </row>
     <row r="692">
       <c r="A692" t="s">
-        <v>917</v>
+        <v>912</v>
       </c>
       <c r="B692" t="s">
-        <v>918</v>
+        <v>604</v>
       </c>
       <c r="C692" t="s">
         <v>5</v>
@@ -10876,10 +10927,10 @@
     </row>
     <row r="693">
       <c r="A693" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="B693" t="s">
-        <v>920</v>
+        <v>510</v>
       </c>
       <c r="C693" t="s">
         <v>5</v>
@@ -10887,10 +10938,10 @@
     </row>
     <row r="694">
       <c r="A694" t="s">
-        <v>921</v>
+        <v>914</v>
       </c>
       <c r="B694" t="s">
-        <v>922</v>
+        <v>679</v>
       </c>
       <c r="C694" t="s">
         <v>5</v>
@@ -10898,10 +10949,10 @@
     </row>
     <row r="695">
       <c r="A695" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
       <c r="B695" t="s">
-        <v>856</v>
+        <v>747</v>
       </c>
       <c r="C695" t="s">
         <v>5</v>
@@ -10909,10 +10960,10 @@
     </row>
     <row r="696">
       <c r="A696" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
       <c r="B696" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="C696" t="s">
         <v>5</v>
@@ -10920,10 +10971,10 @@
     </row>
     <row r="697">
       <c r="A697" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
       <c r="B697" t="s">
-        <v>680</v>
+        <v>874</v>
       </c>
       <c r="C697" t="s">
         <v>5</v>
@@ -10931,10 +10982,10 @@
     </row>
     <row r="698">
       <c r="A698" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
       <c r="B698" t="s">
-        <v>680</v>
+        <v>772</v>
       </c>
       <c r="C698" t="s">
         <v>5</v>
@@ -10942,10 +10993,10 @@
     </row>
     <row r="699">
       <c r="A699" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
       <c r="B699" t="s">
-        <v>668</v>
+        <v>716</v>
       </c>
       <c r="C699" t="s">
         <v>5</v>
@@ -10953,10 +11004,10 @@
     </row>
     <row r="700">
       <c r="A700" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
       <c r="B700" t="s">
-        <v>703</v>
+        <v>921</v>
       </c>
       <c r="C700" t="s">
         <v>5</v>
@@ -10964,10 +11015,10 @@
     </row>
     <row r="701">
       <c r="A701" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="B701" t="s">
-        <v>672</v>
+        <v>923</v>
       </c>
       <c r="C701" t="s">
         <v>5</v>
@@ -10975,10 +11026,10 @@
     </row>
     <row r="702">
       <c r="A702" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="B702" t="s">
-        <v>754</v>
+        <v>925</v>
       </c>
       <c r="C702" t="s">
         <v>5</v>
@@ -10986,10 +11037,10 @@
     </row>
     <row r="703">
       <c r="A703" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="B703" t="s">
-        <v>750</v>
+        <v>927</v>
       </c>
       <c r="C703" t="s">
         <v>5</v>
@@ -10997,10 +11048,10 @@
     </row>
     <row r="704">
       <c r="A704" t="s">
-        <v>932</v>
+        <v>928</v>
       </c>
       <c r="B704" t="s">
-        <v>670</v>
+        <v>929</v>
       </c>
       <c r="C704" t="s">
         <v>5</v>
@@ -11008,10 +11059,10 @@
     </row>
     <row r="705">
       <c r="A705" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="B705" t="s">
-        <v>705</v>
+        <v>931</v>
       </c>
       <c r="C705" t="s">
         <v>5</v>
@@ -11019,10 +11070,10 @@
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="B706" t="s">
-        <v>670</v>
+        <v>933</v>
       </c>
       <c r="C706" t="s">
         <v>5</v>
@@ -11030,10 +11081,10 @@
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="B707" t="s">
-        <v>856</v>
+        <v>929</v>
       </c>
       <c r="C707" t="s">
         <v>5</v>
@@ -11041,10 +11092,10 @@
     </row>
     <row r="708">
       <c r="A708" t="s">
+        <v>935</v>
+      </c>
+      <c r="B708" t="s">
         <v>936</v>
-      </c>
-      <c r="B708" t="s">
-        <v>695</v>
       </c>
       <c r="C708" t="s">
         <v>5</v>
@@ -11055,7 +11106,7 @@
         <v>937</v>
       </c>
       <c r="B709" t="s">
-        <v>922</v>
+        <v>938</v>
       </c>
       <c r="C709" t="s">
         <v>5</v>
@@ -11063,10 +11114,10 @@
     </row>
     <row r="710">
       <c r="A710" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="B710" t="s">
-        <v>922</v>
+        <v>940</v>
       </c>
       <c r="C710" t="s">
         <v>5</v>
@@ -11074,10 +11125,10 @@
     </row>
     <row r="711">
       <c r="A711" t="s">
-        <v>939</v>
+        <v>941</v>
       </c>
       <c r="B711" t="s">
-        <v>688</v>
+        <v>874</v>
       </c>
       <c r="C711" t="s">
         <v>5</v>
@@ -11085,10 +11136,10 @@
     </row>
     <row r="712">
       <c r="A712" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B712" t="s">
-        <v>824</v>
+        <v>744</v>
       </c>
       <c r="C712" t="s">
         <v>5</v>
@@ -11096,10 +11147,10 @@
     </row>
     <row r="713">
       <c r="A713" t="s">
-        <v>941</v>
+        <v>943</v>
       </c>
       <c r="B713" t="s">
-        <v>903</v>
+        <v>698</v>
       </c>
       <c r="C713" t="s">
         <v>5</v>
@@ -11107,10 +11158,10 @@
     </row>
     <row r="714">
       <c r="A714" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="B714" t="s">
-        <v>943</v>
+        <v>698</v>
       </c>
       <c r="C714" t="s">
         <v>5</v>
@@ -11118,10 +11169,10 @@
     </row>
     <row r="715">
       <c r="A715" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="B715" t="s">
-        <v>922</v>
+        <v>686</v>
       </c>
       <c r="C715" t="s">
         <v>5</v>
@@ -11129,10 +11180,10 @@
     </row>
     <row r="716">
       <c r="A716" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B716" t="s">
-        <v>672</v>
+        <v>721</v>
       </c>
       <c r="C716" t="s">
         <v>5</v>
@@ -11140,10 +11191,10 @@
     </row>
     <row r="717">
       <c r="A717" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B717" t="s">
-        <v>670</v>
+        <v>690</v>
       </c>
       <c r="C717" t="s">
         <v>5</v>
@@ -11151,10 +11202,10 @@
     </row>
     <row r="718">
       <c r="A718" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="B718" t="s">
-        <v>754</v>
+        <v>772</v>
       </c>
       <c r="C718" t="s">
         <v>5</v>
@@ -11162,10 +11213,10 @@
     </row>
     <row r="719">
       <c r="A719" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="B719" t="s">
-        <v>785</v>
+        <v>768</v>
       </c>
       <c r="C719" t="s">
         <v>5</v>
@@ -11173,10 +11224,10 @@
     </row>
     <row r="720">
       <c r="A720" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B720" t="s">
-        <v>862</v>
+        <v>688</v>
       </c>
       <c r="C720" t="s">
         <v>5</v>
@@ -11184,10 +11235,10 @@
     </row>
     <row r="721">
       <c r="A721" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B721" t="s">
-        <v>473</v>
+        <v>723</v>
       </c>
       <c r="C721" t="s">
         <v>5</v>
@@ -11195,10 +11246,10 @@
     </row>
     <row r="722">
       <c r="A722" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B722" t="s">
-        <v>564</v>
+        <v>688</v>
       </c>
       <c r="C722" t="s">
         <v>5</v>
@@ -11206,10 +11257,10 @@
     </row>
     <row r="723">
       <c r="A723" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B723" t="s">
-        <v>581</v>
+        <v>874</v>
       </c>
       <c r="C723" t="s">
         <v>5</v>
@@ -11217,10 +11268,10 @@
     </row>
     <row r="724">
       <c r="A724" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="B724" t="s">
-        <v>482</v>
+        <v>713</v>
       </c>
       <c r="C724" t="s">
         <v>5</v>
@@ -11228,10 +11279,10 @@
     </row>
     <row r="725">
       <c r="A725" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="B725" t="s">
-        <v>602</v>
+        <v>940</v>
       </c>
       <c r="C725" t="s">
         <v>5</v>
@@ -11239,10 +11290,10 @@
     </row>
     <row r="726">
       <c r="A726" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B726" t="s">
-        <v>511</v>
+        <v>940</v>
       </c>
       <c r="C726" t="s">
         <v>5</v>
@@ -11250,10 +11301,10 @@
     </row>
     <row r="727">
       <c r="A727" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="B727" t="s">
-        <v>424</v>
+        <v>706</v>
       </c>
       <c r="C727" t="s">
         <v>5</v>
@@ -11261,10 +11312,10 @@
     </row>
     <row r="728">
       <c r="A728" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="B728" t="s">
-        <v>432</v>
+        <v>842</v>
       </c>
       <c r="C728" t="s">
         <v>5</v>
@@ -11272,10 +11323,10 @@
     </row>
     <row r="729">
       <c r="A729" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="B729" t="s">
-        <v>427</v>
+        <v>921</v>
       </c>
       <c r="C729" t="s">
         <v>5</v>
@@ -11283,10 +11334,10 @@
     </row>
     <row r="730">
       <c r="A730" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B730" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C730" t="s">
         <v>5</v>
@@ -11294,10 +11345,10 @@
     </row>
     <row r="731">
       <c r="A731" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="B731" t="s">
-        <v>96</v>
+        <v>940</v>
       </c>
       <c r="C731" t="s">
         <v>5</v>
@@ -11305,10 +11356,10 @@
     </row>
     <row r="732">
       <c r="A732" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="B732" t="s">
-        <v>507</v>
+        <v>690</v>
       </c>
       <c r="C732" t="s">
         <v>5</v>
@@ -11316,10 +11367,10 @@
     </row>
     <row r="733">
       <c r="A733" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B733" t="s">
-        <v>964</v>
+        <v>688</v>
       </c>
       <c r="C733" t="s">
         <v>5</v>
@@ -11330,7 +11381,7 @@
         <v>965</v>
       </c>
       <c r="B734" t="s">
-        <v>966</v>
+        <v>772</v>
       </c>
       <c r="C734" t="s">
         <v>5</v>
@@ -11338,10 +11389,10 @@
     </row>
     <row r="735">
       <c r="A735" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="B735" t="s">
-        <v>966</v>
+        <v>803</v>
       </c>
       <c r="C735" t="s">
         <v>5</v>
@@ -11349,10 +11400,10 @@
     </row>
     <row r="736">
       <c r="A736" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B736" t="s">
-        <v>969</v>
+        <v>880</v>
       </c>
       <c r="C736" t="s">
         <v>5</v>
@@ -11360,10 +11411,10 @@
     </row>
     <row r="737">
       <c r="A737" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="B737" t="s">
-        <v>966</v>
+        <v>491</v>
       </c>
       <c r="C737" t="s">
         <v>5</v>
@@ -11371,10 +11422,10 @@
     </row>
     <row r="738">
       <c r="A738" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B738" t="s">
-        <v>85</v>
+        <v>582</v>
       </c>
       <c r="C738" t="s">
         <v>5</v>
@@ -11382,12 +11433,188 @@
     </row>
     <row r="739">
       <c r="A739" t="s">
+        <v>970</v>
+      </c>
+      <c r="B739" t="s">
+        <v>599</v>
+      </c>
+      <c r="C739" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" t="s">
+        <v>971</v>
+      </c>
+      <c r="B740" t="s">
+        <v>500</v>
+      </c>
+      <c r="C740" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" t="s">
         <v>972</v>
       </c>
-      <c r="B739" t="s">
-        <v>85</v>
-      </c>
-      <c r="C739" t="s">
+      <c r="B741" t="s">
+        <v>620</v>
+      </c>
+      <c r="C741" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" t="s">
+        <v>973</v>
+      </c>
+      <c r="B742" t="s">
+        <v>529</v>
+      </c>
+      <c r="C742" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" t="s">
+        <v>974</v>
+      </c>
+      <c r="B743" t="s">
+        <v>444</v>
+      </c>
+      <c r="C743" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" t="s">
+        <v>975</v>
+      </c>
+      <c r="B744" t="s">
+        <v>452</v>
+      </c>
+      <c r="C744" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" t="s">
+        <v>976</v>
+      </c>
+      <c r="B745" t="s">
+        <v>447</v>
+      </c>
+      <c r="C745" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" t="s">
+        <v>977</v>
+      </c>
+      <c r="B746" t="s">
+        <v>978</v>
+      </c>
+      <c r="C746" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" t="s">
+        <v>979</v>
+      </c>
+      <c r="B747" t="s">
+        <v>117</v>
+      </c>
+      <c r="C747" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" t="s">
+        <v>980</v>
+      </c>
+      <c r="B748" t="s">
+        <v>525</v>
+      </c>
+      <c r="C748" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" t="s">
+        <v>981</v>
+      </c>
+      <c r="B749" t="s">
+        <v>982</v>
+      </c>
+      <c r="C749" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" t="s">
+        <v>983</v>
+      </c>
+      <c r="B750" t="s">
+        <v>984</v>
+      </c>
+      <c r="C750" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" t="s">
+        <v>985</v>
+      </c>
+      <c r="B751" t="s">
+        <v>984</v>
+      </c>
+      <c r="C751" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" t="s">
+        <v>986</v>
+      </c>
+      <c r="B752" t="s">
+        <v>9</v>
+      </c>
+      <c r="C752" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" t="s">
+        <v>987</v>
+      </c>
+      <c r="B753" t="s">
+        <v>984</v>
+      </c>
+      <c r="C753" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" t="s">
+        <v>988</v>
+      </c>
+      <c r="B754" t="s">
+        <v>106</v>
+      </c>
+      <c r="C754" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" t="s">
+        <v>989</v>
+      </c>
+      <c r="B755" t="s">
+        <v>106</v>
+      </c>
+      <c r="C755" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/GreatLink/GreatLink International Health Care Fund.xlsx
+++ b/data/GreatLink/GreatLink International Health Care Fund.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="PriceHistory" sheetId="1" r:id="GemRid70121"/>
+    <sheet name="PriceHistory" sheetId="1" r:id="GemRid927219"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="1006">
   <si>
     <t>Price Date</t>
   </si>
@@ -26,15 +26,105 @@
     <t>Currency - Unit Level</t>
   </si>
   <si>
+    <t>30/04/2025</t>
+  </si>
+  <si>
+    <t>0.925</t>
+  </si>
+  <si>
+    <t>SGD</t>
+  </si>
+  <si>
+    <t>29/04/2025</t>
+  </si>
+  <si>
+    <t>0.918</t>
+  </si>
+  <si>
+    <t>28/04/2025</t>
+  </si>
+  <si>
+    <t>0.917</t>
+  </si>
+  <si>
+    <t>25/04/2025</t>
+  </si>
+  <si>
+    <t>0.915</t>
+  </si>
+  <si>
+    <t>24/04/2025</t>
+  </si>
+  <si>
+    <t>0.911</t>
+  </si>
+  <si>
+    <t>23/04/2025</t>
+  </si>
+  <si>
+    <t>0.900</t>
+  </si>
+  <si>
+    <t>22/04/2025</t>
+  </si>
+  <si>
+    <t>0.894</t>
+  </si>
+  <si>
+    <t>21/04/2025</t>
+  </si>
+  <si>
+    <t>0.891</t>
+  </si>
+  <si>
+    <t>17/04/2025</t>
+  </si>
+  <si>
+    <t>0.897</t>
+  </si>
+  <si>
+    <t>16/04/2025</t>
+  </si>
+  <si>
+    <t>0.901</t>
+  </si>
+  <si>
+    <t>15/04/2025</t>
+  </si>
+  <si>
+    <t>0.913</t>
+  </si>
+  <si>
+    <t>14/04/2025</t>
+  </si>
+  <si>
+    <t>11/04/2025</t>
+  </si>
+  <si>
+    <t>0.909</t>
+  </si>
+  <si>
+    <t>10/04/2025</t>
+  </si>
+  <si>
+    <t>0.899</t>
+  </si>
+  <si>
+    <t>09/04/2025</t>
+  </si>
+  <si>
+    <t>0.929</t>
+  </si>
+  <si>
+    <t>08/04/2025</t>
+  </si>
+  <si>
     <t>07/04/2025</t>
   </si>
   <si>
     <t>0.902</t>
   </si>
   <si>
-    <t>SGD</t>
-  </si>
-  <si>
     <t>04/04/2025</t>
   </si>
   <si>
@@ -1364,9 +1454,6 @@
     <t>20/12/2023</t>
   </si>
   <si>
-    <t>0.925</t>
-  </si>
-  <si>
     <t>19/12/2023</t>
   </si>
   <si>
@@ -1379,9 +1466,6 @@
     <t>15/12/2023</t>
   </si>
   <si>
-    <t>0.929</t>
-  </si>
-  <si>
     <t>14/12/2023</t>
   </si>
   <si>
@@ -1412,9 +1496,6 @@
     <t>07/12/2023</t>
   </si>
   <si>
-    <t>0.918</t>
-  </si>
-  <si>
     <t>06/12/2023</t>
   </si>
   <si>
@@ -1430,9 +1511,6 @@
     <t>01/12/2023</t>
   </si>
   <si>
-    <t>0.917</t>
-  </si>
-  <si>
     <t>30/11/2023</t>
   </si>
   <si>
@@ -1451,33 +1529,21 @@
     <t>27/11/2023</t>
   </si>
   <si>
-    <t>0.911</t>
-  </si>
-  <si>
     <t>24/11/2023</t>
   </si>
   <si>
     <t>23/11/2023</t>
   </si>
   <si>
-    <t>0.913</t>
-  </si>
-  <si>
     <t>22/11/2023</t>
   </si>
   <si>
-    <t>0.915</t>
-  </si>
-  <si>
     <t>21/11/2023</t>
   </si>
   <si>
     <t>20/11/2023</t>
   </si>
   <si>
-    <t>0.909</t>
-  </si>
-  <si>
     <t>17/11/2023</t>
   </si>
   <si>
@@ -1490,9 +1556,6 @@
     <t>15/11/2023</t>
   </si>
   <si>
-    <t>0.901</t>
-  </si>
-  <si>
     <t>14/11/2023</t>
   </si>
   <si>
@@ -1505,9 +1568,6 @@
     <t>09/11/2023</t>
   </si>
   <si>
-    <t>0.897</t>
-  </si>
-  <si>
     <t>08/11/2023</t>
   </si>
   <si>
@@ -1763,9 +1823,6 @@
     <t>04/08/2023</t>
   </si>
   <si>
-    <t>0.894</t>
-  </si>
-  <si>
     <t>03/08/2023</t>
   </si>
   <si>
@@ -1805,18 +1862,12 @@
     <t>18/07/2023</t>
   </si>
   <si>
-    <t>0.899</t>
-  </si>
-  <si>
     <t>17/07/2023</t>
   </si>
   <si>
     <t>14/07/2023</t>
   </si>
   <si>
-    <t>0.891</t>
-  </si>
-  <si>
     <t>13/07/2023</t>
   </si>
   <si>
@@ -1851,9 +1902,6 @@
   </si>
   <si>
     <t>05/07/2023</t>
-  </si>
-  <si>
-    <t>0.900</t>
   </si>
   <si>
     <t>04/07/2023</t>
@@ -3373,7 +3421,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -3381,10 +3429,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -3392,10 +3440,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
         <v>5</v>
@@ -3403,10 +3451,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -3414,10 +3462,10 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
         <v>5</v>
@@ -3425,10 +3473,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -3436,10 +3484,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -3447,10 +3495,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -3458,10 +3506,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
         <v>5</v>
@@ -3469,10 +3517,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
         <v>5</v>
@@ -3480,10 +3528,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -3491,10 +3539,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>5</v>
@@ -3502,10 +3550,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -3513,10 +3561,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
         <v>5</v>
@@ -3524,10 +3572,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>5</v>
@@ -3535,10 +3583,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C21" t="s">
         <v>5</v>
@@ -3546,10 +3594,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>5</v>
@@ -3557,10 +3605,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>5</v>
@@ -3568,10 +3616,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -3579,10 +3627,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
         <v>44</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
       </c>
       <c r="C25" t="s">
         <v>5</v>
@@ -3590,10 +3638,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
@@ -3601,10 +3649,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -3612,10 +3660,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
         <v>5</v>
@@ -3623,10 +3671,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C29" t="s">
         <v>5</v>
@@ -3634,10 +3682,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" t="s">
         <v>52</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -3645,7 +3693,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B31" t="s">
         <v>54</v>
@@ -3656,10 +3704,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
         <v>5</v>
@@ -3667,10 +3715,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -3678,10 +3726,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C34" t="s">
         <v>5</v>
@@ -3689,10 +3737,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
         <v>5</v>
@@ -3700,10 +3748,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B36" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -3711,10 +3759,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -3722,10 +3770,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -3733,10 +3781,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -3744,10 +3792,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -3755,10 +3803,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -3766,10 +3814,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
         <v>5</v>
@@ -3777,10 +3825,10 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B43" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="C43" t="s">
         <v>5</v>
@@ -3788,10 +3836,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
         <v>5</v>
@@ -3799,10 +3847,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="C45" t="s">
         <v>5</v>
@@ -3810,10 +3858,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" t="s">
         <v>76</v>
-      </c>
-      <c r="B46" t="s">
-        <v>77</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -3821,10 +3869,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C47" t="s">
         <v>5</v>
@@ -3832,10 +3880,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>50</v>
       </c>
       <c r="C48" t="s">
         <v>5</v>
@@ -3843,10 +3891,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -3854,10 +3902,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="C50" t="s">
         <v>5</v>
@@ -3865,10 +3913,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
       <c r="C51" t="s">
         <v>5</v>
@@ -3876,10 +3924,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C52" t="s">
         <v>5</v>
@@ -3887,10 +3935,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>44</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -3898,10 +3946,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="B54" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C54" t="s">
         <v>5</v>
@@ -3909,10 +3957,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="B55" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
         <v>5</v>
@@ -3920,10 +3968,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -3931,10 +3979,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="C57" t="s">
         <v>5</v>
@@ -3942,10 +3990,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="B58" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C58" t="s">
         <v>5</v>
@@ -3953,10 +4001,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="B59" t="s">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -3964,10 +4012,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>104</v>
       </c>
       <c r="C60" t="s">
         <v>5</v>
@@ -3975,10 +4023,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B61" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="C61" t="s">
         <v>5</v>
@@ -3986,10 +4034,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="B62" t="s">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -3997,10 +4045,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="B63" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="C63" t="s">
         <v>5</v>
@@ -4008,10 +4056,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="B64" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="C64" t="s">
         <v>5</v>
@@ -4019,10 +4067,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="B65" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="C65" t="s">
         <v>5</v>
@@ -4030,10 +4078,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="B66" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -4041,10 +4089,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="B67" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="C67" t="s">
         <v>5</v>
@@ -4052,10 +4100,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B68" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="C68" t="s">
         <v>5</v>
@@ -4063,10 +4111,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B69" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C69" t="s">
         <v>5</v>
@@ -4074,10 +4122,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="B70" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C70" t="s">
         <v>5</v>
@@ -4085,10 +4133,10 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="C71" t="s">
         <v>5</v>
@@ -4096,10 +4144,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B72" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
         <v>5</v>
@@ -4107,10 +4155,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="B73" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C73" t="s">
         <v>5</v>
@@ -4118,10 +4166,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B74" t="s">
-        <v>119</v>
+        <v>64</v>
       </c>
       <c r="C74" t="s">
         <v>5</v>
@@ -4129,10 +4177,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="B75" t="s">
-        <v>11</v>
+        <v>126</v>
       </c>
       <c r="C75" t="s">
         <v>5</v>
@@ -4140,10 +4188,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>60</v>
       </c>
       <c r="C76" t="s">
         <v>5</v>
@@ -4151,10 +4199,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B77" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="C77" t="s">
         <v>5</v>
@@ -4162,10 +4210,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
       <c r="C78" t="s">
         <v>5</v>
@@ -4173,10 +4221,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="C79" t="s">
         <v>5</v>
@@ -4184,10 +4232,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B80" t="s">
-        <v>66</v>
+        <v>41</v>
       </c>
       <c r="C80" t="s">
         <v>5</v>
@@ -4195,10 +4243,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C81" t="s">
         <v>5</v>
@@ -4206,10 +4254,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B82" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="C82" t="s">
         <v>5</v>
@@ -4217,10 +4265,10 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B83" t="s">
-        <v>48</v>
+        <v>136</v>
       </c>
       <c r="C83" t="s">
         <v>5</v>
@@ -4228,10 +4276,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="B84" t="s">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="C84" t="s">
         <v>5</v>
@@ -4239,10 +4287,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B85" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="C85" t="s">
         <v>5</v>
@@ -4250,10 +4298,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B86" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C86" t="s">
         <v>5</v>
@@ -4261,10 +4309,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B87" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="C87" t="s">
         <v>5</v>
@@ -4272,7 +4320,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B88" t="s">
         <v>140</v>
@@ -4283,10 +4331,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="B89" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="C89" t="s">
         <v>5</v>
@@ -4294,10 +4342,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="B90" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C90" t="s">
         <v>5</v>
@@ -4305,10 +4353,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B91" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
       <c r="C91" t="s">
         <v>5</v>
@@ -4316,10 +4364,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B92" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="C92" t="s">
         <v>5</v>
@@ -4327,10 +4375,10 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B93" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="C93" t="s">
         <v>5</v>
@@ -4338,10 +4386,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B94" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="C94" t="s">
         <v>5</v>
@@ -4349,10 +4397,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="B95" t="s">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="C95" t="s">
         <v>5</v>
@@ -4360,10 +4408,10 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B96" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C96" t="s">
         <v>5</v>
@@ -4371,10 +4419,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="B97" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -4382,10 +4430,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B98" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="C98" t="s">
         <v>5</v>
@@ -4393,10 +4441,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B99" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C99" t="s">
         <v>5</v>
@@ -4404,10 +4452,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B100" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="C100" t="s">
         <v>5</v>
@@ -4415,10 +4463,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B101" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C101" t="s">
         <v>5</v>
@@ -4426,10 +4474,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B102" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="C102" t="s">
         <v>5</v>
@@ -4437,10 +4485,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B103" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -4448,10 +4496,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B104" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="C104" t="s">
         <v>5</v>
@@ -4459,10 +4507,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B105" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C105" t="s">
         <v>5</v>
@@ -4470,10 +4518,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B106" t="s">
-        <v>144</v>
+        <v>174</v>
       </c>
       <c r="C106" t="s">
         <v>5</v>
@@ -4481,10 +4529,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B107" t="s">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="C107" t="s">
         <v>5</v>
@@ -4492,10 +4540,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B108" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="C108" t="s">
         <v>5</v>
@@ -4503,10 +4551,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="B109" t="s">
-        <v>172</v>
+        <v>80</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -4514,10 +4562,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B110" t="s">
-        <v>138</v>
+        <v>180</v>
       </c>
       <c r="C110" t="s">
         <v>5</v>
@@ -4525,10 +4573,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B111" t="s">
-        <v>175</v>
+        <v>155</v>
       </c>
       <c r="C111" t="s">
         <v>5</v>
@@ -4536,10 +4584,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B112" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C112" t="s">
         <v>5</v>
@@ -4547,10 +4595,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B113" t="s">
-        <v>138</v>
+        <v>93</v>
       </c>
       <c r="C113" t="s">
         <v>5</v>
@@ -4558,10 +4606,10 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B114" t="s">
-        <v>165</v>
+        <v>52</v>
       </c>
       <c r="C114" t="s">
         <v>5</v>
@@ -4569,10 +4617,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B115" t="s">
-        <v>165</v>
+        <v>104</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -4580,10 +4628,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B116" t="s">
-        <v>165</v>
+        <v>187</v>
       </c>
       <c r="C116" t="s">
         <v>5</v>
@@ -4591,10 +4639,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B117" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -4602,10 +4650,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="B118" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -4613,10 +4661,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="B119" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -4624,10 +4672,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B120" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -4635,10 +4683,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="B121" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -4646,10 +4694,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B122" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -4657,10 +4705,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B123" t="s">
-        <v>159</v>
+        <v>109</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -4668,10 +4716,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B124" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -4679,10 +4727,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="B125" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -4690,10 +4738,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="B126" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -4701,10 +4749,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B127" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -4712,10 +4760,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="B128" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -4723,10 +4771,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B129" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -4734,10 +4782,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B130" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -4745,10 +4793,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="B131" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -4756,10 +4804,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B132" t="s">
-        <v>167</v>
+        <v>195</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -4767,10 +4815,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="B133" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -4778,10 +4826,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="B134" t="s">
-        <v>165</v>
+        <v>214</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -4789,10 +4837,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="B135" t="s">
-        <v>182</v>
+        <v>216</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -4800,10 +4848,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B136" t="s">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -4811,10 +4859,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B137" t="s">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -4822,10 +4870,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="B138" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -4833,10 +4881,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="B139" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -4844,10 +4892,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B140" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -4855,10 +4903,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B141" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -4866,10 +4914,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B142" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -4877,10 +4925,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B143" t="s">
-        <v>224</v>
+        <v>168</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -4888,10 +4936,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B144" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -4899,10 +4947,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B145" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -4910,10 +4958,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="B146" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -4921,10 +4969,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B147" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -4932,10 +4980,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="B148" t="s">
-        <v>230</v>
+        <v>197</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -4943,10 +4991,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B149" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -4954,10 +5002,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B150" t="s">
-        <v>237</v>
+        <v>195</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -4965,10 +5013,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B151" t="s">
-        <v>239</v>
+        <v>212</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -4979,7 +5027,7 @@
         <v>240</v>
       </c>
       <c r="B152" t="s">
-        <v>241</v>
+        <v>193</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -4987,10 +5035,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>241</v>
+      </c>
+      <c r="B153" t="s">
         <v>242</v>
-      </c>
-      <c r="B153" t="s">
-        <v>243</v>
       </c>
       <c r="C153" t="s">
         <v>5</v>
@@ -4998,10 +5046,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s">
+        <v>243</v>
+      </c>
+      <c r="B154" t="s">
         <v>244</v>
-      </c>
-      <c r="B154" t="s">
-        <v>245</v>
       </c>
       <c r="C154" t="s">
         <v>5</v>
@@ -5009,10 +5057,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s">
+        <v>245</v>
+      </c>
+      <c r="B155" t="s">
         <v>246</v>
-      </c>
-      <c r="B155" t="s">
-        <v>235</v>
       </c>
       <c r="C155" t="s">
         <v>5</v>
@@ -5034,7 +5082,7 @@
         <v>249</v>
       </c>
       <c r="B157" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="C157" t="s">
         <v>5</v>
@@ -5042,10 +5090,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B158" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C158" t="s">
         <v>5</v>
@@ -5053,10 +5101,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B159" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C159" t="s">
         <v>5</v>
@@ -5064,10 +5112,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B160" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C160" t="s">
         <v>5</v>
@@ -5075,10 +5123,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B161" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C161" t="s">
         <v>5</v>
@@ -5086,10 +5134,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="B162" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="C162" t="s">
         <v>5</v>
@@ -5097,10 +5145,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B163" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C163" t="s">
         <v>5</v>
@@ -5108,7 +5156,7 @@
     </row>
     <row r="164">
       <c r="A164" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B164" t="s">
         <v>260</v>
@@ -5119,10 +5167,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B165" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="C165" t="s">
         <v>5</v>
@@ -5130,10 +5178,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B166" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C166" t="s">
         <v>5</v>
@@ -5141,10 +5189,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B167" t="s">
-        <v>161</v>
+        <v>269</v>
       </c>
       <c r="C167" t="s">
         <v>5</v>
@@ -5152,10 +5200,10 @@
     </row>
     <row r="168">
       <c r="A168" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B168" t="s">
-        <v>200</v>
+        <v>271</v>
       </c>
       <c r="C168" t="s">
         <v>5</v>
@@ -5163,10 +5211,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="B169" t="s">
-        <v>207</v>
+        <v>273</v>
       </c>
       <c r="C169" t="s">
         <v>5</v>
@@ -5174,10 +5222,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="B170" t="s">
-        <v>136</v>
+        <v>275</v>
       </c>
       <c r="C170" t="s">
         <v>5</v>
@@ -5185,10 +5233,10 @@
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B171" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C171" t="s">
         <v>5</v>
@@ -5196,10 +5244,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="B172" t="s">
-        <v>222</v>
+        <v>278</v>
       </c>
       <c r="C172" t="s">
         <v>5</v>
@@ -5207,10 +5255,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B173" t="s">
-        <v>218</v>
+        <v>275</v>
       </c>
       <c r="C173" t="s">
         <v>5</v>
@@ -5218,10 +5266,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B174" t="s">
-        <v>226</v>
+        <v>275</v>
       </c>
       <c r="C174" t="s">
         <v>5</v>
@@ -5229,10 +5277,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B175" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="C175" t="s">
         <v>5</v>
@@ -5240,10 +5288,10 @@
     </row>
     <row r="176">
       <c r="A176" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="B176" t="s">
-        <v>214</v>
+        <v>284</v>
       </c>
       <c r="C176" t="s">
         <v>5</v>
@@ -5251,10 +5299,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B177" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="C177" t="s">
         <v>5</v>
@@ -5262,10 +5310,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
       <c r="B178" t="s">
-        <v>278</v>
+        <v>250</v>
       </c>
       <c r="C178" t="s">
         <v>5</v>
@@ -5273,10 +5321,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B179" t="s">
-        <v>224</v>
+        <v>288</v>
       </c>
       <c r="C179" t="s">
         <v>5</v>
@@ -5284,10 +5332,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B180" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="C180" t="s">
         <v>5</v>
@@ -5295,10 +5343,10 @@
     </row>
     <row r="181">
       <c r="A181" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="B181" t="s">
-        <v>222</v>
+        <v>260</v>
       </c>
       <c r="C181" t="s">
         <v>5</v>
@@ -5306,10 +5354,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B182" t="s">
-        <v>214</v>
+        <v>293</v>
       </c>
       <c r="C182" t="s">
         <v>5</v>
@@ -5317,10 +5365,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
       <c r="B183" t="s">
-        <v>284</v>
+        <v>191</v>
       </c>
       <c r="C183" t="s">
         <v>5</v>
@@ -5328,10 +5376,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B184" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="C184" t="s">
         <v>5</v>
@@ -5339,10 +5387,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B185" t="s">
-        <v>288</v>
+        <v>237</v>
       </c>
       <c r="C185" t="s">
         <v>5</v>
@@ -5350,10 +5398,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B186" t="s">
-        <v>290</v>
+        <v>166</v>
       </c>
       <c r="C186" t="s">
         <v>5</v>
@@ -5361,10 +5409,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s">
-        <v>291</v>
+        <v>298</v>
       </c>
       <c r="B187" t="s">
-        <v>224</v>
+        <v>299</v>
       </c>
       <c r="C187" t="s">
         <v>5</v>
@@ -5372,10 +5420,10 @@
     </row>
     <row r="188">
       <c r="A188" t="s">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B188" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="C188" t="s">
         <v>5</v>
@@ -5383,10 +5431,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="B189" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="C189" t="s">
         <v>5</v>
@@ -5394,10 +5442,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B190" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
       <c r="C190" t="s">
         <v>5</v>
@@ -5405,10 +5453,10 @@
     </row>
     <row r="191">
       <c r="A191" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="B191" t="s">
-        <v>232</v>
+        <v>258</v>
       </c>
       <c r="C191" t="s">
         <v>5</v>
@@ -5416,10 +5464,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="B192" t="s">
-        <v>297</v>
+        <v>244</v>
       </c>
       <c r="C192" t="s">
         <v>5</v>
@@ -5427,10 +5475,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s">
-        <v>298</v>
+        <v>305</v>
       </c>
       <c r="B193" t="s">
-        <v>161</v>
+        <v>306</v>
       </c>
       <c r="C193" t="s">
         <v>5</v>
@@ -5438,10 +5486,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s">
-        <v>299</v>
+        <v>307</v>
       </c>
       <c r="B194" t="s">
-        <v>216</v>
+        <v>308</v>
       </c>
       <c r="C194" t="s">
         <v>5</v>
@@ -5449,10 +5497,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B195" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="C195" t="s">
         <v>5</v>
@@ -5460,10 +5508,10 @@
     </row>
     <row r="196">
       <c r="A196" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B196" t="s">
-        <v>230</v>
+        <v>282</v>
       </c>
       <c r="C196" t="s">
         <v>5</v>
@@ -5471,10 +5519,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B197" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="C197" t="s">
         <v>5</v>
@@ -5482,10 +5530,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B198" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
       <c r="C198" t="s">
         <v>5</v>
@@ -5493,10 +5541,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="B199" t="s">
-        <v>288</v>
+        <v>314</v>
       </c>
       <c r="C199" t="s">
         <v>5</v>
@@ -5504,10 +5552,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="B200" t="s">
-        <v>222</v>
+        <v>316</v>
       </c>
       <c r="C200" t="s">
         <v>5</v>
@@ -5515,10 +5563,10 @@
     </row>
     <row r="201">
       <c r="A201" t="s">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="B201" t="s">
-        <v>230</v>
+        <v>318</v>
       </c>
       <c r="C201" t="s">
         <v>5</v>
@@ -5526,10 +5574,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="B202" t="s">
-        <v>216</v>
+        <v>320</v>
       </c>
       <c r="C202" t="s">
         <v>5</v>
@@ -5537,10 +5585,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="B203" t="s">
-        <v>309</v>
+        <v>254</v>
       </c>
       <c r="C203" t="s">
         <v>5</v>
@@ -5548,10 +5596,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="B204" t="s">
-        <v>263</v>
+        <v>308</v>
       </c>
       <c r="C204" t="s">
         <v>5</v>
@@ -5559,10 +5607,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="B205" t="s">
-        <v>312</v>
+        <v>246</v>
       </c>
       <c r="C205" t="s">
         <v>5</v>
@@ -5570,10 +5618,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s">
-        <v>313</v>
+        <v>324</v>
       </c>
       <c r="B206" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="C206" t="s">
         <v>5</v>
@@ -5581,10 +5629,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s">
-        <v>314</v>
+        <v>325</v>
       </c>
       <c r="B207" t="s">
-        <v>309</v>
+        <v>262</v>
       </c>
       <c r="C207" t="s">
         <v>5</v>
@@ -5592,10 +5640,10 @@
     </row>
     <row r="208">
       <c r="A208" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="B208" t="s">
-        <v>232</v>
+        <v>327</v>
       </c>
       <c r="C208" t="s">
         <v>5</v>
@@ -5603,10 +5651,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="B209" t="s">
-        <v>312</v>
+        <v>191</v>
       </c>
       <c r="C209" t="s">
         <v>5</v>
@@ -5614,10 +5662,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="B210" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="C210" t="s">
         <v>5</v>
@@ -5625,10 +5673,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B211" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="C211" t="s">
         <v>5</v>
@@ -5636,10 +5684,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="B212" t="s">
-        <v>297</v>
+        <v>260</v>
       </c>
       <c r="C212" t="s">
         <v>5</v>
@@ -5647,10 +5695,10 @@
     </row>
     <row r="213">
       <c r="A213" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B213" t="s">
-        <v>184</v>
+        <v>308</v>
       </c>
       <c r="C213" t="s">
         <v>5</v>
@@ -5658,10 +5706,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="B214" t="s">
-        <v>165</v>
+        <v>308</v>
       </c>
       <c r="C214" t="s">
         <v>5</v>
@@ -5669,10 +5717,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B215" t="s">
-        <v>207</v>
+        <v>318</v>
       </c>
       <c r="C215" t="s">
         <v>5</v>
@@ -5680,10 +5728,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="B216" t="s">
-        <v>324</v>
+        <v>252</v>
       </c>
       <c r="C216" t="s">
         <v>5</v>
@@ -5691,10 +5739,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s">
-        <v>325</v>
+        <v>336</v>
       </c>
       <c r="B217" t="s">
-        <v>324</v>
+        <v>260</v>
       </c>
       <c r="C217" t="s">
         <v>5</v>
@@ -5702,10 +5750,10 @@
     </row>
     <row r="218">
       <c r="A218" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="B218" t="s">
-        <v>167</v>
+        <v>246</v>
       </c>
       <c r="C218" t="s">
         <v>5</v>
@@ -5713,10 +5761,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s">
-        <v>327</v>
+        <v>338</v>
       </c>
       <c r="B219" t="s">
-        <v>186</v>
+        <v>339</v>
       </c>
       <c r="C219" t="s">
         <v>5</v>
@@ -5724,10 +5772,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="B220" t="s">
-        <v>163</v>
+        <v>293</v>
       </c>
       <c r="C220" t="s">
         <v>5</v>
@@ -5735,10 +5783,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="B221" t="s">
-        <v>161</v>
+        <v>342</v>
       </c>
       <c r="C221" t="s">
         <v>5</v>
@@ -5746,10 +5794,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s">
-        <v>330</v>
+        <v>343</v>
       </c>
       <c r="B222" t="s">
-        <v>212</v>
+        <v>306</v>
       </c>
       <c r="C222" t="s">
         <v>5</v>
@@ -5757,10 +5805,10 @@
     </row>
     <row r="223">
       <c r="A223" t="s">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="B223" t="s">
-        <v>269</v>
+        <v>339</v>
       </c>
       <c r="C223" t="s">
         <v>5</v>
@@ -5768,10 +5816,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s">
-        <v>332</v>
+        <v>345</v>
       </c>
       <c r="B224" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C224" t="s">
         <v>5</v>
@@ -5779,10 +5827,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B225" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="C225" t="s">
         <v>5</v>
@@ -5790,10 +5838,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s">
-        <v>334</v>
+        <v>347</v>
       </c>
       <c r="B226" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
       <c r="C226" t="s">
         <v>5</v>
@@ -5801,10 +5849,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s">
-        <v>335</v>
+        <v>348</v>
       </c>
       <c r="B227" t="s">
-        <v>336</v>
+        <v>293</v>
       </c>
       <c r="C227" t="s">
         <v>5</v>
@@ -5812,10 +5860,10 @@
     </row>
     <row r="228">
       <c r="A228" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="B228" t="s">
-        <v>193</v>
+        <v>327</v>
       </c>
       <c r="C228" t="s">
         <v>5</v>
@@ -5823,10 +5871,10 @@
     </row>
     <row r="229">
       <c r="A229" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="B229" t="s">
-        <v>188</v>
+        <v>214</v>
       </c>
       <c r="C229" t="s">
         <v>5</v>
@@ -5834,10 +5882,10 @@
     </row>
     <row r="230">
       <c r="A230" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="B230" t="s">
-        <v>324</v>
+        <v>195</v>
       </c>
       <c r="C230" t="s">
         <v>5</v>
@@ -5845,10 +5893,10 @@
     </row>
     <row r="231">
       <c r="A231" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="B231" t="s">
-        <v>136</v>
+        <v>237</v>
       </c>
       <c r="C231" t="s">
         <v>5</v>
@@ -5856,10 +5904,10 @@
     </row>
     <row r="232">
       <c r="A232" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="B232" t="s">
-        <v>138</v>
+        <v>354</v>
       </c>
       <c r="C232" t="s">
         <v>5</v>
@@ -5867,10 +5915,10 @@
     </row>
     <row r="233">
       <c r="A233" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="B233" t="s">
-        <v>48</v>
+        <v>354</v>
       </c>
       <c r="C233" t="s">
         <v>5</v>
@@ -5878,10 +5926,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="B234" t="s">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="C234" t="s">
         <v>5</v>
@@ -5889,10 +5937,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="B235" t="s">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="C235" t="s">
         <v>5</v>
@@ -5900,10 +5948,10 @@
     </row>
     <row r="236">
       <c r="A236" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="B236" t="s">
-        <v>79</v>
+        <v>193</v>
       </c>
       <c r="C236" t="s">
         <v>5</v>
@@ -5911,10 +5959,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
       <c r="B237" t="s">
-        <v>77</v>
+        <v>191</v>
       </c>
       <c r="C237" t="s">
         <v>5</v>
@@ -5922,10 +5970,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>347</v>
+        <v>360</v>
       </c>
       <c r="B238" t="s">
-        <v>48</v>
+        <v>242</v>
       </c>
       <c r="C238" t="s">
         <v>5</v>
@@ -5933,10 +5981,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s">
-        <v>348</v>
+        <v>361</v>
       </c>
       <c r="B239" t="s">
-        <v>40</v>
+        <v>299</v>
       </c>
       <c r="C239" t="s">
         <v>5</v>
@@ -5944,10 +5992,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s">
-        <v>349</v>
+        <v>362</v>
       </c>
       <c r="B240" t="s">
-        <v>46</v>
+        <v>293</v>
       </c>
       <c r="C240" t="s">
         <v>5</v>
@@ -5955,10 +6003,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="B241" t="s">
-        <v>142</v>
+        <v>339</v>
       </c>
       <c r="C241" t="s">
         <v>5</v>
@@ -5966,10 +6014,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="B242" t="s">
-        <v>69</v>
+        <v>306</v>
       </c>
       <c r="C242" t="s">
         <v>5</v>
@@ -5977,10 +6025,10 @@
     </row>
     <row r="243">
       <c r="A243" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
       <c r="B243" t="s">
-        <v>353</v>
+        <v>366</v>
       </c>
       <c r="C243" t="s">
         <v>5</v>
@@ -5988,10 +6036,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s">
-        <v>354</v>
+        <v>367</v>
       </c>
       <c r="B244" t="s">
-        <v>353</v>
+        <v>223</v>
       </c>
       <c r="C244" t="s">
         <v>5</v>
@@ -5999,10 +6047,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s">
-        <v>355</v>
+        <v>368</v>
       </c>
       <c r="B245" t="s">
-        <v>59</v>
+        <v>218</v>
       </c>
       <c r="C245" t="s">
         <v>5</v>
@@ -6010,10 +6058,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s">
-        <v>356</v>
+        <v>369</v>
       </c>
       <c r="B246" t="s">
-        <v>69</v>
+        <v>354</v>
       </c>
       <c r="C246" t="s">
         <v>5</v>
@@ -6021,10 +6069,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s">
-        <v>357</v>
+        <v>370</v>
       </c>
       <c r="B247" t="s">
-        <v>54</v>
+        <v>166</v>
       </c>
       <c r="C247" t="s">
         <v>5</v>
@@ -6032,10 +6080,10 @@
     </row>
     <row r="248">
       <c r="A248" t="s">
-        <v>358</v>
+        <v>371</v>
       </c>
       <c r="B248" t="s">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="C248" t="s">
         <v>5</v>
@@ -6043,10 +6091,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s">
-        <v>359</v>
+        <v>372</v>
       </c>
       <c r="B249" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C249" t="s">
         <v>5</v>
@@ -6054,10 +6102,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="B250" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="C250" t="s">
         <v>5</v>
@@ -6065,10 +6113,10 @@
     </row>
     <row r="251">
       <c r="A251" t="s">
-        <v>361</v>
+        <v>374</v>
       </c>
       <c r="B251" t="s">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="C251" t="s">
         <v>5</v>
@@ -6076,10 +6124,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s">
-        <v>362</v>
+        <v>375</v>
       </c>
       <c r="B252" t="s">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C252" t="s">
         <v>5</v>
@@ -6087,10 +6135,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s">
-        <v>363</v>
+        <v>376</v>
       </c>
       <c r="B253" t="s">
-        <v>77</v>
+        <v>107</v>
       </c>
       <c r="C253" t="s">
         <v>5</v>
@@ -6098,10 +6146,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s">
-        <v>364</v>
+        <v>377</v>
       </c>
       <c r="B254" t="s">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="C254" t="s">
         <v>5</v>
@@ -6109,10 +6157,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s">
-        <v>365</v>
+        <v>378</v>
       </c>
       <c r="B255" t="s">
-        <v>203</v>
+        <v>70</v>
       </c>
       <c r="C255" t="s">
         <v>5</v>
@@ -6120,10 +6168,10 @@
     </row>
     <row r="256">
       <c r="A256" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="B256" t="s">
-        <v>367</v>
+        <v>76</v>
       </c>
       <c r="C256" t="s">
         <v>5</v>
@@ -6131,10 +6179,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B257" t="s">
-        <v>276</v>
+        <v>172</v>
       </c>
       <c r="C257" t="s">
         <v>5</v>
@@ -6142,10 +6190,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="B258" t="s">
-        <v>276</v>
+        <v>99</v>
       </c>
       <c r="C258" t="s">
         <v>5</v>
@@ -6153,10 +6201,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="B259" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="C259" t="s">
         <v>5</v>
@@ -6164,10 +6212,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="B260" t="s">
-        <v>186</v>
+        <v>383</v>
       </c>
       <c r="C260" t="s">
         <v>5</v>
@@ -6175,10 +6223,10 @@
     </row>
     <row r="261">
       <c r="A261" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B261" t="s">
-        <v>374</v>
+        <v>89</v>
       </c>
       <c r="C261" t="s">
         <v>5</v>
@@ -6186,10 +6234,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s">
-        <v>375</v>
+        <v>386</v>
       </c>
       <c r="B262" t="s">
-        <v>163</v>
+        <v>99</v>
       </c>
       <c r="C262" t="s">
         <v>5</v>
@@ -6197,10 +6245,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s">
-        <v>376</v>
+        <v>387</v>
       </c>
       <c r="B263" t="s">
-        <v>374</v>
+        <v>84</v>
       </c>
       <c r="C263" t="s">
         <v>5</v>
@@ -6208,10 +6256,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s">
-        <v>377</v>
+        <v>388</v>
       </c>
       <c r="B264" t="s">
-        <v>336</v>
+        <v>80</v>
       </c>
       <c r="C264" t="s">
         <v>5</v>
@@ -6219,10 +6267,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s">
-        <v>378</v>
+        <v>389</v>
       </c>
       <c r="B265" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="C265" t="s">
         <v>5</v>
@@ -6230,10 +6278,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s">
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="B266" t="s">
-        <v>380</v>
+        <v>202</v>
       </c>
       <c r="C266" t="s">
         <v>5</v>
@@ -6241,10 +6289,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="B267" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="C267" t="s">
         <v>5</v>
@@ -6252,10 +6300,10 @@
     </row>
     <row r="268">
       <c r="A268" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B268" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="C268" t="s">
         <v>5</v>
@@ -6263,10 +6311,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="B269" t="s">
-        <v>186</v>
+        <v>107</v>
       </c>
       <c r="C269" t="s">
         <v>5</v>
@@ -6274,10 +6322,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B270" t="s">
-        <v>193</v>
+        <v>233</v>
       </c>
       <c r="C270" t="s">
         <v>5</v>
@@ -6285,10 +6333,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="B271" t="s">
-        <v>188</v>
+        <v>233</v>
       </c>
       <c r="C271" t="s">
         <v>5</v>
@@ -6296,10 +6344,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B272" t="s">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="C272" t="s">
         <v>5</v>
@@ -6307,10 +6355,10 @@
     </row>
     <row r="273">
       <c r="A273" t="s">
-        <v>387</v>
+        <v>398</v>
       </c>
       <c r="B273" t="s">
-        <v>157</v>
+        <v>306</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -6318,10 +6366,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s">
-        <v>388</v>
+        <v>399</v>
       </c>
       <c r="B274" t="s">
-        <v>175</v>
+        <v>306</v>
       </c>
       <c r="C274" t="s">
         <v>5</v>
@@ -6329,10 +6377,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s">
-        <v>389</v>
+        <v>400</v>
       </c>
       <c r="B275" t="s">
-        <v>390</v>
+        <v>401</v>
       </c>
       <c r="C275" t="s">
         <v>5</v>
@@ -6340,10 +6388,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="B276" t="s">
-        <v>390</v>
+        <v>216</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
@@ -6351,10 +6399,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s">
-        <v>392</v>
+        <v>403</v>
       </c>
       <c r="B277" t="s">
-        <v>175</v>
+        <v>404</v>
       </c>
       <c r="C277" t="s">
         <v>5</v>
@@ -6362,10 +6410,10 @@
     </row>
     <row r="278">
       <c r="A278" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="B278" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="C278" t="s">
         <v>5</v>
@@ -6373,10 +6421,10 @@
     </row>
     <row r="279">
       <c r="A279" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="B279" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="C279" t="s">
         <v>5</v>
@@ -6384,10 +6432,10 @@
     </row>
     <row r="280">
       <c r="A280" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B280" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -6395,10 +6443,10 @@
     </row>
     <row r="281">
       <c r="A281" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="B281" t="s">
-        <v>397</v>
+        <v>237</v>
       </c>
       <c r="C281" t="s">
         <v>5</v>
@@ -6406,10 +6454,10 @@
     </row>
     <row r="282">
       <c r="A282" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="B282" t="s">
-        <v>336</v>
+        <v>410</v>
       </c>
       <c r="C282" t="s">
         <v>5</v>
@@ -6417,10 +6465,10 @@
     </row>
     <row r="283">
       <c r="A283" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="B283" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="C283" t="s">
         <v>5</v>
@@ -6428,10 +6476,10 @@
     </row>
     <row r="284">
       <c r="A284" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B284" t="s">
-        <v>195</v>
+        <v>218</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -6439,10 +6487,10 @@
     </row>
     <row r="285">
       <c r="A285" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="B285" t="s">
-        <v>380</v>
+        <v>216</v>
       </c>
       <c r="C285" t="s">
         <v>5</v>
@@ -6450,10 +6498,10 @@
     </row>
     <row r="286">
       <c r="A286" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="B286" t="s">
-        <v>380</v>
+        <v>223</v>
       </c>
       <c r="C286" t="s">
         <v>5</v>
@@ -6461,10 +6509,10 @@
     </row>
     <row r="287">
       <c r="A287" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="B287" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -6472,10 +6520,10 @@
     </row>
     <row r="288">
       <c r="A288" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="B288" t="s">
-        <v>195</v>
+        <v>401</v>
       </c>
       <c r="C288" t="s">
         <v>5</v>
@@ -6483,10 +6531,10 @@
     </row>
     <row r="289">
       <c r="A289" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="B289" t="s">
-        <v>142</v>
+        <v>187</v>
       </c>
       <c r="C289" t="s">
         <v>5</v>
@@ -6494,10 +6542,10 @@
     </row>
     <row r="290">
       <c r="A290" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="B290" t="s">
-        <v>134</v>
+        <v>205</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -6505,10 +6553,10 @@
     </row>
     <row r="291">
       <c r="A291" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="B291" t="s">
-        <v>324</v>
+        <v>420</v>
       </c>
       <c r="C291" t="s">
         <v>5</v>
@@ -6516,10 +6564,10 @@
     </row>
     <row r="292">
       <c r="A292" t="s">
-        <v>408</v>
+        <v>421</v>
       </c>
       <c r="B292" t="s">
-        <v>142</v>
+        <v>420</v>
       </c>
       <c r="C292" t="s">
         <v>5</v>
@@ -6527,10 +6575,10 @@
     </row>
     <row r="293">
       <c r="A293" t="s">
-        <v>409</v>
+        <v>422</v>
       </c>
       <c r="B293" t="s">
-        <v>140</v>
+        <v>205</v>
       </c>
       <c r="C293" t="s">
         <v>5</v>
@@ -6538,10 +6586,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s">
-        <v>410</v>
+        <v>423</v>
       </c>
       <c r="B294" t="s">
-        <v>144</v>
+        <v>218</v>
       </c>
       <c r="C294" t="s">
         <v>5</v>
@@ -6549,10 +6597,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s">
-        <v>411</v>
+        <v>424</v>
       </c>
       <c r="B295" t="s">
-        <v>54</v>
+        <v>420</v>
       </c>
       <c r="C295" t="s">
         <v>5</v>
@@ -6560,10 +6608,10 @@
     </row>
     <row r="296">
       <c r="A296" t="s">
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="B296" t="s">
-        <v>50</v>
+        <v>404</v>
       </c>
       <c r="C296" t="s">
         <v>5</v>
@@ -6571,10 +6619,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s">
-        <v>413</v>
+        <v>426</v>
       </c>
       <c r="B297" t="s">
-        <v>28</v>
+        <v>427</v>
       </c>
       <c r="C297" t="s">
         <v>5</v>
@@ -6582,10 +6630,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s">
-        <v>414</v>
+        <v>428</v>
       </c>
       <c r="B298" t="s">
-        <v>125</v>
+        <v>366</v>
       </c>
       <c r="C298" t="s">
         <v>5</v>
@@ -6593,10 +6641,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s">
-        <v>415</v>
+        <v>429</v>
       </c>
       <c r="B299" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="C299" t="s">
         <v>5</v>
@@ -6604,10 +6652,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s">
-        <v>416</v>
+        <v>430</v>
       </c>
       <c r="B300" t="s">
-        <v>417</v>
+        <v>225</v>
       </c>
       <c r="C300" t="s">
         <v>5</v>
@@ -6615,10 +6663,10 @@
     </row>
     <row r="301">
       <c r="A301" t="s">
-        <v>418</v>
+        <v>431</v>
       </c>
       <c r="B301" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="C301" t="s">
         <v>5</v>
@@ -6626,10 +667